--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="192">
   <si>
     <t>Environment</t>
   </si>
@@ -489,12 +489,6 @@
     <t>DMX</t>
   </si>
   <si>
-    <t>sogo_suhayl</t>
-  </si>
-  <si>
-    <t>Canopus4sogosurvey</t>
-  </si>
-  <si>
     <t>https://research.zarca.com/static/Register/clientlogin.aspx</t>
   </si>
   <si>
@@ -504,24 +498,113 @@
     <t>SKIP</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Not able to click on Weight Middle element.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Image choice options not added in the survey</t>
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Sanity_TC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To send exe invite </t>
+  </si>
+  <si>
+    <t>survey should be distributed</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>Salutation;First Name</t>
+  </si>
+  <si>
+    <t>Mr;Sanket</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Reminder_EXE DP RA</t>
+  </si>
+  <si>
+    <t>Sanity_TC4</t>
+  </si>
+  <si>
+    <t>To send Platfrom Invite &amp; PF reminder</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>DMx PF DP invites</t>
+  </si>
+  <si>
+    <t>DP PF list [5 records]</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>DMx PF DP</t>
+  </si>
+  <si>
+    <t>Sanity_TC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send SMS invites and reminder </t>
+  </si>
+  <si>
+    <t>SMS numbers.xlsx</t>
+  </si>
+  <si>
+    <t>Sanity_TC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downloading SAP </t>
+  </si>
+  <si>
+    <t>survey should be downloaded</t>
+  </si>
+  <si>
+    <t>Sanity_TC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new list </t>
+  </si>
+  <si>
+    <t>sabiya_test</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>Invitation with EXE</t>
+  </si>
+  <si>
+    <t>Zarca EXE List [1036 records]</t>
+  </si>
+  <si>
+    <t>DP Password [1007 records]</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>Zarca DP EXE List.xlsx</t>
+  </si>
+  <si>
+    <t>Email Address;First Name;RB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,45 +632,12 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,23 +656,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -636,67 +671,13 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -743,12 +724,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -760,20 +756,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1064,8 +1054,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1105,9 +1095,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1146,15 +1136,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1190,10 +1180,10 @@
         <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1204,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -1224,32 +1214,32 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CN3"/>
+  <dimension ref="A1:CN8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:92" x14ac:dyDescent="0.25">
@@ -1553,8 +1543,8 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>159</v>
+      <c r="I2" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
@@ -1665,11 +1655,11 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>163</v>
+      <c r="I3" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
@@ -1834,6 +1824,600 @@
       <c r="CM3" s="6"/>
       <c r="CN3" s="6"/>
     </row>
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="14"/>
+      <c r="BM4" s="14"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="14"/>
+      <c r="BP4" s="14"/>
+      <c r="BQ4" s="14"/>
+      <c r="BR4" s="14"/>
+      <c r="BS4" s="14"/>
+      <c r="BT4" s="14"/>
+      <c r="BU4" s="14"/>
+      <c r="BV4" s="14"/>
+      <c r="BW4" s="14"/>
+      <c r="BX4" s="14"/>
+      <c r="BY4" s="14"/>
+      <c r="BZ4" s="14"/>
+      <c r="CA4" s="14"/>
+      <c r="CB4" s="14"/>
+      <c r="CC4" s="14"/>
+      <c r="CD4" s="14"/>
+      <c r="CE4" s="14"/>
+      <c r="CF4" s="14"/>
+      <c r="CG4" s="14"/>
+      <c r="CH4" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI4" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="CJ4" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="CK4" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="CL4" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="CM4" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="CN4" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="15"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="14"/>
+      <c r="BL5" s="14"/>
+      <c r="BM5" s="14"/>
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="14"/>
+      <c r="BP5" s="14"/>
+      <c r="BQ5" s="14"/>
+      <c r="BR5" s="14"/>
+      <c r="BS5" s="14"/>
+      <c r="BT5" s="14"/>
+      <c r="BU5" s="14"/>
+      <c r="BV5" s="14"/>
+      <c r="BW5" s="14"/>
+      <c r="BX5" s="14"/>
+      <c r="BY5" s="14"/>
+      <c r="BZ5" s="14"/>
+      <c r="CA5" s="14"/>
+      <c r="CB5" s="14"/>
+      <c r="CC5" s="14"/>
+      <c r="CD5" s="14"/>
+      <c r="CE5" s="14"/>
+      <c r="CF5" s="14"/>
+      <c r="CG5" s="14"/>
+      <c r="CH5" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI5" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="CJ5" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="CK5" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="CL5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="CM5" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="CN5" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="14"/>
+      <c r="BL6" s="14"/>
+      <c r="BM6" s="14"/>
+      <c r="BN6" s="14"/>
+      <c r="BO6" s="14"/>
+      <c r="BP6" s="14"/>
+      <c r="BQ6" s="14"/>
+      <c r="BR6" s="14"/>
+      <c r="BS6" s="14"/>
+      <c r="BT6" s="14"/>
+      <c r="BU6" s="14"/>
+      <c r="BV6" s="14"/>
+      <c r="BW6" s="14"/>
+      <c r="BX6" s="14"/>
+      <c r="BY6" s="14"/>
+      <c r="BZ6" s="14"/>
+      <c r="CA6" s="14"/>
+      <c r="CB6" s="14"/>
+      <c r="CC6" s="14"/>
+      <c r="CD6" s="14"/>
+      <c r="CE6" s="14"/>
+      <c r="CF6" s="14"/>
+      <c r="CG6" s="14"/>
+      <c r="CH6" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="CI6" s="15"/>
+      <c r="CJ6" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="CK6" s="15"/>
+      <c r="CL6" s="15"/>
+      <c r="CM6" s="15"/>
+      <c r="CN6" s="15"/>
+    </row>
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="14"/>
+      <c r="BO7" s="14"/>
+      <c r="BP7" s="14"/>
+      <c r="BQ7" s="14"/>
+      <c r="BR7" s="14"/>
+      <c r="BS7" s="14"/>
+      <c r="BT7" s="14"/>
+      <c r="BU7" s="14"/>
+      <c r="BV7" s="14"/>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14"/>
+      <c r="BY7" s="14"/>
+      <c r="BZ7" s="14"/>
+      <c r="CA7" s="14"/>
+      <c r="CB7" s="14"/>
+      <c r="CC7" s="14"/>
+      <c r="CD7" s="14"/>
+      <c r="CE7" s="14"/>
+      <c r="CF7" s="14"/>
+      <c r="CG7" s="14"/>
+      <c r="CH7" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI7" s="15"/>
+      <c r="CJ7" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="CK7" s="15"/>
+      <c r="CL7" s="15"/>
+      <c r="CM7" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="CN7" s="15"/>
+    </row>
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14"/>
+      <c r="BP8" s="14"/>
+      <c r="BQ8" s="14"/>
+      <c r="BR8" s="14"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="14"/>
+      <c r="BU8" s="14"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
+      <c r="CA8" s="14"/>
+      <c r="CB8" s="14"/>
+      <c r="CC8" s="14"/>
+      <c r="CD8" s="14"/>
+      <c r="CE8" s="14"/>
+      <c r="CF8" s="14"/>
+      <c r="CG8" s="14"/>
+      <c r="CH8" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI8" s="15"/>
+      <c r="CJ8" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="CK8" s="15"/>
+      <c r="CL8" s="15"/>
+      <c r="CM8" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="CN8" s="15"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7779E8D-2DBC-4499-868A-078FB6A1FC32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -13,8 +14,8 @@
     <sheet name="SmokeTC" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="201">
   <si>
     <t>Environment</t>
   </si>
@@ -495,9 +496,6 @@
     <t>gjoy_test</t>
   </si>
   <si>
-    <t xml:space="preserve"> Image choice options not added in the survey</t>
-  </si>
-  <si>
     <t>Sanity_TC3</t>
   </si>
   <si>
@@ -507,30 +505,12 @@
     <t>survey should be distributed</t>
   </si>
   <si>
-    <t>Salutation;First Name</t>
-  </si>
-  <si>
-    <t>Mr;Sanket</t>
-  </si>
-  <si>
-    <t>Salutation</t>
-  </si>
-  <si>
-    <t>Reminder_EXE DP RA</t>
-  </si>
-  <si>
     <t>Sanity_TC4</t>
   </si>
   <si>
     <t>To send Platfrom Invite &amp; PF reminder</t>
   </si>
   <si>
-    <t>DMx PF DP invites</t>
-  </si>
-  <si>
-    <t>DP PF list [5 records]</t>
-  </si>
-  <si>
     <t>FN</t>
   </si>
   <si>
@@ -567,15 +547,6 @@
     <t>Invitation with EXE</t>
   </si>
   <si>
-    <t>Zarca EXE List [1036 records]</t>
-  </si>
-  <si>
-    <t>DP Password [1007 records]</t>
-  </si>
-  <si>
-    <t>Full Name</t>
-  </si>
-  <si>
     <t>Test@1234</t>
   </si>
   <si>
@@ -597,33 +568,71 @@
     <t>Custom click here</t>
   </si>
   <si>
-    <t>switch of DP survey from 26th October</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
     <t>SKIP</t>
   </si>
   <si>
-    <t xml:space="preserve">  - 29-Jan-2021 13:20:09 not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Schedule Reminder Button not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> List Name not present on page.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Go To TrackSurvey not present on page.</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Extra column was added by the QA</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>Zarca EXE List [1035 records]</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Reminder with EXE</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Invitation with Platform</t>
+  </si>
+  <si>
+    <t>Zarca PF List [37 records]</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>DP Password 2021 [136 records]</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Data maintenance done</t>
+  </si>
+  <si>
+    <t>Getting something went wrong on sending reminder</t>
+  </si>
+  <si>
+    <t>List Name not present on page.</t>
+  </si>
+  <si>
+    <t>Reminder with Platform</t>
+  </si>
+  <si>
+    <t>script maintenance done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,20 +658,16 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,21 +697,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
       </patternFill>
@@ -719,6 +709,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -789,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -805,13 +801,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1092,7 +1087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1100,13 +1095,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1134,21 +1129,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1172,30 +1167,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1223,21 +1218,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1253,44 +1248,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019"/>
+    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO9"/>
+  <dimension ref="A1:CN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CB13" sqref="CB13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1547,31 +1542,28 @@
         <v>143</v>
       </c>
       <c r="CH1" s="9" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="CI1" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CJ1" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CK1" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CL1" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CM1" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CN1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="CO1" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:93">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1594,8 +1586,8 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>193</v>
+      <c r="I2" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
@@ -1682,9 +1674,8 @@
       <c r="CL2" s="6"/>
       <c r="CM2" s="6"/>
       <c r="CN2" s="6"/>
-      <c r="CO2" s="6"/>
     </row>
-    <row r="3" spans="1:93">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1708,10 +1699,10 @@
         <v>31</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
@@ -1875,14 +1866,13 @@
       <c r="CL3" s="6"/>
       <c r="CM3" s="6"/>
       <c r="CN3" s="6"/>
-      <c r="CO3" s="6"/>
     </row>
-    <row r="4" spans="1:93">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -1894,16 +1884,18 @@
         <v>154</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="11"/>
+        <v>159</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -1979,35 +1971,34 @@
       <c r="CE4" s="12"/>
       <c r="CF4" s="12"/>
       <c r="CG4" s="12"/>
-      <c r="CH4" s="12"/>
-      <c r="CI4" s="17">
-        <v>814</v>
-      </c>
-      <c r="CJ4" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="CK4" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="CL4" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="CM4" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="CN4" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="CO4" s="16" t="s">
-        <v>164</v>
+      <c r="CH4" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="CI4" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="CJ4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="CK4" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="CL4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="CM4" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="CN4" s="15" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:93">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -2019,16 +2010,18 @@
         <v>154</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" s="11"/>
+        <v>159</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>196</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -2104,32 +2097,31 @@
       <c r="CE5" s="12"/>
       <c r="CF5" s="12"/>
       <c r="CG5" s="12"/>
-      <c r="CH5" s="12"/>
-      <c r="CI5" s="17">
-        <v>216</v>
-      </c>
-      <c r="CJ5" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="CK5" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="CL5" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="CM5" s="13" t="s">
+      <c r="CH5" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="CI5" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="CJ5" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="CK5" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="CL5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="CN5" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="CO5" s="13" t="s">
-        <v>170</v>
+      <c r="CM5" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="CN5" s="16" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:93">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -2144,17 +2136,17 @@
         <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="11"/>
@@ -2231,22 +2223,21 @@
       <c r="CE6" s="12"/>
       <c r="CF6" s="12"/>
       <c r="CG6" s="12"/>
-      <c r="CH6" s="12"/>
-      <c r="CI6" s="17">
-        <v>260</v>
-      </c>
-      <c r="CJ6" s="13"/>
-      <c r="CK6" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="CL6" s="13"/>
-      <c r="CM6" s="13"/>
-      <c r="CN6" s="13"/>
-      <c r="CO6" s="13"/>
+      <c r="CH6" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
     </row>
-    <row r="7" spans="1:93">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -2261,16 +2252,18 @@
         <v>154</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="J7" s="11"/>
+        <v>184</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>196</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -2346,24 +2339,23 @@
       <c r="CE7" s="12"/>
       <c r="CF7" s="12"/>
       <c r="CG7" s="12"/>
-      <c r="CH7" s="12"/>
-      <c r="CI7" s="17">
-        <v>814</v>
-      </c>
-      <c r="CJ7" s="13"/>
-      <c r="CK7" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="CL7" s="13"/>
-      <c r="CM7" s="13"/>
-      <c r="CN7" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="CO7" s="13"/>
+      <c r="CH7" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="CN7" s="16"/>
     </row>
-    <row r="8" spans="1:93">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -2378,17 +2370,17 @@
         <v>154</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="11"/>
@@ -2465,24 +2457,23 @@
       <c r="CE8" s="12"/>
       <c r="CF8" s="12"/>
       <c r="CG8" s="12"/>
-      <c r="CH8" s="12"/>
-      <c r="CI8" s="17">
-        <v>814</v>
-      </c>
-      <c r="CJ8" s="13"/>
-      <c r="CK8" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="CL8" s="13"/>
-      <c r="CM8" s="13"/>
-      <c r="CN8" s="13" t="s">
+      <c r="CH8" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="CO8" s="13"/>
+      <c r="CI8" s="16"/>
+      <c r="CJ8" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="CK8" s="16"/>
+      <c r="CL8" s="16"/>
+      <c r="CM8" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="CN8" s="16"/>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -2497,15 +2488,15 @@
         <v>7</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2582,34 +2573,31 @@
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
-      <c r="CH9" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="CI9" s="17">
-        <v>216</v>
+      <c r="CH9" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="CI9" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="CJ9" s="13" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="CK9" s="13" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="CL9" s="13" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="CM9" s="13" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="CN9" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="CO9" s="13" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7779E8D-2DBC-4499-868A-078FB6A1FC32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8DF689-C59D-4418-B08A-F23AC5B23A00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,18 +496,12 @@
     <t>gjoy_test</t>
   </si>
   <si>
-    <t>Sanity_TC3</t>
-  </si>
-  <si>
     <t xml:space="preserve">To send exe invite </t>
   </si>
   <si>
     <t>survey should be distributed</t>
   </si>
   <si>
-    <t>Sanity_TC4</t>
-  </si>
-  <si>
     <t>To send Platfrom Invite &amp; PF reminder</t>
   </si>
   <si>
@@ -517,27 +511,18 @@
     <t>DMx PF DP</t>
   </si>
   <si>
-    <t>Sanity_TC5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Send SMS invites and reminder </t>
   </si>
   <si>
     <t>SMS numbers.xlsx</t>
   </si>
   <si>
-    <t>Sanity_TC6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Downloading SAP </t>
   </si>
   <si>
     <t>survey should be downloaded</t>
   </si>
   <si>
-    <t>Sanity_TC7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create new list </t>
   </si>
   <si>
@@ -556,9 +541,6 @@
     <t>Email Address;First Name;RB</t>
   </si>
   <si>
-    <t>Sanity_TC8</t>
-  </si>
-  <si>
     <t>Send Test Invites</t>
   </si>
   <si>
@@ -626,13 +608,31 @@
   </si>
   <si>
     <t>script maintenance done</t>
+  </si>
+  <si>
+    <t>Smoke_TC3</t>
+  </si>
+  <si>
+    <t>Smoke_TC4</t>
+  </si>
+  <si>
+    <t>Smoke_TC5</t>
+  </si>
+  <si>
+    <t>Smoke_TC6</t>
+  </si>
+  <si>
+    <t>Smoke_TC7</t>
+  </si>
+  <si>
+    <t>Smoke_TC8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +665,12 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1223,10 +1229,10 @@
         <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1260,7 +1266,7 @@
   <dimension ref="A1:CN9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1593,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
@@ -1699,10 +1705,10 @@
         <v>31</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
@@ -1869,7 +1875,7 @@
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1884,17 +1890,17 @@
         <v>154</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="11"/>
@@ -1972,30 +1978,30 @@
       <c r="CF4" s="12"/>
       <c r="CG4" s="12"/>
       <c r="CH4" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="CI4" s="14" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="CJ4" s="17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="CK4" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="CL4" s="16" t="s">
         <v>17</v>
       </c>
       <c r="CM4" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="CN4" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -2010,17 +2016,17 @@
         <v>154</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="11"/>
@@ -2098,30 +2104,30 @@
       <c r="CF5" s="12"/>
       <c r="CG5" s="12"/>
       <c r="CH5" s="16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="CI5" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="CJ5" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="CK5" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="CL5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="CM5" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="CN5" s="16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -2136,17 +2142,17 @@
         <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="11"/>
@@ -2224,11 +2230,11 @@
       <c r="CF6" s="12"/>
       <c r="CG6" s="12"/>
       <c r="CH6" s="16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="CI6" s="16"/>
       <c r="CJ6" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="CK6" s="16"/>
       <c r="CL6" s="16"/>
@@ -2237,7 +2243,7 @@
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -2252,17 +2258,17 @@
         <v>154</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="11"/>
@@ -2340,22 +2346,22 @@
       <c r="CF7" s="12"/>
       <c r="CG7" s="12"/>
       <c r="CH7" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="CI7" s="16"/>
       <c r="CJ7" s="16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="CK7" s="16"/>
       <c r="CL7" s="16"/>
       <c r="CM7" s="16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="CN7" s="16"/>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -2370,17 +2376,17 @@
         <v>154</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="11"/>
@@ -2458,22 +2464,22 @@
       <c r="CF8" s="12"/>
       <c r="CG8" s="12"/>
       <c r="CH8" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="CI8" s="16"/>
       <c r="CJ8" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="CK8" s="16"/>
       <c r="CL8" s="16"/>
       <c r="CM8" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="CN8" s="16"/>
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -2488,15 +2494,15 @@
         <v>7</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2574,28 +2580,29 @@
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="CI9" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="CJ9" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="CK9" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="CL9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="CM9" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="CN9" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8DF689-C59D-4418-B08A-F23AC5B23A00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C955E97E-F856-41B5-9A17-096AE4D15A07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="228">
   <si>
     <t>Environment</t>
   </si>
@@ -626,13 +626,131 @@
   </si>
   <si>
     <t>Smoke_TC8</t>
+  </si>
+  <si>
+    <t>Smoke_TC9</t>
+  </si>
+  <si>
+    <t>RMX</t>
+  </si>
+  <si>
+    <t>Omni report</t>
+  </si>
+  <si>
+    <t>1. Click on Slideshow icon, it will open in new i-Frame. Click on Email, enter given email id in To field and then send the email.
+2. Click on Save button and save the report named as OMNI DP Today's Date
+3. Click on Add report to canvas
+4. Export omni report
+"5. Click on email report. Enter report title as 'OMNI DP Today's date'.
+Enter given email ID in To field, click on continue and sent the email report."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMNI DP  - </t>
+  </si>
+  <si>
+    <t>Smoke_TC10</t>
+  </si>
+  <si>
+    <t>Advance frequency report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Click on Frequency button and select 'Advance Frequency' report in drop down
+2. Select All Questions on Survey Questions page and click on Continue.
+3. Reorder the questions on Reorder Question page and then click on Continue.
+4. Check Display reports with data tables, Display Question Numbers, Display Weighted Score/Average for Rating Questions on Properties page and then click on Continue
+5. Click on Generate button on Data Sources and Filters page.
+6. Click on Slideshow icon, it will open in new i-Frame. Click on Email, enter given email id in To field and then send the email.
+7. Click on Save button and save the report named as 'Advance Freq DP Today's Date'
+8. Click on Download button to export the report.
+"9. Click on email report. Enter report title as 'Adv freq DP Today's date'.
+Enter given email ID in To field, click on continue and sent the email report."
+</t>
+  </si>
+  <si>
+    <t>Advance Freq DP</t>
+  </si>
+  <si>
+    <t>Smoke_TC11</t>
+  </si>
+  <si>
+    <t>Individual report</t>
+  </si>
+  <si>
+    <t>1. Click on Raw Data button and select 'Individual' report in drop down
+2. Select All Questions on Survey Questions page and click on Continue.
+3. Click on Continue button on Select Report Properties page.
+4. Click on Generate on Select Filter page.
+5. Click on Download button to export the report.
+6. Click on Save button and save the report named as 'Individual DP Today's Date'
+"7. Click on email report. Enter report title as 'Individual DP Today's date'.
+Enter given email ID in To field, click on continue and sent the email report."</t>
+  </si>
+  <si>
+    <t>Individual DP</t>
+  </si>
+  <si>
+    <t>Smoke_TC12</t>
+  </si>
+  <si>
+    <t>Response table report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on Raw Data button and select 'Response table' report in drop down
+2. Select All Questions on Survey Questions page and click on Continue.
+3. Click on Continue button on Select Report Properties page.
+4. Click on Generate on Select Filter page.
+5. Click on Download button to export the report.
+6. Click on Save button and save the report named as 'Response table DP Today's Date'
+"7. Click on email report. Enter report title as 'Response table DP Today's date'.
+Enter given email ID in To field, click on continue and sent the email report."
+</t>
+  </si>
+  <si>
+    <t>Response table DP</t>
+  </si>
+  <si>
+    <t>Smoke_TC13</t>
+  </si>
+  <si>
+    <t>Segmentation report</t>
+  </si>
+  <si>
+    <t>1. Click on Segementation button.
+2. Select Q.1 as segment question. Once the question is selected, select all answer options in same question. Click on Continue
+3. Select All Questions on Survey Questions page and click on Continue.
+4. Check Display reports with data tables, Display Question Numbers, Display Weighted Score/Average for Rating Questions on Properties page and then click on Continue
+5. Click on Continue on 'Comparison Segment Data'
+6. Click on Continue on Customize Cover Page.
+7. Enter the given email id in To field, check All segment reports as multiple Word documents in a zipped file, Individual segment report in separate Word document anf then click on Generate.</t>
+  </si>
+  <si>
+    <t>surveyTitle</t>
+  </si>
+  <si>
+    <t>DP Sid All QTypes</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jreddy_zarca</t>
+  </si>
+  <si>
+    <t>Jittu@123</t>
+  </si>
+  <si>
+    <t>Q3. rb rb rb rb rbrb rbrbrb rb rbrb rbrb rbrbrb?rbrbrbrb?rbrbrb?rbrbrbrbrb?rbrbrbrbrbrb?rb...</t>
+  </si>
+  <si>
+    <t>usayed@zarca.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +786,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -787,11 +912,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -813,10 +939,14 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{DBCCDBEC-8335-4827-BE95-197219DF83EE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1098,7 +1228,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1269,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,10 +1312,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,6 +1382,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -1263,10 +1407,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CN9"/>
+  <dimension ref="A1:CO14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1435,7 @@
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1568,8 +1712,11 @@
       <c r="CN1" s="9" t="s">
         <v>150</v>
       </c>
+      <c r="CO1" s="9" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1680,8 +1827,9 @@
       <c r="CL2" s="6"/>
       <c r="CM2" s="6"/>
       <c r="CN2" s="6"/>
+      <c r="CO2" s="6"/>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1872,8 +2020,9 @@
       <c r="CL3" s="6"/>
       <c r="CM3" s="6"/>
       <c r="CN3" s="6"/>
+      <c r="CO3" s="6"/>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>195</v>
       </c>
@@ -1998,8 +2147,9 @@
       <c r="CN4" s="15" t="s">
         <v>183</v>
       </c>
+      <c r="CO4" s="15"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
@@ -2124,8 +2274,9 @@
       <c r="CN5" s="16" t="s">
         <v>193</v>
       </c>
+      <c r="CO5" s="16"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>197</v>
       </c>
@@ -2240,8 +2391,9 @@
       <c r="CL6" s="16"/>
       <c r="CM6" s="16"/>
       <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>198</v>
       </c>
@@ -2358,8 +2510,9 @@
         <v>189</v>
       </c>
       <c r="CN7" s="16"/>
+      <c r="CO7" s="16"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>199</v>
       </c>
@@ -2476,8 +2629,9 @@
         <v>171</v>
       </c>
       <c r="CN8" s="16"/>
+      <c r="CO8" s="16"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>200</v>
       </c>
@@ -2600,6 +2754,602 @@
       <c r="CN9" s="13" t="s">
         <v>161</v>
       </c>
+      <c r="CO9" s="13"/>
+    </row>
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="23"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="21"/>
+      <c r="BM10" s="21"/>
+      <c r="BN10" s="21"/>
+      <c r="BO10" s="21"/>
+      <c r="BP10" s="21"/>
+      <c r="BQ10" s="21"/>
+      <c r="BR10" s="21"/>
+      <c r="BS10" s="21"/>
+      <c r="BT10" s="21"/>
+      <c r="BU10" s="21"/>
+      <c r="BV10" s="21"/>
+      <c r="BW10" s="21"/>
+      <c r="BX10" s="21"/>
+      <c r="BY10" s="21"/>
+      <c r="BZ10" s="21"/>
+      <c r="CA10" s="21"/>
+      <c r="CB10" s="21"/>
+      <c r="CC10" s="21"/>
+      <c r="CD10" s="21"/>
+      <c r="CE10" s="21"/>
+      <c r="CF10" s="21"/>
+      <c r="CG10" s="21"/>
+      <c r="CH10" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="CI10" s="23"/>
+      <c r="CJ10" s="23"/>
+      <c r="CK10" s="23"/>
+      <c r="CL10" s="23"/>
+      <c r="CM10" s="23"/>
+      <c r="CN10" s="23"/>
+      <c r="CO10" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="23"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="21"/>
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="21"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="21"/>
+      <c r="BM11" s="21"/>
+      <c r="BN11" s="21"/>
+      <c r="BO11" s="21"/>
+      <c r="BP11" s="21"/>
+      <c r="BQ11" s="21"/>
+      <c r="BR11" s="21"/>
+      <c r="BS11" s="21"/>
+      <c r="BT11" s="21"/>
+      <c r="BU11" s="21"/>
+      <c r="BV11" s="21"/>
+      <c r="BW11" s="21"/>
+      <c r="BX11" s="21"/>
+      <c r="BY11" s="21"/>
+      <c r="BZ11" s="21"/>
+      <c r="CA11" s="21"/>
+      <c r="CB11" s="21"/>
+      <c r="CC11" s="21"/>
+      <c r="CD11" s="21"/>
+      <c r="CE11" s="21"/>
+      <c r="CF11" s="21"/>
+      <c r="CG11" s="21"/>
+      <c r="CH11" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="CI11" s="23"/>
+      <c r="CJ11" s="23"/>
+      <c r="CK11" s="23"/>
+      <c r="CL11" s="23"/>
+      <c r="CM11" s="23"/>
+      <c r="CN11" s="23"/>
+      <c r="CO11" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="23"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="21"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21"/>
+      <c r="BC12" s="21"/>
+      <c r="BD12" s="21"/>
+      <c r="BE12" s="23"/>
+      <c r="BF12" s="21"/>
+      <c r="BG12" s="21"/>
+      <c r="BH12" s="21"/>
+      <c r="BI12" s="21"/>
+      <c r="BJ12" s="21"/>
+      <c r="BK12" s="21"/>
+      <c r="BL12" s="21"/>
+      <c r="BM12" s="21"/>
+      <c r="BN12" s="21"/>
+      <c r="BO12" s="21"/>
+      <c r="BP12" s="21"/>
+      <c r="BQ12" s="21"/>
+      <c r="BR12" s="21"/>
+      <c r="BS12" s="21"/>
+      <c r="BT12" s="21"/>
+      <c r="BU12" s="21"/>
+      <c r="BV12" s="21"/>
+      <c r="BW12" s="21"/>
+      <c r="BX12" s="21"/>
+      <c r="BY12" s="21"/>
+      <c r="BZ12" s="21"/>
+      <c r="CA12" s="21"/>
+      <c r="CB12" s="21"/>
+      <c r="CC12" s="21"/>
+      <c r="CD12" s="21"/>
+      <c r="CE12" s="21"/>
+      <c r="CF12" s="21"/>
+      <c r="CG12" s="21"/>
+      <c r="CH12" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="CI12" s="23"/>
+      <c r="CJ12" s="23"/>
+      <c r="CK12" s="23"/>
+      <c r="CL12" s="23"/>
+      <c r="CM12" s="23"/>
+      <c r="CN12" s="23"/>
+      <c r="CO12" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="23"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="23"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="21"/>
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21"/>
+      <c r="BC13" s="21"/>
+      <c r="BD13" s="21"/>
+      <c r="BE13" s="23"/>
+      <c r="BF13" s="21"/>
+      <c r="BG13" s="21"/>
+      <c r="BH13" s="21"/>
+      <c r="BI13" s="21"/>
+      <c r="BJ13" s="21"/>
+      <c r="BK13" s="21"/>
+      <c r="BL13" s="21"/>
+      <c r="BM13" s="21"/>
+      <c r="BN13" s="21"/>
+      <c r="BO13" s="21"/>
+      <c r="BP13" s="21"/>
+      <c r="BQ13" s="21"/>
+      <c r="BR13" s="21"/>
+      <c r="BS13" s="21"/>
+      <c r="BT13" s="21"/>
+      <c r="BU13" s="21"/>
+      <c r="BV13" s="21"/>
+      <c r="BW13" s="21"/>
+      <c r="BX13" s="21"/>
+      <c r="BY13" s="21"/>
+      <c r="BZ13" s="21"/>
+      <c r="CA13" s="21"/>
+      <c r="CB13" s="21"/>
+      <c r="CC13" s="21"/>
+      <c r="CD13" s="21"/>
+      <c r="CE13" s="21"/>
+      <c r="CF13" s="21"/>
+      <c r="CG13" s="21"/>
+      <c r="CH13" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="CI13" s="23"/>
+      <c r="CJ13" s="23"/>
+      <c r="CK13" s="23"/>
+      <c r="CL13" s="23"/>
+      <c r="CM13" s="23"/>
+      <c r="CN13" s="23"/>
+      <c r="CO13" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="23"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="23"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="21"/>
+      <c r="BM14" s="21"/>
+      <c r="BN14" s="21"/>
+      <c r="BO14" s="21"/>
+      <c r="BP14" s="21"/>
+      <c r="BQ14" s="21"/>
+      <c r="BR14" s="21"/>
+      <c r="BS14" s="21"/>
+      <c r="BT14" s="21"/>
+      <c r="BU14" s="21"/>
+      <c r="BV14" s="21"/>
+      <c r="BW14" s="21"/>
+      <c r="BX14" s="21"/>
+      <c r="BY14" s="21"/>
+      <c r="BZ14" s="21"/>
+      <c r="CA14" s="21"/>
+      <c r="CB14" s="21"/>
+      <c r="CC14" s="21"/>
+      <c r="CD14" s="21"/>
+      <c r="CE14" s="21"/>
+      <c r="CF14" s="21"/>
+      <c r="CG14" s="21"/>
+      <c r="CH14" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="CI14" s="23"/>
+      <c r="CJ14" s="23"/>
+      <c r="CK14" s="23"/>
+      <c r="CL14" s="23"/>
+      <c r="CM14" s="23"/>
+      <c r="CN14" s="23"/>
+      <c r="CO14" s="23" t="s">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C955E97E-F856-41B5-9A17-096AE4D15A07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAD84EF-0C0B-4511-98C2-962986B505B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,10 +740,10 @@
     <t>Jittu@123</t>
   </si>
   <si>
-    <t>Q3. rb rb rb rb rbrb rbrbrb rb rbrb rbrb rbrbrb?rbrbrbrb?rbrbrb?rbrbrbrbrb?rbrbrbrbrbrb?rb...</t>
-  </si>
-  <si>
     <t>usayed@zarca.com</t>
+  </si>
+  <si>
+    <t>Q3. dd A drop-down list (also drop down menu or drop-down menu or drop menu or pull-down li...</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1410,7 @@
   <dimension ref="A1:CO14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,7 +2798,7 @@
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
@@ -2917,7 +2917,7 @@
       <c r="U11" s="23"/>
       <c r="V11" s="23"/>
       <c r="W11" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
@@ -3036,7 +3036,7 @@
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
@@ -3155,7 +3155,7 @@
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
       <c r="W13" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X13" s="23"/>
       <c r="Y13" s="23"/>
@@ -3261,7 +3261,7 @@
       <c r="J14" s="22"/>
       <c r="K14" s="21"/>
       <c r="L14" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="21"/>
@@ -3274,7 +3274,7 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4108DBD6-70A5-406E-B218-693087012E0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="SmokeTC" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+  <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="197">
   <si>
     <t>Environment</t>
   </si>
@@ -495,9 +496,6 @@
     <t>gjoy_test</t>
   </si>
   <si>
-    <t xml:space="preserve"> Image choice options not added in the survey</t>
-  </si>
-  <si>
     <t>Sanity_TC3</t>
   </si>
   <si>
@@ -525,9 +523,6 @@
     <t>To send Platfrom Invite &amp; PF reminder</t>
   </si>
   <si>
-    <t>DMx PF DP invites</t>
-  </si>
-  <si>
     <t>DP PF list [5 records]</t>
   </si>
   <si>
@@ -570,9 +565,6 @@
     <t>Zarca EXE List [1036 records]</t>
   </si>
   <si>
-    <t>DP Password [1007 records]</t>
-  </si>
-  <si>
     <t>Full Name</t>
   </si>
   <si>
@@ -616,14 +608,20 @@
   </si>
   <si>
     <t xml:space="preserve"> Go To TrackSurvey not present on page.</t>
+  </si>
+  <si>
+    <t>Invitation with Platform</t>
+  </si>
+  <si>
+    <t>DP Password 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +649,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -662,7 +665,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,6 +692,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -789,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -808,10 +821,12 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1092,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1100,13 +1115,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1134,21 +1149,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1172,14 +1187,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1187,7 +1202,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
@@ -1195,7 +1210,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1223,21 +1238,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1253,22 +1268,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019"/>
+    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CO9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CB13" sqref="CB13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
@@ -1290,7 +1305,7 @@
     <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1571,7 +1586,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:93">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1594,8 +1609,8 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>193</v>
+      <c r="I2" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
@@ -1684,12 +1699,12 @@
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
     </row>
-    <row r="3" spans="1:93">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1707,11 +1722,11 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>192</v>
+      <c r="I3" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
@@ -1877,12 +1892,12 @@
       <c r="CN3" s="6"/>
       <c r="CO3" s="6"/>
     </row>
-    <row r="4" spans="1:93">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -1894,14 +1909,14 @@
         <v>154</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>193</v>
+        <v>159</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="1"/>
@@ -1984,30 +1999,30 @@
         <v>814</v>
       </c>
       <c r="CJ4" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="CK4" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="CL4" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="CM4" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="CM4" s="13" t="s">
+      <c r="CN4" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="CN4" s="13" t="s">
+      <c r="CO4" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="CO4" s="16" t="s">
+    </row>
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="5" spans="1:93">
-      <c r="A5" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -2019,14 +2034,14 @@
         <v>154</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>193</v>
+        <v>159</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="1"/>
@@ -2109,27 +2124,27 @@
         <v>216</v>
       </c>
       <c r="CJ5" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK5" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="CL5" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="CK5" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="CL5" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="CM5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="CN5" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="CO5" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="CO5" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:93">
-      <c r="A6" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -2144,17 +2159,17 @@
         <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="11"/>
@@ -2237,16 +2252,16 @@
       </c>
       <c r="CJ6" s="13"/>
       <c r="CK6" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="CL6" s="13"/>
       <c r="CM6" s="13"/>
       <c r="CN6" s="13"/>
       <c r="CO6" s="13"/>
     </row>
-    <row r="7" spans="1:93">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -2261,14 +2276,14 @@
         <v>154</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>192</v>
+        <v>174</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="1"/>
@@ -2352,18 +2367,18 @@
       </c>
       <c r="CJ7" s="13"/>
       <c r="CK7" s="13" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="CL7" s="13"/>
       <c r="CM7" s="13"/>
       <c r="CN7" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="CO7" s="13"/>
     </row>
-    <row r="8" spans="1:93">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -2378,17 +2393,17 @@
         <v>154</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>192</v>
+        <v>174</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="11"/>
@@ -2471,21 +2486,21 @@
       </c>
       <c r="CJ8" s="13"/>
       <c r="CK8" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="CL8" s="13"/>
       <c r="CM8" s="13"/>
       <c r="CN8" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="CO8" s="13"/>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -2497,15 +2512,15 @@
         <v>7</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="19" t="s">
-        <v>192</v>
+      <c r="I9" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2583,33 +2598,33 @@
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="CI9" s="17">
         <v>216</v>
       </c>
       <c r="CJ9" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="CK9" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="CL9" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="CM9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="CN9" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="CO9" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E63EF-BD6C-47A7-BC0E-87E6239CFFD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7868980-A594-4059-9DF1-11B8786E5DF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="228">
   <si>
     <t>Environment</t>
   </si>
@@ -538,9 +538,6 @@
     <t>Zarca DP EXE List.xlsx</t>
   </si>
   <si>
-    <t>Email Address;First Name;RB</t>
-  </si>
-  <si>
     <t>Send Test Invites</t>
   </si>
   <si>
@@ -550,79 +547,46 @@
     <t>Custom click here</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>SKIP</t>
   </si>
   <si>
-    <t xml:space="preserve"> Go To TrackSurvey not present on page.</t>
+    <t>814</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Reminder with EXE</t>
+  </si>
+  <si>
+    <t>216</t>
   </si>
   <si>
     <t>Invitation with Platform</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Extra column was added by the QA</t>
+    <t>Zarca PF List [37 records]</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>Reminder with Platform</t>
   </si>
   <si>
     <t>Smoke_TC3</t>
   </si>
   <si>
-    <t>script maintenance done</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>Zarca EXE List [1035 records]</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>Reminder with EXE</t>
-  </si>
-  <si>
     <t>Smoke_TC4</t>
   </si>
   <si>
-    <t>Data maintenance done</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Zarca PF List [37 records]</t>
-  </si>
-  <si>
-    <t>Reminder with Platform</t>
-  </si>
-  <si>
     <t>Smoke_TC5</t>
   </si>
   <si>
-    <t>Getting something went wrong on sending reminder</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
     <t>Smoke_TC6</t>
   </si>
   <si>
-    <t>DP Password 2021 [136 records]</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Smoke_TC7</t>
-  </si>
-  <si>
-    <t>List Name not present on page.</t>
   </si>
   <si>
     <t>Smoke_TC8</t>
@@ -646,15 +610,6 @@
   </si>
   <si>
     <t xml:space="preserve">OMNI DP  - </t>
-  </si>
-  <si>
-    <t>usayed@zarca.com</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>DP Sid All QTypes</t>
   </si>
   <si>
     <t>Smoke_TC10</t>
@@ -734,17 +689,68 @@
 7. Enter the given email id in To field, check All segment reports as multiple Word documents in a zipped file, Individual segment report in separate Word document anf then click on Generate.</t>
   </si>
   <si>
+    <t>surveyTitle</t>
+  </si>
+  <si>
+    <t>DP Sid All QTypes</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jreddy_zarca</t>
+  </si>
+  <si>
+    <t>Jittu@123</t>
+  </si>
+  <si>
+    <t>usayed@zarca.com</t>
+  </si>
+  <si>
+    <t>Zarca EXE List [1037 records]</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>First Name;RB;Phone No.</t>
+  </si>
+  <si>
+    <t>Email Address;First Name;RB;Phone No.</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Smoke_TC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To send exe reminders </t>
+  </si>
+  <si>
     <t>Q3. dd A drop-down list (also drop down menu or drop-down menu or drop menu or pull-down li...</t>
   </si>
   <si>
-    <t>surveyTitle</t>
+    <t xml:space="preserve"> Not able to click on Download Excel All resonses element.</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mail merge not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schedule Reminder Button not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email Address not present on page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +773,18 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -774,13 +792,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,14 +816,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -811,13 +827,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -884,37 +930,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="5" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{60196E26-4BF0-46DF-8071-0B6FA90A02DB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{ECB58280-E035-4700-B6C5-EBB2AFA3BE58}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{DBCCDBEC-8335-4827-BE95-197219DF83EE}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{FEC75ED5-AAAD-4787-BCD9-2B41B463B0AE}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{B17FCFCB-194B-4C84-8A6E-5934535E7199}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1196,7 +1258,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1299,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1324,7 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1280,10 +1342,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,6 +1412,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -1361,10 +1437,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO14"/>
+  <dimension ref="A1:CO15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CF1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CR18" sqref="CR18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,170 +1580,170 @@
       <c r="AL1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BC1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BD1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BE1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BF1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BI1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BK1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BL1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BM1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BN1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BO1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BP1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BR1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BS1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BT1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BU1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BV1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BW1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BX1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="BY1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CA1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CB1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="CC1" s="6" t="s">
+      <c r="CC1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CD1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CE1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="CF1" s="6" t="s">
+      <c r="CF1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CG1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CH1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CI1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="CJ1" s="6" t="s">
+      <c r="CJ1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CK1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CL1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CM1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CN1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="CO1" s="6" t="s">
-        <v>225</v>
+      <c r="CO1" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
@@ -1693,15 +1769,15 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="J2" s="10"/>
+      <c r="I2" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1709,86 +1785,86 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
       <c r="AN2" s="1"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="11"/>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="11"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="11"/>
-      <c r="CB2" s="11"/>
-      <c r="CC2" s="11"/>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="11"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11"/>
-      <c r="CH2" s="11"/>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="11"/>
-      <c r="CL2" s="11"/>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="11"/>
-      <c r="CO2" s="11"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="6"/>
+      <c r="CN2" s="6"/>
+      <c r="CO2" s="6"/>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1806,15 +1882,13 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>180</v>
-      </c>
+      <c r="I3" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1822,163 +1896,163 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11" t="s">
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AU3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AV3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AW3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AX3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AY3" s="11" t="s">
+      <c r="AY3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="11" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="BA3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="BB3" s="11" t="s">
+      <c r="BB3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BC3" s="11" t="s">
+      <c r="BC3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BD3" s="11" t="s">
+      <c r="BD3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BE3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="BF3" s="11" t="s">
+      <c r="BF3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BG3" s="11" t="s">
+      <c r="BG3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="BH3" s="11" t="s">
+      <c r="BH3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="BI3" s="11" t="s">
+      <c r="BI3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="BJ3" s="11" t="s">
+      <c r="BJ3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="BK3" s="11" t="s">
+      <c r="BK3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BL3" s="11" t="s">
+      <c r="BL3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="BM3" s="11" t="s">
+      <c r="BM3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BN3" s="11" t="s">
+      <c r="BN3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BO3" s="11" t="s">
+      <c r="BO3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="11" t="s">
+      <c r="BP3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BQ3" s="11" t="s">
+      <c r="BQ3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BR3" s="11" t="s">
+      <c r="BR3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BS3" s="11" t="s">
+      <c r="BS3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BT3" s="11" t="s">
+      <c r="BT3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BU3" s="11" t="s">
+      <c r="BU3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BV3" s="11" t="s">
+      <c r="BV3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BW3" s="11" t="s">
+      <c r="BW3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BX3" s="11" t="s">
+      <c r="BX3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BY3" s="11" t="s">
+      <c r="BY3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BZ3" s="11" t="s">
+      <c r="BZ3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="CA3" s="11" t="s">
+      <c r="CA3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="CB3" s="11" t="s">
+      <c r="CB3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="CC3" s="11" t="s">
+      <c r="CC3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="CD3" s="11" t="s">
+      <c r="CD3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="CE3" s="11" t="s">
+      <c r="CE3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="CF3" s="11" t="s">
+      <c r="CF3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="CG3" s="11" t="s">
+      <c r="CG3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="CH3" s="11"/>
-      <c r="CI3" s="11"/>
-      <c r="CJ3" s="11"/>
-      <c r="CK3" s="11"/>
-      <c r="CL3" s="11"/>
-      <c r="CM3" s="11"/>
-      <c r="CN3" s="11"/>
-      <c r="CO3" s="11"/>
+      <c r="CH3" s="6"/>
+      <c r="CI3" s="6"/>
+      <c r="CJ3" s="6"/>
+      <c r="CK3" s="6"/>
+      <c r="CL3" s="6"/>
+      <c r="CM3" s="6"/>
+      <c r="CN3" s="6"/>
+      <c r="CO3" s="6"/>
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1999,15 +2073,15 @@
       <c r="H4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>182</v>
+      <c r="I4" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2015,100 +2089,100 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="11"/>
-      <c r="BR4" s="11"/>
-      <c r="BS4" s="11"/>
-      <c r="BT4" s="11"/>
-      <c r="BU4" s="11"/>
-      <c r="BV4" s="11"/>
-      <c r="BW4" s="11"/>
-      <c r="BX4" s="11"/>
-      <c r="BY4" s="11"/>
-      <c r="BZ4" s="11"/>
-      <c r="CA4" s="11"/>
-      <c r="CB4" s="11"/>
-      <c r="CC4" s="11"/>
-      <c r="CD4" s="11"/>
-      <c r="CE4" s="11"/>
-      <c r="CF4" s="11"/>
-      <c r="CG4" s="11"/>
-      <c r="CH4" s="12" t="s">
-        <v>183</v>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BN4" s="12"/>
+      <c r="BO4" s="12"/>
+      <c r="BP4" s="12"/>
+      <c r="BQ4" s="12"/>
+      <c r="BR4" s="12"/>
+      <c r="BS4" s="12"/>
+      <c r="BT4" s="12"/>
+      <c r="BU4" s="12"/>
+      <c r="BV4" s="12"/>
+      <c r="BW4" s="12"/>
+      <c r="BX4" s="12"/>
+      <c r="BY4" s="12"/>
+      <c r="BZ4" s="12"/>
+      <c r="CA4" s="12"/>
+      <c r="CB4" s="12"/>
+      <c r="CC4" s="12"/>
+      <c r="CD4" s="12"/>
+      <c r="CE4" s="12"/>
+      <c r="CF4" s="12"/>
+      <c r="CG4" s="12"/>
+      <c r="CH4" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="CI4" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="CJ4" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="CK4" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="CL4" s="12" t="s">
+      <c r="CJ4" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="CK4" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="CM4" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="CN4" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="CO4" s="8"/>
+      <c r="CM4" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="CN4" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="CO4" s="15"/>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -2126,15 +2200,15 @@
       <c r="H5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>188</v>
+      <c r="I5" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -2142,100 +2216,100 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="11"/>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="11"/>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="11"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="11"/>
-      <c r="BG5" s="11"/>
-      <c r="BH5" s="11"/>
-      <c r="BI5" s="11"/>
-      <c r="BJ5" s="11"/>
-      <c r="BK5" s="11"/>
-      <c r="BL5" s="11"/>
-      <c r="BM5" s="11"/>
-      <c r="BN5" s="11"/>
-      <c r="BO5" s="11"/>
-      <c r="BP5" s="11"/>
-      <c r="BQ5" s="11"/>
-      <c r="BR5" s="11"/>
-      <c r="BS5" s="11"/>
-      <c r="BT5" s="11"/>
-      <c r="BU5" s="11"/>
-      <c r="BV5" s="11"/>
-      <c r="BW5" s="11"/>
-      <c r="BX5" s="11"/>
-      <c r="BY5" s="11"/>
-      <c r="BZ5" s="11"/>
-      <c r="CA5" s="11"/>
-      <c r="CB5" s="11"/>
-      <c r="CC5" s="11"/>
-      <c r="CD5" s="11"/>
-      <c r="CE5" s="11"/>
-      <c r="CF5" s="11"/>
-      <c r="CG5" s="11"/>
-      <c r="CH5" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="CI5" s="12" t="s">
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12"/>
+      <c r="BN5" s="12"/>
+      <c r="BO5" s="12"/>
+      <c r="BP5" s="12"/>
+      <c r="BQ5" s="12"/>
+      <c r="BR5" s="12"/>
+      <c r="BS5" s="12"/>
+      <c r="BT5" s="12"/>
+      <c r="BU5" s="12"/>
+      <c r="BV5" s="12"/>
+      <c r="BW5" s="12"/>
+      <c r="BX5" s="12"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="CJ5" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="CK5" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="CL5" s="12" t="s">
+      <c r="CI5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="CJ5" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="CK5" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="CL5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="CM5" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="CN5" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="CO5" s="12"/>
+      <c r="CM5" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="CN5" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO5" s="16"/>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -2253,15 +2327,13 @@
       <c r="H6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>193</v>
-      </c>
+      <c r="I6" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J6" s="11"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -2269,90 +2341,90 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="11"/>
-      <c r="BA6" s="11"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="11"/>
-      <c r="BJ6" s="11"/>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="11"/>
-      <c r="BN6" s="11"/>
-      <c r="BO6" s="11"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="11"/>
-      <c r="BT6" s="11"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="11"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="11"/>
-      <c r="BY6" s="11"/>
-      <c r="BZ6" s="11"/>
-      <c r="CA6" s="11"/>
-      <c r="CB6" s="11"/>
-      <c r="CC6" s="11"/>
-      <c r="CD6" s="11"/>
-      <c r="CE6" s="11"/>
-      <c r="CF6" s="11"/>
-      <c r="CG6" s="11"/>
-      <c r="CH6" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="CI6" s="12"/>
-      <c r="CJ6" s="12" t="s">
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CC6" s="12"/>
+      <c r="CD6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CF6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CH6" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="CK6" s="12"/>
-      <c r="CL6" s="12"/>
-      <c r="CM6" s="12"/>
-      <c r="CN6" s="12"/>
-      <c r="CO6" s="12"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -2370,15 +2442,13 @@
       <c r="H7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>188</v>
-      </c>
+      <c r="I7" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -2386,92 +2456,92 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
       <c r="AN7" s="1"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
-      <c r="BL7" s="11"/>
-      <c r="BM7" s="11"/>
-      <c r="BN7" s="11"/>
-      <c r="BO7" s="11"/>
-      <c r="BP7" s="11"/>
-      <c r="BQ7" s="11"/>
-      <c r="BR7" s="11"/>
-      <c r="BS7" s="11"/>
-      <c r="BT7" s="11"/>
-      <c r="BU7" s="11"/>
-      <c r="BV7" s="11"/>
-      <c r="BW7" s="11"/>
-      <c r="BX7" s="11"/>
-      <c r="BY7" s="11"/>
-      <c r="BZ7" s="11"/>
-      <c r="CA7" s="11"/>
-      <c r="CB7" s="11"/>
-      <c r="CC7" s="11"/>
-      <c r="CD7" s="11"/>
-      <c r="CE7" s="11"/>
-      <c r="CF7" s="11"/>
-      <c r="CG7" s="11"/>
-      <c r="CH7" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="CI7" s="12"/>
-      <c r="CJ7" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="CK7" s="12"/>
-      <c r="CL7" s="12"/>
-      <c r="CM7" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="CN7" s="12"/>
-      <c r="CO7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="12"/>
+      <c r="BQ7" s="12"/>
+      <c r="BR7" s="12"/>
+      <c r="BS7" s="12"/>
+      <c r="BT7" s="12"/>
+      <c r="BU7" s="12"/>
+      <c r="BV7" s="12"/>
+      <c r="BW7" s="12"/>
+      <c r="BX7" s="12"/>
+      <c r="BY7" s="12"/>
+      <c r="BZ7" s="12"/>
+      <c r="CA7" s="12"/>
+      <c r="CB7" s="12"/>
+      <c r="CC7" s="12"/>
+      <c r="CD7" s="12"/>
+      <c r="CE7" s="12"/>
+      <c r="CF7" s="12"/>
+      <c r="CG7" s="12"/>
+      <c r="CH7" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="CN7" s="16"/>
+      <c r="CO7" s="16"/>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -2489,15 +2559,15 @@
       <c r="H8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>199</v>
+      <c r="I8" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -2505,89 +2575,89 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
       <c r="AN8" s="1"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="11"/>
-      <c r="BH8" s="11"/>
-      <c r="BI8" s="11"/>
-      <c r="BJ8" s="11"/>
-      <c r="BK8" s="11"/>
-      <c r="BL8" s="11"/>
-      <c r="BM8" s="11"/>
-      <c r="BN8" s="11"/>
-      <c r="BO8" s="11"/>
-      <c r="BP8" s="11"/>
-      <c r="BQ8" s="11"/>
-      <c r="BR8" s="11"/>
-      <c r="BS8" s="11"/>
-      <c r="BT8" s="11"/>
-      <c r="BU8" s="11"/>
-      <c r="BV8" s="11"/>
-      <c r="BW8" s="11"/>
-      <c r="BX8" s="11"/>
-      <c r="BY8" s="11"/>
-      <c r="BZ8" s="11"/>
-      <c r="CA8" s="11"/>
-      <c r="CB8" s="11"/>
-      <c r="CC8" s="11"/>
-      <c r="CD8" s="11"/>
-      <c r="CE8" s="11"/>
-      <c r="CF8" s="11"/>
-      <c r="CG8" s="11"/>
-      <c r="CH8" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="CI8" s="12"/>
-      <c r="CJ8" s="12" t="s">
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="12"/>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="12"/>
+      <c r="BQ8" s="12"/>
+      <c r="BR8" s="12"/>
+      <c r="BS8" s="12"/>
+      <c r="BT8" s="12"/>
+      <c r="BU8" s="12"/>
+      <c r="BV8" s="12"/>
+      <c r="BW8" s="12"/>
+      <c r="BX8" s="12"/>
+      <c r="BY8" s="12"/>
+      <c r="BZ8" s="12"/>
+      <c r="CA8" s="12"/>
+      <c r="CB8" s="12"/>
+      <c r="CC8" s="12"/>
+      <c r="CD8" s="12"/>
+      <c r="CE8" s="12"/>
+      <c r="CF8" s="12"/>
+      <c r="CG8" s="12"/>
+      <c r="CH8" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI8" s="16"/>
+      <c r="CJ8" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="CK8" s="12"/>
-      <c r="CL8" s="12"/>
-      <c r="CM8" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="CN8" s="12"/>
-      <c r="CO8" s="12"/>
+      <c r="CK8" s="16"/>
+      <c r="CL8" s="16"/>
+      <c r="CM8" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="CN8" s="16"/>
+      <c r="CO8" s="16"/>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -2601,17 +2671,15 @@
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>172</v>
+      <c r="F9" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="I9" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2687,627 +2755,755 @@
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
-      <c r="CH9" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="CI9" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="CJ9" s="12" t="s">
+      <c r="CH9" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="CI9" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="CK9" s="12" t="s">
+      <c r="CJ9" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="CK9" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="CL9" s="12" t="s">
+      <c r="CL9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="CM9" s="12" t="s">
+      <c r="CM9" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="CN9" s="12" t="s">
+      <c r="CN9" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="CO9" s="12"/>
+      <c r="CO9" s="13"/>
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="13" t="s">
-        <v>179</v>
+      <c r="E10" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="19"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="17"/>
-      <c r="BI10" s="17"/>
-      <c r="BJ10" s="17"/>
-      <c r="BK10" s="17"/>
-      <c r="BL10" s="17"/>
-      <c r="BM10" s="17"/>
-      <c r="BN10" s="17"/>
-      <c r="BO10" s="17"/>
-      <c r="BP10" s="17"/>
-      <c r="BQ10" s="17"/>
-      <c r="BR10" s="17"/>
-      <c r="BS10" s="17"/>
-      <c r="BT10" s="17"/>
-      <c r="BU10" s="17"/>
-      <c r="BV10" s="17"/>
-      <c r="BW10" s="17"/>
-      <c r="BX10" s="17"/>
-      <c r="BY10" s="17"/>
-      <c r="BZ10" s="17"/>
-      <c r="CA10" s="17"/>
-      <c r="CB10" s="17"/>
-      <c r="CC10" s="17"/>
-      <c r="CD10" s="17"/>
-      <c r="CE10" s="17"/>
-      <c r="CF10" s="17"/>
-      <c r="CG10" s="17"/>
-      <c r="CH10" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CI10" s="19"/>
-      <c r="CJ10" s="19"/>
-      <c r="CK10" s="19"/>
-      <c r="CL10" s="19"/>
-      <c r="CM10" s="19"/>
-      <c r="CN10" s="19"/>
-      <c r="CO10" s="19" t="s">
-        <v>208</v>
+      <c r="K10" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="18"/>
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="18"/>
+      <c r="BI10" s="18"/>
+      <c r="BJ10" s="18"/>
+      <c r="BK10" s="18"/>
+      <c r="BL10" s="18"/>
+      <c r="BM10" s="18"/>
+      <c r="BN10" s="18"/>
+      <c r="BO10" s="18"/>
+      <c r="BP10" s="18"/>
+      <c r="BQ10" s="18"/>
+      <c r="BR10" s="18"/>
+      <c r="BS10" s="18"/>
+      <c r="BT10" s="18"/>
+      <c r="BU10" s="18"/>
+      <c r="BV10" s="18"/>
+      <c r="BW10" s="18"/>
+      <c r="BX10" s="18"/>
+      <c r="BY10" s="18"/>
+      <c r="BZ10" s="18"/>
+      <c r="CA10" s="18"/>
+      <c r="CB10" s="18"/>
+      <c r="CC10" s="18"/>
+      <c r="CD10" s="18"/>
+      <c r="CE10" s="18"/>
+      <c r="CF10" s="18"/>
+      <c r="CG10" s="18"/>
+      <c r="CH10" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI10" s="20"/>
+      <c r="CJ10" s="20"/>
+      <c r="CK10" s="20"/>
+      <c r="CL10" s="20"/>
+      <c r="CM10" s="20"/>
+      <c r="CN10" s="20"/>
+      <c r="CO10" s="20" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="18"/>
+      <c r="AW11" s="18"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="18"/>
+      <c r="BA11" s="18"/>
+      <c r="BB11" s="18"/>
+      <c r="BC11" s="18"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="18"/>
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="18"/>
+      <c r="BI11" s="18"/>
+      <c r="BJ11" s="18"/>
+      <c r="BK11" s="18"/>
+      <c r="BL11" s="18"/>
+      <c r="BM11" s="18"/>
+      <c r="BN11" s="18"/>
+      <c r="BO11" s="18"/>
+      <c r="BP11" s="18"/>
+      <c r="BQ11" s="18"/>
+      <c r="BR11" s="18"/>
+      <c r="BS11" s="18"/>
+      <c r="BT11" s="18"/>
+      <c r="BU11" s="18"/>
+      <c r="BV11" s="18"/>
+      <c r="BW11" s="18"/>
+      <c r="BX11" s="18"/>
+      <c r="BY11" s="18"/>
+      <c r="BZ11" s="18"/>
+      <c r="CA11" s="18"/>
+      <c r="CB11" s="18"/>
+      <c r="CC11" s="18"/>
+      <c r="CD11" s="18"/>
+      <c r="CE11" s="18"/>
+      <c r="CF11" s="18"/>
+      <c r="CG11" s="18"/>
+      <c r="CH11" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI11" s="20"/>
+      <c r="CJ11" s="20"/>
+      <c r="CK11" s="20"/>
+      <c r="CL11" s="20"/>
+      <c r="CM11" s="20"/>
+      <c r="CN11" s="20"/>
+      <c r="CO11" s="20" t="s">
         <v>210</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="19"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="17"/>
-      <c r="BH11" s="17"/>
-      <c r="BI11" s="17"/>
-      <c r="BJ11" s="17"/>
-      <c r="BK11" s="17"/>
-      <c r="BL11" s="17"/>
-      <c r="BM11" s="17"/>
-      <c r="BN11" s="17"/>
-      <c r="BO11" s="17"/>
-      <c r="BP11" s="17"/>
-      <c r="BQ11" s="17"/>
-      <c r="BR11" s="17"/>
-      <c r="BS11" s="17"/>
-      <c r="BT11" s="17"/>
-      <c r="BU11" s="17"/>
-      <c r="BV11" s="17"/>
-      <c r="BW11" s="17"/>
-      <c r="BX11" s="17"/>
-      <c r="BY11" s="17"/>
-      <c r="BZ11" s="17"/>
-      <c r="CA11" s="17"/>
-      <c r="CB11" s="17"/>
-      <c r="CC11" s="17"/>
-      <c r="CD11" s="17"/>
-      <c r="CE11" s="17"/>
-      <c r="CF11" s="17"/>
-      <c r="CG11" s="17"/>
-      <c r="CH11" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CI11" s="19"/>
-      <c r="CJ11" s="19"/>
-      <c r="CK11" s="19"/>
-      <c r="CL11" s="19"/>
-      <c r="CM11" s="19"/>
-      <c r="CN11" s="19"/>
-      <c r="CO11" s="19" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="19"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
-      <c r="BN12" s="17"/>
-      <c r="BO12" s="17"/>
-      <c r="BP12" s="17"/>
-      <c r="BQ12" s="17"/>
-      <c r="BR12" s="17"/>
-      <c r="BS12" s="17"/>
-      <c r="BT12" s="17"/>
-      <c r="BU12" s="17"/>
-      <c r="BV12" s="17"/>
-      <c r="BW12" s="17"/>
-      <c r="BX12" s="17"/>
-      <c r="BY12" s="17"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="17"/>
-      <c r="CB12" s="17"/>
-      <c r="CC12" s="17"/>
-      <c r="CD12" s="17"/>
-      <c r="CE12" s="17"/>
-      <c r="CF12" s="17"/>
-      <c r="CG12" s="17"/>
-      <c r="CH12" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CI12" s="19"/>
-      <c r="CJ12" s="19"/>
-      <c r="CK12" s="19"/>
-      <c r="CL12" s="19"/>
-      <c r="CM12" s="19"/>
-      <c r="CN12" s="19"/>
-      <c r="CO12" s="19" t="s">
-        <v>208</v>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="18"/>
+      <c r="BB12" s="18"/>
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="18"/>
+      <c r="BG12" s="18"/>
+      <c r="BH12" s="18"/>
+      <c r="BI12" s="18"/>
+      <c r="BJ12" s="18"/>
+      <c r="BK12" s="18"/>
+      <c r="BL12" s="18"/>
+      <c r="BM12" s="18"/>
+      <c r="BN12" s="18"/>
+      <c r="BO12" s="18"/>
+      <c r="BP12" s="18"/>
+      <c r="BQ12" s="18"/>
+      <c r="BR12" s="18"/>
+      <c r="BS12" s="18"/>
+      <c r="BT12" s="18"/>
+      <c r="BU12" s="18"/>
+      <c r="BV12" s="18"/>
+      <c r="BW12" s="18"/>
+      <c r="BX12" s="18"/>
+      <c r="BY12" s="18"/>
+      <c r="BZ12" s="18"/>
+      <c r="CA12" s="18"/>
+      <c r="CB12" s="18"/>
+      <c r="CC12" s="18"/>
+      <c r="CD12" s="18"/>
+      <c r="CE12" s="18"/>
+      <c r="CF12" s="18"/>
+      <c r="CG12" s="18"/>
+      <c r="CH12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI12" s="20"/>
+      <c r="CJ12" s="20"/>
+      <c r="CK12" s="20"/>
+      <c r="CL12" s="20"/>
+      <c r="CM12" s="20"/>
+      <c r="CN12" s="20"/>
+      <c r="CO12" s="20" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="E13" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="19"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
-      <c r="BM13" s="17"/>
-      <c r="BN13" s="17"/>
-      <c r="BO13" s="17"/>
-      <c r="BP13" s="17"/>
-      <c r="BQ13" s="17"/>
-      <c r="BR13" s="17"/>
-      <c r="BS13" s="17"/>
-      <c r="BT13" s="17"/>
-      <c r="BU13" s="17"/>
-      <c r="BV13" s="17"/>
-      <c r="BW13" s="17"/>
-      <c r="BX13" s="17"/>
-      <c r="BY13" s="17"/>
-      <c r="BZ13" s="17"/>
-      <c r="CA13" s="17"/>
-      <c r="CB13" s="17"/>
-      <c r="CC13" s="17"/>
-      <c r="CD13" s="17"/>
-      <c r="CE13" s="17"/>
-      <c r="CF13" s="17"/>
-      <c r="CG13" s="17"/>
-      <c r="CH13" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CI13" s="19"/>
-      <c r="CJ13" s="19"/>
-      <c r="CK13" s="19"/>
-      <c r="CL13" s="19"/>
-      <c r="CM13" s="19"/>
-      <c r="CN13" s="19"/>
-      <c r="CO13" s="19" t="s">
-        <v>208</v>
+      <c r="J13" s="19"/>
+      <c r="K13" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="18"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="18"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="18"/>
+      <c r="BG13" s="18"/>
+      <c r="BH13" s="18"/>
+      <c r="BI13" s="18"/>
+      <c r="BJ13" s="18"/>
+      <c r="BK13" s="18"/>
+      <c r="BL13" s="18"/>
+      <c r="BM13" s="18"/>
+      <c r="BN13" s="18"/>
+      <c r="BO13" s="18"/>
+      <c r="BP13" s="18"/>
+      <c r="BQ13" s="18"/>
+      <c r="BR13" s="18"/>
+      <c r="BS13" s="18"/>
+      <c r="BT13" s="18"/>
+      <c r="BU13" s="18"/>
+      <c r="BV13" s="18"/>
+      <c r="BW13" s="18"/>
+      <c r="BX13" s="18"/>
+      <c r="BY13" s="18"/>
+      <c r="BZ13" s="18"/>
+      <c r="CA13" s="18"/>
+      <c r="CB13" s="18"/>
+      <c r="CC13" s="18"/>
+      <c r="CD13" s="18"/>
+      <c r="CE13" s="18"/>
+      <c r="CF13" s="18"/>
+      <c r="CG13" s="18"/>
+      <c r="CH13" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI13" s="20"/>
+      <c r="CJ13" s="20"/>
+      <c r="CK13" s="20"/>
+      <c r="CL13" s="20"/>
+      <c r="CM13" s="20"/>
+      <c r="CN13" s="20"/>
+      <c r="CO13" s="20" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="22"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="22"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="22"/>
+      <c r="BE14" s="24"/>
+      <c r="BF14" s="22"/>
+      <c r="BG14" s="22"/>
+      <c r="BH14" s="22"/>
+      <c r="BI14" s="22"/>
+      <c r="BJ14" s="22"/>
+      <c r="BK14" s="22"/>
+      <c r="BL14" s="22"/>
+      <c r="BM14" s="22"/>
+      <c r="BN14" s="22"/>
+      <c r="BO14" s="22"/>
+      <c r="BP14" s="22"/>
+      <c r="BQ14" s="22"/>
+      <c r="BR14" s="22"/>
+      <c r="BS14" s="22"/>
+      <c r="BT14" s="22"/>
+      <c r="BU14" s="22"/>
+      <c r="BV14" s="22"/>
+      <c r="BW14" s="22"/>
+      <c r="BX14" s="22"/>
+      <c r="BY14" s="22"/>
+      <c r="BZ14" s="22"/>
+      <c r="CA14" s="22"/>
+      <c r="CB14" s="22"/>
+      <c r="CC14" s="22"/>
+      <c r="CD14" s="22"/>
+      <c r="CE14" s="22"/>
+      <c r="CF14" s="22"/>
+      <c r="CG14" s="22"/>
+      <c r="CH14" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI14" s="24"/>
+      <c r="CJ14" s="24"/>
+      <c r="CK14" s="24"/>
+      <c r="CL14" s="24"/>
+      <c r="CM14" s="24"/>
+      <c r="CN14" s="24"/>
+      <c r="CO14" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+      <c r="BH15" s="12"/>
+      <c r="BI15" s="12"/>
+      <c r="BJ15" s="12"/>
+      <c r="BK15" s="12"/>
+      <c r="BL15" s="12"/>
+      <c r="BM15" s="12"/>
+      <c r="BN15" s="12"/>
+      <c r="BO15" s="12"/>
+      <c r="BP15" s="12"/>
+      <c r="BQ15" s="12"/>
+      <c r="BR15" s="12"/>
+      <c r="BS15" s="12"/>
+      <c r="BT15" s="12"/>
+      <c r="BU15" s="12"/>
+      <c r="BV15" s="12"/>
+      <c r="BW15" s="12"/>
+      <c r="BX15" s="12"/>
+      <c r="BY15" s="12"/>
+      <c r="BZ15" s="12"/>
+      <c r="CA15" s="12"/>
+      <c r="CB15" s="12"/>
+      <c r="CC15" s="12"/>
+      <c r="CD15" s="12"/>
+      <c r="CE15" s="12"/>
+      <c r="CF15" s="12"/>
+      <c r="CG15" s="12"/>
+      <c r="CH15" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI15" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CJ15" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="CK15" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="19"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
-      <c r="BL14" s="17"/>
-      <c r="BM14" s="17"/>
-      <c r="BN14" s="17"/>
-      <c r="BO14" s="17"/>
-      <c r="BP14" s="17"/>
-      <c r="BQ14" s="17"/>
-      <c r="BR14" s="17"/>
-      <c r="BS14" s="17"/>
-      <c r="BT14" s="17"/>
-      <c r="BU14" s="17"/>
-      <c r="BV14" s="17"/>
-      <c r="BW14" s="17"/>
-      <c r="BX14" s="17"/>
-      <c r="BY14" s="17"/>
-      <c r="BZ14" s="17"/>
-      <c r="CA14" s="17"/>
-      <c r="CB14" s="17"/>
-      <c r="CC14" s="17"/>
-      <c r="CD14" s="17"/>
-      <c r="CE14" s="17"/>
-      <c r="CF14" s="17"/>
-      <c r="CG14" s="17"/>
-      <c r="CH14" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CI14" s="19"/>
-      <c r="CJ14" s="19"/>
-      <c r="CK14" s="19"/>
-      <c r="CL14" s="19"/>
-      <c r="CM14" s="19"/>
-      <c r="CN14" s="19"/>
-      <c r="CO14" s="19" t="s">
-        <v>208</v>
-      </c>
+      <c r="CM15" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="CN15" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="CO15" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{FE7B5017-498A-4100-B30F-FBDFA00B3508}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7868980-A594-4059-9DF1-11B8786E5DF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD2E35-2C58-4AC0-8076-19F606D60A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,9 +13,9 @@
     <sheet name="Users" sheetId="2" r:id="rId3"/>
     <sheet name="SmokeTC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="232">
   <si>
     <t>Environment</t>
   </si>
@@ -704,9 +704,6 @@
     <t>Jittu@123</t>
   </si>
   <si>
-    <t>usayed@zarca.com</t>
-  </si>
-  <si>
     <t>Zarca EXE List [1037 records]</t>
   </si>
   <si>
@@ -731,26 +728,42 @@
     <t>Q3. dd A drop-down list (also drop down menu or drop-down menu or drop menu or pull-down li...</t>
   </si>
   <si>
-    <t xml:space="preserve"> Not able to click on Download Excel All resonses element.</t>
+    <t>ggolatkar@zarca.com</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mail merge not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Schedule Reminder Button not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Email Address not present on page.</t>
+    <t>Smoke_TC15</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Data import</t>
+  </si>
+  <si>
+    <t>Zarca Data Import File.xls</t>
+  </si>
+  <si>
+    <t>Data Import DP Survey - All Question Types</t>
+  </si>
+  <si>
+    <t>Smoke_TC16</t>
+  </si>
+  <si>
+    <t>Data export</t>
+  </si>
+  <si>
+    <t>All Question Survey with English FROM gjoy_test FROM gaurav_k12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,12 +810,18 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
+    </font>
+    <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,12 +845,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
@@ -848,7 +861,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -857,8 +886,18 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -933,12 +972,12 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -955,20 +994,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="5" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1263,8 +1305,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1304,9 +1346,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,18 +1384,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1426,7 +1468,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
@@ -1437,32 +1494,32 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO15"/>
+  <dimension ref="A1:CO17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
@@ -1739,10 +1796,10 @@
       <c r="CM1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CN1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CO1" s="3" t="s">
         <v>209</v>
       </c>
     </row>
@@ -1769,7 +1826,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="31" t="s">
         <v>174</v>
       </c>
       <c r="J2" s="4"/>
@@ -1882,7 +1939,7 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="31" t="s">
         <v>174</v>
       </c>
       <c r="J3" s="4"/>
@@ -2055,7 +2112,7 @@
         <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -2073,12 +2130,10 @@
       <c r="H4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>226</v>
-      </c>
+      <c r="I4" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="11"/>
       <c r="K4" s="1"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -2154,28 +2209,28 @@
       <c r="CE4" s="12"/>
       <c r="CF4" s="12"/>
       <c r="CG4" s="12"/>
-      <c r="CH4" s="16" t="s">
+      <c r="CH4" s="15" t="s">
         <v>175</v>
       </c>
       <c r="CI4" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="CJ4" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="CK4" s="16" t="s">
+      <c r="CJ4" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="CK4" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CL4" s="16" t="s">
+      <c r="CL4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="CM4" s="16" t="s">
+      <c r="CM4" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CN4" s="15" t="s">
+      <c r="CN4" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="CO4" s="15"/>
+      <c r="CO4" s="28"/>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2200,12 +2255,10 @@
       <c r="H5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>225</v>
-      </c>
+      <c r="I5" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="11"/>
       <c r="K5" s="1"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -2281,28 +2334,28 @@
       <c r="CE5" s="12"/>
       <c r="CF5" s="12"/>
       <c r="CG5" s="12"/>
-      <c r="CH5" s="16" t="s">
+      <c r="CH5" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="CI5" s="16" t="s">
+      <c r="CI5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="CJ5" s="16" t="s">
+      <c r="CJ5" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="CK5" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="CL5" s="16" t="s">
+      <c r="CK5" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="CL5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="CM5" s="16" t="s">
+      <c r="CM5" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CN5" s="16" t="s">
+      <c r="CN5" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="CO5" s="16"/>
+      <c r="CO5" s="15"/>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2327,8 +2380,8 @@
       <c r="H6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>219</v>
+      <c r="I6" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="1"/>
@@ -2406,18 +2459,18 @@
       <c r="CE6" s="12"/>
       <c r="CF6" s="12"/>
       <c r="CG6" s="12"/>
-      <c r="CH6" s="16" t="s">
+      <c r="CH6" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="CI6" s="16"/>
-      <c r="CJ6" s="16" t="s">
+      <c r="CI6" s="15"/>
+      <c r="CJ6" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="16"/>
-      <c r="CM6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
+      <c r="CK6" s="15"/>
+      <c r="CL6" s="15"/>
+      <c r="CM6" s="15"/>
+      <c r="CN6" s="15"/>
+      <c r="CO6" s="15"/>
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2442,8 +2495,8 @@
       <c r="H7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>219</v>
+      <c r="I7" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="1"/>
@@ -2521,20 +2574,20 @@
       <c r="CE7" s="12"/>
       <c r="CF7" s="12"/>
       <c r="CG7" s="12"/>
-      <c r="CH7" s="16" t="s">
+      <c r="CH7" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="CI7" s="16"/>
-      <c r="CJ7" s="16" t="s">
+      <c r="CI7" s="15"/>
+      <c r="CJ7" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="CK7" s="16"/>
-      <c r="CL7" s="16"/>
-      <c r="CM7" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="CN7" s="16"/>
-      <c r="CO7" s="16"/>
+      <c r="CK7" s="15"/>
+      <c r="CL7" s="15"/>
+      <c r="CM7" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="CN7" s="15"/>
+      <c r="CO7" s="15"/>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2559,12 +2612,10 @@
       <c r="H8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I8" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>227</v>
-      </c>
+      <c r="I8" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="11"/>
       <c r="K8" s="1"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -2640,27 +2691,27 @@
       <c r="CE8" s="12"/>
       <c r="CF8" s="12"/>
       <c r="CG8" s="12"/>
-      <c r="CH8" s="16" t="s">
+      <c r="CH8" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="CI8" s="16"/>
-      <c r="CJ8" s="16" t="s">
+      <c r="CI8" s="15"/>
+      <c r="CJ8" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="CK8" s="16"/>
-      <c r="CL8" s="16"/>
-      <c r="CM8" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="CN8" s="16"/>
-      <c r="CO8" s="16"/>
+      <c r="CK8" s="15"/>
+      <c r="CL8" s="15"/>
+      <c r="CM8" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="CN8" s="15"/>
+      <c r="CO8" s="15"/>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -2676,7 +2727,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="31" t="s">
         <v>174</v>
       </c>
       <c r="J9" s="1"/>
@@ -2755,7 +2806,7 @@
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
-      <c r="CH9" s="16" t="s">
+      <c r="CH9" s="15" t="s">
         <v>178</v>
       </c>
       <c r="CI9" s="13" t="s">
@@ -2785,115 +2836,115 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="25" t="s">
-        <v>219</v>
+      <c r="H10" s="17"/>
+      <c r="I10" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="18"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="20"/>
-      <c r="BF10" s="18"/>
-      <c r="BG10" s="18"/>
-      <c r="BH10" s="18"/>
-      <c r="BI10" s="18"/>
-      <c r="BJ10" s="18"/>
-      <c r="BK10" s="18"/>
-      <c r="BL10" s="18"/>
-      <c r="BM10" s="18"/>
-      <c r="BN10" s="18"/>
-      <c r="BO10" s="18"/>
-      <c r="BP10" s="18"/>
-      <c r="BQ10" s="18"/>
-      <c r="BR10" s="18"/>
-      <c r="BS10" s="18"/>
-      <c r="BT10" s="18"/>
-      <c r="BU10" s="18"/>
-      <c r="BV10" s="18"/>
-      <c r="BW10" s="18"/>
-      <c r="BX10" s="18"/>
-      <c r="BY10" s="18"/>
-      <c r="BZ10" s="18"/>
-      <c r="CA10" s="18"/>
-      <c r="CB10" s="18"/>
-      <c r="CC10" s="18"/>
-      <c r="CD10" s="18"/>
-      <c r="CE10" s="18"/>
-      <c r="CF10" s="18"/>
-      <c r="CG10" s="18"/>
-      <c r="CH10" s="20" t="s">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="17"/>
+      <c r="BD10" s="17"/>
+      <c r="BE10" s="19"/>
+      <c r="BF10" s="17"/>
+      <c r="BG10" s="17"/>
+      <c r="BH10" s="17"/>
+      <c r="BI10" s="17"/>
+      <c r="BJ10" s="17"/>
+      <c r="BK10" s="17"/>
+      <c r="BL10" s="17"/>
+      <c r="BM10" s="17"/>
+      <c r="BN10" s="17"/>
+      <c r="BO10" s="17"/>
+      <c r="BP10" s="17"/>
+      <c r="BQ10" s="17"/>
+      <c r="BR10" s="17"/>
+      <c r="BS10" s="17"/>
+      <c r="BT10" s="17"/>
+      <c r="BU10" s="17"/>
+      <c r="BV10" s="17"/>
+      <c r="BW10" s="17"/>
+      <c r="BX10" s="17"/>
+      <c r="BY10" s="17"/>
+      <c r="BZ10" s="17"/>
+      <c r="CA10" s="17"/>
+      <c r="CB10" s="17"/>
+      <c r="CC10" s="17"/>
+      <c r="CD10" s="17"/>
+      <c r="CE10" s="17"/>
+      <c r="CF10" s="17"/>
+      <c r="CG10" s="17"/>
+      <c r="CH10" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="CI10" s="20"/>
-      <c r="CJ10" s="20"/>
-      <c r="CK10" s="20"/>
-      <c r="CL10" s="20"/>
-      <c r="CM10" s="20"/>
-      <c r="CN10" s="20"/>
-      <c r="CO10" s="20" t="s">
+      <c r="CI10" s="19"/>
+      <c r="CJ10" s="19"/>
+      <c r="CK10" s="19"/>
+      <c r="CL10" s="19"/>
+      <c r="CM10" s="19"/>
+      <c r="CN10" s="19"/>
+      <c r="CO10" s="19" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2904,115 +2955,115 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="18" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="18"/>
-      <c r="AV11" s="18"/>
-      <c r="AW11" s="18"/>
-      <c r="AX11" s="18"/>
-      <c r="AY11" s="18"/>
-      <c r="AZ11" s="18"/>
-      <c r="BA11" s="18"/>
-      <c r="BB11" s="18"/>
-      <c r="BC11" s="18"/>
-      <c r="BD11" s="18"/>
-      <c r="BE11" s="20"/>
-      <c r="BF11" s="18"/>
-      <c r="BG11" s="18"/>
-      <c r="BH11" s="18"/>
-      <c r="BI11" s="18"/>
-      <c r="BJ11" s="18"/>
-      <c r="BK11" s="18"/>
-      <c r="BL11" s="18"/>
-      <c r="BM11" s="18"/>
-      <c r="BN11" s="18"/>
-      <c r="BO11" s="18"/>
-      <c r="BP11" s="18"/>
-      <c r="BQ11" s="18"/>
-      <c r="BR11" s="18"/>
-      <c r="BS11" s="18"/>
-      <c r="BT11" s="18"/>
-      <c r="BU11" s="18"/>
-      <c r="BV11" s="18"/>
-      <c r="BW11" s="18"/>
-      <c r="BX11" s="18"/>
-      <c r="BY11" s="18"/>
-      <c r="BZ11" s="18"/>
-      <c r="CA11" s="18"/>
-      <c r="CB11" s="18"/>
-      <c r="CC11" s="18"/>
-      <c r="CD11" s="18"/>
-      <c r="CE11" s="18"/>
-      <c r="CF11" s="18"/>
-      <c r="CG11" s="18"/>
-      <c r="CH11" s="20" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
+      <c r="BD11" s="17"/>
+      <c r="BE11" s="19"/>
+      <c r="BF11" s="17"/>
+      <c r="BG11" s="17"/>
+      <c r="BH11" s="17"/>
+      <c r="BI11" s="17"/>
+      <c r="BJ11" s="17"/>
+      <c r="BK11" s="17"/>
+      <c r="BL11" s="17"/>
+      <c r="BM11" s="17"/>
+      <c r="BN11" s="17"/>
+      <c r="BO11" s="17"/>
+      <c r="BP11" s="17"/>
+      <c r="BQ11" s="17"/>
+      <c r="BR11" s="17"/>
+      <c r="BS11" s="17"/>
+      <c r="BT11" s="17"/>
+      <c r="BU11" s="17"/>
+      <c r="BV11" s="17"/>
+      <c r="BW11" s="17"/>
+      <c r="BX11" s="17"/>
+      <c r="BY11" s="17"/>
+      <c r="BZ11" s="17"/>
+      <c r="CA11" s="17"/>
+      <c r="CB11" s="17"/>
+      <c r="CC11" s="17"/>
+      <c r="CD11" s="17"/>
+      <c r="CE11" s="17"/>
+      <c r="CF11" s="17"/>
+      <c r="CG11" s="17"/>
+      <c r="CH11" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="CI11" s="20"/>
-      <c r="CJ11" s="20"/>
-      <c r="CK11" s="20"/>
-      <c r="CL11" s="20"/>
-      <c r="CM11" s="20"/>
-      <c r="CN11" s="20"/>
-      <c r="CO11" s="20" t="s">
+      <c r="CI11" s="19"/>
+      <c r="CJ11" s="19"/>
+      <c r="CK11" s="19"/>
+      <c r="CL11" s="19"/>
+      <c r="CM11" s="19"/>
+      <c r="CN11" s="19"/>
+      <c r="CO11" s="19" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3023,117 +3074,115 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="26" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="K12" s="18" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="18"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="18"/>
-      <c r="AX12" s="18"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="18"/>
-      <c r="BA12" s="18"/>
-      <c r="BB12" s="18"/>
-      <c r="BC12" s="18"/>
-      <c r="BD12" s="18"/>
-      <c r="BE12" s="20"/>
-      <c r="BF12" s="18"/>
-      <c r="BG12" s="18"/>
-      <c r="BH12" s="18"/>
-      <c r="BI12" s="18"/>
-      <c r="BJ12" s="18"/>
-      <c r="BK12" s="18"/>
-      <c r="BL12" s="18"/>
-      <c r="BM12" s="18"/>
-      <c r="BN12" s="18"/>
-      <c r="BO12" s="18"/>
-      <c r="BP12" s="18"/>
-      <c r="BQ12" s="18"/>
-      <c r="BR12" s="18"/>
-      <c r="BS12" s="18"/>
-      <c r="BT12" s="18"/>
-      <c r="BU12" s="18"/>
-      <c r="BV12" s="18"/>
-      <c r="BW12" s="18"/>
-      <c r="BX12" s="18"/>
-      <c r="BY12" s="18"/>
-      <c r="BZ12" s="18"/>
-      <c r="CA12" s="18"/>
-      <c r="CB12" s="18"/>
-      <c r="CC12" s="18"/>
-      <c r="CD12" s="18"/>
-      <c r="CE12" s="18"/>
-      <c r="CF12" s="18"/>
-      <c r="CG12" s="18"/>
-      <c r="CH12" s="20" t="s">
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="17"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+      <c r="BA12" s="17"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="17"/>
+      <c r="BD12" s="17"/>
+      <c r="BE12" s="19"/>
+      <c r="BF12" s="17"/>
+      <c r="BG12" s="17"/>
+      <c r="BH12" s="17"/>
+      <c r="BI12" s="17"/>
+      <c r="BJ12" s="17"/>
+      <c r="BK12" s="17"/>
+      <c r="BL12" s="17"/>
+      <c r="BM12" s="17"/>
+      <c r="BN12" s="17"/>
+      <c r="BO12" s="17"/>
+      <c r="BP12" s="17"/>
+      <c r="BQ12" s="17"/>
+      <c r="BR12" s="17"/>
+      <c r="BS12" s="17"/>
+      <c r="BT12" s="17"/>
+      <c r="BU12" s="17"/>
+      <c r="BV12" s="17"/>
+      <c r="BW12" s="17"/>
+      <c r="BX12" s="17"/>
+      <c r="BY12" s="17"/>
+      <c r="BZ12" s="17"/>
+      <c r="CA12" s="17"/>
+      <c r="CB12" s="17"/>
+      <c r="CC12" s="17"/>
+      <c r="CD12" s="17"/>
+      <c r="CE12" s="17"/>
+      <c r="CF12" s="17"/>
+      <c r="CG12" s="17"/>
+      <c r="CH12" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="CI12" s="20"/>
-      <c r="CJ12" s="20"/>
-      <c r="CK12" s="20"/>
-      <c r="CL12" s="20"/>
-      <c r="CM12" s="20"/>
-      <c r="CN12" s="20"/>
-      <c r="CO12" s="20" t="s">
+      <c r="CI12" s="19"/>
+      <c r="CJ12" s="19"/>
+      <c r="CK12" s="19"/>
+      <c r="CL12" s="19"/>
+      <c r="CM12" s="19"/>
+      <c r="CN12" s="19"/>
+      <c r="CO12" s="19" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3144,243 +3193,243 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="18" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="18"/>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="18"/>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="18"/>
-      <c r="AS13" s="18"/>
-      <c r="AT13" s="18"/>
-      <c r="AU13" s="18"/>
-      <c r="AV13" s="18"/>
-      <c r="AW13" s="18"/>
-      <c r="AX13" s="18"/>
-      <c r="AY13" s="18"/>
-      <c r="AZ13" s="18"/>
-      <c r="BA13" s="18"/>
-      <c r="BB13" s="18"/>
-      <c r="BC13" s="18"/>
-      <c r="BD13" s="18"/>
-      <c r="BE13" s="20"/>
-      <c r="BF13" s="18"/>
-      <c r="BG13" s="18"/>
-      <c r="BH13" s="18"/>
-      <c r="BI13" s="18"/>
-      <c r="BJ13" s="18"/>
-      <c r="BK13" s="18"/>
-      <c r="BL13" s="18"/>
-      <c r="BM13" s="18"/>
-      <c r="BN13" s="18"/>
-      <c r="BO13" s="18"/>
-      <c r="BP13" s="18"/>
-      <c r="BQ13" s="18"/>
-      <c r="BR13" s="18"/>
-      <c r="BS13" s="18"/>
-      <c r="BT13" s="18"/>
-      <c r="BU13" s="18"/>
-      <c r="BV13" s="18"/>
-      <c r="BW13" s="18"/>
-      <c r="BX13" s="18"/>
-      <c r="BY13" s="18"/>
-      <c r="BZ13" s="18"/>
-      <c r="CA13" s="18"/>
-      <c r="CB13" s="18"/>
-      <c r="CC13" s="18"/>
-      <c r="CD13" s="18"/>
-      <c r="CE13" s="18"/>
-      <c r="CF13" s="18"/>
-      <c r="CG13" s="18"/>
-      <c r="CH13" s="20" t="s">
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="17"/>
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="17"/>
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="17"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="17"/>
+      <c r="BD13" s="17"/>
+      <c r="BE13" s="19"/>
+      <c r="BF13" s="17"/>
+      <c r="BG13" s="17"/>
+      <c r="BH13" s="17"/>
+      <c r="BI13" s="17"/>
+      <c r="BJ13" s="17"/>
+      <c r="BK13" s="17"/>
+      <c r="BL13" s="17"/>
+      <c r="BM13" s="17"/>
+      <c r="BN13" s="17"/>
+      <c r="BO13" s="17"/>
+      <c r="BP13" s="17"/>
+      <c r="BQ13" s="17"/>
+      <c r="BR13" s="17"/>
+      <c r="BS13" s="17"/>
+      <c r="BT13" s="17"/>
+      <c r="BU13" s="17"/>
+      <c r="BV13" s="17"/>
+      <c r="BW13" s="17"/>
+      <c r="BX13" s="17"/>
+      <c r="BY13" s="17"/>
+      <c r="BZ13" s="17"/>
+      <c r="CA13" s="17"/>
+      <c r="CB13" s="17"/>
+      <c r="CC13" s="17"/>
+      <c r="CD13" s="17"/>
+      <c r="CE13" s="17"/>
+      <c r="CF13" s="17"/>
+      <c r="CG13" s="17"/>
+      <c r="CH13" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="CI13" s="20"/>
-      <c r="CJ13" s="20"/>
-      <c r="CK13" s="20"/>
-      <c r="CL13" s="20"/>
-      <c r="CM13" s="20"/>
-      <c r="CN13" s="20"/>
-      <c r="CO13" s="20" t="s">
+      <c r="CI13" s="19"/>
+      <c r="CJ13" s="19"/>
+      <c r="CK13" s="19"/>
+      <c r="CL13" s="19"/>
+      <c r="CM13" s="19"/>
+      <c r="CN13" s="19"/>
+      <c r="CO13" s="19" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="22"/>
-      <c r="AO14" s="22"/>
-      <c r="AP14" s="22"/>
-      <c r="AQ14" s="22"/>
-      <c r="AR14" s="22"/>
-      <c r="AS14" s="22"/>
-      <c r="AT14" s="22"/>
-      <c r="AU14" s="22"/>
-      <c r="AV14" s="22"/>
-      <c r="AW14" s="22"/>
-      <c r="AX14" s="22"/>
-      <c r="AY14" s="22"/>
-      <c r="AZ14" s="22"/>
-      <c r="BA14" s="22"/>
-      <c r="BB14" s="22"/>
-      <c r="BC14" s="22"/>
-      <c r="BD14" s="22"/>
-      <c r="BE14" s="24"/>
-      <c r="BF14" s="22"/>
-      <c r="BG14" s="22"/>
-      <c r="BH14" s="22"/>
-      <c r="BI14" s="22"/>
-      <c r="BJ14" s="22"/>
-      <c r="BK14" s="22"/>
-      <c r="BL14" s="22"/>
-      <c r="BM14" s="22"/>
-      <c r="BN14" s="22"/>
-      <c r="BO14" s="22"/>
-      <c r="BP14" s="22"/>
-      <c r="BQ14" s="22"/>
-      <c r="BR14" s="22"/>
-      <c r="BS14" s="22"/>
-      <c r="BT14" s="22"/>
-      <c r="BU14" s="22"/>
-      <c r="BV14" s="22"/>
-      <c r="BW14" s="22"/>
-      <c r="BX14" s="22"/>
-      <c r="BY14" s="22"/>
-      <c r="BZ14" s="22"/>
-      <c r="CA14" s="22"/>
-      <c r="CB14" s="22"/>
-      <c r="CC14" s="22"/>
-      <c r="CD14" s="22"/>
-      <c r="CE14" s="22"/>
-      <c r="CF14" s="22"/>
-      <c r="CG14" s="22"/>
-      <c r="CH14" s="24" t="s">
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="23"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="23"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="21"/>
+      <c r="BM14" s="21"/>
+      <c r="BN14" s="21"/>
+      <c r="BO14" s="21"/>
+      <c r="BP14" s="21"/>
+      <c r="BQ14" s="21"/>
+      <c r="BR14" s="21"/>
+      <c r="BS14" s="21"/>
+      <c r="BT14" s="21"/>
+      <c r="BU14" s="21"/>
+      <c r="BV14" s="21"/>
+      <c r="BW14" s="21"/>
+      <c r="BX14" s="21"/>
+      <c r="BY14" s="21"/>
+      <c r="BZ14" s="21"/>
+      <c r="CA14" s="21"/>
+      <c r="CB14" s="21"/>
+      <c r="CC14" s="21"/>
+      <c r="CD14" s="21"/>
+      <c r="CE14" s="21"/>
+      <c r="CF14" s="21"/>
+      <c r="CG14" s="21"/>
+      <c r="CH14" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="CI14" s="24"/>
-      <c r="CJ14" s="24"/>
-      <c r="CK14" s="24"/>
-      <c r="CL14" s="24"/>
-      <c r="CM14" s="24"/>
-      <c r="CN14" s="24"/>
-      <c r="CO14" s="24" t="s">
+      <c r="CI14" s="23"/>
+      <c r="CJ14" s="23"/>
+      <c r="CK14" s="23"/>
+      <c r="CL14" s="23"/>
+      <c r="CM14" s="23"/>
+      <c r="CN14" s="23"/>
+      <c r="CO14" s="23" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -3392,13 +3441,13 @@
         <v>154</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="31" t="s">
         <v>174</v>
       </c>
       <c r="J15" s="11"/>
@@ -3477,35 +3526,267 @@
       <c r="CE15" s="12"/>
       <c r="CF15" s="12"/>
       <c r="CG15" s="12"/>
-      <c r="CH15" s="16" t="s">
+      <c r="CH15" s="15" t="s">
         <v>175</v>
       </c>
       <c r="CI15" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="CJ15" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="CK15" s="16" t="s">
+      <c r="CJ15" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="CK15" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CL15" s="16" t="s">
+      <c r="CL15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="CM15" s="16" t="s">
+      <c r="CM15" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CN15" s="15" t="s">
+      <c r="CN15" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="CO15" s="15"/>
+      <c r="CO15" s="28"/>
+    </row>
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="13"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12"/>
+      <c r="BP16" s="12"/>
+      <c r="BQ16" s="12"/>
+      <c r="BR16" s="12"/>
+      <c r="BS16" s="12"/>
+      <c r="BT16" s="12"/>
+      <c r="BU16" s="12"/>
+      <c r="BV16" s="12"/>
+      <c r="BW16" s="12"/>
+      <c r="BX16" s="12"/>
+      <c r="BY16" s="12"/>
+      <c r="BZ16" s="12"/>
+      <c r="CA16" s="12"/>
+      <c r="CB16" s="12"/>
+      <c r="CC16" s="12"/>
+      <c r="CD16" s="12"/>
+      <c r="CE16" s="12"/>
+      <c r="CF16" s="12"/>
+      <c r="CG16" s="12"/>
+      <c r="CH16" s="15">
+        <v>105</v>
+      </c>
+      <c r="CI16" s="14"/>
+      <c r="CJ16" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="CK16" s="15"/>
+      <c r="CL16" s="15"/>
+      <c r="CM16" s="15"/>
+      <c r="CN16" s="28"/>
+      <c r="CO16" s="28"/>
+    </row>
+    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="13"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
+      <c r="BR17" s="12"/>
+      <c r="BS17" s="12"/>
+      <c r="BT17" s="12"/>
+      <c r="BU17" s="12"/>
+      <c r="BV17" s="12"/>
+      <c r="BW17" s="12"/>
+      <c r="BX17" s="12"/>
+      <c r="BY17" s="12"/>
+      <c r="BZ17" s="12"/>
+      <c r="CA17" s="12"/>
+      <c r="CB17" s="12"/>
+      <c r="CC17" s="12"/>
+      <c r="CD17" s="12"/>
+      <c r="CE17" s="12"/>
+      <c r="CF17" s="12"/>
+      <c r="CG17" s="12"/>
+      <c r="CH17" s="15">
+        <v>92</v>
+      </c>
+      <c r="CI17" s="14"/>
+      <c r="CJ17" s="16"/>
+      <c r="CK17" s="15"/>
+      <c r="CL17" s="15"/>
+      <c r="CM17" s="15"/>
+      <c r="CN17" s="28"/>
+      <c r="CO17" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="W10" r:id="rId2" xr:uid="{17FCD50F-6B99-4FA7-A85A-65F86A65BE44}"/>
+    <hyperlink ref="W11:W14" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{FD9A974B-1DEE-4366-9BC0-3BE6A1D0A6B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD2E35-2C58-4AC0-8076-19F606D60A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7719B9-3F20-48FC-B9C6-72014DFB43B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="0" windowWidth="15150" windowHeight="10920" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="233">
   <si>
     <t>Environment</t>
   </si>
@@ -716,9 +716,6 @@
     <t>Email Address;First Name;RB;Phone No.</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>Smoke_TC14</t>
   </si>
   <si>
@@ -731,39 +728,44 @@
     <t>ggolatkar@zarca.com</t>
   </si>
   <si>
+    <t>Smoke_TC15</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Data import</t>
+  </si>
+  <si>
+    <t>Zarca Data Import File.xls</t>
+  </si>
+  <si>
+    <t>Data Import DP Survey - All Question Types</t>
+  </si>
+  <si>
+    <t>Smoke_TC16</t>
+  </si>
+  <si>
+    <t>Data export</t>
+  </si>
+  <si>
+    <t>All Question Survey with English FROM gjoy_test FROM gaurav_k12</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>Smoke_TC15</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>Data import</t>
-  </si>
-  <si>
-    <t>Zarca Data Import File.xls</t>
-  </si>
-  <si>
-    <t>Data Import DP Survey - All Question Types</t>
-  </si>
-  <si>
-    <t>Smoke_TC16</t>
-  </si>
-  <si>
-    <t>Data export</t>
-  </si>
-  <si>
-    <t>All Question Survey with English FROM gjoy_test FROM gaurav_k12</t>
+    <t>Q 7. Rating Radio Button</t>
+  </si>
+  <si>
+    <t>DP - Segment Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,19 +811,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,48 +847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -977,7 +933,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1003,14 +959,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1305,8 +1256,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,9 +1297,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,10 +1343,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,7 +1421,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>212</v>
@@ -1496,30 +1447,30 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
@@ -1826,7 +1777,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J2" s="4"/>
@@ -1921,7 +1872,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1939,7 +1890,7 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J3" s="4"/>
@@ -2112,7 +2063,7 @@
         <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -2130,7 +2081,7 @@
       <c r="H4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J4" s="11"/>
@@ -2227,17 +2178,17 @@
       <c r="CM4" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CN4" s="28" t="s">
+      <c r="CN4" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="CO4" s="28"/>
+      <c r="CO4" s="25"/>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -2255,7 +2206,7 @@
       <c r="H5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J5" s="11"/>
@@ -2362,7 +2313,7 @@
         <v>185</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -2380,7 +2331,7 @@
       <c r="H6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J6" s="11"/>
@@ -2477,7 +2428,7 @@
         <v>186</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -2495,7 +2446,7 @@
       <c r="H7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J7" s="11"/>
@@ -2594,7 +2545,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -2612,7 +2563,7 @@
       <c r="H8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J8" s="11"/>
@@ -2727,7 +2678,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J9" s="1"/>
@@ -2834,7 +2785,7 @@
         <v>189</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>15</v>
@@ -2852,7 +2803,7 @@
         <v>192</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J10" s="1"/>
@@ -2862,8 +2813,12 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
+      <c r="O10" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>231</v>
+      </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
@@ -2871,7 +2826,7 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
@@ -2953,7 +2908,7 @@
         <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>15</v>
@@ -2971,7 +2926,7 @@
         <v>196</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J11" s="18"/>
@@ -2990,7 +2945,7 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
@@ -3072,7 +3027,7 @@
         <v>198</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>15</v>
@@ -3090,7 +3045,7 @@
         <v>200</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J12" s="18"/>
@@ -3109,7 +3064,7 @@
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
@@ -3191,7 +3146,7 @@
         <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>15</v>
@@ -3209,7 +3164,7 @@
         <v>204</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J13" s="18"/>
@@ -3228,7 +3183,7 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
@@ -3310,7 +3265,7 @@
         <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>15</v>
@@ -3328,13 +3283,13 @@
         <v>208</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="21"/>
       <c r="L14" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="21"/>
@@ -3347,7 +3302,7 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
@@ -3426,10 +3381,10 @@
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -3441,13 +3396,13 @@
         <v>154</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J15" s="11"/>
@@ -3544,17 +3499,17 @@
       <c r="CM15" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CN15" s="28" t="s">
+      <c r="CN15" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="CO15" s="28"/>
+      <c r="CO15" s="25"/>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -3563,15 +3518,15 @@
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="29" t="s">
-        <v>218</v>
+      <c r="I16" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="1"/>
@@ -3610,7 +3565,7 @@
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AU16" s="12"/>
       <c r="AV16" s="12"/>
@@ -3656,20 +3611,20 @@
       </c>
       <c r="CI16" s="14"/>
       <c r="CJ16" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CK16" s="15"/>
       <c r="CL16" s="15"/>
       <c r="CM16" s="15"/>
-      <c r="CN16" s="28"/>
-      <c r="CO16" s="28"/>
+      <c r="CN16" s="25"/>
+      <c r="CO16" s="25"/>
     </row>
     <row r="17" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -3678,15 +3633,15 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="29" t="s">
-        <v>218</v>
+      <c r="I17" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
@@ -3727,7 +3682,7 @@
       <c r="AR17" s="12"/>
       <c r="AS17" s="12"/>
       <c r="AT17" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AU17" s="12"/>
       <c r="AV17" s="12"/>
@@ -3776,8 +3731,8 @@
       <c r="CK17" s="15"/>
       <c r="CL17" s="15"/>
       <c r="CM17" s="15"/>
-      <c r="CN17" s="28"/>
-      <c r="CO17" s="28"/>
+      <c r="CN17" s="25"/>
+      <c r="CO17" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD2E35-2C58-4AC0-8076-19F606D60A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DBAF5F-C508-4F02-9C0D-5847C4FA7542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="233">
   <si>
     <t>Environment</t>
   </si>
@@ -728,34 +728,37 @@
     <t>Q3. dd A drop-down list (also drop down menu or drop-down menu or drop menu or pull-down li...</t>
   </si>
   <si>
-    <t>ggolatkar@zarca.com</t>
+    <t>Smoke_TC15</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Data import</t>
+  </si>
+  <si>
+    <t>Zarca Data Import File.xls</t>
+  </si>
+  <si>
+    <t>Data Import DP Survey - All Question Types</t>
+  </si>
+  <si>
+    <t>Smoke_TC16</t>
+  </si>
+  <si>
+    <t>Data export</t>
+  </si>
+  <si>
+    <t>All Question Survey with English FROM gjoy_test FROM gaurav_k12</t>
+  </si>
+  <si>
+    <t>aansari1@zarca.com</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>Smoke_TC15</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>Data import</t>
-  </si>
-  <si>
-    <t>Zarca Data Import File.xls</t>
-  </si>
-  <si>
-    <t>Data Import DP Survey - All Question Types</t>
-  </si>
-  <si>
-    <t>Smoke_TC16</t>
-  </si>
-  <si>
-    <t>Data export</t>
-  </si>
-  <si>
-    <t>All Question Survey with English FROM gjoy_test FROM gaurav_k12</t>
+    <t xml:space="preserve"> Iframe Button not present on page.</t>
   </si>
 </sst>
 </file>
@@ -856,6 +859,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -867,12 +876,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1003,10 +1006,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -1303,13 +1306,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1344,14 +1347,14 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1390,15 +1393,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>190</v>
       </c>
@@ -1468,9 +1471,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>212</v>
@@ -1497,32 +1500,32 @@
   <dimension ref="A1:CO17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.26953125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.54296875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1916,12 +1919,12 @@
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1939,10 +1942,12 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="J3" s="4"/>
+      <c r="I3" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2107,7 +2112,7 @@
       <c r="CN3" s="6"/>
       <c r="CO3" s="6"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>183</v>
       </c>
@@ -2227,12 +2232,12 @@
       <c r="CM4" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CN4" s="28" t="s">
+      <c r="CN4" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="CO4" s="28"/>
+      <c r="CO4" s="25"/>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>184</v>
       </c>
@@ -2357,7 +2362,7 @@
       </c>
       <c r="CO5" s="15"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>185</v>
       </c>
@@ -2472,7 +2477,7 @@
       <c r="CN6" s="15"/>
       <c r="CO6" s="15"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>186</v>
       </c>
@@ -2589,7 +2594,7 @@
       <c r="CN7" s="15"/>
       <c r="CO7" s="15"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>187</v>
       </c>
@@ -2706,7 +2711,7 @@
       <c r="CN8" s="15"/>
       <c r="CO8" s="15"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>188</v>
       </c>
@@ -2829,7 +2834,7 @@
       </c>
       <c r="CO9" s="13"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>189</v>
       </c>
@@ -2871,7 +2876,7 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
@@ -2948,7 +2953,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>194</v>
       </c>
@@ -2990,7 +2995,7 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
@@ -3067,7 +3072,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>198</v>
       </c>
@@ -3109,7 +3114,7 @@
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
@@ -3186,7 +3191,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>202</v>
       </c>
@@ -3228,7 +3233,7 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
@@ -3305,7 +3310,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>206</v>
       </c>
@@ -3347,7 +3352,7 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
@@ -3424,12 +3429,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -3447,8 +3452,8 @@
       <c r="H15" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="31" t="s">
-        <v>174</v>
+      <c r="I15" s="29" t="s">
+        <v>218</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="1"/>
@@ -3544,17 +3549,17 @@
       <c r="CM15" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CN15" s="28" t="s">
+      <c r="CN15" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="CO15" s="28"/>
+      <c r="CO15" s="25"/>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -3563,15 +3568,15 @@
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="29" t="s">
-        <v>218</v>
+      <c r="I16" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="1"/>
@@ -3610,7 +3615,7 @@
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AU16" s="12"/>
       <c r="AV16" s="12"/>
@@ -3656,20 +3661,20 @@
       </c>
       <c r="CI16" s="14"/>
       <c r="CJ16" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CK16" s="15"/>
       <c r="CL16" s="15"/>
       <c r="CM16" s="15"/>
-      <c r="CN16" s="28"/>
-      <c r="CO16" s="28"/>
+      <c r="CN16" s="25"/>
+      <c r="CO16" s="25"/>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -3678,15 +3683,15 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="29" t="s">
-        <v>218</v>
+      <c r="I17" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
@@ -3727,7 +3732,7 @@
       <c r="AR17" s="12"/>
       <c r="AS17" s="12"/>
       <c r="AT17" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AU17" s="12"/>
       <c r="AV17" s="12"/>
@@ -3776,15 +3781,15 @@
       <c r="CK17" s="15"/>
       <c r="CL17" s="15"/>
       <c r="CM17" s="15"/>
-      <c r="CN17" s="28"/>
-      <c r="CO17" s="28"/>
+      <c r="CN17" s="25"/>
+      <c r="CO17" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="W10" r:id="rId2" xr:uid="{17FCD50F-6B99-4FA7-A85A-65F86A65BE44}"/>
-    <hyperlink ref="W11:W14" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{FD9A974B-1DEE-4366-9BC0-3BE6A1D0A6B6}"/>
+    <hyperlink ref="W11:W14" r:id="rId3" display="aansari1@zarca.com" xr:uid="{14117360-102D-4AF9-8E10-C4EF7E8CE3CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DBAF5F-C508-4F02-9C0D-5847C4FA7542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD2E35-2C58-4AC0-8076-19F606D60A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="232">
   <si>
     <t>Environment</t>
   </si>
@@ -728,6 +728,12 @@
     <t>Q3. dd A drop-down list (also drop down menu or drop-down menu or drop menu or pull-down li...</t>
   </si>
   <si>
+    <t>ggolatkar@zarca.com</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>Smoke_TC15</t>
   </si>
   <si>
@@ -750,15 +756,6 @@
   </si>
   <si>
     <t>All Question Survey with English FROM gjoy_test FROM gaurav_k12</t>
-  </si>
-  <si>
-    <t>aansari1@zarca.com</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iframe Button not present on page.</t>
   </si>
 </sst>
 </file>
@@ -859,12 +856,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -876,6 +867,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1006,10 +1003,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -1306,13 +1303,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.81640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +1320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,14 +1344,14 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.453125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.54296875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,15 +1390,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.54296875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1415,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1429,7 +1426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -1443,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1457,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>190</v>
       </c>
@@ -1471,9 +1468,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>212</v>
@@ -1500,32 +1497,32 @@
   <dimension ref="A1:CO17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.26953125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.54296875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +1803,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1919,12 +1916,12 @@
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1942,12 +1939,10 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>232</v>
-      </c>
+      <c r="I3" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2112,7 +2107,7 @@
       <c r="CN3" s="6"/>
       <c r="CO3" s="6"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>183</v>
       </c>
@@ -2232,12 +2227,12 @@
       <c r="CM4" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CN4" s="25" t="s">
+      <c r="CN4" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="CO4" s="25"/>
+      <c r="CO4" s="28"/>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>184</v>
       </c>
@@ -2362,7 +2357,7 @@
       </c>
       <c r="CO5" s="15"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>185</v>
       </c>
@@ -2477,7 +2472,7 @@
       <c r="CN6" s="15"/>
       <c r="CO6" s="15"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>186</v>
       </c>
@@ -2594,7 +2589,7 @@
       <c r="CN7" s="15"/>
       <c r="CO7" s="15"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>187</v>
       </c>
@@ -2711,7 +2706,7 @@
       <c r="CN8" s="15"/>
       <c r="CO8" s="15"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>188</v>
       </c>
@@ -2834,7 +2829,7 @@
       </c>
       <c r="CO9" s="13"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>189</v>
       </c>
@@ -2876,7 +2871,7 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
@@ -2953,7 +2948,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>194</v>
       </c>
@@ -2995,7 +2990,7 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
@@ -3072,7 +3067,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>198</v>
       </c>
@@ -3114,7 +3109,7 @@
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
@@ -3191,7 +3186,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>202</v>
       </c>
@@ -3233,7 +3228,7 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
@@ -3310,7 +3305,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>206</v>
       </c>
@@ -3352,7 +3347,7 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
@@ -3429,12 +3424,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -3452,8 +3447,8 @@
       <c r="H15" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="29" t="s">
-        <v>218</v>
+      <c r="I15" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="1"/>
@@ -3549,17 +3544,17 @@
       <c r="CM15" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CN15" s="25" t="s">
+      <c r="CN15" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="CO15" s="25"/>
+      <c r="CO15" s="28"/>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -3568,15 +3563,15 @@
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="31" t="s">
-        <v>174</v>
+      <c r="I16" s="29" t="s">
+        <v>218</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="1"/>
@@ -3615,7 +3610,7 @@
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AU16" s="12"/>
       <c r="AV16" s="12"/>
@@ -3661,20 +3656,20 @@
       </c>
       <c r="CI16" s="14"/>
       <c r="CJ16" s="16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="CK16" s="15"/>
       <c r="CL16" s="15"/>
       <c r="CM16" s="15"/>
-      <c r="CN16" s="25"/>
-      <c r="CO16" s="25"/>
+      <c r="CN16" s="28"/>
+      <c r="CO16" s="28"/>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -3683,15 +3678,15 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="31" t="s">
-        <v>174</v>
+      <c r="I17" s="29" t="s">
+        <v>218</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
@@ -3732,7 +3727,7 @@
       <c r="AR17" s="12"/>
       <c r="AS17" s="12"/>
       <c r="AT17" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AU17" s="12"/>
       <c r="AV17" s="12"/>
@@ -3781,15 +3776,15 @@
       <c r="CK17" s="15"/>
       <c r="CL17" s="15"/>
       <c r="CM17" s="15"/>
-      <c r="CN17" s="25"/>
-      <c r="CO17" s="25"/>
+      <c r="CN17" s="28"/>
+      <c r="CO17" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="W10" r:id="rId2" xr:uid="{17FCD50F-6B99-4FA7-A85A-65F86A65BE44}"/>
-    <hyperlink ref="W11:W14" r:id="rId3" display="aansari1@zarca.com" xr:uid="{14117360-102D-4AF9-8E10-C4EF7E8CE3CD}"/>
+    <hyperlink ref="W11:W14" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{FD9A974B-1DEE-4366-9BC0-3BE6A1D0A6B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD2E35-2C58-4AC0-8076-19F606D60A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBBB41-BE3B-4908-BD19-4CB5246B91B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="15150" windowHeight="10920" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="233">
   <si>
     <t>Environment</t>
   </si>
@@ -728,12 +728,6 @@
     <t>Q3. dd A drop-down list (also drop down menu or drop-down menu or drop menu or pull-down li...</t>
   </si>
   <si>
-    <t>ggolatkar@zarca.com</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>Smoke_TC15</t>
   </si>
   <si>
@@ -756,14 +750,22 @@
   </si>
   <si>
     <t>All Question Survey with English FROM gjoy_test FROM gaurav_k12</t>
+  </si>
+  <si>
+    <t>aansari1@zarca.com</t>
+  </si>
+  <si>
+    <t>DP - Segment Group</t>
+  </si>
+  <si>
+    <t>Q 7. Rating Radio Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,19 +811,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,48 +847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -977,7 +933,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1003,14 +959,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1305,8 +1256,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,9 +1297,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,10 +1343,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,7 +1421,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>212</v>
@@ -1496,30 +1447,30 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
@@ -1826,7 +1777,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J2" s="4"/>
@@ -1939,7 +1890,7 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J3" s="4"/>
@@ -2130,7 +2081,7 @@
       <c r="H4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J4" s="11"/>
@@ -2227,10 +2178,10 @@
       <c r="CM4" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CN4" s="28" t="s">
+      <c r="CN4" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="CO4" s="28"/>
+      <c r="CO4" s="25"/>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2255,7 +2206,7 @@
       <c r="H5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J5" s="11"/>
@@ -2380,7 +2331,7 @@
       <c r="H6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J6" s="11"/>
@@ -2495,7 +2446,7 @@
       <c r="H7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J7" s="11"/>
@@ -2612,7 +2563,7 @@
       <c r="H8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J8" s="11"/>
@@ -2727,7 +2678,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J9" s="1"/>
@@ -2852,7 +2803,7 @@
         <v>192</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J10" s="1"/>
@@ -2862,8 +2813,12 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
+      <c r="O10" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>232</v>
+      </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
@@ -2871,7 +2826,7 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
@@ -2971,7 +2926,7 @@
         <v>196</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J11" s="18"/>
@@ -2990,7 +2945,7 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
@@ -3090,7 +3045,7 @@
         <v>200</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J12" s="18"/>
@@ -3109,7 +3064,7 @@
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
@@ -3209,7 +3164,7 @@
         <v>204</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J13" s="18"/>
@@ -3228,7 +3183,7 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
@@ -3328,7 +3283,7 @@
         <v>208</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J14" s="22"/>
@@ -3347,7 +3302,7 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
@@ -3447,7 +3402,7 @@
       <c r="H15" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="27" t="s">
         <v>174</v>
       </c>
       <c r="J15" s="11"/>
@@ -3544,14 +3499,14 @@
       <c r="CM15" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="CN15" s="28" t="s">
+      <c r="CN15" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="CO15" s="28"/>
+      <c r="CO15" s="25"/>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -3563,14 +3518,14 @@
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="26" t="s">
         <v>218</v>
       </c>
       <c r="J16" s="11"/>
@@ -3610,7 +3565,7 @@
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AU16" s="12"/>
       <c r="AV16" s="12"/>
@@ -3656,17 +3611,17 @@
       </c>
       <c r="CI16" s="14"/>
       <c r="CJ16" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CK16" s="15"/>
       <c r="CL16" s="15"/>
       <c r="CM16" s="15"/>
-      <c r="CN16" s="28"/>
-      <c r="CO16" s="28"/>
+      <c r="CN16" s="25"/>
+      <c r="CO16" s="25"/>
     </row>
     <row r="17" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
@@ -3678,14 +3633,14 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="26" t="s">
         <v>218</v>
       </c>
       <c r="J17" s="11"/>
@@ -3727,7 +3682,7 @@
       <c r="AR17" s="12"/>
       <c r="AS17" s="12"/>
       <c r="AT17" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AU17" s="12"/>
       <c r="AV17" s="12"/>
@@ -3776,15 +3731,15 @@
       <c r="CK17" s="15"/>
       <c r="CL17" s="15"/>
       <c r="CM17" s="15"/>
-      <c r="CN17" s="28"/>
-      <c r="CO17" s="28"/>
+      <c r="CN17" s="25"/>
+      <c r="CO17" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="W10" r:id="rId2" xr:uid="{17FCD50F-6B99-4FA7-A85A-65F86A65BE44}"/>
-    <hyperlink ref="W11:W14" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{FD9A974B-1DEE-4366-9BC0-3BE6A1D0A6B6}"/>
+    <hyperlink ref="W11:W14" r:id="rId3" display="aansari1@zarca.com" xr:uid="{CD69511B-DF45-4DE0-B9D7-8B59075C28CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBBB41-BE3B-4908-BD19-4CB5246B91B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="15150" windowHeight="10920" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="598" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="Users" sheetId="2" r:id="rId3"/>
     <sheet name="SmokeTC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="321">
   <si>
     <t>Environment</t>
   </si>
@@ -760,12 +759,276 @@
   <si>
     <t>Q 7. Rating Radio Button</t>
   </si>
+  <si>
+    <t>surveyType</t>
+  </si>
+  <si>
+    <t>Smoke_TC19</t>
+  </si>
+  <si>
+    <t>Smoke_TC20</t>
+  </si>
+  <si>
+    <t>Smoke_TC21</t>
+  </si>
+  <si>
+    <t>Smoke_TC22</t>
+  </si>
+  <si>
+    <t>Smoke_TC23</t>
+  </si>
+  <si>
+    <t>Smoke_TC24</t>
+  </si>
+  <si>
+    <t>Smoke_TC25</t>
+  </si>
+  <si>
+    <t>Smoke_TC26</t>
+  </si>
+  <si>
+    <t>Smoke_TC27</t>
+  </si>
+  <si>
+    <t>Smoke_TC28</t>
+  </si>
+  <si>
+    <t>Smoke_TC29</t>
+  </si>
+  <si>
+    <t>Smoke_TC30</t>
+  </si>
+  <si>
+    <t>Smoke_TC31</t>
+  </si>
+  <si>
+    <t>SMX</t>
+  </si>
+  <si>
+    <t>Poll DP</t>
+  </si>
+  <si>
+    <t>Comparison I</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Much less than others</t>
+  </si>
+  <si>
+    <t>image of mountain.jpg</t>
+  </si>
+  <si>
+    <t>harley-davidson-logo-vector.png</t>
+  </si>
+  <si>
+    <t>question 1</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>question 2</t>
+  </si>
+  <si>
+    <t>1111111 do not delete (dp check)</t>
+  </si>
+  <si>
+    <t>question 3</t>
+  </si>
+  <si>
+    <t>https://image.shutterstock.com/image-vector/link-icon-hyperlink-chain-symbol-260nw-1186749931.jpg</t>
+  </si>
+  <si>
+    <t>question 4</t>
+  </si>
+  <si>
+    <t>question 5</t>
+  </si>
+  <si>
+    <t>DANCING_BABY.gif</t>
+  </si>
+  <si>
+    <t>question 6</t>
+  </si>
+  <si>
+    <t>question 8</t>
+  </si>
+  <si>
+    <t>question 9</t>
+  </si>
+  <si>
+    <t>green.jpeg</t>
+  </si>
+  <si>
+    <t>question 10</t>
+  </si>
+  <si>
+    <t>hotel.jpg</t>
+  </si>
+  <si>
+    <t>Alert Box message: The Image file to upload cannot exceed 5 MB.</t>
+  </si>
+  <si>
+    <t>question 11</t>
+  </si>
+  <si>
+    <t>pdf.pdf</t>
+  </si>
+  <si>
+    <t>Alert Box message: Your file should be of the following format .gif, .jpg, .png or .jpeg.</t>
+  </si>
+  <si>
+    <t>question 12</t>
+  </si>
+  <si>
+    <t>question 13</t>
+  </si>
+  <si>
+    <t>anil_test</t>
+  </si>
+  <si>
+    <t>Welcome@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Logo Upload From Computer</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and deleted</t>
+  </si>
+  <si>
+    <t>Use account logo</t>
+  </si>
+  <si>
+    <t>Copy from another project</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo</t>
+  </si>
+  <si>
+    <t>logo should be uploaded</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. It will select logo from other survey and use that copied logo as survey logo. 4.After uploading it will delete the logo</t>
+  </si>
+  <si>
+    <t>Insert logo using URL</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.With the help of the entered URL it will upload survey logo . 4.After uploading it will delete the logo</t>
+  </si>
+  <si>
+    <t>Uploading JPG file</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpg format image.</t>
+  </si>
+  <si>
+    <t>Uploading GIF file</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .gif format image.</t>
+  </si>
+  <si>
+    <t>Align logo to left</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to left side</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and align to left</t>
+  </si>
+  <si>
+    <t>Align logo to Right</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to right side</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and align to right</t>
+  </si>
+  <si>
+    <t>Uploading JPEG file</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpeg format image.</t>
+  </si>
+  <si>
+    <t>Logo greater than 5mb</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload image which is greater than 5 mb.</t>
+  </si>
+  <si>
+    <t>1. logo should not upload 2. should get an alert</t>
+  </si>
+  <si>
+    <t>Unsupported file for logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer(.png). 4.After uploading  it will delete the uploaded logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload unsupported file</t>
+  </si>
+  <si>
+    <t>1. logo should not upload 2. should get an alert which format of files is supporting</t>
+  </si>
+  <si>
+    <t>Delete use account logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo.  4.After uploading  it will delete the uploaded logo</t>
+  </si>
+  <si>
+    <t>DP-POLL</t>
+  </si>
+  <si>
+    <t>Survey-Logo-20</t>
+  </si>
+  <si>
+    <t>Survey-Logo-21</t>
+  </si>
+  <si>
+    <t>Survey-Logo-22</t>
+  </si>
+  <si>
+    <t>Survey-Logo-23</t>
+  </si>
+  <si>
+    <t>Survey-Logo-24</t>
+  </si>
+  <si>
+    <t>Survey-Logo-25</t>
+  </si>
+  <si>
+    <t>Survey-Logo-26</t>
+  </si>
+  <si>
+    <t>Survey-Logo-27</t>
+  </si>
+  <si>
+    <t>Survey-Logo-28</t>
+  </si>
+  <si>
+    <t>Survey-Logo-29</t>
+  </si>
+  <si>
+    <t>Survey-Logo-30</t>
+  </si>
+  <si>
+    <t>Survey-Logo-31</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +1068,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -925,15 +1193,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -960,16 +1229,23 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{60196E26-4BF0-46DF-8071-0B6FA90A02DB}"/>
+    <cellStyle name="Hyperlink 2" xfId="4"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{DBCCDBEC-8335-4827-BE95-197219DF83EE}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{FEC75ED5-AAAD-4787-BCD9-2B41B463B0AE}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{B17FCFCB-194B-4C84-8A6E-5934535E7199}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1246,7 +1522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1288,7 +1564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1326,19 +1602,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,22 +1709,36 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO17"/>
+  <dimension ref="A1:CP30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AT19" sqref="AT19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,8 +1748,8 @@
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="66" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1473,7 +1763,7 @@
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1751,10 +2041,13 @@
         <v>150</v>
       </c>
       <c r="CO1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="CP1" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1777,7 +2070,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J2" s="4"/>
@@ -1866,8 +2159,9 @@
       <c r="CM2" s="6"/>
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
+      <c r="CP2" s="6"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1890,7 +2184,7 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J3" s="4"/>
@@ -2057,8 +2351,9 @@
       <c r="CM3" s="6"/>
       <c r="CN3" s="6"/>
       <c r="CO3" s="6"/>
+      <c r="CP3" s="6"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>183</v>
       </c>
@@ -2081,7 +2376,7 @@
       <c r="H4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J4" s="11"/>
@@ -2182,8 +2477,9 @@
         <v>177</v>
       </c>
       <c r="CO4" s="25"/>
+      <c r="CP4" s="25"/>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>184</v>
       </c>
@@ -2206,7 +2502,7 @@
       <c r="H5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J5" s="11"/>
@@ -2307,8 +2603,9 @@
         <v>182</v>
       </c>
       <c r="CO5" s="15"/>
+      <c r="CP5" s="15"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>185</v>
       </c>
@@ -2331,7 +2628,7 @@
       <c r="H6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J6" s="11"/>
@@ -2422,8 +2719,9 @@
       <c r="CM6" s="15"/>
       <c r="CN6" s="15"/>
       <c r="CO6" s="15"/>
+      <c r="CP6" s="15"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>186</v>
       </c>
@@ -2446,7 +2744,7 @@
       <c r="H7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J7" s="11"/>
@@ -2539,8 +2837,9 @@
       </c>
       <c r="CN7" s="15"/>
       <c r="CO7" s="15"/>
+      <c r="CP7" s="15"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>187</v>
       </c>
@@ -2563,7 +2862,7 @@
       <c r="H8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J8" s="11"/>
@@ -2656,8 +2955,9 @@
       </c>
       <c r="CN8" s="15"/>
       <c r="CO8" s="15"/>
+      <c r="CP8" s="15"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>188</v>
       </c>
@@ -2678,7 +2978,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J9" s="1"/>
@@ -2779,8 +3079,9 @@
         <v>161</v>
       </c>
       <c r="CO9" s="13"/>
+      <c r="CP9" s="13"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>189</v>
       </c>
@@ -2803,7 +3104,7 @@
         <v>192</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J10" s="1"/>
@@ -2899,11 +3200,12 @@
       <c r="CL10" s="19"/>
       <c r="CM10" s="19"/>
       <c r="CN10" s="19"/>
-      <c r="CO10" s="19" t="s">
+      <c r="CO10" s="19"/>
+      <c r="CP10" s="19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>194</v>
       </c>
@@ -2926,7 +3228,7 @@
         <v>196</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J11" s="18"/>
@@ -3018,11 +3320,12 @@
       <c r="CL11" s="19"/>
       <c r="CM11" s="19"/>
       <c r="CN11" s="19"/>
-      <c r="CO11" s="19" t="s">
+      <c r="CO11" s="19"/>
+      <c r="CP11" s="19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>198</v>
       </c>
@@ -3045,7 +3348,7 @@
         <v>200</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J12" s="18"/>
@@ -3137,11 +3440,12 @@
       <c r="CL12" s="19"/>
       <c r="CM12" s="19"/>
       <c r="CN12" s="19"/>
-      <c r="CO12" s="19" t="s">
+      <c r="CO12" s="19"/>
+      <c r="CP12" s="19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>202</v>
       </c>
@@ -3164,7 +3468,7 @@
         <v>204</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J13" s="18"/>
@@ -3256,11 +3560,12 @@
       <c r="CL13" s="19"/>
       <c r="CM13" s="19"/>
       <c r="CN13" s="19"/>
-      <c r="CO13" s="19" t="s">
+      <c r="CO13" s="19"/>
+      <c r="CP13" s="19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>206</v>
       </c>
@@ -3283,7 +3588,7 @@
         <v>208</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J14" s="22"/>
@@ -3375,11 +3680,12 @@
       <c r="CL14" s="23"/>
       <c r="CM14" s="23"/>
       <c r="CN14" s="23"/>
-      <c r="CO14" s="23" t="s">
+      <c r="CO14" s="23"/>
+      <c r="CP14" s="23" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>219</v>
       </c>
@@ -3402,7 +3708,7 @@
       <c r="H15" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="33" t="s">
         <v>174</v>
       </c>
       <c r="J15" s="11"/>
@@ -3503,13 +3809,14 @@
         <v>177</v>
       </c>
       <c r="CO15" s="25"/>
+      <c r="CP15" s="25"/>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -3525,8 +3832,8 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="26" t="s">
-        <v>218</v>
+      <c r="I16" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="1"/>
@@ -3618,13 +3925,14 @@
       <c r="CM16" s="15"/>
       <c r="CN16" s="25"/>
       <c r="CO16" s="25"/>
+      <c r="CP16" s="25"/>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -3640,8 +3948,8 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="26" t="s">
-        <v>218</v>
+      <c r="I17" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
@@ -3733,13 +4041,1602 @@
       <c r="CM17" s="15"/>
       <c r="CN17" s="25"/>
       <c r="CO17" s="25"/>
+      <c r="CP17" s="25"/>
+    </row>
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX18" s="27"/>
+      <c r="AY18" s="27"/>
+      <c r="AZ18" s="27"/>
+      <c r="BA18" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="BB18" s="27"/>
+      <c r="BC18" s="27"/>
+      <c r="BD18" s="27"/>
+      <c r="BE18" s="28"/>
+      <c r="BF18" s="27"/>
+      <c r="BG18" s="27"/>
+      <c r="BH18" s="27"/>
+      <c r="BI18" s="27"/>
+      <c r="BJ18" s="27"/>
+      <c r="BK18" s="27"/>
+      <c r="BL18" s="27"/>
+      <c r="BM18" s="27"/>
+      <c r="BN18" s="27"/>
+      <c r="BO18" s="27"/>
+      <c r="BP18" s="27"/>
+      <c r="BQ18" s="27"/>
+      <c r="BR18" s="27"/>
+      <c r="BS18" s="27"/>
+      <c r="BT18" s="27"/>
+      <c r="BU18" s="27"/>
+      <c r="BV18" s="27"/>
+      <c r="BW18" s="27"/>
+      <c r="BX18" s="27"/>
+      <c r="BY18" s="27"/>
+      <c r="BZ18" s="27"/>
+      <c r="CA18" s="27"/>
+      <c r="CB18" s="27"/>
+      <c r="CC18" s="27"/>
+      <c r="CD18" s="27"/>
+      <c r="CE18" s="27"/>
+      <c r="CF18" s="27"/>
+      <c r="CG18" s="27"/>
+      <c r="CH18" s="28"/>
+      <c r="CI18" s="29"/>
+      <c r="CJ18" s="30"/>
+      <c r="CK18" s="28"/>
+      <c r="CL18" s="28"/>
+      <c r="CM18" s="28"/>
+      <c r="CN18" s="25"/>
+      <c r="CO18" s="25"/>
+      <c r="CP18" s="25"/>
+    </row>
+    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="1"/>
+      <c r="CL19" s="1"/>
+      <c r="CM19" s="1"/>
+      <c r="CN19" s="1"/>
+      <c r="CO19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP19" s="25"/>
+    </row>
+    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="1"/>
+      <c r="CL20" s="1"/>
+      <c r="CM20" s="1"/>
+      <c r="CN20" s="1"/>
+      <c r="CO20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP20" s="25"/>
+    </row>
+    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP21" s="25"/>
+    </row>
+    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="1"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="CJ22" s="1"/>
+      <c r="CK22" s="1"/>
+      <c r="CL22" s="1"/>
+      <c r="CM22" s="1"/>
+      <c r="CN22" s="1"/>
+      <c r="CO22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP22" s="25"/>
+    </row>
+    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="31"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="1"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="1"/>
+      <c r="CN23" s="1"/>
+      <c r="CO23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP23" s="25"/>
+    </row>
+    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="31"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CI24" s="1"/>
+      <c r="CJ24" s="1"/>
+      <c r="CK24" s="1"/>
+      <c r="CL24" s="1"/>
+      <c r="CM24" s="1"/>
+      <c r="CN24" s="1"/>
+      <c r="CO24" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP24" s="25"/>
+    </row>
+    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="31"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="1"/>
+      <c r="CJ25" s="1"/>
+      <c r="CK25" s="1"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="1"/>
+      <c r="CN25" s="1"/>
+      <c r="CO25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP25" s="25"/>
+    </row>
+    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="31"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP26" s="25"/>
+    </row>
+    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="31"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+      <c r="CJ27" s="1"/>
+      <c r="CK27" s="1"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="1"/>
+      <c r="CN27" s="1"/>
+      <c r="CO27" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP27" s="25"/>
+    </row>
+    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="31"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="1"/>
+      <c r="CL28" s="1"/>
+      <c r="CM28" s="1"/>
+      <c r="CN28" s="1"/>
+      <c r="CO28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP28" s="25"/>
+    </row>
+    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="31"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="1"/>
+      <c r="CJ29" s="1"/>
+      <c r="CK29" s="1"/>
+      <c r="CL29" s="1"/>
+      <c r="CM29" s="1"/>
+      <c r="CN29" s="1"/>
+      <c r="CO29" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP29" s="25"/>
+    </row>
+    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="1"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CP30" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W10" r:id="rId2" xr:uid="{17FCD50F-6B99-4FA7-A85A-65F86A65BE44}"/>
-    <hyperlink ref="W11:W14" r:id="rId3" display="aansari1@zarca.com" xr:uid="{CD69511B-DF45-4DE0-B9D7-8B59075C28CB}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="W10" r:id="rId2"/>
+    <hyperlink ref="W11:W14" r:id="rId3" display="aansari1@zarca.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="598" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="598" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="486">
   <si>
     <t>Environment</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>ExpectedResult</t>
-  </si>
-  <si>
-    <t>Failure Reason</t>
   </si>
   <si>
     <t>Expected</t>
@@ -715,313 +712,861 @@
     <t>Email Address;First Name;RB;Phone No.</t>
   </si>
   <si>
+    <t>Smoke_TC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To send exe reminders </t>
+  </si>
+  <si>
+    <t>Q3. dd A drop-down list (also drop down menu or drop-down menu or drop menu or pull-down li...</t>
+  </si>
+  <si>
+    <t>Smoke_TC15</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Data import</t>
+  </si>
+  <si>
+    <t>Zarca Data Import File.xls</t>
+  </si>
+  <si>
+    <t>Data Import DP Survey - All Question Types</t>
+  </si>
+  <si>
+    <t>Smoke_TC16</t>
+  </si>
+  <si>
+    <t>Data export</t>
+  </si>
+  <si>
+    <t>All Question Survey with English FROM gjoy_test FROM gaurav_k12</t>
+  </si>
+  <si>
+    <t>DP - Segment Group</t>
+  </si>
+  <si>
+    <t>Q 7. Rating Radio Button</t>
+  </si>
+  <si>
+    <t>surveyType</t>
+  </si>
+  <si>
+    <t>Smoke_TC19</t>
+  </si>
+  <si>
+    <t>Smoke_TC20</t>
+  </si>
+  <si>
+    <t>Smoke_TC21</t>
+  </si>
+  <si>
+    <t>Smoke_TC22</t>
+  </si>
+  <si>
+    <t>Smoke_TC23</t>
+  </si>
+  <si>
+    <t>Smoke_TC24</t>
+  </si>
+  <si>
+    <t>Smoke_TC25</t>
+  </si>
+  <si>
+    <t>Smoke_TC26</t>
+  </si>
+  <si>
+    <t>Smoke_TC27</t>
+  </si>
+  <si>
+    <t>Smoke_TC28</t>
+  </si>
+  <si>
+    <t>Smoke_TC29</t>
+  </si>
+  <si>
+    <t>Smoke_TC30</t>
+  </si>
+  <si>
+    <t>Smoke_TC31</t>
+  </si>
+  <si>
+    <t>SMX</t>
+  </si>
+  <si>
+    <t>Poll DP</t>
+  </si>
+  <si>
+    <t>Comparison I</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Much less than others</t>
+  </si>
+  <si>
+    <t>image of mountain.jpg</t>
+  </si>
+  <si>
+    <t>harley-davidson-logo-vector.png</t>
+  </si>
+  <si>
+    <t>question 1</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>question 2</t>
+  </si>
+  <si>
+    <t>1111111 do not delete (dp check)</t>
+  </si>
+  <si>
+    <t>question 3</t>
+  </si>
+  <si>
+    <t>https://image.shutterstock.com/image-vector/link-icon-hyperlink-chain-symbol-260nw-1186749931.jpg</t>
+  </si>
+  <si>
+    <t>question 4</t>
+  </si>
+  <si>
+    <t>question 5</t>
+  </si>
+  <si>
+    <t>DANCING_BABY.gif</t>
+  </si>
+  <si>
+    <t>question 6</t>
+  </si>
+  <si>
+    <t>question 8</t>
+  </si>
+  <si>
+    <t>question 9</t>
+  </si>
+  <si>
+    <t>green.jpeg</t>
+  </si>
+  <si>
+    <t>question 10</t>
+  </si>
+  <si>
+    <t>hotel.jpg</t>
+  </si>
+  <si>
+    <t>Alert Box message: The Image file to upload cannot exceed 5 MB.</t>
+  </si>
+  <si>
+    <t>question 11</t>
+  </si>
+  <si>
+    <t>pdf.pdf</t>
+  </si>
+  <si>
+    <t>Alert Box message: Your file should be of the following format .gif, .jpg, .png or .jpeg.</t>
+  </si>
+  <si>
+    <t>question 12</t>
+  </si>
+  <si>
+    <t>question 13</t>
+  </si>
+  <si>
+    <t>anil_test</t>
+  </si>
+  <si>
+    <t>Welcome@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Logo Upload From Computer</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and deleted</t>
+  </si>
+  <si>
+    <t>Use account logo</t>
+  </si>
+  <si>
+    <t>Copy from another project</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo</t>
+  </si>
+  <si>
+    <t>logo should be uploaded</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. It will select logo from other survey and use that copied logo as survey logo. 4.After uploading it will delete the logo</t>
+  </si>
+  <si>
+    <t>Insert logo using URL</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.With the help of the entered URL it will upload survey logo . 4.After uploading it will delete the logo</t>
+  </si>
+  <si>
+    <t>Uploading JPG file</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpg format image.</t>
+  </si>
+  <si>
+    <t>Uploading GIF file</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .gif format image.</t>
+  </si>
+  <si>
+    <t>Align logo to left</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to left side</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and align to left</t>
+  </si>
+  <si>
+    <t>Align logo to Right</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to right side</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and align to right</t>
+  </si>
+  <si>
+    <t>Uploading JPEG file</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpeg format image.</t>
+  </si>
+  <si>
+    <t>Logo greater than 5mb</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload image which is greater than 5 mb.</t>
+  </si>
+  <si>
+    <t>1. logo should not upload 2. should get an alert</t>
+  </si>
+  <si>
+    <t>Unsupported file for logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer(.png). 4.After uploading  it will delete the uploaded logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload unsupported file</t>
+  </si>
+  <si>
+    <t>1. logo should not upload 2. should get an alert which format of files is supporting</t>
+  </si>
+  <si>
+    <t>Delete use account logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo.  4.After uploading  it will delete the uploaded logo</t>
+  </si>
+  <si>
+    <t>DP-POLL</t>
+  </si>
+  <si>
+    <t>Survey-Logo-20</t>
+  </si>
+  <si>
+    <t>Survey-Logo-21</t>
+  </si>
+  <si>
+    <t>Survey-Logo-22</t>
+  </si>
+  <si>
+    <t>Survey-Logo-23</t>
+  </si>
+  <si>
+    <t>Survey-Logo-24</t>
+  </si>
+  <si>
+    <t>Survey-Logo-25</t>
+  </si>
+  <si>
+    <t>Survey-Logo-26</t>
+  </si>
+  <si>
+    <t>Survey-Logo-27</t>
+  </si>
+  <si>
+    <t>Survey-Logo-28</t>
+  </si>
+  <si>
+    <t>Survey-Logo-29</t>
+  </si>
+  <si>
+    <t>Survey-Logo-30</t>
+  </si>
+  <si>
+    <t>Survey-Logo-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Report Iconis not present on page.</t>
+  </si>
+  <si>
+    <t>amulla@zarca.com,vgrandhi@zarca.com</t>
+  </si>
+  <si>
+    <t>amulla@zarca.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your report has been emailed to: not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sogo Account not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gnerate Button not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rating Scale Added How likely is it that you would recommend our company to a friend or colleague? not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schedule Reminder Button not present on page.</t>
+  </si>
+  <si>
+    <t>Maximum number of characters allowed for 'Header Message' is 3000.</t>
+  </si>
+  <si>
+    <t>https://www.sogosurvey.com/static/login.aspx</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>questio</t>
+  </si>
+  <si>
+    <t>.NET Framework FAQ
+What is .NET Framework used for?
+.NET Framework is used to create and run software applications. .NET apps can run on many operating systems, using different implementations of .NET. .NET Framework is used for running .NET apps on Windows.
+Who uses .NET Framework?
+Software developers and the users of their applications both use .NET Framework:
+Users of applications built with the .NET Framework need to have .NET Framework installed. In most cases, .NET Framework is already installed with Windows. If needed, you can download .NET Framework.
+Software developers use .NET Framework to build many different types of applications—websites, services, desktop apps, and more with Visual Studio. Visual Studio is an integrated development environment (IDE) that provides development productivity tools and debugging capabilities. See the .NET customer showcase for examples of what people are building with .NET.
+Why do I need .NET Framework?
+You need .NET Framework installed to run applications on Windows that were created using .NET Framework. It's already included in many versions of Windows. You only need to download and install .NET Framework if prompted to do so.
+How does .NET Framework work?
+.NET Framework applications are written in C#, F#, or Visual Basic and compiled to Common Intermediate Language (CIL). The Common Language Runtime (CLR) runs .NET applications on a given machine, converting the CIL to machine code. See Architecture of .NET Framework for more info.
+What are the main components/features of .NET Framework?
+The two major components of .NET Framework are the Common Language Runtime (CLR) and the .NET Framework Class Library. The CLR is the execution engine that handles running applications. The Class Library provides a set of APIs and types for common functionality. See Architecture of .NET Framework for more info.
+What is the difference between .NET and .NET Framework?
+.NET and .NET Framework share many of the same components and you can share code across the two. Some key differences include:
+.NET is cross-platform and runs on Linux, macOS, and Windows. .NET Framework only runs on Windows.
+.NET is open-source and accepts contributions from the community. The .NET Framework source code is available but doesn't take direct contributions.
+All of the innovation happens in .NET.
+.NET Framework is included in Windows and automatically updated machine-wide by Windows Update. .NET is shipped independently.
+See .NET vs. .NET Framework for server apps for more details.
+Can you have multiple .NET Frameworks installed?
+Some versions of .NET Framework are installed side-by-side, while others will upgrade an existing version (known as an in-place update). In-place updates occur when two .NET Framework versions share the same CLR version.
+For example, installing .NET Framework 4.8 on a machine with .NET Framework 4.7.2 and 3.5 installed will perform an in-place update of the 4.7.2 installation and leave 3.5 installed separately.
+CLR version used by .NET Framework versions.NET Framework versionCLR version.NET Framework 4.x4.0
+.NET Framework 2.x and 3.x2.0
+.NET Framework 1.11.2</t>
+  </si>
+  <si>
+    <t>Smoke_TC43</t>
+  </si>
+  <si>
+    <t>header and footer 43</t>
+  </si>
+  <si>
+    <t>Smoke_TC44</t>
+  </si>
+  <si>
+    <t>header and footer 44</t>
+  </si>
+  <si>
+    <t>Smoke_TC45</t>
+  </si>
+  <si>
+    <t>Smoke_TC46</t>
+  </si>
+  <si>
+    <t>Smoke_TC47</t>
+  </si>
+  <si>
+    <t>Smoke_TC48</t>
+  </si>
+  <si>
+    <t>Smoke_TC49</t>
+  </si>
+  <si>
+    <t>Smoke_TC50</t>
+  </si>
+  <si>
+    <t>Smoke_TC51</t>
+  </si>
+  <si>
+    <t>Smoke_TC52</t>
+  </si>
+  <si>
+    <t>Smoke_TC53</t>
+  </si>
+  <si>
+    <t>Smoke_TC54</t>
+  </si>
+  <si>
+    <t>Smoke_TC55</t>
+  </si>
+  <si>
+    <t>Smoke_TC56</t>
+  </si>
+  <si>
+    <t>Smoke_TC57</t>
+  </si>
+  <si>
+    <t>Smoke_TC58</t>
+  </si>
+  <si>
+    <t>Smoke_TC59</t>
+  </si>
+  <si>
+    <t>Smoke_TC60</t>
+  </si>
+  <si>
+    <t>Smoke_TC61</t>
+  </si>
+  <si>
+    <t>Smoke_TC62</t>
+  </si>
+  <si>
+    <t>Smoke_TC63</t>
+  </si>
+  <si>
+    <t>Smoke_TC64</t>
+  </si>
+  <si>
+    <t>Smoke_TC65</t>
+  </si>
+  <si>
+    <t>Smoke_TC66</t>
+  </si>
+  <si>
+    <t>Smoke_TC67</t>
+  </si>
+  <si>
+    <t>Smoke_TC68</t>
+  </si>
+  <si>
+    <t>Smoke_TC69</t>
+  </si>
+  <si>
+    <t>Smoke_TC70</t>
+  </si>
+  <si>
+    <t>Smoke_TC71</t>
+  </si>
+  <si>
+    <t>Smoke_TC72</t>
+  </si>
+  <si>
+    <t>Smoke_TC73</t>
+  </si>
+  <si>
+    <t>Smoke_TC74</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Smoke_TC14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To send exe reminders </t>
-  </si>
-  <si>
-    <t>Q3. dd A drop-down list (also drop down menu or drop-down menu or drop menu or pull-down li...</t>
-  </si>
-  <si>
-    <t>Smoke_TC15</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>Data import</t>
-  </si>
-  <si>
-    <t>Zarca Data Import File.xls</t>
-  </si>
-  <si>
-    <t>Data Import DP Survey - All Question Types</t>
-  </si>
-  <si>
-    <t>Smoke_TC16</t>
-  </si>
-  <si>
-    <t>Data export</t>
-  </si>
-  <si>
-    <t>All Question Survey with English FROM gjoy_test FROM gaurav_k12</t>
-  </si>
-  <si>
-    <t>aansari1@zarca.com</t>
-  </si>
-  <si>
-    <t>DP - Segment Group</t>
-  </si>
-  <si>
-    <t>Q 7. Rating Radio Button</t>
-  </si>
-  <si>
-    <t>surveyType</t>
-  </si>
-  <si>
-    <t>Smoke_TC19</t>
-  </si>
-  <si>
-    <t>Smoke_TC20</t>
-  </si>
-  <si>
-    <t>Smoke_TC21</t>
-  </si>
-  <si>
-    <t>Smoke_TC22</t>
-  </si>
-  <si>
-    <t>Smoke_TC23</t>
-  </si>
-  <si>
-    <t>Smoke_TC24</t>
-  </si>
-  <si>
-    <t>Smoke_TC25</t>
-  </si>
-  <si>
-    <t>Smoke_TC26</t>
-  </si>
-  <si>
-    <t>Smoke_TC27</t>
-  </si>
-  <si>
-    <t>Smoke_TC28</t>
-  </si>
-  <si>
-    <t>Smoke_TC29</t>
-  </si>
-  <si>
-    <t>Smoke_TC30</t>
-  </si>
-  <si>
-    <t>Smoke_TC31</t>
-  </si>
-  <si>
-    <t>SMX</t>
-  </si>
-  <si>
-    <t>Poll DP</t>
-  </si>
-  <si>
-    <t>Comparison I</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>Much less than others</t>
-  </si>
-  <si>
-    <t>image of mountain.jpg</t>
-  </si>
-  <si>
-    <t>harley-davidson-logo-vector.png</t>
-  </si>
-  <si>
-    <t>question 1</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>question 2</t>
-  </si>
-  <si>
-    <t>1111111 do not delete (dp check)</t>
-  </si>
-  <si>
-    <t>question 3</t>
-  </si>
-  <si>
-    <t>https://image.shutterstock.com/image-vector/link-icon-hyperlink-chain-symbol-260nw-1186749931.jpg</t>
-  </si>
-  <si>
-    <t>question 4</t>
-  </si>
-  <si>
-    <t>question 5</t>
-  </si>
-  <si>
-    <t>DANCING_BABY.gif</t>
-  </si>
-  <si>
-    <t>question 6</t>
-  </si>
-  <si>
-    <t>question 8</t>
-  </si>
-  <si>
-    <t>question 9</t>
-  </si>
-  <si>
-    <t>green.jpeg</t>
-  </si>
-  <si>
-    <t>question 10</t>
-  </si>
-  <si>
-    <t>hotel.jpg</t>
-  </si>
-  <si>
-    <t>Alert Box message: The Image file to upload cannot exceed 5 MB.</t>
-  </si>
-  <si>
-    <t>question 11</t>
-  </si>
-  <si>
-    <t>pdf.pdf</t>
-  </si>
-  <si>
-    <t>Alert Box message: Your file should be of the following format .gif, .jpg, .png or .jpeg.</t>
-  </si>
-  <si>
-    <t>question 12</t>
-  </si>
-  <si>
-    <t>question 13</t>
-  </si>
-  <si>
-    <t>anil_test</t>
-  </si>
-  <si>
-    <t>Welcome@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Logo Upload From Computer</t>
-  </si>
-  <si>
-    <t>logo should be uploaded and deleted</t>
-  </si>
-  <si>
-    <t>Use account logo</t>
-  </si>
-  <si>
-    <t>Copy from another project</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo</t>
-  </si>
-  <si>
-    <t>logo should be uploaded</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. It will select logo from other survey and use that copied logo as survey logo. 4.After uploading it will delete the logo</t>
-  </si>
-  <si>
-    <t>Insert logo using URL</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3.With the help of the entered URL it will upload survey logo . 4.After uploading it will delete the logo</t>
-  </si>
-  <si>
-    <t>Uploading JPG file</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpg format image.</t>
-  </si>
-  <si>
-    <t>Uploading GIF file</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .gif format image.</t>
-  </si>
-  <si>
-    <t>Align logo to left</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to left side</t>
-  </si>
-  <si>
-    <t>logo should be uploaded and align to left</t>
-  </si>
-  <si>
-    <t>Align logo to Right</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to right side</t>
-  </si>
-  <si>
-    <t>logo should be uploaded and align to right</t>
-  </si>
-  <si>
-    <t>Uploading JPEG file</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpeg format image.</t>
-  </si>
-  <si>
-    <t>Logo greater than 5mb</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload image which is greater than 5 mb.</t>
-  </si>
-  <si>
-    <t>1. logo should not upload 2. should get an alert</t>
-  </si>
-  <si>
-    <t>Unsupported file for logo</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer(.png). 4.After uploading  it will delete the uploaded logo</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload unsupported file</t>
-  </si>
-  <si>
-    <t>1. logo should not upload 2. should get an alert which format of files is supporting</t>
-  </si>
-  <si>
-    <t>Delete use account logo</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo.  4.After uploading  it will delete the uploaded logo</t>
-  </si>
-  <si>
-    <t>DP-POLL</t>
-  </si>
-  <si>
-    <t>Survey-Logo-20</t>
-  </si>
-  <si>
-    <t>Survey-Logo-21</t>
-  </si>
-  <si>
-    <t>Survey-Logo-22</t>
-  </si>
-  <si>
-    <t>Survey-Logo-23</t>
-  </si>
-  <si>
-    <t>Survey-Logo-24</t>
-  </si>
-  <si>
-    <t>Survey-Logo-25</t>
-  </si>
-  <si>
-    <t>Survey-Logo-26</t>
-  </si>
-  <si>
-    <t>Survey-Logo-27</t>
-  </si>
-  <si>
-    <t>Survey-Logo-28</t>
-  </si>
-  <si>
-    <t>Survey-Logo-29</t>
-  </si>
-  <si>
-    <t>Survey-Logo-30</t>
-  </si>
-  <si>
-    <t>Survey-Logo-31</t>
+    <t xml:space="preserve"> Create Project Button not present on page.</t>
+  </si>
+  <si>
+    <t>Maximum number of characters allowed for 'Footer Message' is 3000.</t>
+  </si>
+  <si>
+    <t>header and footer 45</t>
+  </si>
+  <si>
+    <t>header and footer 46</t>
+  </si>
+  <si>
+    <t>header and footer 47</t>
+  </si>
+  <si>
+    <t>header and footer 48</t>
+  </si>
+  <si>
+    <t>header and footer 49</t>
+  </si>
+  <si>
+    <t>header and footer 50</t>
+  </si>
+  <si>
+    <t>header and footer 51</t>
+  </si>
+  <si>
+    <t>header and footer 52</t>
+  </si>
+  <si>
+    <t>header and footer 53</t>
+  </si>
+  <si>
+    <t>header and footer 54</t>
+  </si>
+  <si>
+    <t>header and footer 55</t>
+  </si>
+  <si>
+    <t>header and footer 56</t>
+  </si>
+  <si>
+    <t>header and footer 57</t>
+  </si>
+  <si>
+    <t>header and footer 58</t>
+  </si>
+  <si>
+    <t>header and footer 59</t>
+  </si>
+  <si>
+    <t>header and footer 60</t>
+  </si>
+  <si>
+    <t>header and footer 61</t>
+  </si>
+  <si>
+    <t>header and footer 62</t>
+  </si>
+  <si>
+    <t>header and footer 63</t>
+  </si>
+  <si>
+    <t>header and footer 64</t>
+  </si>
+  <si>
+    <t>header and footer 65</t>
+  </si>
+  <si>
+    <t>header and footer 66</t>
+  </si>
+  <si>
+    <t>header and footer 67</t>
+  </si>
+  <si>
+    <t>header and footer 68</t>
+  </si>
+  <si>
+    <t>header and footer 69</t>
+  </si>
+  <si>
+    <t>header and footer 70</t>
+  </si>
+  <si>
+    <t>header and footer 71</t>
+  </si>
+  <si>
+    <t>header and footer 72</t>
+  </si>
+  <si>
+    <t>header and footer 73</t>
+  </si>
+  <si>
+    <t>header and footer 74</t>
+  </si>
+  <si>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t>.NET Framework FAQ
+What is .NET Framework used for?
+.NET Framework is used to create and run software applications. .NET apps can run on many operating systems, using different implementations of .NET. .NET Framework is used for running .NET apps on Windows.
+Who uses .NET Framework?
+Software developers and the users of their applications both use .NET Framework:
+Users of applications built with the .NET Framework need to have .NET Framework installed. In most cases, .NET Framework is already installed with Windows. If needed, you can download .NET Framework.
+Software developers use .NET Framework to build many different types of applications—websites, services, desktop apps, and more with Visual Studio. Visual Studio is an integrated development environment (IDE) that provides development productivity tools and debugging capabilities. See the .NET customer showcase for examples of what people are building with .NET.
+Why do I need .NET Framework?
+You need .NET Framework installed to run applications on Windows that were created using .NET Framework. It's already included in many versions of Windows. You only need to download and install .NET Framework if prompted to do so.
+How does .NET Framework work?
+.NET Framework applications are written in C#, F#, or Visual Basic and compiled to Common Intermediate Language (CIL). The Common Language Runtime (CLR) runs .NET applications on a given machine, converting the CIL to machine code. See Architecture of .NET Framework for more info.
+What are the main components/features of .NET Framework?
+The two major components of .NET Framework are the Common Language Runtime (CLR) and the .NET Framework Class Library. The CLR is the execution engine that handles running applications. The Class Library provides a set of APIs and types for common functionality. See Architecture of .NET Framework for more info.
+What is the difference between .NET and .NET Framework?
+.NET and .NET Framework share many of the same components and you can share code across the two. Some key differences include:
+.NET is cross-platform and runs on Linux, macOS, and Windows. .NET Framework only runs on Windows.
+.NET is open-source and accepts contributions from the community. The .NET Framework source code is available but doesn't take direct contributions.
+All of the innovation happens in .NET.
+.NET Framework is included in Windows and automatically updated machine-wide by Windows Update. .NET is shipped independently.
+See .NET vs. .NET Framework for server apps for more details.
+Can you have multiple .NET Frameworks installed?
+Some versions of .NET Framework are installed side-by-side, while others will upgrade an existing version (known as an in-place update). In-place updates occur when two .NET Framework versions share the same CLR version.
+For example, installing .NET Framework 4.8 on a machine with .NET Framework 4.7.2 and 3.5 installed will perform an in-place update of the 4.7.2 installation and leave 3.5 installed separately.
+CLR version used by .NET Framework versions.NET Framework versionCLR version.NET Framework 4.x4.0
+.NET Framework 2.x and 3.x2.0
+.NET Framework 1.11.1</t>
+  </si>
+  <si>
+    <t>limit Test For Header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and check for the limit text</t>
+  </si>
+  <si>
+    <t>header should not be uploaded</t>
+  </si>
+  <si>
+    <t>limit Test For Footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and check for the limit text</t>
+  </si>
+  <si>
+    <t>footer should not uploaded</t>
+  </si>
+  <si>
+    <t>bold CheckForHeader</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and changing font style to bold</t>
+  </si>
+  <si>
+    <t>header should be uploaded  and displayed in bold style</t>
+  </si>
+  <si>
+    <t>bold Check For Footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and changing font style to bold</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed in bold style</t>
+  </si>
+  <si>
+    <t>Italic check for header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and changing font style to italic</t>
+  </si>
+  <si>
+    <t>header should be uploaded  and displayed in italic style</t>
+  </si>
+  <si>
+    <t>Italic check for footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and changing font style to italic</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed in italic style</t>
+  </si>
+  <si>
+    <t>under line check for header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and changing font style to underline</t>
+  </si>
+  <si>
+    <t>header should be uploaded and displayed in underline format</t>
+  </si>
+  <si>
+    <t>under line check for footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and changing font style to underline</t>
+  </si>
+  <si>
+    <t>footer should be uploaded and displayed in underline format</t>
+  </si>
+  <si>
+    <t>remove format for header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and changing font style to bold 4. Then removing the font</t>
+  </si>
+  <si>
+    <t>header should be uploaded and displayed with font style</t>
+  </si>
+  <si>
+    <t>remove formate for footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and changing font style to bold 4. Then removing the font</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed with font style</t>
+  </si>
+  <si>
+    <t>alignment for header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for all alignments</t>
+  </si>
+  <si>
+    <t>alignment for footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for all alignments</t>
+  </si>
+  <si>
+    <t>undo and redo header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for undo and redo</t>
+  </si>
+  <si>
+    <t>undo and redo footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for undo and redo</t>
+  </si>
+  <si>
+    <t>number list header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for number list</t>
+  </si>
+  <si>
+    <t>header should be uploaded  and displayed In number list</t>
+  </si>
+  <si>
+    <t>number list footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for number list</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed In number list</t>
+  </si>
+  <si>
+    <t>bullet list header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for bullet list</t>
+  </si>
+  <si>
+    <t>header should be uploaded  and displayed In bullet list</t>
+  </si>
+  <si>
+    <t>bullet list footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for bullet list</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed In bullet list</t>
+  </si>
+  <si>
+    <t>increase And Decrease IndentHeader</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking indent</t>
+  </si>
+  <si>
+    <t>increase And Decrease Indent Footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking indent</t>
+  </si>
+  <si>
+    <t>Source Header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for source type</t>
+  </si>
+  <si>
+    <t>header should be uploaded and displayed the content</t>
+  </si>
+  <si>
+    <t>Source Footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for source type</t>
+  </si>
+  <si>
+    <t>footer should be uploaded and displayed the content</t>
+  </si>
+  <si>
+    <t>link Unlink Header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for link and unlink the url</t>
+  </si>
+  <si>
+    <t>link Unlink Footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for link and unlink the url</t>
+  </si>
+  <si>
+    <t>spell check header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header with wrong spelling and checking for spell check</t>
+  </si>
+  <si>
+    <t>spell check should work properly and correct spelling should be displayed</t>
+  </si>
+  <si>
+    <t>spell check footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer with wrong spelling and checking for spell check</t>
+  </si>
+  <si>
+    <t>paste from word header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header by paste from word</t>
+  </si>
+  <si>
+    <t>content from word should uploaded and displayed</t>
+  </si>
+  <si>
+    <t>paste from word footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer by paste from word</t>
+  </si>
+  <si>
+    <t>font Colour Header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for font colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header colour should change </t>
+  </si>
+  <si>
+    <t>font Colour Footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for font colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer colour should change </t>
+  </si>
+  <si>
+    <t>font Size Header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for font size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header size should change </t>
+  </si>
+  <si>
+    <t>font size footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for font size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer size should change </t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1747,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1235,8 +1780,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1552,7 +2101,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1594,7 +2143,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1614,7 +2163,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,10 +2193,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1655,13 +2204,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1672,10 +2221,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -1683,13 +2232,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1697,13 +2246,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -1711,13 +2260,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -1726,7 +2275,9 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1735,10 +2286,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CP30"/>
+  <dimension ref="A1:CP62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AT19" sqref="AT19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,259 +2343,259 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AV1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AW1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AX1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BC1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BF1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BK1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BL1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BP1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BR1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BS1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BT1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BU1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BV1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BW1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BX1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BY1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="CA1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CB1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CC1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CD1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CE1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CF1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CG1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CH1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CI1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CJ1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CK1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CL1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CM1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CN1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="CN1" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="CO1" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="CP1" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:94" x14ac:dyDescent="0.25">
@@ -2064,18 +2615,18 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>174</v>
+        <v>25</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -2163,10 +2714,10 @@
     </row>
     <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -2178,16 +2729,18 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>365</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2224,124 +2777,124 @@
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AV3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AW3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AW3" s="6" t="s">
+      <c r="AX3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AX3" s="6" t="s">
+      <c r="AY3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AY3" s="6" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="6" t="s">
+      <c r="BA3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="BA3" s="6" t="s">
+      <c r="BB3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="BB3" s="6" t="s">
+      <c r="BC3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BC3" s="6" t="s">
+      <c r="BD3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BD3" s="6" t="s">
+      <c r="BE3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="BE3" s="7" t="s">
+      <c r="BF3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="BF3" s="6" t="s">
+      <c r="BG3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BG3" s="6" t="s">
+      <c r="BH3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="BH3" s="6" t="s">
+      <c r="BI3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="BI3" s="6" t="s">
+      <c r="BJ3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="BJ3" s="6" t="s">
+      <c r="BK3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="BK3" s="6" t="s">
+      <c r="BL3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BL3" s="6" t="s">
+      <c r="BM3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="BM3" s="6" t="s">
+      <c r="BN3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BN3" s="6" t="s">
+      <c r="BO3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BO3" s="6" t="s">
+      <c r="BP3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="6" t="s">
+      <c r="BQ3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BQ3" s="6" t="s">
+      <c r="BR3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BR3" s="6" t="s">
+      <c r="BS3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BS3" s="6" t="s">
+      <c r="BT3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BT3" s="6" t="s">
+      <c r="BU3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BU3" s="6" t="s">
+      <c r="BV3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BV3" s="6" t="s">
+      <c r="BW3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BW3" s="6" t="s">
+      <c r="BX3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BX3" s="6" t="s">
+      <c r="BY3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BY3" s="6" t="s">
+      <c r="BZ3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BZ3" s="6" t="s">
+      <c r="CA3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="CA3" s="6" t="s">
+      <c r="CB3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="CB3" s="6" t="s">
+      <c r="CC3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="CC3" s="6" t="s">
+      <c r="CD3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="CD3" s="6" t="s">
+      <c r="CE3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="CE3" s="6" t="s">
+      <c r="CF3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="CF3" s="6" t="s">
+      <c r="CG3" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="CG3" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="CH3" s="6"/>
       <c r="CI3" s="6"/>
@@ -2355,7 +2908,7 @@
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2367,19 +2920,21 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" s="11"/>
+        <v>157</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>322</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -2456,32 +3011,32 @@
       <c r="CF4" s="12"/>
       <c r="CG4" s="12"/>
       <c r="CH4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CI4" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="CJ4" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="CK4" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="CI4" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="CJ4" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="CK4" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="CL4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="CM4" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN4" s="25" t="s">
         <v>176</v>
-      </c>
-      <c r="CN4" s="25" t="s">
-        <v>177</v>
       </c>
       <c r="CO4" s="25"/>
       <c r="CP4" s="25"/>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -2493,17 +3048,17 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>174</v>
+        <v>157</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="1"/>
@@ -2582,32 +3137,32 @@
       <c r="CF5" s="12"/>
       <c r="CG5" s="12"/>
       <c r="CH5" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI5" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="CI5" s="15" t="s">
+      <c r="CJ5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="CJ5" s="15" t="s">
-        <v>180</v>
-      </c>
       <c r="CK5" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="CL5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="CM5" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="CN5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="CO5" s="15"/>
       <c r="CP5" s="15"/>
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -2619,17 +3174,17 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>174</v>
+        <v>157</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="1"/>
@@ -2708,11 +3263,11 @@
       <c r="CF6" s="12"/>
       <c r="CG6" s="12"/>
       <c r="CH6" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CI6" s="15"/>
       <c r="CJ6" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CK6" s="15"/>
       <c r="CL6" s="15"/>
@@ -2723,7 +3278,7 @@
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -2735,19 +3290,21 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="J7" s="11"/>
+        <v>164</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>323</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -2824,16 +3381,16 @@
       <c r="CF7" s="12"/>
       <c r="CG7" s="12"/>
       <c r="CH7" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CI7" s="15"/>
       <c r="CJ7" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="CK7" s="15"/>
       <c r="CL7" s="15"/>
       <c r="CM7" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CN7" s="15"/>
       <c r="CO7" s="15"/>
@@ -2841,7 +3398,7 @@
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2853,17 +3410,17 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>174</v>
+        <v>164</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="1"/>
@@ -2942,16 +3499,16 @@
       <c r="CF8" s="12"/>
       <c r="CG8" s="12"/>
       <c r="CH8" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CI8" s="15"/>
       <c r="CJ8" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CK8" s="15"/>
       <c r="CL8" s="15"/>
       <c r="CM8" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="CN8" s="15"/>
       <c r="CO8" s="15"/>
@@ -2959,7 +3516,7 @@
     </row>
     <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -2974,12 +3531,12 @@
         <v>7</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="33" t="s">
-        <v>174</v>
+      <c r="I9" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3058,32 +3615,32 @@
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="CI9" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CJ9" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CK9" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="CL9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="CM9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="CN9" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="CN9" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="CO9" s="13"/>
       <c r="CP9" s="13"/>
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -3095,30 +3652,32 @@
         <v>17</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>192</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="17" t="s">
-        <v>193</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
@@ -3127,7 +3686,7 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="24" t="s">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
@@ -3192,7 +3751,7 @@
       <c r="CF10" s="17"/>
       <c r="CG10" s="17"/>
       <c r="CH10" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CI10" s="19"/>
       <c r="CJ10" s="19"/>
@@ -3202,12 +3761,12 @@
       <c r="CN10" s="19"/>
       <c r="CO10" s="19"/>
       <c r="CP10" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -3219,21 +3778,23 @@
         <v>17</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17" t="s">
-        <v>197</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -3247,7 +3808,7 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="24" t="s">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
@@ -3312,7 +3873,7 @@
       <c r="CF11" s="17"/>
       <c r="CG11" s="17"/>
       <c r="CH11" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CI11" s="19"/>
       <c r="CJ11" s="19"/>
@@ -3322,12 +3883,12 @@
       <c r="CN11" s="19"/>
       <c r="CO11" s="19"/>
       <c r="CP11" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -3339,21 +3900,23 @@
         <v>17</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>200</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17" t="s">
-        <v>201</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -3367,7 +3930,7 @@
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="24" t="s">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
@@ -3432,7 +3995,7 @@
       <c r="CF12" s="17"/>
       <c r="CG12" s="17"/>
       <c r="CH12" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CI12" s="19"/>
       <c r="CJ12" s="19"/>
@@ -3442,12 +4005,12 @@
       <c r="CN12" s="19"/>
       <c r="CO12" s="19"/>
       <c r="CP12" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -3459,21 +4022,23 @@
         <v>17</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -3487,7 +4052,7 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="24" t="s">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
@@ -3552,7 +4117,7 @@
       <c r="CF13" s="17"/>
       <c r="CG13" s="17"/>
       <c r="CH13" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CI13" s="19"/>
       <c r="CJ13" s="19"/>
@@ -3562,12 +4127,12 @@
       <c r="CN13" s="19"/>
       <c r="CO13" s="19"/>
       <c r="CP13" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -3579,22 +4144,24 @@
         <v>17</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F14" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>208</v>
-      </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="J14" s="22"/>
+      <c r="I14" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>318</v>
+      </c>
       <c r="K14" s="21"/>
       <c r="L14" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="21"/>
@@ -3607,7 +4174,7 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="24" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
@@ -3672,7 +4239,7 @@
       <c r="CF14" s="21"/>
       <c r="CG14" s="21"/>
       <c r="CH14" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CI14" s="23"/>
       <c r="CJ14" s="23"/>
@@ -3682,12 +4249,12 @@
       <c r="CN14" s="23"/>
       <c r="CO14" s="23"/>
       <c r="CP14" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -3699,19 +4266,21 @@
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="J15" s="11"/>
+        <v>157</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>325</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -3788,32 +4357,32 @@
       <c r="CF15" s="12"/>
       <c r="CG15" s="12"/>
       <c r="CH15" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CI15" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="CJ15" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="CK15" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="CI15" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="CJ15" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="CK15" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="CL15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="CM15" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN15" s="25" t="s">
         <v>176</v>
-      </c>
-      <c r="CN15" s="25" t="s">
-        <v>177</v>
       </c>
       <c r="CO15" s="25"/>
       <c r="CP15" s="25"/>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -3825,15 +4394,15 @@
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="33" t="s">
-        <v>174</v>
+      <c r="I16" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="1"/>
@@ -3872,7 +4441,7 @@
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AU16" s="12"/>
       <c r="AV16" s="12"/>
@@ -3918,7 +4487,7 @@
       </c>
       <c r="CI16" s="14"/>
       <c r="CJ16" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="CK16" s="15"/>
       <c r="CL16" s="15"/>
@@ -3929,7 +4498,7 @@
     </row>
     <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
@@ -3941,15 +4510,15 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="33" t="s">
-        <v>174</v>
+      <c r="I17" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
@@ -3990,7 +4559,7 @@
       <c r="AR17" s="12"/>
       <c r="AS17" s="12"/>
       <c r="AT17" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AU17" s="12"/>
       <c r="AV17" s="12"/>
@@ -4045,10 +4614,10 @@
     </row>
     <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -4057,17 +4626,17 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="33" t="s">
-        <v>174</v>
+      <c r="I18" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="1"/>
@@ -4076,7 +4645,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -4108,20 +4677,20 @@
       <c r="AR18" s="27"/>
       <c r="AS18" s="27"/>
       <c r="AT18" s="27" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AU18" s="27"/>
       <c r="AV18" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AX18" s="27"/>
       <c r="AY18" s="27"/>
       <c r="AZ18" s="27"/>
       <c r="BA18" s="27" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="BB18" s="27"/>
       <c r="BC18" s="27"/>
@@ -4167,10 +4736,10 @@
     </row>
     <row r="19" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -4179,19 +4748,19 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>218</v>
+        <v>276</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -4200,7 +4769,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -4232,16 +4801,16 @@
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
       <c r="AT19" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AU19" s="1"/>
       <c r="AV19" s="31"/>
       <c r="AW19" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AX19" s="1"/>
       <c r="AY19" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
@@ -4285,16 +4854,16 @@
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
       <c r="CO19" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CP19" s="25"/>
     </row>
     <row r="20" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -4303,19 +4872,19 @@
         <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>218</v>
+      <c r="I20" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -4354,14 +4923,14 @@
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AU20" s="1"/>
       <c r="AV20" s="31"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
@@ -4405,16 +4974,16 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
       <c r="CO20" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CP20" s="25"/>
     </row>
     <row r="21" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
@@ -4423,19 +4992,19 @@
         <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>218</v>
+        <v>276</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -4473,21 +5042,21 @@
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AV21" s="31"/>
       <c r="AW21" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
@@ -4531,16 +5100,16 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CP21" s="25"/>
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -4549,19 +5118,19 @@
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>218</v>
+        <v>276</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -4600,16 +5169,16 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AU22" s="1"/>
       <c r="AV22" s="31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
@@ -4653,16 +5222,16 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CP22" s="25"/>
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -4671,19 +5240,19 @@
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>218</v>
+        <v>280</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -4692,7 +5261,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -4724,14 +5293,14 @@
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AU23" s="1"/>
       <c r="AV23" s="31"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
@@ -4775,16 +5344,16 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CP23" s="25"/>
     </row>
     <row r="24" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -4793,19 +5362,19 @@
         <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>218</v>
+        <v>280</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -4815,7 +5384,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -4846,14 +5415,14 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="31"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
@@ -4897,16 +5466,16 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CP24" s="25"/>
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
@@ -4915,19 +5484,19 @@
         <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>218</v>
+        <v>290</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -4966,14 +5535,14 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AU25" s="1"/>
       <c r="AV25" s="31"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
@@ -5017,16 +5586,16 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CP25" s="25"/>
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
@@ -5035,19 +5604,19 @@
         <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>218</v>
+        <v>293</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -5086,14 +5655,14 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AU26" s="1"/>
       <c r="AV26" s="31"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
@@ -5137,16 +5706,16 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CP26" s="25"/>
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
@@ -5155,19 +5724,19 @@
         <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>218</v>
+        <v>280</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -5178,7 +5747,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -5208,14 +5777,14 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="31"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
@@ -5259,16 +5828,16 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CP27" s="25"/>
     </row>
     <row r="28" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
@@ -5277,19 +5846,19 @@
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>218</v>
+        <v>298</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -5301,12 +5870,12 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -5332,14 +5901,14 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="31"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
@@ -5383,16 +5952,16 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
       <c r="CO28" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CP28" s="25"/>
     </row>
     <row r="29" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
@@ -5401,19 +5970,19 @@
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>218</v>
+      <c r="I29" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -5426,10 +5995,10 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -5456,14 +6025,14 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AU29" s="1"/>
       <c r="AV29" s="31"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
@@ -5507,16 +6076,16 @@
       <c r="CM29" s="1"/>
       <c r="CN29" s="1"/>
       <c r="CO29" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CP29" s="25"/>
     </row>
     <row r="30" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
@@ -5525,19 +6094,19 @@
         <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>218</v>
+        <v>276</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -5576,14 +6145,14 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
@@ -5627,15 +6196,3867 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="CP30" s="25"/>
+    </row>
+    <row r="31" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AW31" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="1"/>
+      <c r="CL31" s="1"/>
+      <c r="CM31" s="1"/>
+      <c r="CN31" s="1"/>
+      <c r="CO31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP31" s="1"/>
+    </row>
+    <row r="32" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
+      <c r="CH32" s="1"/>
+      <c r="CI32" s="1"/>
+      <c r="CJ32" s="1"/>
+      <c r="CK32" s="1"/>
+      <c r="CL32" s="1"/>
+      <c r="CM32" s="1"/>
+      <c r="CN32" s="1"/>
+      <c r="CO32" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP32" s="1"/>
+    </row>
+    <row r="33" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="32"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="1"/>
+      <c r="CL33" s="1"/>
+      <c r="CM33" s="1"/>
+      <c r="CN33" s="1"/>
+      <c r="CO33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP33" s="1"/>
+    </row>
+    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="32"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1"/>
+      <c r="CO34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP34" s="1"/>
+    </row>
+    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="32"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="1"/>
+      <c r="CL35" s="1"/>
+      <c r="CM35" s="1"/>
+      <c r="CN35" s="1"/>
+      <c r="CO35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP35" s="1"/>
+    </row>
+    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="32"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP36" s="1"/>
+    </row>
+    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="32"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+      <c r="CH37" s="1"/>
+      <c r="CI37" s="1"/>
+      <c r="CJ37" s="1"/>
+      <c r="CK37" s="1"/>
+      <c r="CL37" s="1"/>
+      <c r="CM37" s="1"/>
+      <c r="CN37" s="1"/>
+      <c r="CO37" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP37" s="1"/>
+    </row>
+    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="32"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP38" s="1"/>
+    </row>
+    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="32"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP39" s="1"/>
+    </row>
+    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="32"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
+      <c r="CC40" s="1"/>
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="1"/>
+      <c r="CF40" s="1"/>
+      <c r="CG40" s="1"/>
+      <c r="CH40" s="1"/>
+      <c r="CI40" s="1"/>
+      <c r="CJ40" s="1"/>
+      <c r="CK40" s="1"/>
+      <c r="CL40" s="1"/>
+      <c r="CM40" s="1"/>
+      <c r="CN40" s="1"/>
+      <c r="CO40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP40" s="1"/>
+    </row>
+    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="32"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
+      <c r="CO41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP41" s="1"/>
+    </row>
+    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="32"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="1"/>
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="1"/>
+      <c r="BX42" s="1"/>
+      <c r="BY42" s="1"/>
+      <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="1"/>
+      <c r="CF42" s="1"/>
+      <c r="CG42" s="1"/>
+      <c r="CH42" s="1"/>
+      <c r="CI42" s="1"/>
+      <c r="CJ42" s="1"/>
+      <c r="CK42" s="1"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
+      <c r="CO42" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP42" s="1"/>
+    </row>
+    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="32"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="1"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
+      <c r="CO43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP43" s="1"/>
+    </row>
+    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="32"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="1"/>
+      <c r="BX44" s="1"/>
+      <c r="BY44" s="1"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="1"/>
+      <c r="CG44" s="1"/>
+      <c r="CH44" s="1"/>
+      <c r="CI44" s="1"/>
+      <c r="CJ44" s="1"/>
+      <c r="CK44" s="1"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
+      <c r="CO44" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP44" s="1"/>
+    </row>
+    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="32"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP45" s="1"/>
+    </row>
+    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="32"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="1"/>
+      <c r="BM46" s="1"/>
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="1"/>
+      <c r="BP46" s="1"/>
+      <c r="BQ46" s="1"/>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="1"/>
+      <c r="BT46" s="1"/>
+      <c r="BU46" s="1"/>
+      <c r="BV46" s="1"/>
+      <c r="BW46" s="1"/>
+      <c r="BX46" s="1"/>
+      <c r="BY46" s="1"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+      <c r="CF46" s="1"/>
+      <c r="CG46" s="1"/>
+      <c r="CH46" s="1"/>
+      <c r="CI46" s="1"/>
+      <c r="CJ46" s="1"/>
+      <c r="CK46" s="1"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
+      <c r="CO46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP46" s="1"/>
+    </row>
+    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="32"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="1"/>
+      <c r="BK47" s="1"/>
+      <c r="BL47" s="1"/>
+      <c r="BM47" s="1"/>
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="1"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="1"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="1"/>
+      <c r="BT47" s="1"/>
+      <c r="BU47" s="1"/>
+      <c r="BV47" s="1"/>
+      <c r="BW47" s="1"/>
+      <c r="BX47" s="1"/>
+      <c r="BY47" s="1"/>
+      <c r="BZ47" s="1"/>
+      <c r="CA47" s="1"/>
+      <c r="CB47" s="1"/>
+      <c r="CC47" s="1"/>
+      <c r="CD47" s="1"/>
+      <c r="CE47" s="1"/>
+      <c r="CF47" s="1"/>
+      <c r="CG47" s="1"/>
+      <c r="CH47" s="1"/>
+      <c r="CI47" s="1"/>
+      <c r="CJ47" s="1"/>
+      <c r="CK47" s="1"/>
+      <c r="CL47" s="1"/>
+      <c r="CM47" s="1"/>
+      <c r="CN47" s="1"/>
+      <c r="CO47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP47" s="1"/>
+    </row>
+    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="32"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
+      <c r="BH48" s="1"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="1"/>
+      <c r="BK48" s="1"/>
+      <c r="BL48" s="1"/>
+      <c r="BM48" s="1"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
+      <c r="BP48" s="1"/>
+      <c r="BQ48" s="1"/>
+      <c r="BR48" s="1"/>
+      <c r="BS48" s="1"/>
+      <c r="BT48" s="1"/>
+      <c r="BU48" s="1"/>
+      <c r="BV48" s="1"/>
+      <c r="BW48" s="1"/>
+      <c r="BX48" s="1"/>
+      <c r="BY48" s="1"/>
+      <c r="BZ48" s="1"/>
+      <c r="CA48" s="1"/>
+      <c r="CB48" s="1"/>
+      <c r="CC48" s="1"/>
+      <c r="CD48" s="1"/>
+      <c r="CE48" s="1"/>
+      <c r="CF48" s="1"/>
+      <c r="CG48" s="1"/>
+      <c r="CH48" s="1"/>
+      <c r="CI48" s="1"/>
+      <c r="CJ48" s="1"/>
+      <c r="CK48" s="1"/>
+      <c r="CL48" s="1"/>
+      <c r="CM48" s="1"/>
+      <c r="CN48" s="1"/>
+      <c r="CO48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP48" s="1"/>
+    </row>
+    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="32"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="1"/>
+      <c r="CB49" s="1"/>
+      <c r="CC49" s="1"/>
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="1"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="1"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="1"/>
+      <c r="CN49" s="1"/>
+      <c r="CO49" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP49" s="1"/>
+    </row>
+    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="32"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="1"/>
+      <c r="BU50" s="1"/>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="1"/>
+      <c r="BX50" s="1"/>
+      <c r="BY50" s="1"/>
+      <c r="BZ50" s="1"/>
+      <c r="CA50" s="1"/>
+      <c r="CB50" s="1"/>
+      <c r="CC50" s="1"/>
+      <c r="CD50" s="1"/>
+      <c r="CE50" s="1"/>
+      <c r="CF50" s="1"/>
+      <c r="CG50" s="1"/>
+      <c r="CH50" s="1"/>
+      <c r="CI50" s="1"/>
+      <c r="CJ50" s="1"/>
+      <c r="CK50" s="1"/>
+      <c r="CL50" s="1"/>
+      <c r="CM50" s="1"/>
+      <c r="CN50" s="1"/>
+      <c r="CO50" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP50" s="1"/>
+    </row>
+    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="32"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="1"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="1"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="1"/>
+      <c r="BX51" s="1"/>
+      <c r="BY51" s="1"/>
+      <c r="BZ51" s="1"/>
+      <c r="CA51" s="1"/>
+      <c r="CB51" s="1"/>
+      <c r="CC51" s="1"/>
+      <c r="CD51" s="1"/>
+      <c r="CE51" s="1"/>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="1"/>
+      <c r="CH51" s="1"/>
+      <c r="CI51" s="1"/>
+      <c r="CJ51" s="1"/>
+      <c r="CK51" s="1"/>
+      <c r="CL51" s="1"/>
+      <c r="CM51" s="1"/>
+      <c r="CN51" s="1"/>
+      <c r="CO51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP51" s="1"/>
+    </row>
+    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="32"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="1"/>
+      <c r="BX52" s="1"/>
+      <c r="BY52" s="1"/>
+      <c r="BZ52" s="1"/>
+      <c r="CA52" s="1"/>
+      <c r="CB52" s="1"/>
+      <c r="CC52" s="1"/>
+      <c r="CD52" s="1"/>
+      <c r="CE52" s="1"/>
+      <c r="CF52" s="1"/>
+      <c r="CG52" s="1"/>
+      <c r="CH52" s="1"/>
+      <c r="CI52" s="1"/>
+      <c r="CJ52" s="1"/>
+      <c r="CK52" s="1"/>
+      <c r="CL52" s="1"/>
+      <c r="CM52" s="1"/>
+      <c r="CN52" s="1"/>
+      <c r="CO52" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP52" s="1"/>
+    </row>
+    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="32"/>
+      <c r="AX53" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AY53" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="1"/>
+      <c r="BH53" s="1"/>
+      <c r="BI53" s="1"/>
+      <c r="BJ53" s="1"/>
+      <c r="BK53" s="1"/>
+      <c r="BL53" s="1"/>
+      <c r="BM53" s="1"/>
+      <c r="BN53" s="1"/>
+      <c r="BO53" s="1"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="1"/>
+      <c r="BR53" s="1"/>
+      <c r="BS53" s="1"/>
+      <c r="BT53" s="1"/>
+      <c r="BU53" s="1"/>
+      <c r="BV53" s="1"/>
+      <c r="BW53" s="1"/>
+      <c r="BX53" s="1"/>
+      <c r="BY53" s="1"/>
+      <c r="BZ53" s="1"/>
+      <c r="CA53" s="1"/>
+      <c r="CB53" s="1"/>
+      <c r="CC53" s="1"/>
+      <c r="CD53" s="1"/>
+      <c r="CE53" s="1"/>
+      <c r="CF53" s="1"/>
+      <c r="CG53" s="1"/>
+      <c r="CH53" s="1"/>
+      <c r="CI53" s="1"/>
+      <c r="CJ53" s="1"/>
+      <c r="CK53" s="1"/>
+      <c r="CL53" s="1"/>
+      <c r="CM53" s="1"/>
+      <c r="CN53" s="1"/>
+      <c r="CO53" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP53" s="1"/>
+    </row>
+    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="32"/>
+      <c r="AX54" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AY54" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
+      <c r="BF54" s="1"/>
+      <c r="BG54" s="1"/>
+      <c r="BH54" s="1"/>
+      <c r="BI54" s="1"/>
+      <c r="BJ54" s="1"/>
+      <c r="BK54" s="1"/>
+      <c r="BL54" s="1"/>
+      <c r="BM54" s="1"/>
+      <c r="BN54" s="1"/>
+      <c r="BO54" s="1"/>
+      <c r="BP54" s="1"/>
+      <c r="BQ54" s="1"/>
+      <c r="BR54" s="1"/>
+      <c r="BS54" s="1"/>
+      <c r="BT54" s="1"/>
+      <c r="BU54" s="1"/>
+      <c r="BV54" s="1"/>
+      <c r="BW54" s="1"/>
+      <c r="BX54" s="1"/>
+      <c r="BY54" s="1"/>
+      <c r="BZ54" s="1"/>
+      <c r="CA54" s="1"/>
+      <c r="CB54" s="1"/>
+      <c r="CC54" s="1"/>
+      <c r="CD54" s="1"/>
+      <c r="CE54" s="1"/>
+      <c r="CF54" s="1"/>
+      <c r="CG54" s="1"/>
+      <c r="CH54" s="1"/>
+      <c r="CI54" s="1"/>
+      <c r="CJ54" s="1"/>
+      <c r="CK54" s="1"/>
+      <c r="CL54" s="1"/>
+      <c r="CM54" s="1"/>
+      <c r="CN54" s="1"/>
+      <c r="CO54" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP54" s="1"/>
+    </row>
+    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="32"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ55" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="1"/>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="1"/>
+      <c r="BX55" s="1"/>
+      <c r="BY55" s="1"/>
+      <c r="BZ55" s="1"/>
+      <c r="CA55" s="1"/>
+      <c r="CB55" s="1"/>
+      <c r="CC55" s="1"/>
+      <c r="CD55" s="1"/>
+      <c r="CE55" s="1"/>
+      <c r="CF55" s="1"/>
+      <c r="CG55" s="1"/>
+      <c r="CH55" s="1"/>
+      <c r="CI55" s="1"/>
+      <c r="CJ55" s="1"/>
+      <c r="CK55" s="1"/>
+      <c r="CL55" s="1"/>
+      <c r="CM55" s="1"/>
+      <c r="CN55" s="1"/>
+      <c r="CO55" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP55" s="1"/>
+    </row>
+    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="32"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ56" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
+      <c r="BF56" s="1"/>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="1"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="1"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="1"/>
+      <c r="BM56" s="1"/>
+      <c r="BN56" s="1"/>
+      <c r="BO56" s="1"/>
+      <c r="BP56" s="1"/>
+      <c r="BQ56" s="1"/>
+      <c r="BR56" s="1"/>
+      <c r="BS56" s="1"/>
+      <c r="BT56" s="1"/>
+      <c r="BU56" s="1"/>
+      <c r="BV56" s="1"/>
+      <c r="BW56" s="1"/>
+      <c r="BX56" s="1"/>
+      <c r="BY56" s="1"/>
+      <c r="BZ56" s="1"/>
+      <c r="CA56" s="1"/>
+      <c r="CB56" s="1"/>
+      <c r="CC56" s="1"/>
+      <c r="CD56" s="1"/>
+      <c r="CE56" s="1"/>
+      <c r="CF56" s="1"/>
+      <c r="CG56" s="1"/>
+      <c r="CH56" s="1"/>
+      <c r="CI56" s="1"/>
+      <c r="CJ56" s="1"/>
+      <c r="CK56" s="1"/>
+      <c r="CL56" s="1"/>
+      <c r="CM56" s="1"/>
+      <c r="CN56" s="1"/>
+      <c r="CO56" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP56" s="1"/>
+    </row>
+    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="32"/>
+      <c r="AX57" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AY57" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
+      <c r="BE57" s="1"/>
+      <c r="BF57" s="1"/>
+      <c r="BG57" s="1"/>
+      <c r="BH57" s="1"/>
+      <c r="BI57" s="1"/>
+      <c r="BJ57" s="1"/>
+      <c r="BK57" s="1"/>
+      <c r="BL57" s="1"/>
+      <c r="BM57" s="1"/>
+      <c r="BN57" s="1"/>
+      <c r="BO57" s="1"/>
+      <c r="BP57" s="1"/>
+      <c r="BQ57" s="1"/>
+      <c r="BR57" s="1"/>
+      <c r="BS57" s="1"/>
+      <c r="BT57" s="1"/>
+      <c r="BU57" s="1"/>
+      <c r="BV57" s="1"/>
+      <c r="BW57" s="1"/>
+      <c r="BX57" s="1"/>
+      <c r="BY57" s="1"/>
+      <c r="BZ57" s="1"/>
+      <c r="CA57" s="1"/>
+      <c r="CB57" s="1"/>
+      <c r="CC57" s="1"/>
+      <c r="CD57" s="1"/>
+      <c r="CE57" s="1"/>
+      <c r="CF57" s="1"/>
+      <c r="CG57" s="1"/>
+      <c r="CH57" s="1"/>
+      <c r="CI57" s="1"/>
+      <c r="CJ57" s="1"/>
+      <c r="CK57" s="1"/>
+      <c r="CL57" s="1"/>
+      <c r="CM57" s="1"/>
+      <c r="CN57" s="1"/>
+      <c r="CO57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP57" s="1"/>
+    </row>
+    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="32"/>
+      <c r="AX58" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AY58" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
+      <c r="BF58" s="1"/>
+      <c r="BG58" s="1"/>
+      <c r="BH58" s="1"/>
+      <c r="BI58" s="1"/>
+      <c r="BJ58" s="1"/>
+      <c r="BK58" s="1"/>
+      <c r="BL58" s="1"/>
+      <c r="BM58" s="1"/>
+      <c r="BN58" s="1"/>
+      <c r="BO58" s="1"/>
+      <c r="BP58" s="1"/>
+      <c r="BQ58" s="1"/>
+      <c r="BR58" s="1"/>
+      <c r="BS58" s="1"/>
+      <c r="BT58" s="1"/>
+      <c r="BU58" s="1"/>
+      <c r="BV58" s="1"/>
+      <c r="BW58" s="1"/>
+      <c r="BX58" s="1"/>
+      <c r="BY58" s="1"/>
+      <c r="BZ58" s="1"/>
+      <c r="CA58" s="1"/>
+      <c r="CB58" s="1"/>
+      <c r="CC58" s="1"/>
+      <c r="CD58" s="1"/>
+      <c r="CE58" s="1"/>
+      <c r="CF58" s="1"/>
+      <c r="CG58" s="1"/>
+      <c r="CH58" s="1"/>
+      <c r="CI58" s="1"/>
+      <c r="CJ58" s="1"/>
+      <c r="CK58" s="1"/>
+      <c r="CL58" s="1"/>
+      <c r="CM58" s="1"/>
+      <c r="CN58" s="1"/>
+      <c r="CO58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP58" s="1"/>
+    </row>
+    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="32"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
+      <c r="BH59" s="1"/>
+      <c r="BI59" s="1"/>
+      <c r="BJ59" s="1"/>
+      <c r="BK59" s="1"/>
+      <c r="BL59" s="1"/>
+      <c r="BM59" s="1"/>
+      <c r="BN59" s="1"/>
+      <c r="BO59" s="1"/>
+      <c r="BP59" s="1"/>
+      <c r="BQ59" s="1"/>
+      <c r="BR59" s="1"/>
+      <c r="BS59" s="1"/>
+      <c r="BT59" s="1"/>
+      <c r="BU59" s="1"/>
+      <c r="BV59" s="1"/>
+      <c r="BW59" s="1"/>
+      <c r="BX59" s="1"/>
+      <c r="BY59" s="1"/>
+      <c r="BZ59" s="1"/>
+      <c r="CA59" s="1"/>
+      <c r="CB59" s="1"/>
+      <c r="CC59" s="1"/>
+      <c r="CD59" s="1"/>
+      <c r="CE59" s="1"/>
+      <c r="CF59" s="1"/>
+      <c r="CG59" s="1"/>
+      <c r="CH59" s="1"/>
+      <c r="CI59" s="1"/>
+      <c r="CJ59" s="1"/>
+      <c r="CK59" s="1"/>
+      <c r="CL59" s="1"/>
+      <c r="CM59" s="1"/>
+      <c r="CN59" s="1"/>
+      <c r="CO59" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP59" s="1"/>
+    </row>
+    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I60" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="32"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
+      <c r="BH60" s="1"/>
+      <c r="BI60" s="1"/>
+      <c r="BJ60" s="1"/>
+      <c r="BK60" s="1"/>
+      <c r="BL60" s="1"/>
+      <c r="BM60" s="1"/>
+      <c r="BN60" s="1"/>
+      <c r="BO60" s="1"/>
+      <c r="BP60" s="1"/>
+      <c r="BQ60" s="1"/>
+      <c r="BR60" s="1"/>
+      <c r="BS60" s="1"/>
+      <c r="BT60" s="1"/>
+      <c r="BU60" s="1"/>
+      <c r="BV60" s="1"/>
+      <c r="BW60" s="1"/>
+      <c r="BX60" s="1"/>
+      <c r="BY60" s="1"/>
+      <c r="BZ60" s="1"/>
+      <c r="CA60" s="1"/>
+      <c r="CB60" s="1"/>
+      <c r="CC60" s="1"/>
+      <c r="CD60" s="1"/>
+      <c r="CE60" s="1"/>
+      <c r="CF60" s="1"/>
+      <c r="CG60" s="1"/>
+      <c r="CH60" s="1"/>
+      <c r="CI60" s="1"/>
+      <c r="CJ60" s="1"/>
+      <c r="CK60" s="1"/>
+      <c r="CL60" s="1"/>
+      <c r="CM60" s="1"/>
+      <c r="CN60" s="1"/>
+      <c r="CO60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP60" s="1"/>
+    </row>
+    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="32"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1">
+        <v>28</v>
+      </c>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="1"/>
+      <c r="BH61" s="1"/>
+      <c r="BI61" s="1"/>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="1"/>
+      <c r="BM61" s="1"/>
+      <c r="BN61" s="1"/>
+      <c r="BO61" s="1"/>
+      <c r="BP61" s="1"/>
+      <c r="BQ61" s="1"/>
+      <c r="BR61" s="1"/>
+      <c r="BS61" s="1"/>
+      <c r="BT61" s="1"/>
+      <c r="BU61" s="1"/>
+      <c r="BV61" s="1"/>
+      <c r="BW61" s="1"/>
+      <c r="BX61" s="1"/>
+      <c r="BY61" s="1"/>
+      <c r="BZ61" s="1"/>
+      <c r="CA61" s="1"/>
+      <c r="CB61" s="1"/>
+      <c r="CC61" s="1"/>
+      <c r="CD61" s="1"/>
+      <c r="CE61" s="1"/>
+      <c r="CF61" s="1"/>
+      <c r="CG61" s="1"/>
+      <c r="CH61" s="1"/>
+      <c r="CI61" s="1"/>
+      <c r="CJ61" s="1"/>
+      <c r="CK61" s="1"/>
+      <c r="CL61" s="1"/>
+      <c r="CM61" s="1"/>
+      <c r="CN61" s="1"/>
+      <c r="CO61" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP61" s="1"/>
+    </row>
+    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I62" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AU62" s="1"/>
+      <c r="AV62" s="1"/>
+      <c r="AW62" s="32"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1">
+        <v>28</v>
+      </c>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
+      <c r="BF62" s="1"/>
+      <c r="BG62" s="1"/>
+      <c r="BH62" s="1"/>
+      <c r="BI62" s="1"/>
+      <c r="BJ62" s="1"/>
+      <c r="BK62" s="1"/>
+      <c r="BL62" s="1"/>
+      <c r="BM62" s="1"/>
+      <c r="BN62" s="1"/>
+      <c r="BO62" s="1"/>
+      <c r="BP62" s="1"/>
+      <c r="BQ62" s="1"/>
+      <c r="BR62" s="1"/>
+      <c r="BS62" s="1"/>
+      <c r="BT62" s="1"/>
+      <c r="BU62" s="1"/>
+      <c r="BV62" s="1"/>
+      <c r="BW62" s="1"/>
+      <c r="BX62" s="1"/>
+      <c r="BY62" s="1"/>
+      <c r="BZ62" s="1"/>
+      <c r="CA62" s="1"/>
+      <c r="CB62" s="1"/>
+      <c r="CC62" s="1"/>
+      <c r="CD62" s="1"/>
+      <c r="CE62" s="1"/>
+      <c r="CF62" s="1"/>
+      <c r="CG62" s="1"/>
+      <c r="CH62" s="1"/>
+      <c r="CI62" s="1"/>
+      <c r="CJ62" s="1"/>
+      <c r="CK62" s="1"/>
+      <c r="CL62" s="1"/>
+      <c r="CM62" s="1"/>
+      <c r="CN62" s="1"/>
+      <c r="CO62" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP62" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
-    <hyperlink ref="W10" r:id="rId2"/>
+    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com"/>
     <hyperlink ref="W11:W14" r:id="rId3" display="aansari1@zarca.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="490">
   <si>
     <t>Environment</t>
   </si>
@@ -1567,6 +1567,18 @@
   </si>
   <si>
     <t xml:space="preserve">footer size should change </t>
+  </si>
+  <si>
+    <t>Smoke_TC32</t>
+  </si>
+  <si>
+    <t>Merge DP</t>
+  </si>
+  <si>
+    <t>Sajid</t>
+  </si>
+  <si>
+    <t>Anas</t>
   </si>
 </sst>
 </file>
@@ -2286,10 +2298,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CP62"/>
+  <dimension ref="A1:CP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,7 +2729,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -6200,34 +6212,28 @@
       </c>
       <c r="CP30" s="25"/>
     </row>
-    <row r="31" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>331</v>
+        <v>486</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>488</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>489</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>173</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="34"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -6264,20 +6270,12 @@
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
-      <c r="AT31" s="1" t="s">
-        <v>332</v>
-      </c>
+      <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
-      <c r="AV31" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AW31" s="32" t="s">
-        <v>399</v>
-      </c>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
-      <c r="AY31" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
@@ -6319,17 +6317,15 @@
       <c r="CL31" s="1"/>
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
-      <c r="CO31" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="CP31" s="1"/>
+      <c r="CO31" s="1"/>
+      <c r="CP31" s="25"/>
     </row>
     <row r="32" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>15</v>
@@ -6341,13 +6337,13 @@
         <v>244</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>173</v>
@@ -6389,21 +6385,21 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AU32" s="1"/>
-      <c r="AV32" s="1"/>
+      <c r="AV32" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="AW32" s="32" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1" t="s">
         <v>328</v>
       </c>
       <c r="AZ32" s="1"/>
-      <c r="BA32" s="1" t="s">
-        <v>367</v>
-      </c>
+      <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
       <c r="BD32" s="1"/>
@@ -6448,12 +6444,12 @@
       </c>
       <c r="CP32" s="1"/>
     </row>
-    <row r="33" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>15</v>
@@ -6465,13 +6461,13 @@
         <v>244</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="I33" s="34" t="s">
         <v>173</v>
@@ -6513,17 +6509,21 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
       <c r="AT33" s="1" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
-      <c r="AW33" s="32"/>
+      <c r="AW33" s="32" t="s">
+        <v>330</v>
+      </c>
       <c r="AX33" s="1"/>
       <c r="AY33" s="1" t="s">
         <v>328</v>
       </c>
       <c r="AZ33" s="1"/>
-      <c r="BA33" s="1"/>
+      <c r="BA33" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
       <c r="BD33" s="1"/>
@@ -6568,12 +6568,12 @@
       </c>
       <c r="CP33" s="1"/>
     </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -6585,13 +6585,13 @@
         <v>244</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>408</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>173</v>
@@ -6633,7 +6633,7 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
@@ -6690,10 +6690,10 @@
     </row>
     <row r="35" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
@@ -6705,13 +6705,13 @@
         <v>244</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I35" s="34" t="s">
         <v>173</v>
@@ -6753,7 +6753,7 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="36" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
@@ -6825,13 +6825,13 @@
         <v>244</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I36" s="34" t="s">
         <v>173</v>
@@ -6873,7 +6873,7 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
@@ -6930,10 +6930,10 @@
     </row>
     <row r="37" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
@@ -6945,13 +6945,13 @@
         <v>244</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I37" s="34" t="s">
         <v>173</v>
@@ -6993,7 +6993,7 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
@@ -7050,10 +7050,10 @@
     </row>
     <row r="38" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>15</v>
@@ -7065,13 +7065,13 @@
         <v>244</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>173</v>
@@ -7113,7 +7113,7 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
@@ -7170,10 +7170,10 @@
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
@@ -7185,13 +7185,13 @@
         <v>244</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I39" s="34" t="s">
         <v>173</v>
@@ -7233,7 +7233,7 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
@@ -7290,10 +7290,10 @@
     </row>
     <row r="40" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
@@ -7305,13 +7305,13 @@
         <v>244</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I40" s="34" t="s">
         <v>173</v>
@@ -7353,7 +7353,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
@@ -7410,10 +7410,10 @@
     </row>
     <row r="41" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>15</v>
@@ -7425,12 +7425,14 @@
         <v>244</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>428</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="I41" s="34" t="s">
         <v>173</v>
       </c>
@@ -7471,7 +7473,7 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
@@ -7528,10 +7530,10 @@
     </row>
     <row r="42" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>15</v>
@@ -7543,10 +7545,10 @@
         <v>244</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="34" t="s">
@@ -7589,7 +7591,7 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
@@ -7646,10 +7648,10 @@
     </row>
     <row r="43" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>15</v>
@@ -7661,10 +7663,10 @@
         <v>244</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="34" t="s">
@@ -7707,7 +7709,7 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
@@ -7764,10 +7766,10 @@
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>15</v>
@@ -7779,10 +7781,10 @@
         <v>244</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="34" t="s">
@@ -7825,7 +7827,7 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
@@ -7882,10 +7884,10 @@
     </row>
     <row r="45" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>15</v>
@@ -7897,14 +7899,12 @@
         <v>244</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>440</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="H45" s="1"/>
       <c r="I45" s="34" t="s">
         <v>173</v>
       </c>
@@ -7945,7 +7945,7 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
@@ -8002,10 +8002,10 @@
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>15</v>
@@ -8017,13 +8017,13 @@
         <v>244</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>173</v>
@@ -8065,7 +8065,7 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
@@ -8122,10 +8122,10 @@
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>15</v>
@@ -8137,13 +8137,13 @@
         <v>244</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>173</v>
@@ -8185,7 +8185,7 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
@@ -8242,10 +8242,10 @@
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
@@ -8257,13 +8257,13 @@
         <v>244</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>173</v>
@@ -8305,7 +8305,7 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
@@ -8362,10 +8362,10 @@
     </row>
     <row r="49" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
@@ -8377,12 +8377,14 @@
         <v>244</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H49" s="1"/>
+        <v>448</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="I49" s="34" t="s">
         <v>173</v>
       </c>
@@ -8423,7 +8425,7 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
@@ -8480,10 +8482,10 @@
     </row>
     <row r="50" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>15</v>
@@ -8495,10 +8497,10 @@
         <v>244</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="34" t="s">
@@ -8541,7 +8543,7 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
@@ -8598,10 +8600,10 @@
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>15</v>
@@ -8613,14 +8615,12 @@
         <v>244</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>456</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="H51" s="1"/>
       <c r="I51" s="34" t="s">
         <v>173</v>
       </c>
@@ -8661,7 +8661,7 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
@@ -8718,10 +8718,10 @@
     </row>
     <row r="52" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>15</v>
@@ -8733,13 +8733,13 @@
         <v>244</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I52" s="34" t="s">
         <v>173</v>
@@ -8781,7 +8781,7 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
@@ -8838,10 +8838,10 @@
     </row>
     <row r="53" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>15</v>
@@ -8853,12 +8853,14 @@
         <v>244</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H53" s="1"/>
+        <v>458</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="I53" s="34" t="s">
         <v>173</v>
       </c>
@@ -8899,14 +8901,12 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
       <c r="AW53" s="32"/>
-      <c r="AX53" s="1" t="s">
-        <v>327</v>
-      </c>
+      <c r="AX53" s="1"/>
       <c r="AY53" s="1" t="s">
         <v>328</v>
       </c>
@@ -8958,10 +8958,10 @@
     </row>
     <row r="54" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>15</v>
@@ -8973,10 +8973,10 @@
         <v>244</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="34" t="s">
@@ -9019,7 +9019,7 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
@@ -9078,10 +9078,10 @@
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>15</v>
@@ -9093,14 +9093,12 @@
         <v>244</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>466</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="H55" s="1"/>
       <c r="I55" s="34" t="s">
         <v>173</v>
       </c>
@@ -9141,18 +9139,18 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="32"/>
-      <c r="AX55" s="1"/>
+      <c r="AX55" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="AY55" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AZ55" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
       <c r="BC55" s="1"/>
@@ -9200,10 +9198,10 @@
     </row>
     <row r="56" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>15</v>
@@ -9215,10 +9213,10 @@
         <v>244</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>466</v>
@@ -9263,7 +9261,7 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
@@ -9322,10 +9320,10 @@
     </row>
     <row r="57" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>15</v>
@@ -9337,13 +9335,13 @@
         <v>244</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="I57" s="34" t="s">
         <v>173</v>
@@ -9385,18 +9383,18 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
       <c r="AW57" s="32"/>
-      <c r="AX57" s="1" t="s">
-        <v>327</v>
-      </c>
+      <c r="AX57" s="1"/>
       <c r="AY57" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AZ57" s="1"/>
+      <c r="AZ57" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
       <c r="BC57" s="1"/>
@@ -9444,10 +9442,10 @@
     </row>
     <row r="58" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>15</v>
@@ -9459,10 +9457,10 @@
         <v>244</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>471</v>
@@ -9507,7 +9505,7 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
@@ -9566,10 +9564,10 @@
     </row>
     <row r="59" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>15</v>
@@ -9581,13 +9579,13 @@
         <v>244</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="I59" s="34" t="s">
         <v>173</v>
@@ -9629,19 +9627,19 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="32"/>
-      <c r="AX59" s="1"/>
+      <c r="AX59" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="AY59" s="1" t="s">
         <v>328</v>
       </c>
       <c r="AZ59" s="1"/>
-      <c r="BA59" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
       <c r="BC59" s="1"/>
       <c r="BD59" s="1"/>
@@ -9688,10 +9686,10 @@
     </row>
     <row r="60" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
@@ -9703,13 +9701,13 @@
         <v>244</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I60" s="34" t="s">
         <v>173</v>
@@ -9751,7 +9749,7 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
@@ -9810,10 +9808,10 @@
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>15</v>
@@ -9825,13 +9823,13 @@
         <v>244</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I61" s="34" t="s">
         <v>173</v>
@@ -9873,7 +9871,7 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
@@ -9883,8 +9881,8 @@
         <v>328</v>
       </c>
       <c r="AZ61" s="1"/>
-      <c r="BA61" s="1">
-        <v>28</v>
+      <c r="BA61" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="BB61" s="1"/>
       <c r="BC61" s="1"/>
@@ -9932,10 +9930,10 @@
     </row>
     <row r="62" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>15</v>
@@ -9947,13 +9945,13 @@
         <v>244</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I62" s="34" t="s">
         <v>173</v>
@@ -9995,7 +9993,7 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
@@ -10052,6 +10050,128 @@
       </c>
       <c r="CP62" s="1"/>
     </row>
+    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="32"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1">
+        <v>28</v>
+      </c>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="1"/>
+      <c r="BQ63" s="1"/>
+      <c r="BR63" s="1"/>
+      <c r="BS63" s="1"/>
+      <c r="BT63" s="1"/>
+      <c r="BU63" s="1"/>
+      <c r="BV63" s="1"/>
+      <c r="BW63" s="1"/>
+      <c r="BX63" s="1"/>
+      <c r="BY63" s="1"/>
+      <c r="BZ63" s="1"/>
+      <c r="CA63" s="1"/>
+      <c r="CB63" s="1"/>
+      <c r="CC63" s="1"/>
+      <c r="CD63" s="1"/>
+      <c r="CE63" s="1"/>
+      <c r="CF63" s="1"/>
+      <c r="CG63" s="1"/>
+      <c r="CH63" s="1"/>
+      <c r="CI63" s="1"/>
+      <c r="CJ63" s="1"/>
+      <c r="CK63" s="1"/>
+      <c r="CL63" s="1"/>
+      <c r="CM63" s="1"/>
+      <c r="CN63" s="1"/>
+      <c r="CO63" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP63" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="506">
   <si>
     <t>Environment</t>
   </si>
@@ -1181,9 +1181,6 @@
     <t>Smoke_TC74</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Create Project Button not present on page.</t>
   </si>
   <si>
@@ -1579,6 +1576,57 @@
   </si>
   <si>
     <t>Anas</t>
+  </si>
+  <si>
+    <t>Smoke_TC75</t>
+  </si>
+  <si>
+    <t>Test Invite</t>
+  </si>
+  <si>
+    <t>Send Test Invitations</t>
+  </si>
+  <si>
+    <t>Test Invite Sample TextBox</t>
+  </si>
+  <si>
+    <t>g_golatkar@outlook.com</t>
+  </si>
+  <si>
+    <t>TestInvite</t>
+  </si>
+  <si>
+    <t>Default Classic System Defined Email</t>
+  </si>
+  <si>
+    <t>selectET_1</t>
+  </si>
+  <si>
+    <t>outlook</t>
+  </si>
+  <si>
+    <t>gvg3196@test</t>
+  </si>
+  <si>
+    <t>Your Voice Counts</t>
+  </si>
+  <si>
+    <t>SelectTemplate</t>
+  </si>
+  <si>
+    <t>emailhost</t>
+  </si>
+  <si>
+    <t>stremailaddress</t>
+  </si>
+  <si>
+    <t>emailPassword</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1807,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1795,9 +1843,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2298,10 +2353,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CP63"/>
+  <dimension ref="A1:CU64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2381,7 @@
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2355,7 +2410,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>21</v>
@@ -2609,8 +2664,23 @@
       <c r="CP1" s="3" t="s">
         <v>208</v>
       </c>
+      <c r="CQ1" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="CR1" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="CS1" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>504</v>
+      </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2633,7 +2703,7 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J2" s="4"/>
@@ -2723,8 +2793,13 @@
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
       <c r="CP2" s="6"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2747,8 +2822,8 @@
       <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>365</v>
+      <c r="I3" s="40" t="s">
+        <v>173</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>324</v>
@@ -2917,8 +2992,13 @@
       <c r="CN3" s="6"/>
       <c r="CO3" s="6"/>
       <c r="CP3" s="6"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
     </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
@@ -2941,7 +3021,7 @@
       <c r="H4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -3045,8 +3125,13 @@
       </c>
       <c r="CO4" s="25"/>
       <c r="CP4" s="25"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="1"/>
+      <c r="CU4" s="1"/>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>183</v>
       </c>
@@ -3069,7 +3154,7 @@
       <c r="H5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J5" s="11"/>
@@ -3171,8 +3256,13 @@
       </c>
       <c r="CO5" s="15"/>
       <c r="CP5" s="15"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
     </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>184</v>
       </c>
@@ -3195,7 +3285,7 @@
       <c r="H6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J6" s="11"/>
@@ -3287,8 +3377,13 @@
       <c r="CN6" s="15"/>
       <c r="CO6" s="15"/>
       <c r="CP6" s="15"/>
+      <c r="CQ6" s="1"/>
+      <c r="CR6" s="1"/>
+      <c r="CS6" s="1"/>
+      <c r="CT6" s="1"/>
+      <c r="CU6" s="1"/>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>185</v>
       </c>
@@ -3311,7 +3406,7 @@
       <c r="H7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -3407,8 +3502,13 @@
       <c r="CN7" s="15"/>
       <c r="CO7" s="15"/>
       <c r="CP7" s="15"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="1"/>
+      <c r="CU7" s="1"/>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
@@ -3431,7 +3531,7 @@
       <c r="H8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J8" s="11"/>
@@ -3525,8 +3625,13 @@
       <c r="CN8" s="15"/>
       <c r="CO8" s="15"/>
       <c r="CP8" s="15"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1"/>
+      <c r="CU8" s="1"/>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>187</v>
       </c>
@@ -3547,7 +3652,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J9" s="1"/>
@@ -3649,8 +3754,13 @@
       </c>
       <c r="CO9" s="13"/>
       <c r="CP9" s="13"/>
+      <c r="CQ9" s="1"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="1"/>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
@@ -3673,8 +3783,8 @@
         <v>191</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="34" t="s">
-        <v>173</v>
+      <c r="I10" s="39" t="s">
+        <v>505</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>321</v>
@@ -3775,8 +3885,13 @@
       <c r="CP10" s="19" t="s">
         <v>209</v>
       </c>
+      <c r="CQ10" s="1"/>
+      <c r="CR10" s="1"/>
+      <c r="CS10" s="1"/>
+      <c r="CT10" s="1"/>
+      <c r="CU10" s="1"/>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>193</v>
       </c>
@@ -3799,8 +3914,8 @@
         <v>195</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="34" t="s">
-        <v>173</v>
+      <c r="I11" s="39" t="s">
+        <v>505</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>318</v>
@@ -3897,8 +4012,13 @@
       <c r="CP11" s="19" t="s">
         <v>209</v>
       </c>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="1"/>
     </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>197</v>
       </c>
@@ -3921,8 +4041,8 @@
         <v>199</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="34" t="s">
-        <v>173</v>
+      <c r="I12" s="39" t="s">
+        <v>505</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>318</v>
@@ -4019,8 +4139,13 @@
       <c r="CP12" s="19" t="s">
         <v>209</v>
       </c>
+      <c r="CQ12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="1"/>
     </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>201</v>
       </c>
@@ -4043,8 +4168,8 @@
         <v>203</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="34" t="s">
-        <v>173</v>
+      <c r="I13" s="39" t="s">
+        <v>505</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>318</v>
@@ -4141,8 +4266,13 @@
       <c r="CP13" s="19" t="s">
         <v>209</v>
       </c>
+      <c r="CQ13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="1"/>
+      <c r="CU13" s="1"/>
     </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>205</v>
       </c>
@@ -4165,8 +4295,8 @@
         <v>207</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="34" t="s">
-        <v>173</v>
+      <c r="I14" s="39" t="s">
+        <v>505</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>318</v>
@@ -4263,8 +4393,13 @@
       <c r="CP14" s="23" t="s">
         <v>209</v>
       </c>
+      <c r="CQ14" s="1"/>
+      <c r="CR14" s="1"/>
+      <c r="CS14" s="1"/>
+      <c r="CT14" s="1"/>
+      <c r="CU14" s="1"/>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>217</v>
       </c>
@@ -4287,7 +4422,7 @@
       <c r="H15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -4391,8 +4526,13 @@
       </c>
       <c r="CO15" s="25"/>
       <c r="CP15" s="25"/>
+      <c r="CQ15" s="1"/>
+      <c r="CR15" s="1"/>
+      <c r="CS15" s="1"/>
+      <c r="CT15" s="1"/>
+      <c r="CU15" s="1"/>
     </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>220</v>
       </c>
@@ -4413,8 +4553,8 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="34" t="s">
-        <v>173</v>
+      <c r="I16" s="39" t="s">
+        <v>505</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="1"/>
@@ -4507,8 +4647,13 @@
       <c r="CN16" s="25"/>
       <c r="CO16" s="25"/>
       <c r="CP16" s="25"/>
+      <c r="CQ16" s="1"/>
+      <c r="CR16" s="1"/>
+      <c r="CS16" s="1"/>
+      <c r="CT16" s="1"/>
+      <c r="CU16" s="1"/>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>225</v>
       </c>
@@ -4529,8 +4674,8 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="34" t="s">
-        <v>173</v>
+      <c r="I17" s="39" t="s">
+        <v>505</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
@@ -4623,8 +4768,13 @@
       <c r="CN17" s="25"/>
       <c r="CO17" s="25"/>
       <c r="CP17" s="25"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="1"/>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>231</v>
       </c>
@@ -4647,7 +4797,7 @@
         <v>274</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J18" s="26"/>
@@ -4745,8 +4895,13 @@
       <c r="CN18" s="25"/>
       <c r="CO18" s="25"/>
       <c r="CP18" s="25"/>
+      <c r="CQ18" s="1"/>
+      <c r="CR18" s="1"/>
+      <c r="CS18" s="1"/>
+      <c r="CT18" s="1"/>
+      <c r="CU18" s="1"/>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>232</v>
       </c>
@@ -4771,7 +4926,7 @@
       <c r="H19" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J19" s="1"/>
@@ -4869,8 +5024,13 @@
         <v>252</v>
       </c>
       <c r="CP19" s="25"/>
+      <c r="CQ19" s="1"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="1"/>
+      <c r="CT19" s="1"/>
+      <c r="CU19" s="1"/>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>233</v>
       </c>
@@ -4895,7 +5055,7 @@
       <c r="H20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J20" s="1"/>
@@ -4989,8 +5149,13 @@
         <v>252</v>
       </c>
       <c r="CP20" s="25"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="1"/>
+      <c r="CS20" s="1"/>
+      <c r="CT20" s="1"/>
+      <c r="CU20" s="1"/>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>234</v>
       </c>
@@ -5015,7 +5180,7 @@
       <c r="H21" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J21" s="1"/>
@@ -5115,8 +5280,13 @@
         <v>252</v>
       </c>
       <c r="CP21" s="25"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="1"/>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>235</v>
       </c>
@@ -5141,7 +5311,7 @@
       <c r="H22" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J22" s="1"/>
@@ -5237,8 +5407,13 @@
         <v>252</v>
       </c>
       <c r="CP22" s="25"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
+      <c r="CT22" s="1"/>
+      <c r="CU22" s="1"/>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>236</v>
       </c>
@@ -5263,7 +5438,7 @@
       <c r="H23" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J23" s="1"/>
@@ -5359,8 +5534,13 @@
         <v>252</v>
       </c>
       <c r="CP23" s="25"/>
+      <c r="CQ23" s="1"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="1"/>
+      <c r="CT23" s="1"/>
+      <c r="CU23" s="1"/>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>237</v>
       </c>
@@ -5385,7 +5565,7 @@
       <c r="H24" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J24" s="1"/>
@@ -5481,8 +5661,13 @@
         <v>252</v>
       </c>
       <c r="CP24" s="25"/>
+      <c r="CQ24" s="1"/>
+      <c r="CR24" s="1"/>
+      <c r="CS24" s="1"/>
+      <c r="CT24" s="1"/>
+      <c r="CU24" s="1"/>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>238</v>
       </c>
@@ -5507,7 +5692,7 @@
       <c r="H25" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J25" s="1"/>
@@ -5601,8 +5786,13 @@
         <v>252</v>
       </c>
       <c r="CP25" s="25"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="1"/>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>239</v>
       </c>
@@ -5627,7 +5817,7 @@
       <c r="H26" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J26" s="1"/>
@@ -5721,8 +5911,13 @@
         <v>252</v>
       </c>
       <c r="CP26" s="25"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>240</v>
       </c>
@@ -5747,7 +5942,7 @@
       <c r="H27" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J27" s="1"/>
@@ -5843,8 +6038,13 @@
         <v>252</v>
       </c>
       <c r="CP27" s="25"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
+      <c r="CT27" s="1"/>
+      <c r="CU27" s="1"/>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>241</v>
       </c>
@@ -5869,7 +6069,7 @@
       <c r="H28" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J28" s="1"/>
@@ -5967,8 +6167,13 @@
         <v>252</v>
       </c>
       <c r="CP28" s="25"/>
+      <c r="CQ28" s="1"/>
+      <c r="CR28" s="1"/>
+      <c r="CS28" s="1"/>
+      <c r="CT28" s="1"/>
+      <c r="CU28" s="1"/>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>242</v>
       </c>
@@ -5993,7 +6198,7 @@
       <c r="H29" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J29" s="1"/>
@@ -6091,8 +6296,13 @@
         <v>252</v>
       </c>
       <c r="CP29" s="25"/>
+      <c r="CQ29" s="1"/>
+      <c r="CR29" s="1"/>
+      <c r="CS29" s="1"/>
+      <c r="CT29" s="1"/>
+      <c r="CU29" s="1"/>
     </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>243</v>
       </c>
@@ -6117,7 +6327,7 @@
       <c r="H30" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J30" s="1"/>
@@ -6211,29 +6421,36 @@
         <v>252</v>
       </c>
       <c r="CP30" s="25"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
+      <c r="CT30" s="1"/>
+      <c r="CU30" s="1"/>
     </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="34"/>
+      <c r="I31" s="40" t="s">
+        <v>173</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -6319,8 +6536,13 @@
       <c r="CN31" s="1"/>
       <c r="CO31" s="1"/>
       <c r="CP31" s="25"/>
+      <c r="CQ31" s="1"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="1"/>
+      <c r="CT31" s="1"/>
+      <c r="CU31" s="1"/>
     </row>
-    <row r="32" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>331</v>
       </c>
@@ -6337,15 +6559,15 @@
         <v>244</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J32" s="1"/>
@@ -6392,7 +6614,7 @@
         <v>326</v>
       </c>
       <c r="AW32" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1" t="s">
@@ -6443,8 +6665,13 @@
         <v>252</v>
       </c>
       <c r="CP32" s="1"/>
+      <c r="CQ32" s="1"/>
+      <c r="CR32" s="1"/>
+      <c r="CS32" s="1"/>
+      <c r="CT32" s="1"/>
+      <c r="CU32" s="1"/>
     </row>
-    <row r="33" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>333</v>
       </c>
@@ -6461,15 +6688,15 @@
         <v>244</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J33" s="1"/>
@@ -6522,7 +6749,7 @@
       </c>
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
@@ -6567,8 +6794,13 @@
         <v>252</v>
       </c>
       <c r="CP33" s="1"/>
+      <c r="CQ33" s="1"/>
+      <c r="CR33" s="1"/>
+      <c r="CS33" s="1"/>
+      <c r="CT33" s="1"/>
+      <c r="CU33" s="1"/>
     </row>
-    <row r="34" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>335</v>
       </c>
@@ -6585,15 +6817,15 @@
         <v>244</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="H34" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J34" s="1"/>
@@ -6633,7 +6865,7 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
@@ -6687,8 +6919,13 @@
         <v>252</v>
       </c>
       <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="1"/>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>336</v>
       </c>
@@ -6705,15 +6942,15 @@
         <v>244</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J35" s="1"/>
@@ -6753,7 +6990,7 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
@@ -6807,8 +7044,13 @@
         <v>252</v>
       </c>
       <c r="CP35" s="1"/>
+      <c r="CQ35" s="1"/>
+      <c r="CR35" s="1"/>
+      <c r="CS35" s="1"/>
+      <c r="CT35" s="1"/>
+      <c r="CU35" s="1"/>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>337</v>
       </c>
@@ -6825,15 +7067,15 @@
         <v>244</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J36" s="1"/>
@@ -6873,7 +7115,7 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
@@ -6927,8 +7169,13 @@
         <v>252</v>
       </c>
       <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+      <c r="CT36" s="1"/>
+      <c r="CU36" s="1"/>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>338</v>
       </c>
@@ -6945,15 +7192,15 @@
         <v>244</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="I37" s="34" t="s">
+      <c r="I37" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J37" s="1"/>
@@ -6993,7 +7240,7 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
@@ -7047,8 +7294,13 @@
         <v>252</v>
       </c>
       <c r="CP37" s="1"/>
+      <c r="CQ37" s="1"/>
+      <c r="CR37" s="1"/>
+      <c r="CS37" s="1"/>
+      <c r="CT37" s="1"/>
+      <c r="CU37" s="1"/>
     </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>339</v>
       </c>
@@ -7065,15 +7317,15 @@
         <v>244</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J38" s="1"/>
@@ -7113,7 +7365,7 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
@@ -7167,8 +7419,13 @@
         <v>252</v>
       </c>
       <c r="CP38" s="1"/>
+      <c r="CQ38" s="1"/>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
+      <c r="CT38" s="1"/>
+      <c r="CU38" s="1"/>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>340</v>
       </c>
@@ -7185,15 +7442,15 @@
         <v>244</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J39" s="1"/>
@@ -7233,7 +7490,7 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
@@ -7287,8 +7544,13 @@
         <v>252</v>
       </c>
       <c r="CP39" s="1"/>
+      <c r="CQ39" s="1"/>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1"/>
+      <c r="CT39" s="1"/>
+      <c r="CU39" s="1"/>
     </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>341</v>
       </c>
@@ -7305,15 +7567,15 @@
         <v>244</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J40" s="1"/>
@@ -7353,7 +7615,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
@@ -7407,8 +7669,13 @@
         <v>252</v>
       </c>
       <c r="CP40" s="1"/>
+      <c r="CQ40" s="1"/>
+      <c r="CR40" s="1"/>
+      <c r="CS40" s="1"/>
+      <c r="CT40" s="1"/>
+      <c r="CU40" s="1"/>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>342</v>
       </c>
@@ -7425,15 +7692,15 @@
         <v>244</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J41" s="1"/>
@@ -7473,7 +7740,7 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
@@ -7527,8 +7794,13 @@
         <v>252</v>
       </c>
       <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="1"/>
+      <c r="CT41" s="1"/>
+      <c r="CU41" s="1"/>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>343</v>
       </c>
@@ -7545,13 +7817,13 @@
         <v>244</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J42" s="1"/>
@@ -7591,7 +7863,7 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
@@ -7645,8 +7917,13 @@
         <v>252</v>
       </c>
       <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
+      <c r="CR42" s="1"/>
+      <c r="CS42" s="1"/>
+      <c r="CT42" s="1"/>
+      <c r="CU42" s="1"/>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>344</v>
       </c>
@@ -7663,13 +7940,13 @@
         <v>244</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J43" s="1"/>
@@ -7709,7 +7986,7 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
@@ -7763,8 +8040,13 @@
         <v>252</v>
       </c>
       <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
+      <c r="CT43" s="1"/>
+      <c r="CU43" s="1"/>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>345</v>
       </c>
@@ -7781,13 +8063,13 @@
         <v>244</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J44" s="1"/>
@@ -7827,7 +8109,7 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
@@ -7881,8 +8163,13 @@
         <v>252</v>
       </c>
       <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
+      <c r="CT44" s="1"/>
+      <c r="CU44" s="1"/>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>346</v>
       </c>
@@ -7899,13 +8186,13 @@
         <v>244</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="34" t="s">
+      <c r="I45" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J45" s="1"/>
@@ -7945,7 +8232,7 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
@@ -7999,8 +8286,13 @@
         <v>252</v>
       </c>
       <c r="CP45" s="1"/>
+      <c r="CQ45" s="1"/>
+      <c r="CR45" s="1"/>
+      <c r="CS45" s="1"/>
+      <c r="CT45" s="1"/>
+      <c r="CU45" s="1"/>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>347</v>
       </c>
@@ -8017,15 +8309,15 @@
         <v>244</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="I46" s="34" t="s">
+      <c r="I46" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J46" s="1"/>
@@ -8065,7 +8357,7 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
@@ -8119,8 +8411,13 @@
         <v>252</v>
       </c>
       <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1"/>
+      <c r="CT46" s="1"/>
+      <c r="CU46" s="1"/>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>348</v>
       </c>
@@ -8137,15 +8434,15 @@
         <v>244</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="I47" s="34" t="s">
+      <c r="I47" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J47" s="1"/>
@@ -8185,7 +8482,7 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
@@ -8239,8 +8536,13 @@
         <v>252</v>
       </c>
       <c r="CP47" s="1"/>
+      <c r="CQ47" s="1"/>
+      <c r="CR47" s="1"/>
+      <c r="CS47" s="1"/>
+      <c r="CT47" s="1"/>
+      <c r="CU47" s="1"/>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>349</v>
       </c>
@@ -8257,15 +8559,15 @@
         <v>244</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I48" s="34" t="s">
+      <c r="I48" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J48" s="1"/>
@@ -8305,7 +8607,7 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
@@ -8359,8 +8661,13 @@
         <v>252</v>
       </c>
       <c r="CP48" s="1"/>
+      <c r="CQ48" s="1"/>
+      <c r="CR48" s="1"/>
+      <c r="CS48" s="1"/>
+      <c r="CT48" s="1"/>
+      <c r="CU48" s="1"/>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>350</v>
       </c>
@@ -8377,15 +8684,15 @@
         <v>244</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J49" s="1"/>
@@ -8425,7 +8732,7 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
@@ -8479,8 +8786,13 @@
         <v>252</v>
       </c>
       <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="1"/>
+      <c r="CT49" s="1"/>
+      <c r="CU49" s="1"/>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>351</v>
       </c>
@@ -8497,13 +8809,13 @@
         <v>244</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="34" t="s">
+      <c r="I50" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J50" s="1"/>
@@ -8543,7 +8855,7 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
@@ -8597,8 +8909,13 @@
         <v>252</v>
       </c>
       <c r="CP50" s="1"/>
+      <c r="CQ50" s="1"/>
+      <c r="CR50" s="1"/>
+      <c r="CS50" s="1"/>
+      <c r="CT50" s="1"/>
+      <c r="CU50" s="1"/>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>352</v>
       </c>
@@ -8615,13 +8932,13 @@
         <v>244</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="34" t="s">
+      <c r="I51" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J51" s="1"/>
@@ -8661,7 +8978,7 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
@@ -8715,8 +9032,13 @@
         <v>252</v>
       </c>
       <c r="CP51" s="1"/>
+      <c r="CQ51" s="1"/>
+      <c r="CR51" s="1"/>
+      <c r="CS51" s="1"/>
+      <c r="CT51" s="1"/>
+      <c r="CU51" s="1"/>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>353</v>
       </c>
@@ -8733,15 +9055,15 @@
         <v>244</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="I52" s="34" t="s">
+      <c r="I52" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J52" s="1"/>
@@ -8781,7 +9103,7 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
@@ -8835,8 +9157,13 @@
         <v>252</v>
       </c>
       <c r="CP52" s="1"/>
+      <c r="CQ52" s="1"/>
+      <c r="CR52" s="1"/>
+      <c r="CS52" s="1"/>
+      <c r="CT52" s="1"/>
+      <c r="CU52" s="1"/>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>354</v>
       </c>
@@ -8853,15 +9180,15 @@
         <v>244</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="I53" s="34" t="s">
+      <c r="I53" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J53" s="1"/>
@@ -8901,7 +9228,7 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
@@ -8955,8 +9282,13 @@
         <v>252</v>
       </c>
       <c r="CP53" s="1"/>
+      <c r="CQ53" s="1"/>
+      <c r="CR53" s="1"/>
+      <c r="CS53" s="1"/>
+      <c r="CT53" s="1"/>
+      <c r="CU53" s="1"/>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>355</v>
       </c>
@@ -8973,13 +9305,13 @@
         <v>244</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="34" t="s">
+      <c r="I54" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J54" s="1"/>
@@ -9019,7 +9351,7 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
@@ -9075,8 +9407,13 @@
         <v>252</v>
       </c>
       <c r="CP54" s="1"/>
+      <c r="CQ54" s="1"/>
+      <c r="CR54" s="1"/>
+      <c r="CS54" s="1"/>
+      <c r="CT54" s="1"/>
+      <c r="CU54" s="1"/>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>356</v>
       </c>
@@ -9093,13 +9430,13 @@
         <v>244</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="34" t="s">
+      <c r="I55" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J55" s="1"/>
@@ -9139,7 +9476,7 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
@@ -9195,8 +9532,13 @@
         <v>252</v>
       </c>
       <c r="CP55" s="1"/>
+      <c r="CQ55" s="1"/>
+      <c r="CR55" s="1"/>
+      <c r="CS55" s="1"/>
+      <c r="CT55" s="1"/>
+      <c r="CU55" s="1"/>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>357</v>
       </c>
@@ -9213,15 +9555,15 @@
         <v>244</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="I56" s="34" t="s">
+      <c r="I56" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J56" s="1"/>
@@ -9261,7 +9603,7 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
@@ -9317,8 +9659,13 @@
         <v>252</v>
       </c>
       <c r="CP56" s="1"/>
+      <c r="CQ56" s="1"/>
+      <c r="CR56" s="1"/>
+      <c r="CS56" s="1"/>
+      <c r="CT56" s="1"/>
+      <c r="CU56" s="1"/>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>358</v>
       </c>
@@ -9335,15 +9682,15 @@
         <v>244</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="I57" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="I57" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J57" s="1"/>
@@ -9383,7 +9730,7 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
@@ -9439,8 +9786,13 @@
         <v>252</v>
       </c>
       <c r="CP57" s="1"/>
+      <c r="CQ57" s="1"/>
+      <c r="CR57" s="1"/>
+      <c r="CS57" s="1"/>
+      <c r="CT57" s="1"/>
+      <c r="CU57" s="1"/>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>359</v>
       </c>
@@ -9457,15 +9809,15 @@
         <v>244</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I58" s="34" t="s">
+      <c r="I58" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J58" s="1"/>
@@ -9505,7 +9857,7 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
@@ -9561,8 +9913,13 @@
         <v>252</v>
       </c>
       <c r="CP58" s="1"/>
+      <c r="CQ58" s="1"/>
+      <c r="CR58" s="1"/>
+      <c r="CS58" s="1"/>
+      <c r="CT58" s="1"/>
+      <c r="CU58" s="1"/>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>360</v>
       </c>
@@ -9579,15 +9936,15 @@
         <v>244</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I59" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="I59" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J59" s="1"/>
@@ -9627,7 +9984,7 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
@@ -9683,8 +10040,13 @@
         <v>252</v>
       </c>
       <c r="CP59" s="1"/>
+      <c r="CQ59" s="1"/>
+      <c r="CR59" s="1"/>
+      <c r="CS59" s="1"/>
+      <c r="CT59" s="1"/>
+      <c r="CU59" s="1"/>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>361</v>
       </c>
@@ -9701,15 +10063,15 @@
         <v>244</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="I60" s="34" t="s">
+      <c r="I60" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J60" s="1"/>
@@ -9749,7 +10111,7 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
@@ -9760,7 +10122,7 @@
       </c>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BB60" s="1"/>
       <c r="BC60" s="1"/>
@@ -9805,8 +10167,13 @@
         <v>252</v>
       </c>
       <c r="CP60" s="1"/>
+      <c r="CQ60" s="1"/>
+      <c r="CR60" s="1"/>
+      <c r="CS60" s="1"/>
+      <c r="CT60" s="1"/>
+      <c r="CU60" s="1"/>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>362</v>
       </c>
@@ -9823,15 +10190,15 @@
         <v>244</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I61" s="34" t="s">
+      <c r="I61" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J61" s="1"/>
@@ -9871,7 +10238,7 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
@@ -9882,7 +10249,7 @@
       </c>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BB61" s="1"/>
       <c r="BC61" s="1"/>
@@ -9927,8 +10294,13 @@
         <v>252</v>
       </c>
       <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
+      <c r="CR61" s="1"/>
+      <c r="CS61" s="1"/>
+      <c r="CT61" s="1"/>
+      <c r="CU61" s="1"/>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>363</v>
       </c>
@@ -9945,15 +10317,15 @@
         <v>244</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I62" s="34" t="s">
+      <c r="I62" s="40" t="s">
         <v>173</v>
       </c>
       <c r="J62" s="1"/>
@@ -9993,7 +10365,7 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
@@ -10049,128 +10421,271 @@
         <v>252</v>
       </c>
       <c r="CP62" s="1"/>
+      <c r="CQ62" s="1"/>
+      <c r="CR62" s="1"/>
+      <c r="CS62" s="1"/>
+      <c r="CT62" s="1"/>
+      <c r="CU62" s="1"/>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="A63" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="G63" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I63" s="34" t="s">
+      <c r="I63" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="1"/>
-      <c r="AO63" s="1"/>
-      <c r="AP63" s="1"/>
-      <c r="AQ63" s="1"/>
-      <c r="AR63" s="1"/>
-      <c r="AS63" s="1"/>
-      <c r="AT63" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AU63" s="1"/>
-      <c r="AV63" s="1"/>
-      <c r="AW63" s="32"/>
-      <c r="AX63" s="1"/>
-      <c r="AY63" s="1" t="s">
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="37"/>
+      <c r="Z63" s="37"/>
+      <c r="AA63" s="37"/>
+      <c r="AB63" s="37"/>
+      <c r="AC63" s="37"/>
+      <c r="AD63" s="37"/>
+      <c r="AE63" s="37"/>
+      <c r="AF63" s="37"/>
+      <c r="AG63" s="37"/>
+      <c r="AH63" s="37"/>
+      <c r="AI63" s="37"/>
+      <c r="AJ63" s="37"/>
+      <c r="AK63" s="37"/>
+      <c r="AL63" s="37"/>
+      <c r="AM63" s="37"/>
+      <c r="AN63" s="37"/>
+      <c r="AO63" s="37"/>
+      <c r="AP63" s="37"/>
+      <c r="AQ63" s="37"/>
+      <c r="AR63" s="37"/>
+      <c r="AS63" s="37"/>
+      <c r="AT63" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="AU63" s="37"/>
+      <c r="AV63" s="37"/>
+      <c r="AW63" s="38"/>
+      <c r="AX63" s="37"/>
+      <c r="AY63" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="AZ63" s="1"/>
-      <c r="BA63" s="1">
+      <c r="AZ63" s="37"/>
+      <c r="BA63" s="37">
         <v>28</v>
       </c>
-      <c r="BB63" s="1"/>
-      <c r="BC63" s="1"/>
-      <c r="BD63" s="1"/>
-      <c r="BE63" s="1"/>
-      <c r="BF63" s="1"/>
-      <c r="BG63" s="1"/>
-      <c r="BH63" s="1"/>
-      <c r="BI63" s="1"/>
-      <c r="BJ63" s="1"/>
-      <c r="BK63" s="1"/>
-      <c r="BL63" s="1"/>
-      <c r="BM63" s="1"/>
-      <c r="BN63" s="1"/>
-      <c r="BO63" s="1"/>
-      <c r="BP63" s="1"/>
-      <c r="BQ63" s="1"/>
-      <c r="BR63" s="1"/>
-      <c r="BS63" s="1"/>
-      <c r="BT63" s="1"/>
-      <c r="BU63" s="1"/>
-      <c r="BV63" s="1"/>
-      <c r="BW63" s="1"/>
-      <c r="BX63" s="1"/>
-      <c r="BY63" s="1"/>
-      <c r="BZ63" s="1"/>
-      <c r="CA63" s="1"/>
-      <c r="CB63" s="1"/>
-      <c r="CC63" s="1"/>
-      <c r="CD63" s="1"/>
-      <c r="CE63" s="1"/>
-      <c r="CF63" s="1"/>
-      <c r="CG63" s="1"/>
-      <c r="CH63" s="1"/>
-      <c r="CI63" s="1"/>
-      <c r="CJ63" s="1"/>
-      <c r="CK63" s="1"/>
-      <c r="CL63" s="1"/>
-      <c r="CM63" s="1"/>
-      <c r="CN63" s="1"/>
-      <c r="CO63" s="1" t="s">
+      <c r="BB63" s="37"/>
+      <c r="BC63" s="37"/>
+      <c r="BD63" s="37"/>
+      <c r="BE63" s="37"/>
+      <c r="BF63" s="37"/>
+      <c r="BG63" s="37"/>
+      <c r="BH63" s="37"/>
+      <c r="BI63" s="37"/>
+      <c r="BJ63" s="37"/>
+      <c r="BK63" s="37"/>
+      <c r="BL63" s="37"/>
+      <c r="BM63" s="37"/>
+      <c r="BN63" s="37"/>
+      <c r="BO63" s="37"/>
+      <c r="BP63" s="37"/>
+      <c r="BQ63" s="37"/>
+      <c r="BR63" s="37"/>
+      <c r="BS63" s="37"/>
+      <c r="BT63" s="37"/>
+      <c r="BU63" s="37"/>
+      <c r="BV63" s="37"/>
+      <c r="BW63" s="37"/>
+      <c r="BX63" s="37"/>
+      <c r="BY63" s="37"/>
+      <c r="BZ63" s="37"/>
+      <c r="CA63" s="37"/>
+      <c r="CB63" s="37"/>
+      <c r="CC63" s="37"/>
+      <c r="CD63" s="37"/>
+      <c r="CE63" s="37"/>
+      <c r="CF63" s="37"/>
+      <c r="CG63" s="37"/>
+      <c r="CH63" s="37"/>
+      <c r="CI63" s="37"/>
+      <c r="CJ63" s="37"/>
+      <c r="CK63" s="37"/>
+      <c r="CL63" s="37"/>
+      <c r="CM63" s="37"/>
+      <c r="CN63" s="37"/>
+      <c r="CO63" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="CP63" s="1"/>
+      <c r="CP63" s="37"/>
+      <c r="CQ63" s="37"/>
+      <c r="CR63" s="37"/>
+      <c r="CS63" s="37"/>
+      <c r="CT63" s="37"/>
+      <c r="CU63" s="37"/>
+    </row>
+    <row r="64" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU64" s="1"/>
+      <c r="AV64" s="1"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="1"/>
+      <c r="BH64" s="1"/>
+      <c r="BI64" s="1"/>
+      <c r="BJ64" s="1"/>
+      <c r="BK64" s="1"/>
+      <c r="BL64" s="1"/>
+      <c r="BM64" s="1"/>
+      <c r="BN64" s="1"/>
+      <c r="BO64" s="1"/>
+      <c r="BP64" s="1"/>
+      <c r="BQ64" s="1"/>
+      <c r="BR64" s="1"/>
+      <c r="BS64" s="1"/>
+      <c r="BT64" s="1"/>
+      <c r="BU64" s="1"/>
+      <c r="BV64" s="1"/>
+      <c r="BW64" s="1"/>
+      <c r="BX64" s="1"/>
+      <c r="BY64" s="1"/>
+      <c r="BZ64" s="1"/>
+      <c r="CA64" s="1"/>
+      <c r="CB64" s="1"/>
+      <c r="CC64" s="1"/>
+      <c r="CD64" s="1"/>
+      <c r="CE64" s="1"/>
+      <c r="CF64" s="1"/>
+      <c r="CG64" s="1"/>
+      <c r="CH64" s="1"/>
+      <c r="CI64" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="CJ64" s="1"/>
+      <c r="CK64" s="1"/>
+      <c r="CL64" s="1"/>
+      <c r="CM64" s="1"/>
+      <c r="CN64" s="1"/>
+      <c r="CO64" s="1"/>
+      <c r="CP64" s="1"/>
+      <c r="CQ64" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="CR64" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="CS64" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="CT64" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="CU64" s="1" t="s">
+        <v>499</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="517">
   <si>
     <t>Environment</t>
   </si>
@@ -1628,12 +1628,45 @@
   <si>
     <t>PASS</t>
   </si>
+  <si>
+    <t>Smoke_TC76</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>RMX2</t>
+  </si>
+  <si>
+    <t>filter management</t>
+  </si>
+  <si>
+    <t>1. It will create filters for the given survey</t>
+  </si>
+  <si>
+    <t>filters should be created and validated</t>
+  </si>
+  <si>
+    <t>102.246.225.52</t>
+  </si>
+  <si>
+    <t>Attach n resp trend</t>
+  </si>
+  <si>
+    <t>GVG3196@test</t>
+  </si>
+  <si>
+    <t>gaurav_zarca</t>
+  </si>
+  <si>
+    <t>SID: 96, qa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,6 +1716,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1807,7 +1846,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1853,6 +1892,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2146,13 +2188,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2163,7 +2205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2187,14 +2229,14 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2205,7 +2247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2227,13 +2269,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2241,7 +2283,7 @@
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2255,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2269,7 +2311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>153</v>
       </c>
@@ -2283,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2297,7 +2339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>189</v>
       </c>
@@ -2311,7 +2353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>221</v>
       </c>
@@ -2325,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>244</v>
       </c>
@@ -2336,6 +2378,20 @@
         <v>273</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2345,6 +2401,7 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C7" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2353,13 +2410,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CU64"/>
+  <dimension ref="A1:CU65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="AQ52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT65" sqref="AT65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2381,7 +2438,7 @@
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:99">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2680,7 +2737,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2799,7 +2856,7 @@
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:99">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2998,7 +3055,7 @@
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:99">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
@@ -3131,7 +3188,7 @@
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:99">
       <c r="A5" s="1" t="s">
         <v>183</v>
       </c>
@@ -3262,7 +3319,7 @@
       <c r="CT5" s="1"/>
       <c r="CU5" s="1"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99">
       <c r="A6" s="1" t="s">
         <v>184</v>
       </c>
@@ -3383,7 +3440,7 @@
       <c r="CT6" s="1"/>
       <c r="CU6" s="1"/>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:99">
       <c r="A7" s="1" t="s">
         <v>185</v>
       </c>
@@ -3508,7 +3565,7 @@
       <c r="CT7" s="1"/>
       <c r="CU7" s="1"/>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:99">
       <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
@@ -3631,7 +3688,7 @@
       <c r="CT8" s="1"/>
       <c r="CU8" s="1"/>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:99">
       <c r="A9" s="1" t="s">
         <v>187</v>
       </c>
@@ -3760,7 +3817,7 @@
       <c r="CT9" s="1"/>
       <c r="CU9" s="1"/>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:99">
       <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
@@ -3891,7 +3948,7 @@
       <c r="CT10" s="1"/>
       <c r="CU10" s="1"/>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:99">
       <c r="A11" s="1" t="s">
         <v>193</v>
       </c>
@@ -4018,7 +4075,7 @@
       <c r="CT11" s="1"/>
       <c r="CU11" s="1"/>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:99">
       <c r="A12" s="1" t="s">
         <v>197</v>
       </c>
@@ -4145,7 +4202,7 @@
       <c r="CT12" s="1"/>
       <c r="CU12" s="1"/>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99">
       <c r="A13" s="1" t="s">
         <v>201</v>
       </c>
@@ -4272,7 +4329,7 @@
       <c r="CT13" s="1"/>
       <c r="CU13" s="1"/>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99">
       <c r="A14" s="20" t="s">
         <v>205</v>
       </c>
@@ -4399,7 +4456,7 @@
       <c r="CT14" s="1"/>
       <c r="CU14" s="1"/>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:99">
       <c r="A15" s="1" t="s">
         <v>217</v>
       </c>
@@ -4532,7 +4589,7 @@
       <c r="CT15" s="1"/>
       <c r="CU15" s="1"/>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99">
       <c r="A16" s="1" t="s">
         <v>220</v>
       </c>
@@ -4653,7 +4710,7 @@
       <c r="CT16" s="1"/>
       <c r="CU16" s="1"/>
     </row>
-    <row r="17" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:99">
       <c r="A17" s="1" t="s">
         <v>225</v>
       </c>
@@ -4774,7 +4831,7 @@
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
     </row>
-    <row r="18" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:99">
       <c r="A18" s="1" t="s">
         <v>231</v>
       </c>
@@ -4901,7 +4958,7 @@
       <c r="CT18" s="1"/>
       <c r="CU18" s="1"/>
     </row>
-    <row r="19" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:99">
       <c r="A19" s="1" t="s">
         <v>232</v>
       </c>
@@ -5030,7 +5087,7 @@
       <c r="CT19" s="1"/>
       <c r="CU19" s="1"/>
     </row>
-    <row r="20" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:99">
       <c r="A20" s="1" t="s">
         <v>233</v>
       </c>
@@ -5155,7 +5212,7 @@
       <c r="CT20" s="1"/>
       <c r="CU20" s="1"/>
     </row>
-    <row r="21" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:99">
       <c r="A21" s="1" t="s">
         <v>234</v>
       </c>
@@ -5286,7 +5343,7 @@
       <c r="CT21" s="1"/>
       <c r="CU21" s="1"/>
     </row>
-    <row r="22" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:99">
       <c r="A22" s="1" t="s">
         <v>235</v>
       </c>
@@ -5413,7 +5470,7 @@
       <c r="CT22" s="1"/>
       <c r="CU22" s="1"/>
     </row>
-    <row r="23" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:99">
       <c r="A23" s="1" t="s">
         <v>236</v>
       </c>
@@ -5540,7 +5597,7 @@
       <c r="CT23" s="1"/>
       <c r="CU23" s="1"/>
     </row>
-    <row r="24" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:99">
       <c r="A24" s="1" t="s">
         <v>237</v>
       </c>
@@ -5667,7 +5724,7 @@
       <c r="CT24" s="1"/>
       <c r="CU24" s="1"/>
     </row>
-    <row r="25" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:99">
       <c r="A25" s="1" t="s">
         <v>238</v>
       </c>
@@ -5792,7 +5849,7 @@
       <c r="CT25" s="1"/>
       <c r="CU25" s="1"/>
     </row>
-    <row r="26" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:99">
       <c r="A26" s="1" t="s">
         <v>239</v>
       </c>
@@ -5917,7 +5974,7 @@
       <c r="CT26" s="1"/>
       <c r="CU26" s="1"/>
     </row>
-    <row r="27" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:99">
       <c r="A27" s="1" t="s">
         <v>240</v>
       </c>
@@ -6044,7 +6101,7 @@
       <c r="CT27" s="1"/>
       <c r="CU27" s="1"/>
     </row>
-    <row r="28" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:99">
       <c r="A28" s="1" t="s">
         <v>241</v>
       </c>
@@ -6173,7 +6230,7 @@
       <c r="CT28" s="1"/>
       <c r="CU28" s="1"/>
     </row>
-    <row r="29" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:99">
       <c r="A29" s="1" t="s">
         <v>242</v>
       </c>
@@ -6302,7 +6359,7 @@
       <c r="CT29" s="1"/>
       <c r="CU29" s="1"/>
     </row>
-    <row r="30" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:99">
       <c r="A30" s="1" t="s">
         <v>243</v>
       </c>
@@ -6427,7 +6484,7 @@
       <c r="CT30" s="1"/>
       <c r="CU30" s="1"/>
     </row>
-    <row r="31" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:99">
       <c r="A31" s="1" t="s">
         <v>485</v>
       </c>
@@ -6542,7 +6599,7 @@
       <c r="CT31" s="1"/>
       <c r="CU31" s="1"/>
     </row>
-    <row r="32" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:99" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>331</v>
       </c>
@@ -6671,7 +6728,7 @@
       <c r="CT32" s="1"/>
       <c r="CU32" s="1"/>
     </row>
-    <row r="33" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:99" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>333</v>
       </c>
@@ -6800,7 +6857,7 @@
       <c r="CT33" s="1"/>
       <c r="CU33" s="1"/>
     </row>
-    <row r="34" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:99" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>335</v>
       </c>
@@ -6925,7 +6982,7 @@
       <c r="CT34" s="1"/>
       <c r="CU34" s="1"/>
     </row>
-    <row r="35" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:99">
       <c r="A35" s="1" t="s">
         <v>336</v>
       </c>
@@ -7050,7 +7107,7 @@
       <c r="CT35" s="1"/>
       <c r="CU35" s="1"/>
     </row>
-    <row r="36" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:99">
       <c r="A36" s="1" t="s">
         <v>337</v>
       </c>
@@ -7175,7 +7232,7 @@
       <c r="CT36" s="1"/>
       <c r="CU36" s="1"/>
     </row>
-    <row r="37" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:99">
       <c r="A37" s="1" t="s">
         <v>338</v>
       </c>
@@ -7300,7 +7357,7 @@
       <c r="CT37" s="1"/>
       <c r="CU37" s="1"/>
     </row>
-    <row r="38" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:99">
       <c r="A38" s="1" t="s">
         <v>339</v>
       </c>
@@ -7425,7 +7482,7 @@
       <c r="CT38" s="1"/>
       <c r="CU38" s="1"/>
     </row>
-    <row r="39" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:99">
       <c r="A39" s="1" t="s">
         <v>340</v>
       </c>
@@ -7550,7 +7607,7 @@
       <c r="CT39" s="1"/>
       <c r="CU39" s="1"/>
     </row>
-    <row r="40" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:99">
       <c r="A40" s="1" t="s">
         <v>341</v>
       </c>
@@ -7675,7 +7732,7 @@
       <c r="CT40" s="1"/>
       <c r="CU40" s="1"/>
     </row>
-    <row r="41" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:99">
       <c r="A41" s="1" t="s">
         <v>342</v>
       </c>
@@ -7800,7 +7857,7 @@
       <c r="CT41" s="1"/>
       <c r="CU41" s="1"/>
     </row>
-    <row r="42" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:99">
       <c r="A42" s="1" t="s">
         <v>343</v>
       </c>
@@ -7923,7 +7980,7 @@
       <c r="CT42" s="1"/>
       <c r="CU42" s="1"/>
     </row>
-    <row r="43" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:99">
       <c r="A43" s="1" t="s">
         <v>344</v>
       </c>
@@ -8046,7 +8103,7 @@
       <c r="CT43" s="1"/>
       <c r="CU43" s="1"/>
     </row>
-    <row r="44" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:99">
       <c r="A44" s="1" t="s">
         <v>345</v>
       </c>
@@ -8169,7 +8226,7 @@
       <c r="CT44" s="1"/>
       <c r="CU44" s="1"/>
     </row>
-    <row r="45" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:99">
       <c r="A45" s="1" t="s">
         <v>346</v>
       </c>
@@ -8292,7 +8349,7 @@
       <c r="CT45" s="1"/>
       <c r="CU45" s="1"/>
     </row>
-    <row r="46" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:99">
       <c r="A46" s="1" t="s">
         <v>347</v>
       </c>
@@ -8417,7 +8474,7 @@
       <c r="CT46" s="1"/>
       <c r="CU46" s="1"/>
     </row>
-    <row r="47" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:99">
       <c r="A47" s="1" t="s">
         <v>348</v>
       </c>
@@ -8542,7 +8599,7 @@
       <c r="CT47" s="1"/>
       <c r="CU47" s="1"/>
     </row>
-    <row r="48" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:99">
       <c r="A48" s="1" t="s">
         <v>349</v>
       </c>
@@ -8667,7 +8724,7 @@
       <c r="CT48" s="1"/>
       <c r="CU48" s="1"/>
     </row>
-    <row r="49" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:99">
       <c r="A49" s="1" t="s">
         <v>350</v>
       </c>
@@ -8792,7 +8849,7 @@
       <c r="CT49" s="1"/>
       <c r="CU49" s="1"/>
     </row>
-    <row r="50" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:99">
       <c r="A50" s="1" t="s">
         <v>351</v>
       </c>
@@ -8915,7 +8972,7 @@
       <c r="CT50" s="1"/>
       <c r="CU50" s="1"/>
     </row>
-    <row r="51" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:99">
       <c r="A51" s="1" t="s">
         <v>352</v>
       </c>
@@ -9038,7 +9095,7 @@
       <c r="CT51" s="1"/>
       <c r="CU51" s="1"/>
     </row>
-    <row r="52" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:99">
       <c r="A52" s="1" t="s">
         <v>353</v>
       </c>
@@ -9163,7 +9220,7 @@
       <c r="CT52" s="1"/>
       <c r="CU52" s="1"/>
     </row>
-    <row r="53" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:99">
       <c r="A53" s="1" t="s">
         <v>354</v>
       </c>
@@ -9288,7 +9345,7 @@
       <c r="CT53" s="1"/>
       <c r="CU53" s="1"/>
     </row>
-    <row r="54" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:99">
       <c r="A54" s="1" t="s">
         <v>355</v>
       </c>
@@ -9413,7 +9470,7 @@
       <c r="CT54" s="1"/>
       <c r="CU54" s="1"/>
     </row>
-    <row r="55" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:99">
       <c r="A55" s="1" t="s">
         <v>356</v>
       </c>
@@ -9538,7 +9595,7 @@
       <c r="CT55" s="1"/>
       <c r="CU55" s="1"/>
     </row>
-    <row r="56" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:99">
       <c r="A56" s="1" t="s">
         <v>357</v>
       </c>
@@ -9665,7 +9722,7 @@
       <c r="CT56" s="1"/>
       <c r="CU56" s="1"/>
     </row>
-    <row r="57" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:99">
       <c r="A57" s="1" t="s">
         <v>358</v>
       </c>
@@ -9792,7 +9849,7 @@
       <c r="CT57" s="1"/>
       <c r="CU57" s="1"/>
     </row>
-    <row r="58" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:99">
       <c r="A58" s="1" t="s">
         <v>359</v>
       </c>
@@ -9919,7 +9976,7 @@
       <c r="CT58" s="1"/>
       <c r="CU58" s="1"/>
     </row>
-    <row r="59" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:99">
       <c r="A59" s="1" t="s">
         <v>360</v>
       </c>
@@ -10046,7 +10103,7 @@
       <c r="CT59" s="1"/>
       <c r="CU59" s="1"/>
     </row>
-    <row r="60" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:99">
       <c r="A60" s="1" t="s">
         <v>361</v>
       </c>
@@ -10173,7 +10230,7 @@
       <c r="CT60" s="1"/>
       <c r="CU60" s="1"/>
     </row>
-    <row r="61" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:99">
       <c r="A61" s="1" t="s">
         <v>362</v>
       </c>
@@ -10300,7 +10357,7 @@
       <c r="CT61" s="1"/>
       <c r="CU61" s="1"/>
     </row>
-    <row r="62" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:99">
       <c r="A62" s="1" t="s">
         <v>363</v>
       </c>
@@ -10427,7 +10484,7 @@
       <c r="CT62" s="1"/>
       <c r="CU62" s="1"/>
     </row>
-    <row r="63" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:99">
       <c r="A63" s="37" t="s">
         <v>364</v>
       </c>
@@ -10554,7 +10611,7 @@
       <c r="CT63" s="37"/>
       <c r="CU63" s="37"/>
     </row>
-    <row r="64" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:99">
       <c r="A64" s="1" t="s">
         <v>489</v>
       </c>
@@ -10687,6 +10744,141 @@
         <v>499</v>
       </c>
     </row>
+    <row r="65" spans="1:99">
+      <c r="A65" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I65" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="41">
+        <v>44743</v>
+      </c>
+      <c r="P65" s="41">
+        <v>44749</v>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AU65" s="1"/>
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="32"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ65" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="BA65" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="BB65" s="1">
+        <v>10</v>
+      </c>
+      <c r="BC65" s="1">
+        <v>50</v>
+      </c>
+      <c r="BD65" s="1"/>
+      <c r="BE65" s="1"/>
+      <c r="BF65" s="1"/>
+      <c r="BG65" s="1"/>
+      <c r="BH65" s="1"/>
+      <c r="BI65" s="1"/>
+      <c r="BJ65" s="1"/>
+      <c r="BK65" s="1"/>
+      <c r="BL65" s="1"/>
+      <c r="BM65" s="1"/>
+      <c r="BN65" s="1"/>
+      <c r="BO65" s="1"/>
+      <c r="BP65" s="1"/>
+      <c r="BQ65" s="1"/>
+      <c r="BR65" s="1"/>
+      <c r="BS65" s="1"/>
+      <c r="BT65" s="1"/>
+      <c r="BU65" s="1"/>
+      <c r="BV65" s="1"/>
+      <c r="BW65" s="1"/>
+      <c r="BX65" s="1"/>
+      <c r="BY65" s="1"/>
+      <c r="BZ65" s="1"/>
+      <c r="CA65" s="1"/>
+      <c r="CB65" s="1"/>
+      <c r="CC65" s="1"/>
+      <c r="CD65" s="1"/>
+      <c r="CE65" s="1"/>
+      <c r="CF65" s="1"/>
+      <c r="CG65" s="1"/>
+      <c r="CH65" s="1"/>
+      <c r="CI65" s="1"/>
+      <c r="CJ65" s="1"/>
+      <c r="CK65" s="1"/>
+      <c r="CL65" s="1"/>
+      <c r="CM65" s="1"/>
+      <c r="CN65" s="1"/>
+      <c r="CO65" s="1"/>
+      <c r="CP65" s="1"/>
+      <c r="CQ65" s="1"/>
+      <c r="CR65" s="35"/>
+      <c r="CS65" s="34"/>
+      <c r="CT65" s="36"/>
+      <c r="CU65" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="517">
   <si>
     <t>Environment</t>
   </si>
@@ -2412,8 +2412,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CU65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT65" sqref="AT65"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10634,7 +10634,9 @@
         <v>491</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="40" t="s">
+        <v>173</v>
+      </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -2412,8 +2412,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CU65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63:I64"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2919,7 +2919,9 @@
       <c r="AP3" s="6"/>
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
+      <c r="AS3" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="AT3" s="6" t="s">
         <v>31</v>
       </c>
@@ -10634,9 +10636,7 @@
         <v>491</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="40" t="s">
-        <v>173</v>
-      </c>
+      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -2412,8 +2412,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CU65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2919,9 +2919,7 @@
       <c r="AP3" s="6"/>
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6"/>
-      <c r="AS3" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="AS3" s="6"/>
       <c r="AT3" s="6" t="s">
         <v>31</v>
       </c>
@@ -10636,7 +10634,9 @@
         <v>491</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="40" t="s">
+        <v>173</v>
+      </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0251F812-222D-48D3-B896-0197E953FCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="598" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="516">
   <si>
     <t>Environment</t>
   </si>
@@ -67,9 +68,6 @@
   </si>
   <si>
     <t>Lead</t>
-  </si>
-  <si>
-    <t>Nadeem</t>
   </si>
   <si>
     <t>Owner</t>
@@ -1572,9 +1570,6 @@
     <t>Merge DP</t>
   </si>
   <si>
-    <t>Sajid</t>
-  </si>
-  <si>
     <t>Anas</t>
   </si>
   <si>
@@ -1660,13 +1655,16 @@
   </si>
   <si>
     <t>SID: 96, qa</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1723,8 +1721,13 @@
       <name val="-Apple-System"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1761,6 +1764,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1846,7 +1854,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1891,19 +1899,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4"/>
-    <cellStyle name="Hyperlink 2 2" xfId="6"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2180,7 +2189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2210,7 +2219,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2222,7 +2231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2252,7 +2261,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2260,14 +2269,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -2302,10 +2311,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2313,13 +2322,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2330,10 +2339,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -2341,13 +2350,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -2355,13 +2364,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -2369,13 +2378,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -2383,13 +2392,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>515</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>514</v>
+        <v>506</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>512</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -2398,22 +2407,22 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CU65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63:I64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2449,292 +2458,292 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AV1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AW1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AX1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BC1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BF1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BK1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BL1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BP1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BR1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BS1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BT1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BU1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BV1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BW1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BX1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BY1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="CA1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CB1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CC1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CD1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CE1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CF1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CG1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CH1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CI1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CJ1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CK1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CL1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CM1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CN1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="CN1" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="CO1" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CP1" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CQ1" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="CR1" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="CS1" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="CR1" s="35" t="s">
+      <c r="CT1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="CS1" s="35" t="s">
+      <c r="CU1" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:99">
@@ -2745,27 +2754,27 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>515</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>173</v>
+        <v>24</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -2858,32 +2867,32 @@
     </row>
     <row r="3" spans="1:99">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>515</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>173</v>
+        <v>29</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
@@ -2921,124 +2930,124 @@
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AV3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AW3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AW3" s="6" t="s">
+      <c r="AX3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AX3" s="6" t="s">
+      <c r="AY3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AY3" s="6" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AZ3" s="6" t="s">
+      <c r="BA3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="BA3" s="6" t="s">
+      <c r="BB3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="BB3" s="6" t="s">
+      <c r="BC3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="BC3" s="6" t="s">
+      <c r="BD3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BD3" s="6" t="s">
+      <c r="BE3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="BE3" s="7" t="s">
+      <c r="BF3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BF3" s="6" t="s">
+      <c r="BG3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="BG3" s="6" t="s">
+      <c r="BH3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BH3" s="6" t="s">
+      <c r="BI3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="BI3" s="6" t="s">
+      <c r="BJ3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="BJ3" s="6" t="s">
+      <c r="BK3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="BK3" s="6" t="s">
+      <c r="BL3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="BL3" s="6" t="s">
+      <c r="BM3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BM3" s="6" t="s">
+      <c r="BN3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="BN3" s="6" t="s">
+      <c r="BO3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BO3" s="6" t="s">
+      <c r="BP3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BP3" s="6" t="s">
+      <c r="BQ3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BQ3" s="6" t="s">
+      <c r="BR3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BR3" s="6" t="s">
+      <c r="BS3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BS3" s="6" t="s">
+      <c r="BT3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BT3" s="6" t="s">
+      <c r="BU3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BU3" s="6" t="s">
+      <c r="BV3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BV3" s="6" t="s">
+      <c r="BW3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BW3" s="6" t="s">
+      <c r="BX3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BX3" s="6" t="s">
+      <c r="BY3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BY3" s="6" t="s">
+      <c r="BZ3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BZ3" s="6" t="s">
+      <c r="CA3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="CA3" s="6" t="s">
+      <c r="CB3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="CB3" s="6" t="s">
+      <c r="CC3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="CC3" s="6" t="s">
+      <c r="CD3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="CD3" s="6" t="s">
+      <c r="CE3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="CE3" s="6" t="s">
+      <c r="CF3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="CF3" s="6" t="s">
+      <c r="CG3" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="CG3" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="CH3" s="6"/>
       <c r="CI3" s="6"/>
@@ -3057,32 +3066,32 @@
     </row>
     <row r="4" spans="1:99">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>515</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>173</v>
+        <v>156</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="11"/>
@@ -3160,25 +3169,25 @@
       <c r="CF4" s="12"/>
       <c r="CG4" s="12"/>
       <c r="CH4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="CI4" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="CJ4" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="CK4" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="CI4" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="CJ4" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="CK4" s="15" t="s">
+      <c r="CL4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="CM4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CN4" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="CL4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="CM4" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="CN4" s="25" t="s">
-        <v>176</v>
       </c>
       <c r="CO4" s="25"/>
       <c r="CP4" s="25"/>
@@ -3190,29 +3199,29 @@
     </row>
     <row r="5" spans="1:99">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>515</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>173</v>
+        <v>156</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="1"/>
@@ -3291,25 +3300,25 @@
       <c r="CF5" s="12"/>
       <c r="CG5" s="12"/>
       <c r="CH5" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI5" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="CI5" s="15" t="s">
+      <c r="CJ5" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="CJ5" s="15" t="s">
-        <v>179</v>
-      </c>
       <c r="CK5" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CL5" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CM5" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CN5" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CO5" s="15"/>
       <c r="CP5" s="15"/>
@@ -3321,29 +3330,29 @@
     </row>
     <row r="6" spans="1:99">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>515</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>173</v>
+        <v>156</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="1"/>
@@ -3422,11 +3431,11 @@
       <c r="CF6" s="12"/>
       <c r="CG6" s="12"/>
       <c r="CH6" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="CI6" s="15"/>
       <c r="CJ6" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="CK6" s="15"/>
       <c r="CL6" s="15"/>
@@ -3442,32 +3451,32 @@
     </row>
     <row r="7" spans="1:99">
       <c r="A7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>515</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="11"/>
@@ -3545,16 +3554,16 @@
       <c r="CF7" s="12"/>
       <c r="CG7" s="12"/>
       <c r="CH7" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="CI7" s="15"/>
       <c r="CJ7" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CK7" s="15"/>
       <c r="CL7" s="15"/>
       <c r="CM7" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="CN7" s="15"/>
       <c r="CO7" s="15"/>
@@ -3567,29 +3576,29 @@
     </row>
     <row r="8" spans="1:99">
       <c r="A8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>515</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="1"/>
@@ -3668,16 +3677,16 @@
       <c r="CF8" s="12"/>
       <c r="CG8" s="12"/>
       <c r="CH8" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="CI8" s="15"/>
       <c r="CJ8" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CK8" s="15"/>
       <c r="CL8" s="15"/>
       <c r="CM8" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CN8" s="15"/>
       <c r="CO8" s="15"/>
@@ -3690,27 +3699,27 @@
     </row>
     <row r="9" spans="1:99">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>515</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="40" t="s">
-        <v>173</v>
+      <c r="I9" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3789,25 +3798,25 @@
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CI9" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CJ9" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="CK9" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="CM9" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN9" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="CL9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="CM9" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="CN9" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="CO9" s="13"/>
       <c r="CP9" s="13"/>
@@ -3819,44 +3828,44 @@
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>17</v>
+      <c r="C10" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>191</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>192</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
@@ -3865,7 +3874,7 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
@@ -3930,7 +3939,7 @@
       <c r="CF10" s="17"/>
       <c r="CG10" s="17"/>
       <c r="CH10" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CI10" s="19"/>
       <c r="CJ10" s="19"/>
@@ -3940,7 +3949,7 @@
       <c r="CN10" s="19"/>
       <c r="CO10" s="19"/>
       <c r="CP10" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CQ10" s="1"/>
       <c r="CR10" s="1"/>
@@ -3950,35 +3959,35 @@
     </row>
     <row r="11" spans="1:99">
       <c r="A11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>17</v>
+      <c r="C11" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>196</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -3992,7 +4001,7 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
@@ -4057,7 +4066,7 @@
       <c r="CF11" s="17"/>
       <c r="CG11" s="17"/>
       <c r="CH11" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CI11" s="19"/>
       <c r="CJ11" s="19"/>
@@ -4067,7 +4076,7 @@
       <c r="CN11" s="19"/>
       <c r="CO11" s="19"/>
       <c r="CP11" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CQ11" s="1"/>
       <c r="CR11" s="1"/>
@@ -4077,35 +4086,35 @@
     </row>
     <row r="12" spans="1:99">
       <c r="A12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -4119,7 +4128,7 @@
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
@@ -4184,7 +4193,7 @@
       <c r="CF12" s="17"/>
       <c r="CG12" s="17"/>
       <c r="CH12" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CI12" s="19"/>
       <c r="CJ12" s="19"/>
@@ -4194,7 +4203,7 @@
       <c r="CN12" s="19"/>
       <c r="CO12" s="19"/>
       <c r="CP12" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CQ12" s="1"/>
       <c r="CR12" s="1"/>
@@ -4204,35 +4213,35 @@
     </row>
     <row r="13" spans="1:99">
       <c r="A13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>17</v>
+      <c r="C13" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="K13" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>204</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -4246,7 +4255,7 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
@@ -4311,7 +4320,7 @@
       <c r="CF13" s="17"/>
       <c r="CG13" s="17"/>
       <c r="CH13" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CI13" s="19"/>
       <c r="CJ13" s="19"/>
@@ -4321,7 +4330,7 @@
       <c r="CN13" s="19"/>
       <c r="CO13" s="19"/>
       <c r="CP13" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CQ13" s="1"/>
       <c r="CR13" s="1"/>
@@ -4331,36 +4340,36 @@
     </row>
     <row r="14" spans="1:99">
       <c r="A14" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>17</v>
+      <c r="C14" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>207</v>
-      </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="39" t="s">
-        <v>505</v>
+      <c r="I14" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="21"/>
@@ -4373,7 +4382,7 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
@@ -4438,7 +4447,7 @@
       <c r="CF14" s="21"/>
       <c r="CG14" s="21"/>
       <c r="CH14" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CI14" s="23"/>
       <c r="CJ14" s="23"/>
@@ -4448,7 +4457,7 @@
       <c r="CN14" s="23"/>
       <c r="CO14" s="23"/>
       <c r="CP14" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CQ14" s="1"/>
       <c r="CR14" s="1"/>
@@ -4458,32 +4467,32 @@
     </row>
     <row r="15" spans="1:99">
       <c r="A15" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>515</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>173</v>
+        <v>156</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="11"/>
@@ -4561,25 +4570,25 @@
       <c r="CF15" s="12"/>
       <c r="CG15" s="12"/>
       <c r="CH15" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="CI15" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="CJ15" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="CK15" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="CI15" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="CJ15" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="CK15" s="15" t="s">
+      <c r="CL15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="CM15" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CN15" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="CL15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="CM15" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="CN15" s="25" t="s">
-        <v>176</v>
       </c>
       <c r="CO15" s="25"/>
       <c r="CP15" s="25"/>
@@ -4591,27 +4600,27 @@
     </row>
     <row r="16" spans="1:99">
       <c r="A16" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>515</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="39" t="s">
-        <v>505</v>
+      <c r="I16" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="1"/>
@@ -4650,7 +4659,7 @@
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AU16" s="12"/>
       <c r="AV16" s="12"/>
@@ -4696,7 +4705,7 @@
       </c>
       <c r="CI16" s="14"/>
       <c r="CJ16" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="CK16" s="15"/>
       <c r="CL16" s="15"/>
@@ -4712,27 +4721,27 @@
     </row>
     <row r="17" spans="1:99">
       <c r="A17" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>515</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="39" t="s">
-        <v>505</v>
+      <c r="I17" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
@@ -4773,7 +4782,7 @@
       <c r="AR17" s="12"/>
       <c r="AS17" s="12"/>
       <c r="AT17" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AU17" s="12"/>
       <c r="AV17" s="12"/>
@@ -4833,29 +4842,29 @@
     </row>
     <row r="18" spans="1:99">
       <c r="A18" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="40" t="s">
-        <v>173</v>
+      <c r="I18" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="1"/>
@@ -4864,7 +4873,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -4896,20 +4905,20 @@
       <c r="AR18" s="27"/>
       <c r="AS18" s="27"/>
       <c r="AT18" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU18" s="27"/>
       <c r="AV18" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AX18" s="27"/>
       <c r="AY18" s="27"/>
       <c r="AZ18" s="27"/>
       <c r="BA18" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB18" s="27"/>
       <c r="BC18" s="27"/>
@@ -4960,31 +4969,31 @@
     </row>
     <row r="19" spans="1:99">
       <c r="A19" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>173</v>
+      <c r="I19" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -4993,7 +5002,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -5025,16 +5034,16 @@
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
       <c r="AT19" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU19" s="1"/>
       <c r="AV19" s="31"/>
       <c r="AW19" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AX19" s="1"/>
       <c r="AY19" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
@@ -5078,7 +5087,7 @@
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
       <c r="CO19" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP19" s="25"/>
       <c r="CQ19" s="1"/>
@@ -5089,31 +5098,31 @@
     </row>
     <row r="20" spans="1:99">
       <c r="A20" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>173</v>
+      <c r="I20" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -5152,14 +5161,14 @@
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AU20" s="1"/>
       <c r="AV20" s="31"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
@@ -5203,7 +5212,7 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
       <c r="CO20" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP20" s="25"/>
       <c r="CQ20" s="1"/>
@@ -5214,31 +5223,31 @@
     </row>
     <row r="21" spans="1:99">
       <c r="A21" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>173</v>
+        <v>275</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -5276,21 +5285,21 @@
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AV21" s="31"/>
       <c r="AW21" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
@@ -5334,7 +5343,7 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP21" s="25"/>
       <c r="CQ21" s="1"/>
@@ -5345,31 +5354,31 @@
     </row>
     <row r="22" spans="1:99">
       <c r="A22" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>173</v>
+        <v>275</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -5408,16 +5417,16 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AU22" s="1"/>
       <c r="AV22" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
@@ -5461,7 +5470,7 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP22" s="25"/>
       <c r="CQ22" s="1"/>
@@ -5472,31 +5481,31 @@
     </row>
     <row r="23" spans="1:99">
       <c r="A23" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>173</v>
+        <v>279</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -5505,7 +5514,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5537,14 +5546,14 @@
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AU23" s="1"/>
       <c r="AV23" s="31"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
@@ -5588,7 +5597,7 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP23" s="25"/>
       <c r="CQ23" s="1"/>
@@ -5599,31 +5608,31 @@
     </row>
     <row r="24" spans="1:99">
       <c r="A24" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I24" s="40" t="s">
-        <v>173</v>
+        <v>279</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -5633,7 +5642,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -5664,14 +5673,14 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="31"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
@@ -5715,7 +5724,7 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP24" s="25"/>
       <c r="CQ24" s="1"/>
@@ -5726,31 +5735,31 @@
     </row>
     <row r="25" spans="1:99">
       <c r="A25" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I25" s="40" t="s">
-        <v>173</v>
+      <c r="I25" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -5789,14 +5798,14 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AU25" s="1"/>
       <c r="AV25" s="31"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
@@ -5840,7 +5849,7 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP25" s="25"/>
       <c r="CQ25" s="1"/>
@@ -5851,31 +5860,31 @@
     </row>
     <row r="26" spans="1:99">
       <c r="A26" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="I26" s="40" t="s">
-        <v>173</v>
+      <c r="I26" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -5914,14 +5923,14 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AU26" s="1"/>
       <c r="AV26" s="31"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
@@ -5965,7 +5974,7 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP26" s="25"/>
       <c r="CQ26" s="1"/>
@@ -5976,31 +5985,31 @@
     </row>
     <row r="27" spans="1:99">
       <c r="A27" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I27" s="40" t="s">
-        <v>173</v>
+        <v>279</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -6011,7 +6020,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -6041,14 +6050,14 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="31"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
@@ -6092,7 +6101,7 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP27" s="25"/>
       <c r="CQ27" s="1"/>
@@ -6103,31 +6112,31 @@
     </row>
     <row r="28" spans="1:99">
       <c r="A28" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>173</v>
+      <c r="I28" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -6139,12 +6148,12 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -6170,14 +6179,14 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="31"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
@@ -6221,7 +6230,7 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
       <c r="CO28" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP28" s="25"/>
       <c r="CQ28" s="1"/>
@@ -6232,31 +6241,31 @@
     </row>
     <row r="29" spans="1:99">
       <c r="A29" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>173</v>
+      <c r="I29" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -6269,10 +6278,10 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="U29" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -6299,14 +6308,14 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AU29" s="1"/>
       <c r="AV29" s="31"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
@@ -6350,7 +6359,7 @@
       <c r="CM29" s="1"/>
       <c r="CN29" s="1"/>
       <c r="CO29" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP29" s="25"/>
       <c r="CQ29" s="1"/>
@@ -6361,31 +6370,31 @@
     </row>
     <row r="30" spans="1:99">
       <c r="A30" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I30" s="40" t="s">
-        <v>173</v>
+        <v>275</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -6424,14 +6433,14 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
@@ -6475,7 +6484,7 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP30" s="25"/>
       <c r="CQ30" s="1"/>
@@ -6486,27 +6495,27 @@
     </row>
     <row r="31" spans="1:99">
       <c r="A31" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="40" t="s">
-        <v>173</v>
+      <c r="I31" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -6601,31 +6610,31 @@
     </row>
     <row r="32" spans="1:99" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I32" s="40" t="s">
-        <v>173</v>
+      <c r="I32" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -6664,18 +6673,18 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AW32" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
@@ -6719,7 +6728,7 @@
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
       <c r="CO32" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP32" s="1"/>
       <c r="CQ32" s="1"/>
@@ -6730,31 +6739,31 @@
     </row>
     <row r="33" spans="1:99" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>173</v>
+      <c r="I33" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -6793,20 +6802,20 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
       <c r="AT33" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
       <c r="AW33" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AX33" s="1"/>
       <c r="AY33" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
@@ -6848,7 +6857,7 @@
       <c r="CM33" s="1"/>
       <c r="CN33" s="1"/>
       <c r="CO33" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP33" s="1"/>
       <c r="CQ33" s="1"/>
@@ -6859,31 +6868,31 @@
     </row>
     <row r="34" spans="1:99" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>173</v>
+      <c r="I34" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -6922,14 +6931,14 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="32"/>
       <c r="AX34" s="1"/>
       <c r="AY34" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
@@ -6973,7 +6982,7 @@
       <c r="CM34" s="1"/>
       <c r="CN34" s="1"/>
       <c r="CO34" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP34" s="1"/>
       <c r="CQ34" s="1"/>
@@ -6984,31 +6993,31 @@
     </row>
     <row r="35" spans="1:99">
       <c r="A35" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="I35" s="40" t="s">
-        <v>173</v>
+      <c r="I35" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -7047,14 +7056,14 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="32"/>
       <c r="AX35" s="1"/>
       <c r="AY35" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
@@ -7098,7 +7107,7 @@
       <c r="CM35" s="1"/>
       <c r="CN35" s="1"/>
       <c r="CO35" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP35" s="1"/>
       <c r="CQ35" s="1"/>
@@ -7109,31 +7118,31 @@
     </row>
     <row r="36" spans="1:99">
       <c r="A36" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="I36" s="40" t="s">
-        <v>173</v>
+      <c r="I36" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -7172,14 +7181,14 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="32"/>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
@@ -7223,7 +7232,7 @@
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
       <c r="CO36" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP36" s="1"/>
       <c r="CQ36" s="1"/>
@@ -7234,31 +7243,31 @@
     </row>
     <row r="37" spans="1:99">
       <c r="A37" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="I37" s="40" t="s">
-        <v>173</v>
+      <c r="I37" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -7297,14 +7306,14 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="32"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
@@ -7348,7 +7357,7 @@
       <c r="CM37" s="1"/>
       <c r="CN37" s="1"/>
       <c r="CO37" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP37" s="1"/>
       <c r="CQ37" s="1"/>
@@ -7359,31 +7368,31 @@
     </row>
     <row r="38" spans="1:99">
       <c r="A38" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I38" s="40" t="s">
-        <v>173</v>
+      <c r="I38" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -7422,14 +7431,14 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="32"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
@@ -7473,7 +7482,7 @@
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
       <c r="CO38" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP38" s="1"/>
       <c r="CQ38" s="1"/>
@@ -7484,31 +7493,31 @@
     </row>
     <row r="39" spans="1:99">
       <c r="A39" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="I39" s="40" t="s">
-        <v>173</v>
+      <c r="I39" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -7547,14 +7556,14 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
       <c r="AW39" s="32"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
@@ -7598,7 +7607,7 @@
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
       <c r="CO39" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP39" s="1"/>
       <c r="CQ39" s="1"/>
@@ -7609,31 +7618,31 @@
     </row>
     <row r="40" spans="1:99">
       <c r="A40" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>173</v>
+      <c r="I40" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -7672,14 +7681,14 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="32"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
@@ -7723,7 +7732,7 @@
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
       <c r="CO40" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP40" s="1"/>
       <c r="CQ40" s="1"/>
@@ -7734,31 +7743,31 @@
     </row>
     <row r="41" spans="1:99">
       <c r="A41" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>173</v>
+      <c r="I41" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -7797,14 +7806,14 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="32"/>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
@@ -7848,7 +7857,7 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
       <c r="CO41" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP41" s="1"/>
       <c r="CQ41" s="1"/>
@@ -7859,29 +7868,29 @@
     </row>
     <row r="42" spans="1:99">
       <c r="A42" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="40" t="s">
-        <v>173</v>
+      <c r="I42" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -7920,14 +7929,14 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="32"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
@@ -7971,7 +7980,7 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
       <c r="CO42" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP42" s="1"/>
       <c r="CQ42" s="1"/>
@@ -7982,29 +7991,29 @@
     </row>
     <row r="43" spans="1:99">
       <c r="A43" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="40" t="s">
-        <v>173</v>
+      <c r="I43" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -8043,14 +8052,14 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="32"/>
       <c r="AX43" s="1"/>
       <c r="AY43" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
@@ -8094,7 +8103,7 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
       <c r="CO43" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP43" s="1"/>
       <c r="CQ43" s="1"/>
@@ -8105,29 +8114,29 @@
     </row>
     <row r="44" spans="1:99">
       <c r="A44" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="40" t="s">
-        <v>173</v>
+      <c r="I44" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -8166,14 +8175,14 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
       <c r="AW44" s="32"/>
       <c r="AX44" s="1"/>
       <c r="AY44" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
@@ -8217,7 +8226,7 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP44" s="1"/>
       <c r="CQ44" s="1"/>
@@ -8228,29 +8237,29 @@
     </row>
     <row r="45" spans="1:99">
       <c r="A45" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="40" t="s">
-        <v>173</v>
+      <c r="I45" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -8289,14 +8298,14 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
       <c r="AW45" s="32"/>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
@@ -8340,7 +8349,7 @@
       <c r="CM45" s="1"/>
       <c r="CN45" s="1"/>
       <c r="CO45" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP45" s="1"/>
       <c r="CQ45" s="1"/>
@@ -8351,31 +8360,31 @@
     </row>
     <row r="46" spans="1:99">
       <c r="A46" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I46" s="40" t="s">
-        <v>173</v>
+      <c r="I46" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -8414,14 +8423,14 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="32"/>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
@@ -8465,7 +8474,7 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP46" s="1"/>
       <c r="CQ46" s="1"/>
@@ -8476,31 +8485,31 @@
     </row>
     <row r="47" spans="1:99">
       <c r="A47" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="I47" s="40" t="s">
-        <v>173</v>
+      <c r="I47" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -8539,14 +8548,14 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="32"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
@@ -8590,7 +8599,7 @@
       <c r="CM47" s="1"/>
       <c r="CN47" s="1"/>
       <c r="CO47" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP47" s="1"/>
       <c r="CQ47" s="1"/>
@@ -8601,31 +8610,31 @@
     </row>
     <row r="48" spans="1:99">
       <c r="A48" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I48" s="40" t="s">
-        <v>173</v>
+      <c r="I48" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -8664,14 +8673,14 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="32"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
@@ -8715,7 +8724,7 @@
       <c r="CM48" s="1"/>
       <c r="CN48" s="1"/>
       <c r="CO48" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP48" s="1"/>
       <c r="CQ48" s="1"/>
@@ -8726,31 +8735,31 @@
     </row>
     <row r="49" spans="1:99">
       <c r="A49" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="I49" s="40" t="s">
-        <v>173</v>
+      <c r="I49" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -8789,14 +8798,14 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
       <c r="AW49" s="32"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
@@ -8840,7 +8849,7 @@
       <c r="CM49" s="1"/>
       <c r="CN49" s="1"/>
       <c r="CO49" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP49" s="1"/>
       <c r="CQ49" s="1"/>
@@ -8851,29 +8860,29 @@
     </row>
     <row r="50" spans="1:99">
       <c r="A50" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="40" t="s">
-        <v>173</v>
+      <c r="I50" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -8912,14 +8921,14 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
       <c r="AW50" s="32"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
@@ -8963,7 +8972,7 @@
       <c r="CM50" s="1"/>
       <c r="CN50" s="1"/>
       <c r="CO50" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP50" s="1"/>
       <c r="CQ50" s="1"/>
@@ -8974,29 +8983,29 @@
     </row>
     <row r="51" spans="1:99">
       <c r="A51" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="40" t="s">
-        <v>173</v>
+      <c r="I51" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -9035,14 +9044,14 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="32"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
@@ -9086,7 +9095,7 @@
       <c r="CM51" s="1"/>
       <c r="CN51" s="1"/>
       <c r="CO51" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP51" s="1"/>
       <c r="CQ51" s="1"/>
@@ -9097,31 +9106,31 @@
     </row>
     <row r="52" spans="1:99">
       <c r="A52" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="I52" s="40" t="s">
-        <v>173</v>
+      <c r="I52" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -9160,14 +9169,14 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
       <c r="AW52" s="32"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
@@ -9211,7 +9220,7 @@
       <c r="CM52" s="1"/>
       <c r="CN52" s="1"/>
       <c r="CO52" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP52" s="1"/>
       <c r="CQ52" s="1"/>
@@ -9222,31 +9231,31 @@
     </row>
     <row r="53" spans="1:99">
       <c r="A53" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="I53" s="40" t="s">
-        <v>173</v>
+      <c r="I53" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -9285,14 +9294,14 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
       <c r="AW53" s="32"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
@@ -9336,7 +9345,7 @@
       <c r="CM53" s="1"/>
       <c r="CN53" s="1"/>
       <c r="CO53" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP53" s="1"/>
       <c r="CQ53" s="1"/>
@@ -9347,29 +9356,29 @@
     </row>
     <row r="54" spans="1:99">
       <c r="A54" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="40" t="s">
-        <v>173</v>
+      <c r="I54" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -9408,16 +9417,16 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
       <c r="AW54" s="32"/>
       <c r="AX54" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AY54" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="AY54" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -9461,7 +9470,7 @@
       <c r="CM54" s="1"/>
       <c r="CN54" s="1"/>
       <c r="CO54" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP54" s="1"/>
       <c r="CQ54" s="1"/>
@@ -9472,29 +9481,29 @@
     </row>
     <row r="55" spans="1:99">
       <c r="A55" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="40" t="s">
-        <v>173</v>
+      <c r="I55" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -9533,16 +9542,16 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="32"/>
       <c r="AX55" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AY55" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="AY55" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -9586,7 +9595,7 @@
       <c r="CM55" s="1"/>
       <c r="CN55" s="1"/>
       <c r="CO55" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP55" s="1"/>
       <c r="CQ55" s="1"/>
@@ -9597,31 +9606,31 @@
     </row>
     <row r="56" spans="1:99">
       <c r="A56" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I56" s="40" t="s">
-        <v>173</v>
+      <c r="I56" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -9660,17 +9669,17 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
       <c r="AW56" s="32"/>
       <c r="AX56" s="1"/>
       <c r="AY56" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ56" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="AZ56" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
@@ -9713,7 +9722,7 @@
       <c r="CM56" s="1"/>
       <c r="CN56" s="1"/>
       <c r="CO56" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP56" s="1"/>
       <c r="CQ56" s="1"/>
@@ -9724,31 +9733,31 @@
     </row>
     <row r="57" spans="1:99">
       <c r="A57" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I57" s="40" t="s">
-        <v>173</v>
+        <v>464</v>
+      </c>
+      <c r="I57" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -9787,17 +9796,17 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
       <c r="AW57" s="32"/>
       <c r="AX57" s="1"/>
       <c r="AY57" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ57" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="AZ57" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
@@ -9840,7 +9849,7 @@
       <c r="CM57" s="1"/>
       <c r="CN57" s="1"/>
       <c r="CO57" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP57" s="1"/>
       <c r="CQ57" s="1"/>
@@ -9851,31 +9860,31 @@
     </row>
     <row r="58" spans="1:99">
       <c r="A58" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I58" s="40" t="s">
-        <v>173</v>
+      <c r="I58" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -9914,16 +9923,16 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
       <c r="AW58" s="32"/>
       <c r="AX58" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AY58" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="AY58" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
@@ -9967,7 +9976,7 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP58" s="1"/>
       <c r="CQ58" s="1"/>
@@ -9978,31 +9987,31 @@
     </row>
     <row r="59" spans="1:99">
       <c r="A59" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I59" s="40" t="s">
-        <v>173</v>
+        <v>469</v>
+      </c>
+      <c r="I59" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -10041,16 +10050,16 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="32"/>
       <c r="AX59" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AY59" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="AY59" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
@@ -10094,7 +10103,7 @@
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
       <c r="CO59" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP59" s="1"/>
       <c r="CQ59" s="1"/>
@@ -10105,31 +10114,31 @@
     </row>
     <row r="60" spans="1:99">
       <c r="A60" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I60" s="40" t="s">
-        <v>173</v>
+      <c r="I60" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -10168,18 +10177,18 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
       <c r="AW60" s="32"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BB60" s="1"/>
       <c r="BC60" s="1"/>
@@ -10221,7 +10230,7 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
       <c r="CO60" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP60" s="1"/>
       <c r="CQ60" s="1"/>
@@ -10232,31 +10241,31 @@
     </row>
     <row r="61" spans="1:99">
       <c r="A61" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="I61" s="40" t="s">
-        <v>173</v>
+      <c r="I61" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -10295,18 +10304,18 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
       <c r="AW61" s="32"/>
       <c r="AX61" s="1"/>
       <c r="AY61" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BB61" s="1"/>
       <c r="BC61" s="1"/>
@@ -10348,7 +10357,7 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP61" s="1"/>
       <c r="CQ61" s="1"/>
@@ -10359,31 +10368,31 @@
     </row>
     <row r="62" spans="1:99">
       <c r="A62" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="I62" s="40" t="s">
-        <v>173</v>
+      <c r="I62" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -10422,14 +10431,14 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
       <c r="AW62" s="32"/>
       <c r="AX62" s="1"/>
       <c r="AY62" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1">
@@ -10475,7 +10484,7 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP62" s="1"/>
       <c r="CQ62" s="1"/>
@@ -10486,31 +10495,31 @@
     </row>
     <row r="63" spans="1:99">
       <c r="A63" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="B63" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>17</v>
+      <c r="C63" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F63" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="G63" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="H63" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="H63" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="I63" s="40" t="s">
-        <v>173</v>
+      <c r="I63" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="J63" s="37"/>
       <c r="K63" s="37"/>
@@ -10549,14 +10558,14 @@
       <c r="AR63" s="37"/>
       <c r="AS63" s="37"/>
       <c r="AT63" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AU63" s="37"/>
       <c r="AV63" s="37"/>
       <c r="AW63" s="38"/>
       <c r="AX63" s="37"/>
       <c r="AY63" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AZ63" s="37"/>
       <c r="BA63" s="37">
@@ -10602,7 +10611,7 @@
       <c r="CM63" s="37"/>
       <c r="CN63" s="37"/>
       <c r="CO63" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CP63" s="37"/>
       <c r="CQ63" s="37"/>
@@ -10613,29 +10622,29 @@
     </row>
     <row r="64" spans="1:99">
       <c r="A64" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B64" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="40" t="s">
-        <v>173</v>
+      <c r="I64" s="39" t="s">
+        <v>172</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -10643,7 +10652,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -10653,7 +10662,7 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="34" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
@@ -10678,7 +10687,7 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
       <c r="AT64" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
@@ -10721,7 +10730,7 @@
       <c r="CG64" s="1"/>
       <c r="CH64" s="1"/>
       <c r="CI64" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="CJ64" s="1"/>
       <c r="CK64" s="1"/>
@@ -10731,58 +10740,58 @@
       <c r="CO64" s="1"/>
       <c r="CP64" s="1"/>
       <c r="CQ64" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="CR64" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="CS64" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="CT64" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="CR64" s="35" t="s">
+      <c r="CU64" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="CS64" s="34" t="s">
-        <v>493</v>
-      </c>
-      <c r="CT64" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="CU64" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:99">
       <c r="A65" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I65" s="40" t="s">
-        <v>173</v>
+      <c r="I65" s="39" t="s">
+        <v>172</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="41">
+      <c r="O65" s="40">
         <v>44743</v>
       </c>
-      <c r="P65" s="41">
+      <c r="P65" s="40">
         <v>44749</v>
       </c>
       <c r="Q65" s="1"/>
@@ -10815,7 +10824,7 @@
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
       <c r="AT65" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
@@ -10825,10 +10834,10 @@
         <v>1</v>
       </c>
       <c r="AZ65" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="BA65" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="BB65" s="1">
         <v>10</v>
@@ -10884,9 +10893,9 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
-    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com"/>
-    <hyperlink ref="W11:W14" r:id="rId3" display="aansari1@zarca.com"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="W11:W14" r:id="rId3" display="aansari1@zarca.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0251F812-222D-48D3-B896-0197E953FCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="516">
   <si>
     <t>Environment</t>
   </si>
@@ -1663,8 +1662,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1726,8 +1726,19 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1774,6 +1785,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1854,7 +1895,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1904,15 +1945,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="4"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2189,7 +2234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2199,8 +2244,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2231,7 +2276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,9 +2285,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2269,14 +2314,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -2286,10 +2331,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2407,44 +2452,44 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CU65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="66" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="66.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99">
@@ -2769,7 +2814,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J2" s="4"/>
@@ -2888,7 +2933,7 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3087,7 +3132,7 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -3220,7 +3265,7 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J5" s="11"/>
@@ -3351,7 +3396,7 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J6" s="11"/>
@@ -3472,7 +3517,7 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -3597,7 +3642,7 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J8" s="11"/>
@@ -3718,7 +3763,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J9" s="1"/>
@@ -3849,7 +3894,7 @@
         <v>190</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -3980,7 +4025,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J11" s="18" t="s">
@@ -4107,7 +4152,7 @@
         <v>198</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="45" t="s">
         <v>503</v>
       </c>
       <c r="J12" s="18" t="s">
@@ -4234,7 +4279,7 @@
         <v>202</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J13" s="18" t="s">
@@ -4361,7 +4406,7 @@
         <v>206</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J14" s="22" t="s">
@@ -4488,7 +4533,7 @@
       <c r="H15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -4619,7 +4664,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J16" s="11"/>
@@ -4740,7 +4785,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J17" s="11"/>
@@ -4863,7 +4908,7 @@
         <v>273</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J18" s="26"/>
@@ -4992,7 +5037,7 @@
       <c r="H19" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J19" s="1"/>
@@ -5121,7 +5166,7 @@
       <c r="H20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J20" s="1"/>
@@ -5246,7 +5291,7 @@
       <c r="H21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J21" s="1"/>
@@ -5377,7 +5422,7 @@
       <c r="H22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J22" s="1"/>
@@ -5504,7 +5549,7 @@
       <c r="H23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J23" s="1"/>
@@ -5631,7 +5676,7 @@
       <c r="H24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J24" s="1"/>
@@ -5758,7 +5803,7 @@
       <c r="H25" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J25" s="1"/>
@@ -5883,7 +5928,7 @@
       <c r="H26" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J26" s="1"/>
@@ -6008,7 +6053,7 @@
       <c r="H27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="1"/>
@@ -6135,7 +6180,7 @@
       <c r="H28" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="1"/>
@@ -6264,7 +6309,7 @@
       <c r="H29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J29" s="1"/>
@@ -6393,7 +6438,7 @@
       <c r="H30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I30" s="44" t="s">
+      <c r="I30" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J30" s="1"/>
@@ -6514,7 +6559,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J31" s="1"/>
@@ -6633,7 +6678,7 @@
       <c r="H32" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I32" s="44" t="s">
+      <c r="I32" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J32" s="1"/>
@@ -6762,7 +6807,7 @@
       <c r="H33" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J33" s="1"/>
@@ -6891,7 +6936,7 @@
       <c r="H34" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J34" s="1"/>
@@ -7016,7 +7061,7 @@
       <c r="H35" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I35" s="44" t="s">
+      <c r="I35" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J35" s="1"/>
@@ -7141,7 +7186,7 @@
       <c r="H36" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J36" s="1"/>
@@ -7266,7 +7311,7 @@
       <c r="H37" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I37" s="44" t="s">
+      <c r="I37" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J37" s="1"/>
@@ -7391,7 +7436,7 @@
       <c r="H38" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I38" s="44" t="s">
+      <c r="I38" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J38" s="1"/>
@@ -7516,7 +7561,7 @@
       <c r="H39" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
@@ -7641,7 +7686,7 @@
       <c r="H40" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J40" s="1"/>
@@ -7766,7 +7811,7 @@
       <c r="H41" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J41" s="1"/>
@@ -7889,7 +7934,7 @@
         <v>429</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J42" s="1"/>
@@ -8012,7 +8057,7 @@
         <v>431</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="44" t="s">
+      <c r="I43" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J43" s="1"/>
@@ -8135,7 +8180,7 @@
         <v>433</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="44" t="s">
+      <c r="I44" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J44" s="1"/>
@@ -8258,7 +8303,7 @@
         <v>435</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J45" s="1"/>
@@ -8383,7 +8428,7 @@
       <c r="H46" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I46" s="44" t="s">
+      <c r="I46" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J46" s="1"/>
@@ -8508,7 +8553,7 @@
       <c r="H47" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I47" s="44" t="s">
+      <c r="I47" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J47" s="1"/>
@@ -8633,7 +8678,7 @@
       <c r="H48" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I48" s="44" t="s">
+      <c r="I48" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J48" s="1"/>
@@ -8758,7 +8803,7 @@
       <c r="H49" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I49" s="44" t="s">
+      <c r="I49" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J49" s="1"/>
@@ -8881,7 +8926,7 @@
         <v>449</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="44" t="s">
+      <c r="I50" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J50" s="1"/>
@@ -9004,7 +9049,7 @@
         <v>451</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="44" t="s">
+      <c r="I51" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J51" s="1"/>
@@ -9129,7 +9174,7 @@
       <c r="H52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I52" s="44" t="s">
+      <c r="I52" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J52" s="1"/>
@@ -9254,7 +9299,7 @@
       <c r="H53" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I53" s="44" t="s">
+      <c r="I53" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="1"/>
@@ -9377,7 +9422,7 @@
         <v>459</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="44" t="s">
+      <c r="I54" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J54" s="1"/>
@@ -9502,7 +9547,7 @@
         <v>461</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="44" t="s">
+      <c r="I55" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J55" s="1"/>
@@ -9629,7 +9674,7 @@
       <c r="H56" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I56" s="44" t="s">
+      <c r="I56" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J56" s="1"/>
@@ -9756,7 +9801,7 @@
       <c r="H57" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I57" s="44" t="s">
+      <c r="I57" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J57" s="1"/>
@@ -9883,7 +9928,7 @@
       <c r="H58" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I58" s="44" t="s">
+      <c r="I58" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J58" s="1"/>
@@ -10010,7 +10055,7 @@
       <c r="H59" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I59" s="44" t="s">
+      <c r="I59" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J59" s="1"/>
@@ -10137,7 +10182,7 @@
       <c r="H60" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="I60" s="44" t="s">
+      <c r="I60" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J60" s="1"/>
@@ -10264,7 +10309,7 @@
       <c r="H61" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I61" s="44" t="s">
+      <c r="I61" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J61" s="1"/>
@@ -10391,7 +10436,7 @@
       <c r="H62" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I62" s="44" t="s">
+      <c r="I62" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J62" s="1"/>
@@ -10518,7 +10563,7 @@
       <c r="H63" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="I63" s="44" t="s">
+      <c r="I63" s="47" t="s">
         <v>172</v>
       </c>
       <c r="J63" s="37"/>
@@ -10625,7 +10670,7 @@
         <v>487</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>515</v>
@@ -10643,8 +10688,8 @@
         <v>489</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="39" t="s">
-        <v>172</v>
+      <c r="I64" s="45" t="s">
+        <v>503</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -10893,9 +10938,9 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="W11:W14" r:id="rId3" display="aansari1@zarca.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com"/>
+    <hyperlink ref="W11:W14" r:id="rId3" display="aansari1@zarca.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="521">
   <si>
     <t>Environment</t>
   </si>
@@ -1658,13 +1658,28 @@
   <si>
     <t>Gaurav</t>
   </si>
+  <si>
+    <t>Smoke_TC77</t>
+  </si>
+  <si>
+    <t>Smoke_TC78</t>
+  </si>
+  <si>
+    <t>Sajid</t>
+  </si>
+  <si>
+    <t>Invalid Credentials</t>
+  </si>
+  <si>
+    <t>Valid Credentials</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1737,8 +1752,52 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1785,6 +1844,131 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1895,7 +2079,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1944,11 +2128,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2464,10 +2670,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CU65"/>
+  <dimension ref="A1:CU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2814,7 +3020,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J2" s="4"/>
@@ -2933,7 +3139,7 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3132,7 +3338,7 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -3265,7 +3471,7 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J5" s="11"/>
@@ -3396,7 +3602,7 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J6" s="11"/>
@@ -3517,7 +3723,7 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -3642,7 +3848,7 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J8" s="11"/>
@@ -3763,7 +3969,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J9" s="1"/>
@@ -3894,7 +4100,7 @@
         <v>190</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -4025,7 +4231,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J11" s="18" t="s">
@@ -4134,7 +4340,7 @@
         <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>515</v>
@@ -4152,8 +4358,8 @@
         <v>198</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="45" t="s">
-        <v>503</v>
+      <c r="I12" s="69" t="s">
+        <v>172</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>317</v>
@@ -4279,7 +4485,7 @@
         <v>202</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J13" s="18" t="s">
@@ -4406,7 +4612,7 @@
         <v>206</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J14" s="22" t="s">
@@ -4533,7 +4739,7 @@
       <c r="H15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -4664,7 +4870,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J16" s="11"/>
@@ -4785,7 +4991,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J17" s="11"/>
@@ -4908,7 +5114,7 @@
         <v>273</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="47" t="s">
+      <c r="I18" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J18" s="26"/>
@@ -5037,7 +5243,7 @@
       <c r="H19" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J19" s="1"/>
@@ -5166,7 +5372,7 @@
       <c r="H20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J20" s="1"/>
@@ -5291,7 +5497,7 @@
       <c r="H21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J21" s="1"/>
@@ -5422,7 +5628,7 @@
       <c r="H22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J22" s="1"/>
@@ -5549,7 +5755,7 @@
       <c r="H23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="47" t="s">
+      <c r="I23" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J23" s="1"/>
@@ -5676,7 +5882,7 @@
       <c r="H24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J24" s="1"/>
@@ -5803,7 +6009,7 @@
       <c r="H25" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="47" t="s">
+      <c r="I25" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J25" s="1"/>
@@ -5928,7 +6134,7 @@
       <c r="H26" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J26" s="1"/>
@@ -6053,7 +6259,7 @@
       <c r="H27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="1"/>
@@ -6180,7 +6386,7 @@
       <c r="H28" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I28" s="47" t="s">
+      <c r="I28" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="1"/>
@@ -6309,7 +6515,7 @@
       <c r="H29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I29" s="47" t="s">
+      <c r="I29" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J29" s="1"/>
@@ -6438,7 +6644,7 @@
       <c r="H30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J30" s="1"/>
@@ -6559,7 +6765,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="47" t="s">
+      <c r="I31" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J31" s="1"/>
@@ -6678,7 +6884,7 @@
       <c r="H32" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I32" s="47" t="s">
+      <c r="I32" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J32" s="1"/>
@@ -6807,7 +7013,7 @@
       <c r="H33" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="47" t="s">
+      <c r="I33" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J33" s="1"/>
@@ -6936,7 +7142,7 @@
       <c r="H34" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J34" s="1"/>
@@ -7061,7 +7267,7 @@
       <c r="H35" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I35" s="47" t="s">
+      <c r="I35" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J35" s="1"/>
@@ -7186,7 +7392,7 @@
       <c r="H36" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I36" s="47" t="s">
+      <c r="I36" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J36" s="1"/>
@@ -7311,7 +7517,7 @@
       <c r="H37" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I37" s="47" t="s">
+      <c r="I37" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J37" s="1"/>
@@ -7436,7 +7642,7 @@
       <c r="H38" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I38" s="47" t="s">
+      <c r="I38" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J38" s="1"/>
@@ -7561,7 +7767,7 @@
       <c r="H39" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I39" s="47" t="s">
+      <c r="I39" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
@@ -7686,7 +7892,7 @@
       <c r="H40" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I40" s="47" t="s">
+      <c r="I40" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J40" s="1"/>
@@ -7811,7 +8017,7 @@
       <c r="H41" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I41" s="47" t="s">
+      <c r="I41" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J41" s="1"/>
@@ -7934,7 +8140,7 @@
         <v>429</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="47" t="s">
+      <c r="I42" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J42" s="1"/>
@@ -8057,7 +8263,7 @@
         <v>431</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="47" t="s">
+      <c r="I43" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J43" s="1"/>
@@ -8180,7 +8386,7 @@
         <v>433</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="47" t="s">
+      <c r="I44" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J44" s="1"/>
@@ -8303,7 +8509,7 @@
         <v>435</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="47" t="s">
+      <c r="I45" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J45" s="1"/>
@@ -8428,7 +8634,7 @@
       <c r="H46" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I46" s="47" t="s">
+      <c r="I46" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J46" s="1"/>
@@ -8553,7 +8759,7 @@
       <c r="H47" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I47" s="47" t="s">
+      <c r="I47" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J47" s="1"/>
@@ -8678,7 +8884,7 @@
       <c r="H48" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I48" s="47" t="s">
+      <c r="I48" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J48" s="1"/>
@@ -8803,7 +9009,7 @@
       <c r="H49" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I49" s="47" t="s">
+      <c r="I49" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J49" s="1"/>
@@ -8926,7 +9132,7 @@
         <v>449</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="47" t="s">
+      <c r="I50" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J50" s="1"/>
@@ -9049,7 +9255,7 @@
         <v>451</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="47" t="s">
+      <c r="I51" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J51" s="1"/>
@@ -9174,7 +9380,7 @@
       <c r="H52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I52" s="47" t="s">
+      <c r="I52" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J52" s="1"/>
@@ -9299,7 +9505,7 @@
       <c r="H53" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I53" s="47" t="s">
+      <c r="I53" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="1"/>
@@ -9422,7 +9628,7 @@
         <v>459</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="47" t="s">
+      <c r="I54" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J54" s="1"/>
@@ -9547,7 +9753,7 @@
         <v>461</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="47" t="s">
+      <c r="I55" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J55" s="1"/>
@@ -9674,7 +9880,7 @@
       <c r="H56" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I56" s="47" t="s">
+      <c r="I56" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J56" s="1"/>
@@ -9801,7 +10007,7 @@
       <c r="H57" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I57" s="47" t="s">
+      <c r="I57" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J57" s="1"/>
@@ -9928,7 +10134,7 @@
       <c r="H58" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I58" s="47" t="s">
+      <c r="I58" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J58" s="1"/>
@@ -10055,7 +10261,7 @@
       <c r="H59" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I59" s="47" t="s">
+      <c r="I59" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J59" s="1"/>
@@ -10182,7 +10388,7 @@
       <c r="H60" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="I60" s="47" t="s">
+      <c r="I60" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J60" s="1"/>
@@ -10309,7 +10515,7 @@
       <c r="H61" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I61" s="47" t="s">
+      <c r="I61" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J61" s="1"/>
@@ -10436,7 +10642,7 @@
       <c r="H62" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I62" s="47" t="s">
+      <c r="I62" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J62" s="1"/>
@@ -10563,7 +10769,7 @@
       <c r="H63" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="I63" s="47" t="s">
+      <c r="I63" s="69" t="s">
         <v>172</v>
       </c>
       <c r="J63" s="37"/>
@@ -10670,7 +10876,7 @@
         <v>487</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>515</v>
@@ -10688,8 +10894,8 @@
         <v>489</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="45" t="s">
-        <v>503</v>
+      <c r="I64" s="69" t="s">
+        <v>172</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -10801,139 +11007,369 @@
       </c>
     </row>
     <row r="65" spans="1:99">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="37" t="s">
         <v>507</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="37" t="s">
         <v>508</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="37" t="s">
         <v>509</v>
       </c>
       <c r="I65" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="40">
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="46">
         <v>44743</v>
       </c>
-      <c r="P65" s="40">
+      <c r="P65" s="46">
         <v>44749</v>
       </c>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
-      <c r="AM65" s="1"/>
-      <c r="AN65" s="1"/>
-      <c r="AO65" s="1"/>
-      <c r="AP65" s="1"/>
-      <c r="AQ65" s="1"/>
-      <c r="AR65" s="1"/>
-      <c r="AS65" s="1"/>
-      <c r="AT65" s="1" t="s">
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="37"/>
+      <c r="Z65" s="37"/>
+      <c r="AA65" s="37"/>
+      <c r="AB65" s="37"/>
+      <c r="AC65" s="37"/>
+      <c r="AD65" s="37"/>
+      <c r="AE65" s="37"/>
+      <c r="AF65" s="37"/>
+      <c r="AG65" s="37"/>
+      <c r="AH65" s="37"/>
+      <c r="AI65" s="37"/>
+      <c r="AJ65" s="37"/>
+      <c r="AK65" s="37"/>
+      <c r="AL65" s="37"/>
+      <c r="AM65" s="37"/>
+      <c r="AN65" s="37"/>
+      <c r="AO65" s="37"/>
+      <c r="AP65" s="37"/>
+      <c r="AQ65" s="37"/>
+      <c r="AR65" s="37"/>
+      <c r="AS65" s="37"/>
+      <c r="AT65" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="AU65" s="1"/>
-      <c r="AV65" s="1"/>
-      <c r="AW65" s="32"/>
-      <c r="AX65" s="1"/>
-      <c r="AY65" s="1">
+      <c r="AU65" s="37"/>
+      <c r="AV65" s="37"/>
+      <c r="AW65" s="38"/>
+      <c r="AX65" s="37"/>
+      <c r="AY65" s="37">
         <v>1</v>
       </c>
-      <c r="AZ65" s="1" t="s">
+      <c r="AZ65" s="37" t="s">
         <v>510</v>
       </c>
-      <c r="BA65" s="1" t="s">
+      <c r="BA65" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="BB65" s="1">
+      <c r="BB65" s="37">
         <v>10</v>
       </c>
-      <c r="BC65" s="1">
+      <c r="BC65" s="37">
         <v>50</v>
       </c>
-      <c r="BD65" s="1"/>
-      <c r="BE65" s="1"/>
-      <c r="BF65" s="1"/>
-      <c r="BG65" s="1"/>
-      <c r="BH65" s="1"/>
-      <c r="BI65" s="1"/>
-      <c r="BJ65" s="1"/>
-      <c r="BK65" s="1"/>
-      <c r="BL65" s="1"/>
-      <c r="BM65" s="1"/>
-      <c r="BN65" s="1"/>
-      <c r="BO65" s="1"/>
-      <c r="BP65" s="1"/>
-      <c r="BQ65" s="1"/>
-      <c r="BR65" s="1"/>
-      <c r="BS65" s="1"/>
-      <c r="BT65" s="1"/>
-      <c r="BU65" s="1"/>
-      <c r="BV65" s="1"/>
-      <c r="BW65" s="1"/>
-      <c r="BX65" s="1"/>
-      <c r="BY65" s="1"/>
-      <c r="BZ65" s="1"/>
-      <c r="CA65" s="1"/>
-      <c r="CB65" s="1"/>
-      <c r="CC65" s="1"/>
-      <c r="CD65" s="1"/>
-      <c r="CE65" s="1"/>
-      <c r="CF65" s="1"/>
-      <c r="CG65" s="1"/>
-      <c r="CH65" s="1"/>
-      <c r="CI65" s="1"/>
-      <c r="CJ65" s="1"/>
-      <c r="CK65" s="1"/>
-      <c r="CL65" s="1"/>
-      <c r="CM65" s="1"/>
-      <c r="CN65" s="1"/>
-      <c r="CO65" s="1"/>
-      <c r="CP65" s="1"/>
-      <c r="CQ65" s="1"/>
-      <c r="CR65" s="35"/>
-      <c r="CS65" s="34"/>
-      <c r="CT65" s="36"/>
-      <c r="CU65" s="1"/>
+      <c r="BD65" s="37"/>
+      <c r="BE65" s="37"/>
+      <c r="BF65" s="37"/>
+      <c r="BG65" s="37"/>
+      <c r="BH65" s="37"/>
+      <c r="BI65" s="37"/>
+      <c r="BJ65" s="37"/>
+      <c r="BK65" s="37"/>
+      <c r="BL65" s="37"/>
+      <c r="BM65" s="37"/>
+      <c r="BN65" s="37"/>
+      <c r="BO65" s="37"/>
+      <c r="BP65" s="37"/>
+      <c r="BQ65" s="37"/>
+      <c r="BR65" s="37"/>
+      <c r="BS65" s="37"/>
+      <c r="BT65" s="37"/>
+      <c r="BU65" s="37"/>
+      <c r="BV65" s="37"/>
+      <c r="BW65" s="37"/>
+      <c r="BX65" s="37"/>
+      <c r="BY65" s="37"/>
+      <c r="BZ65" s="37"/>
+      <c r="CA65" s="37"/>
+      <c r="CB65" s="37"/>
+      <c r="CC65" s="37"/>
+      <c r="CD65" s="37"/>
+      <c r="CE65" s="37"/>
+      <c r="CF65" s="37"/>
+      <c r="CG65" s="37"/>
+      <c r="CH65" s="37"/>
+      <c r="CI65" s="37"/>
+      <c r="CJ65" s="37"/>
+      <c r="CK65" s="37"/>
+      <c r="CL65" s="37"/>
+      <c r="CM65" s="37"/>
+      <c r="CN65" s="37"/>
+      <c r="CO65" s="37"/>
+      <c r="CP65" s="37"/>
+      <c r="CQ65" s="37"/>
+      <c r="CR65" s="47"/>
+      <c r="CS65" s="48"/>
+      <c r="CT65" s="49"/>
+      <c r="CU65" s="37"/>
+    </row>
+    <row r="66" spans="1:99">
+      <c r="A66" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1"/>
+      <c r="AU66" s="1"/>
+      <c r="AV66" s="1"/>
+      <c r="AW66" s="32"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="1"/>
+      <c r="BC66" s="1"/>
+      <c r="BD66" s="1"/>
+      <c r="BE66" s="1"/>
+      <c r="BF66" s="1"/>
+      <c r="BG66" s="1"/>
+      <c r="BH66" s="1"/>
+      <c r="BI66" s="1"/>
+      <c r="BJ66" s="1"/>
+      <c r="BK66" s="1"/>
+      <c r="BL66" s="1"/>
+      <c r="BM66" s="1"/>
+      <c r="BN66" s="1"/>
+      <c r="BO66" s="1"/>
+      <c r="BP66" s="1"/>
+      <c r="BQ66" s="1"/>
+      <c r="BR66" s="1"/>
+      <c r="BS66" s="1"/>
+      <c r="BT66" s="1"/>
+      <c r="BU66" s="1"/>
+      <c r="BV66" s="1"/>
+      <c r="BW66" s="1"/>
+      <c r="BX66" s="1"/>
+      <c r="BY66" s="1"/>
+      <c r="BZ66" s="1"/>
+      <c r="CA66" s="1"/>
+      <c r="CB66" s="1"/>
+      <c r="CC66" s="1"/>
+      <c r="CD66" s="1"/>
+      <c r="CE66" s="1"/>
+      <c r="CF66" s="1"/>
+      <c r="CG66" s="1"/>
+      <c r="CH66" s="1"/>
+      <c r="CI66" s="1"/>
+      <c r="CJ66" s="1"/>
+      <c r="CK66" s="1"/>
+      <c r="CL66" s="1"/>
+      <c r="CM66" s="1"/>
+      <c r="CN66" s="1"/>
+      <c r="CO66" s="1"/>
+      <c r="CP66" s="1"/>
+      <c r="CQ66" s="1"/>
+      <c r="CR66" s="35"/>
+      <c r="CS66" s="34"/>
+      <c r="CT66" s="36"/>
+      <c r="CU66" s="1"/>
+    </row>
+    <row r="67" spans="1:99">
+      <c r="A67" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="32"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="1"/>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="1"/>
+      <c r="BH67" s="1"/>
+      <c r="BI67" s="1"/>
+      <c r="BJ67" s="1"/>
+      <c r="BK67" s="1"/>
+      <c r="BL67" s="1"/>
+      <c r="BM67" s="1"/>
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="1"/>
+      <c r="BP67" s="1"/>
+      <c r="BQ67" s="1"/>
+      <c r="BR67" s="1"/>
+      <c r="BS67" s="1"/>
+      <c r="BT67" s="1"/>
+      <c r="BU67" s="1"/>
+      <c r="BV67" s="1"/>
+      <c r="BW67" s="1"/>
+      <c r="BX67" s="1"/>
+      <c r="BY67" s="1"/>
+      <c r="BZ67" s="1"/>
+      <c r="CA67" s="1"/>
+      <c r="CB67" s="1"/>
+      <c r="CC67" s="1"/>
+      <c r="CD67" s="1"/>
+      <c r="CE67" s="1"/>
+      <c r="CF67" s="1"/>
+      <c r="CG67" s="1"/>
+      <c r="CH67" s="1"/>
+      <c r="CI67" s="1"/>
+      <c r="CJ67" s="1"/>
+      <c r="CK67" s="1"/>
+      <c r="CL67" s="1"/>
+      <c r="CM67" s="1"/>
+      <c r="CN67" s="1"/>
+      <c r="CO67" s="1"/>
+      <c r="CP67" s="1"/>
+      <c r="CQ67" s="1"/>
+      <c r="CR67" s="35"/>
+      <c r="CS67" s="34"/>
+      <c r="CT67" s="36"/>
+      <c r="CU67" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="521">
   <si>
     <t>Environment</t>
   </si>
@@ -1679,7 +1679,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1752,52 +1752,8 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1842,133 +1798,13 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2079,7 +1915,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2127,34 +1963,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2672,8 +2491,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3020,7 +2839,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J2" s="4"/>
@@ -3139,7 +2958,7 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3338,7 +3157,7 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -3471,7 +3290,7 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J5" s="11"/>
@@ -3602,7 +3421,7 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J6" s="11"/>
@@ -3723,7 +3542,7 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -3848,7 +3667,7 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J8" s="11"/>
@@ -3969,7 +3788,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J9" s="1"/>
@@ -4082,7 +3901,7 @@
         <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>515</v>
@@ -4100,8 +3919,8 @@
         <v>190</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="69" t="s">
-        <v>172</v>
+      <c r="I10" s="50" t="s">
+        <v>503</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>320</v>
@@ -4213,7 +4032,7 @@
         <v>192</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>515</v>
@@ -4231,8 +4050,8 @@
         <v>194</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="69" t="s">
-        <v>172</v>
+      <c r="I11" s="50" t="s">
+        <v>503</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>317</v>
@@ -4340,7 +4159,7 @@
         <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>515</v>
@@ -4358,8 +4177,8 @@
         <v>198</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="69" t="s">
-        <v>172</v>
+      <c r="I12" s="50" t="s">
+        <v>503</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>317</v>
@@ -4467,7 +4286,7 @@
         <v>200</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>515</v>
@@ -4485,8 +4304,8 @@
         <v>202</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="69" t="s">
-        <v>172</v>
+      <c r="I13" s="50" t="s">
+        <v>503</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>317</v>
@@ -4594,7 +4413,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>515</v>
@@ -4612,8 +4431,8 @@
         <v>206</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="69" t="s">
-        <v>172</v>
+      <c r="I14" s="50" t="s">
+        <v>503</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>317</v>
@@ -4739,7 +4558,7 @@
       <c r="H15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -4854,7 +4673,7 @@
         <v>219</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>515</v>
@@ -4870,8 +4689,8 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="69" t="s">
-        <v>172</v>
+      <c r="I16" s="50" t="s">
+        <v>503</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="1"/>
@@ -4975,7 +4794,7 @@
         <v>224</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>515</v>
@@ -4991,8 +4810,8 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="69" t="s">
-        <v>172</v>
+      <c r="I17" s="50" t="s">
+        <v>503</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
@@ -5114,7 +4933,7 @@
         <v>273</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J18" s="26"/>
@@ -5243,7 +5062,7 @@
       <c r="H19" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I19" s="69" t="s">
+      <c r="I19" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J19" s="1"/>
@@ -5372,7 +5191,7 @@
       <c r="H20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I20" s="69" t="s">
+      <c r="I20" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J20" s="1"/>
@@ -5497,7 +5316,7 @@
       <c r="H21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I21" s="69" t="s">
+      <c r="I21" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J21" s="1"/>
@@ -5628,7 +5447,7 @@
       <c r="H22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I22" s="69" t="s">
+      <c r="I22" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J22" s="1"/>
@@ -5755,7 +5574,7 @@
       <c r="H23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J23" s="1"/>
@@ -5882,7 +5701,7 @@
       <c r="H24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I24" s="69" t="s">
+      <c r="I24" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J24" s="1"/>
@@ -6009,7 +5828,7 @@
       <c r="H25" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="69" t="s">
+      <c r="I25" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J25" s="1"/>
@@ -6134,7 +5953,7 @@
       <c r="H26" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I26" s="69" t="s">
+      <c r="I26" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J26" s="1"/>
@@ -6259,7 +6078,7 @@
       <c r="H27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I27" s="69" t="s">
+      <c r="I27" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="1"/>
@@ -6386,7 +6205,7 @@
       <c r="H28" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I28" s="69" t="s">
+      <c r="I28" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="1"/>
@@ -6515,7 +6334,7 @@
       <c r="H29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I29" s="69" t="s">
+      <c r="I29" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J29" s="1"/>
@@ -6644,7 +6463,7 @@
       <c r="H30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I30" s="69" t="s">
+      <c r="I30" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J30" s="1"/>
@@ -6749,7 +6568,7 @@
         <v>484</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>515</v>
@@ -6765,8 +6584,8 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="69" t="s">
-        <v>172</v>
+      <c r="I31" s="50" t="s">
+        <v>503</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -6884,7 +6703,7 @@
       <c r="H32" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I32" s="69" t="s">
+      <c r="I32" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J32" s="1"/>
@@ -7013,7 +6832,7 @@
       <c r="H33" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="69" t="s">
+      <c r="I33" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J33" s="1"/>
@@ -7142,7 +6961,7 @@
       <c r="H34" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="I34" s="69" t="s">
+      <c r="I34" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J34" s="1"/>
@@ -7267,7 +7086,7 @@
       <c r="H35" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I35" s="69" t="s">
+      <c r="I35" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J35" s="1"/>
@@ -7392,7 +7211,7 @@
       <c r="H36" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I36" s="69" t="s">
+      <c r="I36" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J36" s="1"/>
@@ -7517,7 +7336,7 @@
       <c r="H37" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I37" s="69" t="s">
+      <c r="I37" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J37" s="1"/>
@@ -7642,7 +7461,7 @@
       <c r="H38" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I38" s="69" t="s">
+      <c r="I38" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J38" s="1"/>
@@ -7767,7 +7586,7 @@
       <c r="H39" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I39" s="69" t="s">
+      <c r="I39" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
@@ -7892,7 +7711,7 @@
       <c r="H40" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I40" s="69" t="s">
+      <c r="I40" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J40" s="1"/>
@@ -8017,7 +7836,7 @@
       <c r="H41" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I41" s="69" t="s">
+      <c r="I41" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J41" s="1"/>
@@ -8140,7 +7959,7 @@
         <v>429</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="69" t="s">
+      <c r="I42" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J42" s="1"/>
@@ -8263,7 +8082,7 @@
         <v>431</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="69" t="s">
+      <c r="I43" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J43" s="1"/>
@@ -8386,7 +8205,7 @@
         <v>433</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="69" t="s">
+      <c r="I44" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J44" s="1"/>
@@ -8509,7 +8328,7 @@
         <v>435</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="69" t="s">
+      <c r="I45" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J45" s="1"/>
@@ -8634,7 +8453,7 @@
       <c r="H46" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I46" s="69" t="s">
+      <c r="I46" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J46" s="1"/>
@@ -8759,7 +8578,7 @@
       <c r="H47" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I47" s="69" t="s">
+      <c r="I47" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J47" s="1"/>
@@ -8884,7 +8703,7 @@
       <c r="H48" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I48" s="69" t="s">
+      <c r="I48" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J48" s="1"/>
@@ -9009,7 +8828,7 @@
       <c r="H49" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I49" s="69" t="s">
+      <c r="I49" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J49" s="1"/>
@@ -9132,7 +8951,7 @@
         <v>449</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="69" t="s">
+      <c r="I50" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J50" s="1"/>
@@ -9255,7 +9074,7 @@
         <v>451</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="69" t="s">
+      <c r="I51" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J51" s="1"/>
@@ -9380,7 +9199,7 @@
       <c r="H52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I52" s="69" t="s">
+      <c r="I52" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J52" s="1"/>
@@ -9505,7 +9324,7 @@
       <c r="H53" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I53" s="69" t="s">
+      <c r="I53" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="1"/>
@@ -9628,7 +9447,7 @@
         <v>459</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="69" t="s">
+      <c r="I54" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J54" s="1"/>
@@ -9753,7 +9572,7 @@
         <v>461</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="69" t="s">
+      <c r="I55" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J55" s="1"/>
@@ -9880,7 +9699,7 @@
       <c r="H56" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I56" s="69" t="s">
+      <c r="I56" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J56" s="1"/>
@@ -10007,7 +9826,7 @@
       <c r="H57" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I57" s="69" t="s">
+      <c r="I57" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J57" s="1"/>
@@ -10134,7 +9953,7 @@
       <c r="H58" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I58" s="69" t="s">
+      <c r="I58" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J58" s="1"/>
@@ -10261,7 +10080,7 @@
       <c r="H59" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I59" s="69" t="s">
+      <c r="I59" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J59" s="1"/>
@@ -10388,7 +10207,7 @@
       <c r="H60" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="I60" s="69" t="s">
+      <c r="I60" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J60" s="1"/>
@@ -10515,7 +10334,7 @@
       <c r="H61" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I61" s="69" t="s">
+      <c r="I61" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J61" s="1"/>
@@ -10642,7 +10461,7 @@
       <c r="H62" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I62" s="69" t="s">
+      <c r="I62" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J62" s="1"/>
@@ -10769,7 +10588,7 @@
       <c r="H63" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="I63" s="69" t="s">
+      <c r="I63" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J63" s="37"/>
@@ -10894,7 +10713,7 @@
         <v>489</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="69" t="s">
+      <c r="I64" s="52" t="s">
         <v>172</v>
       </c>
       <c r="J64" s="1"/>
@@ -11039,10 +10858,10 @@
       <c r="L65" s="37"/>
       <c r="M65" s="37"/>
       <c r="N65" s="37"/>
-      <c r="O65" s="46">
+      <c r="O65" s="44">
         <v>44743</v>
       </c>
-      <c r="P65" s="46">
+      <c r="P65" s="44">
         <v>44749</v>
       </c>
       <c r="Q65" s="37"/>
@@ -11136,34 +10955,34 @@
       <c r="CO65" s="37"/>
       <c r="CP65" s="37"/>
       <c r="CQ65" s="37"/>
-      <c r="CR65" s="47"/>
-      <c r="CS65" s="48"/>
-      <c r="CT65" s="49"/>
+      <c r="CR65" s="45"/>
+      <c r="CS65" s="46"/>
+      <c r="CT65" s="47"/>
       <c r="CU65" s="37"/>
     </row>
     <row r="66" spans="1:99">
       <c r="A66" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B66" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="45" t="s">
+      <c r="B66" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="43" t="s">
         <v>518</v>
       </c>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="F66" s="45" t="s">
+      <c r="F66" s="43" t="s">
         <v>519</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="67" t="s">
-        <v>503</v>
+      <c r="I66" s="52" t="s">
+        <v>172</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -11260,25 +11079,25 @@
       <c r="A67" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B67" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="45" t="s">
+      <c r="B67" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="43" t="s">
         <v>518</v>
       </c>
-      <c r="D67" s="45" t="s">
+      <c r="D67" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="E67" s="45" t="s">
+      <c r="E67" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="F67" s="45" t="s">
+      <c r="F67" s="43" t="s">
         <v>520</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="67" t="s">
-        <v>503</v>
+      <c r="I67" s="52" t="s">
+        <v>172</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="594">
   <si>
     <t>Environment</t>
   </si>
@@ -1620,65 +1620,283 @@
     <t>subject</t>
   </si>
   <si>
+    <t>Smoke_TC76</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>RMX2</t>
+  </si>
+  <si>
+    <t>filter management</t>
+  </si>
+  <si>
+    <t>1. It will create filters for the given survey</t>
+  </si>
+  <si>
+    <t>filters should be created and validated</t>
+  </si>
+  <si>
+    <t>102.246.225.52</t>
+  </si>
+  <si>
+    <t>Attach n resp trend</t>
+  </si>
+  <si>
+    <t>GVG3196@test</t>
+  </si>
+  <si>
+    <t>gaurav_zarca</t>
+  </si>
+  <si>
+    <t>SID: 96, qa</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>Smoke_TC77</t>
+  </si>
+  <si>
+    <t>Smoke_TC78</t>
+  </si>
+  <si>
+    <t>Sajid</t>
+  </si>
+  <si>
+    <t>Invalid Credentials</t>
+  </si>
+  <si>
+    <t>Valid Credentials</t>
+  </si>
+  <si>
+    <t>Smoke_TC82</t>
+  </si>
+  <si>
+    <t>Smoke_TC83</t>
+  </si>
+  <si>
+    <t>Smoke_TC84</t>
+  </si>
+  <si>
+    <t>Smoke_TC85</t>
+  </si>
+  <si>
+    <t>Smoke_TC86</t>
+  </si>
+  <si>
+    <t>Smoke_TC87</t>
+  </si>
+  <si>
+    <t>Smoke_TC88</t>
+  </si>
+  <si>
+    <t>Smoke_TC89</t>
+  </si>
+  <si>
+    <t>Smoke_TC90</t>
+  </si>
+  <si>
+    <t>Smoke_TC91</t>
+  </si>
+  <si>
+    <t>Smoke_TC92</t>
+  </si>
+  <si>
+    <t>Smoke_TC93</t>
+  </si>
+  <si>
+    <t>Smoke_TC94</t>
+  </si>
+  <si>
+    <t>Smoke_TC95</t>
+  </si>
+  <si>
+    <t>Smoke_TC96</t>
+  </si>
+  <si>
+    <t>Smoke_TC97</t>
+  </si>
+  <si>
+    <t>Smoke_TC98</t>
+  </si>
+  <si>
+    <t>Smoke_TC99</t>
+  </si>
+  <si>
+    <t>Smoke_TC100</t>
+  </si>
+  <si>
+    <t>Smoke_TC101</t>
+  </si>
+  <si>
+    <t>Smoke_TC102</t>
+  </si>
+  <si>
+    <t>Smoke_TC103</t>
+  </si>
+  <si>
+    <t>Smoke_TC104</t>
+  </si>
+  <si>
+    <t>Smoke_TC105</t>
+  </si>
+  <si>
+    <t>File Library</t>
+  </si>
+  <si>
+    <t>Upload .xls format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .xlsx format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .doc format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .docx format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .ppt format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .pptx format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .pps format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .pdf format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .txt format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .rtf format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .xml format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .mpg format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .swf format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .jpg format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .jpeg format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .bmp format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .gif format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .png format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .htm format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .html format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .xhtml format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .csv format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .mp3 format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .mp4 format file in File Library</t>
+  </si>
+  <si>
+    <t>sogo_data_import_file.xls</t>
+  </si>
+  <si>
+    <t>smsnumber.xlsx</t>
+  </si>
+  <si>
+    <t>docfile.doc</t>
+  </si>
+  <si>
+    <t>docxfile.docx</t>
+  </si>
+  <si>
+    <t>ppt.ppt</t>
+  </si>
+  <si>
+    <t>pptx.pptx</t>
+  </si>
+  <si>
+    <t>pps.pps</t>
+  </si>
+  <si>
+    <t>txt.txt</t>
+  </si>
+  <si>
+    <t>rtf.rtf</t>
+  </si>
+  <si>
+    <t>xml.xml</t>
+  </si>
+  <si>
+    <t>mpg.mpg</t>
+  </si>
+  <si>
+    <t>swf.swf</t>
+  </si>
+  <si>
+    <t>jpg.jpg</t>
+  </si>
+  <si>
+    <t>jpeg.jpeg</t>
+  </si>
+  <si>
+    <t>bmp.bmp</t>
+  </si>
+  <si>
+    <t>gif.gif</t>
+  </si>
+  <si>
+    <t>png.png</t>
+  </si>
+  <si>
+    <t>htm.htm</t>
+  </si>
+  <si>
+    <t>html.html</t>
+  </si>
+  <si>
+    <t>xhtml.xhtml</t>
+  </si>
+  <si>
+    <t>csv.csv</t>
+  </si>
+  <si>
+    <t>mp3.mp3</t>
+  </si>
+  <si>
+    <t>mp4.mp4</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Smoke_TC76</t>
-  </si>
-  <si>
-    <t>Vivek</t>
-  </si>
-  <si>
-    <t>RMX2</t>
-  </si>
-  <si>
-    <t>filter management</t>
-  </si>
-  <si>
-    <t>1. It will create filters for the given survey</t>
-  </si>
-  <si>
-    <t>filters should be created and validated</t>
-  </si>
-  <si>
-    <t>102.246.225.52</t>
-  </si>
-  <si>
-    <t>Attach n resp trend</t>
-  </si>
-  <si>
-    <t>GVG3196@test</t>
-  </si>
-  <si>
-    <t>gaurav_zarca</t>
-  </si>
-  <si>
-    <t>SID: 96, qa</t>
-  </si>
-  <si>
-    <t>Gaurav</t>
-  </si>
-  <si>
-    <t>Smoke_TC77</t>
-  </si>
-  <si>
-    <t>Smoke_TC78</t>
-  </si>
-  <si>
-    <t>Sajid</t>
-  </si>
-  <si>
-    <t>Invalid Credentials</t>
-  </si>
-  <si>
-    <t>Valid Credentials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1742,18 +1960,19 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1803,8 +2022,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1813,28 +2032,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1968,12 +2167,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2269,8 +2468,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2310,9 +2509,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2351,15 +2550,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2462,13 +2661,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -2489,35 +2688,35 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CU67"/>
+  <dimension ref="A1:CV91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:B67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="66.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="66" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99">
+    <row r="1" spans="1:100">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2815,8 +3014,11 @@
       <c r="CU1" s="1" t="s">
         <v>502</v>
       </c>
+      <c r="CV1" s="35" t="s">
+        <v>592</v>
+      </c>
     </row>
-    <row r="2" spans="1:99">
+    <row r="2" spans="1:100">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2824,10 +3026,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -2839,7 +3041,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J2" s="4"/>
@@ -2934,8 +3136,9 @@
       <c r="CS2" s="1"/>
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:100">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -2943,10 +3146,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -2958,7 +3161,7 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3133,8 +3336,9 @@
       <c r="CS3" s="1"/>
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
     </row>
-    <row r="4" spans="1:99">
+    <row r="4" spans="1:100">
       <c r="A4" s="1" t="s">
         <v>181</v>
       </c>
@@ -3142,10 +3346,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>152</v>
@@ -3157,7 +3361,7 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -3266,8 +3470,9 @@
       <c r="CS4" s="1"/>
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
     </row>
-    <row r="5" spans="1:99">
+    <row r="5" spans="1:100">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -3275,10 +3480,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>152</v>
@@ -3290,7 +3495,7 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J5" s="11"/>
@@ -3397,8 +3602,9 @@
       <c r="CS5" s="1"/>
       <c r="CT5" s="1"/>
       <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
     </row>
-    <row r="6" spans="1:99">
+    <row r="6" spans="1:100">
       <c r="A6" s="1" t="s">
         <v>183</v>
       </c>
@@ -3406,10 +3612,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>152</v>
@@ -3421,7 +3627,7 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J6" s="11"/>
@@ -3518,8 +3724,9 @@
       <c r="CS6" s="1"/>
       <c r="CT6" s="1"/>
       <c r="CU6" s="1"/>
+      <c r="CV6" s="1"/>
     </row>
-    <row r="7" spans="1:99">
+    <row r="7" spans="1:100">
       <c r="A7" s="1" t="s">
         <v>184</v>
       </c>
@@ -3527,10 +3734,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>152</v>
@@ -3542,7 +3749,7 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -3643,8 +3850,9 @@
       <c r="CS7" s="1"/>
       <c r="CT7" s="1"/>
       <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
     </row>
-    <row r="8" spans="1:99">
+    <row r="8" spans="1:100">
       <c r="A8" s="1" t="s">
         <v>185</v>
       </c>
@@ -3652,10 +3860,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>152</v>
@@ -3667,7 +3875,7 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J8" s="11"/>
@@ -3766,8 +3974,9 @@
       <c r="CS8" s="1"/>
       <c r="CT8" s="1"/>
       <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
     </row>
-    <row r="9" spans="1:99">
+    <row r="9" spans="1:100">
       <c r="A9" s="1" t="s">
         <v>186</v>
       </c>
@@ -3775,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -3788,7 +3997,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J9" s="1"/>
@@ -3895,19 +4104,20 @@
       <c r="CS9" s="1"/>
       <c r="CT9" s="1"/>
       <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
     </row>
-    <row r="10" spans="1:99">
+    <row r="10" spans="1:100">
       <c r="A10" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>188</v>
@@ -3919,8 +4129,8 @@
         <v>190</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="50" t="s">
-        <v>503</v>
+      <c r="I10" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>320</v>
@@ -4026,19 +4236,20 @@
       <c r="CS10" s="1"/>
       <c r="CT10" s="1"/>
       <c r="CU10" s="1"/>
+      <c r="CV10" s="1"/>
     </row>
-    <row r="11" spans="1:99">
+    <row r="11" spans="1:100">
       <c r="A11" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>188</v>
@@ -4050,8 +4261,8 @@
         <v>194</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="50" t="s">
-        <v>503</v>
+      <c r="I11" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>317</v>
@@ -4153,19 +4364,20 @@
       <c r="CS11" s="1"/>
       <c r="CT11" s="1"/>
       <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
     </row>
-    <row r="12" spans="1:99">
+    <row r="12" spans="1:100">
       <c r="A12" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>188</v>
@@ -4177,8 +4389,8 @@
         <v>198</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="50" t="s">
-        <v>503</v>
+      <c r="I12" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>317</v>
@@ -4280,19 +4492,20 @@
       <c r="CS12" s="1"/>
       <c r="CT12" s="1"/>
       <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
     </row>
-    <row r="13" spans="1:99">
+    <row r="13" spans="1:100">
       <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>188</v>
@@ -4304,8 +4517,8 @@
         <v>202</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="50" t="s">
-        <v>503</v>
+      <c r="I13" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>317</v>
@@ -4407,19 +4620,20 @@
       <c r="CS13" s="1"/>
       <c r="CT13" s="1"/>
       <c r="CU13" s="1"/>
+      <c r="CV13" s="1"/>
     </row>
-    <row r="14" spans="1:99">
+    <row r="14" spans="1:100">
       <c r="A14" s="20" t="s">
         <v>204</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>188</v>
@@ -4431,8 +4645,8 @@
         <v>206</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="50" t="s">
-        <v>503</v>
+      <c r="I14" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>317</v>
@@ -4534,8 +4748,9 @@
       <c r="CS14" s="1"/>
       <c r="CT14" s="1"/>
       <c r="CU14" s="1"/>
+      <c r="CV14" s="1"/>
     </row>
-    <row r="15" spans="1:99">
+    <row r="15" spans="1:100">
       <c r="A15" s="1" t="s">
         <v>216</v>
       </c>
@@ -4543,10 +4758,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>152</v>
@@ -4558,7 +4773,7 @@
       <c r="H15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -4667,19 +4882,20 @@
       <c r="CS15" s="1"/>
       <c r="CT15" s="1"/>
       <c r="CU15" s="1"/>
+      <c r="CV15" s="1"/>
     </row>
-    <row r="16" spans="1:99">
+    <row r="16" spans="1:100">
       <c r="A16" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>220</v>
@@ -4689,8 +4905,8 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="50" t="s">
-        <v>503</v>
+      <c r="I16" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="1"/>
@@ -4788,19 +5004,20 @@
       <c r="CS16" s="1"/>
       <c r="CT16" s="1"/>
       <c r="CU16" s="1"/>
+      <c r="CV16" s="1"/>
     </row>
-    <row r="17" spans="1:99">
+    <row r="17" spans="1:100">
       <c r="A17" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>220</v>
@@ -4810,8 +5027,8 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="50" t="s">
-        <v>503</v>
+      <c r="I17" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
@@ -4909,8 +5126,9 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
     </row>
-    <row r="18" spans="1:99">
+    <row r="18" spans="1:100">
       <c r="A18" s="1" t="s">
         <v>230</v>
       </c>
@@ -4918,10 +5136,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>243</v>
@@ -4933,7 +5151,7 @@
         <v>273</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J18" s="26"/>
@@ -5036,8 +5254,9 @@
       <c r="CS18" s="1"/>
       <c r="CT18" s="1"/>
       <c r="CU18" s="1"/>
+      <c r="CV18" s="1"/>
     </row>
-    <row r="19" spans="1:99">
+    <row r="19" spans="1:100">
       <c r="A19" s="1" t="s">
         <v>231</v>
       </c>
@@ -5045,10 +5264,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>243</v>
@@ -5062,7 +5281,7 @@
       <c r="H19" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J19" s="1"/>
@@ -5165,8 +5384,9 @@
       <c r="CS19" s="1"/>
       <c r="CT19" s="1"/>
       <c r="CU19" s="1"/>
+      <c r="CV19" s="1"/>
     </row>
-    <row r="20" spans="1:99">
+    <row r="20" spans="1:100">
       <c r="A20" s="1" t="s">
         <v>232</v>
       </c>
@@ -5174,10 +5394,10 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>243</v>
@@ -5191,7 +5411,7 @@
       <c r="H20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I20" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J20" s="1"/>
@@ -5290,8 +5510,9 @@
       <c r="CS20" s="1"/>
       <c r="CT20" s="1"/>
       <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
     </row>
-    <row r="21" spans="1:99">
+    <row r="21" spans="1:100">
       <c r="A21" s="1" t="s">
         <v>233</v>
       </c>
@@ -5299,10 +5520,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>243</v>
@@ -5316,7 +5537,7 @@
       <c r="H21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J21" s="1"/>
@@ -5421,8 +5642,9 @@
       <c r="CS21" s="1"/>
       <c r="CT21" s="1"/>
       <c r="CU21" s="1"/>
+      <c r="CV21" s="1"/>
     </row>
-    <row r="22" spans="1:99">
+    <row r="22" spans="1:100">
       <c r="A22" s="1" t="s">
         <v>234</v>
       </c>
@@ -5430,10 +5652,10 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>243</v>
@@ -5447,7 +5669,7 @@
       <c r="H22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J22" s="1"/>
@@ -5548,8 +5770,9 @@
       <c r="CS22" s="1"/>
       <c r="CT22" s="1"/>
       <c r="CU22" s="1"/>
+      <c r="CV22" s="1"/>
     </row>
-    <row r="23" spans="1:99">
+    <row r="23" spans="1:100">
       <c r="A23" s="1" t="s">
         <v>235</v>
       </c>
@@ -5557,10 +5780,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>243</v>
@@ -5574,7 +5797,7 @@
       <c r="H23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="52" t="s">
+      <c r="I23" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J23" s="1"/>
@@ -5675,8 +5898,9 @@
       <c r="CS23" s="1"/>
       <c r="CT23" s="1"/>
       <c r="CU23" s="1"/>
+      <c r="CV23" s="1"/>
     </row>
-    <row r="24" spans="1:99">
+    <row r="24" spans="1:100">
       <c r="A24" s="1" t="s">
         <v>236</v>
       </c>
@@ -5684,10 +5908,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>243</v>
@@ -5701,7 +5925,7 @@
       <c r="H24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I24" s="52" t="s">
+      <c r="I24" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J24" s="1"/>
@@ -5802,8 +6026,9 @@
       <c r="CS24" s="1"/>
       <c r="CT24" s="1"/>
       <c r="CU24" s="1"/>
+      <c r="CV24" s="1"/>
     </row>
-    <row r="25" spans="1:99">
+    <row r="25" spans="1:100">
       <c r="A25" s="1" t="s">
         <v>237</v>
       </c>
@@ -5811,10 +6036,10 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>243</v>
@@ -5828,7 +6053,7 @@
       <c r="H25" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J25" s="1"/>
@@ -5927,8 +6152,9 @@
       <c r="CS25" s="1"/>
       <c r="CT25" s="1"/>
       <c r="CU25" s="1"/>
+      <c r="CV25" s="1"/>
     </row>
-    <row r="26" spans="1:99">
+    <row r="26" spans="1:100">
       <c r="A26" s="1" t="s">
         <v>238</v>
       </c>
@@ -5936,10 +6162,10 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>243</v>
@@ -5953,7 +6179,7 @@
       <c r="H26" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J26" s="1"/>
@@ -6052,8 +6278,9 @@
       <c r="CS26" s="1"/>
       <c r="CT26" s="1"/>
       <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
     </row>
-    <row r="27" spans="1:99">
+    <row r="27" spans="1:100">
       <c r="A27" s="1" t="s">
         <v>239</v>
       </c>
@@ -6061,10 +6288,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>243</v>
@@ -6078,7 +6305,7 @@
       <c r="H27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="1"/>
@@ -6179,8 +6406,9 @@
       <c r="CS27" s="1"/>
       <c r="CT27" s="1"/>
       <c r="CU27" s="1"/>
+      <c r="CV27" s="1"/>
     </row>
-    <row r="28" spans="1:99">
+    <row r="28" spans="1:100">
       <c r="A28" s="1" t="s">
         <v>240</v>
       </c>
@@ -6188,10 +6416,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>243</v>
@@ -6205,7 +6433,7 @@
       <c r="H28" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I28" s="52" t="s">
+      <c r="I28" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="1"/>
@@ -6308,8 +6536,9 @@
       <c r="CS28" s="1"/>
       <c r="CT28" s="1"/>
       <c r="CU28" s="1"/>
+      <c r="CV28" s="1"/>
     </row>
-    <row r="29" spans="1:99">
+    <row r="29" spans="1:100">
       <c r="A29" s="1" t="s">
         <v>241</v>
       </c>
@@ -6317,10 +6546,10 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>243</v>
@@ -6334,7 +6563,7 @@
       <c r="H29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J29" s="1"/>
@@ -6437,8 +6666,9 @@
       <c r="CS29" s="1"/>
       <c r="CT29" s="1"/>
       <c r="CU29" s="1"/>
+      <c r="CV29" s="1"/>
     </row>
-    <row r="30" spans="1:99">
+    <row r="30" spans="1:100">
       <c r="A30" s="1" t="s">
         <v>242</v>
       </c>
@@ -6446,10 +6676,10 @@
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>243</v>
@@ -6463,7 +6693,7 @@
       <c r="H30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J30" s="1"/>
@@ -6562,16 +6792,17 @@
       <c r="CS30" s="1"/>
       <c r="CT30" s="1"/>
       <c r="CU30" s="1"/>
+      <c r="CV30" s="1"/>
     </row>
-    <row r="31" spans="1:99">
+    <row r="31" spans="1:100">
       <c r="A31" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>486</v>
@@ -6584,8 +6815,8 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="50" t="s">
-        <v>503</v>
+      <c r="I31" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -6677,8 +6908,9 @@
       <c r="CS31" s="1"/>
       <c r="CT31" s="1"/>
       <c r="CU31" s="1"/>
+      <c r="CV31" s="1"/>
     </row>
-    <row r="32" spans="1:99" ht="15" customHeight="1">
+    <row r="32" spans="1:100" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>330</v>
       </c>
@@ -6686,10 +6918,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>243</v>
@@ -6703,7 +6935,7 @@
       <c r="H32" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="I32" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J32" s="1"/>
@@ -6806,8 +7038,9 @@
       <c r="CS32" s="1"/>
       <c r="CT32" s="1"/>
       <c r="CU32" s="1"/>
+      <c r="CV32" s="1"/>
     </row>
-    <row r="33" spans="1:99" ht="15" customHeight="1">
+    <row r="33" spans="1:100" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>332</v>
       </c>
@@ -6815,10 +7048,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>243</v>
@@ -6832,7 +7065,7 @@
       <c r="H33" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J33" s="1"/>
@@ -6935,8 +7168,9 @@
       <c r="CS33" s="1"/>
       <c r="CT33" s="1"/>
       <c r="CU33" s="1"/>
+      <c r="CV33" s="1"/>
     </row>
-    <row r="34" spans="1:99" ht="13.5" customHeight="1">
+    <row r="34" spans="1:100" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>334</v>
       </c>
@@ -6944,10 +7178,10 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>243</v>
@@ -6961,7 +7195,7 @@
       <c r="H34" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="I34" s="52" t="s">
+      <c r="I34" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J34" s="1"/>
@@ -7060,8 +7294,9 @@
       <c r="CS34" s="1"/>
       <c r="CT34" s="1"/>
       <c r="CU34" s="1"/>
+      <c r="CV34" s="1"/>
     </row>
-    <row r="35" spans="1:99">
+    <row r="35" spans="1:100">
       <c r="A35" s="1" t="s">
         <v>335</v>
       </c>
@@ -7069,10 +7304,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>243</v>
@@ -7086,7 +7321,7 @@
       <c r="H35" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I35" s="52" t="s">
+      <c r="I35" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J35" s="1"/>
@@ -7185,8 +7420,9 @@
       <c r="CS35" s="1"/>
       <c r="CT35" s="1"/>
       <c r="CU35" s="1"/>
+      <c r="CV35" s="1"/>
     </row>
-    <row r="36" spans="1:99">
+    <row r="36" spans="1:100">
       <c r="A36" s="1" t="s">
         <v>336</v>
       </c>
@@ -7194,10 +7430,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>243</v>
@@ -7211,7 +7447,7 @@
       <c r="H36" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I36" s="52" t="s">
+      <c r="I36" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J36" s="1"/>
@@ -7310,8 +7546,9 @@
       <c r="CS36" s="1"/>
       <c r="CT36" s="1"/>
       <c r="CU36" s="1"/>
+      <c r="CV36" s="1"/>
     </row>
-    <row r="37" spans="1:99">
+    <row r="37" spans="1:100">
       <c r="A37" s="1" t="s">
         <v>337</v>
       </c>
@@ -7319,10 +7556,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>243</v>
@@ -7336,7 +7573,7 @@
       <c r="H37" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="I37" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J37" s="1"/>
@@ -7435,8 +7672,9 @@
       <c r="CS37" s="1"/>
       <c r="CT37" s="1"/>
       <c r="CU37" s="1"/>
+      <c r="CV37" s="1"/>
     </row>
-    <row r="38" spans="1:99">
+    <row r="38" spans="1:100">
       <c r="A38" s="1" t="s">
         <v>338</v>
       </c>
@@ -7444,10 +7682,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>243</v>
@@ -7461,7 +7699,7 @@
       <c r="H38" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I38" s="52" t="s">
+      <c r="I38" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J38" s="1"/>
@@ -7560,8 +7798,9 @@
       <c r="CS38" s="1"/>
       <c r="CT38" s="1"/>
       <c r="CU38" s="1"/>
+      <c r="CV38" s="1"/>
     </row>
-    <row r="39" spans="1:99">
+    <row r="39" spans="1:100">
       <c r="A39" s="1" t="s">
         <v>339</v>
       </c>
@@ -7569,10 +7808,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>243</v>
@@ -7586,7 +7825,7 @@
       <c r="H39" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I39" s="52" t="s">
+      <c r="I39" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
@@ -7685,8 +7924,9 @@
       <c r="CS39" s="1"/>
       <c r="CT39" s="1"/>
       <c r="CU39" s="1"/>
+      <c r="CV39" s="1"/>
     </row>
-    <row r="40" spans="1:99">
+    <row r="40" spans="1:100">
       <c r="A40" s="1" t="s">
         <v>340</v>
       </c>
@@ -7694,10 +7934,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>243</v>
@@ -7711,7 +7951,7 @@
       <c r="H40" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I40" s="52" t="s">
+      <c r="I40" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J40" s="1"/>
@@ -7810,8 +8050,9 @@
       <c r="CS40" s="1"/>
       <c r="CT40" s="1"/>
       <c r="CU40" s="1"/>
+      <c r="CV40" s="1"/>
     </row>
-    <row r="41" spans="1:99">
+    <row r="41" spans="1:100">
       <c r="A41" s="1" t="s">
         <v>341</v>
       </c>
@@ -7819,10 +8060,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>243</v>
@@ -7836,7 +8077,7 @@
       <c r="H41" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I41" s="52" t="s">
+      <c r="I41" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J41" s="1"/>
@@ -7935,8 +8176,9 @@
       <c r="CS41" s="1"/>
       <c r="CT41" s="1"/>
       <c r="CU41" s="1"/>
+      <c r="CV41" s="1"/>
     </row>
-    <row r="42" spans="1:99">
+    <row r="42" spans="1:100">
       <c r="A42" s="1" t="s">
         <v>342</v>
       </c>
@@ -7944,10 +8186,10 @@
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>243</v>
@@ -7959,7 +8201,7 @@
         <v>429</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="52" t="s">
+      <c r="I42" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J42" s="1"/>
@@ -8058,8 +8300,9 @@
       <c r="CS42" s="1"/>
       <c r="CT42" s="1"/>
       <c r="CU42" s="1"/>
+      <c r="CV42" s="1"/>
     </row>
-    <row r="43" spans="1:99">
+    <row r="43" spans="1:100">
       <c r="A43" s="1" t="s">
         <v>343</v>
       </c>
@@ -8067,10 +8310,10 @@
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>243</v>
@@ -8082,7 +8325,7 @@
         <v>431</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="52" t="s">
+      <c r="I43" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J43" s="1"/>
@@ -8181,8 +8424,9 @@
       <c r="CS43" s="1"/>
       <c r="CT43" s="1"/>
       <c r="CU43" s="1"/>
+      <c r="CV43" s="1"/>
     </row>
-    <row r="44" spans="1:99">
+    <row r="44" spans="1:100">
       <c r="A44" s="1" t="s">
         <v>344</v>
       </c>
@@ -8190,10 +8434,10 @@
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>243</v>
@@ -8205,7 +8449,7 @@
         <v>433</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="52" t="s">
+      <c r="I44" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J44" s="1"/>
@@ -8304,8 +8548,9 @@
       <c r="CS44" s="1"/>
       <c r="CT44" s="1"/>
       <c r="CU44" s="1"/>
+      <c r="CV44" s="1"/>
     </row>
-    <row r="45" spans="1:99">
+    <row r="45" spans="1:100">
       <c r="A45" s="1" t="s">
         <v>345</v>
       </c>
@@ -8313,10 +8558,10 @@
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>243</v>
@@ -8328,7 +8573,7 @@
         <v>435</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="52" t="s">
+      <c r="I45" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J45" s="1"/>
@@ -8427,8 +8672,9 @@
       <c r="CS45" s="1"/>
       <c r="CT45" s="1"/>
       <c r="CU45" s="1"/>
+      <c r="CV45" s="1"/>
     </row>
-    <row r="46" spans="1:99">
+    <row r="46" spans="1:100">
       <c r="A46" s="1" t="s">
         <v>346</v>
       </c>
@@ -8436,10 +8682,10 @@
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>243</v>
@@ -8453,7 +8699,7 @@
       <c r="H46" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I46" s="52" t="s">
+      <c r="I46" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J46" s="1"/>
@@ -8552,8 +8798,9 @@
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
       <c r="CU46" s="1"/>
+      <c r="CV46" s="1"/>
     </row>
-    <row r="47" spans="1:99">
+    <row r="47" spans="1:100">
       <c r="A47" s="1" t="s">
         <v>347</v>
       </c>
@@ -8561,10 +8808,10 @@
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>243</v>
@@ -8578,7 +8825,7 @@
       <c r="H47" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I47" s="52" t="s">
+      <c r="I47" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J47" s="1"/>
@@ -8677,8 +8924,9 @@
       <c r="CS47" s="1"/>
       <c r="CT47" s="1"/>
       <c r="CU47" s="1"/>
+      <c r="CV47" s="1"/>
     </row>
-    <row r="48" spans="1:99">
+    <row r="48" spans="1:100">
       <c r="A48" s="1" t="s">
         <v>348</v>
       </c>
@@ -8686,10 +8934,10 @@
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>243</v>
@@ -8703,7 +8951,7 @@
       <c r="H48" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I48" s="52" t="s">
+      <c r="I48" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J48" s="1"/>
@@ -8802,8 +9050,9 @@
       <c r="CS48" s="1"/>
       <c r="CT48" s="1"/>
       <c r="CU48" s="1"/>
+      <c r="CV48" s="1"/>
     </row>
-    <row r="49" spans="1:99">
+    <row r="49" spans="1:100">
       <c r="A49" s="1" t="s">
         <v>349</v>
       </c>
@@ -8811,10 +9060,10 @@
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>243</v>
@@ -8828,7 +9077,7 @@
       <c r="H49" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I49" s="52" t="s">
+      <c r="I49" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J49" s="1"/>
@@ -8927,8 +9176,9 @@
       <c r="CS49" s="1"/>
       <c r="CT49" s="1"/>
       <c r="CU49" s="1"/>
+      <c r="CV49" s="1"/>
     </row>
-    <row r="50" spans="1:99">
+    <row r="50" spans="1:100">
       <c r="A50" s="1" t="s">
         <v>350</v>
       </c>
@@ -8936,10 +9186,10 @@
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>243</v>
@@ -8951,7 +9201,7 @@
         <v>449</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="52" t="s">
+      <c r="I50" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J50" s="1"/>
@@ -9050,8 +9300,9 @@
       <c r="CS50" s="1"/>
       <c r="CT50" s="1"/>
       <c r="CU50" s="1"/>
+      <c r="CV50" s="1"/>
     </row>
-    <row r="51" spans="1:99">
+    <row r="51" spans="1:100">
       <c r="A51" s="1" t="s">
         <v>351</v>
       </c>
@@ -9059,10 +9310,10 @@
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>243</v>
@@ -9074,7 +9325,7 @@
         <v>451</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="52" t="s">
+      <c r="I51" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J51" s="1"/>
@@ -9173,8 +9424,9 @@
       <c r="CS51" s="1"/>
       <c r="CT51" s="1"/>
       <c r="CU51" s="1"/>
+      <c r="CV51" s="1"/>
     </row>
-    <row r="52" spans="1:99">
+    <row r="52" spans="1:100">
       <c r="A52" s="1" t="s">
         <v>352</v>
       </c>
@@ -9182,10 +9434,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>243</v>
@@ -9199,7 +9451,7 @@
       <c r="H52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I52" s="52" t="s">
+      <c r="I52" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J52" s="1"/>
@@ -9298,8 +9550,9 @@
       <c r="CS52" s="1"/>
       <c r="CT52" s="1"/>
       <c r="CU52" s="1"/>
+      <c r="CV52" s="1"/>
     </row>
-    <row r="53" spans="1:99">
+    <row r="53" spans="1:100">
       <c r="A53" s="1" t="s">
         <v>353</v>
       </c>
@@ -9307,10 +9560,10 @@
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>243</v>
@@ -9324,7 +9577,7 @@
       <c r="H53" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I53" s="52" t="s">
+      <c r="I53" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="1"/>
@@ -9423,8 +9676,9 @@
       <c r="CS53" s="1"/>
       <c r="CT53" s="1"/>
       <c r="CU53" s="1"/>
+      <c r="CV53" s="1"/>
     </row>
-    <row r="54" spans="1:99">
+    <row r="54" spans="1:100">
       <c r="A54" s="1" t="s">
         <v>354</v>
       </c>
@@ -9432,10 +9686,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>243</v>
@@ -9447,7 +9701,7 @@
         <v>459</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="52" t="s">
+      <c r="I54" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J54" s="1"/>
@@ -9548,8 +9802,9 @@
       <c r="CS54" s="1"/>
       <c r="CT54" s="1"/>
       <c r="CU54" s="1"/>
+      <c r="CV54" s="1"/>
     </row>
-    <row r="55" spans="1:99">
+    <row r="55" spans="1:100">
       <c r="A55" s="1" t="s">
         <v>355</v>
       </c>
@@ -9557,10 +9812,10 @@
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>243</v>
@@ -9572,7 +9827,7 @@
         <v>461</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="52" t="s">
+      <c r="I55" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J55" s="1"/>
@@ -9673,8 +9928,9 @@
       <c r="CS55" s="1"/>
       <c r="CT55" s="1"/>
       <c r="CU55" s="1"/>
+      <c r="CV55" s="1"/>
     </row>
-    <row r="56" spans="1:99">
+    <row r="56" spans="1:100">
       <c r="A56" s="1" t="s">
         <v>356</v>
       </c>
@@ -9682,10 +9938,10 @@
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>243</v>
@@ -9699,7 +9955,7 @@
       <c r="H56" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I56" s="52" t="s">
+      <c r="I56" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J56" s="1"/>
@@ -9800,8 +10056,9 @@
       <c r="CS56" s="1"/>
       <c r="CT56" s="1"/>
       <c r="CU56" s="1"/>
+      <c r="CV56" s="1"/>
     </row>
-    <row r="57" spans="1:99">
+    <row r="57" spans="1:100">
       <c r="A57" s="1" t="s">
         <v>357</v>
       </c>
@@ -9809,10 +10066,10 @@
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>243</v>
@@ -9826,7 +10083,7 @@
       <c r="H57" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I57" s="52" t="s">
+      <c r="I57" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J57" s="1"/>
@@ -9927,8 +10184,9 @@
       <c r="CS57" s="1"/>
       <c r="CT57" s="1"/>
       <c r="CU57" s="1"/>
+      <c r="CV57" s="1"/>
     </row>
-    <row r="58" spans="1:99">
+    <row r="58" spans="1:100">
       <c r="A58" s="1" t="s">
         <v>358</v>
       </c>
@@ -9936,10 +10194,10 @@
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>243</v>
@@ -9953,7 +10211,7 @@
       <c r="H58" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I58" s="52" t="s">
+      <c r="I58" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J58" s="1"/>
@@ -10054,8 +10312,9 @@
       <c r="CS58" s="1"/>
       <c r="CT58" s="1"/>
       <c r="CU58" s="1"/>
+      <c r="CV58" s="1"/>
     </row>
-    <row r="59" spans="1:99">
+    <row r="59" spans="1:100">
       <c r="A59" s="1" t="s">
         <v>359</v>
       </c>
@@ -10063,10 +10322,10 @@
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>243</v>
@@ -10080,7 +10339,7 @@
       <c r="H59" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I59" s="52" t="s">
+      <c r="I59" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J59" s="1"/>
@@ -10181,8 +10440,9 @@
       <c r="CS59" s="1"/>
       <c r="CT59" s="1"/>
       <c r="CU59" s="1"/>
+      <c r="CV59" s="1"/>
     </row>
-    <row r="60" spans="1:99">
+    <row r="60" spans="1:100">
       <c r="A60" s="1" t="s">
         <v>360</v>
       </c>
@@ -10190,10 +10450,10 @@
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>243</v>
@@ -10207,7 +10467,7 @@
       <c r="H60" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="I60" s="52" t="s">
+      <c r="I60" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J60" s="1"/>
@@ -10308,8 +10568,9 @@
       <c r="CS60" s="1"/>
       <c r="CT60" s="1"/>
       <c r="CU60" s="1"/>
+      <c r="CV60" s="1"/>
     </row>
-    <row r="61" spans="1:99">
+    <row r="61" spans="1:100">
       <c r="A61" s="1" t="s">
         <v>361</v>
       </c>
@@ -10317,10 +10578,10 @@
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>243</v>
@@ -10334,7 +10595,7 @@
       <c r="H61" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I61" s="52" t="s">
+      <c r="I61" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J61" s="1"/>
@@ -10435,8 +10696,9 @@
       <c r="CS61" s="1"/>
       <c r="CT61" s="1"/>
       <c r="CU61" s="1"/>
+      <c r="CV61" s="1"/>
     </row>
-    <row r="62" spans="1:99">
+    <row r="62" spans="1:100">
       <c r="A62" s="1" t="s">
         <v>362</v>
       </c>
@@ -10444,10 +10706,10 @@
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>243</v>
@@ -10461,7 +10723,7 @@
       <c r="H62" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I62" s="52" t="s">
+      <c r="I62" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J62" s="1"/>
@@ -10562,8 +10824,9 @@
       <c r="CS62" s="1"/>
       <c r="CT62" s="1"/>
       <c r="CU62" s="1"/>
+      <c r="CV62" s="1"/>
     </row>
-    <row r="63" spans="1:99">
+    <row r="63" spans="1:100">
       <c r="A63" s="37" t="s">
         <v>363</v>
       </c>
@@ -10571,10 +10834,10 @@
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E63" s="37" t="s">
         <v>243</v>
@@ -10588,7 +10851,7 @@
       <c r="H63" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="I63" s="52" t="s">
+      <c r="I63" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J63" s="37"/>
@@ -10689,8 +10952,9 @@
       <c r="CS63" s="37"/>
       <c r="CT63" s="37"/>
       <c r="CU63" s="37"/>
+      <c r="CV63" s="1"/>
     </row>
-    <row r="64" spans="1:99">
+    <row r="64" spans="1:100">
       <c r="A64" s="1" t="s">
         <v>487</v>
       </c>
@@ -10698,7 +10962,7 @@
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>486</v>
@@ -10713,7 +10977,7 @@
         <v>489</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="52" t="s">
+      <c r="I64" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J64" s="1"/>
@@ -10824,31 +11088,32 @@
       <c r="CU64" s="1" t="s">
         <v>497</v>
       </c>
+      <c r="CV64" s="1"/>
     </row>
-    <row r="65" spans="1:99">
+    <row r="65" spans="1:100">
       <c r="A65" s="37" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B65" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D65" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="E65" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="F65" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="F65" s="37" t="s">
+      <c r="G65" s="37" t="s">
         <v>507</v>
       </c>
-      <c r="G65" s="37" t="s">
+      <c r="H65" s="37" t="s">
         <v>508</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>509</v>
       </c>
       <c r="I65" s="39" t="s">
         <v>172</v>
@@ -10894,7 +11159,7 @@
       <c r="AR65" s="37"/>
       <c r="AS65" s="37"/>
       <c r="AT65" s="37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AU65" s="37"/>
       <c r="AV65" s="37"/>
@@ -10904,10 +11169,10 @@
         <v>1</v>
       </c>
       <c r="AZ65" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="BA65" s="37" t="s">
         <v>510</v>
-      </c>
-      <c r="BA65" s="37" t="s">
-        <v>511</v>
       </c>
       <c r="BB65" s="37">
         <v>10</v>
@@ -10959,16 +11224,17 @@
       <c r="CS65" s="46"/>
       <c r="CT65" s="47"/>
       <c r="CU65" s="37"/>
+      <c r="CV65" s="1"/>
     </row>
-    <row r="66" spans="1:99">
+    <row r="66" spans="1:100">
       <c r="A66" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B66" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D66" s="43" t="s">
         <v>486</v>
@@ -10977,11 +11243,11 @@
         <v>243</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="52" t="s">
+      <c r="I66" s="53" t="s">
         <v>172</v>
       </c>
       <c r="J66" s="1"/>
@@ -11074,121 +11340,3051 @@
       <c r="CS66" s="34"/>
       <c r="CT66" s="36"/>
       <c r="CU66" s="1"/>
+      <c r="CV66" s="1"/>
     </row>
-    <row r="67" spans="1:99">
-      <c r="A67" s="1" t="s">
-        <v>517</v>
+    <row r="67" spans="1:100">
+      <c r="A67" s="37" t="s">
+        <v>516</v>
       </c>
       <c r="B67" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="43" t="s">
-        <v>518</v>
-      </c>
-      <c r="D67" s="43" t="s">
+      <c r="C67" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="D67" s="50" t="s">
         <v>486</v>
       </c>
-      <c r="E67" s="43" t="s">
+      <c r="E67" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37"/>
+      <c r="AA67" s="37"/>
+      <c r="AB67" s="37"/>
+      <c r="AC67" s="37"/>
+      <c r="AD67" s="37"/>
+      <c r="AE67" s="37"/>
+      <c r="AF67" s="37"/>
+      <c r="AG67" s="37"/>
+      <c r="AH67" s="37"/>
+      <c r="AI67" s="37"/>
+      <c r="AJ67" s="37"/>
+      <c r="AK67" s="37"/>
+      <c r="AL67" s="37"/>
+      <c r="AM67" s="37"/>
+      <c r="AN67" s="37"/>
+      <c r="AO67" s="37"/>
+      <c r="AP67" s="37"/>
+      <c r="AQ67" s="37"/>
+      <c r="AR67" s="37"/>
+      <c r="AS67" s="37"/>
+      <c r="AT67" s="37"/>
+      <c r="AU67" s="37"/>
+      <c r="AV67" s="37"/>
+      <c r="AW67" s="38"/>
+      <c r="AX67" s="37"/>
+      <c r="AY67" s="37"/>
+      <c r="AZ67" s="37"/>
+      <c r="BA67" s="37"/>
+      <c r="BB67" s="37"/>
+      <c r="BC67" s="37"/>
+      <c r="BD67" s="37"/>
+      <c r="BE67" s="37"/>
+      <c r="BF67" s="37"/>
+      <c r="BG67" s="37"/>
+      <c r="BH67" s="37"/>
+      <c r="BI67" s="37"/>
+      <c r="BJ67" s="37"/>
+      <c r="BK67" s="37"/>
+      <c r="BL67" s="37"/>
+      <c r="BM67" s="37"/>
+      <c r="BN67" s="37"/>
+      <c r="BO67" s="37"/>
+      <c r="BP67" s="37"/>
+      <c r="BQ67" s="37"/>
+      <c r="BR67" s="37"/>
+      <c r="BS67" s="37"/>
+      <c r="BT67" s="37"/>
+      <c r="BU67" s="37"/>
+      <c r="BV67" s="37"/>
+      <c r="BW67" s="37"/>
+      <c r="BX67" s="37"/>
+      <c r="BY67" s="37"/>
+      <c r="BZ67" s="37"/>
+      <c r="CA67" s="37"/>
+      <c r="CB67" s="37"/>
+      <c r="CC67" s="37"/>
+      <c r="CD67" s="37"/>
+      <c r="CE67" s="37"/>
+      <c r="CF67" s="37"/>
+      <c r="CG67" s="37"/>
+      <c r="CH67" s="37"/>
+      <c r="CI67" s="37"/>
+      <c r="CJ67" s="37"/>
+      <c r="CK67" s="37"/>
+      <c r="CL67" s="37"/>
+      <c r="CM67" s="37"/>
+      <c r="CN67" s="37"/>
+      <c r="CO67" s="37"/>
+      <c r="CP67" s="37"/>
+      <c r="CQ67" s="37"/>
+      <c r="CR67" s="45"/>
+      <c r="CS67" s="46"/>
+      <c r="CT67" s="47"/>
+      <c r="CU67" s="37"/>
+      <c r="CV67" s="37"/>
+    </row>
+    <row r="68" spans="1:100" ht="16.5" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="52" t="s">
+      <c r="B68" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F68" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G68" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="1"/>
+      <c r="BH68" s="1"/>
+      <c r="BI68" s="1"/>
+      <c r="BJ68" s="1"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="1"/>
+      <c r="BM68" s="1"/>
+      <c r="BN68" s="1"/>
+      <c r="BO68" s="1"/>
+      <c r="BP68" s="1"/>
+      <c r="BQ68" s="1"/>
+      <c r="BR68" s="1"/>
+      <c r="BS68" s="1"/>
+      <c r="BT68" s="1"/>
+      <c r="BU68" s="1"/>
+      <c r="BV68" s="1"/>
+      <c r="BW68" s="1"/>
+      <c r="BX68" s="1"/>
+      <c r="BY68" s="1"/>
+      <c r="BZ68" s="1"/>
+      <c r="CA68" s="1"/>
+      <c r="CB68" s="1"/>
+      <c r="CC68" s="1"/>
+      <c r="CD68" s="1"/>
+      <c r="CE68" s="1"/>
+      <c r="CF68" s="1"/>
+      <c r="CG68" s="1"/>
+      <c r="CH68" s="1"/>
+      <c r="CI68" s="1"/>
+      <c r="CJ68" s="1"/>
+      <c r="CK68" s="1"/>
+      <c r="CL68" s="1"/>
+      <c r="CM68" s="1"/>
+      <c r="CN68" s="1"/>
+      <c r="CO68" s="1"/>
+      <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
+      <c r="CR68" s="35"/>
+      <c r="CS68" s="34"/>
+      <c r="CT68" s="36"/>
+      <c r="CU68" s="1"/>
+      <c r="CV68" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:100" ht="16.5" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F69" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G69" s="49" t="s">
+        <v>546</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="1"/>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="1"/>
+      <c r="BT69" s="1"/>
+      <c r="BU69" s="1"/>
+      <c r="BV69" s="1"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="1"/>
+      <c r="BZ69" s="1"/>
+      <c r="CA69" s="1"/>
+      <c r="CB69" s="1"/>
+      <c r="CC69" s="1"/>
+      <c r="CD69" s="1"/>
+      <c r="CE69" s="1"/>
+      <c r="CF69" s="1"/>
+      <c r="CG69" s="1"/>
+      <c r="CH69" s="1"/>
+      <c r="CI69" s="1"/>
+      <c r="CJ69" s="1"/>
+      <c r="CK69" s="1"/>
+      <c r="CL69" s="1"/>
+      <c r="CM69" s="1"/>
+      <c r="CN69" s="1"/>
+      <c r="CO69" s="1"/>
+      <c r="CP69" s="1"/>
+      <c r="CQ69" s="1"/>
+      <c r="CR69" s="35"/>
+      <c r="CS69" s="34"/>
+      <c r="CT69" s="36"/>
+      <c r="CU69" s="1"/>
+      <c r="CV69" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:100" ht="15.75" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E70" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F70" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G70" s="49" t="s">
+        <v>547</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
+      <c r="BG70" s="1"/>
+      <c r="BH70" s="1"/>
+      <c r="BI70" s="1"/>
+      <c r="BJ70" s="1"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="1"/>
+      <c r="BM70" s="1"/>
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="1"/>
+      <c r="BR70" s="1"/>
+      <c r="BS70" s="1"/>
+      <c r="BT70" s="1"/>
+      <c r="BU70" s="1"/>
+      <c r="BV70" s="1"/>
+      <c r="BW70" s="1"/>
+      <c r="BX70" s="1"/>
+      <c r="BY70" s="1"/>
+      <c r="BZ70" s="1"/>
+      <c r="CA70" s="1"/>
+      <c r="CB70" s="1"/>
+      <c r="CC70" s="1"/>
+      <c r="CD70" s="1"/>
+      <c r="CE70" s="1"/>
+      <c r="CF70" s="1"/>
+      <c r="CG70" s="1"/>
+      <c r="CH70" s="1"/>
+      <c r="CI70" s="1"/>
+      <c r="CJ70" s="1"/>
+      <c r="CK70" s="1"/>
+      <c r="CL70" s="1"/>
+      <c r="CM70" s="1"/>
+      <c r="CN70" s="1"/>
+      <c r="CO70" s="1"/>
+      <c r="CP70" s="1"/>
+      <c r="CQ70" s="1"/>
+      <c r="CR70" s="35"/>
+      <c r="CS70" s="34"/>
+      <c r="CT70" s="36"/>
+      <c r="CU70" s="1"/>
+      <c r="CV70" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:100" ht="15.75" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F71" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G71" s="49" t="s">
+        <v>548</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="1"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="1"/>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="1"/>
+      <c r="BT71" s="1"/>
+      <c r="BU71" s="1"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="1"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="1"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="1"/>
+      <c r="CB71" s="1"/>
+      <c r="CC71" s="1"/>
+      <c r="CD71" s="1"/>
+      <c r="CE71" s="1"/>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="1"/>
+      <c r="CH71" s="1"/>
+      <c r="CI71" s="1"/>
+      <c r="CJ71" s="1"/>
+      <c r="CK71" s="1"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="1"/>
+      <c r="CN71" s="1"/>
+      <c r="CO71" s="1"/>
+      <c r="CP71" s="1"/>
+      <c r="CQ71" s="1"/>
+      <c r="CR71" s="35"/>
+      <c r="CS71" s="34"/>
+      <c r="CT71" s="36"/>
+      <c r="CU71" s="1"/>
+      <c r="CV71" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:100">
+      <c r="A72" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F72" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G72" s="49" t="s">
+        <v>549</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
+      <c r="BG72" s="1"/>
+      <c r="BH72" s="1"/>
+      <c r="BI72" s="1"/>
+      <c r="BJ72" s="1"/>
+      <c r="BK72" s="1"/>
+      <c r="BL72" s="1"/>
+      <c r="BM72" s="1"/>
+      <c r="BN72" s="1"/>
+      <c r="BO72" s="1"/>
+      <c r="BP72" s="1"/>
+      <c r="BQ72" s="1"/>
+      <c r="BR72" s="1"/>
+      <c r="BS72" s="1"/>
+      <c r="BT72" s="1"/>
+      <c r="BU72" s="1"/>
+      <c r="BV72" s="1"/>
+      <c r="BW72" s="1"/>
+      <c r="BX72" s="1"/>
+      <c r="BY72" s="1"/>
+      <c r="BZ72" s="1"/>
+      <c r="CA72" s="1"/>
+      <c r="CB72" s="1"/>
+      <c r="CC72" s="1"/>
+      <c r="CD72" s="1"/>
+      <c r="CE72" s="1"/>
+      <c r="CF72" s="1"/>
+      <c r="CG72" s="1"/>
+      <c r="CH72" s="1"/>
+      <c r="CI72" s="1"/>
+      <c r="CJ72" s="1"/>
+      <c r="CK72" s="1"/>
+      <c r="CL72" s="1"/>
+      <c r="CM72" s="1"/>
+      <c r="CN72" s="1"/>
+      <c r="CO72" s="1"/>
+      <c r="CP72" s="1"/>
+      <c r="CQ72" s="1"/>
+      <c r="CR72" s="35"/>
+      <c r="CS72" s="34"/>
+      <c r="CT72" s="36"/>
+      <c r="CU72" s="1"/>
+      <c r="CV72" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:100" ht="15" customHeight="1">
+      <c r="A73" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E73" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F73" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G73" s="49" t="s">
+        <v>550</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="1"/>
+      <c r="AV73" s="1"/>
+      <c r="AW73" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="1"/>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="1"/>
+      <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
+      <c r="BD73" s="1"/>
+      <c r="BE73" s="1"/>
+      <c r="BF73" s="1"/>
+      <c r="BG73" s="1"/>
+      <c r="BH73" s="1"/>
+      <c r="BI73" s="1"/>
+      <c r="BJ73" s="1"/>
+      <c r="BK73" s="1"/>
+      <c r="BL73" s="1"/>
+      <c r="BM73" s="1"/>
+      <c r="BN73" s="1"/>
+      <c r="BO73" s="1"/>
+      <c r="BP73" s="1"/>
+      <c r="BQ73" s="1"/>
+      <c r="BR73" s="1"/>
+      <c r="BS73" s="1"/>
+      <c r="BT73" s="1"/>
+      <c r="BU73" s="1"/>
+      <c r="BV73" s="1"/>
+      <c r="BW73" s="1"/>
+      <c r="BX73" s="1"/>
+      <c r="BY73" s="1"/>
+      <c r="BZ73" s="1"/>
+      <c r="CA73" s="1"/>
+      <c r="CB73" s="1"/>
+      <c r="CC73" s="1"/>
+      <c r="CD73" s="1"/>
+      <c r="CE73" s="1"/>
+      <c r="CF73" s="1"/>
+      <c r="CG73" s="1"/>
+      <c r="CH73" s="1"/>
+      <c r="CI73" s="1"/>
+      <c r="CJ73" s="1"/>
+      <c r="CK73" s="1"/>
+      <c r="CL73" s="1"/>
+      <c r="CM73" s="1"/>
+      <c r="CN73" s="1"/>
+      <c r="CO73" s="1"/>
+      <c r="CP73" s="1"/>
+      <c r="CQ73" s="1"/>
+      <c r="CR73" s="35"/>
+      <c r="CS73" s="34"/>
+      <c r="CT73" s="36"/>
+      <c r="CU73" s="1"/>
+      <c r="CV73" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:100">
+      <c r="A74" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F74" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G74" s="49" t="s">
+        <v>551</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="1"/>
+      <c r="AU74" s="1"/>
+      <c r="AV74" s="1"/>
+      <c r="AW74" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1"/>
+      <c r="AZ74" s="1"/>
+      <c r="BA74" s="1"/>
+      <c r="BB74" s="1"/>
+      <c r="BC74" s="1"/>
+      <c r="BD74" s="1"/>
+      <c r="BE74" s="1"/>
+      <c r="BF74" s="1"/>
+      <c r="BG74" s="1"/>
+      <c r="BH74" s="1"/>
+      <c r="BI74" s="1"/>
+      <c r="BJ74" s="1"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1"/>
+      <c r="BM74" s="1"/>
+      <c r="BN74" s="1"/>
+      <c r="BO74" s="1"/>
+      <c r="BP74" s="1"/>
+      <c r="BQ74" s="1"/>
+      <c r="BR74" s="1"/>
+      <c r="BS74" s="1"/>
+      <c r="BT74" s="1"/>
+      <c r="BU74" s="1"/>
+      <c r="BV74" s="1"/>
+      <c r="BW74" s="1"/>
+      <c r="BX74" s="1"/>
+      <c r="BY74" s="1"/>
+      <c r="BZ74" s="1"/>
+      <c r="CA74" s="1"/>
+      <c r="CB74" s="1"/>
+      <c r="CC74" s="1"/>
+      <c r="CD74" s="1"/>
+      <c r="CE74" s="1"/>
+      <c r="CF74" s="1"/>
+      <c r="CG74" s="1"/>
+      <c r="CH74" s="1"/>
+      <c r="CI74" s="1"/>
+      <c r="CJ74" s="1"/>
+      <c r="CK74" s="1"/>
+      <c r="CL74" s="1"/>
+      <c r="CM74" s="1"/>
+      <c r="CN74" s="1"/>
+      <c r="CO74" s="1"/>
+      <c r="CP74" s="1"/>
+      <c r="CQ74" s="1"/>
+      <c r="CR74" s="35"/>
+      <c r="CS74" s="34"/>
+      <c r="CT74" s="36"/>
+      <c r="CU74" s="1"/>
+      <c r="CV74" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:100">
+      <c r="A75" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E75" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G75" s="49" t="s">
+        <v>552</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="1"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="1"/>
+      <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
+      <c r="BD75" s="1"/>
+      <c r="BE75" s="1"/>
+      <c r="BF75" s="1"/>
+      <c r="BG75" s="1"/>
+      <c r="BH75" s="1"/>
+      <c r="BI75" s="1"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
+      <c r="BM75" s="1"/>
+      <c r="BN75" s="1"/>
+      <c r="BO75" s="1"/>
+      <c r="BP75" s="1"/>
+      <c r="BQ75" s="1"/>
+      <c r="BR75" s="1"/>
+      <c r="BS75" s="1"/>
+      <c r="BT75" s="1"/>
+      <c r="BU75" s="1"/>
+      <c r="BV75" s="1"/>
+      <c r="BW75" s="1"/>
+      <c r="BX75" s="1"/>
+      <c r="BY75" s="1"/>
+      <c r="BZ75" s="1"/>
+      <c r="CA75" s="1"/>
+      <c r="CB75" s="1"/>
+      <c r="CC75" s="1"/>
+      <c r="CD75" s="1"/>
+      <c r="CE75" s="1"/>
+      <c r="CF75" s="1"/>
+      <c r="CG75" s="1"/>
+      <c r="CH75" s="1"/>
+      <c r="CI75" s="1"/>
+      <c r="CJ75" s="1"/>
+      <c r="CK75" s="1"/>
+      <c r="CL75" s="1"/>
+      <c r="CM75" s="1"/>
+      <c r="CN75" s="1"/>
+      <c r="CO75" s="1"/>
+      <c r="CP75" s="1"/>
+      <c r="CQ75" s="1"/>
+      <c r="CR75" s="35"/>
+      <c r="CS75" s="34"/>
+      <c r="CT75" s="36"/>
+      <c r="CU75" s="1"/>
+      <c r="CV75" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:100">
+      <c r="A76" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E76" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G76" s="49" t="s">
+        <v>553</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="1"/>
+      <c r="AV76" s="1"/>
+      <c r="AW76" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1"/>
+      <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
+      <c r="BD76" s="1"/>
+      <c r="BE76" s="1"/>
+      <c r="BF76" s="1"/>
+      <c r="BG76" s="1"/>
+      <c r="BH76" s="1"/>
+      <c r="BI76" s="1"/>
+      <c r="BJ76" s="1"/>
+      <c r="BK76" s="1"/>
+      <c r="BL76" s="1"/>
+      <c r="BM76" s="1"/>
+      <c r="BN76" s="1"/>
+      <c r="BO76" s="1"/>
+      <c r="BP76" s="1"/>
+      <c r="BQ76" s="1"/>
+      <c r="BR76" s="1"/>
+      <c r="BS76" s="1"/>
+      <c r="BT76" s="1"/>
+      <c r="BU76" s="1"/>
+      <c r="BV76" s="1"/>
+      <c r="BW76" s="1"/>
+      <c r="BX76" s="1"/>
+      <c r="BY76" s="1"/>
+      <c r="BZ76" s="1"/>
+      <c r="CA76" s="1"/>
+      <c r="CB76" s="1"/>
+      <c r="CC76" s="1"/>
+      <c r="CD76" s="1"/>
+      <c r="CE76" s="1"/>
+      <c r="CF76" s="1"/>
+      <c r="CG76" s="1"/>
+      <c r="CH76" s="1"/>
+      <c r="CI76" s="1"/>
+      <c r="CJ76" s="1"/>
+      <c r="CK76" s="1"/>
+      <c r="CL76" s="1"/>
+      <c r="CM76" s="1"/>
+      <c r="CN76" s="1"/>
+      <c r="CO76" s="1"/>
+      <c r="CP76" s="1"/>
+      <c r="CQ76" s="1"/>
+      <c r="CR76" s="35"/>
+      <c r="CS76" s="34"/>
+      <c r="CT76" s="36"/>
+      <c r="CU76" s="1"/>
+      <c r="CV76" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:100">
+      <c r="A77" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G77" s="49" t="s">
+        <v>554</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="1"/>
+      <c r="BF77" s="1"/>
+      <c r="BG77" s="1"/>
+      <c r="BH77" s="1"/>
+      <c r="BI77" s="1"/>
+      <c r="BJ77" s="1"/>
+      <c r="BK77" s="1"/>
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="1"/>
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="1"/>
+      <c r="BP77" s="1"/>
+      <c r="BQ77" s="1"/>
+      <c r="BR77" s="1"/>
+      <c r="BS77" s="1"/>
+      <c r="BT77" s="1"/>
+      <c r="BU77" s="1"/>
+      <c r="BV77" s="1"/>
+      <c r="BW77" s="1"/>
+      <c r="BX77" s="1"/>
+      <c r="BY77" s="1"/>
+      <c r="BZ77" s="1"/>
+      <c r="CA77" s="1"/>
+      <c r="CB77" s="1"/>
+      <c r="CC77" s="1"/>
+      <c r="CD77" s="1"/>
+      <c r="CE77" s="1"/>
+      <c r="CF77" s="1"/>
+      <c r="CG77" s="1"/>
+      <c r="CH77" s="1"/>
+      <c r="CI77" s="1"/>
+      <c r="CJ77" s="1"/>
+      <c r="CK77" s="1"/>
+      <c r="CL77" s="1"/>
+      <c r="CM77" s="1"/>
+      <c r="CN77" s="1"/>
+      <c r="CO77" s="1"/>
+      <c r="CP77" s="1"/>
+      <c r="CQ77" s="1"/>
+      <c r="CR77" s="35"/>
+      <c r="CS77" s="34"/>
+      <c r="CT77" s="36"/>
+      <c r="CU77" s="1"/>
+      <c r="CV77" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:100">
+      <c r="A78" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F78" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G78" s="49" t="s">
+        <v>555</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="1"/>
-      <c r="AO67" s="1"/>
-      <c r="AP67" s="1"/>
-      <c r="AQ67" s="1"/>
-      <c r="AR67" s="1"/>
-      <c r="AS67" s="1"/>
-      <c r="AT67" s="1"/>
-      <c r="AU67" s="1"/>
-      <c r="AV67" s="1"/>
-      <c r="AW67" s="32"/>
-      <c r="AX67" s="1"/>
-      <c r="AY67" s="1"/>
-      <c r="AZ67" s="1"/>
-      <c r="BA67" s="1"/>
-      <c r="BB67" s="1"/>
-      <c r="BC67" s="1"/>
-      <c r="BD67" s="1"/>
-      <c r="BE67" s="1"/>
-      <c r="BF67" s="1"/>
-      <c r="BG67" s="1"/>
-      <c r="BH67" s="1"/>
-      <c r="BI67" s="1"/>
-      <c r="BJ67" s="1"/>
-      <c r="BK67" s="1"/>
-      <c r="BL67" s="1"/>
-      <c r="BM67" s="1"/>
-      <c r="BN67" s="1"/>
-      <c r="BO67" s="1"/>
-      <c r="BP67" s="1"/>
-      <c r="BQ67" s="1"/>
-      <c r="BR67" s="1"/>
-      <c r="BS67" s="1"/>
-      <c r="BT67" s="1"/>
-      <c r="BU67" s="1"/>
-      <c r="BV67" s="1"/>
-      <c r="BW67" s="1"/>
-      <c r="BX67" s="1"/>
-      <c r="BY67" s="1"/>
-      <c r="BZ67" s="1"/>
-      <c r="CA67" s="1"/>
-      <c r="CB67" s="1"/>
-      <c r="CC67" s="1"/>
-      <c r="CD67" s="1"/>
-      <c r="CE67" s="1"/>
-      <c r="CF67" s="1"/>
-      <c r="CG67" s="1"/>
-      <c r="CH67" s="1"/>
-      <c r="CI67" s="1"/>
-      <c r="CJ67" s="1"/>
-      <c r="CK67" s="1"/>
-      <c r="CL67" s="1"/>
-      <c r="CM67" s="1"/>
-      <c r="CN67" s="1"/>
-      <c r="CO67" s="1"/>
-      <c r="CP67" s="1"/>
-      <c r="CQ67" s="1"/>
-      <c r="CR67" s="35"/>
-      <c r="CS67" s="34"/>
-      <c r="CT67" s="36"/>
-      <c r="CU67" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
+      <c r="BD78" s="1"/>
+      <c r="BE78" s="1"/>
+      <c r="BF78" s="1"/>
+      <c r="BG78" s="1"/>
+      <c r="BH78" s="1"/>
+      <c r="BI78" s="1"/>
+      <c r="BJ78" s="1"/>
+      <c r="BK78" s="1"/>
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="1"/>
+      <c r="BN78" s="1"/>
+      <c r="BO78" s="1"/>
+      <c r="BP78" s="1"/>
+      <c r="BQ78" s="1"/>
+      <c r="BR78" s="1"/>
+      <c r="BS78" s="1"/>
+      <c r="BT78" s="1"/>
+      <c r="BU78" s="1"/>
+      <c r="BV78" s="1"/>
+      <c r="BW78" s="1"/>
+      <c r="BX78" s="1"/>
+      <c r="BY78" s="1"/>
+      <c r="BZ78" s="1"/>
+      <c r="CA78" s="1"/>
+      <c r="CB78" s="1"/>
+      <c r="CC78" s="1"/>
+      <c r="CD78" s="1"/>
+      <c r="CE78" s="1"/>
+      <c r="CF78" s="1"/>
+      <c r="CG78" s="1"/>
+      <c r="CH78" s="1"/>
+      <c r="CI78" s="1"/>
+      <c r="CJ78" s="1"/>
+      <c r="CK78" s="1"/>
+      <c r="CL78" s="1"/>
+      <c r="CM78" s="1"/>
+      <c r="CN78" s="1"/>
+      <c r="CO78" s="1"/>
+      <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="35"/>
+      <c r="CS78" s="34"/>
+      <c r="CT78" s="36"/>
+      <c r="CU78" s="1"/>
+      <c r="CV78" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:100" ht="15" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F79" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G79" s="49" t="s">
+        <v>556</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="1"/>
+      <c r="BF79" s="1"/>
+      <c r="BG79" s="1"/>
+      <c r="BH79" s="1"/>
+      <c r="BI79" s="1"/>
+      <c r="BJ79" s="1"/>
+      <c r="BK79" s="1"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="1"/>
+      <c r="BN79" s="1"/>
+      <c r="BO79" s="1"/>
+      <c r="BP79" s="1"/>
+      <c r="BQ79" s="1"/>
+      <c r="BR79" s="1"/>
+      <c r="BS79" s="1"/>
+      <c r="BT79" s="1"/>
+      <c r="BU79" s="1"/>
+      <c r="BV79" s="1"/>
+      <c r="BW79" s="1"/>
+      <c r="BX79" s="1"/>
+      <c r="BY79" s="1"/>
+      <c r="BZ79" s="1"/>
+      <c r="CA79" s="1"/>
+      <c r="CB79" s="1"/>
+      <c r="CC79" s="1"/>
+      <c r="CD79" s="1"/>
+      <c r="CE79" s="1"/>
+      <c r="CF79" s="1"/>
+      <c r="CG79" s="1"/>
+      <c r="CH79" s="1"/>
+      <c r="CI79" s="1"/>
+      <c r="CJ79" s="1"/>
+      <c r="CK79" s="1"/>
+      <c r="CL79" s="1"/>
+      <c r="CM79" s="1"/>
+      <c r="CN79" s="1"/>
+      <c r="CO79" s="1"/>
+      <c r="CP79" s="1"/>
+      <c r="CQ79" s="1"/>
+      <c r="CR79" s="35"/>
+      <c r="CS79" s="34"/>
+      <c r="CT79" s="36"/>
+      <c r="CU79" s="1"/>
+      <c r="CV79" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:100">
+      <c r="A80" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E80" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F80" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G80" s="49" t="s">
+        <v>557</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="1"/>
+      <c r="BE80" s="1"/>
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="1"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="1"/>
+      <c r="BM80" s="1"/>
+      <c r="BN80" s="1"/>
+      <c r="BO80" s="1"/>
+      <c r="BP80" s="1"/>
+      <c r="BQ80" s="1"/>
+      <c r="BR80" s="1"/>
+      <c r="BS80" s="1"/>
+      <c r="BT80" s="1"/>
+      <c r="BU80" s="1"/>
+      <c r="BV80" s="1"/>
+      <c r="BW80" s="1"/>
+      <c r="BX80" s="1"/>
+      <c r="BY80" s="1"/>
+      <c r="BZ80" s="1"/>
+      <c r="CA80" s="1"/>
+      <c r="CB80" s="1"/>
+      <c r="CC80" s="1"/>
+      <c r="CD80" s="1"/>
+      <c r="CE80" s="1"/>
+      <c r="CF80" s="1"/>
+      <c r="CG80" s="1"/>
+      <c r="CH80" s="1"/>
+      <c r="CI80" s="1"/>
+      <c r="CJ80" s="1"/>
+      <c r="CK80" s="1"/>
+      <c r="CL80" s="1"/>
+      <c r="CM80" s="1"/>
+      <c r="CN80" s="1"/>
+      <c r="CO80" s="1"/>
+      <c r="CP80" s="1"/>
+      <c r="CQ80" s="1"/>
+      <c r="CR80" s="35"/>
+      <c r="CS80" s="34"/>
+      <c r="CT80" s="36"/>
+      <c r="CU80" s="1"/>
+      <c r="CV80" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:100">
+      <c r="A81" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E81" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G81" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="1"/>
+      <c r="AV81" s="1"/>
+      <c r="AW81" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="1"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="1"/>
+      <c r="BF81" s="1"/>
+      <c r="BG81" s="1"/>
+      <c r="BH81" s="1"/>
+      <c r="BI81" s="1"/>
+      <c r="BJ81" s="1"/>
+      <c r="BK81" s="1"/>
+      <c r="BL81" s="1"/>
+      <c r="BM81" s="1"/>
+      <c r="BN81" s="1"/>
+      <c r="BO81" s="1"/>
+      <c r="BP81" s="1"/>
+      <c r="BQ81" s="1"/>
+      <c r="BR81" s="1"/>
+      <c r="BS81" s="1"/>
+      <c r="BT81" s="1"/>
+      <c r="BU81" s="1"/>
+      <c r="BV81" s="1"/>
+      <c r="BW81" s="1"/>
+      <c r="BX81" s="1"/>
+      <c r="BY81" s="1"/>
+      <c r="BZ81" s="1"/>
+      <c r="CA81" s="1"/>
+      <c r="CB81" s="1"/>
+      <c r="CC81" s="1"/>
+      <c r="CD81" s="1"/>
+      <c r="CE81" s="1"/>
+      <c r="CF81" s="1"/>
+      <c r="CG81" s="1"/>
+      <c r="CH81" s="1"/>
+      <c r="CI81" s="1"/>
+      <c r="CJ81" s="1"/>
+      <c r="CK81" s="1"/>
+      <c r="CL81" s="1"/>
+      <c r="CM81" s="1"/>
+      <c r="CN81" s="1"/>
+      <c r="CO81" s="1"/>
+      <c r="CP81" s="1"/>
+      <c r="CQ81" s="1"/>
+      <c r="CR81" s="35"/>
+      <c r="CS81" s="34"/>
+      <c r="CT81" s="36"/>
+      <c r="CU81" s="1"/>
+      <c r="CV81" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:100" ht="16.5" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E82" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F82" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G82" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="1"/>
+      <c r="AV82" s="1"/>
+      <c r="AW82" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1"/>
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="1"/>
+      <c r="BI82" s="1"/>
+      <c r="BJ82" s="1"/>
+      <c r="BK82" s="1"/>
+      <c r="BL82" s="1"/>
+      <c r="BM82" s="1"/>
+      <c r="BN82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="1"/>
+      <c r="BQ82" s="1"/>
+      <c r="BR82" s="1"/>
+      <c r="BS82" s="1"/>
+      <c r="BT82" s="1"/>
+      <c r="BU82" s="1"/>
+      <c r="BV82" s="1"/>
+      <c r="BW82" s="1"/>
+      <c r="BX82" s="1"/>
+      <c r="BY82" s="1"/>
+      <c r="BZ82" s="1"/>
+      <c r="CA82" s="1"/>
+      <c r="CB82" s="1"/>
+      <c r="CC82" s="1"/>
+      <c r="CD82" s="1"/>
+      <c r="CE82" s="1"/>
+      <c r="CF82" s="1"/>
+      <c r="CG82" s="1"/>
+      <c r="CH82" s="1"/>
+      <c r="CI82" s="1"/>
+      <c r="CJ82" s="1"/>
+      <c r="CK82" s="1"/>
+      <c r="CL82" s="1"/>
+      <c r="CM82" s="1"/>
+      <c r="CN82" s="1"/>
+      <c r="CO82" s="1"/>
+      <c r="CP82" s="1"/>
+      <c r="CQ82" s="1"/>
+      <c r="CR82" s="35"/>
+      <c r="CS82" s="34"/>
+      <c r="CT82" s="36"/>
+      <c r="CU82" s="1"/>
+      <c r="CV82" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:100" ht="15.75" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F83" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G83" s="49" t="s">
+        <v>560</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="1"/>
+      <c r="BL83" s="1"/>
+      <c r="BM83" s="1"/>
+      <c r="BN83" s="1"/>
+      <c r="BO83" s="1"/>
+      <c r="BP83" s="1"/>
+      <c r="BQ83" s="1"/>
+      <c r="BR83" s="1"/>
+      <c r="BS83" s="1"/>
+      <c r="BT83" s="1"/>
+      <c r="BU83" s="1"/>
+      <c r="BV83" s="1"/>
+      <c r="BW83" s="1"/>
+      <c r="BX83" s="1"/>
+      <c r="BY83" s="1"/>
+      <c r="BZ83" s="1"/>
+      <c r="CA83" s="1"/>
+      <c r="CB83" s="1"/>
+      <c r="CC83" s="1"/>
+      <c r="CD83" s="1"/>
+      <c r="CE83" s="1"/>
+      <c r="CF83" s="1"/>
+      <c r="CG83" s="1"/>
+      <c r="CH83" s="1"/>
+      <c r="CI83" s="1"/>
+      <c r="CJ83" s="1"/>
+      <c r="CK83" s="1"/>
+      <c r="CL83" s="1"/>
+      <c r="CM83" s="1"/>
+      <c r="CN83" s="1"/>
+      <c r="CO83" s="1"/>
+      <c r="CP83" s="1"/>
+      <c r="CQ83" s="1"/>
+      <c r="CR83" s="35"/>
+      <c r="CS83" s="34"/>
+      <c r="CT83" s="36"/>
+      <c r="CU83" s="1"/>
+      <c r="CV83" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:100">
+      <c r="A84" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E84" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F84" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G84" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+      <c r="AT84" s="1"/>
+      <c r="AU84" s="1"/>
+      <c r="AV84" s="1"/>
+      <c r="AW84" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX84" s="1"/>
+      <c r="AY84" s="1"/>
+      <c r="AZ84" s="1"/>
+      <c r="BA84" s="1"/>
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="1"/>
+      <c r="BD84" s="1"/>
+      <c r="BE84" s="1"/>
+      <c r="BF84" s="1"/>
+      <c r="BG84" s="1"/>
+      <c r="BH84" s="1"/>
+      <c r="BI84" s="1"/>
+      <c r="BJ84" s="1"/>
+      <c r="BK84" s="1"/>
+      <c r="BL84" s="1"/>
+      <c r="BM84" s="1"/>
+      <c r="BN84" s="1"/>
+      <c r="BO84" s="1"/>
+      <c r="BP84" s="1"/>
+      <c r="BQ84" s="1"/>
+      <c r="BR84" s="1"/>
+      <c r="BS84" s="1"/>
+      <c r="BT84" s="1"/>
+      <c r="BU84" s="1"/>
+      <c r="BV84" s="1"/>
+      <c r="BW84" s="1"/>
+      <c r="BX84" s="1"/>
+      <c r="BY84" s="1"/>
+      <c r="BZ84" s="1"/>
+      <c r="CA84" s="1"/>
+      <c r="CB84" s="1"/>
+      <c r="CC84" s="1"/>
+      <c r="CD84" s="1"/>
+      <c r="CE84" s="1"/>
+      <c r="CF84" s="1"/>
+      <c r="CG84" s="1"/>
+      <c r="CH84" s="1"/>
+      <c r="CI84" s="1"/>
+      <c r="CJ84" s="1"/>
+      <c r="CK84" s="1"/>
+      <c r="CL84" s="1"/>
+      <c r="CM84" s="1"/>
+      <c r="CN84" s="1"/>
+      <c r="CO84" s="1"/>
+      <c r="CP84" s="1"/>
+      <c r="CQ84" s="1"/>
+      <c r="CR84" s="35"/>
+      <c r="CS84" s="34"/>
+      <c r="CT84" s="36"/>
+      <c r="CU84" s="1"/>
+      <c r="CV84" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:100">
+      <c r="A85" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E85" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G85" s="49" t="s">
+        <v>562</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1"/>
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="1"/>
+      <c r="BN85" s="1"/>
+      <c r="BO85" s="1"/>
+      <c r="BP85" s="1"/>
+      <c r="BQ85" s="1"/>
+      <c r="BR85" s="1"/>
+      <c r="BS85" s="1"/>
+      <c r="BT85" s="1"/>
+      <c r="BU85" s="1"/>
+      <c r="BV85" s="1"/>
+      <c r="BW85" s="1"/>
+      <c r="BX85" s="1"/>
+      <c r="BY85" s="1"/>
+      <c r="BZ85" s="1"/>
+      <c r="CA85" s="1"/>
+      <c r="CB85" s="1"/>
+      <c r="CC85" s="1"/>
+      <c r="CD85" s="1"/>
+      <c r="CE85" s="1"/>
+      <c r="CF85" s="1"/>
+      <c r="CG85" s="1"/>
+      <c r="CH85" s="1"/>
+      <c r="CI85" s="1"/>
+      <c r="CJ85" s="1"/>
+      <c r="CK85" s="1"/>
+      <c r="CL85" s="1"/>
+      <c r="CM85" s="1"/>
+      <c r="CN85" s="1"/>
+      <c r="CO85" s="1"/>
+      <c r="CP85" s="1"/>
+      <c r="CQ85" s="1"/>
+      <c r="CR85" s="35"/>
+      <c r="CS85" s="34"/>
+      <c r="CT85" s="36"/>
+      <c r="CU85" s="1"/>
+      <c r="CV85" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:100">
+      <c r="A86" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E86" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F86" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G86" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="1"/>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1"/>
+      <c r="BL86" s="1"/>
+      <c r="BM86" s="1"/>
+      <c r="BN86" s="1"/>
+      <c r="BO86" s="1"/>
+      <c r="BP86" s="1"/>
+      <c r="BQ86" s="1"/>
+      <c r="BR86" s="1"/>
+      <c r="BS86" s="1"/>
+      <c r="BT86" s="1"/>
+      <c r="BU86" s="1"/>
+      <c r="BV86" s="1"/>
+      <c r="BW86" s="1"/>
+      <c r="BX86" s="1"/>
+      <c r="BY86" s="1"/>
+      <c r="BZ86" s="1"/>
+      <c r="CA86" s="1"/>
+      <c r="CB86" s="1"/>
+      <c r="CC86" s="1"/>
+      <c r="CD86" s="1"/>
+      <c r="CE86" s="1"/>
+      <c r="CF86" s="1"/>
+      <c r="CG86" s="1"/>
+      <c r="CH86" s="1"/>
+      <c r="CI86" s="1"/>
+      <c r="CJ86" s="1"/>
+      <c r="CK86" s="1"/>
+      <c r="CL86" s="1"/>
+      <c r="CM86" s="1"/>
+      <c r="CN86" s="1"/>
+      <c r="CO86" s="1"/>
+      <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="35"/>
+      <c r="CS86" s="34"/>
+      <c r="CT86" s="36"/>
+      <c r="CU86" s="1"/>
+      <c r="CV86" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:100" ht="15.75" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E87" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F87" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G87" s="49" t="s">
+        <v>564</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="1"/>
+      <c r="BH87" s="1"/>
+      <c r="BI87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+      <c r="BL87" s="1"/>
+      <c r="BM87" s="1"/>
+      <c r="BN87" s="1"/>
+      <c r="BO87" s="1"/>
+      <c r="BP87" s="1"/>
+      <c r="BQ87" s="1"/>
+      <c r="BR87" s="1"/>
+      <c r="BS87" s="1"/>
+      <c r="BT87" s="1"/>
+      <c r="BU87" s="1"/>
+      <c r="BV87" s="1"/>
+      <c r="BW87" s="1"/>
+      <c r="BX87" s="1"/>
+      <c r="BY87" s="1"/>
+      <c r="BZ87" s="1"/>
+      <c r="CA87" s="1"/>
+      <c r="CB87" s="1"/>
+      <c r="CC87" s="1"/>
+      <c r="CD87" s="1"/>
+      <c r="CE87" s="1"/>
+      <c r="CF87" s="1"/>
+      <c r="CG87" s="1"/>
+      <c r="CH87" s="1"/>
+      <c r="CI87" s="1"/>
+      <c r="CJ87" s="1"/>
+      <c r="CK87" s="1"/>
+      <c r="CL87" s="1"/>
+      <c r="CM87" s="1"/>
+      <c r="CN87" s="1"/>
+      <c r="CO87" s="1"/>
+      <c r="CP87" s="1"/>
+      <c r="CQ87" s="1"/>
+      <c r="CR87" s="35"/>
+      <c r="CS87" s="34"/>
+      <c r="CT87" s="36"/>
+      <c r="CU87" s="1"/>
+      <c r="CV87" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:100" ht="15.75" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E88" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F88" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G88" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
+      <c r="BD88" s="1"/>
+      <c r="BE88" s="1"/>
+      <c r="BF88" s="1"/>
+      <c r="BG88" s="1"/>
+      <c r="BH88" s="1"/>
+      <c r="BI88" s="1"/>
+      <c r="BJ88" s="1"/>
+      <c r="BK88" s="1"/>
+      <c r="BL88" s="1"/>
+      <c r="BM88" s="1"/>
+      <c r="BN88" s="1"/>
+      <c r="BO88" s="1"/>
+      <c r="BP88" s="1"/>
+      <c r="BQ88" s="1"/>
+      <c r="BR88" s="1"/>
+      <c r="BS88" s="1"/>
+      <c r="BT88" s="1"/>
+      <c r="BU88" s="1"/>
+      <c r="BV88" s="1"/>
+      <c r="BW88" s="1"/>
+      <c r="BX88" s="1"/>
+      <c r="BY88" s="1"/>
+      <c r="BZ88" s="1"/>
+      <c r="CA88" s="1"/>
+      <c r="CB88" s="1"/>
+      <c r="CC88" s="1"/>
+      <c r="CD88" s="1"/>
+      <c r="CE88" s="1"/>
+      <c r="CF88" s="1"/>
+      <c r="CG88" s="1"/>
+      <c r="CH88" s="1"/>
+      <c r="CI88" s="1"/>
+      <c r="CJ88" s="1"/>
+      <c r="CK88" s="1"/>
+      <c r="CL88" s="1"/>
+      <c r="CM88" s="1"/>
+      <c r="CN88" s="1"/>
+      <c r="CO88" s="1"/>
+      <c r="CP88" s="1"/>
+      <c r="CQ88" s="1"/>
+      <c r="CR88" s="35"/>
+      <c r="CS88" s="34"/>
+      <c r="CT88" s="36"/>
+      <c r="CU88" s="1"/>
+      <c r="CV88" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:100">
+      <c r="A89" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D89" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E89" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F89" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G89" s="49" t="s">
+        <v>566</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
+      <c r="BD89" s="1"/>
+      <c r="BE89" s="1"/>
+      <c r="BF89" s="1"/>
+      <c r="BG89" s="1"/>
+      <c r="BH89" s="1"/>
+      <c r="BI89" s="1"/>
+      <c r="BJ89" s="1"/>
+      <c r="BK89" s="1"/>
+      <c r="BL89" s="1"/>
+      <c r="BM89" s="1"/>
+      <c r="BN89" s="1"/>
+      <c r="BO89" s="1"/>
+      <c r="BP89" s="1"/>
+      <c r="BQ89" s="1"/>
+      <c r="BR89" s="1"/>
+      <c r="BS89" s="1"/>
+      <c r="BT89" s="1"/>
+      <c r="BU89" s="1"/>
+      <c r="BV89" s="1"/>
+      <c r="BW89" s="1"/>
+      <c r="BX89" s="1"/>
+      <c r="BY89" s="1"/>
+      <c r="BZ89" s="1"/>
+      <c r="CA89" s="1"/>
+      <c r="CB89" s="1"/>
+      <c r="CC89" s="1"/>
+      <c r="CD89" s="1"/>
+      <c r="CE89" s="1"/>
+      <c r="CF89" s="1"/>
+      <c r="CG89" s="1"/>
+      <c r="CH89" s="1"/>
+      <c r="CI89" s="1"/>
+      <c r="CJ89" s="1"/>
+      <c r="CK89" s="1"/>
+      <c r="CL89" s="1"/>
+      <c r="CM89" s="1"/>
+      <c r="CN89" s="1"/>
+      <c r="CO89" s="1"/>
+      <c r="CP89" s="1"/>
+      <c r="CQ89" s="1"/>
+      <c r="CR89" s="35"/>
+      <c r="CS89" s="34"/>
+      <c r="CT89" s="36"/>
+      <c r="CU89" s="1"/>
+      <c r="CV89" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:100" ht="18.75" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E90" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F90" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G90" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="1"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="1"/>
+      <c r="BN90" s="1"/>
+      <c r="BO90" s="1"/>
+      <c r="BP90" s="1"/>
+      <c r="BQ90" s="1"/>
+      <c r="BR90" s="1"/>
+      <c r="BS90" s="1"/>
+      <c r="BT90" s="1"/>
+      <c r="BU90" s="1"/>
+      <c r="BV90" s="1"/>
+      <c r="BW90" s="1"/>
+      <c r="BX90" s="1"/>
+      <c r="BY90" s="1"/>
+      <c r="BZ90" s="1"/>
+      <c r="CA90" s="1"/>
+      <c r="CB90" s="1"/>
+      <c r="CC90" s="1"/>
+      <c r="CD90" s="1"/>
+      <c r="CE90" s="1"/>
+      <c r="CF90" s="1"/>
+      <c r="CG90" s="1"/>
+      <c r="CH90" s="1"/>
+      <c r="CI90" s="1"/>
+      <c r="CJ90" s="1"/>
+      <c r="CK90" s="1"/>
+      <c r="CL90" s="1"/>
+      <c r="CM90" s="1"/>
+      <c r="CN90" s="1"/>
+      <c r="CO90" s="1"/>
+      <c r="CP90" s="1"/>
+      <c r="CQ90" s="1"/>
+      <c r="CR90" s="35"/>
+      <c r="CS90" s="34"/>
+      <c r="CT90" s="36"/>
+      <c r="CU90" s="1"/>
+      <c r="CV90" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:100" ht="18" customHeight="1">
+      <c r="A91" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F91" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G91" s="49" t="s">
+        <v>568</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="1"/>
+      <c r="BE91" s="1"/>
+      <c r="BF91" s="1"/>
+      <c r="BG91" s="1"/>
+      <c r="BH91" s="1"/>
+      <c r="BI91" s="1"/>
+      <c r="BJ91" s="1"/>
+      <c r="BK91" s="1"/>
+      <c r="BL91" s="1"/>
+      <c r="BM91" s="1"/>
+      <c r="BN91" s="1"/>
+      <c r="BO91" s="1"/>
+      <c r="BP91" s="1"/>
+      <c r="BQ91" s="1"/>
+      <c r="BR91" s="1"/>
+      <c r="BS91" s="1"/>
+      <c r="BT91" s="1"/>
+      <c r="BU91" s="1"/>
+      <c r="BV91" s="1"/>
+      <c r="BW91" s="1"/>
+      <c r="BX91" s="1"/>
+      <c r="BY91" s="1"/>
+      <c r="BZ91" s="1"/>
+      <c r="CA91" s="1"/>
+      <c r="CB91" s="1"/>
+      <c r="CC91" s="1"/>
+      <c r="CD91" s="1"/>
+      <c r="CE91" s="1"/>
+      <c r="CF91" s="1"/>
+      <c r="CG91" s="1"/>
+      <c r="CH91" s="1"/>
+      <c r="CI91" s="1"/>
+      <c r="CJ91" s="1"/>
+      <c r="CK91" s="1"/>
+      <c r="CL91" s="1"/>
+      <c r="CM91" s="1"/>
+      <c r="CN91" s="1"/>
+      <c r="CO91" s="1"/>
+      <c r="CP91" s="1"/>
+      <c r="CQ91" s="1"/>
+      <c r="CR91" s="35"/>
+      <c r="CS91" s="34"/>
+      <c r="CT91" s="36"/>
+      <c r="CU91" s="1"/>
+      <c r="CV91" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25171992-5380-47DC-AA27-106BF7A6E110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3"/>
+    <workbookView xWindow="5745" yWindow="870" windowWidth="8235" windowHeight="9720" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="521">
   <si>
     <t>Environment</t>
   </si>
@@ -1013,9 +1014,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Report Iconis not present on page.</t>
-  </si>
-  <si>
-    <t>amulla@zarca.com,vgrandhi@zarca.com</t>
   </si>
   <si>
     <t>amulla@zarca.com</t>
@@ -1673,13 +1671,16 @@
   <si>
     <t>Valid Credentials</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1742,6 +1743,23 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1753,7 +1771,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1805,6 +1823,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1915,7 +1963,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1946,7 +1994,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1970,19 +2018,24 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4"/>
-    <cellStyle name="Hyperlink 2 2" xfId="6"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2259,7 +2312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2301,7 +2354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2339,14 +2392,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -2462,13 +2515,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -2477,22 +2530,22 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:B67"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2546,7 +2599,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>20</v>
@@ -2801,19 +2854,19 @@
         <v>207</v>
       </c>
       <c r="CQ1" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="CR1" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="CR1" s="35" t="s">
+      <c r="CS1" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="CS1" s="35" t="s">
+      <c r="CT1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:99">
@@ -2824,10 +2877,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -2839,7 +2892,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J2" s="4"/>
@@ -2943,10 +2996,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -2958,11 +3011,11 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
@@ -3142,10 +3195,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>152</v>
@@ -3157,11 +3210,11 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="11"/>
@@ -3275,10 +3328,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>152</v>
@@ -3290,7 +3343,7 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J5" s="11"/>
@@ -3406,10 +3459,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>152</v>
@@ -3421,7 +3474,7 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J6" s="11"/>
@@ -3527,10 +3580,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>152</v>
@@ -3542,11 +3595,11 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="11"/>
@@ -3652,10 +3705,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>152</v>
@@ -3667,7 +3720,7 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J8" s="11"/>
@@ -3775,10 +3828,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -3788,7 +3841,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J9" s="1"/>
@@ -3901,13 +3954,13 @@
         <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>188</v>
@@ -3919,11 +3972,11 @@
         <v>190</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="50" t="s">
-        <v>503</v>
+      <c r="I10" s="57" t="s">
+        <v>172</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>191</v>
@@ -3944,7 +3997,7 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="24" t="s">
-        <v>318</v>
+        <v>490</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
@@ -4022,9 +4075,13 @@
         <v>208</v>
       </c>
       <c r="CQ10" s="1"/>
-      <c r="CR10" s="1"/>
+      <c r="CR10" s="1" t="s">
+        <v>494</v>
+      </c>
       <c r="CS10" s="1"/>
-      <c r="CT10" s="1"/>
+      <c r="CT10" s="50" t="s">
+        <v>495</v>
+      </c>
       <c r="CU10" s="1"/>
     </row>
     <row r="11" spans="1:99">
@@ -4035,10 +4092,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>188</v>
@@ -4050,8 +4107,8 @@
         <v>194</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="50" t="s">
-        <v>503</v>
+      <c r="I11" s="55" t="s">
+        <v>502</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>317</v>
@@ -4071,7 +4128,7 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="24" t="s">
-        <v>318</v>
+        <v>490</v>
       </c>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
@@ -4149,9 +4206,13 @@
         <v>208</v>
       </c>
       <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
+      <c r="CR11" s="1" t="s">
+        <v>494</v>
+      </c>
       <c r="CS11" s="1"/>
-      <c r="CT11" s="1"/>
+      <c r="CT11" s="50" t="s">
+        <v>495</v>
+      </c>
       <c r="CU11" s="1"/>
     </row>
     <row r="12" spans="1:99">
@@ -4162,10 +4223,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>188</v>
@@ -4177,8 +4238,8 @@
         <v>198</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="50" t="s">
-        <v>503</v>
+      <c r="I12" s="55" t="s">
+        <v>502</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>317</v>
@@ -4198,7 +4259,7 @@
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="24" t="s">
-        <v>318</v>
+        <v>490</v>
       </c>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
@@ -4276,9 +4337,13 @@
         <v>208</v>
       </c>
       <c r="CQ12" s="1"/>
-      <c r="CR12" s="1"/>
+      <c r="CR12" s="1" t="s">
+        <v>494</v>
+      </c>
       <c r="CS12" s="1"/>
-      <c r="CT12" s="1"/>
+      <c r="CT12" s="50" t="s">
+        <v>495</v>
+      </c>
       <c r="CU12" s="1"/>
     </row>
     <row r="13" spans="1:99">
@@ -4289,10 +4354,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>188</v>
@@ -4304,8 +4369,8 @@
         <v>202</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="50" t="s">
-        <v>503</v>
+      <c r="I13" s="55" t="s">
+        <v>502</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>317</v>
@@ -4325,7 +4390,7 @@
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
       <c r="W13" s="24" t="s">
-        <v>318</v>
+        <v>490</v>
       </c>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
@@ -4403,9 +4468,13 @@
         <v>208</v>
       </c>
       <c r="CQ13" s="1"/>
-      <c r="CR13" s="1"/>
+      <c r="CR13" s="1" t="s">
+        <v>494</v>
+      </c>
       <c r="CS13" s="1"/>
-      <c r="CT13" s="1"/>
+      <c r="CT13" s="50" t="s">
+        <v>495</v>
+      </c>
       <c r="CU13" s="1"/>
     </row>
     <row r="14" spans="1:99">
@@ -4413,13 +4482,13 @@
         <v>204</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>188</v>
@@ -4431,8 +4500,8 @@
         <v>206</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="50" t="s">
-        <v>503</v>
+      <c r="I14" s="57" t="s">
+        <v>172</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>317</v>
@@ -4452,7 +4521,7 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
@@ -4543,10 +4612,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>152</v>
@@ -4558,11 +4627,11 @@
       <c r="H15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="11"/>
@@ -4673,13 +4742,13 @@
         <v>219</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>220</v>
@@ -4689,8 +4758,8 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="50" t="s">
-        <v>503</v>
+      <c r="I16" s="57" t="s">
+        <v>172</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="1"/>
@@ -4794,13 +4863,13 @@
         <v>224</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>220</v>
@@ -4810,8 +4879,8 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="50" t="s">
-        <v>503</v>
+      <c r="I17" s="57" t="s">
+        <v>172</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
@@ -4918,10 +4987,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>243</v>
@@ -4933,7 +5002,7 @@
         <v>273</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J18" s="26"/>
@@ -5045,10 +5114,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>243</v>
@@ -5062,7 +5131,7 @@
       <c r="H19" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J19" s="1"/>
@@ -5174,10 +5243,10 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>243</v>
@@ -5191,7 +5260,7 @@
       <c r="H20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I20" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J20" s="1"/>
@@ -5299,10 +5368,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>243</v>
@@ -5316,7 +5385,7 @@
       <c r="H21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J21" s="1"/>
@@ -5430,10 +5499,10 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>243</v>
@@ -5447,7 +5516,7 @@
       <c r="H22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J22" s="1"/>
@@ -5557,10 +5626,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>243</v>
@@ -5574,7 +5643,7 @@
       <c r="H23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="52" t="s">
+      <c r="I23" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J23" s="1"/>
@@ -5684,10 +5753,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>243</v>
@@ -5701,7 +5770,7 @@
       <c r="H24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I24" s="52" t="s">
+      <c r="I24" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J24" s="1"/>
@@ -5811,10 +5880,10 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>243</v>
@@ -5828,7 +5897,7 @@
       <c r="H25" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J25" s="1"/>
@@ -5936,10 +6005,10 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>243</v>
@@ -5953,7 +6022,7 @@
       <c r="H26" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J26" s="1"/>
@@ -6061,10 +6130,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>243</v>
@@ -6078,7 +6147,7 @@
       <c r="H27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="1"/>
@@ -6188,10 +6257,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>243</v>
@@ -6205,7 +6274,7 @@
       <c r="H28" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I28" s="52" t="s">
+      <c r="I28" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="1"/>
@@ -6317,10 +6386,10 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>243</v>
@@ -6334,7 +6403,7 @@
       <c r="H29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J29" s="1"/>
@@ -6446,10 +6515,10 @@
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>243</v>
@@ -6463,7 +6532,7 @@
       <c r="H30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J30" s="1"/>
@@ -6565,27 +6634,27 @@
     </row>
     <row r="31" spans="1:99">
       <c r="A31" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="50" t="s">
-        <v>503</v>
+      <c r="I31" s="57" t="s">
+        <v>172</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -6680,30 +6749,30 @@
     </row>
     <row r="32" spans="1:99" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I32" s="52" t="s">
+      <c r="I32" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J32" s="1"/>
@@ -6743,18 +6812,18 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AW32" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
@@ -6809,30 +6878,30 @@
     </row>
     <row r="33" spans="1:99" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J33" s="1"/>
@@ -6872,20 +6941,20 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
       <c r="AT33" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
       <c r="AW33" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AX33" s="1"/>
       <c r="AY33" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
@@ -6938,30 +7007,30 @@
     </row>
     <row r="34" spans="1:99" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="I34" s="52" t="s">
+      <c r="I34" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J34" s="1"/>
@@ -7001,14 +7070,14 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="32"/>
       <c r="AX34" s="1"/>
       <c r="AY34" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
@@ -7063,30 +7132,30 @@
     </row>
     <row r="35" spans="1:99">
       <c r="A35" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="I35" s="52" t="s">
+      <c r="I35" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J35" s="1"/>
@@ -7126,14 +7195,14 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="32"/>
       <c r="AX35" s="1"/>
       <c r="AY35" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
@@ -7188,30 +7257,30 @@
     </row>
     <row r="36" spans="1:99">
       <c r="A36" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="I36" s="52" t="s">
+      <c r="I36" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J36" s="1"/>
@@ -7251,14 +7320,14 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="32"/>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
@@ -7313,30 +7382,30 @@
     </row>
     <row r="37" spans="1:99">
       <c r="A37" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="I37" s="52" t="s">
+      <c r="I37" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J37" s="1"/>
@@ -7376,14 +7445,14 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="32"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
@@ -7438,30 +7507,30 @@
     </row>
     <row r="38" spans="1:99">
       <c r="A38" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="I38" s="52" t="s">
+      <c r="I38" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J38" s="1"/>
@@ -7501,14 +7570,14 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="32"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
@@ -7563,30 +7632,30 @@
     </row>
     <row r="39" spans="1:99">
       <c r="A39" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="I39" s="52" t="s">
+      <c r="I39" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
@@ -7626,14 +7695,14 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
       <c r="AW39" s="32"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
@@ -7688,30 +7757,30 @@
     </row>
     <row r="40" spans="1:99">
       <c r="A40" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I40" s="52" t="s">
+      <c r="I40" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J40" s="1"/>
@@ -7751,14 +7820,14 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="32"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
@@ -7813,30 +7882,30 @@
     </row>
     <row r="41" spans="1:99">
       <c r="A41" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="I41" s="52" t="s">
+      <c r="I41" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J41" s="1"/>
@@ -7876,14 +7945,14 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="32"/>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
@@ -7938,28 +8007,28 @@
     </row>
     <row r="42" spans="1:99">
       <c r="A42" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="52" t="s">
+      <c r="I42" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J42" s="1"/>
@@ -7999,14 +8068,14 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="32"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
@@ -8061,28 +8130,28 @@
     </row>
     <row r="43" spans="1:99">
       <c r="A43" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="52" t="s">
+      <c r="I43" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J43" s="1"/>
@@ -8122,14 +8191,14 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="32"/>
       <c r="AX43" s="1"/>
       <c r="AY43" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
@@ -8184,28 +8253,28 @@
     </row>
     <row r="44" spans="1:99">
       <c r="A44" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="52" t="s">
+      <c r="I44" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J44" s="1"/>
@@ -8245,14 +8314,14 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
       <c r="AW44" s="32"/>
       <c r="AX44" s="1"/>
       <c r="AY44" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
@@ -8307,28 +8376,28 @@
     </row>
     <row r="45" spans="1:99">
       <c r="A45" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="52" t="s">
+      <c r="I45" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J45" s="1"/>
@@ -8368,14 +8437,14 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
       <c r="AW45" s="32"/>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
@@ -8430,30 +8499,30 @@
     </row>
     <row r="46" spans="1:99">
       <c r="A46" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I46" s="52" t="s">
+      <c r="I46" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J46" s="1"/>
@@ -8493,14 +8562,14 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="32"/>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
@@ -8555,30 +8624,30 @@
     </row>
     <row r="47" spans="1:99">
       <c r="A47" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I47" s="52" t="s">
+      <c r="I47" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J47" s="1"/>
@@ -8618,14 +8687,14 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="32"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
@@ -8680,30 +8749,30 @@
     </row>
     <row r="48" spans="1:99">
       <c r="A48" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="I48" s="52" t="s">
+      <c r="I48" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J48" s="1"/>
@@ -8743,14 +8812,14 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="32"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
@@ -8805,30 +8874,30 @@
     </row>
     <row r="49" spans="1:99">
       <c r="A49" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I49" s="52" t="s">
+      <c r="I49" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J49" s="1"/>
@@ -8868,14 +8937,14 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
       <c r="AW49" s="32"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
@@ -8930,28 +8999,28 @@
     </row>
     <row r="50" spans="1:99">
       <c r="A50" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="52" t="s">
+      <c r="I50" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J50" s="1"/>
@@ -8991,14 +9060,14 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
       <c r="AW50" s="32"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
@@ -9053,28 +9122,28 @@
     </row>
     <row r="51" spans="1:99">
       <c r="A51" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="52" t="s">
+      <c r="I51" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J51" s="1"/>
@@ -9114,14 +9183,14 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="32"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
@@ -9176,30 +9245,30 @@
     </row>
     <row r="52" spans="1:99">
       <c r="A52" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="I52" s="52" t="s">
+      <c r="I52" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J52" s="1"/>
@@ -9239,14 +9308,14 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
       <c r="AW52" s="32"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
@@ -9301,30 +9370,30 @@
     </row>
     <row r="53" spans="1:99">
       <c r="A53" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="I53" s="52" t="s">
+      <c r="I53" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="1"/>
@@ -9364,14 +9433,14 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
       <c r="AW53" s="32"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
@@ -9426,28 +9495,28 @@
     </row>
     <row r="54" spans="1:99">
       <c r="A54" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="52" t="s">
+      <c r="I54" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J54" s="1"/>
@@ -9487,16 +9556,16 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
       <c r="AW54" s="32"/>
       <c r="AX54" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY54" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="AY54" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -9551,28 +9620,28 @@
     </row>
     <row r="55" spans="1:99">
       <c r="A55" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="52" t="s">
+      <c r="I55" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J55" s="1"/>
@@ -9612,16 +9681,16 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="32"/>
       <c r="AX55" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY55" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="AY55" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -9676,30 +9745,30 @@
     </row>
     <row r="56" spans="1:99">
       <c r="A56" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="I56" s="52" t="s">
+      <c r="I56" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J56" s="1"/>
@@ -9739,17 +9808,17 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
       <c r="AW56" s="32"/>
       <c r="AX56" s="1"/>
       <c r="AY56" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AZ56" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="AZ56" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
@@ -9803,30 +9872,30 @@
     </row>
     <row r="57" spans="1:99">
       <c r="A57" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="I57" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="I57" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J57" s="1"/>
@@ -9866,17 +9935,17 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
       <c r="AW57" s="32"/>
       <c r="AX57" s="1"/>
       <c r="AY57" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AZ57" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="AZ57" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
@@ -9930,30 +9999,30 @@
     </row>
     <row r="58" spans="1:99">
       <c r="A58" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="I58" s="52" t="s">
+      <c r="I58" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J58" s="1"/>
@@ -9993,16 +10062,16 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
       <c r="AW58" s="32"/>
       <c r="AX58" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY58" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="AY58" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
@@ -10057,30 +10126,30 @@
     </row>
     <row r="59" spans="1:99">
       <c r="A59" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="I59" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="I59" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J59" s="1"/>
@@ -10120,16 +10189,16 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="32"/>
       <c r="AX59" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY59" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="AY59" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
@@ -10184,30 +10253,30 @@
     </row>
     <row r="60" spans="1:99">
       <c r="A60" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="I60" s="52" t="s">
+      <c r="I60" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J60" s="1"/>
@@ -10247,18 +10316,18 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
       <c r="AW60" s="32"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BB60" s="1"/>
       <c r="BC60" s="1"/>
@@ -10311,30 +10380,30 @@
     </row>
     <row r="61" spans="1:99">
       <c r="A61" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I61" s="52" t="s">
+      <c r="I61" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J61" s="1"/>
@@ -10374,18 +10443,18 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
       <c r="AW61" s="32"/>
       <c r="AX61" s="1"/>
       <c r="AY61" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BB61" s="1"/>
       <c r="BC61" s="1"/>
@@ -10438,30 +10507,30 @@
     </row>
     <row r="62" spans="1:99">
       <c r="A62" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="I62" s="52" t="s">
+      <c r="I62" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J62" s="1"/>
@@ -10501,14 +10570,14 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
       <c r="AW62" s="32"/>
       <c r="AX62" s="1"/>
       <c r="AY62" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1">
@@ -10565,30 +10634,30 @@
     </row>
     <row r="63" spans="1:99">
       <c r="A63" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E63" s="37" t="s">
         <v>243</v>
       </c>
       <c r="F63" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="G63" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="H63" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="H63" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="I63" s="52" t="s">
+      <c r="I63" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J63" s="37"/>
@@ -10628,14 +10697,14 @@
       <c r="AR63" s="37"/>
       <c r="AS63" s="37"/>
       <c r="AT63" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AU63" s="37"/>
       <c r="AV63" s="37"/>
       <c r="AW63" s="38"/>
       <c r="AX63" s="37"/>
       <c r="AY63" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AZ63" s="37"/>
       <c r="BA63" s="37">
@@ -10692,28 +10761,28 @@
     </row>
     <row r="64" spans="1:99">
       <c r="A64" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="52" t="s">
+      <c r="I64" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J64" s="1"/>
@@ -10722,7 +10791,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -10732,7 +10801,7 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
@@ -10757,7 +10826,7 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
       <c r="AT64" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
@@ -10800,7 +10869,7 @@
       <c r="CG64" s="1"/>
       <c r="CH64" s="1"/>
       <c r="CI64" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="CJ64" s="1"/>
       <c r="CK64" s="1"/>
@@ -10810,45 +10879,45 @@
       <c r="CO64" s="1"/>
       <c r="CP64" s="1"/>
       <c r="CQ64" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="CR64" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="CR64" s="35" t="s">
+      <c r="CS64" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="CT64" s="36" t="s">
         <v>495</v>
       </c>
-      <c r="CS64" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="CT64" s="36" t="s">
+      <c r="CU64" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="CU64" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:99">
       <c r="A65" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="D65" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="B65" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="D65" s="37" t="s">
+      <c r="E65" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="F65" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="F65" s="37" t="s">
+      <c r="G65" s="37" t="s">
         <v>507</v>
       </c>
-      <c r="G65" s="37" t="s">
+      <c r="H65" s="37" t="s">
         <v>508</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>509</v>
       </c>
       <c r="I65" s="39" t="s">
         <v>172</v>
@@ -10894,7 +10963,7 @@
       <c r="AR65" s="37"/>
       <c r="AS65" s="37"/>
       <c r="AT65" s="37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AU65" s="37"/>
       <c r="AV65" s="37"/>
@@ -10904,10 +10973,10 @@
         <v>1</v>
       </c>
       <c r="AZ65" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="BA65" s="37" t="s">
         <v>510</v>
-      </c>
-      <c r="BA65" s="37" t="s">
-        <v>511</v>
       </c>
       <c r="BB65" s="37">
         <v>10</v>
@@ -10962,26 +11031,26 @@
     </row>
     <row r="66" spans="1:99">
       <c r="A66" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B66" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E66" s="43" t="s">
         <v>243</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="52" t="s">
+      <c r="I66" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J66" s="1"/>
@@ -11077,26 +11146,26 @@
     </row>
     <row r="67" spans="1:99">
       <c r="A67" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="43" t="s">
         <v>517</v>
       </c>
-      <c r="B67" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>518</v>
-      </c>
       <c r="D67" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E67" s="43" t="s">
         <v>243</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="52" t="s">
+      <c r="I67" s="57" t="s">
         <v>172</v>
       </c>
       <c r="J67" s="1"/>
@@ -11193,11 +11262,15 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
-    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com"/>
-    <hyperlink ref="W11:W14" r:id="rId3" display="aansari1@zarca.com"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="CT10" r:id="rId3" xr:uid="{6123476F-0050-4925-8DBC-AB609BAAA7D4}"/>
+    <hyperlink ref="CT11" r:id="rId4" xr:uid="{89EA44E5-38BF-49D1-A854-AC4813788208}"/>
+    <hyperlink ref="CT12" r:id="rId5" xr:uid="{073ABEE9-57DD-4685-BD80-8A73B5346449}"/>
+    <hyperlink ref="W11:W13" r:id="rId6" display="aansari1@zarca.com" xr:uid="{65126EFA-2220-4361-B5A0-06AEBB56F0BB}"/>
+    <hyperlink ref="CT13" r:id="rId7" xr:uid="{58864C70-8DDA-472A-B8D4-ABB498DCD2BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25171992-5380-47DC-AA27-106BF7A6E110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10445CD-9DE6-4B08-BBFF-9E4BFD1D5070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="870" windowWidth="8235" windowHeight="9720" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="593">
   <si>
     <t>Environment</t>
   </si>
@@ -1672,15 +1672,230 @@
     <t>Valid Credentials</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>Smoke_TC82</t>
+  </si>
+  <si>
+    <t>File Library</t>
+  </si>
+  <si>
+    <t>Upload .xls format file in File Library</t>
+  </si>
+  <si>
+    <t>sogo_data_import_file.xls</t>
+  </si>
+  <si>
+    <t>Smoke_TC83</t>
+  </si>
+  <si>
+    <t>Upload .xlsx format file in File Library</t>
+  </si>
+  <si>
+    <t>smsnumber.xlsx</t>
+  </si>
+  <si>
+    <t>Smoke_TC84</t>
+  </si>
+  <si>
+    <t>Upload .doc format file in File Library</t>
+  </si>
+  <si>
+    <t>docfile.doc</t>
+  </si>
+  <si>
+    <t>Smoke_TC85</t>
+  </si>
+  <si>
+    <t>Upload .docx format file in File Library</t>
+  </si>
+  <si>
+    <t>docxfile.docx</t>
+  </si>
+  <si>
+    <t>Smoke_TC86</t>
+  </si>
+  <si>
+    <t>Upload .ppt format file in File Library</t>
+  </si>
+  <si>
+    <t>ppt.ppt</t>
+  </si>
+  <si>
+    <t>Smoke_TC87</t>
+  </si>
+  <si>
+    <t>Upload .pptx format file in File Library</t>
+  </si>
+  <si>
+    <t>pptx.pptx</t>
+  </si>
+  <si>
+    <t>Smoke_TC88</t>
+  </si>
+  <si>
+    <t>Upload .pps format file in File Library</t>
+  </si>
+  <si>
+    <t>pps.pps</t>
+  </si>
+  <si>
+    <t>Smoke_TC89</t>
+  </si>
+  <si>
+    <t>Upload .pdf format file in File Library</t>
+  </si>
+  <si>
+    <t>Smoke_TC90</t>
+  </si>
+  <si>
+    <t>Upload .txt format file in File Library</t>
+  </si>
+  <si>
+    <t>txt.txt</t>
+  </si>
+  <si>
+    <t>Smoke_TC91</t>
+  </si>
+  <si>
+    <t>Upload .rtf format file in File Library</t>
+  </si>
+  <si>
+    <t>rtf.rtf</t>
+  </si>
+  <si>
+    <t>Smoke_TC92</t>
+  </si>
+  <si>
+    <t>Upload .xml format file in File Library</t>
+  </si>
+  <si>
+    <t>xml.xml</t>
+  </si>
+  <si>
+    <t>Smoke_TC93</t>
+  </si>
+  <si>
+    <t>Upload .mpg format file in File Library</t>
+  </si>
+  <si>
+    <t>mpg.mpg</t>
+  </si>
+  <si>
+    <t>Smoke_TC94</t>
+  </si>
+  <si>
+    <t>Upload .swf format file in File Library</t>
+  </si>
+  <si>
+    <t>swf.swf</t>
+  </si>
+  <si>
+    <t>Smoke_TC95</t>
+  </si>
+  <si>
+    <t>Upload .jpg format file in File Library</t>
+  </si>
+  <si>
+    <t>jpg.jpg</t>
+  </si>
+  <si>
+    <t>Smoke_TC96</t>
+  </si>
+  <si>
+    <t>Upload .jpeg format file in File Library</t>
+  </si>
+  <si>
+    <t>jpeg.jpeg</t>
+  </si>
+  <si>
+    <t>Smoke_TC97</t>
+  </si>
+  <si>
+    <t>Upload .bmp format file in File Library</t>
+  </si>
+  <si>
+    <t>bmp.bmp</t>
+  </si>
+  <si>
+    <t>Smoke_TC98</t>
+  </si>
+  <si>
+    <t>Upload .gif format file in File Library</t>
+  </si>
+  <si>
+    <t>gif.gif</t>
+  </si>
+  <si>
+    <t>Smoke_TC99</t>
+  </si>
+  <si>
+    <t>Upload .png format file in File Library</t>
+  </si>
+  <si>
+    <t>png.png</t>
+  </si>
+  <si>
+    <t>Smoke_TC100</t>
+  </si>
+  <si>
+    <t>Upload .htm format file in File Library</t>
+  </si>
+  <si>
+    <t>htm.htm</t>
+  </si>
+  <si>
+    <t>Smoke_TC101</t>
+  </si>
+  <si>
+    <t>Upload .html format file in File Library</t>
+  </si>
+  <si>
+    <t>html.html</t>
+  </si>
+  <si>
+    <t>Smoke_TC102</t>
+  </si>
+  <si>
+    <t>Upload .xhtml format file in File Library</t>
+  </si>
+  <si>
+    <t>xhtml.xhtml</t>
+  </si>
+  <si>
+    <t>Smoke_TC103</t>
+  </si>
+  <si>
+    <t>Upload .csv format file in File Library</t>
+  </si>
+  <si>
+    <t>csv.csv</t>
+  </si>
+  <si>
+    <t>Smoke_TC104</t>
+  </si>
+  <si>
+    <t>Upload .mp3 format file in File Library</t>
+  </si>
+  <si>
+    <t>mp3.mp3</t>
+  </si>
+  <si>
+    <t>Smoke_TC105</t>
+  </si>
+  <si>
+    <t>Upload .mp4 format file in File Library</t>
+  </si>
+  <si>
+    <t>mp4.mp4</t>
+  </si>
+  <si>
+    <t>account_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1739,39 +1954,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="24">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1823,61 +2023,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -1963,7 +2108,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2016,17 +2161,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2322,8 +2465,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2363,9 +2506,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2409,10 +2552,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2542,35 +2685,35 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CU67"/>
+  <dimension ref="A1:CV91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="CJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CW8" sqref="CW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="66.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="66" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99">
+    <row r="1" spans="1:100">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2853,23 +2996,26 @@
       <c r="CP1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="CQ1" s="35" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="CR1" s="35" t="s">
+      <c r="CR1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="CS1" s="35" t="s">
+      <c r="CS1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CT1" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CU1" s="3" t="s">
         <v>501</v>
       </c>
+      <c r="CV1" s="3" t="s">
+        <v>592</v>
+      </c>
     </row>
-    <row r="2" spans="1:99">
+    <row r="2" spans="1:100">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2892,7 +3038,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J2" s="4"/>
@@ -2987,8 +3133,9 @@
       <c r="CS2" s="1"/>
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:100">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -3011,7 +3158,7 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3186,8 +3333,9 @@
       <c r="CS3" s="1"/>
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
     </row>
-    <row r="4" spans="1:99">
+    <row r="4" spans="1:100">
       <c r="A4" s="1" t="s">
         <v>181</v>
       </c>
@@ -3210,7 +3358,7 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -3319,8 +3467,9 @@
       <c r="CS4" s="1"/>
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
     </row>
-    <row r="5" spans="1:99">
+    <row r="5" spans="1:100">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -3343,7 +3492,7 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J5" s="11"/>
@@ -3450,8 +3599,9 @@
       <c r="CS5" s="1"/>
       <c r="CT5" s="1"/>
       <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
     </row>
-    <row r="6" spans="1:99">
+    <row r="6" spans="1:100">
       <c r="A6" s="1" t="s">
         <v>183</v>
       </c>
@@ -3474,7 +3624,7 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J6" s="11"/>
@@ -3571,8 +3721,9 @@
       <c r="CS6" s="1"/>
       <c r="CT6" s="1"/>
       <c r="CU6" s="1"/>
+      <c r="CV6" s="1"/>
     </row>
-    <row r="7" spans="1:99">
+    <row r="7" spans="1:100">
       <c r="A7" s="1" t="s">
         <v>184</v>
       </c>
@@ -3595,7 +3746,7 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -3696,8 +3847,9 @@
       <c r="CS7" s="1"/>
       <c r="CT7" s="1"/>
       <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
     </row>
-    <row r="8" spans="1:99">
+    <row r="8" spans="1:100">
       <c r="A8" s="1" t="s">
         <v>185</v>
       </c>
@@ -3720,7 +3872,7 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J8" s="11"/>
@@ -3819,8 +3971,9 @@
       <c r="CS8" s="1"/>
       <c r="CT8" s="1"/>
       <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
     </row>
-    <row r="9" spans="1:99">
+    <row r="9" spans="1:100">
       <c r="A9" s="1" t="s">
         <v>186</v>
       </c>
@@ -3841,7 +3994,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J9" s="1"/>
@@ -3948,8 +4101,9 @@
       <c r="CS9" s="1"/>
       <c r="CT9" s="1"/>
       <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
     </row>
-    <row r="10" spans="1:99">
+    <row r="10" spans="1:100">
       <c r="A10" s="1" t="s">
         <v>187</v>
       </c>
@@ -3972,7 +4126,7 @@
         <v>190</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -4079,17 +4233,18 @@
         <v>494</v>
       </c>
       <c r="CS10" s="1"/>
-      <c r="CT10" s="50" t="s">
+      <c r="CT10" s="48" t="s">
         <v>495</v>
       </c>
       <c r="CU10" s="1"/>
+      <c r="CV10" s="1"/>
     </row>
-    <row r="11" spans="1:99">
+    <row r="11" spans="1:100">
       <c r="A11" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>514</v>
@@ -4107,7 +4262,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="49" t="s">
         <v>502</v>
       </c>
       <c r="J11" s="18" t="s">
@@ -4210,17 +4365,18 @@
         <v>494</v>
       </c>
       <c r="CS11" s="1"/>
-      <c r="CT11" s="50" t="s">
+      <c r="CT11" s="48" t="s">
         <v>495</v>
       </c>
       <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
     </row>
-    <row r="12" spans="1:99">
+    <row r="12" spans="1:100">
       <c r="A12" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>514</v>
@@ -4238,7 +4394,7 @@
         <v>198</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="49" t="s">
         <v>502</v>
       </c>
       <c r="J12" s="18" t="s">
@@ -4341,17 +4497,18 @@
         <v>494</v>
       </c>
       <c r="CS12" s="1"/>
-      <c r="CT12" s="50" t="s">
+      <c r="CT12" s="48" t="s">
         <v>495</v>
       </c>
       <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
     </row>
-    <row r="13" spans="1:99">
+    <row r="13" spans="1:100">
       <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>514</v>
@@ -4369,7 +4526,7 @@
         <v>202</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="49" t="s">
         <v>502</v>
       </c>
       <c r="J13" s="18" t="s">
@@ -4472,12 +4629,13 @@
         <v>494</v>
       </c>
       <c r="CS13" s="1"/>
-      <c r="CT13" s="50" t="s">
+      <c r="CT13" s="48" t="s">
         <v>495</v>
       </c>
       <c r="CU13" s="1"/>
+      <c r="CV13" s="1"/>
     </row>
-    <row r="14" spans="1:99">
+    <row r="14" spans="1:100">
       <c r="A14" s="20" t="s">
         <v>204</v>
       </c>
@@ -4500,7 +4658,7 @@
         <v>206</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J14" s="22" t="s">
@@ -4603,8 +4761,9 @@
       <c r="CS14" s="1"/>
       <c r="CT14" s="1"/>
       <c r="CU14" s="1"/>
+      <c r="CV14" s="1"/>
     </row>
-    <row r="15" spans="1:99">
+    <row r="15" spans="1:100">
       <c r="A15" s="1" t="s">
         <v>216</v>
       </c>
@@ -4627,7 +4786,7 @@
       <c r="H15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -4736,8 +4895,9 @@
       <c r="CS15" s="1"/>
       <c r="CT15" s="1"/>
       <c r="CU15" s="1"/>
+      <c r="CV15" s="1"/>
     </row>
-    <row r="16" spans="1:99">
+    <row r="16" spans="1:100">
       <c r="A16" s="1" t="s">
         <v>219</v>
       </c>
@@ -4758,7 +4918,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J16" s="11"/>
@@ -4857,8 +5017,9 @@
       <c r="CS16" s="1"/>
       <c r="CT16" s="1"/>
       <c r="CU16" s="1"/>
+      <c r="CV16" s="1"/>
     </row>
-    <row r="17" spans="1:99">
+    <row r="17" spans="1:100">
       <c r="A17" s="1" t="s">
         <v>224</v>
       </c>
@@ -4879,7 +5040,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J17" s="11"/>
@@ -4978,8 +5139,9 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
     </row>
-    <row r="18" spans="1:99">
+    <row r="18" spans="1:100">
       <c r="A18" s="1" t="s">
         <v>230</v>
       </c>
@@ -5002,7 +5164,7 @@
         <v>273</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J18" s="26"/>
@@ -5105,8 +5267,9 @@
       <c r="CS18" s="1"/>
       <c r="CT18" s="1"/>
       <c r="CU18" s="1"/>
+      <c r="CV18" s="1"/>
     </row>
-    <row r="19" spans="1:99">
+    <row r="19" spans="1:100">
       <c r="A19" s="1" t="s">
         <v>231</v>
       </c>
@@ -5131,7 +5294,7 @@
       <c r="H19" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J19" s="1"/>
@@ -5234,8 +5397,9 @@
       <c r="CS19" s="1"/>
       <c r="CT19" s="1"/>
       <c r="CU19" s="1"/>
+      <c r="CV19" s="1"/>
     </row>
-    <row r="20" spans="1:99">
+    <row r="20" spans="1:100">
       <c r="A20" s="1" t="s">
         <v>232</v>
       </c>
@@ -5260,7 +5424,7 @@
       <c r="H20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J20" s="1"/>
@@ -5359,8 +5523,9 @@
       <c r="CS20" s="1"/>
       <c r="CT20" s="1"/>
       <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
     </row>
-    <row r="21" spans="1:99">
+    <row r="21" spans="1:100">
       <c r="A21" s="1" t="s">
         <v>233</v>
       </c>
@@ -5385,7 +5550,7 @@
       <c r="H21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I21" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J21" s="1"/>
@@ -5490,8 +5655,9 @@
       <c r="CS21" s="1"/>
       <c r="CT21" s="1"/>
       <c r="CU21" s="1"/>
+      <c r="CV21" s="1"/>
     </row>
-    <row r="22" spans="1:99">
+    <row r="22" spans="1:100">
       <c r="A22" s="1" t="s">
         <v>234</v>
       </c>
@@ -5516,7 +5682,7 @@
       <c r="H22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I22" s="57" t="s">
+      <c r="I22" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J22" s="1"/>
@@ -5617,8 +5783,9 @@
       <c r="CS22" s="1"/>
       <c r="CT22" s="1"/>
       <c r="CU22" s="1"/>
+      <c r="CV22" s="1"/>
     </row>
-    <row r="23" spans="1:99">
+    <row r="23" spans="1:100">
       <c r="A23" s="1" t="s">
         <v>235</v>
       </c>
@@ -5643,7 +5810,7 @@
       <c r="H23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="57" t="s">
+      <c r="I23" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J23" s="1"/>
@@ -5744,8 +5911,9 @@
       <c r="CS23" s="1"/>
       <c r="CT23" s="1"/>
       <c r="CU23" s="1"/>
+      <c r="CV23" s="1"/>
     </row>
-    <row r="24" spans="1:99">
+    <row r="24" spans="1:100">
       <c r="A24" s="1" t="s">
         <v>236</v>
       </c>
@@ -5770,7 +5938,7 @@
       <c r="H24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J24" s="1"/>
@@ -5871,8 +6039,9 @@
       <c r="CS24" s="1"/>
       <c r="CT24" s="1"/>
       <c r="CU24" s="1"/>
+      <c r="CV24" s="1"/>
     </row>
-    <row r="25" spans="1:99">
+    <row r="25" spans="1:100">
       <c r="A25" s="1" t="s">
         <v>237</v>
       </c>
@@ -5897,7 +6066,7 @@
       <c r="H25" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="57" t="s">
+      <c r="I25" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J25" s="1"/>
@@ -5996,8 +6165,9 @@
       <c r="CS25" s="1"/>
       <c r="CT25" s="1"/>
       <c r="CU25" s="1"/>
+      <c r="CV25" s="1"/>
     </row>
-    <row r="26" spans="1:99">
+    <row r="26" spans="1:100">
       <c r="A26" s="1" t="s">
         <v>238</v>
       </c>
@@ -6022,7 +6192,7 @@
       <c r="H26" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I26" s="57" t="s">
+      <c r="I26" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J26" s="1"/>
@@ -6121,8 +6291,9 @@
       <c r="CS26" s="1"/>
       <c r="CT26" s="1"/>
       <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
     </row>
-    <row r="27" spans="1:99">
+    <row r="27" spans="1:100">
       <c r="A27" s="1" t="s">
         <v>239</v>
       </c>
@@ -6147,7 +6318,7 @@
       <c r="H27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="1"/>
@@ -6248,8 +6419,9 @@
       <c r="CS27" s="1"/>
       <c r="CT27" s="1"/>
       <c r="CU27" s="1"/>
+      <c r="CV27" s="1"/>
     </row>
-    <row r="28" spans="1:99">
+    <row r="28" spans="1:100">
       <c r="A28" s="1" t="s">
         <v>240</v>
       </c>
@@ -6274,7 +6446,7 @@
       <c r="H28" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I28" s="57" t="s">
+      <c r="I28" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="1"/>
@@ -6377,8 +6549,9 @@
       <c r="CS28" s="1"/>
       <c r="CT28" s="1"/>
       <c r="CU28" s="1"/>
+      <c r="CV28" s="1"/>
     </row>
-    <row r="29" spans="1:99">
+    <row r="29" spans="1:100">
       <c r="A29" s="1" t="s">
         <v>241</v>
       </c>
@@ -6403,7 +6576,7 @@
       <c r="H29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I29" s="57" t="s">
+      <c r="I29" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J29" s="1"/>
@@ -6506,8 +6679,9 @@
       <c r="CS29" s="1"/>
       <c r="CT29" s="1"/>
       <c r="CU29" s="1"/>
+      <c r="CV29" s="1"/>
     </row>
-    <row r="30" spans="1:99">
+    <row r="30" spans="1:100">
       <c r="A30" s="1" t="s">
         <v>242</v>
       </c>
@@ -6532,7 +6706,7 @@
       <c r="H30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J30" s="1"/>
@@ -6631,8 +6805,9 @@
       <c r="CS30" s="1"/>
       <c r="CT30" s="1"/>
       <c r="CU30" s="1"/>
+      <c r="CV30" s="1"/>
     </row>
-    <row r="31" spans="1:99">
+    <row r="31" spans="1:100">
       <c r="A31" s="1" t="s">
         <v>483</v>
       </c>
@@ -6653,7 +6828,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="57" t="s">
+      <c r="I31" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J31" s="1"/>
@@ -6746,8 +6921,9 @@
       <c r="CS31" s="1"/>
       <c r="CT31" s="1"/>
       <c r="CU31" s="1"/>
+      <c r="CV31" s="1"/>
     </row>
-    <row r="32" spans="1:99" ht="15" customHeight="1">
+    <row r="32" spans="1:100" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>329</v>
       </c>
@@ -6772,7 +6948,7 @@
       <c r="H32" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I32" s="57" t="s">
+      <c r="I32" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J32" s="1"/>
@@ -6875,8 +7051,9 @@
       <c r="CS32" s="1"/>
       <c r="CT32" s="1"/>
       <c r="CU32" s="1"/>
+      <c r="CV32" s="1"/>
     </row>
-    <row r="33" spans="1:99" ht="15" customHeight="1">
+    <row r="33" spans="1:100" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>331</v>
       </c>
@@ -6901,7 +7078,7 @@
       <c r="H33" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="I33" s="57" t="s">
+      <c r="I33" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J33" s="1"/>
@@ -7004,8 +7181,9 @@
       <c r="CS33" s="1"/>
       <c r="CT33" s="1"/>
       <c r="CU33" s="1"/>
+      <c r="CV33" s="1"/>
     </row>
-    <row r="34" spans="1:99" ht="13.5" customHeight="1">
+    <row r="34" spans="1:100" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>333</v>
       </c>
@@ -7030,7 +7208,7 @@
       <c r="H34" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="I34" s="57" t="s">
+      <c r="I34" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J34" s="1"/>
@@ -7129,8 +7307,9 @@
       <c r="CS34" s="1"/>
       <c r="CT34" s="1"/>
       <c r="CU34" s="1"/>
+      <c r="CV34" s="1"/>
     </row>
-    <row r="35" spans="1:99">
+    <row r="35" spans="1:100">
       <c r="A35" s="1" t="s">
         <v>334</v>
       </c>
@@ -7155,7 +7334,7 @@
       <c r="H35" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="I35" s="57" t="s">
+      <c r="I35" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J35" s="1"/>
@@ -7254,8 +7433,9 @@
       <c r="CS35" s="1"/>
       <c r="CT35" s="1"/>
       <c r="CU35" s="1"/>
+      <c r="CV35" s="1"/>
     </row>
-    <row r="36" spans="1:99">
+    <row r="36" spans="1:100">
       <c r="A36" s="1" t="s">
         <v>335</v>
       </c>
@@ -7280,7 +7460,7 @@
       <c r="H36" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="I36" s="57" t="s">
+      <c r="I36" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J36" s="1"/>
@@ -7379,8 +7559,9 @@
       <c r="CS36" s="1"/>
       <c r="CT36" s="1"/>
       <c r="CU36" s="1"/>
+      <c r="CV36" s="1"/>
     </row>
-    <row r="37" spans="1:99">
+    <row r="37" spans="1:100">
       <c r="A37" s="1" t="s">
         <v>336</v>
       </c>
@@ -7405,7 +7586,7 @@
       <c r="H37" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="I37" s="57" t="s">
+      <c r="I37" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J37" s="1"/>
@@ -7504,8 +7685,9 @@
       <c r="CS37" s="1"/>
       <c r="CT37" s="1"/>
       <c r="CU37" s="1"/>
+      <c r="CV37" s="1"/>
     </row>
-    <row r="38" spans="1:99">
+    <row r="38" spans="1:100">
       <c r="A38" s="1" t="s">
         <v>337</v>
       </c>
@@ -7530,7 +7712,7 @@
       <c r="H38" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="I38" s="57" t="s">
+      <c r="I38" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J38" s="1"/>
@@ -7629,8 +7811,9 @@
       <c r="CS38" s="1"/>
       <c r="CT38" s="1"/>
       <c r="CU38" s="1"/>
+      <c r="CV38" s="1"/>
     </row>
-    <row r="39" spans="1:99">
+    <row r="39" spans="1:100">
       <c r="A39" s="1" t="s">
         <v>338</v>
       </c>
@@ -7655,7 +7838,7 @@
       <c r="H39" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I39" s="57" t="s">
+      <c r="I39" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
@@ -7754,8 +7937,9 @@
       <c r="CS39" s="1"/>
       <c r="CT39" s="1"/>
       <c r="CU39" s="1"/>
+      <c r="CV39" s="1"/>
     </row>
-    <row r="40" spans="1:99">
+    <row r="40" spans="1:100">
       <c r="A40" s="1" t="s">
         <v>339</v>
       </c>
@@ -7780,7 +7964,7 @@
       <c r="H40" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I40" s="57" t="s">
+      <c r="I40" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J40" s="1"/>
@@ -7879,8 +8063,9 @@
       <c r="CS40" s="1"/>
       <c r="CT40" s="1"/>
       <c r="CU40" s="1"/>
+      <c r="CV40" s="1"/>
     </row>
-    <row r="41" spans="1:99">
+    <row r="41" spans="1:100">
       <c r="A41" s="1" t="s">
         <v>340</v>
       </c>
@@ -7905,7 +8090,7 @@
       <c r="H41" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J41" s="1"/>
@@ -8004,8 +8189,9 @@
       <c r="CS41" s="1"/>
       <c r="CT41" s="1"/>
       <c r="CU41" s="1"/>
+      <c r="CV41" s="1"/>
     </row>
-    <row r="42" spans="1:99">
+    <row r="42" spans="1:100">
       <c r="A42" s="1" t="s">
         <v>341</v>
       </c>
@@ -8028,7 +8214,7 @@
         <v>428</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="57" t="s">
+      <c r="I42" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J42" s="1"/>
@@ -8127,8 +8313,9 @@
       <c r="CS42" s="1"/>
       <c r="CT42" s="1"/>
       <c r="CU42" s="1"/>
+      <c r="CV42" s="1"/>
     </row>
-    <row r="43" spans="1:99">
+    <row r="43" spans="1:100">
       <c r="A43" s="1" t="s">
         <v>342</v>
       </c>
@@ -8151,7 +8338,7 @@
         <v>430</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="57" t="s">
+      <c r="I43" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J43" s="1"/>
@@ -8250,8 +8437,9 @@
       <c r="CS43" s="1"/>
       <c r="CT43" s="1"/>
       <c r="CU43" s="1"/>
+      <c r="CV43" s="1"/>
     </row>
-    <row r="44" spans="1:99">
+    <row r="44" spans="1:100">
       <c r="A44" s="1" t="s">
         <v>343</v>
       </c>
@@ -8274,7 +8462,7 @@
         <v>432</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="57" t="s">
+      <c r="I44" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J44" s="1"/>
@@ -8373,8 +8561,9 @@
       <c r="CS44" s="1"/>
       <c r="CT44" s="1"/>
       <c r="CU44" s="1"/>
+      <c r="CV44" s="1"/>
     </row>
-    <row r="45" spans="1:99">
+    <row r="45" spans="1:100">
       <c r="A45" s="1" t="s">
         <v>344</v>
       </c>
@@ -8397,7 +8586,7 @@
         <v>434</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="57" t="s">
+      <c r="I45" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J45" s="1"/>
@@ -8496,8 +8685,9 @@
       <c r="CS45" s="1"/>
       <c r="CT45" s="1"/>
       <c r="CU45" s="1"/>
+      <c r="CV45" s="1"/>
     </row>
-    <row r="46" spans="1:99">
+    <row r="46" spans="1:100">
       <c r="A46" s="1" t="s">
         <v>345</v>
       </c>
@@ -8522,7 +8712,7 @@
       <c r="H46" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I46" s="57" t="s">
+      <c r="I46" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J46" s="1"/>
@@ -8621,8 +8811,9 @@
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
       <c r="CU46" s="1"/>
+      <c r="CV46" s="1"/>
     </row>
-    <row r="47" spans="1:99">
+    <row r="47" spans="1:100">
       <c r="A47" s="1" t="s">
         <v>346</v>
       </c>
@@ -8647,7 +8838,7 @@
       <c r="H47" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I47" s="57" t="s">
+      <c r="I47" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J47" s="1"/>
@@ -8746,8 +8937,9 @@
       <c r="CS47" s="1"/>
       <c r="CT47" s="1"/>
       <c r="CU47" s="1"/>
+      <c r="CV47" s="1"/>
     </row>
-    <row r="48" spans="1:99">
+    <row r="48" spans="1:100">
       <c r="A48" s="1" t="s">
         <v>347</v>
       </c>
@@ -8772,7 +8964,7 @@
       <c r="H48" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I48" s="57" t="s">
+      <c r="I48" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J48" s="1"/>
@@ -8871,8 +9063,9 @@
       <c r="CS48" s="1"/>
       <c r="CT48" s="1"/>
       <c r="CU48" s="1"/>
+      <c r="CV48" s="1"/>
     </row>
-    <row r="49" spans="1:99">
+    <row r="49" spans="1:100">
       <c r="A49" s="1" t="s">
         <v>348</v>
       </c>
@@ -8897,7 +9090,7 @@
       <c r="H49" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I49" s="57" t="s">
+      <c r="I49" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J49" s="1"/>
@@ -8996,8 +9189,9 @@
       <c r="CS49" s="1"/>
       <c r="CT49" s="1"/>
       <c r="CU49" s="1"/>
+      <c r="CV49" s="1"/>
     </row>
-    <row r="50" spans="1:99">
+    <row r="50" spans="1:100">
       <c r="A50" s="1" t="s">
         <v>349</v>
       </c>
@@ -9020,7 +9214,7 @@
         <v>448</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="57" t="s">
+      <c r="I50" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J50" s="1"/>
@@ -9119,8 +9313,9 @@
       <c r="CS50" s="1"/>
       <c r="CT50" s="1"/>
       <c r="CU50" s="1"/>
+      <c r="CV50" s="1"/>
     </row>
-    <row r="51" spans="1:99">
+    <row r="51" spans="1:100">
       <c r="A51" s="1" t="s">
         <v>350</v>
       </c>
@@ -9143,7 +9338,7 @@
         <v>450</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="57" t="s">
+      <c r="I51" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J51" s="1"/>
@@ -9242,8 +9437,9 @@
       <c r="CS51" s="1"/>
       <c r="CT51" s="1"/>
       <c r="CU51" s="1"/>
+      <c r="CV51" s="1"/>
     </row>
-    <row r="52" spans="1:99">
+    <row r="52" spans="1:100">
       <c r="A52" s="1" t="s">
         <v>351</v>
       </c>
@@ -9268,7 +9464,7 @@
       <c r="H52" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="I52" s="57" t="s">
+      <c r="I52" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J52" s="1"/>
@@ -9367,8 +9563,9 @@
       <c r="CS52" s="1"/>
       <c r="CT52" s="1"/>
       <c r="CU52" s="1"/>
+      <c r="CV52" s="1"/>
     </row>
-    <row r="53" spans="1:99">
+    <row r="53" spans="1:100">
       <c r="A53" s="1" t="s">
         <v>352</v>
       </c>
@@ -9393,7 +9590,7 @@
       <c r="H53" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I53" s="57" t="s">
+      <c r="I53" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="1"/>
@@ -9492,8 +9689,9 @@
       <c r="CS53" s="1"/>
       <c r="CT53" s="1"/>
       <c r="CU53" s="1"/>
+      <c r="CV53" s="1"/>
     </row>
-    <row r="54" spans="1:99">
+    <row r="54" spans="1:100">
       <c r="A54" s="1" t="s">
         <v>353</v>
       </c>
@@ -9516,7 +9714,7 @@
         <v>458</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="57" t="s">
+      <c r="I54" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J54" s="1"/>
@@ -9617,8 +9815,9 @@
       <c r="CS54" s="1"/>
       <c r="CT54" s="1"/>
       <c r="CU54" s="1"/>
+      <c r="CV54" s="1"/>
     </row>
-    <row r="55" spans="1:99">
+    <row r="55" spans="1:100">
       <c r="A55" s="1" t="s">
         <v>354</v>
       </c>
@@ -9641,7 +9840,7 @@
         <v>460</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="57" t="s">
+      <c r="I55" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J55" s="1"/>
@@ -9742,8 +9941,9 @@
       <c r="CS55" s="1"/>
       <c r="CT55" s="1"/>
       <c r="CU55" s="1"/>
+      <c r="CV55" s="1"/>
     </row>
-    <row r="56" spans="1:99">
+    <row r="56" spans="1:100">
       <c r="A56" s="1" t="s">
         <v>355</v>
       </c>
@@ -9768,7 +9968,7 @@
       <c r="H56" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I56" s="57" t="s">
+      <c r="I56" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J56" s="1"/>
@@ -9869,8 +10069,9 @@
       <c r="CS56" s="1"/>
       <c r="CT56" s="1"/>
       <c r="CU56" s="1"/>
+      <c r="CV56" s="1"/>
     </row>
-    <row r="57" spans="1:99">
+    <row r="57" spans="1:100">
       <c r="A57" s="1" t="s">
         <v>356</v>
       </c>
@@ -9895,7 +10096,7 @@
       <c r="H57" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I57" s="57" t="s">
+      <c r="I57" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J57" s="1"/>
@@ -9996,8 +10197,9 @@
       <c r="CS57" s="1"/>
       <c r="CT57" s="1"/>
       <c r="CU57" s="1"/>
+      <c r="CV57" s="1"/>
     </row>
-    <row r="58" spans="1:99">
+    <row r="58" spans="1:100">
       <c r="A58" s="1" t="s">
         <v>357</v>
       </c>
@@ -10022,7 +10224,7 @@
       <c r="H58" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I58" s="57" t="s">
+      <c r="I58" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J58" s="1"/>
@@ -10123,8 +10325,9 @@
       <c r="CS58" s="1"/>
       <c r="CT58" s="1"/>
       <c r="CU58" s="1"/>
+      <c r="CV58" s="1"/>
     </row>
-    <row r="59" spans="1:99">
+    <row r="59" spans="1:100">
       <c r="A59" s="1" t="s">
         <v>358</v>
       </c>
@@ -10149,7 +10352,7 @@
       <c r="H59" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I59" s="57" t="s">
+      <c r="I59" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J59" s="1"/>
@@ -10250,8 +10453,9 @@
       <c r="CS59" s="1"/>
       <c r="CT59" s="1"/>
       <c r="CU59" s="1"/>
+      <c r="CV59" s="1"/>
     </row>
-    <row r="60" spans="1:99">
+    <row r="60" spans="1:100">
       <c r="A60" s="1" t="s">
         <v>359</v>
       </c>
@@ -10276,7 +10480,7 @@
       <c r="H60" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I60" s="57" t="s">
+      <c r="I60" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J60" s="1"/>
@@ -10377,8 +10581,9 @@
       <c r="CS60" s="1"/>
       <c r="CT60" s="1"/>
       <c r="CU60" s="1"/>
+      <c r="CV60" s="1"/>
     </row>
-    <row r="61" spans="1:99">
+    <row r="61" spans="1:100">
       <c r="A61" s="1" t="s">
         <v>360</v>
       </c>
@@ -10403,7 +10608,7 @@
       <c r="H61" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="I61" s="57" t="s">
+      <c r="I61" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J61" s="1"/>
@@ -10504,8 +10709,9 @@
       <c r="CS61" s="1"/>
       <c r="CT61" s="1"/>
       <c r="CU61" s="1"/>
+      <c r="CV61" s="1"/>
     </row>
-    <row r="62" spans="1:99">
+    <row r="62" spans="1:100">
       <c r="A62" s="1" t="s">
         <v>361</v>
       </c>
@@ -10530,7 +10736,7 @@
       <c r="H62" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="I62" s="57" t="s">
+      <c r="I62" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J62" s="1"/>
@@ -10631,8 +10837,9 @@
       <c r="CS62" s="1"/>
       <c r="CT62" s="1"/>
       <c r="CU62" s="1"/>
+      <c r="CV62" s="1"/>
     </row>
-    <row r="63" spans="1:99">
+    <row r="63" spans="1:100">
       <c r="A63" s="37" t="s">
         <v>362</v>
       </c>
@@ -10657,7 +10864,7 @@
       <c r="H63" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="I63" s="57" t="s">
+      <c r="I63" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J63" s="37"/>
@@ -10758,8 +10965,9 @@
       <c r="CS63" s="37"/>
       <c r="CT63" s="37"/>
       <c r="CU63" s="37"/>
+      <c r="CV63" s="1"/>
     </row>
-    <row r="64" spans="1:99">
+    <row r="64" spans="1:100">
       <c r="A64" s="1" t="s">
         <v>486</v>
       </c>
@@ -10782,7 +10990,7 @@
         <v>488</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="57" t="s">
+      <c r="I64" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J64" s="1"/>
@@ -10893,8 +11101,9 @@
       <c r="CU64" s="1" t="s">
         <v>496</v>
       </c>
+      <c r="CV64" s="1"/>
     </row>
-    <row r="65" spans="1:99">
+    <row r="65" spans="1:100">
       <c r="A65" s="37" t="s">
         <v>503</v>
       </c>
@@ -11028,8 +11237,9 @@
       <c r="CS65" s="46"/>
       <c r="CT65" s="47"/>
       <c r="CU65" s="37"/>
+      <c r="CV65" s="1"/>
     </row>
-    <row r="66" spans="1:99">
+    <row r="66" spans="1:100">
       <c r="A66" s="1" t="s">
         <v>515</v>
       </c>
@@ -11050,7 +11260,7 @@
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="57" t="s">
+      <c r="I66" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J66" s="1"/>
@@ -11143,8 +11353,9 @@
       <c r="CS66" s="34"/>
       <c r="CT66" s="36"/>
       <c r="CU66" s="1"/>
+      <c r="CV66" s="1"/>
     </row>
-    <row r="67" spans="1:99">
+    <row r="67" spans="1:100">
       <c r="A67" s="1" t="s">
         <v>516</v>
       </c>
@@ -11165,7 +11376,7 @@
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="57" t="s">
+      <c r="I67" s="50" t="s">
         <v>172</v>
       </c>
       <c r="J67" s="1"/>
@@ -11258,6 +11469,2935 @@
       <c r="CS67" s="34"/>
       <c r="CT67" s="36"/>
       <c r="CU67" s="1"/>
+      <c r="CV67" s="37"/>
+    </row>
+    <row r="68" spans="1:100" ht="45">
+      <c r="A68" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D68" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E68" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F68" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G68" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="1"/>
+      <c r="BH68" s="1"/>
+      <c r="BI68" s="1"/>
+      <c r="BJ68" s="1"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="1"/>
+      <c r="BM68" s="1"/>
+      <c r="BN68" s="1"/>
+      <c r="BO68" s="1"/>
+      <c r="BP68" s="1"/>
+      <c r="BQ68" s="1"/>
+      <c r="BR68" s="1"/>
+      <c r="BS68" s="1"/>
+      <c r="BT68" s="1"/>
+      <c r="BU68" s="1"/>
+      <c r="BV68" s="1"/>
+      <c r="BW68" s="1"/>
+      <c r="BX68" s="1"/>
+      <c r="BY68" s="1"/>
+      <c r="BZ68" s="1"/>
+      <c r="CA68" s="1"/>
+      <c r="CB68" s="1"/>
+      <c r="CC68" s="1"/>
+      <c r="CD68" s="1"/>
+      <c r="CE68" s="1"/>
+      <c r="CF68" s="1"/>
+      <c r="CG68" s="1"/>
+      <c r="CH68" s="1"/>
+      <c r="CI68" s="1"/>
+      <c r="CJ68" s="1"/>
+      <c r="CK68" s="1"/>
+      <c r="CL68" s="1"/>
+      <c r="CM68" s="1"/>
+      <c r="CN68" s="1"/>
+      <c r="CO68" s="1"/>
+      <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
+      <c r="CR68" s="35"/>
+      <c r="CS68" s="54"/>
+      <c r="CT68" s="36"/>
+      <c r="CU68" s="1"/>
+      <c r="CV68" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:100" ht="30">
+      <c r="A69" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D69" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E69" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F69" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G69" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="1"/>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="1"/>
+      <c r="BT69" s="1"/>
+      <c r="BU69" s="1"/>
+      <c r="BV69" s="1"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="1"/>
+      <c r="BZ69" s="1"/>
+      <c r="CA69" s="1"/>
+      <c r="CB69" s="1"/>
+      <c r="CC69" s="1"/>
+      <c r="CD69" s="1"/>
+      <c r="CE69" s="1"/>
+      <c r="CF69" s="1"/>
+      <c r="CG69" s="1"/>
+      <c r="CH69" s="1"/>
+      <c r="CI69" s="1"/>
+      <c r="CJ69" s="1"/>
+      <c r="CK69" s="1"/>
+      <c r="CL69" s="1"/>
+      <c r="CM69" s="1"/>
+      <c r="CN69" s="1"/>
+      <c r="CO69" s="1"/>
+      <c r="CP69" s="1"/>
+      <c r="CQ69" s="1"/>
+      <c r="CR69" s="35"/>
+      <c r="CS69" s="54"/>
+      <c r="CT69" s="36"/>
+      <c r="CU69" s="1"/>
+      <c r="CV69" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:100" ht="30">
+      <c r="A70" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F70" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G70" s="52" t="s">
+        <v>528</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
+      <c r="BG70" s="1"/>
+      <c r="BH70" s="1"/>
+      <c r="BI70" s="1"/>
+      <c r="BJ70" s="1"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="1"/>
+      <c r="BM70" s="1"/>
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="1"/>
+      <c r="BR70" s="1"/>
+      <c r="BS70" s="1"/>
+      <c r="BT70" s="1"/>
+      <c r="BU70" s="1"/>
+      <c r="BV70" s="1"/>
+      <c r="BW70" s="1"/>
+      <c r="BX70" s="1"/>
+      <c r="BY70" s="1"/>
+      <c r="BZ70" s="1"/>
+      <c r="CA70" s="1"/>
+      <c r="CB70" s="1"/>
+      <c r="CC70" s="1"/>
+      <c r="CD70" s="1"/>
+      <c r="CE70" s="1"/>
+      <c r="CF70" s="1"/>
+      <c r="CG70" s="1"/>
+      <c r="CH70" s="1"/>
+      <c r="CI70" s="1"/>
+      <c r="CJ70" s="1"/>
+      <c r="CK70" s="1"/>
+      <c r="CL70" s="1"/>
+      <c r="CM70" s="1"/>
+      <c r="CN70" s="1"/>
+      <c r="CO70" s="1"/>
+      <c r="CP70" s="1"/>
+      <c r="CQ70" s="1"/>
+      <c r="CR70" s="35"/>
+      <c r="CS70" s="54"/>
+      <c r="CT70" s="36"/>
+      <c r="CU70" s="1"/>
+      <c r="CV70" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:100" ht="30">
+      <c r="A71" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D71" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E71" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F71" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G71" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="1"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="1"/>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="1"/>
+      <c r="BT71" s="1"/>
+      <c r="BU71" s="1"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="1"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="1"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="1"/>
+      <c r="CB71" s="1"/>
+      <c r="CC71" s="1"/>
+      <c r="CD71" s="1"/>
+      <c r="CE71" s="1"/>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="1"/>
+      <c r="CH71" s="1"/>
+      <c r="CI71" s="1"/>
+      <c r="CJ71" s="1"/>
+      <c r="CK71" s="1"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="1"/>
+      <c r="CN71" s="1"/>
+      <c r="CO71" s="1"/>
+      <c r="CP71" s="1"/>
+      <c r="CQ71" s="1"/>
+      <c r="CR71" s="35"/>
+      <c r="CS71" s="54"/>
+      <c r="CT71" s="36"/>
+      <c r="CU71" s="1"/>
+      <c r="CV71" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:100">
+      <c r="A72" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D72" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E72" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F72" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G72" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
+      <c r="BG72" s="1"/>
+      <c r="BH72" s="1"/>
+      <c r="BI72" s="1"/>
+      <c r="BJ72" s="1"/>
+      <c r="BK72" s="1"/>
+      <c r="BL72" s="1"/>
+      <c r="BM72" s="1"/>
+      <c r="BN72" s="1"/>
+      <c r="BO72" s="1"/>
+      <c r="BP72" s="1"/>
+      <c r="BQ72" s="1"/>
+      <c r="BR72" s="1"/>
+      <c r="BS72" s="1"/>
+      <c r="BT72" s="1"/>
+      <c r="BU72" s="1"/>
+      <c r="BV72" s="1"/>
+      <c r="BW72" s="1"/>
+      <c r="BX72" s="1"/>
+      <c r="BY72" s="1"/>
+      <c r="BZ72" s="1"/>
+      <c r="CA72" s="1"/>
+      <c r="CB72" s="1"/>
+      <c r="CC72" s="1"/>
+      <c r="CD72" s="1"/>
+      <c r="CE72" s="1"/>
+      <c r="CF72" s="1"/>
+      <c r="CG72" s="1"/>
+      <c r="CH72" s="1"/>
+      <c r="CI72" s="1"/>
+      <c r="CJ72" s="1"/>
+      <c r="CK72" s="1"/>
+      <c r="CL72" s="1"/>
+      <c r="CM72" s="1"/>
+      <c r="CN72" s="1"/>
+      <c r="CO72" s="1"/>
+      <c r="CP72" s="1"/>
+      <c r="CQ72" s="1"/>
+      <c r="CR72" s="35"/>
+      <c r="CS72" s="54"/>
+      <c r="CT72" s="36"/>
+      <c r="CU72" s="1"/>
+      <c r="CV72" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:100" ht="30">
+      <c r="A73" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D73" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E73" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F73" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G73" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="1"/>
+      <c r="AV73" s="1"/>
+      <c r="AW73" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="1"/>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="1"/>
+      <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
+      <c r="BD73" s="1"/>
+      <c r="BE73" s="1"/>
+      <c r="BF73" s="1"/>
+      <c r="BG73" s="1"/>
+      <c r="BH73" s="1"/>
+      <c r="BI73" s="1"/>
+      <c r="BJ73" s="1"/>
+      <c r="BK73" s="1"/>
+      <c r="BL73" s="1"/>
+      <c r="BM73" s="1"/>
+      <c r="BN73" s="1"/>
+      <c r="BO73" s="1"/>
+      <c r="BP73" s="1"/>
+      <c r="BQ73" s="1"/>
+      <c r="BR73" s="1"/>
+      <c r="BS73" s="1"/>
+      <c r="BT73" s="1"/>
+      <c r="BU73" s="1"/>
+      <c r="BV73" s="1"/>
+      <c r="BW73" s="1"/>
+      <c r="BX73" s="1"/>
+      <c r="BY73" s="1"/>
+      <c r="BZ73" s="1"/>
+      <c r="CA73" s="1"/>
+      <c r="CB73" s="1"/>
+      <c r="CC73" s="1"/>
+      <c r="CD73" s="1"/>
+      <c r="CE73" s="1"/>
+      <c r="CF73" s="1"/>
+      <c r="CG73" s="1"/>
+      <c r="CH73" s="1"/>
+      <c r="CI73" s="1"/>
+      <c r="CJ73" s="1"/>
+      <c r="CK73" s="1"/>
+      <c r="CL73" s="1"/>
+      <c r="CM73" s="1"/>
+      <c r="CN73" s="1"/>
+      <c r="CO73" s="1"/>
+      <c r="CP73" s="1"/>
+      <c r="CQ73" s="1"/>
+      <c r="CR73" s="35"/>
+      <c r="CS73" s="54"/>
+      <c r="CT73" s="36"/>
+      <c r="CU73" s="1"/>
+      <c r="CV73" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:100">
+      <c r="A74" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D74" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E74" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F74" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G74" s="52" t="s">
+        <v>540</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="1"/>
+      <c r="AU74" s="1"/>
+      <c r="AV74" s="1"/>
+      <c r="AW74" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1"/>
+      <c r="AZ74" s="1"/>
+      <c r="BA74" s="1"/>
+      <c r="BB74" s="1"/>
+      <c r="BC74" s="1"/>
+      <c r="BD74" s="1"/>
+      <c r="BE74" s="1"/>
+      <c r="BF74" s="1"/>
+      <c r="BG74" s="1"/>
+      <c r="BH74" s="1"/>
+      <c r="BI74" s="1"/>
+      <c r="BJ74" s="1"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1"/>
+      <c r="BM74" s="1"/>
+      <c r="BN74" s="1"/>
+      <c r="BO74" s="1"/>
+      <c r="BP74" s="1"/>
+      <c r="BQ74" s="1"/>
+      <c r="BR74" s="1"/>
+      <c r="BS74" s="1"/>
+      <c r="BT74" s="1"/>
+      <c r="BU74" s="1"/>
+      <c r="BV74" s="1"/>
+      <c r="BW74" s="1"/>
+      <c r="BX74" s="1"/>
+      <c r="BY74" s="1"/>
+      <c r="BZ74" s="1"/>
+      <c r="CA74" s="1"/>
+      <c r="CB74" s="1"/>
+      <c r="CC74" s="1"/>
+      <c r="CD74" s="1"/>
+      <c r="CE74" s="1"/>
+      <c r="CF74" s="1"/>
+      <c r="CG74" s="1"/>
+      <c r="CH74" s="1"/>
+      <c r="CI74" s="1"/>
+      <c r="CJ74" s="1"/>
+      <c r="CK74" s="1"/>
+      <c r="CL74" s="1"/>
+      <c r="CM74" s="1"/>
+      <c r="CN74" s="1"/>
+      <c r="CO74" s="1"/>
+      <c r="CP74" s="1"/>
+      <c r="CQ74" s="1"/>
+      <c r="CR74" s="35"/>
+      <c r="CS74" s="54"/>
+      <c r="CT74" s="36"/>
+      <c r="CU74" s="1"/>
+      <c r="CV74" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:100">
+      <c r="A75" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E75" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G75" s="52" t="s">
+        <v>543</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="1"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="1"/>
+      <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
+      <c r="BD75" s="1"/>
+      <c r="BE75" s="1"/>
+      <c r="BF75" s="1"/>
+      <c r="BG75" s="1"/>
+      <c r="BH75" s="1"/>
+      <c r="BI75" s="1"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
+      <c r="BM75" s="1"/>
+      <c r="BN75" s="1"/>
+      <c r="BO75" s="1"/>
+      <c r="BP75" s="1"/>
+      <c r="BQ75" s="1"/>
+      <c r="BR75" s="1"/>
+      <c r="BS75" s="1"/>
+      <c r="BT75" s="1"/>
+      <c r="BU75" s="1"/>
+      <c r="BV75" s="1"/>
+      <c r="BW75" s="1"/>
+      <c r="BX75" s="1"/>
+      <c r="BY75" s="1"/>
+      <c r="BZ75" s="1"/>
+      <c r="CA75" s="1"/>
+      <c r="CB75" s="1"/>
+      <c r="CC75" s="1"/>
+      <c r="CD75" s="1"/>
+      <c r="CE75" s="1"/>
+      <c r="CF75" s="1"/>
+      <c r="CG75" s="1"/>
+      <c r="CH75" s="1"/>
+      <c r="CI75" s="1"/>
+      <c r="CJ75" s="1"/>
+      <c r="CK75" s="1"/>
+      <c r="CL75" s="1"/>
+      <c r="CM75" s="1"/>
+      <c r="CN75" s="1"/>
+      <c r="CO75" s="1"/>
+      <c r="CP75" s="1"/>
+      <c r="CQ75" s="1"/>
+      <c r="CR75" s="35"/>
+      <c r="CS75" s="54"/>
+      <c r="CT75" s="36"/>
+      <c r="CU75" s="1"/>
+      <c r="CV75" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:100">
+      <c r="A76" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E76" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F76" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G76" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="1"/>
+      <c r="AV76" s="1"/>
+      <c r="AW76" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1"/>
+      <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
+      <c r="BD76" s="1"/>
+      <c r="BE76" s="1"/>
+      <c r="BF76" s="1"/>
+      <c r="BG76" s="1"/>
+      <c r="BH76" s="1"/>
+      <c r="BI76" s="1"/>
+      <c r="BJ76" s="1"/>
+      <c r="BK76" s="1"/>
+      <c r="BL76" s="1"/>
+      <c r="BM76" s="1"/>
+      <c r="BN76" s="1"/>
+      <c r="BO76" s="1"/>
+      <c r="BP76" s="1"/>
+      <c r="BQ76" s="1"/>
+      <c r="BR76" s="1"/>
+      <c r="BS76" s="1"/>
+      <c r="BT76" s="1"/>
+      <c r="BU76" s="1"/>
+      <c r="BV76" s="1"/>
+      <c r="BW76" s="1"/>
+      <c r="BX76" s="1"/>
+      <c r="BY76" s="1"/>
+      <c r="BZ76" s="1"/>
+      <c r="CA76" s="1"/>
+      <c r="CB76" s="1"/>
+      <c r="CC76" s="1"/>
+      <c r="CD76" s="1"/>
+      <c r="CE76" s="1"/>
+      <c r="CF76" s="1"/>
+      <c r="CG76" s="1"/>
+      <c r="CH76" s="1"/>
+      <c r="CI76" s="1"/>
+      <c r="CJ76" s="1"/>
+      <c r="CK76" s="1"/>
+      <c r="CL76" s="1"/>
+      <c r="CM76" s="1"/>
+      <c r="CN76" s="1"/>
+      <c r="CO76" s="1"/>
+      <c r="CP76" s="1"/>
+      <c r="CQ76" s="1"/>
+      <c r="CR76" s="35"/>
+      <c r="CS76" s="54"/>
+      <c r="CT76" s="36"/>
+      <c r="CU76" s="1"/>
+      <c r="CV76" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:100">
+      <c r="A77" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D77" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E77" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G77" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="1"/>
+      <c r="BF77" s="1"/>
+      <c r="BG77" s="1"/>
+      <c r="BH77" s="1"/>
+      <c r="BI77" s="1"/>
+      <c r="BJ77" s="1"/>
+      <c r="BK77" s="1"/>
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="1"/>
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="1"/>
+      <c r="BP77" s="1"/>
+      <c r="BQ77" s="1"/>
+      <c r="BR77" s="1"/>
+      <c r="BS77" s="1"/>
+      <c r="BT77" s="1"/>
+      <c r="BU77" s="1"/>
+      <c r="BV77" s="1"/>
+      <c r="BW77" s="1"/>
+      <c r="BX77" s="1"/>
+      <c r="BY77" s="1"/>
+      <c r="BZ77" s="1"/>
+      <c r="CA77" s="1"/>
+      <c r="CB77" s="1"/>
+      <c r="CC77" s="1"/>
+      <c r="CD77" s="1"/>
+      <c r="CE77" s="1"/>
+      <c r="CF77" s="1"/>
+      <c r="CG77" s="1"/>
+      <c r="CH77" s="1"/>
+      <c r="CI77" s="1"/>
+      <c r="CJ77" s="1"/>
+      <c r="CK77" s="1"/>
+      <c r="CL77" s="1"/>
+      <c r="CM77" s="1"/>
+      <c r="CN77" s="1"/>
+      <c r="CO77" s="1"/>
+      <c r="CP77" s="1"/>
+      <c r="CQ77" s="1"/>
+      <c r="CR77" s="35"/>
+      <c r="CS77" s="54"/>
+      <c r="CT77" s="36"/>
+      <c r="CU77" s="1"/>
+      <c r="CV77" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:100">
+      <c r="A78" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D78" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E78" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F78" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G78" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
+      <c r="BD78" s="1"/>
+      <c r="BE78" s="1"/>
+      <c r="BF78" s="1"/>
+      <c r="BG78" s="1"/>
+      <c r="BH78" s="1"/>
+      <c r="BI78" s="1"/>
+      <c r="BJ78" s="1"/>
+      <c r="BK78" s="1"/>
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="1"/>
+      <c r="BN78" s="1"/>
+      <c r="BO78" s="1"/>
+      <c r="BP78" s="1"/>
+      <c r="BQ78" s="1"/>
+      <c r="BR78" s="1"/>
+      <c r="BS78" s="1"/>
+      <c r="BT78" s="1"/>
+      <c r="BU78" s="1"/>
+      <c r="BV78" s="1"/>
+      <c r="BW78" s="1"/>
+      <c r="BX78" s="1"/>
+      <c r="BY78" s="1"/>
+      <c r="BZ78" s="1"/>
+      <c r="CA78" s="1"/>
+      <c r="CB78" s="1"/>
+      <c r="CC78" s="1"/>
+      <c r="CD78" s="1"/>
+      <c r="CE78" s="1"/>
+      <c r="CF78" s="1"/>
+      <c r="CG78" s="1"/>
+      <c r="CH78" s="1"/>
+      <c r="CI78" s="1"/>
+      <c r="CJ78" s="1"/>
+      <c r="CK78" s="1"/>
+      <c r="CL78" s="1"/>
+      <c r="CM78" s="1"/>
+      <c r="CN78" s="1"/>
+      <c r="CO78" s="1"/>
+      <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="35"/>
+      <c r="CS78" s="54"/>
+      <c r="CT78" s="36"/>
+      <c r="CU78" s="1"/>
+      <c r="CV78" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:100" ht="30">
+      <c r="A79" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D79" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E79" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F79" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G79" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="1"/>
+      <c r="BF79" s="1"/>
+      <c r="BG79" s="1"/>
+      <c r="BH79" s="1"/>
+      <c r="BI79" s="1"/>
+      <c r="BJ79" s="1"/>
+      <c r="BK79" s="1"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="1"/>
+      <c r="BN79" s="1"/>
+      <c r="BO79" s="1"/>
+      <c r="BP79" s="1"/>
+      <c r="BQ79" s="1"/>
+      <c r="BR79" s="1"/>
+      <c r="BS79" s="1"/>
+      <c r="BT79" s="1"/>
+      <c r="BU79" s="1"/>
+      <c r="BV79" s="1"/>
+      <c r="BW79" s="1"/>
+      <c r="BX79" s="1"/>
+      <c r="BY79" s="1"/>
+      <c r="BZ79" s="1"/>
+      <c r="CA79" s="1"/>
+      <c r="CB79" s="1"/>
+      <c r="CC79" s="1"/>
+      <c r="CD79" s="1"/>
+      <c r="CE79" s="1"/>
+      <c r="CF79" s="1"/>
+      <c r="CG79" s="1"/>
+      <c r="CH79" s="1"/>
+      <c r="CI79" s="1"/>
+      <c r="CJ79" s="1"/>
+      <c r="CK79" s="1"/>
+      <c r="CL79" s="1"/>
+      <c r="CM79" s="1"/>
+      <c r="CN79" s="1"/>
+      <c r="CO79" s="1"/>
+      <c r="CP79" s="1"/>
+      <c r="CQ79" s="1"/>
+      <c r="CR79" s="35"/>
+      <c r="CS79" s="54"/>
+      <c r="CT79" s="36"/>
+      <c r="CU79" s="1"/>
+      <c r="CV79" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:100">
+      <c r="A80" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D80" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E80" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F80" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G80" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="1"/>
+      <c r="BE80" s="1"/>
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="1"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="1"/>
+      <c r="BM80" s="1"/>
+      <c r="BN80" s="1"/>
+      <c r="BO80" s="1"/>
+      <c r="BP80" s="1"/>
+      <c r="BQ80" s="1"/>
+      <c r="BR80" s="1"/>
+      <c r="BS80" s="1"/>
+      <c r="BT80" s="1"/>
+      <c r="BU80" s="1"/>
+      <c r="BV80" s="1"/>
+      <c r="BW80" s="1"/>
+      <c r="BX80" s="1"/>
+      <c r="BY80" s="1"/>
+      <c r="BZ80" s="1"/>
+      <c r="CA80" s="1"/>
+      <c r="CB80" s="1"/>
+      <c r="CC80" s="1"/>
+      <c r="CD80" s="1"/>
+      <c r="CE80" s="1"/>
+      <c r="CF80" s="1"/>
+      <c r="CG80" s="1"/>
+      <c r="CH80" s="1"/>
+      <c r="CI80" s="1"/>
+      <c r="CJ80" s="1"/>
+      <c r="CK80" s="1"/>
+      <c r="CL80" s="1"/>
+      <c r="CM80" s="1"/>
+      <c r="CN80" s="1"/>
+      <c r="CO80" s="1"/>
+      <c r="CP80" s="1"/>
+      <c r="CQ80" s="1"/>
+      <c r="CR80" s="35"/>
+      <c r="CS80" s="54"/>
+      <c r="CT80" s="36"/>
+      <c r="CU80" s="1"/>
+      <c r="CV80" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:100">
+      <c r="A81" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D81" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E81" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G81" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="1"/>
+      <c r="AV81" s="1"/>
+      <c r="AW81" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="1"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="1"/>
+      <c r="BF81" s="1"/>
+      <c r="BG81" s="1"/>
+      <c r="BH81" s="1"/>
+      <c r="BI81" s="1"/>
+      <c r="BJ81" s="1"/>
+      <c r="BK81" s="1"/>
+      <c r="BL81" s="1"/>
+      <c r="BM81" s="1"/>
+      <c r="BN81" s="1"/>
+      <c r="BO81" s="1"/>
+      <c r="BP81" s="1"/>
+      <c r="BQ81" s="1"/>
+      <c r="BR81" s="1"/>
+      <c r="BS81" s="1"/>
+      <c r="BT81" s="1"/>
+      <c r="BU81" s="1"/>
+      <c r="BV81" s="1"/>
+      <c r="BW81" s="1"/>
+      <c r="BX81" s="1"/>
+      <c r="BY81" s="1"/>
+      <c r="BZ81" s="1"/>
+      <c r="CA81" s="1"/>
+      <c r="CB81" s="1"/>
+      <c r="CC81" s="1"/>
+      <c r="CD81" s="1"/>
+      <c r="CE81" s="1"/>
+      <c r="CF81" s="1"/>
+      <c r="CG81" s="1"/>
+      <c r="CH81" s="1"/>
+      <c r="CI81" s="1"/>
+      <c r="CJ81" s="1"/>
+      <c r="CK81" s="1"/>
+      <c r="CL81" s="1"/>
+      <c r="CM81" s="1"/>
+      <c r="CN81" s="1"/>
+      <c r="CO81" s="1"/>
+      <c r="CP81" s="1"/>
+      <c r="CQ81" s="1"/>
+      <c r="CR81" s="35"/>
+      <c r="CS81" s="54"/>
+      <c r="CT81" s="36"/>
+      <c r="CU81" s="1"/>
+      <c r="CV81" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:100" ht="30">
+      <c r="A82" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D82" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E82" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F82" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G82" s="52" t="s">
+        <v>563</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="1"/>
+      <c r="AV82" s="1"/>
+      <c r="AW82" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1"/>
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="1"/>
+      <c r="BI82" s="1"/>
+      <c r="BJ82" s="1"/>
+      <c r="BK82" s="1"/>
+      <c r="BL82" s="1"/>
+      <c r="BM82" s="1"/>
+      <c r="BN82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="1"/>
+      <c r="BQ82" s="1"/>
+      <c r="BR82" s="1"/>
+      <c r="BS82" s="1"/>
+      <c r="BT82" s="1"/>
+      <c r="BU82" s="1"/>
+      <c r="BV82" s="1"/>
+      <c r="BW82" s="1"/>
+      <c r="BX82" s="1"/>
+      <c r="BY82" s="1"/>
+      <c r="BZ82" s="1"/>
+      <c r="CA82" s="1"/>
+      <c r="CB82" s="1"/>
+      <c r="CC82" s="1"/>
+      <c r="CD82" s="1"/>
+      <c r="CE82" s="1"/>
+      <c r="CF82" s="1"/>
+      <c r="CG82" s="1"/>
+      <c r="CH82" s="1"/>
+      <c r="CI82" s="1"/>
+      <c r="CJ82" s="1"/>
+      <c r="CK82" s="1"/>
+      <c r="CL82" s="1"/>
+      <c r="CM82" s="1"/>
+      <c r="CN82" s="1"/>
+      <c r="CO82" s="1"/>
+      <c r="CP82" s="1"/>
+      <c r="CQ82" s="1"/>
+      <c r="CR82" s="35"/>
+      <c r="CS82" s="54"/>
+      <c r="CT82" s="36"/>
+      <c r="CU82" s="1"/>
+      <c r="CV82" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:100" ht="30">
+      <c r="A83" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D83" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E83" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F83" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G83" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="1"/>
+      <c r="BL83" s="1"/>
+      <c r="BM83" s="1"/>
+      <c r="BN83" s="1"/>
+      <c r="BO83" s="1"/>
+      <c r="BP83" s="1"/>
+      <c r="BQ83" s="1"/>
+      <c r="BR83" s="1"/>
+      <c r="BS83" s="1"/>
+      <c r="BT83" s="1"/>
+      <c r="BU83" s="1"/>
+      <c r="BV83" s="1"/>
+      <c r="BW83" s="1"/>
+      <c r="BX83" s="1"/>
+      <c r="BY83" s="1"/>
+      <c r="BZ83" s="1"/>
+      <c r="CA83" s="1"/>
+      <c r="CB83" s="1"/>
+      <c r="CC83" s="1"/>
+      <c r="CD83" s="1"/>
+      <c r="CE83" s="1"/>
+      <c r="CF83" s="1"/>
+      <c r="CG83" s="1"/>
+      <c r="CH83" s="1"/>
+      <c r="CI83" s="1"/>
+      <c r="CJ83" s="1"/>
+      <c r="CK83" s="1"/>
+      <c r="CL83" s="1"/>
+      <c r="CM83" s="1"/>
+      <c r="CN83" s="1"/>
+      <c r="CO83" s="1"/>
+      <c r="CP83" s="1"/>
+      <c r="CQ83" s="1"/>
+      <c r="CR83" s="35"/>
+      <c r="CS83" s="54"/>
+      <c r="CT83" s="36"/>
+      <c r="CU83" s="1"/>
+      <c r="CV83" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:100">
+      <c r="A84" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D84" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E84" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F84" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G84" s="52" t="s">
+        <v>569</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+      <c r="AT84" s="1"/>
+      <c r="AU84" s="1"/>
+      <c r="AV84" s="1"/>
+      <c r="AW84" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="AX84" s="1"/>
+      <c r="AY84" s="1"/>
+      <c r="AZ84" s="1"/>
+      <c r="BA84" s="1"/>
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="1"/>
+      <c r="BD84" s="1"/>
+      <c r="BE84" s="1"/>
+      <c r="BF84" s="1"/>
+      <c r="BG84" s="1"/>
+      <c r="BH84" s="1"/>
+      <c r="BI84" s="1"/>
+      <c r="BJ84" s="1"/>
+      <c r="BK84" s="1"/>
+      <c r="BL84" s="1"/>
+      <c r="BM84" s="1"/>
+      <c r="BN84" s="1"/>
+      <c r="BO84" s="1"/>
+      <c r="BP84" s="1"/>
+      <c r="BQ84" s="1"/>
+      <c r="BR84" s="1"/>
+      <c r="BS84" s="1"/>
+      <c r="BT84" s="1"/>
+      <c r="BU84" s="1"/>
+      <c r="BV84" s="1"/>
+      <c r="BW84" s="1"/>
+      <c r="BX84" s="1"/>
+      <c r="BY84" s="1"/>
+      <c r="BZ84" s="1"/>
+      <c r="CA84" s="1"/>
+      <c r="CB84" s="1"/>
+      <c r="CC84" s="1"/>
+      <c r="CD84" s="1"/>
+      <c r="CE84" s="1"/>
+      <c r="CF84" s="1"/>
+      <c r="CG84" s="1"/>
+      <c r="CH84" s="1"/>
+      <c r="CI84" s="1"/>
+      <c r="CJ84" s="1"/>
+      <c r="CK84" s="1"/>
+      <c r="CL84" s="1"/>
+      <c r="CM84" s="1"/>
+      <c r="CN84" s="1"/>
+      <c r="CO84" s="1"/>
+      <c r="CP84" s="1"/>
+      <c r="CQ84" s="1"/>
+      <c r="CR84" s="35"/>
+      <c r="CS84" s="54"/>
+      <c r="CT84" s="36"/>
+      <c r="CU84" s="1"/>
+      <c r="CV84" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:100">
+      <c r="A85" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D85" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E85" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G85" s="52" t="s">
+        <v>572</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1"/>
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="1"/>
+      <c r="BN85" s="1"/>
+      <c r="BO85" s="1"/>
+      <c r="BP85" s="1"/>
+      <c r="BQ85" s="1"/>
+      <c r="BR85" s="1"/>
+      <c r="BS85" s="1"/>
+      <c r="BT85" s="1"/>
+      <c r="BU85" s="1"/>
+      <c r="BV85" s="1"/>
+      <c r="BW85" s="1"/>
+      <c r="BX85" s="1"/>
+      <c r="BY85" s="1"/>
+      <c r="BZ85" s="1"/>
+      <c r="CA85" s="1"/>
+      <c r="CB85" s="1"/>
+      <c r="CC85" s="1"/>
+      <c r="CD85" s="1"/>
+      <c r="CE85" s="1"/>
+      <c r="CF85" s="1"/>
+      <c r="CG85" s="1"/>
+      <c r="CH85" s="1"/>
+      <c r="CI85" s="1"/>
+      <c r="CJ85" s="1"/>
+      <c r="CK85" s="1"/>
+      <c r="CL85" s="1"/>
+      <c r="CM85" s="1"/>
+      <c r="CN85" s="1"/>
+      <c r="CO85" s="1"/>
+      <c r="CP85" s="1"/>
+      <c r="CQ85" s="1"/>
+      <c r="CR85" s="35"/>
+      <c r="CS85" s="54"/>
+      <c r="CT85" s="36"/>
+      <c r="CU85" s="1"/>
+      <c r="CV85" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:100">
+      <c r="A86" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D86" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E86" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F86" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G86" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="1"/>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1"/>
+      <c r="BL86" s="1"/>
+      <c r="BM86" s="1"/>
+      <c r="BN86" s="1"/>
+      <c r="BO86" s="1"/>
+      <c r="BP86" s="1"/>
+      <c r="BQ86" s="1"/>
+      <c r="BR86" s="1"/>
+      <c r="BS86" s="1"/>
+      <c r="BT86" s="1"/>
+      <c r="BU86" s="1"/>
+      <c r="BV86" s="1"/>
+      <c r="BW86" s="1"/>
+      <c r="BX86" s="1"/>
+      <c r="BY86" s="1"/>
+      <c r="BZ86" s="1"/>
+      <c r="CA86" s="1"/>
+      <c r="CB86" s="1"/>
+      <c r="CC86" s="1"/>
+      <c r="CD86" s="1"/>
+      <c r="CE86" s="1"/>
+      <c r="CF86" s="1"/>
+      <c r="CG86" s="1"/>
+      <c r="CH86" s="1"/>
+      <c r="CI86" s="1"/>
+      <c r="CJ86" s="1"/>
+      <c r="CK86" s="1"/>
+      <c r="CL86" s="1"/>
+      <c r="CM86" s="1"/>
+      <c r="CN86" s="1"/>
+      <c r="CO86" s="1"/>
+      <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="35"/>
+      <c r="CS86" s="54"/>
+      <c r="CT86" s="36"/>
+      <c r="CU86" s="1"/>
+      <c r="CV86" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:100" ht="30">
+      <c r="A87" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D87" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E87" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F87" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G87" s="52" t="s">
+        <v>578</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="1"/>
+      <c r="BH87" s="1"/>
+      <c r="BI87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+      <c r="BL87" s="1"/>
+      <c r="BM87" s="1"/>
+      <c r="BN87" s="1"/>
+      <c r="BO87" s="1"/>
+      <c r="BP87" s="1"/>
+      <c r="BQ87" s="1"/>
+      <c r="BR87" s="1"/>
+      <c r="BS87" s="1"/>
+      <c r="BT87" s="1"/>
+      <c r="BU87" s="1"/>
+      <c r="BV87" s="1"/>
+      <c r="BW87" s="1"/>
+      <c r="BX87" s="1"/>
+      <c r="BY87" s="1"/>
+      <c r="BZ87" s="1"/>
+      <c r="CA87" s="1"/>
+      <c r="CB87" s="1"/>
+      <c r="CC87" s="1"/>
+      <c r="CD87" s="1"/>
+      <c r="CE87" s="1"/>
+      <c r="CF87" s="1"/>
+      <c r="CG87" s="1"/>
+      <c r="CH87" s="1"/>
+      <c r="CI87" s="1"/>
+      <c r="CJ87" s="1"/>
+      <c r="CK87" s="1"/>
+      <c r="CL87" s="1"/>
+      <c r="CM87" s="1"/>
+      <c r="CN87" s="1"/>
+      <c r="CO87" s="1"/>
+      <c r="CP87" s="1"/>
+      <c r="CQ87" s="1"/>
+      <c r="CR87" s="35"/>
+      <c r="CS87" s="54"/>
+      <c r="CT87" s="36"/>
+      <c r="CU87" s="1"/>
+      <c r="CV87" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:100" ht="30">
+      <c r="A88" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D88" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E88" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F88" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G88" s="52" t="s">
+        <v>581</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
+      <c r="BD88" s="1"/>
+      <c r="BE88" s="1"/>
+      <c r="BF88" s="1"/>
+      <c r="BG88" s="1"/>
+      <c r="BH88" s="1"/>
+      <c r="BI88" s="1"/>
+      <c r="BJ88" s="1"/>
+      <c r="BK88" s="1"/>
+      <c r="BL88" s="1"/>
+      <c r="BM88" s="1"/>
+      <c r="BN88" s="1"/>
+      <c r="BO88" s="1"/>
+      <c r="BP88" s="1"/>
+      <c r="BQ88" s="1"/>
+      <c r="BR88" s="1"/>
+      <c r="BS88" s="1"/>
+      <c r="BT88" s="1"/>
+      <c r="BU88" s="1"/>
+      <c r="BV88" s="1"/>
+      <c r="BW88" s="1"/>
+      <c r="BX88" s="1"/>
+      <c r="BY88" s="1"/>
+      <c r="BZ88" s="1"/>
+      <c r="CA88" s="1"/>
+      <c r="CB88" s="1"/>
+      <c r="CC88" s="1"/>
+      <c r="CD88" s="1"/>
+      <c r="CE88" s="1"/>
+      <c r="CF88" s="1"/>
+      <c r="CG88" s="1"/>
+      <c r="CH88" s="1"/>
+      <c r="CI88" s="1"/>
+      <c r="CJ88" s="1"/>
+      <c r="CK88" s="1"/>
+      <c r="CL88" s="1"/>
+      <c r="CM88" s="1"/>
+      <c r="CN88" s="1"/>
+      <c r="CO88" s="1"/>
+      <c r="CP88" s="1"/>
+      <c r="CQ88" s="1"/>
+      <c r="CR88" s="35"/>
+      <c r="CS88" s="54"/>
+      <c r="CT88" s="36"/>
+      <c r="CU88" s="1"/>
+      <c r="CV88" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:100">
+      <c r="A89" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D89" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E89" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F89" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G89" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
+      <c r="BD89" s="1"/>
+      <c r="BE89" s="1"/>
+      <c r="BF89" s="1"/>
+      <c r="BG89" s="1"/>
+      <c r="BH89" s="1"/>
+      <c r="BI89" s="1"/>
+      <c r="BJ89" s="1"/>
+      <c r="BK89" s="1"/>
+      <c r="BL89" s="1"/>
+      <c r="BM89" s="1"/>
+      <c r="BN89" s="1"/>
+      <c r="BO89" s="1"/>
+      <c r="BP89" s="1"/>
+      <c r="BQ89" s="1"/>
+      <c r="BR89" s="1"/>
+      <c r="BS89" s="1"/>
+      <c r="BT89" s="1"/>
+      <c r="BU89" s="1"/>
+      <c r="BV89" s="1"/>
+      <c r="BW89" s="1"/>
+      <c r="BX89" s="1"/>
+      <c r="BY89" s="1"/>
+      <c r="BZ89" s="1"/>
+      <c r="CA89" s="1"/>
+      <c r="CB89" s="1"/>
+      <c r="CC89" s="1"/>
+      <c r="CD89" s="1"/>
+      <c r="CE89" s="1"/>
+      <c r="CF89" s="1"/>
+      <c r="CG89" s="1"/>
+      <c r="CH89" s="1"/>
+      <c r="CI89" s="1"/>
+      <c r="CJ89" s="1"/>
+      <c r="CK89" s="1"/>
+      <c r="CL89" s="1"/>
+      <c r="CM89" s="1"/>
+      <c r="CN89" s="1"/>
+      <c r="CO89" s="1"/>
+      <c r="CP89" s="1"/>
+      <c r="CQ89" s="1"/>
+      <c r="CR89" s="35"/>
+      <c r="CS89" s="54"/>
+      <c r="CT89" s="36"/>
+      <c r="CU89" s="1"/>
+      <c r="CV89" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:100" ht="30">
+      <c r="A90" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D90" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E90" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F90" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G90" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="1"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="1"/>
+      <c r="BN90" s="1"/>
+      <c r="BO90" s="1"/>
+      <c r="BP90" s="1"/>
+      <c r="BQ90" s="1"/>
+      <c r="BR90" s="1"/>
+      <c r="BS90" s="1"/>
+      <c r="BT90" s="1"/>
+      <c r="BU90" s="1"/>
+      <c r="BV90" s="1"/>
+      <c r="BW90" s="1"/>
+      <c r="BX90" s="1"/>
+      <c r="BY90" s="1"/>
+      <c r="BZ90" s="1"/>
+      <c r="CA90" s="1"/>
+      <c r="CB90" s="1"/>
+      <c r="CC90" s="1"/>
+      <c r="CD90" s="1"/>
+      <c r="CE90" s="1"/>
+      <c r="CF90" s="1"/>
+      <c r="CG90" s="1"/>
+      <c r="CH90" s="1"/>
+      <c r="CI90" s="1"/>
+      <c r="CJ90" s="1"/>
+      <c r="CK90" s="1"/>
+      <c r="CL90" s="1"/>
+      <c r="CM90" s="1"/>
+      <c r="CN90" s="1"/>
+      <c r="CO90" s="1"/>
+      <c r="CP90" s="1"/>
+      <c r="CQ90" s="1"/>
+      <c r="CR90" s="35"/>
+      <c r="CS90" s="54"/>
+      <c r="CT90" s="36"/>
+      <c r="CU90" s="1"/>
+      <c r="CV90" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:100" ht="30">
+      <c r="A91" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D91" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="E91" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F91" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G91" s="52" t="s">
+        <v>590</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="1"/>
+      <c r="BE91" s="1"/>
+      <c r="BF91" s="1"/>
+      <c r="BG91" s="1"/>
+      <c r="BH91" s="1"/>
+      <c r="BI91" s="1"/>
+      <c r="BJ91" s="1"/>
+      <c r="BK91" s="1"/>
+      <c r="BL91" s="1"/>
+      <c r="BM91" s="1"/>
+      <c r="BN91" s="1"/>
+      <c r="BO91" s="1"/>
+      <c r="BP91" s="1"/>
+      <c r="BQ91" s="1"/>
+      <c r="BR91" s="1"/>
+      <c r="BS91" s="1"/>
+      <c r="BT91" s="1"/>
+      <c r="BU91" s="1"/>
+      <c r="BV91" s="1"/>
+      <c r="BW91" s="1"/>
+      <c r="BX91" s="1"/>
+      <c r="BY91" s="1"/>
+      <c r="BZ91" s="1"/>
+      <c r="CA91" s="1"/>
+      <c r="CB91" s="1"/>
+      <c r="CC91" s="1"/>
+      <c r="CD91" s="1"/>
+      <c r="CE91" s="1"/>
+      <c r="CF91" s="1"/>
+      <c r="CG91" s="1"/>
+      <c r="CH91" s="1"/>
+      <c r="CI91" s="1"/>
+      <c r="CJ91" s="1"/>
+      <c r="CK91" s="1"/>
+      <c r="CL91" s="1"/>
+      <c r="CM91" s="1"/>
+      <c r="CN91" s="1"/>
+      <c r="CO91" s="1"/>
+      <c r="CP91" s="1"/>
+      <c r="CQ91" s="1"/>
+      <c r="CR91" s="35"/>
+      <c r="CS91" s="54"/>
+      <c r="CT91" s="36"/>
+      <c r="CU91" s="1"/>
+      <c r="CV91" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10445CD-9DE6-4B08-BBFF-9E4BFD1D5070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="599">
   <si>
     <t>Environment</t>
   </si>
@@ -1890,11 +1889,29 @@
   <si>
     <t>account_id</t>
   </si>
+  <si>
+    <t>Multi Question Branching Data Test</t>
+  </si>
+  <si>
+    <t>SID: 1104, mqb1</t>
+  </si>
+  <si>
+    <t>DP mqb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page </t>
+  </si>
+  <si>
+    <t>Qtitle, AnswerOptions, Page no validation</t>
+  </si>
+  <si>
+    <t>Smoke_TC109</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -2173,12 +2190,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="4"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2455,7 +2472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2497,7 +2514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2535,19 +2552,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2673,22 +2690,22 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CV91"/>
+  <dimension ref="A1:CV92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CW8" sqref="CW8"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14399,16 +14416,140 @@
         <v>271</v>
       </c>
     </row>
+    <row r="92" spans="1:100">
+      <c r="A92" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="D92" s="51" t="s">
+        <v>504</v>
+      </c>
+      <c r="E92" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="51" t="s">
+        <v>593</v>
+      </c>
+      <c r="G92" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="1"/>
+      <c r="AO92" s="1"/>
+      <c r="AP92" s="1"/>
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AU92" s="1"/>
+      <c r="AV92" s="1"/>
+      <c r="AW92" s="32"/>
+      <c r="AX92" s="1"/>
+      <c r="AY92" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ92" s="1"/>
+      <c r="BA92" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="BB92" s="1"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="1"/>
+      <c r="BE92" s="1"/>
+      <c r="BF92" s="1"/>
+      <c r="BG92" s="1"/>
+      <c r="BH92" s="1"/>
+      <c r="BI92" s="1"/>
+      <c r="BJ92" s="1"/>
+      <c r="BK92" s="1"/>
+      <c r="BL92" s="1"/>
+      <c r="BM92" s="1"/>
+      <c r="BN92" s="1"/>
+      <c r="BO92" s="1"/>
+      <c r="BP92" s="1"/>
+      <c r="BQ92" s="1"/>
+      <c r="BR92" s="1"/>
+      <c r="BS92" s="1"/>
+      <c r="BT92" s="1"/>
+      <c r="BU92" s="1"/>
+      <c r="BV92" s="1"/>
+      <c r="BW92" s="1"/>
+      <c r="BX92" s="1"/>
+      <c r="BY92" s="1"/>
+      <c r="BZ92" s="1"/>
+      <c r="CA92" s="1"/>
+      <c r="CB92" s="1"/>
+      <c r="CC92" s="1"/>
+      <c r="CD92" s="1"/>
+      <c r="CE92" s="1"/>
+      <c r="CF92" s="1"/>
+      <c r="CG92" s="1"/>
+      <c r="CH92" s="1"/>
+      <c r="CI92" s="1"/>
+      <c r="CJ92" s="1"/>
+      <c r="CK92" s="1"/>
+      <c r="CL92" s="1"/>
+      <c r="CM92" s="1"/>
+      <c r="CN92" s="1"/>
+      <c r="CO92" s="1"/>
+      <c r="CP92" s="1"/>
+      <c r="CQ92" s="1"/>
+      <c r="CR92" s="35"/>
+      <c r="CS92" s="54"/>
+      <c r="CT92" s="36"/>
+      <c r="CU92" s="1"/>
+      <c r="CV92" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="CT10" r:id="rId3" xr:uid="{6123476F-0050-4925-8DBC-AB609BAAA7D4}"/>
-    <hyperlink ref="CT11" r:id="rId4" xr:uid="{89EA44E5-38BF-49D1-A854-AC4813788208}"/>
-    <hyperlink ref="CT12" r:id="rId5" xr:uid="{073ABEE9-57DD-4685-BD80-8A73B5346449}"/>
-    <hyperlink ref="W11:W13" r:id="rId6" display="aansari1@zarca.com" xr:uid="{65126EFA-2220-4361-B5A0-06AEBB56F0BB}"/>
-    <hyperlink ref="CT13" r:id="rId7" xr:uid="{58864C70-8DDA-472A-B8D4-ABB498DCD2BC}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com"/>
+    <hyperlink ref="CT10" r:id="rId3"/>
+    <hyperlink ref="CT11" r:id="rId4"/>
+    <hyperlink ref="CT12" r:id="rId5"/>
+    <hyperlink ref="W11:W13" r:id="rId6" display="aansari1@zarca.com"/>
+    <hyperlink ref="CT13" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="717">
   <si>
     <t>Environment</t>
   </si>
@@ -1892,12 +1892,381 @@
   <si>
     <t>PASS</t>
   </si>
+  <si>
+    <t>Smoke_TC110</t>
+  </si>
+  <si>
+    <t>Master Log</t>
+  </si>
+  <si>
+    <t>Export All</t>
+  </si>
+  <si>
+    <t>Search Box</t>
+  </si>
+  <si>
+    <t>Masterlog.xls</t>
+  </si>
+  <si>
+    <t>anas</t>
+  </si>
+  <si>
+    <t>searchfor</t>
+  </si>
+  <si>
+    <t>subscription_status</t>
+  </si>
+  <si>
+    <t>Unsubscribed</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Smoke_TC111</t>
+  </si>
+  <si>
+    <t>Smoke_TC112</t>
+  </si>
+  <si>
+    <t>Unsubsribe Status</t>
+  </si>
+  <si>
+    <t>Ok Status</t>
+  </si>
+  <si>
+    <t>Smoke_TC113</t>
+  </si>
+  <si>
+    <t>Smoke_TC114</t>
+  </si>
+  <si>
+    <t>Tool Tip :Learn More</t>
+  </si>
+  <si>
+    <t>New Entry</t>
+  </si>
+  <si>
+    <t>Master Log Sample TextBox</t>
+  </si>
+  <si>
+    <t>amulla@sogolytics.com</t>
+  </si>
+  <si>
+    <t>MasterLog</t>
+  </si>
+  <si>
+    <t>Smoke_TC115</t>
+  </si>
+  <si>
+    <t>aplhabet_number</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Smoke_TC116</t>
+  </si>
+  <si>
+    <t>Smoke_TC117</t>
+  </si>
+  <si>
+    <t>Smoke_TC118</t>
+  </si>
+  <si>
+    <t>Smoke_TC119</t>
+  </si>
+  <si>
+    <t>Smoke_TC120</t>
+  </si>
+  <si>
+    <t>Smoke_TC121</t>
+  </si>
+  <si>
+    <t>Smoke_TC122</t>
+  </si>
+  <si>
+    <t>Smoke_TC123</t>
+  </si>
+  <si>
+    <t>Smoke_TC124</t>
+  </si>
+  <si>
+    <t>Smoke_TC125</t>
+  </si>
+  <si>
+    <t>Smoke_TC126</t>
+  </si>
+  <si>
+    <t>Smoke_TC127</t>
+  </si>
+  <si>
+    <t>Smoke_TC128</t>
+  </si>
+  <si>
+    <t>Smoke_TC129</t>
+  </si>
+  <si>
+    <t>Smoke_TC130</t>
+  </si>
+  <si>
+    <t>Smoke_TC131</t>
+  </si>
+  <si>
+    <t>Smoke_TC132</t>
+  </si>
+  <si>
+    <t>Smoke_TC133</t>
+  </si>
+  <si>
+    <t>Smoke_TC134</t>
+  </si>
+  <si>
+    <t>Smoke_TC135</t>
+  </si>
+  <si>
+    <t>Smoke_TC136</t>
+  </si>
+  <si>
+    <t>Smoke_TC137</t>
+  </si>
+  <si>
+    <t>Smoke_TC138</t>
+  </si>
+  <si>
+    <t>Smoke_TC139</t>
+  </si>
+  <si>
+    <t>Smoke_TC140</t>
+  </si>
+  <si>
+    <t>Smoke_TC141</t>
+  </si>
+  <si>
+    <t>Smoke_TC142</t>
+  </si>
+  <si>
+    <t>Smoke_TC143</t>
+  </si>
+  <si>
+    <t>Smoke_TC144</t>
+  </si>
+  <si>
+    <t>Smoke_TC145</t>
+  </si>
+  <si>
+    <t>Smoke_TC146</t>
+  </si>
+  <si>
+    <t>Smoke_TC147</t>
+  </si>
+  <si>
+    <t>Filter Keyword : A</t>
+  </si>
+  <si>
+    <t>Filter Keyword : B</t>
+  </si>
+  <si>
+    <t>Filter Keyword : C</t>
+  </si>
+  <si>
+    <t>Filter Keyword : D</t>
+  </si>
+  <si>
+    <t>Filter Keyword : E</t>
+  </si>
+  <si>
+    <t>Filter Keyword : F</t>
+  </si>
+  <si>
+    <t>Filter Keyword : G</t>
+  </si>
+  <si>
+    <t>Filter Keyword : H</t>
+  </si>
+  <si>
+    <t>Filter Keyword : I</t>
+  </si>
+  <si>
+    <t>Filter Keyword : J</t>
+  </si>
+  <si>
+    <t>Filter Keyword : K</t>
+  </si>
+  <si>
+    <t>Filter Keyword : L</t>
+  </si>
+  <si>
+    <t>Filter Keyword : M</t>
+  </si>
+  <si>
+    <t>Filter Keyword : N</t>
+  </si>
+  <si>
+    <t>Filter Keyword : O</t>
+  </si>
+  <si>
+    <t>Filter Keyword : P</t>
+  </si>
+  <si>
+    <t>Filter Keyword : Q</t>
+  </si>
+  <si>
+    <t>Filter Keyword : R</t>
+  </si>
+  <si>
+    <t>Filter Keyword : S</t>
+  </si>
+  <si>
+    <t>Filter Keyword : T</t>
+  </si>
+  <si>
+    <t>Filter Keyword : U</t>
+  </si>
+  <si>
+    <t>Filter Keyword : V</t>
+  </si>
+  <si>
+    <t>Filter Keyword : W</t>
+  </si>
+  <si>
+    <t>Filter Keyword : X</t>
+  </si>
+  <si>
+    <t>Filter Keyword : Y</t>
+  </si>
+  <si>
+    <t>Filter Keyword : Z</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 0</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 1</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 2</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 3</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 4</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 5</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 6</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 7</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 8</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 9</t>
+  </si>
+  <si>
+    <t>Smoke_TC148</t>
+  </si>
+  <si>
+    <t>Smoke_TC149</t>
+  </si>
+  <si>
+    <t>Smoke_TC150</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Smoke_TC151</t>
+  </si>
+  <si>
+    <t>Pagation</t>
+  </si>
+  <si>
+    <t>Smoke_TC152</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1956,11 +2325,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1972,7 +2336,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2027,7 +2391,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
@@ -2037,12 +2401,27 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2104,6 +2483,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2114,7 +2517,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2168,11 +2571,29 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2688,10 +3109,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CV91"/>
+  <dimension ref="A1:CY136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2716,7 +3137,7 @@
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:103">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -3014,11 +3435,20 @@
       <c r="CU1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="CV1" s="35" t="s">
+      <c r="CV1" s="52" t="s">
         <v>592</v>
       </c>
+      <c r="CW1" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="CY1" s="64" t="s">
+        <v>616</v>
+      </c>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:103">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3041,7 +3471,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J2" s="4"/>
@@ -3136,9 +3566,12 @@
       <c r="CS2" s="1"/>
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
-      <c r="CV2" s="1"/>
+      <c r="CV2" s="53"/>
+      <c r="CW2" s="53"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3" spans="1:103">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -3161,7 +3594,7 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3336,9 +3769,12 @@
       <c r="CS3" s="1"/>
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
-      <c r="CV3" s="1"/>
+      <c r="CV3" s="53"/>
+      <c r="CW3" s="53"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
     </row>
-    <row r="4" spans="1:100">
+    <row r="4" spans="1:103">
       <c r="A4" s="1" t="s">
         <v>181</v>
       </c>
@@ -3361,7 +3797,7 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -3470,9 +3906,12 @@
       <c r="CS4" s="1"/>
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
-      <c r="CV4" s="1"/>
+      <c r="CV4" s="53"/>
+      <c r="CW4" s="53"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1"/>
     </row>
-    <row r="5" spans="1:100">
+    <row r="5" spans="1:103">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -3495,7 +3934,7 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J5" s="11"/>
@@ -3602,9 +4041,12 @@
       <c r="CS5" s="1"/>
       <c r="CT5" s="1"/>
       <c r="CU5" s="1"/>
-      <c r="CV5" s="1"/>
+      <c r="CV5" s="53"/>
+      <c r="CW5" s="53"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
     </row>
-    <row r="6" spans="1:100">
+    <row r="6" spans="1:103">
       <c r="A6" s="1" t="s">
         <v>183</v>
       </c>
@@ -3627,7 +4069,7 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J6" s="11"/>
@@ -3724,9 +4166,12 @@
       <c r="CS6" s="1"/>
       <c r="CT6" s="1"/>
       <c r="CU6" s="1"/>
-      <c r="CV6" s="1"/>
+      <c r="CV6" s="53"/>
+      <c r="CW6" s="53"/>
+      <c r="CX6" s="1"/>
+      <c r="CY6" s="1"/>
     </row>
-    <row r="7" spans="1:100">
+    <row r="7" spans="1:103">
       <c r="A7" s="1" t="s">
         <v>184</v>
       </c>
@@ -3749,7 +4194,7 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -3850,9 +4295,12 @@
       <c r="CS7" s="1"/>
       <c r="CT7" s="1"/>
       <c r="CU7" s="1"/>
-      <c r="CV7" s="1"/>
+      <c r="CV7" s="53"/>
+      <c r="CW7" s="53"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1"/>
     </row>
-    <row r="8" spans="1:100">
+    <row r="8" spans="1:103">
       <c r="A8" s="1" t="s">
         <v>185</v>
       </c>
@@ -3875,7 +4323,7 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J8" s="11"/>
@@ -3974,9 +4422,12 @@
       <c r="CS8" s="1"/>
       <c r="CT8" s="1"/>
       <c r="CU8" s="1"/>
-      <c r="CV8" s="1"/>
+      <c r="CV8" s="53"/>
+      <c r="CW8" s="53"/>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1"/>
     </row>
-    <row r="9" spans="1:100">
+    <row r="9" spans="1:103">
       <c r="A9" s="1" t="s">
         <v>186</v>
       </c>
@@ -3997,7 +4448,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J9" s="1"/>
@@ -4104,9 +4555,12 @@
       <c r="CS9" s="1"/>
       <c r="CT9" s="1"/>
       <c r="CU9" s="1"/>
-      <c r="CV9" s="1"/>
+      <c r="CV9" s="53"/>
+      <c r="CW9" s="53"/>
+      <c r="CX9" s="1"/>
+      <c r="CY9" s="1"/>
     </row>
-    <row r="10" spans="1:100">
+    <row r="10" spans="1:103">
       <c r="A10" s="1" t="s">
         <v>187</v>
       </c>
@@ -4129,8 +4583,8 @@
         <v>190</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="53" t="s">
-        <v>172</v>
+      <c r="I10" s="57" t="s">
+        <v>593</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>320</v>
@@ -4236,9 +4690,12 @@
       <c r="CS10" s="1"/>
       <c r="CT10" s="1"/>
       <c r="CU10" s="1"/>
-      <c r="CV10" s="1"/>
+      <c r="CV10" s="53"/>
+      <c r="CW10" s="53"/>
+      <c r="CX10" s="1"/>
+      <c r="CY10" s="1"/>
     </row>
-    <row r="11" spans="1:100">
+    <row r="11" spans="1:103">
       <c r="A11" s="1" t="s">
         <v>192</v>
       </c>
@@ -4261,8 +4718,8 @@
         <v>194</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="53" t="s">
-        <v>172</v>
+      <c r="I11" s="57" t="s">
+        <v>593</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>317</v>
@@ -4364,9 +4821,12 @@
       <c r="CS11" s="1"/>
       <c r="CT11" s="1"/>
       <c r="CU11" s="1"/>
-      <c r="CV11" s="1"/>
+      <c r="CV11" s="53"/>
+      <c r="CW11" s="53"/>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
     </row>
-    <row r="12" spans="1:100">
+    <row r="12" spans="1:103">
       <c r="A12" s="1" t="s">
         <v>196</v>
       </c>
@@ -4389,8 +4849,8 @@
         <v>198</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="53" t="s">
-        <v>172</v>
+      <c r="I12" s="57" t="s">
+        <v>593</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>317</v>
@@ -4492,9 +4952,12 @@
       <c r="CS12" s="1"/>
       <c r="CT12" s="1"/>
       <c r="CU12" s="1"/>
-      <c r="CV12" s="1"/>
+      <c r="CV12" s="53"/>
+      <c r="CW12" s="53"/>
+      <c r="CX12" s="1"/>
+      <c r="CY12" s="1"/>
     </row>
-    <row r="13" spans="1:100">
+    <row r="13" spans="1:103">
       <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
@@ -4517,8 +4980,8 @@
         <v>202</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="53" t="s">
-        <v>172</v>
+      <c r="I13" s="57" t="s">
+        <v>593</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>317</v>
@@ -4620,9 +5083,12 @@
       <c r="CS13" s="1"/>
       <c r="CT13" s="1"/>
       <c r="CU13" s="1"/>
-      <c r="CV13" s="1"/>
+      <c r="CV13" s="53"/>
+      <c r="CW13" s="53"/>
+      <c r="CX13" s="1"/>
+      <c r="CY13" s="1"/>
     </row>
-    <row r="14" spans="1:100">
+    <row r="14" spans="1:103">
       <c r="A14" s="20" t="s">
         <v>204</v>
       </c>
@@ -4645,8 +5111,8 @@
         <v>206</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="53" t="s">
-        <v>172</v>
+      <c r="I14" s="57" t="s">
+        <v>593</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>317</v>
@@ -4748,9 +5214,12 @@
       <c r="CS14" s="1"/>
       <c r="CT14" s="1"/>
       <c r="CU14" s="1"/>
-      <c r="CV14" s="1"/>
+      <c r="CV14" s="53"/>
+      <c r="CW14" s="53"/>
+      <c r="CX14" s="1"/>
+      <c r="CY14" s="1"/>
     </row>
-    <row r="15" spans="1:100">
+    <row r="15" spans="1:103">
       <c r="A15" s="1" t="s">
         <v>216</v>
       </c>
@@ -4773,7 +5242,7 @@
       <c r="H15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -4882,9 +5351,12 @@
       <c r="CS15" s="1"/>
       <c r="CT15" s="1"/>
       <c r="CU15" s="1"/>
-      <c r="CV15" s="1"/>
+      <c r="CV15" s="53"/>
+      <c r="CW15" s="53"/>
+      <c r="CX15" s="1"/>
+      <c r="CY15" s="1"/>
     </row>
-    <row r="16" spans="1:100">
+    <row r="16" spans="1:103">
       <c r="A16" s="1" t="s">
         <v>219</v>
       </c>
@@ -4905,8 +5377,8 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="53" t="s">
-        <v>172</v>
+      <c r="I16" s="57" t="s">
+        <v>593</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="1"/>
@@ -5004,9 +5476,12 @@
       <c r="CS16" s="1"/>
       <c r="CT16" s="1"/>
       <c r="CU16" s="1"/>
-      <c r="CV16" s="1"/>
+      <c r="CV16" s="53"/>
+      <c r="CW16" s="53"/>
+      <c r="CX16" s="1"/>
+      <c r="CY16" s="1"/>
     </row>
-    <row r="17" spans="1:100">
+    <row r="17" spans="1:103">
       <c r="A17" s="1" t="s">
         <v>224</v>
       </c>
@@ -5027,8 +5502,8 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="53" t="s">
-        <v>172</v>
+      <c r="I17" s="57" t="s">
+        <v>593</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
@@ -5126,9 +5601,12 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
-      <c r="CV17" s="1"/>
+      <c r="CV17" s="53"/>
+      <c r="CW17" s="53"/>
+      <c r="CX17" s="1"/>
+      <c r="CY17" s="1"/>
     </row>
-    <row r="18" spans="1:100">
+    <row r="18" spans="1:103">
       <c r="A18" s="1" t="s">
         <v>230</v>
       </c>
@@ -5151,7 +5629,7 @@
         <v>273</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J18" s="26"/>
@@ -5254,9 +5732,12 @@
       <c r="CS18" s="1"/>
       <c r="CT18" s="1"/>
       <c r="CU18" s="1"/>
-      <c r="CV18" s="1"/>
+      <c r="CV18" s="53"/>
+      <c r="CW18" s="53"/>
+      <c r="CX18" s="1"/>
+      <c r="CY18" s="1"/>
     </row>
-    <row r="19" spans="1:100">
+    <row r="19" spans="1:103">
       <c r="A19" s="1" t="s">
         <v>231</v>
       </c>
@@ -5281,7 +5762,7 @@
       <c r="H19" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J19" s="1"/>
@@ -5384,9 +5865,12 @@
       <c r="CS19" s="1"/>
       <c r="CT19" s="1"/>
       <c r="CU19" s="1"/>
-      <c r="CV19" s="1"/>
+      <c r="CV19" s="53"/>
+      <c r="CW19" s="53"/>
+      <c r="CX19" s="1"/>
+      <c r="CY19" s="1"/>
     </row>
-    <row r="20" spans="1:100">
+    <row r="20" spans="1:103">
       <c r="A20" s="1" t="s">
         <v>232</v>
       </c>
@@ -5411,7 +5895,7 @@
       <c r="H20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J20" s="1"/>
@@ -5510,9 +5994,12 @@
       <c r="CS20" s="1"/>
       <c r="CT20" s="1"/>
       <c r="CU20" s="1"/>
-      <c r="CV20" s="1"/>
+      <c r="CV20" s="53"/>
+      <c r="CW20" s="53"/>
+      <c r="CX20" s="1"/>
+      <c r="CY20" s="1"/>
     </row>
-    <row r="21" spans="1:100">
+    <row r="21" spans="1:103">
       <c r="A21" s="1" t="s">
         <v>233</v>
       </c>
@@ -5537,7 +6024,7 @@
       <c r="H21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="I21" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J21" s="1"/>
@@ -5642,9 +6129,12 @@
       <c r="CS21" s="1"/>
       <c r="CT21" s="1"/>
       <c r="CU21" s="1"/>
-      <c r="CV21" s="1"/>
+      <c r="CV21" s="53"/>
+      <c r="CW21" s="53"/>
+      <c r="CX21" s="1"/>
+      <c r="CY21" s="1"/>
     </row>
-    <row r="22" spans="1:100">
+    <row r="22" spans="1:103">
       <c r="A22" s="1" t="s">
         <v>234</v>
       </c>
@@ -5669,7 +6159,7 @@
       <c r="H22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J22" s="1"/>
@@ -5770,9 +6260,12 @@
       <c r="CS22" s="1"/>
       <c r="CT22" s="1"/>
       <c r="CU22" s="1"/>
-      <c r="CV22" s="1"/>
+      <c r="CV22" s="53"/>
+      <c r="CW22" s="53"/>
+      <c r="CX22" s="1"/>
+      <c r="CY22" s="1"/>
     </row>
-    <row r="23" spans="1:100">
+    <row r="23" spans="1:103">
       <c r="A23" s="1" t="s">
         <v>235</v>
       </c>
@@ -5797,7 +6290,7 @@
       <c r="H23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J23" s="1"/>
@@ -5898,9 +6391,12 @@
       <c r="CS23" s="1"/>
       <c r="CT23" s="1"/>
       <c r="CU23" s="1"/>
-      <c r="CV23" s="1"/>
+      <c r="CV23" s="53"/>
+      <c r="CW23" s="53"/>
+      <c r="CX23" s="1"/>
+      <c r="CY23" s="1"/>
     </row>
-    <row r="24" spans="1:100">
+    <row r="24" spans="1:103">
       <c r="A24" s="1" t="s">
         <v>236</v>
       </c>
@@ -5925,7 +6421,7 @@
       <c r="H24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I24" s="53" t="s">
+      <c r="I24" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J24" s="1"/>
@@ -6026,9 +6522,12 @@
       <c r="CS24" s="1"/>
       <c r="CT24" s="1"/>
       <c r="CU24" s="1"/>
-      <c r="CV24" s="1"/>
+      <c r="CV24" s="53"/>
+      <c r="CW24" s="53"/>
+      <c r="CX24" s="1"/>
+      <c r="CY24" s="1"/>
     </row>
-    <row r="25" spans="1:100">
+    <row r="25" spans="1:103">
       <c r="A25" s="1" t="s">
         <v>237</v>
       </c>
@@ -6053,7 +6552,7 @@
       <c r="H25" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J25" s="1"/>
@@ -6152,9 +6651,12 @@
       <c r="CS25" s="1"/>
       <c r="CT25" s="1"/>
       <c r="CU25" s="1"/>
-      <c r="CV25" s="1"/>
+      <c r="CV25" s="53"/>
+      <c r="CW25" s="53"/>
+      <c r="CX25" s="1"/>
+      <c r="CY25" s="1"/>
     </row>
-    <row r="26" spans="1:100">
+    <row r="26" spans="1:103">
       <c r="A26" s="1" t="s">
         <v>238</v>
       </c>
@@ -6179,7 +6681,7 @@
       <c r="H26" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I26" s="53" t="s">
+      <c r="I26" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J26" s="1"/>
@@ -6278,9 +6780,12 @@
       <c r="CS26" s="1"/>
       <c r="CT26" s="1"/>
       <c r="CU26" s="1"/>
-      <c r="CV26" s="1"/>
+      <c r="CV26" s="53"/>
+      <c r="CW26" s="53"/>
+      <c r="CX26" s="1"/>
+      <c r="CY26" s="1"/>
     </row>
-    <row r="27" spans="1:100">
+    <row r="27" spans="1:103">
       <c r="A27" s="1" t="s">
         <v>239</v>
       </c>
@@ -6305,7 +6810,7 @@
       <c r="H27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="1"/>
@@ -6406,9 +6911,12 @@
       <c r="CS27" s="1"/>
       <c r="CT27" s="1"/>
       <c r="CU27" s="1"/>
-      <c r="CV27" s="1"/>
+      <c r="CV27" s="53"/>
+      <c r="CW27" s="53"/>
+      <c r="CX27" s="1"/>
+      <c r="CY27" s="1"/>
     </row>
-    <row r="28" spans="1:100">
+    <row r="28" spans="1:103">
       <c r="A28" s="1" t="s">
         <v>240</v>
       </c>
@@ -6433,7 +6941,7 @@
       <c r="H28" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I28" s="53" t="s">
+      <c r="I28" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="1"/>
@@ -6536,9 +7044,12 @@
       <c r="CS28" s="1"/>
       <c r="CT28" s="1"/>
       <c r="CU28" s="1"/>
-      <c r="CV28" s="1"/>
+      <c r="CV28" s="53"/>
+      <c r="CW28" s="53"/>
+      <c r="CX28" s="1"/>
+      <c r="CY28" s="1"/>
     </row>
-    <row r="29" spans="1:100">
+    <row r="29" spans="1:103">
       <c r="A29" s="1" t="s">
         <v>241</v>
       </c>
@@ -6563,7 +7074,7 @@
       <c r="H29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I29" s="53" t="s">
+      <c r="I29" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J29" s="1"/>
@@ -6666,9 +7177,12 @@
       <c r="CS29" s="1"/>
       <c r="CT29" s="1"/>
       <c r="CU29" s="1"/>
-      <c r="CV29" s="1"/>
+      <c r="CV29" s="53"/>
+      <c r="CW29" s="53"/>
+      <c r="CX29" s="1"/>
+      <c r="CY29" s="1"/>
     </row>
-    <row r="30" spans="1:100">
+    <row r="30" spans="1:103">
       <c r="A30" s="1" t="s">
         <v>242</v>
       </c>
@@ -6693,7 +7207,7 @@
       <c r="H30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I30" s="53" t="s">
+      <c r="I30" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J30" s="1"/>
@@ -6792,9 +7306,12 @@
       <c r="CS30" s="1"/>
       <c r="CT30" s="1"/>
       <c r="CU30" s="1"/>
-      <c r="CV30" s="1"/>
+      <c r="CV30" s="53"/>
+      <c r="CW30" s="53"/>
+      <c r="CX30" s="1"/>
+      <c r="CY30" s="1"/>
     </row>
-    <row r="31" spans="1:100">
+    <row r="31" spans="1:103">
       <c r="A31" s="1" t="s">
         <v>484</v>
       </c>
@@ -6815,7 +7332,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="53" t="s">
+      <c r="I31" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J31" s="1"/>
@@ -6908,9 +7425,12 @@
       <c r="CS31" s="1"/>
       <c r="CT31" s="1"/>
       <c r="CU31" s="1"/>
-      <c r="CV31" s="1"/>
+      <c r="CV31" s="53"/>
+      <c r="CW31" s="53"/>
+      <c r="CX31" s="1"/>
+      <c r="CY31" s="1"/>
     </row>
-    <row r="32" spans="1:100" ht="15" customHeight="1">
+    <row r="32" spans="1:103" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>330</v>
       </c>
@@ -6935,7 +7455,7 @@
       <c r="H32" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I32" s="53" t="s">
+      <c r="I32" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J32" s="1"/>
@@ -7038,9 +7558,12 @@
       <c r="CS32" s="1"/>
       <c r="CT32" s="1"/>
       <c r="CU32" s="1"/>
-      <c r="CV32" s="1"/>
+      <c r="CV32" s="53"/>
+      <c r="CW32" s="53"/>
+      <c r="CX32" s="1"/>
+      <c r="CY32" s="1"/>
     </row>
-    <row r="33" spans="1:100" ht="15" customHeight="1">
+    <row r="33" spans="1:103" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>332</v>
       </c>
@@ -7065,7 +7588,7 @@
       <c r="H33" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="53" t="s">
+      <c r="I33" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J33" s="1"/>
@@ -7168,9 +7691,12 @@
       <c r="CS33" s="1"/>
       <c r="CT33" s="1"/>
       <c r="CU33" s="1"/>
-      <c r="CV33" s="1"/>
+      <c r="CV33" s="53"/>
+      <c r="CW33" s="53"/>
+      <c r="CX33" s="1"/>
+      <c r="CY33" s="1"/>
     </row>
-    <row r="34" spans="1:100" ht="13.5" customHeight="1">
+    <row r="34" spans="1:103" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>334</v>
       </c>
@@ -7195,7 +7721,7 @@
       <c r="H34" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="I34" s="53" t="s">
+      <c r="I34" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J34" s="1"/>
@@ -7294,9 +7820,12 @@
       <c r="CS34" s="1"/>
       <c r="CT34" s="1"/>
       <c r="CU34" s="1"/>
-      <c r="CV34" s="1"/>
+      <c r="CV34" s="53"/>
+      <c r="CW34" s="53"/>
+      <c r="CX34" s="1"/>
+      <c r="CY34" s="1"/>
     </row>
-    <row r="35" spans="1:100">
+    <row r="35" spans="1:103">
       <c r="A35" s="1" t="s">
         <v>335</v>
       </c>
@@ -7321,7 +7850,7 @@
       <c r="H35" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I35" s="53" t="s">
+      <c r="I35" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J35" s="1"/>
@@ -7420,9 +7949,12 @@
       <c r="CS35" s="1"/>
       <c r="CT35" s="1"/>
       <c r="CU35" s="1"/>
-      <c r="CV35" s="1"/>
+      <c r="CV35" s="53"/>
+      <c r="CW35" s="53"/>
+      <c r="CX35" s="1"/>
+      <c r="CY35" s="1"/>
     </row>
-    <row r="36" spans="1:100">
+    <row r="36" spans="1:103">
       <c r="A36" s="1" t="s">
         <v>336</v>
       </c>
@@ -7447,7 +7979,7 @@
       <c r="H36" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I36" s="53" t="s">
+      <c r="I36" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J36" s="1"/>
@@ -7546,9 +8078,12 @@
       <c r="CS36" s="1"/>
       <c r="CT36" s="1"/>
       <c r="CU36" s="1"/>
-      <c r="CV36" s="1"/>
+      <c r="CV36" s="53"/>
+      <c r="CW36" s="53"/>
+      <c r="CX36" s="1"/>
+      <c r="CY36" s="1"/>
     </row>
-    <row r="37" spans="1:100">
+    <row r="37" spans="1:103">
       <c r="A37" s="1" t="s">
         <v>337</v>
       </c>
@@ -7573,7 +8108,7 @@
       <c r="H37" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I37" s="53" t="s">
+      <c r="I37" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J37" s="1"/>
@@ -7672,9 +8207,12 @@
       <c r="CS37" s="1"/>
       <c r="CT37" s="1"/>
       <c r="CU37" s="1"/>
-      <c r="CV37" s="1"/>
+      <c r="CV37" s="53"/>
+      <c r="CW37" s="53"/>
+      <c r="CX37" s="1"/>
+      <c r="CY37" s="1"/>
     </row>
-    <row r="38" spans="1:100">
+    <row r="38" spans="1:103">
       <c r="A38" s="1" t="s">
         <v>338</v>
       </c>
@@ -7699,7 +8237,7 @@
       <c r="H38" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I38" s="53" t="s">
+      <c r="I38" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J38" s="1"/>
@@ -7798,9 +8336,12 @@
       <c r="CS38" s="1"/>
       <c r="CT38" s="1"/>
       <c r="CU38" s="1"/>
-      <c r="CV38" s="1"/>
+      <c r="CV38" s="53"/>
+      <c r="CW38" s="53"/>
+      <c r="CX38" s="1"/>
+      <c r="CY38" s="1"/>
     </row>
-    <row r="39" spans="1:100">
+    <row r="39" spans="1:103">
       <c r="A39" s="1" t="s">
         <v>339</v>
       </c>
@@ -7825,7 +8366,7 @@
       <c r="H39" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I39" s="53" t="s">
+      <c r="I39" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
@@ -7924,9 +8465,12 @@
       <c r="CS39" s="1"/>
       <c r="CT39" s="1"/>
       <c r="CU39" s="1"/>
-      <c r="CV39" s="1"/>
+      <c r="CV39" s="53"/>
+      <c r="CW39" s="53"/>
+      <c r="CX39" s="1"/>
+      <c r="CY39" s="1"/>
     </row>
-    <row r="40" spans="1:100">
+    <row r="40" spans="1:103">
       <c r="A40" s="1" t="s">
         <v>340</v>
       </c>
@@ -7951,7 +8495,7 @@
       <c r="H40" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I40" s="53" t="s">
+      <c r="I40" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J40" s="1"/>
@@ -8050,9 +8594,12 @@
       <c r="CS40" s="1"/>
       <c r="CT40" s="1"/>
       <c r="CU40" s="1"/>
-      <c r="CV40" s="1"/>
+      <c r="CV40" s="53"/>
+      <c r="CW40" s="53"/>
+      <c r="CX40" s="1"/>
+      <c r="CY40" s="1"/>
     </row>
-    <row r="41" spans="1:100">
+    <row r="41" spans="1:103">
       <c r="A41" s="1" t="s">
         <v>341</v>
       </c>
@@ -8077,7 +8624,7 @@
       <c r="H41" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I41" s="53" t="s">
+      <c r="I41" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J41" s="1"/>
@@ -8176,9 +8723,12 @@
       <c r="CS41" s="1"/>
       <c r="CT41" s="1"/>
       <c r="CU41" s="1"/>
-      <c r="CV41" s="1"/>
+      <c r="CV41" s="53"/>
+      <c r="CW41" s="53"/>
+      <c r="CX41" s="1"/>
+      <c r="CY41" s="1"/>
     </row>
-    <row r="42" spans="1:100">
+    <row r="42" spans="1:103">
       <c r="A42" s="1" t="s">
         <v>342</v>
       </c>
@@ -8201,7 +8751,7 @@
         <v>429</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="53" t="s">
+      <c r="I42" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J42" s="1"/>
@@ -8300,9 +8850,12 @@
       <c r="CS42" s="1"/>
       <c r="CT42" s="1"/>
       <c r="CU42" s="1"/>
-      <c r="CV42" s="1"/>
+      <c r="CV42" s="53"/>
+      <c r="CW42" s="53"/>
+      <c r="CX42" s="1"/>
+      <c r="CY42" s="1"/>
     </row>
-    <row r="43" spans="1:100">
+    <row r="43" spans="1:103">
       <c r="A43" s="1" t="s">
         <v>343</v>
       </c>
@@ -8325,7 +8878,7 @@
         <v>431</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="53" t="s">
+      <c r="I43" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J43" s="1"/>
@@ -8424,9 +8977,12 @@
       <c r="CS43" s="1"/>
       <c r="CT43" s="1"/>
       <c r="CU43" s="1"/>
-      <c r="CV43" s="1"/>
+      <c r="CV43" s="53"/>
+      <c r="CW43" s="53"/>
+      <c r="CX43" s="1"/>
+      <c r="CY43" s="1"/>
     </row>
-    <row r="44" spans="1:100">
+    <row r="44" spans="1:103">
       <c r="A44" s="1" t="s">
         <v>344</v>
       </c>
@@ -8449,7 +9005,7 @@
         <v>433</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="53" t="s">
+      <c r="I44" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J44" s="1"/>
@@ -8548,9 +9104,12 @@
       <c r="CS44" s="1"/>
       <c r="CT44" s="1"/>
       <c r="CU44" s="1"/>
-      <c r="CV44" s="1"/>
+      <c r="CV44" s="53"/>
+      <c r="CW44" s="53"/>
+      <c r="CX44" s="1"/>
+      <c r="CY44" s="1"/>
     </row>
-    <row r="45" spans="1:100">
+    <row r="45" spans="1:103">
       <c r="A45" s="1" t="s">
         <v>345</v>
       </c>
@@ -8573,7 +9132,7 @@
         <v>435</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="53" t="s">
+      <c r="I45" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J45" s="1"/>
@@ -8672,9 +9231,12 @@
       <c r="CS45" s="1"/>
       <c r="CT45" s="1"/>
       <c r="CU45" s="1"/>
-      <c r="CV45" s="1"/>
+      <c r="CV45" s="53"/>
+      <c r="CW45" s="53"/>
+      <c r="CX45" s="1"/>
+      <c r="CY45" s="1"/>
     </row>
-    <row r="46" spans="1:100">
+    <row r="46" spans="1:103">
       <c r="A46" s="1" t="s">
         <v>346</v>
       </c>
@@ -8699,7 +9261,7 @@
       <c r="H46" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I46" s="53" t="s">
+      <c r="I46" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J46" s="1"/>
@@ -8798,9 +9360,12 @@
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
       <c r="CU46" s="1"/>
-      <c r="CV46" s="1"/>
+      <c r="CV46" s="53"/>
+      <c r="CW46" s="53"/>
+      <c r="CX46" s="1"/>
+      <c r="CY46" s="1"/>
     </row>
-    <row r="47" spans="1:100">
+    <row r="47" spans="1:103">
       <c r="A47" s="1" t="s">
         <v>347</v>
       </c>
@@ -8825,7 +9390,7 @@
       <c r="H47" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I47" s="53" t="s">
+      <c r="I47" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J47" s="1"/>
@@ -8924,9 +9489,12 @@
       <c r="CS47" s="1"/>
       <c r="CT47" s="1"/>
       <c r="CU47" s="1"/>
-      <c r="CV47" s="1"/>
+      <c r="CV47" s="53"/>
+      <c r="CW47" s="53"/>
+      <c r="CX47" s="1"/>
+      <c r="CY47" s="1"/>
     </row>
-    <row r="48" spans="1:100">
+    <row r="48" spans="1:103">
       <c r="A48" s="1" t="s">
         <v>348</v>
       </c>
@@ -8951,7 +9519,7 @@
       <c r="H48" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I48" s="53" t="s">
+      <c r="I48" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J48" s="1"/>
@@ -9050,9 +9618,12 @@
       <c r="CS48" s="1"/>
       <c r="CT48" s="1"/>
       <c r="CU48" s="1"/>
-      <c r="CV48" s="1"/>
+      <c r="CV48" s="53"/>
+      <c r="CW48" s="53"/>
+      <c r="CX48" s="1"/>
+      <c r="CY48" s="1"/>
     </row>
-    <row r="49" spans="1:100">
+    <row r="49" spans="1:103">
       <c r="A49" s="1" t="s">
         <v>349</v>
       </c>
@@ -9077,7 +9648,7 @@
       <c r="H49" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I49" s="53" t="s">
+      <c r="I49" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J49" s="1"/>
@@ -9176,9 +9747,12 @@
       <c r="CS49" s="1"/>
       <c r="CT49" s="1"/>
       <c r="CU49" s="1"/>
-      <c r="CV49" s="1"/>
+      <c r="CV49" s="53"/>
+      <c r="CW49" s="53"/>
+      <c r="CX49" s="1"/>
+      <c r="CY49" s="1"/>
     </row>
-    <row r="50" spans="1:100">
+    <row r="50" spans="1:103">
       <c r="A50" s="1" t="s">
         <v>350</v>
       </c>
@@ -9201,7 +9775,7 @@
         <v>449</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="53" t="s">
+      <c r="I50" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J50" s="1"/>
@@ -9300,9 +9874,12 @@
       <c r="CS50" s="1"/>
       <c r="CT50" s="1"/>
       <c r="CU50" s="1"/>
-      <c r="CV50" s="1"/>
+      <c r="CV50" s="53"/>
+      <c r="CW50" s="53"/>
+      <c r="CX50" s="1"/>
+      <c r="CY50" s="1"/>
     </row>
-    <row r="51" spans="1:100">
+    <row r="51" spans="1:103">
       <c r="A51" s="1" t="s">
         <v>351</v>
       </c>
@@ -9325,7 +9902,7 @@
         <v>451</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="53" t="s">
+      <c r="I51" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J51" s="1"/>
@@ -9424,9 +10001,12 @@
       <c r="CS51" s="1"/>
       <c r="CT51" s="1"/>
       <c r="CU51" s="1"/>
-      <c r="CV51" s="1"/>
+      <c r="CV51" s="53"/>
+      <c r="CW51" s="53"/>
+      <c r="CX51" s="1"/>
+      <c r="CY51" s="1"/>
     </row>
-    <row r="52" spans="1:100">
+    <row r="52" spans="1:103">
       <c r="A52" s="1" t="s">
         <v>352</v>
       </c>
@@ -9451,7 +10031,7 @@
       <c r="H52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I52" s="53" t="s">
+      <c r="I52" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J52" s="1"/>
@@ -9550,9 +10130,12 @@
       <c r="CS52" s="1"/>
       <c r="CT52" s="1"/>
       <c r="CU52" s="1"/>
-      <c r="CV52" s="1"/>
+      <c r="CV52" s="53"/>
+      <c r="CW52" s="53"/>
+      <c r="CX52" s="1"/>
+      <c r="CY52" s="1"/>
     </row>
-    <row r="53" spans="1:100">
+    <row r="53" spans="1:103">
       <c r="A53" s="1" t="s">
         <v>353</v>
       </c>
@@ -9577,7 +10160,7 @@
       <c r="H53" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I53" s="53" t="s">
+      <c r="I53" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="1"/>
@@ -9676,9 +10259,12 @@
       <c r="CS53" s="1"/>
       <c r="CT53" s="1"/>
       <c r="CU53" s="1"/>
-      <c r="CV53" s="1"/>
+      <c r="CV53" s="53"/>
+      <c r="CW53" s="53"/>
+      <c r="CX53" s="1"/>
+      <c r="CY53" s="1"/>
     </row>
-    <row r="54" spans="1:100">
+    <row r="54" spans="1:103">
       <c r="A54" s="1" t="s">
         <v>354</v>
       </c>
@@ -9701,7 +10287,7 @@
         <v>459</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="53" t="s">
+      <c r="I54" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J54" s="1"/>
@@ -9802,9 +10388,12 @@
       <c r="CS54" s="1"/>
       <c r="CT54" s="1"/>
       <c r="CU54" s="1"/>
-      <c r="CV54" s="1"/>
+      <c r="CV54" s="53"/>
+      <c r="CW54" s="53"/>
+      <c r="CX54" s="1"/>
+      <c r="CY54" s="1"/>
     </row>
-    <row r="55" spans="1:100">
+    <row r="55" spans="1:103">
       <c r="A55" s="1" t="s">
         <v>355</v>
       </c>
@@ -9827,7 +10416,7 @@
         <v>461</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="53" t="s">
+      <c r="I55" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J55" s="1"/>
@@ -9928,9 +10517,12 @@
       <c r="CS55" s="1"/>
       <c r="CT55" s="1"/>
       <c r="CU55" s="1"/>
-      <c r="CV55" s="1"/>
+      <c r="CV55" s="53"/>
+      <c r="CW55" s="53"/>
+      <c r="CX55" s="1"/>
+      <c r="CY55" s="1"/>
     </row>
-    <row r="56" spans="1:100">
+    <row r="56" spans="1:103">
       <c r="A56" s="1" t="s">
         <v>356</v>
       </c>
@@ -9955,7 +10547,7 @@
       <c r="H56" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I56" s="53" t="s">
+      <c r="I56" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J56" s="1"/>
@@ -10056,9 +10648,12 @@
       <c r="CS56" s="1"/>
       <c r="CT56" s="1"/>
       <c r="CU56" s="1"/>
-      <c r="CV56" s="1"/>
+      <c r="CV56" s="53"/>
+      <c r="CW56" s="53"/>
+      <c r="CX56" s="1"/>
+      <c r="CY56" s="1"/>
     </row>
-    <row r="57" spans="1:100">
+    <row r="57" spans="1:103">
       <c r="A57" s="1" t="s">
         <v>357</v>
       </c>
@@ -10083,7 +10678,7 @@
       <c r="H57" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I57" s="53" t="s">
+      <c r="I57" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J57" s="1"/>
@@ -10184,9 +10779,12 @@
       <c r="CS57" s="1"/>
       <c r="CT57" s="1"/>
       <c r="CU57" s="1"/>
-      <c r="CV57" s="1"/>
+      <c r="CV57" s="53"/>
+      <c r="CW57" s="53"/>
+      <c r="CX57" s="1"/>
+      <c r="CY57" s="1"/>
     </row>
-    <row r="58" spans="1:100">
+    <row r="58" spans="1:103">
       <c r="A58" s="1" t="s">
         <v>358</v>
       </c>
@@ -10211,7 +10809,7 @@
       <c r="H58" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I58" s="53" t="s">
+      <c r="I58" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J58" s="1"/>
@@ -10312,9 +10910,12 @@
       <c r="CS58" s="1"/>
       <c r="CT58" s="1"/>
       <c r="CU58" s="1"/>
-      <c r="CV58" s="1"/>
+      <c r="CV58" s="53"/>
+      <c r="CW58" s="53"/>
+      <c r="CX58" s="1"/>
+      <c r="CY58" s="1"/>
     </row>
-    <row r="59" spans="1:100">
+    <row r="59" spans="1:103">
       <c r="A59" s="1" t="s">
         <v>359</v>
       </c>
@@ -10339,7 +10940,7 @@
       <c r="H59" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I59" s="53" t="s">
+      <c r="I59" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J59" s="1"/>
@@ -10440,9 +11041,12 @@
       <c r="CS59" s="1"/>
       <c r="CT59" s="1"/>
       <c r="CU59" s="1"/>
-      <c r="CV59" s="1"/>
+      <c r="CV59" s="53"/>
+      <c r="CW59" s="53"/>
+      <c r="CX59" s="1"/>
+      <c r="CY59" s="1"/>
     </row>
-    <row r="60" spans="1:100">
+    <row r="60" spans="1:103">
       <c r="A60" s="1" t="s">
         <v>360</v>
       </c>
@@ -10467,7 +11071,7 @@
       <c r="H60" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="I60" s="53" t="s">
+      <c r="I60" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J60" s="1"/>
@@ -10568,9 +11172,12 @@
       <c r="CS60" s="1"/>
       <c r="CT60" s="1"/>
       <c r="CU60" s="1"/>
-      <c r="CV60" s="1"/>
+      <c r="CV60" s="53"/>
+      <c r="CW60" s="53"/>
+      <c r="CX60" s="1"/>
+      <c r="CY60" s="1"/>
     </row>
-    <row r="61" spans="1:100">
+    <row r="61" spans="1:103">
       <c r="A61" s="1" t="s">
         <v>361</v>
       </c>
@@ -10595,7 +11202,7 @@
       <c r="H61" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I61" s="53" t="s">
+      <c r="I61" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J61" s="1"/>
@@ -10696,9 +11303,12 @@
       <c r="CS61" s="1"/>
       <c r="CT61" s="1"/>
       <c r="CU61" s="1"/>
-      <c r="CV61" s="1"/>
+      <c r="CV61" s="53"/>
+      <c r="CW61" s="53"/>
+      <c r="CX61" s="1"/>
+      <c r="CY61" s="1"/>
     </row>
-    <row r="62" spans="1:100">
+    <row r="62" spans="1:103">
       <c r="A62" s="1" t="s">
         <v>362</v>
       </c>
@@ -10723,7 +11333,7 @@
       <c r="H62" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I62" s="53" t="s">
+      <c r="I62" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J62" s="1"/>
@@ -10824,9 +11434,12 @@
       <c r="CS62" s="1"/>
       <c r="CT62" s="1"/>
       <c r="CU62" s="1"/>
-      <c r="CV62" s="1"/>
+      <c r="CV62" s="53"/>
+      <c r="CW62" s="53"/>
+      <c r="CX62" s="1"/>
+      <c r="CY62" s="1"/>
     </row>
-    <row r="63" spans="1:100">
+    <row r="63" spans="1:103">
       <c r="A63" s="37" t="s">
         <v>363</v>
       </c>
@@ -10851,7 +11464,7 @@
       <c r="H63" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="I63" s="53" t="s">
+      <c r="I63" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J63" s="37"/>
@@ -10952,9 +11565,12 @@
       <c r="CS63" s="37"/>
       <c r="CT63" s="37"/>
       <c r="CU63" s="37"/>
-      <c r="CV63" s="1"/>
+      <c r="CV63" s="53"/>
+      <c r="CW63" s="53"/>
+      <c r="CX63" s="1"/>
+      <c r="CY63" s="1"/>
     </row>
-    <row r="64" spans="1:100">
+    <row r="64" spans="1:103">
       <c r="A64" s="1" t="s">
         <v>487</v>
       </c>
@@ -10977,7 +11593,7 @@
         <v>489</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="53" t="s">
+      <c r="I64" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J64" s="1"/>
@@ -11088,9 +11704,12 @@
       <c r="CU64" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="CV64" s="1"/>
+      <c r="CV64" s="53"/>
+      <c r="CW64" s="53"/>
+      <c r="CX64" s="1"/>
+      <c r="CY64" s="1"/>
     </row>
-    <row r="65" spans="1:100">
+    <row r="65" spans="1:103">
       <c r="A65" s="37" t="s">
         <v>503</v>
       </c>
@@ -11224,9 +11843,12 @@
       <c r="CS65" s="46"/>
       <c r="CT65" s="47"/>
       <c r="CU65" s="37"/>
-      <c r="CV65" s="1"/>
+      <c r="CV65" s="53"/>
+      <c r="CW65" s="53"/>
+      <c r="CX65" s="1"/>
+      <c r="CY65" s="1"/>
     </row>
-    <row r="66" spans="1:100">
+    <row r="66" spans="1:103">
       <c r="A66" s="1" t="s">
         <v>515</v>
       </c>
@@ -11247,7 +11869,7 @@
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="53" t="s">
+      <c r="I66" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J66" s="1"/>
@@ -11340,9 +11962,12 @@
       <c r="CS66" s="34"/>
       <c r="CT66" s="36"/>
       <c r="CU66" s="1"/>
-      <c r="CV66" s="1"/>
+      <c r="CV66" s="53"/>
+      <c r="CW66" s="53"/>
+      <c r="CX66" s="1"/>
+      <c r="CY66" s="1"/>
     </row>
-    <row r="67" spans="1:100">
+    <row r="67" spans="1:103">
       <c r="A67" s="37" t="s">
         <v>516</v>
       </c>
@@ -11363,7 +11988,7 @@
       </c>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
-      <c r="I67" s="53" t="s">
+      <c r="I67" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J67" s="37"/>
@@ -11456,9 +12081,12 @@
       <c r="CS67" s="46"/>
       <c r="CT67" s="47"/>
       <c r="CU67" s="37"/>
-      <c r="CV67" s="37"/>
+      <c r="CV67" s="54"/>
+      <c r="CW67" s="53"/>
+      <c r="CX67" s="1"/>
+      <c r="CY67" s="1"/>
     </row>
-    <row r="68" spans="1:100" ht="16.5" customHeight="1">
+    <row r="68" spans="1:103" ht="16.5" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>520</v>
       </c>
@@ -11481,8 +12109,8 @@
         <v>545</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="52" t="s">
-        <v>593</v>
+      <c r="I68" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -11576,11 +12204,14 @@
       <c r="CS68" s="34"/>
       <c r="CT68" s="36"/>
       <c r="CU68" s="1"/>
-      <c r="CV68" s="1" t="s">
+      <c r="CV68" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW68" s="53"/>
+      <c r="CX68" s="1"/>
+      <c r="CY68" s="1"/>
     </row>
-    <row r="69" spans="1:100" ht="16.5" customHeight="1">
+    <row r="69" spans="1:103" ht="16.5" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>521</v>
       </c>
@@ -11603,8 +12234,8 @@
         <v>546</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="52" t="s">
-        <v>593</v>
+      <c r="I69" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -11698,11 +12329,14 @@
       <c r="CS69" s="34"/>
       <c r="CT69" s="36"/>
       <c r="CU69" s="1"/>
-      <c r="CV69" s="1" t="s">
+      <c r="CV69" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW69" s="53"/>
+      <c r="CX69" s="1"/>
+      <c r="CY69" s="1"/>
     </row>
-    <row r="70" spans="1:100" ht="15.75" customHeight="1">
+    <row r="70" spans="1:103" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>522</v>
       </c>
@@ -11725,8 +12359,8 @@
         <v>547</v>
       </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="52" t="s">
-        <v>593</v>
+      <c r="I70" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -11820,11 +12454,14 @@
       <c r="CS70" s="34"/>
       <c r="CT70" s="36"/>
       <c r="CU70" s="1"/>
-      <c r="CV70" s="1" t="s">
+      <c r="CV70" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW70" s="53"/>
+      <c r="CX70" s="1"/>
+      <c r="CY70" s="1"/>
     </row>
-    <row r="71" spans="1:100" ht="15.75" customHeight="1">
+    <row r="71" spans="1:103" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>523</v>
       </c>
@@ -11847,8 +12484,8 @@
         <v>548</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="52" t="s">
-        <v>593</v>
+      <c r="I71" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -11942,11 +12579,14 @@
       <c r="CS71" s="34"/>
       <c r="CT71" s="36"/>
       <c r="CU71" s="1"/>
-      <c r="CV71" s="1" t="s">
+      <c r="CV71" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW71" s="53"/>
+      <c r="CX71" s="1"/>
+      <c r="CY71" s="1"/>
     </row>
-    <row r="72" spans="1:100">
+    <row r="72" spans="1:103">
       <c r="A72" s="1" t="s">
         <v>524</v>
       </c>
@@ -11969,8 +12609,8 @@
         <v>549</v>
       </c>
       <c r="H72" s="1"/>
-      <c r="I72" s="52" t="s">
-        <v>593</v>
+      <c r="I72" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -12064,11 +12704,14 @@
       <c r="CS72" s="34"/>
       <c r="CT72" s="36"/>
       <c r="CU72" s="1"/>
-      <c r="CV72" s="1" t="s">
+      <c r="CV72" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW72" s="53"/>
+      <c r="CX72" s="1"/>
+      <c r="CY72" s="1"/>
     </row>
-    <row r="73" spans="1:100" ht="15" customHeight="1">
+    <row r="73" spans="1:103" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>525</v>
       </c>
@@ -12091,8 +12734,8 @@
         <v>550</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="52" t="s">
-        <v>593</v>
+      <c r="I73" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -12186,11 +12829,14 @@
       <c r="CS73" s="34"/>
       <c r="CT73" s="36"/>
       <c r="CU73" s="1"/>
-      <c r="CV73" s="1" t="s">
+      <c r="CV73" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW73" s="53"/>
+      <c r="CX73" s="1"/>
+      <c r="CY73" s="1"/>
     </row>
-    <row r="74" spans="1:100">
+    <row r="74" spans="1:103">
       <c r="A74" s="1" t="s">
         <v>526</v>
       </c>
@@ -12213,8 +12859,8 @@
         <v>551</v>
       </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="52" t="s">
-        <v>593</v>
+      <c r="I74" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -12308,11 +12954,14 @@
       <c r="CS74" s="34"/>
       <c r="CT74" s="36"/>
       <c r="CU74" s="1"/>
-      <c r="CV74" s="1" t="s">
+      <c r="CV74" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW74" s="53"/>
+      <c r="CX74" s="1"/>
+      <c r="CY74" s="1"/>
     </row>
-    <row r="75" spans="1:100">
+    <row r="75" spans="1:103">
       <c r="A75" s="1" t="s">
         <v>527</v>
       </c>
@@ -12335,8 +12984,8 @@
         <v>552</v>
       </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="52" t="s">
-        <v>593</v>
+      <c r="I75" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -12430,11 +13079,14 @@
       <c r="CS75" s="34"/>
       <c r="CT75" s="36"/>
       <c r="CU75" s="1"/>
-      <c r="CV75" s="1" t="s">
+      <c r="CV75" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW75" s="53"/>
+      <c r="CX75" s="1"/>
+      <c r="CY75" s="1"/>
     </row>
-    <row r="76" spans="1:100">
+    <row r="76" spans="1:103">
       <c r="A76" s="1" t="s">
         <v>528</v>
       </c>
@@ -12457,8 +13109,8 @@
         <v>553</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="52" t="s">
-        <v>593</v>
+      <c r="I76" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -12552,11 +13204,14 @@
       <c r="CS76" s="34"/>
       <c r="CT76" s="36"/>
       <c r="CU76" s="1"/>
-      <c r="CV76" s="1" t="s">
+      <c r="CV76" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW76" s="53"/>
+      <c r="CX76" s="1"/>
+      <c r="CY76" s="1"/>
     </row>
-    <row r="77" spans="1:100">
+    <row r="77" spans="1:103">
       <c r="A77" s="1" t="s">
         <v>529</v>
       </c>
@@ -12579,8 +13234,8 @@
         <v>554</v>
       </c>
       <c r="H77" s="1"/>
-      <c r="I77" s="52" t="s">
-        <v>593</v>
+      <c r="I77" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -12674,16 +13329,19 @@
       <c r="CS77" s="34"/>
       <c r="CT77" s="36"/>
       <c r="CU77" s="1"/>
-      <c r="CV77" s="1" t="s">
+      <c r="CV77" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW77" s="53"/>
+      <c r="CX77" s="1"/>
+      <c r="CY77" s="1"/>
     </row>
-    <row r="78" spans="1:100">
+    <row r="78" spans="1:103">
       <c r="A78" s="1" t="s">
         <v>530</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>517</v>
@@ -12701,7 +13359,7 @@
         <v>555</v>
       </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="53" t="s">
+      <c r="I78" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J78" s="1"/>
@@ -12796,11 +13454,14 @@
       <c r="CS78" s="34"/>
       <c r="CT78" s="36"/>
       <c r="CU78" s="1"/>
-      <c r="CV78" s="1" t="s">
+      <c r="CV78" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW78" s="53"/>
+      <c r="CX78" s="1"/>
+      <c r="CY78" s="1"/>
     </row>
-    <row r="79" spans="1:100" ht="15" customHeight="1">
+    <row r="79" spans="1:103" ht="15" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>531</v>
       </c>
@@ -12823,8 +13484,8 @@
         <v>556</v>
       </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="52" t="s">
-        <v>593</v>
+      <c r="I79" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -12918,11 +13579,14 @@
       <c r="CS79" s="34"/>
       <c r="CT79" s="36"/>
       <c r="CU79" s="1"/>
-      <c r="CV79" s="1" t="s">
+      <c r="CV79" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW79" s="53"/>
+      <c r="CX79" s="1"/>
+      <c r="CY79" s="1"/>
     </row>
-    <row r="80" spans="1:100">
+    <row r="80" spans="1:103">
       <c r="A80" s="1" t="s">
         <v>532</v>
       </c>
@@ -12945,7 +13609,7 @@
         <v>557</v>
       </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="51" t="s">
+      <c r="I80" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J80" s="1"/>
@@ -13040,16 +13704,19 @@
       <c r="CS80" s="34"/>
       <c r="CT80" s="36"/>
       <c r="CU80" s="1"/>
-      <c r="CV80" s="1" t="s">
+      <c r="CV80" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW80" s="53"/>
+      <c r="CX80" s="1"/>
+      <c r="CY80" s="1"/>
     </row>
-    <row r="81" spans="1:100">
+    <row r="81" spans="1:103">
       <c r="A81" s="1" t="s">
         <v>533</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>517</v>
@@ -13067,7 +13734,7 @@
         <v>558</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="51" t="s">
+      <c r="I81" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J81" s="1"/>
@@ -13162,16 +13829,19 @@
       <c r="CS81" s="34"/>
       <c r="CT81" s="36"/>
       <c r="CU81" s="1"/>
-      <c r="CV81" s="1" t="s">
+      <c r="CV81" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW81" s="53"/>
+      <c r="CX81" s="1"/>
+      <c r="CY81" s="1"/>
     </row>
-    <row r="82" spans="1:100" ht="16.5" customHeight="1">
+    <row r="82" spans="1:103" ht="16.5" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>534</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>517</v>
@@ -13189,7 +13859,7 @@
         <v>559</v>
       </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="51" t="s">
+      <c r="I82" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J82" s="1"/>
@@ -13284,16 +13954,19 @@
       <c r="CS82" s="34"/>
       <c r="CT82" s="36"/>
       <c r="CU82" s="1"/>
-      <c r="CV82" s="1" t="s">
+      <c r="CV82" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW82" s="53"/>
+      <c r="CX82" s="1"/>
+      <c r="CY82" s="1"/>
     </row>
-    <row r="83" spans="1:100" ht="15.75" customHeight="1">
+    <row r="83" spans="1:103" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>535</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>517</v>
@@ -13311,7 +13984,7 @@
         <v>560</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="51" t="s">
+      <c r="I83" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J83" s="1"/>
@@ -13406,16 +14079,19 @@
       <c r="CS83" s="34"/>
       <c r="CT83" s="36"/>
       <c r="CU83" s="1"/>
-      <c r="CV83" s="1" t="s">
+      <c r="CV83" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW83" s="53"/>
+      <c r="CX83" s="1"/>
+      <c r="CY83" s="1"/>
     </row>
-    <row r="84" spans="1:100">
+    <row r="84" spans="1:103">
       <c r="A84" s="1" t="s">
         <v>536</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>517</v>
@@ -13433,7 +14109,7 @@
         <v>561</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="51" t="s">
+      <c r="I84" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J84" s="1"/>
@@ -13528,16 +14204,19 @@
       <c r="CS84" s="34"/>
       <c r="CT84" s="36"/>
       <c r="CU84" s="1"/>
-      <c r="CV84" s="1" t="s">
+      <c r="CV84" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW84" s="53"/>
+      <c r="CX84" s="1"/>
+      <c r="CY84" s="1"/>
     </row>
-    <row r="85" spans="1:100">
+    <row r="85" spans="1:103">
       <c r="A85" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C85" s="43" t="s">
         <v>517</v>
@@ -13555,7 +14234,7 @@
         <v>562</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="51" t="s">
+      <c r="I85" s="58" t="s">
         <v>172</v>
       </c>
       <c r="J85" s="1"/>
@@ -13650,11 +14329,14 @@
       <c r="CS85" s="34"/>
       <c r="CT85" s="36"/>
       <c r="CU85" s="1"/>
-      <c r="CV85" s="1" t="s">
+      <c r="CV85" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW85" s="53"/>
+      <c r="CX85" s="1"/>
+      <c r="CY85" s="1"/>
     </row>
-    <row r="86" spans="1:100">
+    <row r="86" spans="1:103">
       <c r="A86" s="1" t="s">
         <v>538</v>
       </c>
@@ -13677,8 +14359,8 @@
         <v>563</v>
       </c>
       <c r="H86" s="1"/>
-      <c r="I86" s="52" t="s">
-        <v>593</v>
+      <c r="I86" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -13772,11 +14454,14 @@
       <c r="CS86" s="34"/>
       <c r="CT86" s="36"/>
       <c r="CU86" s="1"/>
-      <c r="CV86" s="1" t="s">
+      <c r="CV86" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW86" s="53"/>
+      <c r="CX86" s="1"/>
+      <c r="CY86" s="1"/>
     </row>
-    <row r="87" spans="1:100" ht="15.75" customHeight="1">
+    <row r="87" spans="1:103" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>539</v>
       </c>
@@ -13799,8 +14484,8 @@
         <v>564</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="52" t="s">
-        <v>593</v>
+      <c r="I87" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -13894,11 +14579,14 @@
       <c r="CS87" s="34"/>
       <c r="CT87" s="36"/>
       <c r="CU87" s="1"/>
-      <c r="CV87" s="1" t="s">
+      <c r="CV87" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW87" s="53"/>
+      <c r="CX87" s="1"/>
+      <c r="CY87" s="1"/>
     </row>
-    <row r="88" spans="1:100" ht="15.75" customHeight="1">
+    <row r="88" spans="1:103" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>540</v>
       </c>
@@ -13921,8 +14609,8 @@
         <v>565</v>
       </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="52" t="s">
-        <v>593</v>
+      <c r="I88" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -14016,11 +14704,14 @@
       <c r="CS88" s="34"/>
       <c r="CT88" s="36"/>
       <c r="CU88" s="1"/>
-      <c r="CV88" s="1" t="s">
+      <c r="CV88" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW88" s="53"/>
+      <c r="CX88" s="1"/>
+      <c r="CY88" s="1"/>
     </row>
-    <row r="89" spans="1:100">
+    <row r="89" spans="1:103">
       <c r="A89" s="1" t="s">
         <v>541</v>
       </c>
@@ -14043,8 +14734,8 @@
         <v>566</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="52" t="s">
-        <v>593</v>
+      <c r="I89" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -14138,11 +14829,14 @@
       <c r="CS89" s="34"/>
       <c r="CT89" s="36"/>
       <c r="CU89" s="1"/>
-      <c r="CV89" s="1" t="s">
+      <c r="CV89" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW89" s="53"/>
+      <c r="CX89" s="1"/>
+      <c r="CY89" s="1"/>
     </row>
-    <row r="90" spans="1:100" ht="18.75" customHeight="1">
+    <row r="90" spans="1:103" ht="18.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>542</v>
       </c>
@@ -14165,8 +14859,8 @@
         <v>567</v>
       </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="52" t="s">
-        <v>593</v>
+      <c r="I90" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -14260,131 +14954,5512 @@
       <c r="CS90" s="34"/>
       <c r="CT90" s="36"/>
       <c r="CU90" s="1"/>
-      <c r="CV90" s="1" t="s">
+      <c r="CV90" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="CW90" s="53"/>
+      <c r="CX90" s="1"/>
+      <c r="CY90" s="1"/>
     </row>
-    <row r="91" spans="1:100" ht="18" customHeight="1">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:103" ht="18" customHeight="1">
+      <c r="A91" s="37" t="s">
         <v>543</v>
       </c>
       <c r="B91" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="50" t="s">
         <v>486</v>
       </c>
-      <c r="E91" s="43" t="s">
+      <c r="E91" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="F91" s="48" t="s">
+      <c r="F91" s="55" t="s">
         <v>544</v>
       </c>
-      <c r="G91" s="49" t="s">
+      <c r="G91" s="56" t="s">
         <v>568</v>
       </c>
-      <c r="H91" s="1"/>
-      <c r="I91" s="52" t="s">
-        <v>593</v>
-      </c>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="1"/>
-      <c r="AH91" s="1"/>
-      <c r="AI91" s="1"/>
-      <c r="AJ91" s="1"/>
-      <c r="AK91" s="1"/>
-      <c r="AL91" s="1"/>
-      <c r="AM91" s="1"/>
-      <c r="AN91" s="1"/>
-      <c r="AO91" s="1"/>
-      <c r="AP91" s="1"/>
-      <c r="AQ91" s="1"/>
-      <c r="AR91" s="1"/>
-      <c r="AS91" s="1"/>
-      <c r="AT91" s="1"/>
-      <c r="AU91" s="1"/>
-      <c r="AV91" s="1"/>
-      <c r="AW91" s="32" t="s">
+      <c r="H91" s="37"/>
+      <c r="I91" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="37"/>
+      <c r="X91" s="37"/>
+      <c r="Y91" s="37"/>
+      <c r="Z91" s="37"/>
+      <c r="AA91" s="37"/>
+      <c r="AB91" s="37"/>
+      <c r="AC91" s="37"/>
+      <c r="AD91" s="37"/>
+      <c r="AE91" s="37"/>
+      <c r="AF91" s="37"/>
+      <c r="AG91" s="37"/>
+      <c r="AH91" s="37"/>
+      <c r="AI91" s="37"/>
+      <c r="AJ91" s="37"/>
+      <c r="AK91" s="37"/>
+      <c r="AL91" s="37"/>
+      <c r="AM91" s="37"/>
+      <c r="AN91" s="37"/>
+      <c r="AO91" s="37"/>
+      <c r="AP91" s="37"/>
+      <c r="AQ91" s="37"/>
+      <c r="AR91" s="37"/>
+      <c r="AS91" s="37"/>
+      <c r="AT91" s="37"/>
+      <c r="AU91" s="37"/>
+      <c r="AV91" s="37"/>
+      <c r="AW91" s="38" t="s">
         <v>591</v>
       </c>
-      <c r="AX91" s="1"/>
-      <c r="AY91" s="1"/>
-      <c r="AZ91" s="1"/>
-      <c r="BA91" s="1"/>
-      <c r="BB91" s="1"/>
-      <c r="BC91" s="1"/>
-      <c r="BD91" s="1"/>
-      <c r="BE91" s="1"/>
-      <c r="BF91" s="1"/>
-      <c r="BG91" s="1"/>
-      <c r="BH91" s="1"/>
-      <c r="BI91" s="1"/>
-      <c r="BJ91" s="1"/>
-      <c r="BK91" s="1"/>
-      <c r="BL91" s="1"/>
-      <c r="BM91" s="1"/>
-      <c r="BN91" s="1"/>
-      <c r="BO91" s="1"/>
-      <c r="BP91" s="1"/>
-      <c r="BQ91" s="1"/>
-      <c r="BR91" s="1"/>
-      <c r="BS91" s="1"/>
-      <c r="BT91" s="1"/>
-      <c r="BU91" s="1"/>
-      <c r="BV91" s="1"/>
-      <c r="BW91" s="1"/>
-      <c r="BX91" s="1"/>
-      <c r="BY91" s="1"/>
-      <c r="BZ91" s="1"/>
-      <c r="CA91" s="1"/>
-      <c r="CB91" s="1"/>
-      <c r="CC91" s="1"/>
-      <c r="CD91" s="1"/>
-      <c r="CE91" s="1"/>
-      <c r="CF91" s="1"/>
-      <c r="CG91" s="1"/>
-      <c r="CH91" s="1"/>
-      <c r="CI91" s="1"/>
-      <c r="CJ91" s="1"/>
-      <c r="CK91" s="1"/>
-      <c r="CL91" s="1"/>
-      <c r="CM91" s="1"/>
-      <c r="CN91" s="1"/>
-      <c r="CO91" s="1"/>
-      <c r="CP91" s="1"/>
-      <c r="CQ91" s="1"/>
-      <c r="CR91" s="35"/>
-      <c r="CS91" s="34"/>
-      <c r="CT91" s="36"/>
-      <c r="CU91" s="1"/>
-      <c r="CV91" s="1" t="s">
+      <c r="AX91" s="37"/>
+      <c r="AY91" s="37"/>
+      <c r="AZ91" s="37"/>
+      <c r="BA91" s="37"/>
+      <c r="BB91" s="37"/>
+      <c r="BC91" s="37"/>
+      <c r="BD91" s="37"/>
+      <c r="BE91" s="37"/>
+      <c r="BF91" s="37"/>
+      <c r="BG91" s="37"/>
+      <c r="BH91" s="37"/>
+      <c r="BI91" s="37"/>
+      <c r="BJ91" s="37"/>
+      <c r="BK91" s="37"/>
+      <c r="BL91" s="37"/>
+      <c r="BM91" s="37"/>
+      <c r="BN91" s="37"/>
+      <c r="BO91" s="37"/>
+      <c r="BP91" s="37"/>
+      <c r="BQ91" s="37"/>
+      <c r="BR91" s="37"/>
+      <c r="BS91" s="37"/>
+      <c r="BT91" s="37"/>
+      <c r="BU91" s="37"/>
+      <c r="BV91" s="37"/>
+      <c r="BW91" s="37"/>
+      <c r="BX91" s="37"/>
+      <c r="BY91" s="37"/>
+      <c r="BZ91" s="37"/>
+      <c r="CA91" s="37"/>
+      <c r="CB91" s="37"/>
+      <c r="CC91" s="37"/>
+      <c r="CD91" s="37"/>
+      <c r="CE91" s="37"/>
+      <c r="CF91" s="37"/>
+      <c r="CG91" s="37"/>
+      <c r="CH91" s="37"/>
+      <c r="CI91" s="37"/>
+      <c r="CJ91" s="37"/>
+      <c r="CK91" s="37"/>
+      <c r="CL91" s="37"/>
+      <c r="CM91" s="37"/>
+      <c r="CN91" s="37"/>
+      <c r="CO91" s="37"/>
+      <c r="CP91" s="37"/>
+      <c r="CQ91" s="37"/>
+      <c r="CR91" s="45"/>
+      <c r="CS91" s="46"/>
+      <c r="CT91" s="47"/>
+      <c r="CU91" s="37"/>
+      <c r="CV91" s="54" t="s">
         <v>271</v>
       </c>
+      <c r="CW91" s="54"/>
+      <c r="CX91" s="1"/>
+      <c r="CY91" s="1"/>
+    </row>
+    <row r="92" spans="1:103" ht="18" customHeight="1">
+      <c r="A92" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="D92" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="E92" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" s="60" t="s">
+        <v>595</v>
+      </c>
+      <c r="G92" s="60" t="s">
+        <v>597</v>
+      </c>
+      <c r="H92" s="37"/>
+      <c r="I92" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+      <c r="U92" s="37"/>
+      <c r="V92" s="37"/>
+      <c r="W92" s="37"/>
+      <c r="X92" s="37"/>
+      <c r="Y92" s="37"/>
+      <c r="Z92" s="37"/>
+      <c r="AA92" s="37"/>
+      <c r="AB92" s="37"/>
+      <c r="AC92" s="37"/>
+      <c r="AD92" s="37"/>
+      <c r="AE92" s="37"/>
+      <c r="AF92" s="37"/>
+      <c r="AG92" s="37"/>
+      <c r="AH92" s="37"/>
+      <c r="AI92" s="37"/>
+      <c r="AJ92" s="37"/>
+      <c r="AK92" s="37"/>
+      <c r="AL92" s="37"/>
+      <c r="AM92" s="37"/>
+      <c r="AN92" s="37"/>
+      <c r="AO92" s="37"/>
+      <c r="AP92" s="37"/>
+      <c r="AQ92" s="37"/>
+      <c r="AR92" s="37"/>
+      <c r="AS92" s="37"/>
+      <c r="AT92" s="37"/>
+      <c r="AU92" s="37"/>
+      <c r="AV92" s="37"/>
+      <c r="AW92" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX92" s="37"/>
+      <c r="AY92" s="37"/>
+      <c r="AZ92" s="37"/>
+      <c r="BA92" s="37"/>
+      <c r="BB92" s="37"/>
+      <c r="BC92" s="37"/>
+      <c r="BD92" s="37"/>
+      <c r="BE92" s="37"/>
+      <c r="BF92" s="37"/>
+      <c r="BG92" s="37"/>
+      <c r="BH92" s="37"/>
+      <c r="BI92" s="37"/>
+      <c r="BJ92" s="37"/>
+      <c r="BK92" s="37"/>
+      <c r="BL92" s="37"/>
+      <c r="BM92" s="37"/>
+      <c r="BN92" s="37"/>
+      <c r="BO92" s="37"/>
+      <c r="BP92" s="37"/>
+      <c r="BQ92" s="37"/>
+      <c r="BR92" s="37"/>
+      <c r="BS92" s="37"/>
+      <c r="BT92" s="37"/>
+      <c r="BU92" s="37"/>
+      <c r="BV92" s="37"/>
+      <c r="BW92" s="37"/>
+      <c r="BX92" s="37"/>
+      <c r="BY92" s="37"/>
+      <c r="BZ92" s="37"/>
+      <c r="CA92" s="37"/>
+      <c r="CB92" s="37"/>
+      <c r="CC92" s="37"/>
+      <c r="CD92" s="37"/>
+      <c r="CE92" s="37"/>
+      <c r="CF92" s="37"/>
+      <c r="CG92" s="37"/>
+      <c r="CH92" s="37"/>
+      <c r="CI92" s="37"/>
+      <c r="CJ92" s="37"/>
+      <c r="CK92" s="37"/>
+      <c r="CL92" s="37"/>
+      <c r="CM92" s="37"/>
+      <c r="CN92" s="37"/>
+      <c r="CO92" s="37"/>
+      <c r="CP92" s="37"/>
+      <c r="CQ92" s="37"/>
+      <c r="CR92" s="45"/>
+      <c r="CS92" s="46"/>
+      <c r="CT92" s="47"/>
+      <c r="CU92" s="37"/>
+      <c r="CV92" s="37"/>
+      <c r="CW92" s="54" t="s">
+        <v>599</v>
+      </c>
+      <c r="CX92" s="37"/>
+      <c r="CY92" s="1"/>
+    </row>
+    <row r="93" spans="1:103" ht="18" customHeight="1">
+      <c r="A93" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F93" s="60" t="s">
+        <v>595</v>
+      </c>
+      <c r="G93" s="61" t="s">
+        <v>606</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="1"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1"/>
+      <c r="BN93" s="1"/>
+      <c r="BO93" s="1"/>
+      <c r="BP93" s="1"/>
+      <c r="BQ93" s="1"/>
+      <c r="BR93" s="1"/>
+      <c r="BS93" s="1"/>
+      <c r="BT93" s="1"/>
+      <c r="BU93" s="1"/>
+      <c r="BV93" s="1"/>
+      <c r="BW93" s="1"/>
+      <c r="BX93" s="1"/>
+      <c r="BY93" s="1"/>
+      <c r="BZ93" s="1"/>
+      <c r="CA93" s="1"/>
+      <c r="CB93" s="1"/>
+      <c r="CC93" s="1"/>
+      <c r="CD93" s="1"/>
+      <c r="CE93" s="1"/>
+      <c r="CF93" s="1"/>
+      <c r="CG93" s="1"/>
+      <c r="CH93" s="1"/>
+      <c r="CI93" s="1"/>
+      <c r="CJ93" s="1"/>
+      <c r="CK93" s="1"/>
+      <c r="CL93" s="1"/>
+      <c r="CM93" s="1"/>
+      <c r="CN93" s="1"/>
+      <c r="CO93" s="1"/>
+      <c r="CP93" s="1"/>
+      <c r="CQ93" s="1"/>
+      <c r="CR93" s="35"/>
+      <c r="CS93" s="34"/>
+      <c r="CT93" s="36"/>
+      <c r="CU93" s="1"/>
+      <c r="CV93" s="1"/>
+      <c r="CW93" s="1"/>
+      <c r="CX93" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="CY93" s="1"/>
+    </row>
+    <row r="94" spans="1:103" ht="18" customHeight="1">
+      <c r="A94" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="F94" s="60" t="s">
+        <v>595</v>
+      </c>
+      <c r="G94" s="62" t="s">
+        <v>607</v>
+      </c>
+      <c r="H94" s="37"/>
+      <c r="I94" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="44"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
+      <c r="U94" s="37"/>
+      <c r="V94" s="37"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="37"/>
+      <c r="Y94" s="37"/>
+      <c r="Z94" s="37"/>
+      <c r="AA94" s="37"/>
+      <c r="AB94" s="37"/>
+      <c r="AC94" s="37"/>
+      <c r="AD94" s="37"/>
+      <c r="AE94" s="37"/>
+      <c r="AF94" s="37"/>
+      <c r="AG94" s="37"/>
+      <c r="AH94" s="37"/>
+      <c r="AI94" s="37"/>
+      <c r="AJ94" s="37"/>
+      <c r="AK94" s="37"/>
+      <c r="AL94" s="37"/>
+      <c r="AM94" s="37"/>
+      <c r="AN94" s="37"/>
+      <c r="AO94" s="37"/>
+      <c r="AP94" s="37"/>
+      <c r="AQ94" s="37"/>
+      <c r="AR94" s="37"/>
+      <c r="AS94" s="37"/>
+      <c r="AT94" s="37"/>
+      <c r="AU94" s="37"/>
+      <c r="AV94" s="37"/>
+      <c r="AW94" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX94" s="37"/>
+      <c r="AY94" s="37"/>
+      <c r="AZ94" s="37"/>
+      <c r="BA94" s="37"/>
+      <c r="BB94" s="37"/>
+      <c r="BC94" s="37"/>
+      <c r="BD94" s="37"/>
+      <c r="BE94" s="37"/>
+      <c r="BF94" s="37"/>
+      <c r="BG94" s="37"/>
+      <c r="BH94" s="37"/>
+      <c r="BI94" s="37"/>
+      <c r="BJ94" s="37"/>
+      <c r="BK94" s="37"/>
+      <c r="BL94" s="37"/>
+      <c r="BM94" s="37"/>
+      <c r="BN94" s="37"/>
+      <c r="BO94" s="37"/>
+      <c r="BP94" s="37"/>
+      <c r="BQ94" s="37"/>
+      <c r="BR94" s="37"/>
+      <c r="BS94" s="37"/>
+      <c r="BT94" s="37"/>
+      <c r="BU94" s="37"/>
+      <c r="BV94" s="37"/>
+      <c r="BW94" s="37"/>
+      <c r="BX94" s="37"/>
+      <c r="BY94" s="37"/>
+      <c r="BZ94" s="37"/>
+      <c r="CA94" s="37"/>
+      <c r="CB94" s="37"/>
+      <c r="CC94" s="37"/>
+      <c r="CD94" s="37"/>
+      <c r="CE94" s="37"/>
+      <c r="CF94" s="37"/>
+      <c r="CG94" s="37"/>
+      <c r="CH94" s="37"/>
+      <c r="CI94" s="37"/>
+      <c r="CJ94" s="37"/>
+      <c r="CK94" s="37"/>
+      <c r="CL94" s="37"/>
+      <c r="CM94" s="37"/>
+      <c r="CN94" s="37"/>
+      <c r="CO94" s="37"/>
+      <c r="CP94" s="37"/>
+      <c r="CQ94" s="37"/>
+      <c r="CR94" s="45"/>
+      <c r="CS94" s="46"/>
+      <c r="CT94" s="47"/>
+      <c r="CU94" s="37"/>
+      <c r="CV94" s="37"/>
+      <c r="CW94" s="37"/>
+      <c r="CX94" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="CY94" s="1"/>
+    </row>
+    <row r="95" spans="1:103" ht="18" customHeight="1">
+      <c r="A95" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F95" s="60" t="s">
+        <v>595</v>
+      </c>
+      <c r="G95" s="63" t="s">
+        <v>610</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AV95" s="1"/>
+      <c r="AW95" s="32"/>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
+      <c r="BD95" s="1"/>
+      <c r="BE95" s="1"/>
+      <c r="BF95" s="1"/>
+      <c r="BG95" s="1"/>
+      <c r="BH95" s="1"/>
+      <c r="BI95" s="1"/>
+      <c r="BJ95" s="1"/>
+      <c r="BK95" s="1"/>
+      <c r="BL95" s="1"/>
+      <c r="BM95" s="1"/>
+      <c r="BN95" s="1"/>
+      <c r="BO95" s="1"/>
+      <c r="BP95" s="1"/>
+      <c r="BQ95" s="1"/>
+      <c r="BR95" s="1"/>
+      <c r="BS95" s="1"/>
+      <c r="BT95" s="1"/>
+      <c r="BU95" s="1"/>
+      <c r="BV95" s="1"/>
+      <c r="BW95" s="1"/>
+      <c r="BX95" s="1"/>
+      <c r="BY95" s="1"/>
+      <c r="BZ95" s="1"/>
+      <c r="CA95" s="1"/>
+      <c r="CB95" s="1"/>
+      <c r="CC95" s="1"/>
+      <c r="CD95" s="1"/>
+      <c r="CE95" s="1"/>
+      <c r="CF95" s="1"/>
+      <c r="CG95" s="1"/>
+      <c r="CH95" s="1"/>
+      <c r="CI95" s="1"/>
+      <c r="CJ95" s="1"/>
+      <c r="CK95" s="1"/>
+      <c r="CL95" s="1"/>
+      <c r="CM95" s="1"/>
+      <c r="CN95" s="1"/>
+      <c r="CO95" s="1"/>
+      <c r="CP95" s="1"/>
+      <c r="CQ95" s="1"/>
+      <c r="CR95" s="35"/>
+      <c r="CS95" s="34"/>
+      <c r="CT95" s="36"/>
+      <c r="CU95" s="1"/>
+      <c r="CV95" s="1"/>
+      <c r="CW95" s="1"/>
+      <c r="CX95" s="1"/>
+      <c r="CY95" s="1"/>
+    </row>
+    <row r="96" spans="1:103" ht="18" customHeight="1">
+      <c r="A96" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="E96" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="F96" s="60" t="s">
+        <v>595</v>
+      </c>
+      <c r="G96" s="65" t="s">
+        <v>611</v>
+      </c>
+      <c r="H96" s="37"/>
+      <c r="I96" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="37"/>
+      <c r="W96" s="66" t="s">
+        <v>613</v>
+      </c>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="37"/>
+      <c r="Z96" s="37"/>
+      <c r="AA96" s="37"/>
+      <c r="AB96" s="37"/>
+      <c r="AC96" s="37"/>
+      <c r="AD96" s="37"/>
+      <c r="AE96" s="37"/>
+      <c r="AF96" s="37"/>
+      <c r="AG96" s="37"/>
+      <c r="AH96" s="37"/>
+      <c r="AI96" s="37"/>
+      <c r="AJ96" s="37"/>
+      <c r="AK96" s="37"/>
+      <c r="AL96" s="37"/>
+      <c r="AM96" s="37"/>
+      <c r="AN96" s="37"/>
+      <c r="AO96" s="37"/>
+      <c r="AP96" s="37"/>
+      <c r="AQ96" s="37"/>
+      <c r="AR96" s="37"/>
+      <c r="AS96" s="37"/>
+      <c r="AT96" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="AU96" s="37"/>
+      <c r="AV96" s="37"/>
+      <c r="AW96" s="38"/>
+      <c r="AX96" s="37"/>
+      <c r="AY96" s="37"/>
+      <c r="AZ96" s="37"/>
+      <c r="BA96" s="37"/>
+      <c r="BB96" s="37"/>
+      <c r="BC96" s="37"/>
+      <c r="BD96" s="37"/>
+      <c r="BE96" s="37"/>
+      <c r="BF96" s="37"/>
+      <c r="BG96" s="37"/>
+      <c r="BH96" s="37"/>
+      <c r="BI96" s="37"/>
+      <c r="BJ96" s="37"/>
+      <c r="BK96" s="37"/>
+      <c r="BL96" s="37"/>
+      <c r="BM96" s="37"/>
+      <c r="BN96" s="37"/>
+      <c r="BO96" s="37"/>
+      <c r="BP96" s="37"/>
+      <c r="BQ96" s="37"/>
+      <c r="BR96" s="37"/>
+      <c r="BS96" s="37"/>
+      <c r="BT96" s="37"/>
+      <c r="BU96" s="37"/>
+      <c r="BV96" s="37"/>
+      <c r="BW96" s="37"/>
+      <c r="BX96" s="37"/>
+      <c r="BY96" s="37"/>
+      <c r="BZ96" s="37"/>
+      <c r="CA96" s="37"/>
+      <c r="CB96" s="37"/>
+      <c r="CC96" s="37"/>
+      <c r="CD96" s="37"/>
+      <c r="CE96" s="37"/>
+      <c r="CF96" s="37"/>
+      <c r="CG96" s="37"/>
+      <c r="CH96" s="37"/>
+      <c r="CI96" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="CJ96" s="37"/>
+      <c r="CK96" s="37"/>
+      <c r="CL96" s="37"/>
+      <c r="CM96" s="37"/>
+      <c r="CN96" s="37"/>
+      <c r="CO96" s="37"/>
+      <c r="CP96" s="37"/>
+      <c r="CQ96" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="CR96" s="45"/>
+      <c r="CS96" s="46"/>
+      <c r="CT96" s="47"/>
+      <c r="CU96" s="37"/>
+      <c r="CV96" s="37"/>
+      <c r="CW96" s="37"/>
+      <c r="CX96" s="37"/>
+      <c r="CY96" s="37"/>
+    </row>
+    <row r="97" spans="1:103" ht="18" customHeight="1">
+      <c r="A97" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F97" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G97" s="64" t="s">
+        <v>650</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1"/>
+      <c r="AU97" s="1"/>
+      <c r="AV97" s="1"/>
+      <c r="AW97" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
+      <c r="BD97" s="1"/>
+      <c r="BE97" s="1"/>
+      <c r="BF97" s="1"/>
+      <c r="BG97" s="1"/>
+      <c r="BH97" s="1"/>
+      <c r="BI97" s="1"/>
+      <c r="BJ97" s="1"/>
+      <c r="BK97" s="1"/>
+      <c r="BL97" s="1"/>
+      <c r="BM97" s="1"/>
+      <c r="BN97" s="1"/>
+      <c r="BO97" s="1"/>
+      <c r="BP97" s="1"/>
+      <c r="BQ97" s="1"/>
+      <c r="BR97" s="1"/>
+      <c r="BS97" s="1"/>
+      <c r="BT97" s="1"/>
+      <c r="BU97" s="1"/>
+      <c r="BV97" s="1"/>
+      <c r="BW97" s="1"/>
+      <c r="BX97" s="1"/>
+      <c r="BY97" s="1"/>
+      <c r="BZ97" s="1"/>
+      <c r="CA97" s="1"/>
+      <c r="CB97" s="1"/>
+      <c r="CC97" s="1"/>
+      <c r="CD97" s="1"/>
+      <c r="CE97" s="1"/>
+      <c r="CF97" s="1"/>
+      <c r="CG97" s="1"/>
+      <c r="CH97" s="1"/>
+      <c r="CI97" s="1"/>
+      <c r="CJ97" s="1"/>
+      <c r="CK97" s="1"/>
+      <c r="CL97" s="1"/>
+      <c r="CM97" s="1"/>
+      <c r="CN97" s="1"/>
+      <c r="CO97" s="1"/>
+      <c r="CP97" s="1"/>
+      <c r="CQ97" s="1"/>
+      <c r="CR97" s="35"/>
+      <c r="CS97" s="34"/>
+      <c r="CT97" s="36"/>
+      <c r="CU97" s="1"/>
+      <c r="CV97" s="1"/>
+      <c r="CW97" s="1"/>
+      <c r="CX97" s="1"/>
+      <c r="CY97" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="98" spans="1:103" ht="18" customHeight="1">
+      <c r="A98" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F98" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G98" s="64" t="s">
+        <v>651</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="1"/>
+      <c r="AU98" s="1"/>
+      <c r="AV98" s="1"/>
+      <c r="AW98" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="1"/>
+      <c r="BE98" s="1"/>
+      <c r="BF98" s="1"/>
+      <c r="BG98" s="1"/>
+      <c r="BH98" s="1"/>
+      <c r="BI98" s="1"/>
+      <c r="BJ98" s="1"/>
+      <c r="BK98" s="1"/>
+      <c r="BL98" s="1"/>
+      <c r="BM98" s="1"/>
+      <c r="BN98" s="1"/>
+      <c r="BO98" s="1"/>
+      <c r="BP98" s="1"/>
+      <c r="BQ98" s="1"/>
+      <c r="BR98" s="1"/>
+      <c r="BS98" s="1"/>
+      <c r="BT98" s="1"/>
+      <c r="BU98" s="1"/>
+      <c r="BV98" s="1"/>
+      <c r="BW98" s="1"/>
+      <c r="BX98" s="1"/>
+      <c r="BY98" s="1"/>
+      <c r="BZ98" s="1"/>
+      <c r="CA98" s="1"/>
+      <c r="CB98" s="1"/>
+      <c r="CC98" s="1"/>
+      <c r="CD98" s="1"/>
+      <c r="CE98" s="1"/>
+      <c r="CF98" s="1"/>
+      <c r="CG98" s="1"/>
+      <c r="CH98" s="1"/>
+      <c r="CI98" s="1"/>
+      <c r="CJ98" s="1"/>
+      <c r="CK98" s="1"/>
+      <c r="CL98" s="1"/>
+      <c r="CM98" s="1"/>
+      <c r="CN98" s="1"/>
+      <c r="CO98" s="1"/>
+      <c r="CP98" s="1"/>
+      <c r="CQ98" s="1"/>
+      <c r="CR98" s="35"/>
+      <c r="CS98" s="34"/>
+      <c r="CT98" s="36"/>
+      <c r="CU98" s="1"/>
+      <c r="CV98" s="1"/>
+      <c r="CW98" s="1"/>
+      <c r="CX98" s="1"/>
+      <c r="CY98" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="99" spans="1:103" ht="18" customHeight="1">
+      <c r="A99" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F99" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G99" s="64" t="s">
+        <v>652</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1"/>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="1"/>
+      <c r="AW99" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
+      <c r="BC99" s="1"/>
+      <c r="BD99" s="1"/>
+      <c r="BE99" s="1"/>
+      <c r="BF99" s="1"/>
+      <c r="BG99" s="1"/>
+      <c r="BH99" s="1"/>
+      <c r="BI99" s="1"/>
+      <c r="BJ99" s="1"/>
+      <c r="BK99" s="1"/>
+      <c r="BL99" s="1"/>
+      <c r="BM99" s="1"/>
+      <c r="BN99" s="1"/>
+      <c r="BO99" s="1"/>
+      <c r="BP99" s="1"/>
+      <c r="BQ99" s="1"/>
+      <c r="BR99" s="1"/>
+      <c r="BS99" s="1"/>
+      <c r="BT99" s="1"/>
+      <c r="BU99" s="1"/>
+      <c r="BV99" s="1"/>
+      <c r="BW99" s="1"/>
+      <c r="BX99" s="1"/>
+      <c r="BY99" s="1"/>
+      <c r="BZ99" s="1"/>
+      <c r="CA99" s="1"/>
+      <c r="CB99" s="1"/>
+      <c r="CC99" s="1"/>
+      <c r="CD99" s="1"/>
+      <c r="CE99" s="1"/>
+      <c r="CF99" s="1"/>
+      <c r="CG99" s="1"/>
+      <c r="CH99" s="1"/>
+      <c r="CI99" s="1"/>
+      <c r="CJ99" s="1"/>
+      <c r="CK99" s="1"/>
+      <c r="CL99" s="1"/>
+      <c r="CM99" s="1"/>
+      <c r="CN99" s="1"/>
+      <c r="CO99" s="1"/>
+      <c r="CP99" s="1"/>
+      <c r="CQ99" s="1"/>
+      <c r="CR99" s="35"/>
+      <c r="CS99" s="34"/>
+      <c r="CT99" s="36"/>
+      <c r="CU99" s="1"/>
+      <c r="CV99" s="1"/>
+      <c r="CW99" s="1"/>
+      <c r="CX99" s="1"/>
+      <c r="CY99" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="100" spans="1:103" ht="18" customHeight="1">
+      <c r="A100" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F100" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G100" s="64" t="s">
+        <v>653</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="40"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+      <c r="AN100" s="1"/>
+      <c r="AO100" s="1"/>
+      <c r="AP100" s="1"/>
+      <c r="AQ100" s="1"/>
+      <c r="AR100" s="1"/>
+      <c r="AS100" s="1"/>
+      <c r="AT100" s="1"/>
+      <c r="AU100" s="1"/>
+      <c r="AV100" s="1"/>
+      <c r="AW100" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX100" s="1"/>
+      <c r="AY100" s="1"/>
+      <c r="AZ100" s="1"/>
+      <c r="BA100" s="1"/>
+      <c r="BB100" s="1"/>
+      <c r="BC100" s="1"/>
+      <c r="BD100" s="1"/>
+      <c r="BE100" s="1"/>
+      <c r="BF100" s="1"/>
+      <c r="BG100" s="1"/>
+      <c r="BH100" s="1"/>
+      <c r="BI100" s="1"/>
+      <c r="BJ100" s="1"/>
+      <c r="BK100" s="1"/>
+      <c r="BL100" s="1"/>
+      <c r="BM100" s="1"/>
+      <c r="BN100" s="1"/>
+      <c r="BO100" s="1"/>
+      <c r="BP100" s="1"/>
+      <c r="BQ100" s="1"/>
+      <c r="BR100" s="1"/>
+      <c r="BS100" s="1"/>
+      <c r="BT100" s="1"/>
+      <c r="BU100" s="1"/>
+      <c r="BV100" s="1"/>
+      <c r="BW100" s="1"/>
+      <c r="BX100" s="1"/>
+      <c r="BY100" s="1"/>
+      <c r="BZ100" s="1"/>
+      <c r="CA100" s="1"/>
+      <c r="CB100" s="1"/>
+      <c r="CC100" s="1"/>
+      <c r="CD100" s="1"/>
+      <c r="CE100" s="1"/>
+      <c r="CF100" s="1"/>
+      <c r="CG100" s="1"/>
+      <c r="CH100" s="1"/>
+      <c r="CI100" s="1"/>
+      <c r="CJ100" s="1"/>
+      <c r="CK100" s="1"/>
+      <c r="CL100" s="1"/>
+      <c r="CM100" s="1"/>
+      <c r="CN100" s="1"/>
+      <c r="CO100" s="1"/>
+      <c r="CP100" s="1"/>
+      <c r="CQ100" s="1"/>
+      <c r="CR100" s="35"/>
+      <c r="CS100" s="34"/>
+      <c r="CT100" s="36"/>
+      <c r="CU100" s="1"/>
+      <c r="CV100" s="1"/>
+      <c r="CW100" s="1"/>
+      <c r="CX100" s="1"/>
+      <c r="CY100" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="101" spans="1:103" ht="18" customHeight="1">
+      <c r="A101" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F101" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G101" s="64" t="s">
+        <v>654</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="40"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="1"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="1"/>
+      <c r="AN101" s="1"/>
+      <c r="AO101" s="1"/>
+      <c r="AP101" s="1"/>
+      <c r="AQ101" s="1"/>
+      <c r="AR101" s="1"/>
+      <c r="AS101" s="1"/>
+      <c r="AT101" s="1"/>
+      <c r="AU101" s="1"/>
+      <c r="AV101" s="1"/>
+      <c r="AW101" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX101" s="1"/>
+      <c r="AY101" s="1"/>
+      <c r="AZ101" s="1"/>
+      <c r="BA101" s="1"/>
+      <c r="BB101" s="1"/>
+      <c r="BC101" s="1"/>
+      <c r="BD101" s="1"/>
+      <c r="BE101" s="1"/>
+      <c r="BF101" s="1"/>
+      <c r="BG101" s="1"/>
+      <c r="BH101" s="1"/>
+      <c r="BI101" s="1"/>
+      <c r="BJ101" s="1"/>
+      <c r="BK101" s="1"/>
+      <c r="BL101" s="1"/>
+      <c r="BM101" s="1"/>
+      <c r="BN101" s="1"/>
+      <c r="BO101" s="1"/>
+      <c r="BP101" s="1"/>
+      <c r="BQ101" s="1"/>
+      <c r="BR101" s="1"/>
+      <c r="BS101" s="1"/>
+      <c r="BT101" s="1"/>
+      <c r="BU101" s="1"/>
+      <c r="BV101" s="1"/>
+      <c r="BW101" s="1"/>
+      <c r="BX101" s="1"/>
+      <c r="BY101" s="1"/>
+      <c r="BZ101" s="1"/>
+      <c r="CA101" s="1"/>
+      <c r="CB101" s="1"/>
+      <c r="CC101" s="1"/>
+      <c r="CD101" s="1"/>
+      <c r="CE101" s="1"/>
+      <c r="CF101" s="1"/>
+      <c r="CG101" s="1"/>
+      <c r="CH101" s="1"/>
+      <c r="CI101" s="1"/>
+      <c r="CJ101" s="1"/>
+      <c r="CK101" s="1"/>
+      <c r="CL101" s="1"/>
+      <c r="CM101" s="1"/>
+      <c r="CN101" s="1"/>
+      <c r="CO101" s="1"/>
+      <c r="CP101" s="1"/>
+      <c r="CQ101" s="1"/>
+      <c r="CR101" s="35"/>
+      <c r="CS101" s="34"/>
+      <c r="CT101" s="36"/>
+      <c r="CU101" s="1"/>
+      <c r="CV101" s="1"/>
+      <c r="CW101" s="1"/>
+      <c r="CX101" s="1"/>
+      <c r="CY101" s="64" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:103" ht="18" customHeight="1">
+      <c r="A102" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E102" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F102" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G102" s="64" t="s">
+        <v>655</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
+      <c r="AN102" s="1"/>
+      <c r="AO102" s="1"/>
+      <c r="AP102" s="1"/>
+      <c r="AQ102" s="1"/>
+      <c r="AR102" s="1"/>
+      <c r="AS102" s="1"/>
+      <c r="AT102" s="1"/>
+      <c r="AU102" s="1"/>
+      <c r="AV102" s="1"/>
+      <c r="AW102" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX102" s="1"/>
+      <c r="AY102" s="1"/>
+      <c r="AZ102" s="1"/>
+      <c r="BA102" s="1"/>
+      <c r="BB102" s="1"/>
+      <c r="BC102" s="1"/>
+      <c r="BD102" s="1"/>
+      <c r="BE102" s="1"/>
+      <c r="BF102" s="1"/>
+      <c r="BG102" s="1"/>
+      <c r="BH102" s="1"/>
+      <c r="BI102" s="1"/>
+      <c r="BJ102" s="1"/>
+      <c r="BK102" s="1"/>
+      <c r="BL102" s="1"/>
+      <c r="BM102" s="1"/>
+      <c r="BN102" s="1"/>
+      <c r="BO102" s="1"/>
+      <c r="BP102" s="1"/>
+      <c r="BQ102" s="1"/>
+      <c r="BR102" s="1"/>
+      <c r="BS102" s="1"/>
+      <c r="BT102" s="1"/>
+      <c r="BU102" s="1"/>
+      <c r="BV102" s="1"/>
+      <c r="BW102" s="1"/>
+      <c r="BX102" s="1"/>
+      <c r="BY102" s="1"/>
+      <c r="BZ102" s="1"/>
+      <c r="CA102" s="1"/>
+      <c r="CB102" s="1"/>
+      <c r="CC102" s="1"/>
+      <c r="CD102" s="1"/>
+      <c r="CE102" s="1"/>
+      <c r="CF102" s="1"/>
+      <c r="CG102" s="1"/>
+      <c r="CH102" s="1"/>
+      <c r="CI102" s="1"/>
+      <c r="CJ102" s="1"/>
+      <c r="CK102" s="1"/>
+      <c r="CL102" s="1"/>
+      <c r="CM102" s="1"/>
+      <c r="CN102" s="1"/>
+      <c r="CO102" s="1"/>
+      <c r="CP102" s="1"/>
+      <c r="CQ102" s="1"/>
+      <c r="CR102" s="35"/>
+      <c r="CS102" s="34"/>
+      <c r="CT102" s="36"/>
+      <c r="CU102" s="1"/>
+      <c r="CV102" s="1"/>
+      <c r="CW102" s="1"/>
+      <c r="CX102" s="1"/>
+      <c r="CY102" s="64" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="103" spans="1:103" ht="18" customHeight="1">
+      <c r="A103" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F103" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G103" s="64" t="s">
+        <v>656</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="40"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+      <c r="AN103" s="1"/>
+      <c r="AO103" s="1"/>
+      <c r="AP103" s="1"/>
+      <c r="AQ103" s="1"/>
+      <c r="AR103" s="1"/>
+      <c r="AS103" s="1"/>
+      <c r="AT103" s="1"/>
+      <c r="AU103" s="1"/>
+      <c r="AV103" s="1"/>
+      <c r="AW103" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX103" s="1"/>
+      <c r="AY103" s="1"/>
+      <c r="AZ103" s="1"/>
+      <c r="BA103" s="1"/>
+      <c r="BB103" s="1"/>
+      <c r="BC103" s="1"/>
+      <c r="BD103" s="1"/>
+      <c r="BE103" s="1"/>
+      <c r="BF103" s="1"/>
+      <c r="BG103" s="1"/>
+      <c r="BH103" s="1"/>
+      <c r="BI103" s="1"/>
+      <c r="BJ103" s="1"/>
+      <c r="BK103" s="1"/>
+      <c r="BL103" s="1"/>
+      <c r="BM103" s="1"/>
+      <c r="BN103" s="1"/>
+      <c r="BO103" s="1"/>
+      <c r="BP103" s="1"/>
+      <c r="BQ103" s="1"/>
+      <c r="BR103" s="1"/>
+      <c r="BS103" s="1"/>
+      <c r="BT103" s="1"/>
+      <c r="BU103" s="1"/>
+      <c r="BV103" s="1"/>
+      <c r="BW103" s="1"/>
+      <c r="BX103" s="1"/>
+      <c r="BY103" s="1"/>
+      <c r="BZ103" s="1"/>
+      <c r="CA103" s="1"/>
+      <c r="CB103" s="1"/>
+      <c r="CC103" s="1"/>
+      <c r="CD103" s="1"/>
+      <c r="CE103" s="1"/>
+      <c r="CF103" s="1"/>
+      <c r="CG103" s="1"/>
+      <c r="CH103" s="1"/>
+      <c r="CI103" s="1"/>
+      <c r="CJ103" s="1"/>
+      <c r="CK103" s="1"/>
+      <c r="CL103" s="1"/>
+      <c r="CM103" s="1"/>
+      <c r="CN103" s="1"/>
+      <c r="CO103" s="1"/>
+      <c r="CP103" s="1"/>
+      <c r="CQ103" s="1"/>
+      <c r="CR103" s="35"/>
+      <c r="CS103" s="34"/>
+      <c r="CT103" s="36"/>
+      <c r="CU103" s="1"/>
+      <c r="CV103" s="1"/>
+      <c r="CW103" s="1"/>
+      <c r="CX103" s="1"/>
+      <c r="CY103" s="64" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="104" spans="1:103" ht="18" customHeight="1">
+      <c r="A104" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B104" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D104" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E104" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F104" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G104" s="64" t="s">
+        <v>657</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="40"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
+      <c r="AM104" s="1"/>
+      <c r="AN104" s="1"/>
+      <c r="AO104" s="1"/>
+      <c r="AP104" s="1"/>
+      <c r="AQ104" s="1"/>
+      <c r="AR104" s="1"/>
+      <c r="AS104" s="1"/>
+      <c r="AT104" s="1"/>
+      <c r="AU104" s="1"/>
+      <c r="AV104" s="1"/>
+      <c r="AW104" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX104" s="1"/>
+      <c r="AY104" s="1"/>
+      <c r="AZ104" s="1"/>
+      <c r="BA104" s="1"/>
+      <c r="BB104" s="1"/>
+      <c r="BC104" s="1"/>
+      <c r="BD104" s="1"/>
+      <c r="BE104" s="1"/>
+      <c r="BF104" s="1"/>
+      <c r="BG104" s="1"/>
+      <c r="BH104" s="1"/>
+      <c r="BI104" s="1"/>
+      <c r="BJ104" s="1"/>
+      <c r="BK104" s="1"/>
+      <c r="BL104" s="1"/>
+      <c r="BM104" s="1"/>
+      <c r="BN104" s="1"/>
+      <c r="BO104" s="1"/>
+      <c r="BP104" s="1"/>
+      <c r="BQ104" s="1"/>
+      <c r="BR104" s="1"/>
+      <c r="BS104" s="1"/>
+      <c r="BT104" s="1"/>
+      <c r="BU104" s="1"/>
+      <c r="BV104" s="1"/>
+      <c r="BW104" s="1"/>
+      <c r="BX104" s="1"/>
+      <c r="BY104" s="1"/>
+      <c r="BZ104" s="1"/>
+      <c r="CA104" s="1"/>
+      <c r="CB104" s="1"/>
+      <c r="CC104" s="1"/>
+      <c r="CD104" s="1"/>
+      <c r="CE104" s="1"/>
+      <c r="CF104" s="1"/>
+      <c r="CG104" s="1"/>
+      <c r="CH104" s="1"/>
+      <c r="CI104" s="1"/>
+      <c r="CJ104" s="1"/>
+      <c r="CK104" s="1"/>
+      <c r="CL104" s="1"/>
+      <c r="CM104" s="1"/>
+      <c r="CN104" s="1"/>
+      <c r="CO104" s="1"/>
+      <c r="CP104" s="1"/>
+      <c r="CQ104" s="1"/>
+      <c r="CR104" s="35"/>
+      <c r="CS104" s="34"/>
+      <c r="CT104" s="36"/>
+      <c r="CU104" s="1"/>
+      <c r="CV104" s="1"/>
+      <c r="CW104" s="1"/>
+      <c r="CX104" s="1"/>
+      <c r="CY104" s="64" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="105" spans="1:103" ht="18" customHeight="1">
+      <c r="A105" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B105" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D105" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E105" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F105" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G105" s="64" t="s">
+        <v>658</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="40"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+      <c r="AM105" s="1"/>
+      <c r="AN105" s="1"/>
+      <c r="AO105" s="1"/>
+      <c r="AP105" s="1"/>
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="1"/>
+      <c r="AS105" s="1"/>
+      <c r="AT105" s="1"/>
+      <c r="AU105" s="1"/>
+      <c r="AV105" s="1"/>
+      <c r="AW105" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX105" s="1"/>
+      <c r="AY105" s="1"/>
+      <c r="AZ105" s="1"/>
+      <c r="BA105" s="1"/>
+      <c r="BB105" s="1"/>
+      <c r="BC105" s="1"/>
+      <c r="BD105" s="1"/>
+      <c r="BE105" s="1"/>
+      <c r="BF105" s="1"/>
+      <c r="BG105" s="1"/>
+      <c r="BH105" s="1"/>
+      <c r="BI105" s="1"/>
+      <c r="BJ105" s="1"/>
+      <c r="BK105" s="1"/>
+      <c r="BL105" s="1"/>
+      <c r="BM105" s="1"/>
+      <c r="BN105" s="1"/>
+      <c r="BO105" s="1"/>
+      <c r="BP105" s="1"/>
+      <c r="BQ105" s="1"/>
+      <c r="BR105" s="1"/>
+      <c r="BS105" s="1"/>
+      <c r="BT105" s="1"/>
+      <c r="BU105" s="1"/>
+      <c r="BV105" s="1"/>
+      <c r="BW105" s="1"/>
+      <c r="BX105" s="1"/>
+      <c r="BY105" s="1"/>
+      <c r="BZ105" s="1"/>
+      <c r="CA105" s="1"/>
+      <c r="CB105" s="1"/>
+      <c r="CC105" s="1"/>
+      <c r="CD105" s="1"/>
+      <c r="CE105" s="1"/>
+      <c r="CF105" s="1"/>
+      <c r="CG105" s="1"/>
+      <c r="CH105" s="1"/>
+      <c r="CI105" s="1"/>
+      <c r="CJ105" s="1"/>
+      <c r="CK105" s="1"/>
+      <c r="CL105" s="1"/>
+      <c r="CM105" s="1"/>
+      <c r="CN105" s="1"/>
+      <c r="CO105" s="1"/>
+      <c r="CP105" s="1"/>
+      <c r="CQ105" s="1"/>
+      <c r="CR105" s="35"/>
+      <c r="CS105" s="34"/>
+      <c r="CT105" s="36"/>
+      <c r="CU105" s="1"/>
+      <c r="CV105" s="1"/>
+      <c r="CW105" s="1"/>
+      <c r="CX105" s="1"/>
+      <c r="CY105" s="64" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="106" spans="1:103" ht="18" customHeight="1">
+      <c r="A106" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B106" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D106" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E106" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F106" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G106" s="64" t="s">
+        <v>659</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="40"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="1"/>
+      <c r="AN106" s="1"/>
+      <c r="AO106" s="1"/>
+      <c r="AP106" s="1"/>
+      <c r="AQ106" s="1"/>
+      <c r="AR106" s="1"/>
+      <c r="AS106" s="1"/>
+      <c r="AT106" s="1"/>
+      <c r="AU106" s="1"/>
+      <c r="AV106" s="1"/>
+      <c r="AW106" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX106" s="1"/>
+      <c r="AY106" s="1"/>
+      <c r="AZ106" s="1"/>
+      <c r="BA106" s="1"/>
+      <c r="BB106" s="1"/>
+      <c r="BC106" s="1"/>
+      <c r="BD106" s="1"/>
+      <c r="BE106" s="1"/>
+      <c r="BF106" s="1"/>
+      <c r="BG106" s="1"/>
+      <c r="BH106" s="1"/>
+      <c r="BI106" s="1"/>
+      <c r="BJ106" s="1"/>
+      <c r="BK106" s="1"/>
+      <c r="BL106" s="1"/>
+      <c r="BM106" s="1"/>
+      <c r="BN106" s="1"/>
+      <c r="BO106" s="1"/>
+      <c r="BP106" s="1"/>
+      <c r="BQ106" s="1"/>
+      <c r="BR106" s="1"/>
+      <c r="BS106" s="1"/>
+      <c r="BT106" s="1"/>
+      <c r="BU106" s="1"/>
+      <c r="BV106" s="1"/>
+      <c r="BW106" s="1"/>
+      <c r="BX106" s="1"/>
+      <c r="BY106" s="1"/>
+      <c r="BZ106" s="1"/>
+      <c r="CA106" s="1"/>
+      <c r="CB106" s="1"/>
+      <c r="CC106" s="1"/>
+      <c r="CD106" s="1"/>
+      <c r="CE106" s="1"/>
+      <c r="CF106" s="1"/>
+      <c r="CG106" s="1"/>
+      <c r="CH106" s="1"/>
+      <c r="CI106" s="1"/>
+      <c r="CJ106" s="1"/>
+      <c r="CK106" s="1"/>
+      <c r="CL106" s="1"/>
+      <c r="CM106" s="1"/>
+      <c r="CN106" s="1"/>
+      <c r="CO106" s="1"/>
+      <c r="CP106" s="1"/>
+      <c r="CQ106" s="1"/>
+      <c r="CR106" s="35"/>
+      <c r="CS106" s="34"/>
+      <c r="CT106" s="36"/>
+      <c r="CU106" s="1"/>
+      <c r="CV106" s="1"/>
+      <c r="CW106" s="1"/>
+      <c r="CX106" s="1"/>
+      <c r="CY106" s="64" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="107" spans="1:103" ht="18" customHeight="1">
+      <c r="A107" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B107" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F107" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G107" s="64" t="s">
+        <v>660</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="40"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
+      <c r="AM107" s="1"/>
+      <c r="AN107" s="1"/>
+      <c r="AO107" s="1"/>
+      <c r="AP107" s="1"/>
+      <c r="AQ107" s="1"/>
+      <c r="AR107" s="1"/>
+      <c r="AS107" s="1"/>
+      <c r="AT107" s="1"/>
+      <c r="AU107" s="1"/>
+      <c r="AV107" s="1"/>
+      <c r="AW107" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX107" s="1"/>
+      <c r="AY107" s="1"/>
+      <c r="AZ107" s="1"/>
+      <c r="BA107" s="1"/>
+      <c r="BB107" s="1"/>
+      <c r="BC107" s="1"/>
+      <c r="BD107" s="1"/>
+      <c r="BE107" s="1"/>
+      <c r="BF107" s="1"/>
+      <c r="BG107" s="1"/>
+      <c r="BH107" s="1"/>
+      <c r="BI107" s="1"/>
+      <c r="BJ107" s="1"/>
+      <c r="BK107" s="1"/>
+      <c r="BL107" s="1"/>
+      <c r="BM107" s="1"/>
+      <c r="BN107" s="1"/>
+      <c r="BO107" s="1"/>
+      <c r="BP107" s="1"/>
+      <c r="BQ107" s="1"/>
+      <c r="BR107" s="1"/>
+      <c r="BS107" s="1"/>
+      <c r="BT107" s="1"/>
+      <c r="BU107" s="1"/>
+      <c r="BV107" s="1"/>
+      <c r="BW107" s="1"/>
+      <c r="BX107" s="1"/>
+      <c r="BY107" s="1"/>
+      <c r="BZ107" s="1"/>
+      <c r="CA107" s="1"/>
+      <c r="CB107" s="1"/>
+      <c r="CC107" s="1"/>
+      <c r="CD107" s="1"/>
+      <c r="CE107" s="1"/>
+      <c r="CF107" s="1"/>
+      <c r="CG107" s="1"/>
+      <c r="CH107" s="1"/>
+      <c r="CI107" s="1"/>
+      <c r="CJ107" s="1"/>
+      <c r="CK107" s="1"/>
+      <c r="CL107" s="1"/>
+      <c r="CM107" s="1"/>
+      <c r="CN107" s="1"/>
+      <c r="CO107" s="1"/>
+      <c r="CP107" s="1"/>
+      <c r="CQ107" s="1"/>
+      <c r="CR107" s="35"/>
+      <c r="CS107" s="34"/>
+      <c r="CT107" s="36"/>
+      <c r="CU107" s="1"/>
+      <c r="CV107" s="1"/>
+      <c r="CW107" s="1"/>
+      <c r="CX107" s="1"/>
+      <c r="CY107" s="64" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="108" spans="1:103" ht="18" customHeight="1">
+      <c r="A108" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D108" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E108" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F108" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G108" s="64" t="s">
+        <v>661</v>
+      </c>
+      <c r="H108" s="1"/>
+      <c r="I108" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="40"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
+      <c r="AN108" s="1"/>
+      <c r="AO108" s="1"/>
+      <c r="AP108" s="1"/>
+      <c r="AQ108" s="1"/>
+      <c r="AR108" s="1"/>
+      <c r="AS108" s="1"/>
+      <c r="AT108" s="1"/>
+      <c r="AU108" s="1"/>
+      <c r="AV108" s="1"/>
+      <c r="AW108" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX108" s="1"/>
+      <c r="AY108" s="1"/>
+      <c r="AZ108" s="1"/>
+      <c r="BA108" s="1"/>
+      <c r="BB108" s="1"/>
+      <c r="BC108" s="1"/>
+      <c r="BD108" s="1"/>
+      <c r="BE108" s="1"/>
+      <c r="BF108" s="1"/>
+      <c r="BG108" s="1"/>
+      <c r="BH108" s="1"/>
+      <c r="BI108" s="1"/>
+      <c r="BJ108" s="1"/>
+      <c r="BK108" s="1"/>
+      <c r="BL108" s="1"/>
+      <c r="BM108" s="1"/>
+      <c r="BN108" s="1"/>
+      <c r="BO108" s="1"/>
+      <c r="BP108" s="1"/>
+      <c r="BQ108" s="1"/>
+      <c r="BR108" s="1"/>
+      <c r="BS108" s="1"/>
+      <c r="BT108" s="1"/>
+      <c r="BU108" s="1"/>
+      <c r="BV108" s="1"/>
+      <c r="BW108" s="1"/>
+      <c r="BX108" s="1"/>
+      <c r="BY108" s="1"/>
+      <c r="BZ108" s="1"/>
+      <c r="CA108" s="1"/>
+      <c r="CB108" s="1"/>
+      <c r="CC108" s="1"/>
+      <c r="CD108" s="1"/>
+      <c r="CE108" s="1"/>
+      <c r="CF108" s="1"/>
+      <c r="CG108" s="1"/>
+      <c r="CH108" s="1"/>
+      <c r="CI108" s="1"/>
+      <c r="CJ108" s="1"/>
+      <c r="CK108" s="1"/>
+      <c r="CL108" s="1"/>
+      <c r="CM108" s="1"/>
+      <c r="CN108" s="1"/>
+      <c r="CO108" s="1"/>
+      <c r="CP108" s="1"/>
+      <c r="CQ108" s="1"/>
+      <c r="CR108" s="35"/>
+      <c r="CS108" s="34"/>
+      <c r="CT108" s="36"/>
+      <c r="CU108" s="1"/>
+      <c r="CV108" s="1"/>
+      <c r="CW108" s="1"/>
+      <c r="CX108" s="1"/>
+      <c r="CY108" s="64" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="109" spans="1:103" ht="18" customHeight="1">
+      <c r="A109" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D109" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E109" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F109" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G109" s="64" t="s">
+        <v>662</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="40"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="1"/>
+      <c r="AJ109" s="1"/>
+      <c r="AK109" s="1"/>
+      <c r="AL109" s="1"/>
+      <c r="AM109" s="1"/>
+      <c r="AN109" s="1"/>
+      <c r="AO109" s="1"/>
+      <c r="AP109" s="1"/>
+      <c r="AQ109" s="1"/>
+      <c r="AR109" s="1"/>
+      <c r="AS109" s="1"/>
+      <c r="AT109" s="1"/>
+      <c r="AU109" s="1"/>
+      <c r="AV109" s="1"/>
+      <c r="AW109" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX109" s="1"/>
+      <c r="AY109" s="1"/>
+      <c r="AZ109" s="1"/>
+      <c r="BA109" s="1"/>
+      <c r="BB109" s="1"/>
+      <c r="BC109" s="1"/>
+      <c r="BD109" s="1"/>
+      <c r="BE109" s="1"/>
+      <c r="BF109" s="1"/>
+      <c r="BG109" s="1"/>
+      <c r="BH109" s="1"/>
+      <c r="BI109" s="1"/>
+      <c r="BJ109" s="1"/>
+      <c r="BK109" s="1"/>
+      <c r="BL109" s="1"/>
+      <c r="BM109" s="1"/>
+      <c r="BN109" s="1"/>
+      <c r="BO109" s="1"/>
+      <c r="BP109" s="1"/>
+      <c r="BQ109" s="1"/>
+      <c r="BR109" s="1"/>
+      <c r="BS109" s="1"/>
+      <c r="BT109" s="1"/>
+      <c r="BU109" s="1"/>
+      <c r="BV109" s="1"/>
+      <c r="BW109" s="1"/>
+      <c r="BX109" s="1"/>
+      <c r="BY109" s="1"/>
+      <c r="BZ109" s="1"/>
+      <c r="CA109" s="1"/>
+      <c r="CB109" s="1"/>
+      <c r="CC109" s="1"/>
+      <c r="CD109" s="1"/>
+      <c r="CE109" s="1"/>
+      <c r="CF109" s="1"/>
+      <c r="CG109" s="1"/>
+      <c r="CH109" s="1"/>
+      <c r="CI109" s="1"/>
+      <c r="CJ109" s="1"/>
+      <c r="CK109" s="1"/>
+      <c r="CL109" s="1"/>
+      <c r="CM109" s="1"/>
+      <c r="CN109" s="1"/>
+      <c r="CO109" s="1"/>
+      <c r="CP109" s="1"/>
+      <c r="CQ109" s="1"/>
+      <c r="CR109" s="35"/>
+      <c r="CS109" s="34"/>
+      <c r="CT109" s="36"/>
+      <c r="CU109" s="1"/>
+      <c r="CV109" s="1"/>
+      <c r="CW109" s="1"/>
+      <c r="CX109" s="1"/>
+      <c r="CY109" s="64" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="110" spans="1:103" ht="18" customHeight="1">
+      <c r="A110" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D110" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E110" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F110" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G110" s="64" t="s">
+        <v>663</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="40"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+      <c r="AH110" s="1"/>
+      <c r="AI110" s="1"/>
+      <c r="AJ110" s="1"/>
+      <c r="AK110" s="1"/>
+      <c r="AL110" s="1"/>
+      <c r="AM110" s="1"/>
+      <c r="AN110" s="1"/>
+      <c r="AO110" s="1"/>
+      <c r="AP110" s="1"/>
+      <c r="AQ110" s="1"/>
+      <c r="AR110" s="1"/>
+      <c r="AS110" s="1"/>
+      <c r="AT110" s="1"/>
+      <c r="AU110" s="1"/>
+      <c r="AV110" s="1"/>
+      <c r="AW110" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX110" s="1"/>
+      <c r="AY110" s="1"/>
+      <c r="AZ110" s="1"/>
+      <c r="BA110" s="1"/>
+      <c r="BB110" s="1"/>
+      <c r="BC110" s="1"/>
+      <c r="BD110" s="1"/>
+      <c r="BE110" s="1"/>
+      <c r="BF110" s="1"/>
+      <c r="BG110" s="1"/>
+      <c r="BH110" s="1"/>
+      <c r="BI110" s="1"/>
+      <c r="BJ110" s="1"/>
+      <c r="BK110" s="1"/>
+      <c r="BL110" s="1"/>
+      <c r="BM110" s="1"/>
+      <c r="BN110" s="1"/>
+      <c r="BO110" s="1"/>
+      <c r="BP110" s="1"/>
+      <c r="BQ110" s="1"/>
+      <c r="BR110" s="1"/>
+      <c r="BS110" s="1"/>
+      <c r="BT110" s="1"/>
+      <c r="BU110" s="1"/>
+      <c r="BV110" s="1"/>
+      <c r="BW110" s="1"/>
+      <c r="BX110" s="1"/>
+      <c r="BY110" s="1"/>
+      <c r="BZ110" s="1"/>
+      <c r="CA110" s="1"/>
+      <c r="CB110" s="1"/>
+      <c r="CC110" s="1"/>
+      <c r="CD110" s="1"/>
+      <c r="CE110" s="1"/>
+      <c r="CF110" s="1"/>
+      <c r="CG110" s="1"/>
+      <c r="CH110" s="1"/>
+      <c r="CI110" s="1"/>
+      <c r="CJ110" s="1"/>
+      <c r="CK110" s="1"/>
+      <c r="CL110" s="1"/>
+      <c r="CM110" s="1"/>
+      <c r="CN110" s="1"/>
+      <c r="CO110" s="1"/>
+      <c r="CP110" s="1"/>
+      <c r="CQ110" s="1"/>
+      <c r="CR110" s="35"/>
+      <c r="CS110" s="34"/>
+      <c r="CT110" s="36"/>
+      <c r="CU110" s="1"/>
+      <c r="CV110" s="1"/>
+      <c r="CW110" s="1"/>
+      <c r="CX110" s="1"/>
+      <c r="CY110" s="64" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="111" spans="1:103" ht="18" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D111" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E111" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F111" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G111" s="64" t="s">
+        <v>664</v>
+      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="40"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
+      <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
+      <c r="AN111" s="1"/>
+      <c r="AO111" s="1"/>
+      <c r="AP111" s="1"/>
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="1"/>
+      <c r="AS111" s="1"/>
+      <c r="AT111" s="1"/>
+      <c r="AU111" s="1"/>
+      <c r="AV111" s="1"/>
+      <c r="AW111" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX111" s="1"/>
+      <c r="AY111" s="1"/>
+      <c r="AZ111" s="1"/>
+      <c r="BA111" s="1"/>
+      <c r="BB111" s="1"/>
+      <c r="BC111" s="1"/>
+      <c r="BD111" s="1"/>
+      <c r="BE111" s="1"/>
+      <c r="BF111" s="1"/>
+      <c r="BG111" s="1"/>
+      <c r="BH111" s="1"/>
+      <c r="BI111" s="1"/>
+      <c r="BJ111" s="1"/>
+      <c r="BK111" s="1"/>
+      <c r="BL111" s="1"/>
+      <c r="BM111" s="1"/>
+      <c r="BN111" s="1"/>
+      <c r="BO111" s="1"/>
+      <c r="BP111" s="1"/>
+      <c r="BQ111" s="1"/>
+      <c r="BR111" s="1"/>
+      <c r="BS111" s="1"/>
+      <c r="BT111" s="1"/>
+      <c r="BU111" s="1"/>
+      <c r="BV111" s="1"/>
+      <c r="BW111" s="1"/>
+      <c r="BX111" s="1"/>
+      <c r="BY111" s="1"/>
+      <c r="BZ111" s="1"/>
+      <c r="CA111" s="1"/>
+      <c r="CB111" s="1"/>
+      <c r="CC111" s="1"/>
+      <c r="CD111" s="1"/>
+      <c r="CE111" s="1"/>
+      <c r="CF111" s="1"/>
+      <c r="CG111" s="1"/>
+      <c r="CH111" s="1"/>
+      <c r="CI111" s="1"/>
+      <c r="CJ111" s="1"/>
+      <c r="CK111" s="1"/>
+      <c r="CL111" s="1"/>
+      <c r="CM111" s="1"/>
+      <c r="CN111" s="1"/>
+      <c r="CO111" s="1"/>
+      <c r="CP111" s="1"/>
+      <c r="CQ111" s="1"/>
+      <c r="CR111" s="35"/>
+      <c r="CS111" s="34"/>
+      <c r="CT111" s="36"/>
+      <c r="CU111" s="1"/>
+      <c r="CV111" s="1"/>
+      <c r="CW111" s="1"/>
+      <c r="CX111" s="1"/>
+      <c r="CY111" s="64" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="112" spans="1:103" ht="18" customHeight="1">
+      <c r="A112" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D112" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E112" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F112" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G112" s="64" t="s">
+        <v>665</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="40"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+      <c r="AJ112" s="1"/>
+      <c r="AK112" s="1"/>
+      <c r="AL112" s="1"/>
+      <c r="AM112" s="1"/>
+      <c r="AN112" s="1"/>
+      <c r="AO112" s="1"/>
+      <c r="AP112" s="1"/>
+      <c r="AQ112" s="1"/>
+      <c r="AR112" s="1"/>
+      <c r="AS112" s="1"/>
+      <c r="AT112" s="1"/>
+      <c r="AU112" s="1"/>
+      <c r="AV112" s="1"/>
+      <c r="AW112" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX112" s="1"/>
+      <c r="AY112" s="1"/>
+      <c r="AZ112" s="1"/>
+      <c r="BA112" s="1"/>
+      <c r="BB112" s="1"/>
+      <c r="BC112" s="1"/>
+      <c r="BD112" s="1"/>
+      <c r="BE112" s="1"/>
+      <c r="BF112" s="1"/>
+      <c r="BG112" s="1"/>
+      <c r="BH112" s="1"/>
+      <c r="BI112" s="1"/>
+      <c r="BJ112" s="1"/>
+      <c r="BK112" s="1"/>
+      <c r="BL112" s="1"/>
+      <c r="BM112" s="1"/>
+      <c r="BN112" s="1"/>
+      <c r="BO112" s="1"/>
+      <c r="BP112" s="1"/>
+      <c r="BQ112" s="1"/>
+      <c r="BR112" s="1"/>
+      <c r="BS112" s="1"/>
+      <c r="BT112" s="1"/>
+      <c r="BU112" s="1"/>
+      <c r="BV112" s="1"/>
+      <c r="BW112" s="1"/>
+      <c r="BX112" s="1"/>
+      <c r="BY112" s="1"/>
+      <c r="BZ112" s="1"/>
+      <c r="CA112" s="1"/>
+      <c r="CB112" s="1"/>
+      <c r="CC112" s="1"/>
+      <c r="CD112" s="1"/>
+      <c r="CE112" s="1"/>
+      <c r="CF112" s="1"/>
+      <c r="CG112" s="1"/>
+      <c r="CH112" s="1"/>
+      <c r="CI112" s="1"/>
+      <c r="CJ112" s="1"/>
+      <c r="CK112" s="1"/>
+      <c r="CL112" s="1"/>
+      <c r="CM112" s="1"/>
+      <c r="CN112" s="1"/>
+      <c r="CO112" s="1"/>
+      <c r="CP112" s="1"/>
+      <c r="CQ112" s="1"/>
+      <c r="CR112" s="35"/>
+      <c r="CS112" s="34"/>
+      <c r="CT112" s="36"/>
+      <c r="CU112" s="1"/>
+      <c r="CV112" s="1"/>
+      <c r="CW112" s="1"/>
+      <c r="CX112" s="1"/>
+      <c r="CY112" s="64" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="113" spans="1:103" ht="18" customHeight="1">
+      <c r="A113" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D113" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E113" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F113" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G113" s="64" t="s">
+        <v>666</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="40"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1"/>
+      <c r="AH113" s="1"/>
+      <c r="AI113" s="1"/>
+      <c r="AJ113" s="1"/>
+      <c r="AK113" s="1"/>
+      <c r="AL113" s="1"/>
+      <c r="AM113" s="1"/>
+      <c r="AN113" s="1"/>
+      <c r="AO113" s="1"/>
+      <c r="AP113" s="1"/>
+      <c r="AQ113" s="1"/>
+      <c r="AR113" s="1"/>
+      <c r="AS113" s="1"/>
+      <c r="AT113" s="1"/>
+      <c r="AU113" s="1"/>
+      <c r="AV113" s="1"/>
+      <c r="AW113" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX113" s="1"/>
+      <c r="AY113" s="1"/>
+      <c r="AZ113" s="1"/>
+      <c r="BA113" s="1"/>
+      <c r="BB113" s="1"/>
+      <c r="BC113" s="1"/>
+      <c r="BD113" s="1"/>
+      <c r="BE113" s="1"/>
+      <c r="BF113" s="1"/>
+      <c r="BG113" s="1"/>
+      <c r="BH113" s="1"/>
+      <c r="BI113" s="1"/>
+      <c r="BJ113" s="1"/>
+      <c r="BK113" s="1"/>
+      <c r="BL113" s="1"/>
+      <c r="BM113" s="1"/>
+      <c r="BN113" s="1"/>
+      <c r="BO113" s="1"/>
+      <c r="BP113" s="1"/>
+      <c r="BQ113" s="1"/>
+      <c r="BR113" s="1"/>
+      <c r="BS113" s="1"/>
+      <c r="BT113" s="1"/>
+      <c r="BU113" s="1"/>
+      <c r="BV113" s="1"/>
+      <c r="BW113" s="1"/>
+      <c r="BX113" s="1"/>
+      <c r="BY113" s="1"/>
+      <c r="BZ113" s="1"/>
+      <c r="CA113" s="1"/>
+      <c r="CB113" s="1"/>
+      <c r="CC113" s="1"/>
+      <c r="CD113" s="1"/>
+      <c r="CE113" s="1"/>
+      <c r="CF113" s="1"/>
+      <c r="CG113" s="1"/>
+      <c r="CH113" s="1"/>
+      <c r="CI113" s="1"/>
+      <c r="CJ113" s="1"/>
+      <c r="CK113" s="1"/>
+      <c r="CL113" s="1"/>
+      <c r="CM113" s="1"/>
+      <c r="CN113" s="1"/>
+      <c r="CO113" s="1"/>
+      <c r="CP113" s="1"/>
+      <c r="CQ113" s="1"/>
+      <c r="CR113" s="35"/>
+      <c r="CS113" s="34"/>
+      <c r="CT113" s="36"/>
+      <c r="CU113" s="1"/>
+      <c r="CV113" s="1"/>
+      <c r="CW113" s="1"/>
+      <c r="CX113" s="1"/>
+      <c r="CY113" s="64" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="114" spans="1:103" ht="18" customHeight="1">
+      <c r="A114" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D114" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E114" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F114" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G114" s="64" t="s">
+        <v>667</v>
+      </c>
+      <c r="H114" s="1"/>
+      <c r="I114" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="40"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+      <c r="AF114" s="1"/>
+      <c r="AG114" s="1"/>
+      <c r="AH114" s="1"/>
+      <c r="AI114" s="1"/>
+      <c r="AJ114" s="1"/>
+      <c r="AK114" s="1"/>
+      <c r="AL114" s="1"/>
+      <c r="AM114" s="1"/>
+      <c r="AN114" s="1"/>
+      <c r="AO114" s="1"/>
+      <c r="AP114" s="1"/>
+      <c r="AQ114" s="1"/>
+      <c r="AR114" s="1"/>
+      <c r="AS114" s="1"/>
+      <c r="AT114" s="1"/>
+      <c r="AU114" s="1"/>
+      <c r="AV114" s="1"/>
+      <c r="AW114" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX114" s="1"/>
+      <c r="AY114" s="1"/>
+      <c r="AZ114" s="1"/>
+      <c r="BA114" s="1"/>
+      <c r="BB114" s="1"/>
+      <c r="BC114" s="1"/>
+      <c r="BD114" s="1"/>
+      <c r="BE114" s="1"/>
+      <c r="BF114" s="1"/>
+      <c r="BG114" s="1"/>
+      <c r="BH114" s="1"/>
+      <c r="BI114" s="1"/>
+      <c r="BJ114" s="1"/>
+      <c r="BK114" s="1"/>
+      <c r="BL114" s="1"/>
+      <c r="BM114" s="1"/>
+      <c r="BN114" s="1"/>
+      <c r="BO114" s="1"/>
+      <c r="BP114" s="1"/>
+      <c r="BQ114" s="1"/>
+      <c r="BR114" s="1"/>
+      <c r="BS114" s="1"/>
+      <c r="BT114" s="1"/>
+      <c r="BU114" s="1"/>
+      <c r="BV114" s="1"/>
+      <c r="BW114" s="1"/>
+      <c r="BX114" s="1"/>
+      <c r="BY114" s="1"/>
+      <c r="BZ114" s="1"/>
+      <c r="CA114" s="1"/>
+      <c r="CB114" s="1"/>
+      <c r="CC114" s="1"/>
+      <c r="CD114" s="1"/>
+      <c r="CE114" s="1"/>
+      <c r="CF114" s="1"/>
+      <c r="CG114" s="1"/>
+      <c r="CH114" s="1"/>
+      <c r="CI114" s="1"/>
+      <c r="CJ114" s="1"/>
+      <c r="CK114" s="1"/>
+      <c r="CL114" s="1"/>
+      <c r="CM114" s="1"/>
+      <c r="CN114" s="1"/>
+      <c r="CO114" s="1"/>
+      <c r="CP114" s="1"/>
+      <c r="CQ114" s="1"/>
+      <c r="CR114" s="35"/>
+      <c r="CS114" s="34"/>
+      <c r="CT114" s="36"/>
+      <c r="CU114" s="1"/>
+      <c r="CV114" s="1"/>
+      <c r="CW114" s="1"/>
+      <c r="CX114" s="1"/>
+      <c r="CY114" s="64" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="115" spans="1:103" ht="18" customHeight="1">
+      <c r="A115" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D115" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E115" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F115" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G115" s="64" t="s">
+        <v>668</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="40"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
+      <c r="AC115" s="1"/>
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+      <c r="AF115" s="1"/>
+      <c r="AG115" s="1"/>
+      <c r="AH115" s="1"/>
+      <c r="AI115" s="1"/>
+      <c r="AJ115" s="1"/>
+      <c r="AK115" s="1"/>
+      <c r="AL115" s="1"/>
+      <c r="AM115" s="1"/>
+      <c r="AN115" s="1"/>
+      <c r="AO115" s="1"/>
+      <c r="AP115" s="1"/>
+      <c r="AQ115" s="1"/>
+      <c r="AR115" s="1"/>
+      <c r="AS115" s="1"/>
+      <c r="AT115" s="1"/>
+      <c r="AU115" s="1"/>
+      <c r="AV115" s="1"/>
+      <c r="AW115" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX115" s="1"/>
+      <c r="AY115" s="1"/>
+      <c r="AZ115" s="1"/>
+      <c r="BA115" s="1"/>
+      <c r="BB115" s="1"/>
+      <c r="BC115" s="1"/>
+      <c r="BD115" s="1"/>
+      <c r="BE115" s="1"/>
+      <c r="BF115" s="1"/>
+      <c r="BG115" s="1"/>
+      <c r="BH115" s="1"/>
+      <c r="BI115" s="1"/>
+      <c r="BJ115" s="1"/>
+      <c r="BK115" s="1"/>
+      <c r="BL115" s="1"/>
+      <c r="BM115" s="1"/>
+      <c r="BN115" s="1"/>
+      <c r="BO115" s="1"/>
+      <c r="BP115" s="1"/>
+      <c r="BQ115" s="1"/>
+      <c r="BR115" s="1"/>
+      <c r="BS115" s="1"/>
+      <c r="BT115" s="1"/>
+      <c r="BU115" s="1"/>
+      <c r="BV115" s="1"/>
+      <c r="BW115" s="1"/>
+      <c r="BX115" s="1"/>
+      <c r="BY115" s="1"/>
+      <c r="BZ115" s="1"/>
+      <c r="CA115" s="1"/>
+      <c r="CB115" s="1"/>
+      <c r="CC115" s="1"/>
+      <c r="CD115" s="1"/>
+      <c r="CE115" s="1"/>
+      <c r="CF115" s="1"/>
+      <c r="CG115" s="1"/>
+      <c r="CH115" s="1"/>
+      <c r="CI115" s="1"/>
+      <c r="CJ115" s="1"/>
+      <c r="CK115" s="1"/>
+      <c r="CL115" s="1"/>
+      <c r="CM115" s="1"/>
+      <c r="CN115" s="1"/>
+      <c r="CO115" s="1"/>
+      <c r="CP115" s="1"/>
+      <c r="CQ115" s="1"/>
+      <c r="CR115" s="35"/>
+      <c r="CS115" s="34"/>
+      <c r="CT115" s="36"/>
+      <c r="CU115" s="1"/>
+      <c r="CV115" s="1"/>
+      <c r="CW115" s="1"/>
+      <c r="CX115" s="1"/>
+      <c r="CY115" s="64" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="116" spans="1:103" ht="18" customHeight="1">
+      <c r="A116" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D116" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E116" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F116" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G116" s="64" t="s">
+        <v>669</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="40"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1"/>
+      <c r="AG116" s="1"/>
+      <c r="AH116" s="1"/>
+      <c r="AI116" s="1"/>
+      <c r="AJ116" s="1"/>
+      <c r="AK116" s="1"/>
+      <c r="AL116" s="1"/>
+      <c r="AM116" s="1"/>
+      <c r="AN116" s="1"/>
+      <c r="AO116" s="1"/>
+      <c r="AP116" s="1"/>
+      <c r="AQ116" s="1"/>
+      <c r="AR116" s="1"/>
+      <c r="AS116" s="1"/>
+      <c r="AT116" s="1"/>
+      <c r="AU116" s="1"/>
+      <c r="AV116" s="1"/>
+      <c r="AW116" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX116" s="1"/>
+      <c r="AY116" s="1"/>
+      <c r="AZ116" s="1"/>
+      <c r="BA116" s="1"/>
+      <c r="BB116" s="1"/>
+      <c r="BC116" s="1"/>
+      <c r="BD116" s="1"/>
+      <c r="BE116" s="1"/>
+      <c r="BF116" s="1"/>
+      <c r="BG116" s="1"/>
+      <c r="BH116" s="1"/>
+      <c r="BI116" s="1"/>
+      <c r="BJ116" s="1"/>
+      <c r="BK116" s="1"/>
+      <c r="BL116" s="1"/>
+      <c r="BM116" s="1"/>
+      <c r="BN116" s="1"/>
+      <c r="BO116" s="1"/>
+      <c r="BP116" s="1"/>
+      <c r="BQ116" s="1"/>
+      <c r="BR116" s="1"/>
+      <c r="BS116" s="1"/>
+      <c r="BT116" s="1"/>
+      <c r="BU116" s="1"/>
+      <c r="BV116" s="1"/>
+      <c r="BW116" s="1"/>
+      <c r="BX116" s="1"/>
+      <c r="BY116" s="1"/>
+      <c r="BZ116" s="1"/>
+      <c r="CA116" s="1"/>
+      <c r="CB116" s="1"/>
+      <c r="CC116" s="1"/>
+      <c r="CD116" s="1"/>
+      <c r="CE116" s="1"/>
+      <c r="CF116" s="1"/>
+      <c r="CG116" s="1"/>
+      <c r="CH116" s="1"/>
+      <c r="CI116" s="1"/>
+      <c r="CJ116" s="1"/>
+      <c r="CK116" s="1"/>
+      <c r="CL116" s="1"/>
+      <c r="CM116" s="1"/>
+      <c r="CN116" s="1"/>
+      <c r="CO116" s="1"/>
+      <c r="CP116" s="1"/>
+      <c r="CQ116" s="1"/>
+      <c r="CR116" s="35"/>
+      <c r="CS116" s="34"/>
+      <c r="CT116" s="36"/>
+      <c r="CU116" s="1"/>
+      <c r="CV116" s="1"/>
+      <c r="CW116" s="1"/>
+      <c r="CX116" s="1"/>
+      <c r="CY116" s="64" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="117" spans="1:103" ht="18" customHeight="1">
+      <c r="A117" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D117" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E117" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F117" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G117" s="64" t="s">
+        <v>670</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="40"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
+      <c r="AG117" s="1"/>
+      <c r="AH117" s="1"/>
+      <c r="AI117" s="1"/>
+      <c r="AJ117" s="1"/>
+      <c r="AK117" s="1"/>
+      <c r="AL117" s="1"/>
+      <c r="AM117" s="1"/>
+      <c r="AN117" s="1"/>
+      <c r="AO117" s="1"/>
+      <c r="AP117" s="1"/>
+      <c r="AQ117" s="1"/>
+      <c r="AR117" s="1"/>
+      <c r="AS117" s="1"/>
+      <c r="AT117" s="1"/>
+      <c r="AU117" s="1"/>
+      <c r="AV117" s="1"/>
+      <c r="AW117" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX117" s="1"/>
+      <c r="AY117" s="1"/>
+      <c r="AZ117" s="1"/>
+      <c r="BA117" s="1"/>
+      <c r="BB117" s="1"/>
+      <c r="BC117" s="1"/>
+      <c r="BD117" s="1"/>
+      <c r="BE117" s="1"/>
+      <c r="BF117" s="1"/>
+      <c r="BG117" s="1"/>
+      <c r="BH117" s="1"/>
+      <c r="BI117" s="1"/>
+      <c r="BJ117" s="1"/>
+      <c r="BK117" s="1"/>
+      <c r="BL117" s="1"/>
+      <c r="BM117" s="1"/>
+      <c r="BN117" s="1"/>
+      <c r="BO117" s="1"/>
+      <c r="BP117" s="1"/>
+      <c r="BQ117" s="1"/>
+      <c r="BR117" s="1"/>
+      <c r="BS117" s="1"/>
+      <c r="BT117" s="1"/>
+      <c r="BU117" s="1"/>
+      <c r="BV117" s="1"/>
+      <c r="BW117" s="1"/>
+      <c r="BX117" s="1"/>
+      <c r="BY117" s="1"/>
+      <c r="BZ117" s="1"/>
+      <c r="CA117" s="1"/>
+      <c r="CB117" s="1"/>
+      <c r="CC117" s="1"/>
+      <c r="CD117" s="1"/>
+      <c r="CE117" s="1"/>
+      <c r="CF117" s="1"/>
+      <c r="CG117" s="1"/>
+      <c r="CH117" s="1"/>
+      <c r="CI117" s="1"/>
+      <c r="CJ117" s="1"/>
+      <c r="CK117" s="1"/>
+      <c r="CL117" s="1"/>
+      <c r="CM117" s="1"/>
+      <c r="CN117" s="1"/>
+      <c r="CO117" s="1"/>
+      <c r="CP117" s="1"/>
+      <c r="CQ117" s="1"/>
+      <c r="CR117" s="35"/>
+      <c r="CS117" s="34"/>
+      <c r="CT117" s="36"/>
+      <c r="CU117" s="1"/>
+      <c r="CV117" s="1"/>
+      <c r="CW117" s="1"/>
+      <c r="CX117" s="1"/>
+      <c r="CY117" s="64" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="118" spans="1:103" ht="18" customHeight="1">
+      <c r="A118" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D118" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E118" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F118" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G118" s="64" t="s">
+        <v>671</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="40"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+      <c r="AH118" s="1"/>
+      <c r="AI118" s="1"/>
+      <c r="AJ118" s="1"/>
+      <c r="AK118" s="1"/>
+      <c r="AL118" s="1"/>
+      <c r="AM118" s="1"/>
+      <c r="AN118" s="1"/>
+      <c r="AO118" s="1"/>
+      <c r="AP118" s="1"/>
+      <c r="AQ118" s="1"/>
+      <c r="AR118" s="1"/>
+      <c r="AS118" s="1"/>
+      <c r="AT118" s="1"/>
+      <c r="AU118" s="1"/>
+      <c r="AV118" s="1"/>
+      <c r="AW118" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX118" s="1"/>
+      <c r="AY118" s="1"/>
+      <c r="AZ118" s="1"/>
+      <c r="BA118" s="1"/>
+      <c r="BB118" s="1"/>
+      <c r="BC118" s="1"/>
+      <c r="BD118" s="1"/>
+      <c r="BE118" s="1"/>
+      <c r="BF118" s="1"/>
+      <c r="BG118" s="1"/>
+      <c r="BH118" s="1"/>
+      <c r="BI118" s="1"/>
+      <c r="BJ118" s="1"/>
+      <c r="BK118" s="1"/>
+      <c r="BL118" s="1"/>
+      <c r="BM118" s="1"/>
+      <c r="BN118" s="1"/>
+      <c r="BO118" s="1"/>
+      <c r="BP118" s="1"/>
+      <c r="BQ118" s="1"/>
+      <c r="BR118" s="1"/>
+      <c r="BS118" s="1"/>
+      <c r="BT118" s="1"/>
+      <c r="BU118" s="1"/>
+      <c r="BV118" s="1"/>
+      <c r="BW118" s="1"/>
+      <c r="BX118" s="1"/>
+      <c r="BY118" s="1"/>
+      <c r="BZ118" s="1"/>
+      <c r="CA118" s="1"/>
+      <c r="CB118" s="1"/>
+      <c r="CC118" s="1"/>
+      <c r="CD118" s="1"/>
+      <c r="CE118" s="1"/>
+      <c r="CF118" s="1"/>
+      <c r="CG118" s="1"/>
+      <c r="CH118" s="1"/>
+      <c r="CI118" s="1"/>
+      <c r="CJ118" s="1"/>
+      <c r="CK118" s="1"/>
+      <c r="CL118" s="1"/>
+      <c r="CM118" s="1"/>
+      <c r="CN118" s="1"/>
+      <c r="CO118" s="1"/>
+      <c r="CP118" s="1"/>
+      <c r="CQ118" s="1"/>
+      <c r="CR118" s="35"/>
+      <c r="CS118" s="34"/>
+      <c r="CT118" s="36"/>
+      <c r="CU118" s="1"/>
+      <c r="CV118" s="1"/>
+      <c r="CW118" s="1"/>
+      <c r="CX118" s="1"/>
+      <c r="CY118" s="64" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="119" spans="1:103" ht="18" customHeight="1">
+      <c r="A119" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D119" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E119" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F119" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G119" s="64" t="s">
+        <v>672</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="40"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
+      <c r="AF119" s="1"/>
+      <c r="AG119" s="1"/>
+      <c r="AH119" s="1"/>
+      <c r="AI119" s="1"/>
+      <c r="AJ119" s="1"/>
+      <c r="AK119" s="1"/>
+      <c r="AL119" s="1"/>
+      <c r="AM119" s="1"/>
+      <c r="AN119" s="1"/>
+      <c r="AO119" s="1"/>
+      <c r="AP119" s="1"/>
+      <c r="AQ119" s="1"/>
+      <c r="AR119" s="1"/>
+      <c r="AS119" s="1"/>
+      <c r="AT119" s="1"/>
+      <c r="AU119" s="1"/>
+      <c r="AV119" s="1"/>
+      <c r="AW119" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX119" s="1"/>
+      <c r="AY119" s="1"/>
+      <c r="AZ119" s="1"/>
+      <c r="BA119" s="1"/>
+      <c r="BB119" s="1"/>
+      <c r="BC119" s="1"/>
+      <c r="BD119" s="1"/>
+      <c r="BE119" s="1"/>
+      <c r="BF119" s="1"/>
+      <c r="BG119" s="1"/>
+      <c r="BH119" s="1"/>
+      <c r="BI119" s="1"/>
+      <c r="BJ119" s="1"/>
+      <c r="BK119" s="1"/>
+      <c r="BL119" s="1"/>
+      <c r="BM119" s="1"/>
+      <c r="BN119" s="1"/>
+      <c r="BO119" s="1"/>
+      <c r="BP119" s="1"/>
+      <c r="BQ119" s="1"/>
+      <c r="BR119" s="1"/>
+      <c r="BS119" s="1"/>
+      <c r="BT119" s="1"/>
+      <c r="BU119" s="1"/>
+      <c r="BV119" s="1"/>
+      <c r="BW119" s="1"/>
+      <c r="BX119" s="1"/>
+      <c r="BY119" s="1"/>
+      <c r="BZ119" s="1"/>
+      <c r="CA119" s="1"/>
+      <c r="CB119" s="1"/>
+      <c r="CC119" s="1"/>
+      <c r="CD119" s="1"/>
+      <c r="CE119" s="1"/>
+      <c r="CF119" s="1"/>
+      <c r="CG119" s="1"/>
+      <c r="CH119" s="1"/>
+      <c r="CI119" s="1"/>
+      <c r="CJ119" s="1"/>
+      <c r="CK119" s="1"/>
+      <c r="CL119" s="1"/>
+      <c r="CM119" s="1"/>
+      <c r="CN119" s="1"/>
+      <c r="CO119" s="1"/>
+      <c r="CP119" s="1"/>
+      <c r="CQ119" s="1"/>
+      <c r="CR119" s="35"/>
+      <c r="CS119" s="34"/>
+      <c r="CT119" s="36"/>
+      <c r="CU119" s="1"/>
+      <c r="CV119" s="1"/>
+      <c r="CW119" s="1"/>
+      <c r="CX119" s="1"/>
+      <c r="CY119" s="64" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="120" spans="1:103" ht="18" customHeight="1">
+      <c r="A120" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D120" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E120" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F120" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G120" s="64" t="s">
+        <v>673</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="40"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+      <c r="AH120" s="1"/>
+      <c r="AI120" s="1"/>
+      <c r="AJ120" s="1"/>
+      <c r="AK120" s="1"/>
+      <c r="AL120" s="1"/>
+      <c r="AM120" s="1"/>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
+      <c r="AP120" s="1"/>
+      <c r="AQ120" s="1"/>
+      <c r="AR120" s="1"/>
+      <c r="AS120" s="1"/>
+      <c r="AT120" s="1"/>
+      <c r="AU120" s="1"/>
+      <c r="AV120" s="1"/>
+      <c r="AW120" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX120" s="1"/>
+      <c r="AY120" s="1"/>
+      <c r="AZ120" s="1"/>
+      <c r="BA120" s="1"/>
+      <c r="BB120" s="1"/>
+      <c r="BC120" s="1"/>
+      <c r="BD120" s="1"/>
+      <c r="BE120" s="1"/>
+      <c r="BF120" s="1"/>
+      <c r="BG120" s="1"/>
+      <c r="BH120" s="1"/>
+      <c r="BI120" s="1"/>
+      <c r="BJ120" s="1"/>
+      <c r="BK120" s="1"/>
+      <c r="BL120" s="1"/>
+      <c r="BM120" s="1"/>
+      <c r="BN120" s="1"/>
+      <c r="BO120" s="1"/>
+      <c r="BP120" s="1"/>
+      <c r="BQ120" s="1"/>
+      <c r="BR120" s="1"/>
+      <c r="BS120" s="1"/>
+      <c r="BT120" s="1"/>
+      <c r="BU120" s="1"/>
+      <c r="BV120" s="1"/>
+      <c r="BW120" s="1"/>
+      <c r="BX120" s="1"/>
+      <c r="BY120" s="1"/>
+      <c r="BZ120" s="1"/>
+      <c r="CA120" s="1"/>
+      <c r="CB120" s="1"/>
+      <c r="CC120" s="1"/>
+      <c r="CD120" s="1"/>
+      <c r="CE120" s="1"/>
+      <c r="CF120" s="1"/>
+      <c r="CG120" s="1"/>
+      <c r="CH120" s="1"/>
+      <c r="CI120" s="1"/>
+      <c r="CJ120" s="1"/>
+      <c r="CK120" s="1"/>
+      <c r="CL120" s="1"/>
+      <c r="CM120" s="1"/>
+      <c r="CN120" s="1"/>
+      <c r="CO120" s="1"/>
+      <c r="CP120" s="1"/>
+      <c r="CQ120" s="1"/>
+      <c r="CR120" s="35"/>
+      <c r="CS120" s="34"/>
+      <c r="CT120" s="36"/>
+      <c r="CU120" s="1"/>
+      <c r="CV120" s="1"/>
+      <c r="CW120" s="1"/>
+      <c r="CX120" s="1"/>
+      <c r="CY120" s="64" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="121" spans="1:103" ht="18" customHeight="1">
+      <c r="A121" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B121" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D121" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E121" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F121" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G121" s="64" t="s">
+        <v>674</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="40"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
+      <c r="AC121" s="1"/>
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="1"/>
+      <c r="AG121" s="1"/>
+      <c r="AH121" s="1"/>
+      <c r="AI121" s="1"/>
+      <c r="AJ121" s="1"/>
+      <c r="AK121" s="1"/>
+      <c r="AL121" s="1"/>
+      <c r="AM121" s="1"/>
+      <c r="AN121" s="1"/>
+      <c r="AO121" s="1"/>
+      <c r="AP121" s="1"/>
+      <c r="AQ121" s="1"/>
+      <c r="AR121" s="1"/>
+      <c r="AS121" s="1"/>
+      <c r="AT121" s="1"/>
+      <c r="AU121" s="1"/>
+      <c r="AV121" s="1"/>
+      <c r="AW121" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX121" s="1"/>
+      <c r="AY121" s="1"/>
+      <c r="AZ121" s="1"/>
+      <c r="BA121" s="1"/>
+      <c r="BB121" s="1"/>
+      <c r="BC121" s="1"/>
+      <c r="BD121" s="1"/>
+      <c r="BE121" s="1"/>
+      <c r="BF121" s="1"/>
+      <c r="BG121" s="1"/>
+      <c r="BH121" s="1"/>
+      <c r="BI121" s="1"/>
+      <c r="BJ121" s="1"/>
+      <c r="BK121" s="1"/>
+      <c r="BL121" s="1"/>
+      <c r="BM121" s="1"/>
+      <c r="BN121" s="1"/>
+      <c r="BO121" s="1"/>
+      <c r="BP121" s="1"/>
+      <c r="BQ121" s="1"/>
+      <c r="BR121" s="1"/>
+      <c r="BS121" s="1"/>
+      <c r="BT121" s="1"/>
+      <c r="BU121" s="1"/>
+      <c r="BV121" s="1"/>
+      <c r="BW121" s="1"/>
+      <c r="BX121" s="1"/>
+      <c r="BY121" s="1"/>
+      <c r="BZ121" s="1"/>
+      <c r="CA121" s="1"/>
+      <c r="CB121" s="1"/>
+      <c r="CC121" s="1"/>
+      <c r="CD121" s="1"/>
+      <c r="CE121" s="1"/>
+      <c r="CF121" s="1"/>
+      <c r="CG121" s="1"/>
+      <c r="CH121" s="1"/>
+      <c r="CI121" s="1"/>
+      <c r="CJ121" s="1"/>
+      <c r="CK121" s="1"/>
+      <c r="CL121" s="1"/>
+      <c r="CM121" s="1"/>
+      <c r="CN121" s="1"/>
+      <c r="CO121" s="1"/>
+      <c r="CP121" s="1"/>
+      <c r="CQ121" s="1"/>
+      <c r="CR121" s="35"/>
+      <c r="CS121" s="34"/>
+      <c r="CT121" s="36"/>
+      <c r="CU121" s="1"/>
+      <c r="CV121" s="1"/>
+      <c r="CW121" s="1"/>
+      <c r="CX121" s="1"/>
+      <c r="CY121" s="64" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="122" spans="1:103" ht="18" customHeight="1">
+      <c r="A122" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D122" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E122" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F122" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G122" s="64" t="s">
+        <v>675</v>
+      </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="40"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1"/>
+      <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="1"/>
+      <c r="AF122" s="1"/>
+      <c r="AG122" s="1"/>
+      <c r="AH122" s="1"/>
+      <c r="AI122" s="1"/>
+      <c r="AJ122" s="1"/>
+      <c r="AK122" s="1"/>
+      <c r="AL122" s="1"/>
+      <c r="AM122" s="1"/>
+      <c r="AN122" s="1"/>
+      <c r="AO122" s="1"/>
+      <c r="AP122" s="1"/>
+      <c r="AQ122" s="1"/>
+      <c r="AR122" s="1"/>
+      <c r="AS122" s="1"/>
+      <c r="AT122" s="1"/>
+      <c r="AU122" s="1"/>
+      <c r="AV122" s="1"/>
+      <c r="AW122" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX122" s="1"/>
+      <c r="AY122" s="1"/>
+      <c r="AZ122" s="1"/>
+      <c r="BA122" s="1"/>
+      <c r="BB122" s="1"/>
+      <c r="BC122" s="1"/>
+      <c r="BD122" s="1"/>
+      <c r="BE122" s="1"/>
+      <c r="BF122" s="1"/>
+      <c r="BG122" s="1"/>
+      <c r="BH122" s="1"/>
+      <c r="BI122" s="1"/>
+      <c r="BJ122" s="1"/>
+      <c r="BK122" s="1"/>
+      <c r="BL122" s="1"/>
+      <c r="BM122" s="1"/>
+      <c r="BN122" s="1"/>
+      <c r="BO122" s="1"/>
+      <c r="BP122" s="1"/>
+      <c r="BQ122" s="1"/>
+      <c r="BR122" s="1"/>
+      <c r="BS122" s="1"/>
+      <c r="BT122" s="1"/>
+      <c r="BU122" s="1"/>
+      <c r="BV122" s="1"/>
+      <c r="BW122" s="1"/>
+      <c r="BX122" s="1"/>
+      <c r="BY122" s="1"/>
+      <c r="BZ122" s="1"/>
+      <c r="CA122" s="1"/>
+      <c r="CB122" s="1"/>
+      <c r="CC122" s="1"/>
+      <c r="CD122" s="1"/>
+      <c r="CE122" s="1"/>
+      <c r="CF122" s="1"/>
+      <c r="CG122" s="1"/>
+      <c r="CH122" s="1"/>
+      <c r="CI122" s="1"/>
+      <c r="CJ122" s="1"/>
+      <c r="CK122" s="1"/>
+      <c r="CL122" s="1"/>
+      <c r="CM122" s="1"/>
+      <c r="CN122" s="1"/>
+      <c r="CO122" s="1"/>
+      <c r="CP122" s="1"/>
+      <c r="CQ122" s="1"/>
+      <c r="CR122" s="35"/>
+      <c r="CS122" s="34"/>
+      <c r="CT122" s="36"/>
+      <c r="CU122" s="1"/>
+      <c r="CV122" s="1"/>
+      <c r="CW122" s="1"/>
+      <c r="CX122" s="1"/>
+      <c r="CY122" s="64" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="123" spans="1:103" ht="18" customHeight="1">
+      <c r="A123" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D123" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E123" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F123" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G123" s="64" t="s">
+        <v>676</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="40"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+      <c r="AF123" s="1"/>
+      <c r="AG123" s="1"/>
+      <c r="AH123" s="1"/>
+      <c r="AI123" s="1"/>
+      <c r="AJ123" s="1"/>
+      <c r="AK123" s="1"/>
+      <c r="AL123" s="1"/>
+      <c r="AM123" s="1"/>
+      <c r="AN123" s="1"/>
+      <c r="AO123" s="1"/>
+      <c r="AP123" s="1"/>
+      <c r="AQ123" s="1"/>
+      <c r="AR123" s="1"/>
+      <c r="AS123" s="1"/>
+      <c r="AT123" s="1"/>
+      <c r="AU123" s="1"/>
+      <c r="AV123" s="1"/>
+      <c r="AW123" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX123" s="1"/>
+      <c r="AY123" s="1"/>
+      <c r="AZ123" s="1"/>
+      <c r="BA123" s="1"/>
+      <c r="BB123" s="1"/>
+      <c r="BC123" s="1"/>
+      <c r="BD123" s="1"/>
+      <c r="BE123" s="1"/>
+      <c r="BF123" s="1"/>
+      <c r="BG123" s="1"/>
+      <c r="BH123" s="1"/>
+      <c r="BI123" s="1"/>
+      <c r="BJ123" s="1"/>
+      <c r="BK123" s="1"/>
+      <c r="BL123" s="1"/>
+      <c r="BM123" s="1"/>
+      <c r="BN123" s="1"/>
+      <c r="BO123" s="1"/>
+      <c r="BP123" s="1"/>
+      <c r="BQ123" s="1"/>
+      <c r="BR123" s="1"/>
+      <c r="BS123" s="1"/>
+      <c r="BT123" s="1"/>
+      <c r="BU123" s="1"/>
+      <c r="BV123" s="1"/>
+      <c r="BW123" s="1"/>
+      <c r="BX123" s="1"/>
+      <c r="BY123" s="1"/>
+      <c r="BZ123" s="1"/>
+      <c r="CA123" s="1"/>
+      <c r="CB123" s="1"/>
+      <c r="CC123" s="1"/>
+      <c r="CD123" s="1"/>
+      <c r="CE123" s="1"/>
+      <c r="CF123" s="1"/>
+      <c r="CG123" s="1"/>
+      <c r="CH123" s="1"/>
+      <c r="CI123" s="1"/>
+      <c r="CJ123" s="1"/>
+      <c r="CK123" s="1"/>
+      <c r="CL123" s="1"/>
+      <c r="CM123" s="1"/>
+      <c r="CN123" s="1"/>
+      <c r="CO123" s="1"/>
+      <c r="CP123" s="1"/>
+      <c r="CQ123" s="1"/>
+      <c r="CR123" s="35"/>
+      <c r="CS123" s="34"/>
+      <c r="CT123" s="36"/>
+      <c r="CU123" s="1"/>
+      <c r="CV123" s="1"/>
+      <c r="CW123" s="1"/>
+      <c r="CX123" s="1"/>
+      <c r="CY123" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:103" ht="18" customHeight="1">
+      <c r="A124" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D124" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E124" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F124" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G124" s="64" t="s">
+        <v>677</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="I124" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="40"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
+      <c r="AA124" s="1"/>
+      <c r="AB124" s="1"/>
+      <c r="AC124" s="1"/>
+      <c r="AD124" s="1"/>
+      <c r="AE124" s="1"/>
+      <c r="AF124" s="1"/>
+      <c r="AG124" s="1"/>
+      <c r="AH124" s="1"/>
+      <c r="AI124" s="1"/>
+      <c r="AJ124" s="1"/>
+      <c r="AK124" s="1"/>
+      <c r="AL124" s="1"/>
+      <c r="AM124" s="1"/>
+      <c r="AN124" s="1"/>
+      <c r="AO124" s="1"/>
+      <c r="AP124" s="1"/>
+      <c r="AQ124" s="1"/>
+      <c r="AR124" s="1"/>
+      <c r="AS124" s="1"/>
+      <c r="AT124" s="1"/>
+      <c r="AU124" s="1"/>
+      <c r="AV124" s="1"/>
+      <c r="AW124" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX124" s="1"/>
+      <c r="AY124" s="1"/>
+      <c r="AZ124" s="1"/>
+      <c r="BA124" s="1"/>
+      <c r="BB124" s="1"/>
+      <c r="BC124" s="1"/>
+      <c r="BD124" s="1"/>
+      <c r="BE124" s="1"/>
+      <c r="BF124" s="1"/>
+      <c r="BG124" s="1"/>
+      <c r="BH124" s="1"/>
+      <c r="BI124" s="1"/>
+      <c r="BJ124" s="1"/>
+      <c r="BK124" s="1"/>
+      <c r="BL124" s="1"/>
+      <c r="BM124" s="1"/>
+      <c r="BN124" s="1"/>
+      <c r="BO124" s="1"/>
+      <c r="BP124" s="1"/>
+      <c r="BQ124" s="1"/>
+      <c r="BR124" s="1"/>
+      <c r="BS124" s="1"/>
+      <c r="BT124" s="1"/>
+      <c r="BU124" s="1"/>
+      <c r="BV124" s="1"/>
+      <c r="BW124" s="1"/>
+      <c r="BX124" s="1"/>
+      <c r="BY124" s="1"/>
+      <c r="BZ124" s="1"/>
+      <c r="CA124" s="1"/>
+      <c r="CB124" s="1"/>
+      <c r="CC124" s="1"/>
+      <c r="CD124" s="1"/>
+      <c r="CE124" s="1"/>
+      <c r="CF124" s="1"/>
+      <c r="CG124" s="1"/>
+      <c r="CH124" s="1"/>
+      <c r="CI124" s="1"/>
+      <c r="CJ124" s="1"/>
+      <c r="CK124" s="1"/>
+      <c r="CL124" s="1"/>
+      <c r="CM124" s="1"/>
+      <c r="CN124" s="1"/>
+      <c r="CO124" s="1"/>
+      <c r="CP124" s="1"/>
+      <c r="CQ124" s="1"/>
+      <c r="CR124" s="35"/>
+      <c r="CS124" s="34"/>
+      <c r="CT124" s="36"/>
+      <c r="CU124" s="1"/>
+      <c r="CV124" s="1"/>
+      <c r="CW124" s="1"/>
+      <c r="CX124" s="1"/>
+      <c r="CY124" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:103" ht="18" customHeight="1">
+      <c r="A125" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D125" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F125" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G125" s="64" t="s">
+        <v>678</v>
+      </c>
+      <c r="H125" s="1"/>
+      <c r="I125" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="40"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="1"/>
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1"/>
+      <c r="AA125" s="1"/>
+      <c r="AB125" s="1"/>
+      <c r="AC125" s="1"/>
+      <c r="AD125" s="1"/>
+      <c r="AE125" s="1"/>
+      <c r="AF125" s="1"/>
+      <c r="AG125" s="1"/>
+      <c r="AH125" s="1"/>
+      <c r="AI125" s="1"/>
+      <c r="AJ125" s="1"/>
+      <c r="AK125" s="1"/>
+      <c r="AL125" s="1"/>
+      <c r="AM125" s="1"/>
+      <c r="AN125" s="1"/>
+      <c r="AO125" s="1"/>
+      <c r="AP125" s="1"/>
+      <c r="AQ125" s="1"/>
+      <c r="AR125" s="1"/>
+      <c r="AS125" s="1"/>
+      <c r="AT125" s="1"/>
+      <c r="AU125" s="1"/>
+      <c r="AV125" s="1"/>
+      <c r="AW125" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX125" s="1"/>
+      <c r="AY125" s="1"/>
+      <c r="AZ125" s="1"/>
+      <c r="BA125" s="1"/>
+      <c r="BB125" s="1"/>
+      <c r="BC125" s="1"/>
+      <c r="BD125" s="1"/>
+      <c r="BE125" s="1"/>
+      <c r="BF125" s="1"/>
+      <c r="BG125" s="1"/>
+      <c r="BH125" s="1"/>
+      <c r="BI125" s="1"/>
+      <c r="BJ125" s="1"/>
+      <c r="BK125" s="1"/>
+      <c r="BL125" s="1"/>
+      <c r="BM125" s="1"/>
+      <c r="BN125" s="1"/>
+      <c r="BO125" s="1"/>
+      <c r="BP125" s="1"/>
+      <c r="BQ125" s="1"/>
+      <c r="BR125" s="1"/>
+      <c r="BS125" s="1"/>
+      <c r="BT125" s="1"/>
+      <c r="BU125" s="1"/>
+      <c r="BV125" s="1"/>
+      <c r="BW125" s="1"/>
+      <c r="BX125" s="1"/>
+      <c r="BY125" s="1"/>
+      <c r="BZ125" s="1"/>
+      <c r="CA125" s="1"/>
+      <c r="CB125" s="1"/>
+      <c r="CC125" s="1"/>
+      <c r="CD125" s="1"/>
+      <c r="CE125" s="1"/>
+      <c r="CF125" s="1"/>
+      <c r="CG125" s="1"/>
+      <c r="CH125" s="1"/>
+      <c r="CI125" s="1"/>
+      <c r="CJ125" s="1"/>
+      <c r="CK125" s="1"/>
+      <c r="CL125" s="1"/>
+      <c r="CM125" s="1"/>
+      <c r="CN125" s="1"/>
+      <c r="CO125" s="1"/>
+      <c r="CP125" s="1"/>
+      <c r="CQ125" s="1"/>
+      <c r="CR125" s="35"/>
+      <c r="CS125" s="34"/>
+      <c r="CT125" s="36"/>
+      <c r="CU125" s="1"/>
+      <c r="CV125" s="1"/>
+      <c r="CW125" s="1"/>
+      <c r="CX125" s="1"/>
+      <c r="CY125" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:103" ht="18" customHeight="1">
+      <c r="A126" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D126" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E126" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F126" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G126" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="H126" s="1"/>
+      <c r="I126" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="40"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
+      <c r="AB126" s="1"/>
+      <c r="AC126" s="1"/>
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
+      <c r="AF126" s="1"/>
+      <c r="AG126" s="1"/>
+      <c r="AH126" s="1"/>
+      <c r="AI126" s="1"/>
+      <c r="AJ126" s="1"/>
+      <c r="AK126" s="1"/>
+      <c r="AL126" s="1"/>
+      <c r="AM126" s="1"/>
+      <c r="AN126" s="1"/>
+      <c r="AO126" s="1"/>
+      <c r="AP126" s="1"/>
+      <c r="AQ126" s="1"/>
+      <c r="AR126" s="1"/>
+      <c r="AS126" s="1"/>
+      <c r="AT126" s="1"/>
+      <c r="AU126" s="1"/>
+      <c r="AV126" s="1"/>
+      <c r="AW126" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX126" s="1"/>
+      <c r="AY126" s="1"/>
+      <c r="AZ126" s="1"/>
+      <c r="BA126" s="1"/>
+      <c r="BB126" s="1"/>
+      <c r="BC126" s="1"/>
+      <c r="BD126" s="1"/>
+      <c r="BE126" s="1"/>
+      <c r="BF126" s="1"/>
+      <c r="BG126" s="1"/>
+      <c r="BH126" s="1"/>
+      <c r="BI126" s="1"/>
+      <c r="BJ126" s="1"/>
+      <c r="BK126" s="1"/>
+      <c r="BL126" s="1"/>
+      <c r="BM126" s="1"/>
+      <c r="BN126" s="1"/>
+      <c r="BO126" s="1"/>
+      <c r="BP126" s="1"/>
+      <c r="BQ126" s="1"/>
+      <c r="BR126" s="1"/>
+      <c r="BS126" s="1"/>
+      <c r="BT126" s="1"/>
+      <c r="BU126" s="1"/>
+      <c r="BV126" s="1"/>
+      <c r="BW126" s="1"/>
+      <c r="BX126" s="1"/>
+      <c r="BY126" s="1"/>
+      <c r="BZ126" s="1"/>
+      <c r="CA126" s="1"/>
+      <c r="CB126" s="1"/>
+      <c r="CC126" s="1"/>
+      <c r="CD126" s="1"/>
+      <c r="CE126" s="1"/>
+      <c r="CF126" s="1"/>
+      <c r="CG126" s="1"/>
+      <c r="CH126" s="1"/>
+      <c r="CI126" s="1"/>
+      <c r="CJ126" s="1"/>
+      <c r="CK126" s="1"/>
+      <c r="CL126" s="1"/>
+      <c r="CM126" s="1"/>
+      <c r="CN126" s="1"/>
+      <c r="CO126" s="1"/>
+      <c r="CP126" s="1"/>
+      <c r="CQ126" s="1"/>
+      <c r="CR126" s="35"/>
+      <c r="CS126" s="34"/>
+      <c r="CT126" s="36"/>
+      <c r="CU126" s="1"/>
+      <c r="CV126" s="1"/>
+      <c r="CW126" s="1"/>
+      <c r="CX126" s="1"/>
+      <c r="CY126" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:103" ht="18" customHeight="1">
+      <c r="A127" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D127" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E127" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F127" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G127" s="64" t="s">
+        <v>680</v>
+      </c>
+      <c r="H127" s="1"/>
+      <c r="I127" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="40"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="2"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
+      <c r="AF127" s="1"/>
+      <c r="AG127" s="1"/>
+      <c r="AH127" s="1"/>
+      <c r="AI127" s="1"/>
+      <c r="AJ127" s="1"/>
+      <c r="AK127" s="1"/>
+      <c r="AL127" s="1"/>
+      <c r="AM127" s="1"/>
+      <c r="AN127" s="1"/>
+      <c r="AO127" s="1"/>
+      <c r="AP127" s="1"/>
+      <c r="AQ127" s="1"/>
+      <c r="AR127" s="1"/>
+      <c r="AS127" s="1"/>
+      <c r="AT127" s="1"/>
+      <c r="AU127" s="1"/>
+      <c r="AV127" s="1"/>
+      <c r="AW127" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX127" s="1"/>
+      <c r="AY127" s="1"/>
+      <c r="AZ127" s="1"/>
+      <c r="BA127" s="1"/>
+      <c r="BB127" s="1"/>
+      <c r="BC127" s="1"/>
+      <c r="BD127" s="1"/>
+      <c r="BE127" s="1"/>
+      <c r="BF127" s="1"/>
+      <c r="BG127" s="1"/>
+      <c r="BH127" s="1"/>
+      <c r="BI127" s="1"/>
+      <c r="BJ127" s="1"/>
+      <c r="BK127" s="1"/>
+      <c r="BL127" s="1"/>
+      <c r="BM127" s="1"/>
+      <c r="BN127" s="1"/>
+      <c r="BO127" s="1"/>
+      <c r="BP127" s="1"/>
+      <c r="BQ127" s="1"/>
+      <c r="BR127" s="1"/>
+      <c r="BS127" s="1"/>
+      <c r="BT127" s="1"/>
+      <c r="BU127" s="1"/>
+      <c r="BV127" s="1"/>
+      <c r="BW127" s="1"/>
+      <c r="BX127" s="1"/>
+      <c r="BY127" s="1"/>
+      <c r="BZ127" s="1"/>
+      <c r="CA127" s="1"/>
+      <c r="CB127" s="1"/>
+      <c r="CC127" s="1"/>
+      <c r="CD127" s="1"/>
+      <c r="CE127" s="1"/>
+      <c r="CF127" s="1"/>
+      <c r="CG127" s="1"/>
+      <c r="CH127" s="1"/>
+      <c r="CI127" s="1"/>
+      <c r="CJ127" s="1"/>
+      <c r="CK127" s="1"/>
+      <c r="CL127" s="1"/>
+      <c r="CM127" s="1"/>
+      <c r="CN127" s="1"/>
+      <c r="CO127" s="1"/>
+      <c r="CP127" s="1"/>
+      <c r="CQ127" s="1"/>
+      <c r="CR127" s="35"/>
+      <c r="CS127" s="34"/>
+      <c r="CT127" s="36"/>
+      <c r="CU127" s="1"/>
+      <c r="CV127" s="1"/>
+      <c r="CW127" s="1"/>
+      <c r="CX127" s="1"/>
+      <c r="CY127" s="64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:103" ht="18" customHeight="1">
+      <c r="A128" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D128" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E128" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F128" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G128" s="64" t="s">
+        <v>681</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="40"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
+      <c r="AB128" s="1"/>
+      <c r="AC128" s="1"/>
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+      <c r="AF128" s="1"/>
+      <c r="AG128" s="1"/>
+      <c r="AH128" s="1"/>
+      <c r="AI128" s="1"/>
+      <c r="AJ128" s="1"/>
+      <c r="AK128" s="1"/>
+      <c r="AL128" s="1"/>
+      <c r="AM128" s="1"/>
+      <c r="AN128" s="1"/>
+      <c r="AO128" s="1"/>
+      <c r="AP128" s="1"/>
+      <c r="AQ128" s="1"/>
+      <c r="AR128" s="1"/>
+      <c r="AS128" s="1"/>
+      <c r="AT128" s="1"/>
+      <c r="AU128" s="1"/>
+      <c r="AV128" s="1"/>
+      <c r="AW128" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX128" s="1"/>
+      <c r="AY128" s="1"/>
+      <c r="AZ128" s="1"/>
+      <c r="BA128" s="1"/>
+      <c r="BB128" s="1"/>
+      <c r="BC128" s="1"/>
+      <c r="BD128" s="1"/>
+      <c r="BE128" s="1"/>
+      <c r="BF128" s="1"/>
+      <c r="BG128" s="1"/>
+      <c r="BH128" s="1"/>
+      <c r="BI128" s="1"/>
+      <c r="BJ128" s="1"/>
+      <c r="BK128" s="1"/>
+      <c r="BL128" s="1"/>
+      <c r="BM128" s="1"/>
+      <c r="BN128" s="1"/>
+      <c r="BO128" s="1"/>
+      <c r="BP128" s="1"/>
+      <c r="BQ128" s="1"/>
+      <c r="BR128" s="1"/>
+      <c r="BS128" s="1"/>
+      <c r="BT128" s="1"/>
+      <c r="BU128" s="1"/>
+      <c r="BV128" s="1"/>
+      <c r="BW128" s="1"/>
+      <c r="BX128" s="1"/>
+      <c r="BY128" s="1"/>
+      <c r="BZ128" s="1"/>
+      <c r="CA128" s="1"/>
+      <c r="CB128" s="1"/>
+      <c r="CC128" s="1"/>
+      <c r="CD128" s="1"/>
+      <c r="CE128" s="1"/>
+      <c r="CF128" s="1"/>
+      <c r="CG128" s="1"/>
+      <c r="CH128" s="1"/>
+      <c r="CI128" s="1"/>
+      <c r="CJ128" s="1"/>
+      <c r="CK128" s="1"/>
+      <c r="CL128" s="1"/>
+      <c r="CM128" s="1"/>
+      <c r="CN128" s="1"/>
+      <c r="CO128" s="1"/>
+      <c r="CP128" s="1"/>
+      <c r="CQ128" s="1"/>
+      <c r="CR128" s="35"/>
+      <c r="CS128" s="34"/>
+      <c r="CT128" s="36"/>
+      <c r="CU128" s="1"/>
+      <c r="CV128" s="1"/>
+      <c r="CW128" s="1"/>
+      <c r="CX128" s="1"/>
+      <c r="CY128" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:103" ht="18" customHeight="1">
+      <c r="A129" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B129" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D129" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E129" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F129" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G129" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="H129" s="1"/>
+      <c r="I129" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="40"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
+      <c r="AA129" s="1"/>
+      <c r="AB129" s="1"/>
+      <c r="AC129" s="1"/>
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="1"/>
+      <c r="AF129" s="1"/>
+      <c r="AG129" s="1"/>
+      <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
+      <c r="AJ129" s="1"/>
+      <c r="AK129" s="1"/>
+      <c r="AL129" s="1"/>
+      <c r="AM129" s="1"/>
+      <c r="AN129" s="1"/>
+      <c r="AO129" s="1"/>
+      <c r="AP129" s="1"/>
+      <c r="AQ129" s="1"/>
+      <c r="AR129" s="1"/>
+      <c r="AS129" s="1"/>
+      <c r="AT129" s="1"/>
+      <c r="AU129" s="1"/>
+      <c r="AV129" s="1"/>
+      <c r="AW129" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX129" s="1"/>
+      <c r="AY129" s="1"/>
+      <c r="AZ129" s="1"/>
+      <c r="BA129" s="1"/>
+      <c r="BB129" s="1"/>
+      <c r="BC129" s="1"/>
+      <c r="BD129" s="1"/>
+      <c r="BE129" s="1"/>
+      <c r="BF129" s="1"/>
+      <c r="BG129" s="1"/>
+      <c r="BH129" s="1"/>
+      <c r="BI129" s="1"/>
+      <c r="BJ129" s="1"/>
+      <c r="BK129" s="1"/>
+      <c r="BL129" s="1"/>
+      <c r="BM129" s="1"/>
+      <c r="BN129" s="1"/>
+      <c r="BO129" s="1"/>
+      <c r="BP129" s="1"/>
+      <c r="BQ129" s="1"/>
+      <c r="BR129" s="1"/>
+      <c r="BS129" s="1"/>
+      <c r="BT129" s="1"/>
+      <c r="BU129" s="1"/>
+      <c r="BV129" s="1"/>
+      <c r="BW129" s="1"/>
+      <c r="BX129" s="1"/>
+      <c r="BY129" s="1"/>
+      <c r="BZ129" s="1"/>
+      <c r="CA129" s="1"/>
+      <c r="CB129" s="1"/>
+      <c r="CC129" s="1"/>
+      <c r="CD129" s="1"/>
+      <c r="CE129" s="1"/>
+      <c r="CF129" s="1"/>
+      <c r="CG129" s="1"/>
+      <c r="CH129" s="1"/>
+      <c r="CI129" s="1"/>
+      <c r="CJ129" s="1"/>
+      <c r="CK129" s="1"/>
+      <c r="CL129" s="1"/>
+      <c r="CM129" s="1"/>
+      <c r="CN129" s="1"/>
+      <c r="CO129" s="1"/>
+      <c r="CP129" s="1"/>
+      <c r="CQ129" s="1"/>
+      <c r="CR129" s="35"/>
+      <c r="CS129" s="34"/>
+      <c r="CT129" s="36"/>
+      <c r="CU129" s="1"/>
+      <c r="CV129" s="1"/>
+      <c r="CW129" s="1"/>
+      <c r="CX129" s="1"/>
+      <c r="CY129" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:103" ht="18" customHeight="1">
+      <c r="A130" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D130" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E130" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F130" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G130" s="64" t="s">
+        <v>683</v>
+      </c>
+      <c r="H130" s="1"/>
+      <c r="I130" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="40"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="1"/>
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1"/>
+      <c r="AA130" s="1"/>
+      <c r="AB130" s="1"/>
+      <c r="AC130" s="1"/>
+      <c r="AD130" s="1"/>
+      <c r="AE130" s="1"/>
+      <c r="AF130" s="1"/>
+      <c r="AG130" s="1"/>
+      <c r="AH130" s="1"/>
+      <c r="AI130" s="1"/>
+      <c r="AJ130" s="1"/>
+      <c r="AK130" s="1"/>
+      <c r="AL130" s="1"/>
+      <c r="AM130" s="1"/>
+      <c r="AN130" s="1"/>
+      <c r="AO130" s="1"/>
+      <c r="AP130" s="1"/>
+      <c r="AQ130" s="1"/>
+      <c r="AR130" s="1"/>
+      <c r="AS130" s="1"/>
+      <c r="AT130" s="1"/>
+      <c r="AU130" s="1"/>
+      <c r="AV130" s="1"/>
+      <c r="AW130" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX130" s="1"/>
+      <c r="AY130" s="1"/>
+      <c r="AZ130" s="1"/>
+      <c r="BA130" s="1"/>
+      <c r="BB130" s="1"/>
+      <c r="BC130" s="1"/>
+      <c r="BD130" s="1"/>
+      <c r="BE130" s="1"/>
+      <c r="BF130" s="1"/>
+      <c r="BG130" s="1"/>
+      <c r="BH130" s="1"/>
+      <c r="BI130" s="1"/>
+      <c r="BJ130" s="1"/>
+      <c r="BK130" s="1"/>
+      <c r="BL130" s="1"/>
+      <c r="BM130" s="1"/>
+      <c r="BN130" s="1"/>
+      <c r="BO130" s="1"/>
+      <c r="BP130" s="1"/>
+      <c r="BQ130" s="1"/>
+      <c r="BR130" s="1"/>
+      <c r="BS130" s="1"/>
+      <c r="BT130" s="1"/>
+      <c r="BU130" s="1"/>
+      <c r="BV130" s="1"/>
+      <c r="BW130" s="1"/>
+      <c r="BX130" s="1"/>
+      <c r="BY130" s="1"/>
+      <c r="BZ130" s="1"/>
+      <c r="CA130" s="1"/>
+      <c r="CB130" s="1"/>
+      <c r="CC130" s="1"/>
+      <c r="CD130" s="1"/>
+      <c r="CE130" s="1"/>
+      <c r="CF130" s="1"/>
+      <c r="CG130" s="1"/>
+      <c r="CH130" s="1"/>
+      <c r="CI130" s="1"/>
+      <c r="CJ130" s="1"/>
+      <c r="CK130" s="1"/>
+      <c r="CL130" s="1"/>
+      <c r="CM130" s="1"/>
+      <c r="CN130" s="1"/>
+      <c r="CO130" s="1"/>
+      <c r="CP130" s="1"/>
+      <c r="CQ130" s="1"/>
+      <c r="CR130" s="35"/>
+      <c r="CS130" s="34"/>
+      <c r="CT130" s="36"/>
+      <c r="CU130" s="1"/>
+      <c r="CV130" s="1"/>
+      <c r="CW130" s="1"/>
+      <c r="CX130" s="1"/>
+      <c r="CY130" s="64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:103" ht="18" customHeight="1">
+      <c r="A131" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D131" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E131" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F131" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G131" s="64" t="s">
+        <v>684</v>
+      </c>
+      <c r="H131" s="1"/>
+      <c r="I131" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="40"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+      <c r="W131" s="2"/>
+      <c r="X131" s="1"/>
+      <c r="Y131" s="1"/>
+      <c r="Z131" s="1"/>
+      <c r="AA131" s="1"/>
+      <c r="AB131" s="1"/>
+      <c r="AC131" s="1"/>
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="1"/>
+      <c r="AF131" s="1"/>
+      <c r="AG131" s="1"/>
+      <c r="AH131" s="1"/>
+      <c r="AI131" s="1"/>
+      <c r="AJ131" s="1"/>
+      <c r="AK131" s="1"/>
+      <c r="AL131" s="1"/>
+      <c r="AM131" s="1"/>
+      <c r="AN131" s="1"/>
+      <c r="AO131" s="1"/>
+      <c r="AP131" s="1"/>
+      <c r="AQ131" s="1"/>
+      <c r="AR131" s="1"/>
+      <c r="AS131" s="1"/>
+      <c r="AT131" s="1"/>
+      <c r="AU131" s="1"/>
+      <c r="AV131" s="1"/>
+      <c r="AW131" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX131" s="1"/>
+      <c r="AY131" s="1"/>
+      <c r="AZ131" s="1"/>
+      <c r="BA131" s="1"/>
+      <c r="BB131" s="1"/>
+      <c r="BC131" s="1"/>
+      <c r="BD131" s="1"/>
+      <c r="BE131" s="1"/>
+      <c r="BF131" s="1"/>
+      <c r="BG131" s="1"/>
+      <c r="BH131" s="1"/>
+      <c r="BI131" s="1"/>
+      <c r="BJ131" s="1"/>
+      <c r="BK131" s="1"/>
+      <c r="BL131" s="1"/>
+      <c r="BM131" s="1"/>
+      <c r="BN131" s="1"/>
+      <c r="BO131" s="1"/>
+      <c r="BP131" s="1"/>
+      <c r="BQ131" s="1"/>
+      <c r="BR131" s="1"/>
+      <c r="BS131" s="1"/>
+      <c r="BT131" s="1"/>
+      <c r="BU131" s="1"/>
+      <c r="BV131" s="1"/>
+      <c r="BW131" s="1"/>
+      <c r="BX131" s="1"/>
+      <c r="BY131" s="1"/>
+      <c r="BZ131" s="1"/>
+      <c r="CA131" s="1"/>
+      <c r="CB131" s="1"/>
+      <c r="CC131" s="1"/>
+      <c r="CD131" s="1"/>
+      <c r="CE131" s="1"/>
+      <c r="CF131" s="1"/>
+      <c r="CG131" s="1"/>
+      <c r="CH131" s="1"/>
+      <c r="CI131" s="1"/>
+      <c r="CJ131" s="1"/>
+      <c r="CK131" s="1"/>
+      <c r="CL131" s="1"/>
+      <c r="CM131" s="1"/>
+      <c r="CN131" s="1"/>
+      <c r="CO131" s="1"/>
+      <c r="CP131" s="1"/>
+      <c r="CQ131" s="1"/>
+      <c r="CR131" s="35"/>
+      <c r="CS131" s="34"/>
+      <c r="CT131" s="36"/>
+      <c r="CU131" s="1"/>
+      <c r="CV131" s="1"/>
+      <c r="CW131" s="1"/>
+      <c r="CX131" s="1"/>
+      <c r="CY131" s="64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:103" ht="18" customHeight="1">
+      <c r="A132" s="37" t="s">
+        <v>688</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="D132" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="E132" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="F132" s="68" t="s">
+        <v>595</v>
+      </c>
+      <c r="G132" s="68" t="s">
+        <v>685</v>
+      </c>
+      <c r="H132" s="37"/>
+      <c r="I132" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J132" s="37"/>
+      <c r="K132" s="37"/>
+      <c r="L132" s="37"/>
+      <c r="M132" s="37"/>
+      <c r="N132" s="37"/>
+      <c r="O132" s="37"/>
+      <c r="P132" s="44"/>
+      <c r="Q132" s="37"/>
+      <c r="R132" s="37"/>
+      <c r="S132" s="37"/>
+      <c r="T132" s="37"/>
+      <c r="U132" s="37"/>
+      <c r="V132" s="37"/>
+      <c r="W132" s="66"/>
+      <c r="X132" s="37"/>
+      <c r="Y132" s="37"/>
+      <c r="Z132" s="37"/>
+      <c r="AA132" s="37"/>
+      <c r="AB132" s="37"/>
+      <c r="AC132" s="37"/>
+      <c r="AD132" s="37"/>
+      <c r="AE132" s="37"/>
+      <c r="AF132" s="37"/>
+      <c r="AG132" s="37"/>
+      <c r="AH132" s="37"/>
+      <c r="AI132" s="37"/>
+      <c r="AJ132" s="37"/>
+      <c r="AK132" s="37"/>
+      <c r="AL132" s="37"/>
+      <c r="AM132" s="37"/>
+      <c r="AN132" s="37"/>
+      <c r="AO132" s="37"/>
+      <c r="AP132" s="37"/>
+      <c r="AQ132" s="37"/>
+      <c r="AR132" s="37"/>
+      <c r="AS132" s="37"/>
+      <c r="AT132" s="37"/>
+      <c r="AU132" s="37"/>
+      <c r="AV132" s="37"/>
+      <c r="AW132" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX132" s="37"/>
+      <c r="AY132" s="37"/>
+      <c r="AZ132" s="37"/>
+      <c r="BA132" s="37"/>
+      <c r="BB132" s="37"/>
+      <c r="BC132" s="37"/>
+      <c r="BD132" s="37"/>
+      <c r="BE132" s="37"/>
+      <c r="BF132" s="37"/>
+      <c r="BG132" s="37"/>
+      <c r="BH132" s="37"/>
+      <c r="BI132" s="37"/>
+      <c r="BJ132" s="37"/>
+      <c r="BK132" s="37"/>
+      <c r="BL132" s="37"/>
+      <c r="BM132" s="37"/>
+      <c r="BN132" s="37"/>
+      <c r="BO132" s="37"/>
+      <c r="BP132" s="37"/>
+      <c r="BQ132" s="37"/>
+      <c r="BR132" s="37"/>
+      <c r="BS132" s="37"/>
+      <c r="BT132" s="37"/>
+      <c r="BU132" s="37"/>
+      <c r="BV132" s="37"/>
+      <c r="BW132" s="37"/>
+      <c r="BX132" s="37"/>
+      <c r="BY132" s="37"/>
+      <c r="BZ132" s="37"/>
+      <c r="CA132" s="37"/>
+      <c r="CB132" s="37"/>
+      <c r="CC132" s="37"/>
+      <c r="CD132" s="37"/>
+      <c r="CE132" s="37"/>
+      <c r="CF132" s="37"/>
+      <c r="CG132" s="37"/>
+      <c r="CH132" s="37"/>
+      <c r="CI132" s="37"/>
+      <c r="CJ132" s="37"/>
+      <c r="CK132" s="37"/>
+      <c r="CL132" s="37"/>
+      <c r="CM132" s="37"/>
+      <c r="CN132" s="37"/>
+      <c r="CO132" s="37"/>
+      <c r="CP132" s="37"/>
+      <c r="CQ132" s="37"/>
+      <c r="CR132" s="45"/>
+      <c r="CS132" s="46"/>
+      <c r="CT132" s="47"/>
+      <c r="CU132" s="37"/>
+      <c r="CV132" s="37"/>
+      <c r="CW132" s="37"/>
+      <c r="CX132" s="37"/>
+      <c r="CY132" s="68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:103" ht="18" customHeight="1">
+      <c r="A133" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B133" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D133" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E133" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F133" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G133" s="64" t="s">
+        <v>715</v>
+      </c>
+      <c r="H133" s="1"/>
+      <c r="I133" s="69"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="40"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="2"/>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
+      <c r="AB133" s="1"/>
+      <c r="AC133" s="1"/>
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="1"/>
+      <c r="AF133" s="1"/>
+      <c r="AG133" s="1"/>
+      <c r="AH133" s="1"/>
+      <c r="AI133" s="1"/>
+      <c r="AJ133" s="1"/>
+      <c r="AK133" s="1"/>
+      <c r="AL133" s="1"/>
+      <c r="AM133" s="1"/>
+      <c r="AN133" s="1"/>
+      <c r="AO133" s="1"/>
+      <c r="AP133" s="1"/>
+      <c r="AQ133" s="1"/>
+      <c r="AR133" s="1"/>
+      <c r="AS133" s="1"/>
+      <c r="AT133" s="1"/>
+      <c r="AU133" s="1"/>
+      <c r="AV133" s="1"/>
+      <c r="AW133" s="32"/>
+      <c r="AX133" s="1"/>
+      <c r="AY133" s="1"/>
+      <c r="AZ133" s="1"/>
+      <c r="BA133" s="1"/>
+      <c r="BB133" s="1"/>
+      <c r="BC133" s="1"/>
+      <c r="BD133" s="1"/>
+      <c r="BE133" s="1"/>
+      <c r="BF133" s="1"/>
+      <c r="BG133" s="1"/>
+      <c r="BH133" s="1"/>
+      <c r="BI133" s="1"/>
+      <c r="BJ133" s="1"/>
+      <c r="BK133" s="1"/>
+      <c r="BL133" s="1"/>
+      <c r="BM133" s="1"/>
+      <c r="BN133" s="1"/>
+      <c r="BO133" s="1"/>
+      <c r="BP133" s="1"/>
+      <c r="BQ133" s="1"/>
+      <c r="BR133" s="1"/>
+      <c r="BS133" s="1"/>
+      <c r="BT133" s="1"/>
+      <c r="BU133" s="1"/>
+      <c r="BV133" s="1"/>
+      <c r="BW133" s="1"/>
+      <c r="BX133" s="1"/>
+      <c r="BY133" s="1"/>
+      <c r="BZ133" s="1"/>
+      <c r="CA133" s="1"/>
+      <c r="CB133" s="1"/>
+      <c r="CC133" s="1"/>
+      <c r="CD133" s="1"/>
+      <c r="CE133" s="1"/>
+      <c r="CF133" s="1"/>
+      <c r="CG133" s="1"/>
+      <c r="CH133" s="1"/>
+      <c r="CI133" s="1"/>
+      <c r="CJ133" s="1"/>
+      <c r="CK133" s="1"/>
+      <c r="CL133" s="1"/>
+      <c r="CM133" s="1"/>
+      <c r="CN133" s="1"/>
+      <c r="CO133" s="1"/>
+      <c r="CP133" s="1"/>
+      <c r="CQ133" s="1"/>
+      <c r="CR133" s="35"/>
+      <c r="CS133" s="34"/>
+      <c r="CT133" s="36"/>
+      <c r="CU133" s="1"/>
+      <c r="CV133" s="1"/>
+      <c r="CW133" s="1"/>
+      <c r="CX133" s="1"/>
+      <c r="CY133" s="64"/>
+    </row>
+    <row r="134" spans="1:103" ht="18" customHeight="1">
+      <c r="A134" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B134" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D134" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E134" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F134" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="G134" s="51" t="s">
+        <v>596</v>
+      </c>
+      <c r="H134" s="1"/>
+      <c r="I134" s="69"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="40"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="2"/>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
+      <c r="AA134" s="1"/>
+      <c r="AB134" s="1"/>
+      <c r="AC134" s="1"/>
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="1"/>
+      <c r="AF134" s="1"/>
+      <c r="AG134" s="1"/>
+      <c r="AH134" s="1"/>
+      <c r="AI134" s="1"/>
+      <c r="AJ134" s="1"/>
+      <c r="AK134" s="1"/>
+      <c r="AL134" s="1"/>
+      <c r="AM134" s="1"/>
+      <c r="AN134" s="1"/>
+      <c r="AO134" s="1"/>
+      <c r="AP134" s="1"/>
+      <c r="AQ134" s="1"/>
+      <c r="AR134" s="1"/>
+      <c r="AS134" s="1"/>
+      <c r="AT134" s="1"/>
+      <c r="AU134" s="1"/>
+      <c r="AV134" s="1"/>
+      <c r="AW134" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AX134" s="1"/>
+      <c r="AY134" s="1"/>
+      <c r="AZ134" s="1"/>
+      <c r="BA134" s="1"/>
+      <c r="BB134" s="1"/>
+      <c r="BC134" s="1"/>
+      <c r="BD134" s="1"/>
+      <c r="BE134" s="1"/>
+      <c r="BF134" s="1"/>
+      <c r="BG134" s="1"/>
+      <c r="BH134" s="1"/>
+      <c r="BI134" s="1"/>
+      <c r="BJ134" s="1"/>
+      <c r="BK134" s="1"/>
+      <c r="BL134" s="1"/>
+      <c r="BM134" s="1"/>
+      <c r="BN134" s="1"/>
+      <c r="BO134" s="1"/>
+      <c r="BP134" s="1"/>
+      <c r="BQ134" s="1"/>
+      <c r="BR134" s="1"/>
+      <c r="BS134" s="1"/>
+      <c r="BT134" s="1"/>
+      <c r="BU134" s="1"/>
+      <c r="BV134" s="1"/>
+      <c r="BW134" s="1"/>
+      <c r="BX134" s="1"/>
+      <c r="BY134" s="1"/>
+      <c r="BZ134" s="1"/>
+      <c r="CA134" s="1"/>
+      <c r="CB134" s="1"/>
+      <c r="CC134" s="1"/>
+      <c r="CD134" s="1"/>
+      <c r="CE134" s="1"/>
+      <c r="CF134" s="1"/>
+      <c r="CG134" s="1"/>
+      <c r="CH134" s="1"/>
+      <c r="CI134" s="1"/>
+      <c r="CJ134" s="1"/>
+      <c r="CK134" s="1"/>
+      <c r="CL134" s="1"/>
+      <c r="CM134" s="1"/>
+      <c r="CN134" s="1"/>
+      <c r="CO134" s="1"/>
+      <c r="CP134" s="1"/>
+      <c r="CQ134" s="1"/>
+      <c r="CR134" s="35"/>
+      <c r="CS134" s="34"/>
+      <c r="CT134" s="36"/>
+      <c r="CU134" s="1"/>
+      <c r="CV134" s="1"/>
+      <c r="CW134" s="1"/>
+      <c r="CX134" s="1"/>
+      <c r="CY134" s="64"/>
+    </row>
+    <row r="135" spans="1:103">
+      <c r="AW135" s="67"/>
+      <c r="CX135" s="59"/>
+    </row>
+    <row r="136" spans="1:103">
+      <c r="AW136" s="67"/>
+      <c r="CX136" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -14392,8 +20467,9 @@
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
     <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com"/>
     <hyperlink ref="W11:W14" r:id="rId3" display="aansari1@zarca.com"/>
+    <hyperlink ref="W96" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20A1420-C80F-4C70-9A46-30DD94E8D7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -2281,7 +2280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -2589,12 +2588,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="4"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2871,7 +2870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2913,7 +2912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2951,14 +2950,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -3089,22 +3088,22 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CY135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CW1" sqref="CW1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4557,7 +4556,7 @@
         <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>514</v>
@@ -20591,14 +20590,14 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="CT10" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="CT11" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="CT12" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="W11:W13" r:id="rId6" display="aansari1@zarca.com" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="CT13" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="W97" r:id="rId8" xr:uid="{59E050FA-03BD-4BB9-A564-B6B2E58488C7}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com"/>
+    <hyperlink ref="CT10" r:id="rId3"/>
+    <hyperlink ref="CT11" r:id="rId4"/>
+    <hyperlink ref="CT12" r:id="rId5"/>
+    <hyperlink ref="W11:W13" r:id="rId6" display="aansari1@zarca.com"/>
+    <hyperlink ref="CT13" r:id="rId7"/>
+    <hyperlink ref="W97" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="724">
   <si>
     <t>Environment</t>
   </si>
@@ -2275,6 +2275,12 @@
   </si>
   <si>
     <t>aplhabet_number</t>
+  </si>
+  <si>
+    <t>Data Import Completed</t>
+  </si>
+  <si>
+    <t>Data Export Completed</t>
   </si>
 </sst>
 </file>
@@ -2518,7 +2524,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2585,6 +2591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3102,8 +3109,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CY135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CU16" sqref="CU16:CU17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5479,10 +5486,18 @@
       <c r="CO16" s="25"/>
       <c r="CP16" s="25"/>
       <c r="CQ16" s="1"/>
-      <c r="CR16" s="1"/>
-      <c r="CS16" s="1"/>
-      <c r="CT16" s="1"/>
-      <c r="CU16" s="1"/>
+      <c r="CR16" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="CS16" s="60" t="s">
+        <v>490</v>
+      </c>
+      <c r="CT16" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="CU16" s="1" t="s">
+        <v>722</v>
+      </c>
       <c r="CV16" s="1"/>
       <c r="CW16" s="61"/>
       <c r="CX16" s="1"/>
@@ -5604,10 +5619,18 @@
       <c r="CO17" s="25"/>
       <c r="CP17" s="25"/>
       <c r="CQ17" s="1"/>
-      <c r="CR17" s="1"/>
-      <c r="CS17" s="1"/>
-      <c r="CT17" s="1"/>
-      <c r="CU17" s="1"/>
+      <c r="CR17" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="CS17" s="60" t="s">
+        <v>490</v>
+      </c>
+      <c r="CT17" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="CU17" s="1" t="s">
+        <v>723</v>
+      </c>
       <c r="CV17" s="1"/>
       <c r="CW17" s="61"/>
       <c r="CX17" s="1"/>
@@ -20598,8 +20621,12 @@
     <hyperlink ref="W11:W13" r:id="rId6" display="aansari1@zarca.com"/>
     <hyperlink ref="CT13" r:id="rId7"/>
     <hyperlink ref="W97" r:id="rId8"/>
+    <hyperlink ref="CS16" r:id="rId9"/>
+    <hyperlink ref="CT16" r:id="rId10"/>
+    <hyperlink ref="CS17" r:id="rId11"/>
+    <hyperlink ref="CT17" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="725">
   <si>
     <t>Environment</t>
   </si>
@@ -2282,12 +2282,16 @@
   <si>
     <t>Data Export Completed</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <numFmts count="0"/>
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2362,8 +2366,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2415,6 +2430,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -2524,7 +2569,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2592,6 +2637,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2887,8 +2936,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2928,9 +2977,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2974,10 +3023,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3109,30 +3158,30 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CY135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CU16" sqref="CU16:CU17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="66" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="66.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:103">
@@ -3469,7 +3518,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J2" s="4"/>
@@ -3592,7 +3641,7 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3795,7 +3844,7 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -3932,7 +3981,7 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J5" s="11"/>
@@ -4067,7 +4116,7 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J6" s="11"/>
@@ -4192,7 +4241,7 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -4321,7 +4370,7 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J8" s="11"/>
@@ -4446,7 +4495,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J9" s="1"/>
@@ -4563,7 +4612,7 @@
         <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>514</v>
@@ -4581,7 +4630,7 @@
         <v>190</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -4720,8 +4769,8 @@
         <v>194</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="49" t="s">
-        <v>502</v>
+      <c r="I11" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>317</v>
@@ -4855,8 +4904,8 @@
         <v>198</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="49" t="s">
-        <v>502</v>
+      <c r="I12" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>317</v>
@@ -4990,8 +5039,8 @@
         <v>202</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="49" t="s">
-        <v>502</v>
+      <c r="I13" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>317</v>
@@ -5125,7 +5174,7 @@
         <v>206</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J14" s="22" t="s">
@@ -5256,7 +5305,7 @@
       <c r="H15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -5375,7 +5424,7 @@
         <v>219</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>514</v>
@@ -5391,8 +5440,8 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="50" t="s">
-        <v>172</v>
+      <c r="I16" s="64" t="s">
+        <v>724</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="1"/>
@@ -5508,7 +5557,7 @@
         <v>224</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>514</v>
@@ -5524,8 +5573,8 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="50" t="s">
-        <v>172</v>
+      <c r="I17" s="64" t="s">
+        <v>724</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="1"/>
@@ -5659,7 +5708,7 @@
         <v>273</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J18" s="26"/>
@@ -5792,7 +5841,7 @@
       <c r="H19" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J19" s="1"/>
@@ -5925,7 +5974,7 @@
       <c r="H20" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J20" s="1"/>
@@ -6054,7 +6103,7 @@
       <c r="H21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J21" s="1"/>
@@ -6189,7 +6238,7 @@
       <c r="H22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J22" s="1"/>
@@ -6320,7 +6369,7 @@
       <c r="H23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J23" s="1"/>
@@ -6451,7 +6500,7 @@
       <c r="H24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I24" s="50" t="s">
+      <c r="I24" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J24" s="1"/>
@@ -6582,7 +6631,7 @@
       <c r="H25" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J25" s="1"/>
@@ -6711,7 +6760,7 @@
       <c r="H26" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J26" s="1"/>
@@ -6840,7 +6889,7 @@
       <c r="H27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="1"/>
@@ -6971,7 +7020,7 @@
       <c r="H28" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="1"/>
@@ -7104,7 +7153,7 @@
       <c r="H29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J29" s="1"/>
@@ -7237,7 +7286,7 @@
       <c r="H30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J30" s="1"/>
@@ -7362,7 +7411,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J31" s="1"/>
@@ -7485,7 +7534,7 @@
       <c r="H32" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I32" s="50" t="s">
+      <c r="I32" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J32" s="1"/>
@@ -7618,7 +7667,7 @@
       <c r="H33" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="I33" s="50" t="s">
+      <c r="I33" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J33" s="1"/>
@@ -7751,7 +7800,7 @@
       <c r="H34" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="I34" s="50" t="s">
+      <c r="I34" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J34" s="1"/>
@@ -7880,7 +7929,7 @@
       <c r="H35" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="I35" s="50" t="s">
+      <c r="I35" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J35" s="1"/>
@@ -8009,7 +8058,7 @@
       <c r="H36" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="I36" s="50" t="s">
+      <c r="I36" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J36" s="1"/>
@@ -8138,7 +8187,7 @@
       <c r="H37" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="I37" s="50" t="s">
+      <c r="I37" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J37" s="1"/>
@@ -8267,7 +8316,7 @@
       <c r="H38" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="I38" s="50" t="s">
+      <c r="I38" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J38" s="1"/>
@@ -8396,7 +8445,7 @@
       <c r="H39" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I39" s="50" t="s">
+      <c r="I39" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
@@ -8525,7 +8574,7 @@
       <c r="H40" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I40" s="50" t="s">
+      <c r="I40" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J40" s="1"/>
@@ -8654,7 +8703,7 @@
       <c r="H41" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J41" s="1"/>
@@ -8781,7 +8830,7 @@
         <v>428</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="50" t="s">
+      <c r="I42" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J42" s="1"/>
@@ -8908,7 +8957,7 @@
         <v>430</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="50" t="s">
+      <c r="I43" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J43" s="1"/>
@@ -9035,7 +9084,7 @@
         <v>432</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="50" t="s">
+      <c r="I44" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J44" s="1"/>
@@ -9162,7 +9211,7 @@
         <v>434</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="50" t="s">
+      <c r="I45" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J45" s="1"/>
@@ -9291,7 +9340,7 @@
       <c r="H46" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I46" s="50" t="s">
+      <c r="I46" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J46" s="1"/>
@@ -9420,7 +9469,7 @@
       <c r="H47" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I47" s="50" t="s">
+      <c r="I47" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J47" s="1"/>
@@ -9549,7 +9598,7 @@
       <c r="H48" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I48" s="50" t="s">
+      <c r="I48" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J48" s="1"/>
@@ -9678,7 +9727,7 @@
       <c r="H49" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I49" s="50" t="s">
+      <c r="I49" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J49" s="1"/>
@@ -9805,7 +9854,7 @@
         <v>448</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="50" t="s">
+      <c r="I50" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J50" s="1"/>
@@ -9932,7 +9981,7 @@
         <v>450</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="50" t="s">
+      <c r="I51" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J51" s="1"/>
@@ -10061,7 +10110,7 @@
       <c r="H52" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="I52" s="50" t="s">
+      <c r="I52" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J52" s="1"/>
@@ -10190,7 +10239,7 @@
       <c r="H53" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I53" s="50" t="s">
+      <c r="I53" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="1"/>
@@ -10317,7 +10366,7 @@
         <v>458</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="50" t="s">
+      <c r="I54" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J54" s="1"/>
@@ -10446,7 +10495,7 @@
         <v>460</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="50" t="s">
+      <c r="I55" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J55" s="1"/>
@@ -10577,7 +10626,7 @@
       <c r="H56" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I56" s="50" t="s">
+      <c r="I56" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J56" s="1"/>
@@ -10708,7 +10757,7 @@
       <c r="H57" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I57" s="50" t="s">
+      <c r="I57" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J57" s="1"/>
@@ -10839,7 +10888,7 @@
       <c r="H58" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I58" s="50" t="s">
+      <c r="I58" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J58" s="1"/>
@@ -10970,7 +11019,7 @@
       <c r="H59" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I59" s="50" t="s">
+      <c r="I59" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J59" s="1"/>
@@ -11101,7 +11150,7 @@
       <c r="H60" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I60" s="50" t="s">
+      <c r="I60" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J60" s="1"/>
@@ -11232,7 +11281,7 @@
       <c r="H61" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="I61" s="50" t="s">
+      <c r="I61" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J61" s="1"/>
@@ -11363,7 +11412,7 @@
       <c r="H62" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="I62" s="50" t="s">
+      <c r="I62" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J62" s="1"/>
@@ -11494,7 +11543,7 @@
       <c r="H63" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="I63" s="50" t="s">
+      <c r="I63" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J63" s="37"/>
@@ -11623,7 +11672,7 @@
         <v>488</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="50" t="s">
+      <c r="I64" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J64" s="1"/>
@@ -11899,7 +11948,7 @@
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="50" t="s">
+      <c r="I66" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J66" s="1"/>
@@ -12018,7 +12067,7 @@
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="50" t="s">
+      <c r="I67" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J67" s="1"/>
@@ -12139,8 +12188,8 @@
         <v>522</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="53" t="s">
-        <v>502</v>
+      <c r="I68" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -12264,8 +12313,8 @@
         <v>525</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="53" t="s">
-        <v>502</v>
+      <c r="I69" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -12389,8 +12438,8 @@
         <v>528</v>
       </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="53" t="s">
-        <v>502</v>
+      <c r="I70" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -12514,8 +12563,8 @@
         <v>531</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="53" t="s">
-        <v>502</v>
+      <c r="I71" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -12639,8 +12688,8 @@
         <v>534</v>
       </c>
       <c r="H72" s="1"/>
-      <c r="I72" s="53" t="s">
-        <v>502</v>
+      <c r="I72" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -12764,8 +12813,8 @@
         <v>537</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="53" t="s">
-        <v>502</v>
+      <c r="I73" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -12889,8 +12938,8 @@
         <v>540</v>
       </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="53" t="s">
-        <v>502</v>
+      <c r="I74" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -13014,8 +13063,8 @@
         <v>543</v>
       </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="53" t="s">
-        <v>502</v>
+      <c r="I75" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -13139,8 +13188,8 @@
         <v>545</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="53" t="s">
-        <v>502</v>
+      <c r="I76" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -13264,8 +13313,8 @@
         <v>548</v>
       </c>
       <c r="H77" s="1"/>
-      <c r="I77" s="53" t="s">
-        <v>502</v>
+      <c r="I77" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -13389,7 +13438,7 @@
         <v>551</v>
       </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="55" t="s">
+      <c r="I78" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J78" s="1"/>
@@ -13514,8 +13563,8 @@
         <v>554</v>
       </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="53" t="s">
-        <v>502</v>
+      <c r="I79" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -13639,7 +13688,7 @@
         <v>557</v>
       </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="56" t="s">
+      <c r="I80" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J80" s="1"/>
@@ -13764,7 +13813,7 @@
         <v>560</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="56" t="s">
+      <c r="I81" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J81" s="1"/>
@@ -13889,7 +13938,7 @@
         <v>563</v>
       </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="56" t="s">
+      <c r="I82" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J82" s="1"/>
@@ -14014,7 +14063,7 @@
         <v>566</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="56" t="s">
+      <c r="I83" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J83" s="1"/>
@@ -14139,7 +14188,7 @@
         <v>569</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="56" t="s">
+      <c r="I84" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J84" s="1"/>
@@ -14264,7 +14313,7 @@
         <v>572</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="56" t="s">
+      <c r="I85" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J85" s="1"/>
@@ -14389,8 +14438,8 @@
         <v>575</v>
       </c>
       <c r="H86" s="1"/>
-      <c r="I86" s="53" t="s">
-        <v>502</v>
+      <c r="I86" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -14514,8 +14563,8 @@
         <v>578</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="53" t="s">
-        <v>502</v>
+      <c r="I87" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -14639,8 +14688,8 @@
         <v>581</v>
       </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="53" t="s">
-        <v>502</v>
+      <c r="I88" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -14764,8 +14813,8 @@
         <v>584</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="53" t="s">
-        <v>502</v>
+      <c r="I89" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -14889,8 +14938,8 @@
         <v>587</v>
       </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="53" t="s">
-        <v>502</v>
+      <c r="I90" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -15014,8 +15063,8 @@
         <v>590</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="I91" s="53" t="s">
-        <v>502</v>
+      <c r="I91" s="65" t="s">
+        <v>172</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -15139,7 +15188,9 @@
         <v>597</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="53"/>
+      <c r="I92" s="65" t="s">
+        <v>172</v>
+      </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -15266,7 +15317,7 @@
         <v>601</v>
       </c>
       <c r="H93" s="37"/>
-      <c r="I93" s="55" t="s">
+      <c r="I93" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J93" s="37"/>
@@ -15391,7 +15442,7 @@
         <v>605</v>
       </c>
       <c r="H94" s="1"/>
-      <c r="I94" s="55" t="s">
+      <c r="I94" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J94" s="1"/>
@@ -15516,7 +15567,7 @@
         <v>608</v>
       </c>
       <c r="H95" s="37"/>
-      <c r="I95" s="55" t="s">
+      <c r="I95" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J95" s="37"/>
@@ -15641,7 +15692,7 @@
         <v>611</v>
       </c>
       <c r="H96" s="1"/>
-      <c r="I96" s="55" t="s">
+      <c r="I96" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J96" s="1"/>
@@ -15762,7 +15813,7 @@
         <v>613</v>
       </c>
       <c r="H97" s="37"/>
-      <c r="I97" s="55" t="s">
+      <c r="I97" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J97" s="37"/>
@@ -15893,7 +15944,7 @@
         <v>618</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="55" t="s">
+      <c r="I98" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J98" s="1"/>
@@ -16018,7 +16069,7 @@
         <v>621</v>
       </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="55" t="s">
+      <c r="I99" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J99" s="1"/>
@@ -16143,7 +16194,7 @@
         <v>624</v>
       </c>
       <c r="H100" s="1"/>
-      <c r="I100" s="55" t="s">
+      <c r="I100" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J100" s="1"/>
@@ -16268,7 +16319,7 @@
         <v>627</v>
       </c>
       <c r="H101" s="1"/>
-      <c r="I101" s="55" t="s">
+      <c r="I101" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J101" s="1"/>
@@ -16393,7 +16444,7 @@
         <v>630</v>
       </c>
       <c r="H102" s="1"/>
-      <c r="I102" s="55" t="s">
+      <c r="I102" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J102" s="1"/>
@@ -16518,7 +16569,7 @@
         <v>633</v>
       </c>
       <c r="H103" s="1"/>
-      <c r="I103" s="55" t="s">
+      <c r="I103" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J103" s="1"/>
@@ -16643,7 +16694,7 @@
         <v>636</v>
       </c>
       <c r="H104" s="1"/>
-      <c r="I104" s="55" t="s">
+      <c r="I104" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J104" s="1"/>
@@ -16768,7 +16819,7 @@
         <v>639</v>
       </c>
       <c r="H105" s="1"/>
-      <c r="I105" s="55" t="s">
+      <c r="I105" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J105" s="1"/>
@@ -16893,7 +16944,7 @@
         <v>642</v>
       </c>
       <c r="H106" s="1"/>
-      <c r="I106" s="55" t="s">
+      <c r="I106" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J106" s="1"/>
@@ -17018,7 +17069,7 @@
         <v>645</v>
       </c>
       <c r="H107" s="1"/>
-      <c r="I107" s="55" t="s">
+      <c r="I107" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J107" s="1"/>
@@ -17143,7 +17194,7 @@
         <v>648</v>
       </c>
       <c r="H108" s="1"/>
-      <c r="I108" s="55" t="s">
+      <c r="I108" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J108" s="1"/>
@@ -17268,7 +17319,7 @@
         <v>651</v>
       </c>
       <c r="H109" s="1"/>
-      <c r="I109" s="55" t="s">
+      <c r="I109" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J109" s="1"/>
@@ -17393,7 +17444,7 @@
         <v>654</v>
       </c>
       <c r="H110" s="1"/>
-      <c r="I110" s="55" t="s">
+      <c r="I110" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J110" s="1"/>
@@ -17518,7 +17569,7 @@
         <v>657</v>
       </c>
       <c r="H111" s="1"/>
-      <c r="I111" s="55" t="s">
+      <c r="I111" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J111" s="1"/>
@@ -17643,7 +17694,7 @@
         <v>660</v>
       </c>
       <c r="H112" s="1"/>
-      <c r="I112" s="55" t="s">
+      <c r="I112" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J112" s="1"/>
@@ -17768,7 +17819,7 @@
         <v>663</v>
       </c>
       <c r="H113" s="1"/>
-      <c r="I113" s="55" t="s">
+      <c r="I113" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J113" s="1"/>
@@ -17893,7 +17944,7 @@
         <v>666</v>
       </c>
       <c r="H114" s="1"/>
-      <c r="I114" s="55" t="s">
+      <c r="I114" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J114" s="1"/>
@@ -18018,7 +18069,7 @@
         <v>669</v>
       </c>
       <c r="H115" s="1"/>
-      <c r="I115" s="55" t="s">
+      <c r="I115" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J115" s="1"/>
@@ -18143,7 +18194,7 @@
         <v>672</v>
       </c>
       <c r="H116" s="1"/>
-      <c r="I116" s="55" t="s">
+      <c r="I116" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J116" s="1"/>
@@ -18268,7 +18319,7 @@
         <v>675</v>
       </c>
       <c r="H117" s="1"/>
-      <c r="I117" s="55" t="s">
+      <c r="I117" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J117" s="1"/>
@@ -18393,7 +18444,7 @@
         <v>678</v>
       </c>
       <c r="H118" s="1"/>
-      <c r="I118" s="55" t="s">
+      <c r="I118" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J118" s="1"/>
@@ -18518,7 +18569,7 @@
         <v>681</v>
       </c>
       <c r="H119" s="1"/>
-      <c r="I119" s="55" t="s">
+      <c r="I119" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J119" s="1"/>
@@ -18643,7 +18694,7 @@
         <v>684</v>
       </c>
       <c r="H120" s="1"/>
-      <c r="I120" s="55" t="s">
+      <c r="I120" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J120" s="1"/>
@@ -18768,7 +18819,7 @@
         <v>687</v>
       </c>
       <c r="H121" s="1"/>
-      <c r="I121" s="55" t="s">
+      <c r="I121" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J121" s="1"/>
@@ -18893,7 +18944,7 @@
         <v>690</v>
       </c>
       <c r="H122" s="1"/>
-      <c r="I122" s="55" t="s">
+      <c r="I122" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J122" s="1"/>
@@ -19018,7 +19069,7 @@
         <v>693</v>
       </c>
       <c r="H123" s="1"/>
-      <c r="I123" s="55" t="s">
+      <c r="I123" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J123" s="1"/>
@@ -19143,7 +19194,7 @@
         <v>696</v>
       </c>
       <c r="H124" s="1"/>
-      <c r="I124" s="55" t="s">
+      <c r="I124" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J124" s="1"/>
@@ -19268,7 +19319,7 @@
         <v>698</v>
       </c>
       <c r="H125" s="1"/>
-      <c r="I125" s="55" t="s">
+      <c r="I125" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J125" s="1"/>
@@ -19393,7 +19444,7 @@
         <v>700</v>
       </c>
       <c r="H126" s="1"/>
-      <c r="I126" s="55" t="s">
+      <c r="I126" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J126" s="1"/>
@@ -19518,7 +19569,7 @@
         <v>702</v>
       </c>
       <c r="H127" s="1"/>
-      <c r="I127" s="55" t="s">
+      <c r="I127" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J127" s="1"/>
@@ -19643,7 +19694,7 @@
         <v>704</v>
       </c>
       <c r="H128" s="1"/>
-      <c r="I128" s="55" t="s">
+      <c r="I128" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J128" s="1"/>
@@ -19768,7 +19819,7 @@
         <v>706</v>
       </c>
       <c r="H129" s="1"/>
-      <c r="I129" s="55" t="s">
+      <c r="I129" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J129" s="1"/>
@@ -19893,7 +19944,7 @@
         <v>708</v>
       </c>
       <c r="H130" s="1"/>
-      <c r="I130" s="55" t="s">
+      <c r="I130" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J130" s="1"/>
@@ -20018,7 +20069,7 @@
         <v>710</v>
       </c>
       <c r="H131" s="1"/>
-      <c r="I131" s="55" t="s">
+      <c r="I131" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J131" s="1"/>
@@ -20143,7 +20194,7 @@
         <v>712</v>
       </c>
       <c r="H132" s="1"/>
-      <c r="I132" s="55" t="s">
+      <c r="I132" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J132" s="1"/>
@@ -20268,7 +20319,7 @@
         <v>714</v>
       </c>
       <c r="H133" s="37"/>
-      <c r="I133" s="55" t="s">
+      <c r="I133" s="65" t="s">
         <v>172</v>
       </c>
       <c r="J133" s="37"/>
@@ -20393,7 +20444,9 @@
         <v>716</v>
       </c>
       <c r="H134" s="1"/>
-      <c r="I134" s="56"/>
+      <c r="I134" s="65" t="s">
+        <v>172</v>
+      </c>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -20512,7 +20565,9 @@
         <v>718</v>
       </c>
       <c r="H135" s="1"/>
-      <c r="I135" s="56"/>
+      <c r="I135" s="65" t="s">
+        <v>172</v>
+      </c>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>

--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="601">
   <si>
     <t>Environment</t>
   </si>
@@ -562,9 +562,6 @@
   </si>
   <si>
     <t>260</t>
-  </si>
-  <si>
-    <t>Reminder with Platform</t>
   </si>
   <si>
     <t>Smoke_TC3</t>
@@ -1907,12 +1904,22 @@
   <si>
     <t>Smoke_TC109</t>
   </si>
+  <si>
+    <t>vgrandhi@zarca.com</t>
+  </si>
+  <si>
+    <t>Zarca DP : PF Invites S4 2020</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <numFmts count="0"/>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1977,18 +1984,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2038,8 +2066,103 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -2053,7 +2176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2076,45 +2199,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2134,15 +2218,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
@@ -2155,38 +2235,40 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="4" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2482,8 +2564,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2523,9 +2605,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2543,7 +2625,7 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2569,10 +2651,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2633,13 +2715,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -2647,13 +2729,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -2661,13 +2743,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -2675,13 +2757,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="C8" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>511</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>510</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -2704,30 +2786,30 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CV92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="66" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="66.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100">
@@ -2759,7 +2841,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>20</v>
@@ -2845,191 +2927,191 @@
       <c r="AL1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BF1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BH1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BI1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BK1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BL1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BM1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BN1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BO1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BP1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BR1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BS1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BT1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BU1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BV1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BW1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BX1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BY1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CA1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CB1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CC1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CD1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CE1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CF1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CG1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CH1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CI1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CK1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CL1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CM1" s="3" t="s">
         <v>147</v>
       </c>
       <c r="CN1" s="3" t="s">
         <v>148</v>
       </c>
       <c r="CO1" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="CP1" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CQ1" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="CR1" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CU1" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="CU1" s="3" t="s">
-        <v>501</v>
-      </c>
       <c r="CV1" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:100">
@@ -3040,10 +3122,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -3055,7 +3137,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J2" s="4"/>
@@ -3157,13 +3239,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -3175,11 +3257,11 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="50" t="s">
-        <v>172</v>
+      <c r="I3" s="53" t="s">
+        <v>501</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
@@ -3354,16 +3436,16 @@
     </row>
     <row r="4" spans="1:100">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>152</v>
@@ -3375,15 +3457,15 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>320</v>
+      <c r="J4" s="9" t="s">
+        <v>319</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -3411,74 +3493,74 @@
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="13"/>
-      <c r="BF4" s="12"/>
-      <c r="BG4" s="12"/>
-      <c r="BH4" s="12"/>
-      <c r="BI4" s="12"/>
-      <c r="BJ4" s="12"/>
-      <c r="BK4" s="12"/>
-      <c r="BL4" s="12"/>
-      <c r="BM4" s="12"/>
-      <c r="BN4" s="12"/>
-      <c r="BO4" s="12"/>
-      <c r="BP4" s="12"/>
-      <c r="BQ4" s="12"/>
-      <c r="BR4" s="12"/>
-      <c r="BS4" s="12"/>
-      <c r="BT4" s="12"/>
-      <c r="BU4" s="12"/>
-      <c r="BV4" s="12"/>
-      <c r="BW4" s="12"/>
-      <c r="BX4" s="12"/>
-      <c r="BY4" s="12"/>
-      <c r="BZ4" s="12"/>
-      <c r="CA4" s="12"/>
-      <c r="CB4" s="12"/>
-      <c r="CC4" s="12"/>
-      <c r="CD4" s="12"/>
-      <c r="CE4" s="12"/>
-      <c r="CF4" s="12"/>
-      <c r="CG4" s="12"/>
-      <c r="CH4" s="15" t="s">
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
+      <c r="BV4" s="10"/>
+      <c r="BW4" s="10"/>
+      <c r="BX4" s="10"/>
+      <c r="BY4" s="10"/>
+      <c r="BZ4" s="10"/>
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="10"/>
+      <c r="CC4" s="10"/>
+      <c r="CD4" s="10"/>
+      <c r="CE4" s="10"/>
+      <c r="CF4" s="10"/>
+      <c r="CG4" s="10"/>
+      <c r="CH4" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="CI4" s="14" t="s">
+      <c r="CI4" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="CJ4" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="CK4" s="15" t="s">
+      <c r="CJ4" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="CK4" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="CL4" s="15" t="s">
+      <c r="CL4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="CM4" s="15" t="s">
+      <c r="CM4" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="CN4" s="25" t="s">
+      <c r="CN4" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="CO4" s="25"/>
-      <c r="CP4" s="25"/>
+      <c r="CO4" s="21"/>
+      <c r="CP4" s="21"/>
       <c r="CQ4" s="1"/>
       <c r="CR4" s="1"/>
       <c r="CS4" s="1"/>
@@ -3488,16 +3570,16 @@
     </row>
     <row r="5" spans="1:100">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>152</v>
@@ -3509,13 +3591,13 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -3525,7 +3607,9 @@
       <c r="T5" s="1"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="W5" s="5" t="s">
+        <v>598</v>
+      </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
@@ -3543,93 +3627,101 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="13"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
-      <c r="BK5" s="12"/>
-      <c r="BL5" s="12"/>
-      <c r="BM5" s="12"/>
-      <c r="BN5" s="12"/>
-      <c r="BO5" s="12"/>
-      <c r="BP5" s="12"/>
-      <c r="BQ5" s="12"/>
-      <c r="BR5" s="12"/>
-      <c r="BS5" s="12"/>
-      <c r="BT5" s="12"/>
-      <c r="BU5" s="12"/>
-      <c r="BV5" s="12"/>
-      <c r="BW5" s="12"/>
-      <c r="BX5" s="12"/>
-      <c r="BY5" s="12"/>
-      <c r="BZ5" s="12"/>
-      <c r="CA5" s="12"/>
-      <c r="CB5" s="12"/>
-      <c r="CC5" s="12"/>
-      <c r="CD5" s="12"/>
-      <c r="CE5" s="12"/>
-      <c r="CF5" s="12"/>
-      <c r="CG5" s="12"/>
-      <c r="CH5" s="15" t="s">
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="10"/>
+      <c r="BN5" s="10"/>
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="10"/>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="10"/>
+      <c r="BS5" s="10"/>
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="10"/>
+      <c r="BV5" s="10"/>
+      <c r="BW5" s="10"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="10"/>
+      <c r="BZ5" s="10"/>
+      <c r="CA5" s="10"/>
+      <c r="CB5" s="10"/>
+      <c r="CC5" s="10"/>
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="10"/>
+      <c r="CG5" s="10"/>
+      <c r="CH5" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="CI5" s="15" t="s">
+      <c r="CI5" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="CJ5" s="15" t="s">
+      <c r="CJ5" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="CK5" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="CL5" s="15" t="s">
+      <c r="CK5" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="CL5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="CM5" s="15" t="s">
+      <c r="CM5" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="CN5" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="CO5" s="15"/>
-      <c r="CP5" s="15"/>
+      <c r="CN5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="CO5" s="12"/>
+      <c r="CP5" s="12"/>
       <c r="CQ5" s="1"/>
-      <c r="CR5" s="1"/>
-      <c r="CS5" s="1"/>
-      <c r="CT5" s="1"/>
-      <c r="CU5" s="1"/>
+      <c r="CR5" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="CS5" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="CT5" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="CU5" s="1" t="s">
+        <v>599</v>
+      </c>
       <c r="CV5" s="1"/>
     </row>
     <row r="6" spans="1:100">
       <c r="A6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>152</v>
@@ -3641,13 +3733,15 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9">
+        <v>2045202610</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -3675,64 +3769,64 @@
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="13"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="12"/>
-      <c r="BI6" s="12"/>
-      <c r="BJ6" s="12"/>
-      <c r="BK6" s="12"/>
-      <c r="BL6" s="12"/>
-      <c r="BM6" s="12"/>
-      <c r="BN6" s="12"/>
-      <c r="BO6" s="12"/>
-      <c r="BP6" s="12"/>
-      <c r="BQ6" s="12"/>
-      <c r="BR6" s="12"/>
-      <c r="BS6" s="12"/>
-      <c r="BT6" s="12"/>
-      <c r="BU6" s="12"/>
-      <c r="BV6" s="12"/>
-      <c r="BW6" s="12"/>
-      <c r="BX6" s="12"/>
-      <c r="BY6" s="12"/>
-      <c r="BZ6" s="12"/>
-      <c r="CA6" s="12"/>
-      <c r="CB6" s="12"/>
-      <c r="CC6" s="12"/>
-      <c r="CD6" s="12"/>
-      <c r="CE6" s="12"/>
-      <c r="CF6" s="12"/>
-      <c r="CG6" s="12"/>
-      <c r="CH6" s="15" t="s">
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="10"/>
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="10"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="10"/>
+      <c r="CA6" s="10"/>
+      <c r="CB6" s="10"/>
+      <c r="CC6" s="10"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="10"/>
+      <c r="CG6" s="10"/>
+      <c r="CH6" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="CI6" s="15"/>
-      <c r="CJ6" s="15" t="s">
+      <c r="CI6" s="12"/>
+      <c r="CJ6" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="CK6" s="15"/>
-      <c r="CL6" s="15"/>
-      <c r="CM6" s="15"/>
-      <c r="CN6" s="15"/>
-      <c r="CO6" s="15"/>
-      <c r="CP6" s="15"/>
+      <c r="CK6" s="12"/>
+      <c r="CL6" s="12"/>
+      <c r="CM6" s="12"/>
+      <c r="CN6" s="12"/>
+      <c r="CO6" s="12"/>
+      <c r="CP6" s="12"/>
       <c r="CQ6" s="1"/>
       <c r="CR6" s="1"/>
       <c r="CS6" s="1"/>
@@ -3742,16 +3836,16 @@
     </row>
     <row r="7" spans="1:100">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>152</v>
@@ -3763,17 +3857,19 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>321</v>
+      <c r="J7" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -3781,7 +3877,9 @@
       <c r="T7" s="1"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="W7" s="5" t="s">
+        <v>598</v>
+      </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
@@ -3799,66 +3897,66 @@
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="1"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="13"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
-      <c r="BH7" s="12"/>
-      <c r="BI7" s="12"/>
-      <c r="BJ7" s="12"/>
-      <c r="BK7" s="12"/>
-      <c r="BL7" s="12"/>
-      <c r="BM7" s="12"/>
-      <c r="BN7" s="12"/>
-      <c r="BO7" s="12"/>
-      <c r="BP7" s="12"/>
-      <c r="BQ7" s="12"/>
-      <c r="BR7" s="12"/>
-      <c r="BS7" s="12"/>
-      <c r="BT7" s="12"/>
-      <c r="BU7" s="12"/>
-      <c r="BV7" s="12"/>
-      <c r="BW7" s="12"/>
-      <c r="BX7" s="12"/>
-      <c r="BY7" s="12"/>
-      <c r="BZ7" s="12"/>
-      <c r="CA7" s="12"/>
-      <c r="CB7" s="12"/>
-      <c r="CC7" s="12"/>
-      <c r="CD7" s="12"/>
-      <c r="CE7" s="12"/>
-      <c r="CF7" s="12"/>
-      <c r="CG7" s="12"/>
-      <c r="CH7" s="15" t="s">
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="11"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="10"/>
+      <c r="BH7" s="10"/>
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="10"/>
+      <c r="BK7" s="10"/>
+      <c r="BL7" s="10"/>
+      <c r="BM7" s="10"/>
+      <c r="BN7" s="10"/>
+      <c r="BO7" s="10"/>
+      <c r="BP7" s="10"/>
+      <c r="BQ7" s="10"/>
+      <c r="BR7" s="10"/>
+      <c r="BS7" s="10"/>
+      <c r="BT7" s="10"/>
+      <c r="BU7" s="10"/>
+      <c r="BV7" s="10"/>
+      <c r="BW7" s="10"/>
+      <c r="BX7" s="10"/>
+      <c r="BY7" s="10"/>
+      <c r="BZ7" s="10"/>
+      <c r="CA7" s="10"/>
+      <c r="CB7" s="10"/>
+      <c r="CC7" s="10"/>
+      <c r="CD7" s="10"/>
+      <c r="CE7" s="10"/>
+      <c r="CF7" s="10"/>
+      <c r="CG7" s="10"/>
+      <c r="CH7" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="CI7" s="15"/>
-      <c r="CJ7" s="15" t="s">
+      <c r="CI7" s="12"/>
+      <c r="CJ7" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="CK7" s="15"/>
-      <c r="CL7" s="15"/>
-      <c r="CM7" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="CN7" s="15"/>
-      <c r="CO7" s="15"/>
-      <c r="CP7" s="15"/>
+      <c r="CK7" s="12"/>
+      <c r="CL7" s="12"/>
+      <c r="CM7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="CN7" s="12"/>
+      <c r="CO7" s="12"/>
+      <c r="CP7" s="12"/>
       <c r="CQ7" s="1"/>
       <c r="CR7" s="1"/>
       <c r="CS7" s="1"/>
@@ -3868,16 +3966,16 @@
     </row>
     <row r="8" spans="1:100">
       <c r="A8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>152</v>
@@ -3889,13 +3987,13 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -3923,66 +4021,66 @@
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
       <c r="AN8" s="1"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="13"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="12"/>
-      <c r="BH8" s="12"/>
-      <c r="BI8" s="12"/>
-      <c r="BJ8" s="12"/>
-      <c r="BK8" s="12"/>
-      <c r="BL8" s="12"/>
-      <c r="BM8" s="12"/>
-      <c r="BN8" s="12"/>
-      <c r="BO8" s="12"/>
-      <c r="BP8" s="12"/>
-      <c r="BQ8" s="12"/>
-      <c r="BR8" s="12"/>
-      <c r="BS8" s="12"/>
-      <c r="BT8" s="12"/>
-      <c r="BU8" s="12"/>
-      <c r="BV8" s="12"/>
-      <c r="BW8" s="12"/>
-      <c r="BX8" s="12"/>
-      <c r="BY8" s="12"/>
-      <c r="BZ8" s="12"/>
-      <c r="CA8" s="12"/>
-      <c r="CB8" s="12"/>
-      <c r="CC8" s="12"/>
-      <c r="CD8" s="12"/>
-      <c r="CE8" s="12"/>
-      <c r="CF8" s="12"/>
-      <c r="CG8" s="12"/>
-      <c r="CH8" s="15" t="s">
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="11"/>
+      <c r="BF8" s="10"/>
+      <c r="BG8" s="10"/>
+      <c r="BH8" s="10"/>
+      <c r="BI8" s="10"/>
+      <c r="BJ8" s="10"/>
+      <c r="BK8" s="10"/>
+      <c r="BL8" s="10"/>
+      <c r="BM8" s="10"/>
+      <c r="BN8" s="10"/>
+      <c r="BO8" s="10"/>
+      <c r="BP8" s="10"/>
+      <c r="BQ8" s="10"/>
+      <c r="BR8" s="10"/>
+      <c r="BS8" s="10"/>
+      <c r="BT8" s="10"/>
+      <c r="BU8" s="10"/>
+      <c r="BV8" s="10"/>
+      <c r="BW8" s="10"/>
+      <c r="BX8" s="10"/>
+      <c r="BY8" s="10"/>
+      <c r="BZ8" s="10"/>
+      <c r="CA8" s="10"/>
+      <c r="CB8" s="10"/>
+      <c r="CC8" s="10"/>
+      <c r="CD8" s="10"/>
+      <c r="CE8" s="10"/>
+      <c r="CF8" s="10"/>
+      <c r="CG8" s="10"/>
+      <c r="CH8" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="CI8" s="15"/>
-      <c r="CJ8" s="15" t="s">
+      <c r="CI8" s="12"/>
+      <c r="CJ8" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="CK8" s="15"/>
-      <c r="CL8" s="15"/>
-      <c r="CM8" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="CN8" s="15"/>
-      <c r="CO8" s="15"/>
-      <c r="CP8" s="15"/>
+      <c r="CK8" s="12"/>
+      <c r="CL8" s="12"/>
+      <c r="CM8" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="CN8" s="12"/>
+      <c r="CO8" s="12"/>
+      <c r="CP8" s="12"/>
       <c r="CQ8" s="1"/>
       <c r="CR8" s="1"/>
       <c r="CS8" s="1"/>
@@ -3992,26 +4090,26 @@
     </row>
     <row r="9" spans="1:100">
       <c r="A9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>169</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J9" s="1"/>
@@ -4090,29 +4188,29 @@
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
-      <c r="CH9" s="15" t="s">
+      <c r="CH9" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="CI9" s="13" t="s">
+      <c r="CI9" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="CJ9" s="13" t="s">
+      <c r="CJ9" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="CK9" s="13" t="s">
+      <c r="CK9" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="CL9" s="13" t="s">
+      <c r="CL9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="CM9" s="13" t="s">
+      <c r="CM9" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="CN9" s="13" t="s">
+      <c r="CN9" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="CO9" s="13"/>
-      <c r="CP9" s="13"/>
+      <c r="CO9" s="11"/>
+      <c r="CP9" s="11"/>
       <c r="CQ9" s="1"/>
       <c r="CR9" s="1"/>
       <c r="CS9" s="1"/>
@@ -4122,656 +4220,656 @@
     </row>
     <row r="10" spans="1:100">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E10" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17" t="s">
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="P10" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="19"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="17"/>
-      <c r="BI10" s="17"/>
-      <c r="BJ10" s="17"/>
-      <c r="BK10" s="17"/>
-      <c r="BL10" s="17"/>
-      <c r="BM10" s="17"/>
-      <c r="BN10" s="17"/>
-      <c r="BO10" s="17"/>
-      <c r="BP10" s="17"/>
-      <c r="BQ10" s="17"/>
-      <c r="BR10" s="17"/>
-      <c r="BS10" s="17"/>
-      <c r="BT10" s="17"/>
-      <c r="BU10" s="17"/>
-      <c r="BV10" s="17"/>
-      <c r="BW10" s="17"/>
-      <c r="BX10" s="17"/>
-      <c r="BY10" s="17"/>
-      <c r="BZ10" s="17"/>
-      <c r="CA10" s="17"/>
-      <c r="CB10" s="17"/>
-      <c r="CC10" s="17"/>
-      <c r="CD10" s="17"/>
-      <c r="CE10" s="17"/>
-      <c r="CF10" s="17"/>
-      <c r="CG10" s="17"/>
-      <c r="CH10" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="CI10" s="19"/>
-      <c r="CJ10" s="19"/>
-      <c r="CK10" s="19"/>
-      <c r="CL10" s="19"/>
-      <c r="CM10" s="19"/>
-      <c r="CN10" s="19"/>
-      <c r="CO10" s="19"/>
-      <c r="CP10" s="19" t="s">
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="13"/>
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="13"/>
+      <c r="BK10" s="13"/>
+      <c r="BL10" s="13"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="13"/>
+      <c r="BO10" s="13"/>
+      <c r="BP10" s="13"/>
+      <c r="BQ10" s="13"/>
+      <c r="BR10" s="13"/>
+      <c r="BS10" s="13"/>
+      <c r="BT10" s="13"/>
+      <c r="BU10" s="13"/>
+      <c r="BV10" s="13"/>
+      <c r="BW10" s="13"/>
+      <c r="BX10" s="13"/>
+      <c r="BY10" s="13"/>
+      <c r="BZ10" s="13"/>
+      <c r="CA10" s="13"/>
+      <c r="CB10" s="13"/>
+      <c r="CC10" s="13"/>
+      <c r="CD10" s="13"/>
+      <c r="CE10" s="13"/>
+      <c r="CF10" s="13"/>
+      <c r="CG10" s="13"/>
+      <c r="CH10" s="15" t="s">
         <v>208</v>
+      </c>
+      <c r="CI10" s="15"/>
+      <c r="CJ10" s="15"/>
+      <c r="CK10" s="15"/>
+      <c r="CL10" s="15"/>
+      <c r="CM10" s="15"/>
+      <c r="CN10" s="15"/>
+      <c r="CO10" s="15"/>
+      <c r="CP10" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="CQ10" s="1"/>
       <c r="CR10" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="CS10" s="1"/>
+      <c r="CT10" s="34" t="s">
         <v>494</v>
-      </c>
-      <c r="CS10" s="1"/>
-      <c r="CT10" s="48" t="s">
-        <v>495</v>
       </c>
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
     </row>
     <row r="11" spans="1:100">
       <c r="A11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="49" t="s">
-        <v>502</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="19"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="17"/>
-      <c r="BH11" s="17"/>
-      <c r="BI11" s="17"/>
-      <c r="BJ11" s="17"/>
-      <c r="BK11" s="17"/>
-      <c r="BL11" s="17"/>
-      <c r="BM11" s="17"/>
-      <c r="BN11" s="17"/>
-      <c r="BO11" s="17"/>
-      <c r="BP11" s="17"/>
-      <c r="BQ11" s="17"/>
-      <c r="BR11" s="17"/>
-      <c r="BS11" s="17"/>
-      <c r="BT11" s="17"/>
-      <c r="BU11" s="17"/>
-      <c r="BV11" s="17"/>
-      <c r="BW11" s="17"/>
-      <c r="BX11" s="17"/>
-      <c r="BY11" s="17"/>
-      <c r="BZ11" s="17"/>
-      <c r="CA11" s="17"/>
-      <c r="CB11" s="17"/>
-      <c r="CC11" s="17"/>
-      <c r="CD11" s="17"/>
-      <c r="CE11" s="17"/>
-      <c r="CF11" s="17"/>
-      <c r="CG11" s="17"/>
-      <c r="CH11" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="CI11" s="19"/>
-      <c r="CJ11" s="19"/>
-      <c r="CK11" s="19"/>
-      <c r="CL11" s="19"/>
-      <c r="CM11" s="19"/>
-      <c r="CN11" s="19"/>
-      <c r="CO11" s="19"/>
-      <c r="CP11" s="19" t="s">
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="15"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="13"/>
+      <c r="BK11" s="13"/>
+      <c r="BL11" s="13"/>
+      <c r="BM11" s="13"/>
+      <c r="BN11" s="13"/>
+      <c r="BO11" s="13"/>
+      <c r="BP11" s="13"/>
+      <c r="BQ11" s="13"/>
+      <c r="BR11" s="13"/>
+      <c r="BS11" s="13"/>
+      <c r="BT11" s="13"/>
+      <c r="BU11" s="13"/>
+      <c r="BV11" s="13"/>
+      <c r="BW11" s="13"/>
+      <c r="BX11" s="13"/>
+      <c r="BY11" s="13"/>
+      <c r="BZ11" s="13"/>
+      <c r="CA11" s="13"/>
+      <c r="CB11" s="13"/>
+      <c r="CC11" s="13"/>
+      <c r="CD11" s="13"/>
+      <c r="CE11" s="13"/>
+      <c r="CF11" s="13"/>
+      <c r="CG11" s="13"/>
+      <c r="CH11" s="15" t="s">
         <v>208</v>
+      </c>
+      <c r="CI11" s="15"/>
+      <c r="CJ11" s="15"/>
+      <c r="CK11" s="15"/>
+      <c r="CL11" s="15"/>
+      <c r="CM11" s="15"/>
+      <c r="CN11" s="15"/>
+      <c r="CO11" s="15"/>
+      <c r="CP11" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="CQ11" s="1"/>
       <c r="CR11" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="34" t="s">
         <v>494</v>
-      </c>
-      <c r="CS11" s="1"/>
-      <c r="CT11" s="48" t="s">
-        <v>495</v>
       </c>
       <c r="CU11" s="1"/>
       <c r="CV11" s="1"/>
     </row>
     <row r="12" spans="1:100">
       <c r="A12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K12" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="49" t="s">
-        <v>502</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="19"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
-      <c r="BN12" s="17"/>
-      <c r="BO12" s="17"/>
-      <c r="BP12" s="17"/>
-      <c r="BQ12" s="17"/>
-      <c r="BR12" s="17"/>
-      <c r="BS12" s="17"/>
-      <c r="BT12" s="17"/>
-      <c r="BU12" s="17"/>
-      <c r="BV12" s="17"/>
-      <c r="BW12" s="17"/>
-      <c r="BX12" s="17"/>
-      <c r="BY12" s="17"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="17"/>
-      <c r="CB12" s="17"/>
-      <c r="CC12" s="17"/>
-      <c r="CD12" s="17"/>
-      <c r="CE12" s="17"/>
-      <c r="CF12" s="17"/>
-      <c r="CG12" s="17"/>
-      <c r="CH12" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="CI12" s="19"/>
-      <c r="CJ12" s="19"/>
-      <c r="CK12" s="19"/>
-      <c r="CL12" s="19"/>
-      <c r="CM12" s="19"/>
-      <c r="CN12" s="19"/>
-      <c r="CO12" s="19"/>
-      <c r="CP12" s="19" t="s">
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="13"/>
+      <c r="BK12" s="13"/>
+      <c r="BL12" s="13"/>
+      <c r="BM12" s="13"/>
+      <c r="BN12" s="13"/>
+      <c r="BO12" s="13"/>
+      <c r="BP12" s="13"/>
+      <c r="BQ12" s="13"/>
+      <c r="BR12" s="13"/>
+      <c r="BS12" s="13"/>
+      <c r="BT12" s="13"/>
+      <c r="BU12" s="13"/>
+      <c r="BV12" s="13"/>
+      <c r="BW12" s="13"/>
+      <c r="BX12" s="13"/>
+      <c r="BY12" s="13"/>
+      <c r="BZ12" s="13"/>
+      <c r="CA12" s="13"/>
+      <c r="CB12" s="13"/>
+      <c r="CC12" s="13"/>
+      <c r="CD12" s="13"/>
+      <c r="CE12" s="13"/>
+      <c r="CF12" s="13"/>
+      <c r="CG12" s="13"/>
+      <c r="CH12" s="15" t="s">
         <v>208</v>
+      </c>
+      <c r="CI12" s="15"/>
+      <c r="CJ12" s="15"/>
+      <c r="CK12" s="15"/>
+      <c r="CL12" s="15"/>
+      <c r="CM12" s="15"/>
+      <c r="CN12" s="15"/>
+      <c r="CO12" s="15"/>
+      <c r="CP12" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="CQ12" s="1"/>
       <c r="CR12" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="34" t="s">
         <v>494</v>
-      </c>
-      <c r="CS12" s="1"/>
-      <c r="CT12" s="48" t="s">
-        <v>495</v>
       </c>
       <c r="CU12" s="1"/>
       <c r="CV12" s="1"/>
     </row>
     <row r="13" spans="1:100">
       <c r="A13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="49" t="s">
-        <v>502</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="19"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
-      <c r="BM13" s="17"/>
-      <c r="BN13" s="17"/>
-      <c r="BO13" s="17"/>
-      <c r="BP13" s="17"/>
-      <c r="BQ13" s="17"/>
-      <c r="BR13" s="17"/>
-      <c r="BS13" s="17"/>
-      <c r="BT13" s="17"/>
-      <c r="BU13" s="17"/>
-      <c r="BV13" s="17"/>
-      <c r="BW13" s="17"/>
-      <c r="BX13" s="17"/>
-      <c r="BY13" s="17"/>
-      <c r="BZ13" s="17"/>
-      <c r="CA13" s="17"/>
-      <c r="CB13" s="17"/>
-      <c r="CC13" s="17"/>
-      <c r="CD13" s="17"/>
-      <c r="CE13" s="17"/>
-      <c r="CF13" s="17"/>
-      <c r="CG13" s="17"/>
-      <c r="CH13" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="CI13" s="19"/>
-      <c r="CJ13" s="19"/>
-      <c r="CK13" s="19"/>
-      <c r="CL13" s="19"/>
-      <c r="CM13" s="19"/>
-      <c r="CN13" s="19"/>
-      <c r="CO13" s="19"/>
-      <c r="CP13" s="19" t="s">
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="13"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="13"/>
+      <c r="BG13" s="13"/>
+      <c r="BH13" s="13"/>
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="13"/>
+      <c r="BK13" s="13"/>
+      <c r="BL13" s="13"/>
+      <c r="BM13" s="13"/>
+      <c r="BN13" s="13"/>
+      <c r="BO13" s="13"/>
+      <c r="BP13" s="13"/>
+      <c r="BQ13" s="13"/>
+      <c r="BR13" s="13"/>
+      <c r="BS13" s="13"/>
+      <c r="BT13" s="13"/>
+      <c r="BU13" s="13"/>
+      <c r="BV13" s="13"/>
+      <c r="BW13" s="13"/>
+      <c r="BX13" s="13"/>
+      <c r="BY13" s="13"/>
+      <c r="BZ13" s="13"/>
+      <c r="CA13" s="13"/>
+      <c r="CB13" s="13"/>
+      <c r="CC13" s="13"/>
+      <c r="CD13" s="13"/>
+      <c r="CE13" s="13"/>
+      <c r="CF13" s="13"/>
+      <c r="CG13" s="13"/>
+      <c r="CH13" s="15" t="s">
         <v>208</v>
+      </c>
+      <c r="CI13" s="15"/>
+      <c r="CJ13" s="15"/>
+      <c r="CK13" s="15"/>
+      <c r="CL13" s="15"/>
+      <c r="CM13" s="15"/>
+      <c r="CN13" s="15"/>
+      <c r="CO13" s="15"/>
+      <c r="CP13" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="CQ13" s="1"/>
       <c r="CR13" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="34" t="s">
         <v>494</v>
-      </c>
-      <c r="CS13" s="1"/>
-      <c r="CT13" s="48" t="s">
-        <v>495</v>
       </c>
       <c r="CU13" s="1"/>
       <c r="CV13" s="1"/>
     </row>
     <row r="14" spans="1:100">
-      <c r="A14" s="20" t="s">
-        <v>204</v>
+      <c r="A14" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="50" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="23"/>
-      <c r="BF14" s="21"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="21"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="21"/>
-      <c r="BL14" s="21"/>
-      <c r="BM14" s="21"/>
-      <c r="BN14" s="21"/>
-      <c r="BO14" s="21"/>
-      <c r="BP14" s="21"/>
-      <c r="BQ14" s="21"/>
-      <c r="BR14" s="21"/>
-      <c r="BS14" s="21"/>
-      <c r="BT14" s="21"/>
-      <c r="BU14" s="21"/>
-      <c r="BV14" s="21"/>
-      <c r="BW14" s="21"/>
-      <c r="BX14" s="21"/>
-      <c r="BY14" s="21"/>
-      <c r="BZ14" s="21"/>
-      <c r="CA14" s="21"/>
-      <c r="CB14" s="21"/>
-      <c r="CC14" s="21"/>
-      <c r="CD14" s="21"/>
-      <c r="CE14" s="21"/>
-      <c r="CF14" s="21"/>
-      <c r="CG14" s="21"/>
-      <c r="CH14" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="CI14" s="23"/>
-      <c r="CJ14" s="23"/>
-      <c r="CK14" s="23"/>
-      <c r="CL14" s="23"/>
-      <c r="CM14" s="23"/>
-      <c r="CN14" s="23"/>
-      <c r="CO14" s="23"/>
-      <c r="CP14" s="23" t="s">
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="17"/>
+      <c r="AT14" s="17"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="17"/>
+      <c r="AY14" s="17"/>
+      <c r="AZ14" s="17"/>
+      <c r="BA14" s="17"/>
+      <c r="BB14" s="17"/>
+      <c r="BC14" s="17"/>
+      <c r="BD14" s="17"/>
+      <c r="BE14" s="19"/>
+      <c r="BF14" s="17"/>
+      <c r="BG14" s="17"/>
+      <c r="BH14" s="17"/>
+      <c r="BI14" s="17"/>
+      <c r="BJ14" s="17"/>
+      <c r="BK14" s="17"/>
+      <c r="BL14" s="17"/>
+      <c r="BM14" s="17"/>
+      <c r="BN14" s="17"/>
+      <c r="BO14" s="17"/>
+      <c r="BP14" s="17"/>
+      <c r="BQ14" s="17"/>
+      <c r="BR14" s="17"/>
+      <c r="BS14" s="17"/>
+      <c r="BT14" s="17"/>
+      <c r="BU14" s="17"/>
+      <c r="BV14" s="17"/>
+      <c r="BW14" s="17"/>
+      <c r="BX14" s="17"/>
+      <c r="BY14" s="17"/>
+      <c r="BZ14" s="17"/>
+      <c r="CA14" s="17"/>
+      <c r="CB14" s="17"/>
+      <c r="CC14" s="17"/>
+      <c r="CD14" s="17"/>
+      <c r="CE14" s="17"/>
+      <c r="CF14" s="17"/>
+      <c r="CG14" s="17"/>
+      <c r="CH14" s="19" t="s">
         <v>208</v>
+      </c>
+      <c r="CI14" s="19"/>
+      <c r="CJ14" s="19"/>
+      <c r="CK14" s="19"/>
+      <c r="CL14" s="19"/>
+      <c r="CM14" s="19"/>
+      <c r="CN14" s="19"/>
+      <c r="CO14" s="19"/>
+      <c r="CP14" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="CQ14" s="1"/>
       <c r="CR14" s="1"/>
@@ -4782,36 +4880,38 @@
     </row>
     <row r="15" spans="1:100">
       <c r="A15" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>152</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="J15" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -4839,74 +4939,74 @@
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="1"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
-      <c r="AV15" s="12"/>
-      <c r="AW15" s="12"/>
-      <c r="AX15" s="12"/>
-      <c r="AY15" s="12"/>
-      <c r="AZ15" s="12"/>
-      <c r="BA15" s="12"/>
-      <c r="BB15" s="12"/>
-      <c r="BC15" s="12"/>
-      <c r="BD15" s="12"/>
-      <c r="BE15" s="13"/>
-      <c r="BF15" s="12"/>
-      <c r="BG15" s="12"/>
-      <c r="BH15" s="12"/>
-      <c r="BI15" s="12"/>
-      <c r="BJ15" s="12"/>
-      <c r="BK15" s="12"/>
-      <c r="BL15" s="12"/>
-      <c r="BM15" s="12"/>
-      <c r="BN15" s="12"/>
-      <c r="BO15" s="12"/>
-      <c r="BP15" s="12"/>
-      <c r="BQ15" s="12"/>
-      <c r="BR15" s="12"/>
-      <c r="BS15" s="12"/>
-      <c r="BT15" s="12"/>
-      <c r="BU15" s="12"/>
-      <c r="BV15" s="12"/>
-      <c r="BW15" s="12"/>
-      <c r="BX15" s="12"/>
-      <c r="BY15" s="12"/>
-      <c r="BZ15" s="12"/>
-      <c r="CA15" s="12"/>
-      <c r="CB15" s="12"/>
-      <c r="CC15" s="12"/>
-      <c r="CD15" s="12"/>
-      <c r="CE15" s="12"/>
-      <c r="CF15" s="12"/>
-      <c r="CG15" s="12"/>
-      <c r="CH15" s="15" t="s">
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="11"/>
+      <c r="BF15" s="10"/>
+      <c r="BG15" s="10"/>
+      <c r="BH15" s="10"/>
+      <c r="BI15" s="10"/>
+      <c r="BJ15" s="10"/>
+      <c r="BK15" s="10"/>
+      <c r="BL15" s="10"/>
+      <c r="BM15" s="10"/>
+      <c r="BN15" s="10"/>
+      <c r="BO15" s="10"/>
+      <c r="BP15" s="10"/>
+      <c r="BQ15" s="10"/>
+      <c r="BR15" s="10"/>
+      <c r="BS15" s="10"/>
+      <c r="BT15" s="10"/>
+      <c r="BU15" s="10"/>
+      <c r="BV15" s="10"/>
+      <c r="BW15" s="10"/>
+      <c r="BX15" s="10"/>
+      <c r="BY15" s="10"/>
+      <c r="BZ15" s="10"/>
+      <c r="CA15" s="10"/>
+      <c r="CB15" s="10"/>
+      <c r="CC15" s="10"/>
+      <c r="CD15" s="10"/>
+      <c r="CE15" s="10"/>
+      <c r="CF15" s="10"/>
+      <c r="CG15" s="10"/>
+      <c r="CH15" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="CI15" s="14" t="s">
+      <c r="CI15" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="CJ15" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="CK15" s="15" t="s">
+      <c r="CJ15" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="CK15" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="CL15" s="15" t="s">
+      <c r="CL15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="CM15" s="15" t="s">
+      <c r="CM15" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="CN15" s="25" t="s">
+      <c r="CN15" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="CO15" s="25"/>
-      <c r="CP15" s="25"/>
+      <c r="CO15" s="21"/>
+      <c r="CP15" s="21"/>
       <c r="CQ15" s="1"/>
       <c r="CR15" s="1"/>
       <c r="CS15" s="1"/>
@@ -4916,32 +5016,32 @@
     </row>
     <row r="16" spans="1:100">
       <c r="A16" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J16" s="11"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -4969,66 +5069,66 @@
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="1"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="12"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="12"/>
-      <c r="BC16" s="12"/>
-      <c r="BD16" s="12"/>
-      <c r="BE16" s="13"/>
-      <c r="BF16" s="12"/>
-      <c r="BG16" s="12"/>
-      <c r="BH16" s="12"/>
-      <c r="BI16" s="12"/>
-      <c r="BJ16" s="12"/>
-      <c r="BK16" s="12"/>
-      <c r="BL16" s="12"/>
-      <c r="BM16" s="12"/>
-      <c r="BN16" s="12"/>
-      <c r="BO16" s="12"/>
-      <c r="BP16" s="12"/>
-      <c r="BQ16" s="12"/>
-      <c r="BR16" s="12"/>
-      <c r="BS16" s="12"/>
-      <c r="BT16" s="12"/>
-      <c r="BU16" s="12"/>
-      <c r="BV16" s="12"/>
-      <c r="BW16" s="12"/>
-      <c r="BX16" s="12"/>
-      <c r="BY16" s="12"/>
-      <c r="BZ16" s="12"/>
-      <c r="CA16" s="12"/>
-      <c r="CB16" s="12"/>
-      <c r="CC16" s="12"/>
-      <c r="CD16" s="12"/>
-      <c r="CE16" s="12"/>
-      <c r="CF16" s="12"/>
-      <c r="CG16" s="12"/>
-      <c r="CH16" s="15">
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="10"/>
+      <c r="BG16" s="10"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="10"/>
+      <c r="BM16" s="10"/>
+      <c r="BN16" s="10"/>
+      <c r="BO16" s="10"/>
+      <c r="BP16" s="10"/>
+      <c r="BQ16" s="10"/>
+      <c r="BR16" s="10"/>
+      <c r="BS16" s="10"/>
+      <c r="BT16" s="10"/>
+      <c r="BU16" s="10"/>
+      <c r="BV16" s="10"/>
+      <c r="BW16" s="10"/>
+      <c r="BX16" s="10"/>
+      <c r="BY16" s="10"/>
+      <c r="BZ16" s="10"/>
+      <c r="CA16" s="10"/>
+      <c r="CB16" s="10"/>
+      <c r="CC16" s="10"/>
+      <c r="CD16" s="10"/>
+      <c r="CE16" s="10"/>
+      <c r="CF16" s="10"/>
+      <c r="CG16" s="10"/>
+      <c r="CH16" s="12">
         <v>105</v>
       </c>
-      <c r="CI16" s="14"/>
-      <c r="CJ16" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="CK16" s="15"/>
-      <c r="CL16" s="15"/>
-      <c r="CM16" s="15"/>
-      <c r="CN16" s="25"/>
-      <c r="CO16" s="25"/>
-      <c r="CP16" s="25"/>
+      <c r="CI16" s="39"/>
+      <c r="CJ16" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="CK16" s="12"/>
+      <c r="CL16" s="12"/>
+      <c r="CM16" s="12"/>
+      <c r="CN16" s="21"/>
+      <c r="CO16" s="21"/>
+      <c r="CP16" s="21"/>
       <c r="CQ16" s="1"/>
       <c r="CR16" s="1"/>
       <c r="CS16" s="1"/>
@@ -5038,32 +5138,32 @@
     </row>
     <row r="17" spans="1:100">
       <c r="A17" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J17" s="11"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -5093,64 +5193,64 @@
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
       <c r="AN17" s="1"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="12"/>
-      <c r="AX17" s="12"/>
-      <c r="AY17" s="12"/>
-      <c r="AZ17" s="12"/>
-      <c r="BA17" s="12"/>
-      <c r="BB17" s="12"/>
-      <c r="BC17" s="12"/>
-      <c r="BD17" s="12"/>
-      <c r="BE17" s="13"/>
-      <c r="BF17" s="12"/>
-      <c r="BG17" s="12"/>
-      <c r="BH17" s="12"/>
-      <c r="BI17" s="12"/>
-      <c r="BJ17" s="12"/>
-      <c r="BK17" s="12"/>
-      <c r="BL17" s="12"/>
-      <c r="BM17" s="12"/>
-      <c r="BN17" s="12"/>
-      <c r="BO17" s="12"/>
-      <c r="BP17" s="12"/>
-      <c r="BQ17" s="12"/>
-      <c r="BR17" s="12"/>
-      <c r="BS17" s="12"/>
-      <c r="BT17" s="12"/>
-      <c r="BU17" s="12"/>
-      <c r="BV17" s="12"/>
-      <c r="BW17" s="12"/>
-      <c r="BX17" s="12"/>
-      <c r="BY17" s="12"/>
-      <c r="BZ17" s="12"/>
-      <c r="CA17" s="12"/>
-      <c r="CB17" s="12"/>
-      <c r="CC17" s="12"/>
-      <c r="CD17" s="12"/>
-      <c r="CE17" s="12"/>
-      <c r="CF17" s="12"/>
-      <c r="CG17" s="12"/>
-      <c r="CH17" s="15">
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="11"/>
+      <c r="BF17" s="10"/>
+      <c r="BG17" s="10"/>
+      <c r="BH17" s="10"/>
+      <c r="BI17" s="10"/>
+      <c r="BJ17" s="10"/>
+      <c r="BK17" s="10"/>
+      <c r="BL17" s="10"/>
+      <c r="BM17" s="10"/>
+      <c r="BN17" s="10"/>
+      <c r="BO17" s="10"/>
+      <c r="BP17" s="10"/>
+      <c r="BQ17" s="10"/>
+      <c r="BR17" s="10"/>
+      <c r="BS17" s="10"/>
+      <c r="BT17" s="10"/>
+      <c r="BU17" s="10"/>
+      <c r="BV17" s="10"/>
+      <c r="BW17" s="10"/>
+      <c r="BX17" s="10"/>
+      <c r="BY17" s="10"/>
+      <c r="BZ17" s="10"/>
+      <c r="CA17" s="10"/>
+      <c r="CB17" s="10"/>
+      <c r="CC17" s="10"/>
+      <c r="CD17" s="10"/>
+      <c r="CE17" s="10"/>
+      <c r="CF17" s="10"/>
+      <c r="CG17" s="10"/>
+      <c r="CH17" s="12">
         <v>92</v>
       </c>
-      <c r="CI17" s="14"/>
-      <c r="CJ17" s="16"/>
-      <c r="CK17" s="15"/>
-      <c r="CL17" s="15"/>
-      <c r="CM17" s="15"/>
-      <c r="CN17" s="25"/>
-      <c r="CO17" s="25"/>
-      <c r="CP17" s="25"/>
+      <c r="CI17" s="39"/>
+      <c r="CJ17" s="40"/>
+      <c r="CK17" s="12"/>
+      <c r="CL17" s="12"/>
+      <c r="CM17" s="12"/>
+      <c r="CN17" s="21"/>
+      <c r="CO17" s="21"/>
+      <c r="CP17" s="21"/>
       <c r="CQ17" s="1"/>
       <c r="CR17" s="1"/>
       <c r="CS17" s="1"/>
@@ -5160,38 +5260,38 @@
     </row>
     <row r="18" spans="1:100">
       <c r="A18" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J18" s="26"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -5217,68 +5317,68 @@
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
       <c r="AN18" s="1"/>
-      <c r="AO18" s="27"/>
-      <c r="AP18" s="27"/>
-      <c r="AQ18" s="27"/>
-      <c r="AR18" s="27"/>
-      <c r="AS18" s="27"/>
-      <c r="AT18" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU18" s="27"/>
-      <c r="AV18" s="27" t="s">
+      <c r="AO18" s="23"/>
+      <c r="AP18" s="23"/>
+      <c r="AQ18" s="23"/>
+      <c r="AR18" s="23"/>
+      <c r="AS18" s="23"/>
+      <c r="AT18" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="AW18" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AX18" s="27"/>
-      <c r="AY18" s="27"/>
-      <c r="AZ18" s="27"/>
-      <c r="BA18" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="BB18" s="27"/>
-      <c r="BC18" s="27"/>
-      <c r="BD18" s="27"/>
-      <c r="BE18" s="28"/>
-      <c r="BF18" s="27"/>
-      <c r="BG18" s="27"/>
-      <c r="BH18" s="27"/>
-      <c r="BI18" s="27"/>
-      <c r="BJ18" s="27"/>
-      <c r="BK18" s="27"/>
-      <c r="BL18" s="27"/>
-      <c r="BM18" s="27"/>
-      <c r="BN18" s="27"/>
-      <c r="BO18" s="27"/>
-      <c r="BP18" s="27"/>
-      <c r="BQ18" s="27"/>
-      <c r="BR18" s="27"/>
-      <c r="BS18" s="27"/>
-      <c r="BT18" s="27"/>
-      <c r="BU18" s="27"/>
-      <c r="BV18" s="27"/>
-      <c r="BW18" s="27"/>
-      <c r="BX18" s="27"/>
-      <c r="BY18" s="27"/>
-      <c r="BZ18" s="27"/>
-      <c r="CA18" s="27"/>
-      <c r="CB18" s="27"/>
-      <c r="CC18" s="27"/>
-      <c r="CD18" s="27"/>
-      <c r="CE18" s="27"/>
-      <c r="CF18" s="27"/>
-      <c r="CG18" s="27"/>
-      <c r="CH18" s="28"/>
-      <c r="CI18" s="29"/>
-      <c r="CJ18" s="30"/>
-      <c r="CK18" s="28"/>
-      <c r="CL18" s="28"/>
-      <c r="CM18" s="28"/>
-      <c r="CN18" s="25"/>
-      <c r="CO18" s="25"/>
-      <c r="CP18" s="25"/>
+      <c r="BB18" s="23"/>
+      <c r="BC18" s="23"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="24"/>
+      <c r="BF18" s="23"/>
+      <c r="BG18" s="23"/>
+      <c r="BH18" s="23"/>
+      <c r="BI18" s="23"/>
+      <c r="BJ18" s="23"/>
+      <c r="BK18" s="23"/>
+      <c r="BL18" s="23"/>
+      <c r="BM18" s="23"/>
+      <c r="BN18" s="23"/>
+      <c r="BO18" s="23"/>
+      <c r="BP18" s="23"/>
+      <c r="BQ18" s="23"/>
+      <c r="BR18" s="23"/>
+      <c r="BS18" s="23"/>
+      <c r="BT18" s="23"/>
+      <c r="BU18" s="23"/>
+      <c r="BV18" s="23"/>
+      <c r="BW18" s="23"/>
+      <c r="BX18" s="23"/>
+      <c r="BY18" s="23"/>
+      <c r="BZ18" s="23"/>
+      <c r="CA18" s="23"/>
+      <c r="CB18" s="23"/>
+      <c r="CC18" s="23"/>
+      <c r="CD18" s="23"/>
+      <c r="CE18" s="23"/>
+      <c r="CF18" s="23"/>
+      <c r="CG18" s="23"/>
+      <c r="CH18" s="24"/>
+      <c r="CI18" s="41"/>
+      <c r="CJ18" s="42"/>
+      <c r="CK18" s="24"/>
+      <c r="CL18" s="24"/>
+      <c r="CM18" s="24"/>
+      <c r="CN18" s="21"/>
+      <c r="CO18" s="21"/>
+      <c r="CP18" s="21"/>
       <c r="CQ18" s="1"/>
       <c r="CR18" s="1"/>
       <c r="CS18" s="1"/>
@@ -5288,30 +5388,30 @@
     </row>
     <row r="19" spans="1:100">
       <c r="A19" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J19" s="1"/>
@@ -5321,7 +5421,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -5353,16 +5453,16 @@
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
       <c r="AT19" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU19" s="1"/>
-      <c r="AV19" s="31"/>
+      <c r="AV19" s="25"/>
       <c r="AW19" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AX19" s="1"/>
       <c r="AY19" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
@@ -5406,9 +5506,9 @@
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
       <c r="CO19" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP19" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="CP19" s="21"/>
       <c r="CQ19" s="1"/>
       <c r="CR19" s="1"/>
       <c r="CS19" s="1"/>
@@ -5418,30 +5518,30 @@
     </row>
     <row r="20" spans="1:100">
       <c r="A20" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J20" s="1"/>
@@ -5481,14 +5581,14 @@
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU20" s="1"/>
-      <c r="AV20" s="31"/>
+      <c r="AV20" s="25"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
@@ -5532,9 +5632,9 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
       <c r="CO20" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP20" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="CP20" s="21"/>
       <c r="CQ20" s="1"/>
       <c r="CR20" s="1"/>
       <c r="CS20" s="1"/>
@@ -5544,30 +5644,30 @@
     </row>
     <row r="21" spans="1:100">
       <c r="A21" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I21" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="I21" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J21" s="1"/>
@@ -5606,21 +5706,21 @@
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AU21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AV21" s="31"/>
+      <c r="AV21" s="25"/>
       <c r="AW21" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
@@ -5664,9 +5764,9 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP21" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="CP21" s="21"/>
       <c r="CQ21" s="1"/>
       <c r="CR21" s="1"/>
       <c r="CS21" s="1"/>
@@ -5676,30 +5776,30 @@
     </row>
     <row r="22" spans="1:100">
       <c r="A22" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I22" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="I22" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J22" s="1"/>
@@ -5739,16 +5839,16 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AU22" s="1"/>
-      <c r="AV22" s="31" t="s">
-        <v>255</v>
+      <c r="AV22" s="25" t="s">
+        <v>254</v>
       </c>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
@@ -5792,9 +5892,9 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP22" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="CP22" s="21"/>
       <c r="CQ22" s="1"/>
       <c r="CR22" s="1"/>
       <c r="CS22" s="1"/>
@@ -5804,30 +5904,30 @@
     </row>
     <row r="23" spans="1:100">
       <c r="A23" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I23" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="I23" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J23" s="1"/>
@@ -5837,7 +5937,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -5869,14 +5969,14 @@
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AU23" s="1"/>
-      <c r="AV23" s="31"/>
+      <c r="AV23" s="25"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
@@ -5920,9 +6020,9 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP23" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="CP23" s="21"/>
       <c r="CQ23" s="1"/>
       <c r="CR23" s="1"/>
       <c r="CS23" s="1"/>
@@ -5932,30 +6032,30 @@
     </row>
     <row r="24" spans="1:100">
       <c r="A24" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I24" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="I24" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J24" s="1"/>
@@ -5966,7 +6066,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -5997,14 +6097,14 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AU24" s="1"/>
-      <c r="AV24" s="31"/>
+      <c r="AV24" s="25"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
@@ -6048,9 +6148,9 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP24" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="CP24" s="21"/>
       <c r="CQ24" s="1"/>
       <c r="CR24" s="1"/>
       <c r="CS24" s="1"/>
@@ -6060,30 +6160,30 @@
     </row>
     <row r="25" spans="1:100">
       <c r="A25" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J25" s="1"/>
@@ -6123,14 +6223,14 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU25" s="1"/>
-      <c r="AV25" s="31"/>
+      <c r="AV25" s="25"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
@@ -6174,9 +6274,9 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP25" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="CP25" s="21"/>
       <c r="CQ25" s="1"/>
       <c r="CR25" s="1"/>
       <c r="CS25" s="1"/>
@@ -6186,30 +6286,30 @@
     </row>
     <row r="26" spans="1:100">
       <c r="A26" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J26" s="1"/>
@@ -6249,14 +6349,14 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AU26" s="1"/>
-      <c r="AV26" s="31"/>
+      <c r="AV26" s="25"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
@@ -6300,9 +6400,9 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP26" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="CP26" s="21"/>
       <c r="CQ26" s="1"/>
       <c r="CR26" s="1"/>
       <c r="CS26" s="1"/>
@@ -6312,30 +6412,30 @@
     </row>
     <row r="27" spans="1:100">
       <c r="A27" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I27" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="I27" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="1"/>
@@ -6347,7 +6447,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -6377,14 +6477,14 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AU27" s="1"/>
-      <c r="AV27" s="31"/>
+      <c r="AV27" s="25"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
@@ -6428,9 +6528,9 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP27" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="CP27" s="21"/>
       <c r="CQ27" s="1"/>
       <c r="CR27" s="1"/>
       <c r="CS27" s="1"/>
@@ -6440,30 +6540,30 @@
     </row>
     <row r="28" spans="1:100">
       <c r="A28" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="1"/>
@@ -6476,12 +6576,12 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -6507,14 +6607,14 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU28" s="1"/>
-      <c r="AV28" s="31"/>
+      <c r="AV28" s="25"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
@@ -6558,9 +6658,9 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
       <c r="CO28" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP28" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="CP28" s="21"/>
       <c r="CQ28" s="1"/>
       <c r="CR28" s="1"/>
       <c r="CS28" s="1"/>
@@ -6570,30 +6670,30 @@
     </row>
     <row r="29" spans="1:100">
       <c r="A29" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J29" s="1"/>
@@ -6607,10 +6707,10 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U29" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -6637,14 +6737,14 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AU29" s="1"/>
-      <c r="AV29" s="31"/>
+      <c r="AV29" s="25"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
@@ -6688,9 +6788,9 @@
       <c r="CM29" s="1"/>
       <c r="CN29" s="1"/>
       <c r="CO29" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP29" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="CP29" s="21"/>
       <c r="CQ29" s="1"/>
       <c r="CR29" s="1"/>
       <c r="CS29" s="1"/>
@@ -6700,30 +6800,30 @@
     </row>
     <row r="30" spans="1:100">
       <c r="A30" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I30" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="I30" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J30" s="1"/>
@@ -6763,14 +6863,14 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
@@ -6814,9 +6914,9 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP30" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="CP30" s="21"/>
       <c r="CQ30" s="1"/>
       <c r="CR30" s="1"/>
       <c r="CS30" s="1"/>
@@ -6826,26 +6926,26 @@
     </row>
     <row r="31" spans="1:100">
       <c r="A31" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J31" s="1"/>
@@ -6932,7 +7032,7 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
       <c r="CO31" s="1"/>
-      <c r="CP31" s="25"/>
+      <c r="CP31" s="21"/>
       <c r="CQ31" s="1"/>
       <c r="CR31" s="1"/>
       <c r="CS31" s="1"/>
@@ -6942,30 +7042,30 @@
     </row>
     <row r="32" spans="1:100" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I32" s="50" t="s">
+      <c r="I32" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J32" s="1"/>
@@ -7005,18 +7105,18 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AW32" s="32" t="s">
-        <v>396</v>
+        <v>323</v>
+      </c>
+      <c r="AW32" s="26" t="s">
+        <v>395</v>
       </c>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
@@ -7060,7 +7160,7 @@
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
       <c r="CO32" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP32" s="1"/>
       <c r="CQ32" s="1"/>
@@ -7072,30 +7172,30 @@
     </row>
     <row r="33" spans="1:100" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I33" s="50" t="s">
+      <c r="I33" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J33" s="1"/>
@@ -7135,20 +7235,20 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
       <c r="AT33" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
-      <c r="AW33" s="32" t="s">
-        <v>328</v>
+      <c r="AW33" s="26" t="s">
+        <v>327</v>
       </c>
       <c r="AX33" s="1"/>
       <c r="AY33" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
@@ -7190,7 +7290,7 @@
       <c r="CM33" s="1"/>
       <c r="CN33" s="1"/>
       <c r="CO33" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP33" s="1"/>
       <c r="CQ33" s="1"/>
@@ -7202,30 +7302,30 @@
     </row>
     <row r="34" spans="1:100" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="I34" s="50" t="s">
+      <c r="I34" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J34" s="1"/>
@@ -7265,14 +7365,14 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
-      <c r="AW34" s="32"/>
+      <c r="AW34" s="26"/>
       <c r="AX34" s="1"/>
       <c r="AY34" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
@@ -7316,7 +7416,7 @@
       <c r="CM34" s="1"/>
       <c r="CN34" s="1"/>
       <c r="CO34" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP34" s="1"/>
       <c r="CQ34" s="1"/>
@@ -7328,30 +7428,30 @@
     </row>
     <row r="35" spans="1:100">
       <c r="A35" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="I35" s="50" t="s">
+      <c r="I35" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J35" s="1"/>
@@ -7391,14 +7491,14 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
-      <c r="AW35" s="32"/>
+      <c r="AW35" s="26"/>
       <c r="AX35" s="1"/>
       <c r="AY35" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
@@ -7442,7 +7542,7 @@
       <c r="CM35" s="1"/>
       <c r="CN35" s="1"/>
       <c r="CO35" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP35" s="1"/>
       <c r="CQ35" s="1"/>
@@ -7454,30 +7554,30 @@
     </row>
     <row r="36" spans="1:100">
       <c r="A36" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I36" s="50" t="s">
+      <c r="I36" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J36" s="1"/>
@@ -7517,14 +7617,14 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
-      <c r="AW36" s="32"/>
+      <c r="AW36" s="26"/>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
@@ -7568,7 +7668,7 @@
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
       <c r="CO36" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP36" s="1"/>
       <c r="CQ36" s="1"/>
@@ -7580,30 +7680,30 @@
     </row>
     <row r="37" spans="1:100">
       <c r="A37" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="I37" s="50" t="s">
+      <c r="I37" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J37" s="1"/>
@@ -7643,14 +7743,14 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
-      <c r="AW37" s="32"/>
+      <c r="AW37" s="26"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
@@ -7694,7 +7794,7 @@
       <c r="CM37" s="1"/>
       <c r="CN37" s="1"/>
       <c r="CO37" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP37" s="1"/>
       <c r="CQ37" s="1"/>
@@ -7706,30 +7806,30 @@
     </row>
     <row r="38" spans="1:100">
       <c r="A38" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="I38" s="50" t="s">
+      <c r="I38" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J38" s="1"/>
@@ -7769,14 +7869,14 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
-      <c r="AW38" s="32"/>
+      <c r="AW38" s="26"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
@@ -7820,7 +7920,7 @@
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
       <c r="CO38" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP38" s="1"/>
       <c r="CQ38" s="1"/>
@@ -7832,30 +7932,30 @@
     </row>
     <row r="39" spans="1:100">
       <c r="A39" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I39" s="50" t="s">
+      <c r="I39" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
@@ -7895,14 +7995,14 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
-      <c r="AW39" s="32"/>
+      <c r="AW39" s="26"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
@@ -7946,7 +8046,7 @@
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
       <c r="CO39" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP39" s="1"/>
       <c r="CQ39" s="1"/>
@@ -7958,30 +8058,30 @@
     </row>
     <row r="40" spans="1:100">
       <c r="A40" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="I40" s="50" t="s">
+      <c r="I40" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J40" s="1"/>
@@ -8021,14 +8121,14 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
-      <c r="AW40" s="32"/>
+      <c r="AW40" s="26"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
@@ -8072,7 +8172,7 @@
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
       <c r="CO40" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP40" s="1"/>
       <c r="CQ40" s="1"/>
@@ -8084,30 +8184,30 @@
     </row>
     <row r="41" spans="1:100">
       <c r="A41" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J41" s="1"/>
@@ -8147,14 +8247,14 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
-      <c r="AW41" s="32"/>
+      <c r="AW41" s="26"/>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
@@ -8198,7 +8298,7 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
       <c r="CO41" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP41" s="1"/>
       <c r="CQ41" s="1"/>
@@ -8210,28 +8310,28 @@
     </row>
     <row r="42" spans="1:100">
       <c r="A42" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="50" t="s">
+      <c r="I42" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J42" s="1"/>
@@ -8271,14 +8371,14 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
-      <c r="AW42" s="32"/>
+      <c r="AW42" s="26"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
@@ -8322,7 +8422,7 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
       <c r="CO42" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP42" s="1"/>
       <c r="CQ42" s="1"/>
@@ -8334,28 +8434,28 @@
     </row>
     <row r="43" spans="1:100">
       <c r="A43" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="50" t="s">
+      <c r="I43" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J43" s="1"/>
@@ -8395,14 +8495,14 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
-      <c r="AW43" s="32"/>
+      <c r="AW43" s="26"/>
       <c r="AX43" s="1"/>
       <c r="AY43" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
@@ -8446,7 +8546,7 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
       <c r="CO43" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP43" s="1"/>
       <c r="CQ43" s="1"/>
@@ -8458,28 +8558,28 @@
     </row>
     <row r="44" spans="1:100">
       <c r="A44" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="50" t="s">
+      <c r="I44" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J44" s="1"/>
@@ -8519,14 +8619,14 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
-      <c r="AW44" s="32"/>
+      <c r="AW44" s="26"/>
       <c r="AX44" s="1"/>
       <c r="AY44" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
@@ -8570,7 +8670,7 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP44" s="1"/>
       <c r="CQ44" s="1"/>
@@ -8582,28 +8682,28 @@
     </row>
     <row r="45" spans="1:100">
       <c r="A45" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="50" t="s">
+      <c r="I45" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J45" s="1"/>
@@ -8643,14 +8743,14 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
-      <c r="AW45" s="32"/>
+      <c r="AW45" s="26"/>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
@@ -8694,7 +8794,7 @@
       <c r="CM45" s="1"/>
       <c r="CN45" s="1"/>
       <c r="CO45" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP45" s="1"/>
       <c r="CQ45" s="1"/>
@@ -8706,30 +8806,30 @@
     </row>
     <row r="46" spans="1:100">
       <c r="A46" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="I46" s="50" t="s">
+      <c r="I46" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J46" s="1"/>
@@ -8769,14 +8869,14 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
-      <c r="AW46" s="32"/>
+      <c r="AW46" s="26"/>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
@@ -8820,7 +8920,7 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP46" s="1"/>
       <c r="CQ46" s="1"/>
@@ -8832,30 +8932,30 @@
     </row>
     <row r="47" spans="1:100">
       <c r="A47" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="I47" s="50" t="s">
+      <c r="I47" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J47" s="1"/>
@@ -8895,14 +8995,14 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
-      <c r="AW47" s="32"/>
+      <c r="AW47" s="26"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
@@ -8946,7 +9046,7 @@
       <c r="CM47" s="1"/>
       <c r="CN47" s="1"/>
       <c r="CO47" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP47" s="1"/>
       <c r="CQ47" s="1"/>
@@ -8958,30 +9058,30 @@
     </row>
     <row r="48" spans="1:100">
       <c r="A48" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="I48" s="50" t="s">
+      <c r="I48" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J48" s="1"/>
@@ -9021,14 +9121,14 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
-      <c r="AW48" s="32"/>
+      <c r="AW48" s="26"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
@@ -9072,7 +9172,7 @@
       <c r="CM48" s="1"/>
       <c r="CN48" s="1"/>
       <c r="CO48" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP48" s="1"/>
       <c r="CQ48" s="1"/>
@@ -9084,30 +9184,30 @@
     </row>
     <row r="49" spans="1:100">
       <c r="A49" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I49" s="50" t="s">
+      <c r="I49" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J49" s="1"/>
@@ -9147,14 +9247,14 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
-      <c r="AW49" s="32"/>
+      <c r="AW49" s="26"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
@@ -9198,7 +9298,7 @@
       <c r="CM49" s="1"/>
       <c r="CN49" s="1"/>
       <c r="CO49" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP49" s="1"/>
       <c r="CQ49" s="1"/>
@@ -9210,28 +9310,28 @@
     </row>
     <row r="50" spans="1:100">
       <c r="A50" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="50" t="s">
+      <c r="I50" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J50" s="1"/>
@@ -9271,14 +9371,14 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
-      <c r="AW50" s="32"/>
+      <c r="AW50" s="26"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
@@ -9322,7 +9422,7 @@
       <c r="CM50" s="1"/>
       <c r="CN50" s="1"/>
       <c r="CO50" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP50" s="1"/>
       <c r="CQ50" s="1"/>
@@ -9334,28 +9434,28 @@
     </row>
     <row r="51" spans="1:100">
       <c r="A51" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="50" t="s">
+      <c r="I51" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J51" s="1"/>
@@ -9395,14 +9495,14 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
-      <c r="AW51" s="32"/>
+      <c r="AW51" s="26"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
@@ -9446,7 +9546,7 @@
       <c r="CM51" s="1"/>
       <c r="CN51" s="1"/>
       <c r="CO51" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP51" s="1"/>
       <c r="CQ51" s="1"/>
@@ -9458,30 +9558,30 @@
     </row>
     <row r="52" spans="1:100">
       <c r="A52" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="I52" s="50" t="s">
+      <c r="I52" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J52" s="1"/>
@@ -9521,14 +9621,14 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
-      <c r="AW52" s="32"/>
+      <c r="AW52" s="26"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
@@ -9572,7 +9672,7 @@
       <c r="CM52" s="1"/>
       <c r="CN52" s="1"/>
       <c r="CO52" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP52" s="1"/>
       <c r="CQ52" s="1"/>
@@ -9584,30 +9684,30 @@
     </row>
     <row r="53" spans="1:100">
       <c r="A53" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="I53" s="50" t="s">
+      <c r="I53" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="1"/>
@@ -9647,14 +9747,14 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
-      <c r="AW53" s="32"/>
+      <c r="AW53" s="26"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
@@ -9698,7 +9798,7 @@
       <c r="CM53" s="1"/>
       <c r="CN53" s="1"/>
       <c r="CO53" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP53" s="1"/>
       <c r="CQ53" s="1"/>
@@ -9710,28 +9810,28 @@
     </row>
     <row r="54" spans="1:100">
       <c r="A54" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="50" t="s">
+      <c r="I54" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J54" s="1"/>
@@ -9771,16 +9871,16 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
-      <c r="AW54" s="32"/>
+      <c r="AW54" s="26"/>
       <c r="AX54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AY54" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="AY54" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -9824,7 +9924,7 @@
       <c r="CM54" s="1"/>
       <c r="CN54" s="1"/>
       <c r="CO54" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP54" s="1"/>
       <c r="CQ54" s="1"/>
@@ -9836,28 +9936,28 @@
     </row>
     <row r="55" spans="1:100">
       <c r="A55" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="50" t="s">
+      <c r="I55" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J55" s="1"/>
@@ -9897,16 +9997,16 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
-      <c r="AW55" s="32"/>
+      <c r="AW55" s="26"/>
       <c r="AX55" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AY55" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="AY55" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -9950,7 +10050,7 @@
       <c r="CM55" s="1"/>
       <c r="CN55" s="1"/>
       <c r="CO55" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP55" s="1"/>
       <c r="CQ55" s="1"/>
@@ -9962,30 +10062,30 @@
     </row>
     <row r="56" spans="1:100">
       <c r="A56" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I56" s="50" t="s">
+      <c r="I56" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J56" s="1"/>
@@ -10025,17 +10125,17 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
-      <c r="AW56" s="32"/>
+      <c r="AW56" s="26"/>
       <c r="AX56" s="1"/>
       <c r="AY56" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AZ56" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="AZ56" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
@@ -10078,7 +10178,7 @@
       <c r="CM56" s="1"/>
       <c r="CN56" s="1"/>
       <c r="CO56" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP56" s="1"/>
       <c r="CQ56" s="1"/>
@@ -10090,30 +10190,30 @@
     </row>
     <row r="57" spans="1:100">
       <c r="A57" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I57" s="50" t="s">
+        <v>462</v>
+      </c>
+      <c r="I57" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J57" s="1"/>
@@ -10153,17 +10253,17 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
-      <c r="AW57" s="32"/>
+      <c r="AW57" s="26"/>
       <c r="AX57" s="1"/>
       <c r="AY57" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AZ57" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="AZ57" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
@@ -10206,7 +10306,7 @@
       <c r="CM57" s="1"/>
       <c r="CN57" s="1"/>
       <c r="CO57" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP57" s="1"/>
       <c r="CQ57" s="1"/>
@@ -10218,30 +10318,30 @@
     </row>
     <row r="58" spans="1:100">
       <c r="A58" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I58" s="50" t="s">
+      <c r="I58" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J58" s="1"/>
@@ -10281,16 +10381,16 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
-      <c r="AW58" s="32"/>
+      <c r="AW58" s="26"/>
       <c r="AX58" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AY58" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="AY58" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
@@ -10334,7 +10434,7 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP58" s="1"/>
       <c r="CQ58" s="1"/>
@@ -10346,30 +10446,30 @@
     </row>
     <row r="59" spans="1:100">
       <c r="A59" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I59" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="I59" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J59" s="1"/>
@@ -10409,16 +10509,16 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
-      <c r="AW59" s="32"/>
+      <c r="AW59" s="26"/>
       <c r="AX59" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AY59" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="AY59" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
@@ -10462,7 +10562,7 @@
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
       <c r="CO59" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP59" s="1"/>
       <c r="CQ59" s="1"/>
@@ -10474,30 +10574,30 @@
     </row>
     <row r="60" spans="1:100">
       <c r="A60" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I60" s="50" t="s">
+      <c r="I60" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J60" s="1"/>
@@ -10537,18 +10637,18 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
-      <c r="AW60" s="32"/>
+      <c r="AW60" s="26"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BB60" s="1"/>
       <c r="BC60" s="1"/>
@@ -10590,7 +10690,7 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
       <c r="CO60" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP60" s="1"/>
       <c r="CQ60" s="1"/>
@@ -10602,30 +10702,30 @@
     </row>
     <row r="61" spans="1:100">
       <c r="A61" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="I61" s="50" t="s">
+      <c r="I61" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J61" s="1"/>
@@ -10665,18 +10765,18 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
-      <c r="AW61" s="32"/>
+      <c r="AW61" s="26"/>
       <c r="AX61" s="1"/>
       <c r="AY61" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BB61" s="1"/>
       <c r="BC61" s="1"/>
@@ -10718,7 +10818,7 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP61" s="1"/>
       <c r="CQ61" s="1"/>
@@ -10730,30 +10830,30 @@
     </row>
     <row r="62" spans="1:100">
       <c r="A62" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I62" s="50" t="s">
+      <c r="I62" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J62" s="1"/>
@@ -10793,14 +10893,14 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
-      <c r="AW62" s="32"/>
+      <c r="AW62" s="26"/>
       <c r="AX62" s="1"/>
       <c r="AY62" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1">
@@ -10846,7 +10946,7 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CP62" s="1"/>
       <c r="CQ62" s="1"/>
@@ -10857,157 +10957,157 @@
       <c r="CV62" s="1"/>
     </row>
     <row r="63" spans="1:100">
-      <c r="A63" s="37" t="s">
-        <v>362</v>
+      <c r="A63" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="F63" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="H63" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="H63" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="I63" s="50" t="s">
+      <c r="I63" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="Y63" s="37"/>
-      <c r="Z63" s="37"/>
-      <c r="AA63" s="37"/>
-      <c r="AB63" s="37"/>
-      <c r="AC63" s="37"/>
-      <c r="AD63" s="37"/>
-      <c r="AE63" s="37"/>
-      <c r="AF63" s="37"/>
-      <c r="AG63" s="37"/>
-      <c r="AH63" s="37"/>
-      <c r="AI63" s="37"/>
-      <c r="AJ63" s="37"/>
-      <c r="AK63" s="37"/>
-      <c r="AL63" s="37"/>
-      <c r="AM63" s="37"/>
-      <c r="AN63" s="37"/>
-      <c r="AO63" s="37"/>
-      <c r="AP63" s="37"/>
-      <c r="AQ63" s="37"/>
-      <c r="AR63" s="37"/>
-      <c r="AS63" s="37"/>
-      <c r="AT63" s="37" t="s">
-        <v>394</v>
-      </c>
-      <c r="AU63" s="37"/>
-      <c r="AV63" s="37"/>
-      <c r="AW63" s="38"/>
-      <c r="AX63" s="37"/>
-      <c r="AY63" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="AZ63" s="37"/>
-      <c r="BA63" s="37">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="26"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1">
         <v>28</v>
       </c>
-      <c r="BB63" s="37"/>
-      <c r="BC63" s="37"/>
-      <c r="BD63" s="37"/>
-      <c r="BE63" s="37"/>
-      <c r="BF63" s="37"/>
-      <c r="BG63" s="37"/>
-      <c r="BH63" s="37"/>
-      <c r="BI63" s="37"/>
-      <c r="BJ63" s="37"/>
-      <c r="BK63" s="37"/>
-      <c r="BL63" s="37"/>
-      <c r="BM63" s="37"/>
-      <c r="BN63" s="37"/>
-      <c r="BO63" s="37"/>
-      <c r="BP63" s="37"/>
-      <c r="BQ63" s="37"/>
-      <c r="BR63" s="37"/>
-      <c r="BS63" s="37"/>
-      <c r="BT63" s="37"/>
-      <c r="BU63" s="37"/>
-      <c r="BV63" s="37"/>
-      <c r="BW63" s="37"/>
-      <c r="BX63" s="37"/>
-      <c r="BY63" s="37"/>
-      <c r="BZ63" s="37"/>
-      <c r="CA63" s="37"/>
-      <c r="CB63" s="37"/>
-      <c r="CC63" s="37"/>
-      <c r="CD63" s="37"/>
-      <c r="CE63" s="37"/>
-      <c r="CF63" s="37"/>
-      <c r="CG63" s="37"/>
-      <c r="CH63" s="37"/>
-      <c r="CI63" s="37"/>
-      <c r="CJ63" s="37"/>
-      <c r="CK63" s="37"/>
-      <c r="CL63" s="37"/>
-      <c r="CM63" s="37"/>
-      <c r="CN63" s="37"/>
-      <c r="CO63" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP63" s="37"/>
-      <c r="CQ63" s="37"/>
-      <c r="CR63" s="37"/>
-      <c r="CS63" s="37"/>
-      <c r="CT63" s="37"/>
-      <c r="CU63" s="37"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="1"/>
+      <c r="BQ63" s="1"/>
+      <c r="BR63" s="1"/>
+      <c r="BS63" s="1"/>
+      <c r="BT63" s="1"/>
+      <c r="BU63" s="1"/>
+      <c r="BV63" s="1"/>
+      <c r="BW63" s="1"/>
+      <c r="BX63" s="1"/>
+      <c r="BY63" s="1"/>
+      <c r="BZ63" s="1"/>
+      <c r="CA63" s="1"/>
+      <c r="CB63" s="1"/>
+      <c r="CC63" s="1"/>
+      <c r="CD63" s="1"/>
+      <c r="CE63" s="1"/>
+      <c r="CF63" s="1"/>
+      <c r="CG63" s="1"/>
+      <c r="CH63" s="1"/>
+      <c r="CI63" s="1"/>
+      <c r="CJ63" s="1"/>
+      <c r="CK63" s="1"/>
+      <c r="CL63" s="1"/>
+      <c r="CM63" s="1"/>
+      <c r="CN63" s="1"/>
+      <c r="CO63" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CP63" s="1"/>
+      <c r="CQ63" s="1"/>
+      <c r="CR63" s="1"/>
+      <c r="CS63" s="1"/>
+      <c r="CT63" s="1"/>
+      <c r="CU63" s="1"/>
       <c r="CV63" s="1"/>
     </row>
     <row r="64" spans="1:100">
       <c r="A64" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="50" t="s">
+      <c r="I64" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J64" s="1"/>
@@ -11016,7 +11116,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -11025,8 +11125,8 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
-      <c r="W64" s="34" t="s">
-        <v>490</v>
+      <c r="W64" s="27" t="s">
+        <v>489</v>
       </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
@@ -11051,7 +11151,7 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
       <c r="AT64" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
@@ -11094,7 +11194,7 @@
       <c r="CG64" s="1"/>
       <c r="CH64" s="1"/>
       <c r="CI64" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="CJ64" s="1"/>
       <c r="CK64" s="1"/>
@@ -11104,180 +11204,180 @@
       <c r="CO64" s="1"/>
       <c r="CP64" s="1"/>
       <c r="CQ64" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="CR64" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="CR64" s="35" t="s">
+      <c r="CS64" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="CT64" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="CS64" s="34" t="s">
-        <v>490</v>
-      </c>
-      <c r="CT64" s="36" t="s">
+      <c r="CU64" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="CU64" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="CV64" s="1"/>
     </row>
     <row r="65" spans="1:100">
-      <c r="A65" s="37" t="s">
-        <v>503</v>
+      <c r="A65" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="37" t="s">
-        <v>514</v>
-      </c>
-      <c r="D65" s="37" t="s">
+      <c r="C65" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="F65" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F65" s="37" t="s">
+      <c r="G65" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="G65" s="37" t="s">
+      <c r="H65" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H65" s="37" t="s">
+      <c r="I65" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="30">
+        <v>44743</v>
+      </c>
+      <c r="P65" s="30">
+        <v>44749</v>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AU65" s="1"/>
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="26"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ65" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="I65" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="44">
-        <v>44743</v>
-      </c>
-      <c r="P65" s="44">
-        <v>44749</v>
-      </c>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
-      <c r="AA65" s="37"/>
-      <c r="AB65" s="37"/>
-      <c r="AC65" s="37"/>
-      <c r="AD65" s="37"/>
-      <c r="AE65" s="37"/>
-      <c r="AF65" s="37"/>
-      <c r="AG65" s="37"/>
-      <c r="AH65" s="37"/>
-      <c r="AI65" s="37"/>
-      <c r="AJ65" s="37"/>
-      <c r="AK65" s="37"/>
-      <c r="AL65" s="37"/>
-      <c r="AM65" s="37"/>
-      <c r="AN65" s="37"/>
-      <c r="AO65" s="37"/>
-      <c r="AP65" s="37"/>
-      <c r="AQ65" s="37"/>
-      <c r="AR65" s="37"/>
-      <c r="AS65" s="37"/>
-      <c r="AT65" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="AU65" s="37"/>
-      <c r="AV65" s="37"/>
-      <c r="AW65" s="38"/>
-      <c r="AX65" s="37"/>
-      <c r="AY65" s="37">
-        <v>1</v>
-      </c>
-      <c r="AZ65" s="37" t="s">
+      <c r="BA65" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="BA65" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="BB65" s="37">
+      <c r="BB65" s="1">
         <v>10</v>
       </c>
-      <c r="BC65" s="37">
+      <c r="BC65" s="1">
         <v>50</v>
       </c>
-      <c r="BD65" s="37"/>
-      <c r="BE65" s="37"/>
-      <c r="BF65" s="37"/>
-      <c r="BG65" s="37"/>
-      <c r="BH65" s="37"/>
-      <c r="BI65" s="37"/>
-      <c r="BJ65" s="37"/>
-      <c r="BK65" s="37"/>
-      <c r="BL65" s="37"/>
-      <c r="BM65" s="37"/>
-      <c r="BN65" s="37"/>
-      <c r="BO65" s="37"/>
-      <c r="BP65" s="37"/>
-      <c r="BQ65" s="37"/>
-      <c r="BR65" s="37"/>
-      <c r="BS65" s="37"/>
-      <c r="BT65" s="37"/>
-      <c r="BU65" s="37"/>
-      <c r="BV65" s="37"/>
-      <c r="BW65" s="37"/>
-      <c r="BX65" s="37"/>
-      <c r="BY65" s="37"/>
-      <c r="BZ65" s="37"/>
-      <c r="CA65" s="37"/>
-      <c r="CB65" s="37"/>
-      <c r="CC65" s="37"/>
-      <c r="CD65" s="37"/>
-      <c r="CE65" s="37"/>
-      <c r="CF65" s="37"/>
-      <c r="CG65" s="37"/>
-      <c r="CH65" s="37"/>
-      <c r="CI65" s="37"/>
-      <c r="CJ65" s="37"/>
-      <c r="CK65" s="37"/>
-      <c r="CL65" s="37"/>
-      <c r="CM65" s="37"/>
-      <c r="CN65" s="37"/>
-      <c r="CO65" s="37"/>
-      <c r="CP65" s="37"/>
-      <c r="CQ65" s="37"/>
-      <c r="CR65" s="45"/>
-      <c r="CS65" s="46"/>
-      <c r="CT65" s="47"/>
-      <c r="CU65" s="37"/>
+      <c r="BD65" s="1"/>
+      <c r="BE65" s="1"/>
+      <c r="BF65" s="1"/>
+      <c r="BG65" s="1"/>
+      <c r="BH65" s="1"/>
+      <c r="BI65" s="1"/>
+      <c r="BJ65" s="1"/>
+      <c r="BK65" s="1"/>
+      <c r="BL65" s="1"/>
+      <c r="BM65" s="1"/>
+      <c r="BN65" s="1"/>
+      <c r="BO65" s="1"/>
+      <c r="BP65" s="1"/>
+      <c r="BQ65" s="1"/>
+      <c r="BR65" s="1"/>
+      <c r="BS65" s="1"/>
+      <c r="BT65" s="1"/>
+      <c r="BU65" s="1"/>
+      <c r="BV65" s="1"/>
+      <c r="BW65" s="1"/>
+      <c r="BX65" s="1"/>
+      <c r="BY65" s="1"/>
+      <c r="BZ65" s="1"/>
+      <c r="CA65" s="1"/>
+      <c r="CB65" s="1"/>
+      <c r="CC65" s="1"/>
+      <c r="CD65" s="1"/>
+      <c r="CE65" s="1"/>
+      <c r="CF65" s="1"/>
+      <c r="CG65" s="1"/>
+      <c r="CH65" s="1"/>
+      <c r="CI65" s="1"/>
+      <c r="CJ65" s="1"/>
+      <c r="CK65" s="1"/>
+      <c r="CL65" s="1"/>
+      <c r="CM65" s="1"/>
+      <c r="CN65" s="1"/>
+      <c r="CO65" s="1"/>
+      <c r="CP65" s="1"/>
+      <c r="CQ65" s="1"/>
+      <c r="CR65" s="28"/>
+      <c r="CS65" s="27"/>
+      <c r="CT65" s="29"/>
+      <c r="CU65" s="1"/>
       <c r="CV65" s="1"/>
     </row>
     <row r="66" spans="1:100">
       <c r="A66" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F66" s="33" t="s">
         <v>517</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>485</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>518</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="50" t="s">
+      <c r="I66" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J66" s="1"/>
@@ -11285,8 +11385,8 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -11319,7 +11419,7 @@
       <c r="AT66" s="1"/>
       <c r="AU66" s="1"/>
       <c r="AV66" s="1"/>
-      <c r="AW66" s="32"/>
+      <c r="AW66" s="26"/>
       <c r="AX66" s="1"/>
       <c r="AY66" s="1"/>
       <c r="AZ66" s="1"/>
@@ -11366,34 +11466,34 @@
       <c r="CO66" s="1"/>
       <c r="CP66" s="1"/>
       <c r="CQ66" s="1"/>
-      <c r="CR66" s="35"/>
-      <c r="CS66" s="34"/>
-      <c r="CT66" s="36"/>
+      <c r="CR66" s="28"/>
+      <c r="CS66" s="27"/>
+      <c r="CT66" s="29"/>
       <c r="CU66" s="1"/>
       <c r="CV66" s="1"/>
     </row>
     <row r="67" spans="1:100">
       <c r="A67" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="43" t="s">
-        <v>517</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>485</v>
-      </c>
-      <c r="E67" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>519</v>
+      <c r="C67" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>518</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="50" t="s">
+      <c r="I67" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J67" s="1"/>
@@ -11401,8 +11501,8 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -11435,7 +11535,7 @@
       <c r="AT67" s="1"/>
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
-      <c r="AW67" s="32"/>
+      <c r="AW67" s="26"/>
       <c r="AX67" s="1"/>
       <c r="AY67" s="1"/>
       <c r="AZ67" s="1"/>
@@ -11482,45 +11582,45 @@
       <c r="CO67" s="1"/>
       <c r="CP67" s="1"/>
       <c r="CQ67" s="1"/>
-      <c r="CR67" s="35"/>
-      <c r="CS67" s="34"/>
-      <c r="CT67" s="36"/>
+      <c r="CR67" s="28"/>
+      <c r="CS67" s="27"/>
+      <c r="CT67" s="29"/>
       <c r="CU67" s="1"/>
-      <c r="CV67" s="37"/>
+      <c r="CV67" s="1"/>
     </row>
     <row r="68" spans="1:100" ht="45">
       <c r="A68" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D68" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E68" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F68" s="51" t="s">
+      <c r="C68" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G68" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="G68" s="52" t="s">
-        <v>522</v>
-      </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="53" t="s">
-        <v>502</v>
+      <c r="I68" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -11553,8 +11653,8 @@
       <c r="AT68" s="1"/>
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
-      <c r="AW68" s="32" t="s">
-        <v>523</v>
+      <c r="AW68" s="26" t="s">
+        <v>522</v>
       </c>
       <c r="AX68" s="1"/>
       <c r="AY68" s="1"/>
@@ -11602,47 +11702,47 @@
       <c r="CO68" s="1"/>
       <c r="CP68" s="1"/>
       <c r="CQ68" s="1"/>
-      <c r="CR68" s="35"/>
-      <c r="CS68" s="54"/>
-      <c r="CT68" s="36"/>
+      <c r="CR68" s="28"/>
+      <c r="CS68" s="37"/>
+      <c r="CT68" s="29"/>
       <c r="CU68" s="1"/>
       <c r="CV68" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:100" ht="30">
       <c r="A69" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D69" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E69" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F69" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G69" s="52" t="s">
-        <v>525</v>
+      <c r="C69" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>524</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="53" t="s">
-        <v>502</v>
+      <c r="I69" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -11675,8 +11775,8 @@
       <c r="AT69" s="1"/>
       <c r="AU69" s="1"/>
       <c r="AV69" s="1"/>
-      <c r="AW69" s="32" t="s">
-        <v>526</v>
+      <c r="AW69" s="26" t="s">
+        <v>525</v>
       </c>
       <c r="AX69" s="1"/>
       <c r="AY69" s="1"/>
@@ -11724,47 +11824,47 @@
       <c r="CO69" s="1"/>
       <c r="CP69" s="1"/>
       <c r="CQ69" s="1"/>
-      <c r="CR69" s="35"/>
-      <c r="CS69" s="54"/>
-      <c r="CT69" s="36"/>
+      <c r="CR69" s="28"/>
+      <c r="CS69" s="37"/>
+      <c r="CT69" s="29"/>
       <c r="CU69" s="1"/>
       <c r="CV69" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:100" ht="30">
       <c r="A70" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D70" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E70" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F70" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G70" s="52" t="s">
-        <v>528</v>
+      <c r="C70" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G70" s="36" t="s">
+        <v>527</v>
       </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="53" t="s">
-        <v>502</v>
+      <c r="I70" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -11797,8 +11897,8 @@
       <c r="AT70" s="1"/>
       <c r="AU70" s="1"/>
       <c r="AV70" s="1"/>
-      <c r="AW70" s="32" t="s">
-        <v>529</v>
+      <c r="AW70" s="26" t="s">
+        <v>528</v>
       </c>
       <c r="AX70" s="1"/>
       <c r="AY70" s="1"/>
@@ -11846,47 +11946,47 @@
       <c r="CO70" s="1"/>
       <c r="CP70" s="1"/>
       <c r="CQ70" s="1"/>
-      <c r="CR70" s="35"/>
-      <c r="CS70" s="54"/>
-      <c r="CT70" s="36"/>
+      <c r="CR70" s="28"/>
+      <c r="CS70" s="37"/>
+      <c r="CT70" s="29"/>
       <c r="CU70" s="1"/>
       <c r="CV70" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:100" ht="30">
       <c r="A71" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D71" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E71" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F71" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G71" s="52" t="s">
-        <v>531</v>
+      <c r="C71" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F71" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G71" s="36" t="s">
+        <v>530</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="53" t="s">
-        <v>502</v>
+      <c r="I71" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -11919,8 +12019,8 @@
       <c r="AT71" s="1"/>
       <c r="AU71" s="1"/>
       <c r="AV71" s="1"/>
-      <c r="AW71" s="32" t="s">
-        <v>532</v>
+      <c r="AW71" s="26" t="s">
+        <v>531</v>
       </c>
       <c r="AX71" s="1"/>
       <c r="AY71" s="1"/>
@@ -11968,47 +12068,47 @@
       <c r="CO71" s="1"/>
       <c r="CP71" s="1"/>
       <c r="CQ71" s="1"/>
-      <c r="CR71" s="35"/>
-      <c r="CS71" s="54"/>
-      <c r="CT71" s="36"/>
+      <c r="CR71" s="28"/>
+      <c r="CS71" s="37"/>
+      <c r="CT71" s="29"/>
       <c r="CU71" s="1"/>
       <c r="CV71" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:100">
       <c r="A72" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D72" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E72" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F72" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G72" s="52" t="s">
-        <v>534</v>
+      <c r="C72" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F72" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G72" s="36" t="s">
+        <v>533</v>
       </c>
       <c r="H72" s="1"/>
-      <c r="I72" s="53" t="s">
-        <v>502</v>
+      <c r="I72" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -12041,8 +12141,8 @@
       <c r="AT72" s="1"/>
       <c r="AU72" s="1"/>
       <c r="AV72" s="1"/>
-      <c r="AW72" s="32" t="s">
-        <v>535</v>
+      <c r="AW72" s="26" t="s">
+        <v>534</v>
       </c>
       <c r="AX72" s="1"/>
       <c r="AY72" s="1"/>
@@ -12090,47 +12190,47 @@
       <c r="CO72" s="1"/>
       <c r="CP72" s="1"/>
       <c r="CQ72" s="1"/>
-      <c r="CR72" s="35"/>
-      <c r="CS72" s="54"/>
-      <c r="CT72" s="36"/>
+      <c r="CR72" s="28"/>
+      <c r="CS72" s="37"/>
+      <c r="CT72" s="29"/>
       <c r="CU72" s="1"/>
       <c r="CV72" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:100" ht="30">
       <c r="A73" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D73" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E73" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F73" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G73" s="52" t="s">
-        <v>537</v>
+      <c r="C73" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>536</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="53" t="s">
-        <v>502</v>
+      <c r="I73" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -12163,8 +12263,8 @@
       <c r="AT73" s="1"/>
       <c r="AU73" s="1"/>
       <c r="AV73" s="1"/>
-      <c r="AW73" s="32" t="s">
-        <v>538</v>
+      <c r="AW73" s="26" t="s">
+        <v>537</v>
       </c>
       <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
@@ -12212,47 +12312,47 @@
       <c r="CO73" s="1"/>
       <c r="CP73" s="1"/>
       <c r="CQ73" s="1"/>
-      <c r="CR73" s="35"/>
-      <c r="CS73" s="54"/>
-      <c r="CT73" s="36"/>
+      <c r="CR73" s="28"/>
+      <c r="CS73" s="37"/>
+      <c r="CT73" s="29"/>
       <c r="CU73" s="1"/>
       <c r="CV73" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:100">
       <c r="A74" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E74" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F74" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G74" s="52" t="s">
-        <v>540</v>
+      <c r="C74" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G74" s="36" t="s">
+        <v>539</v>
       </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="53" t="s">
-        <v>502</v>
+      <c r="I74" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -12285,8 +12385,8 @@
       <c r="AT74" s="1"/>
       <c r="AU74" s="1"/>
       <c r="AV74" s="1"/>
-      <c r="AW74" s="32" t="s">
-        <v>541</v>
+      <c r="AW74" s="26" t="s">
+        <v>540</v>
       </c>
       <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
@@ -12334,47 +12434,47 @@
       <c r="CO74" s="1"/>
       <c r="CP74" s="1"/>
       <c r="CQ74" s="1"/>
-      <c r="CR74" s="35"/>
-      <c r="CS74" s="54"/>
-      <c r="CT74" s="36"/>
+      <c r="CR74" s="28"/>
+      <c r="CS74" s="37"/>
+      <c r="CT74" s="29"/>
       <c r="CU74" s="1"/>
       <c r="CV74" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:100">
       <c r="A75" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D75" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E75" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F75" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G75" s="52" t="s">
-        <v>543</v>
+      <c r="C75" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E75" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F75" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G75" s="36" t="s">
+        <v>542</v>
       </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="53" t="s">
-        <v>502</v>
+      <c r="I75" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="30"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -12407,8 +12507,8 @@
       <c r="AT75" s="1"/>
       <c r="AU75" s="1"/>
       <c r="AV75" s="1"/>
-      <c r="AW75" s="32" t="s">
-        <v>267</v>
+      <c r="AW75" s="26" t="s">
+        <v>266</v>
       </c>
       <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
@@ -12456,47 +12556,47 @@
       <c r="CO75" s="1"/>
       <c r="CP75" s="1"/>
       <c r="CQ75" s="1"/>
-      <c r="CR75" s="35"/>
-      <c r="CS75" s="54"/>
-      <c r="CT75" s="36"/>
+      <c r="CR75" s="28"/>
+      <c r="CS75" s="37"/>
+      <c r="CT75" s="29"/>
       <c r="CU75" s="1"/>
       <c r="CV75" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:100">
       <c r="A76" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E76" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F76" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G76" s="52" t="s">
-        <v>545</v>
+      <c r="C76" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G76" s="36" t="s">
+        <v>544</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="53" t="s">
-        <v>502</v>
+      <c r="I76" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
@@ -12529,8 +12629,8 @@
       <c r="AT76" s="1"/>
       <c r="AU76" s="1"/>
       <c r="AV76" s="1"/>
-      <c r="AW76" s="32" t="s">
-        <v>546</v>
+      <c r="AW76" s="26" t="s">
+        <v>545</v>
       </c>
       <c r="AX76" s="1"/>
       <c r="AY76" s="1"/>
@@ -12578,47 +12678,47 @@
       <c r="CO76" s="1"/>
       <c r="CP76" s="1"/>
       <c r="CQ76" s="1"/>
-      <c r="CR76" s="35"/>
-      <c r="CS76" s="54"/>
-      <c r="CT76" s="36"/>
+      <c r="CR76" s="28"/>
+      <c r="CS76" s="37"/>
+      <c r="CT76" s="29"/>
       <c r="CU76" s="1"/>
       <c r="CV76" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:100">
       <c r="A77" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D77" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E77" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F77" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G77" s="52" t="s">
-        <v>548</v>
+      <c r="C77" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E77" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F77" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G77" s="36" t="s">
+        <v>547</v>
       </c>
       <c r="H77" s="1"/>
-      <c r="I77" s="53" t="s">
-        <v>502</v>
+      <c r="I77" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -12651,8 +12751,8 @@
       <c r="AT77" s="1"/>
       <c r="AU77" s="1"/>
       <c r="AV77" s="1"/>
-      <c r="AW77" s="32" t="s">
-        <v>549</v>
+      <c r="AW77" s="26" t="s">
+        <v>548</v>
       </c>
       <c r="AX77" s="1"/>
       <c r="AY77" s="1"/>
@@ -12700,35 +12800,35 @@
       <c r="CO77" s="1"/>
       <c r="CP77" s="1"/>
       <c r="CQ77" s="1"/>
-      <c r="CR77" s="35"/>
-      <c r="CS77" s="54"/>
-      <c r="CT77" s="36"/>
+      <c r="CR77" s="28"/>
+      <c r="CS77" s="37"/>
+      <c r="CT77" s="29"/>
       <c r="CU77" s="1"/>
       <c r="CV77" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:100">
       <c r="A78" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D78" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E78" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F78" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G78" s="52" t="s">
-        <v>551</v>
+      <c r="C78" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F78" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G78" s="36" t="s">
+        <v>550</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="55" t="s">
@@ -12739,8 +12839,8 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
@@ -12773,8 +12873,8 @@
       <c r="AT78" s="1"/>
       <c r="AU78" s="1"/>
       <c r="AV78" s="1"/>
-      <c r="AW78" s="32" t="s">
-        <v>552</v>
+      <c r="AW78" s="26" t="s">
+        <v>551</v>
       </c>
       <c r="AX78" s="1"/>
       <c r="AY78" s="1"/>
@@ -12822,47 +12922,47 @@
       <c r="CO78" s="1"/>
       <c r="CP78" s="1"/>
       <c r="CQ78" s="1"/>
-      <c r="CR78" s="35"/>
-      <c r="CS78" s="54"/>
-      <c r="CT78" s="36"/>
+      <c r="CR78" s="28"/>
+      <c r="CS78" s="37"/>
+      <c r="CT78" s="29"/>
       <c r="CU78" s="1"/>
       <c r="CV78" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:100" ht="30">
       <c r="A79" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D79" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E79" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F79" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G79" s="52" t="s">
-        <v>554</v>
+      <c r="C79" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G79" s="36" t="s">
+        <v>553</v>
       </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="53" t="s">
-        <v>502</v>
+      <c r="I79" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
@@ -12895,8 +12995,8 @@
       <c r="AT79" s="1"/>
       <c r="AU79" s="1"/>
       <c r="AV79" s="1"/>
-      <c r="AW79" s="32" t="s">
-        <v>555</v>
+      <c r="AW79" s="26" t="s">
+        <v>554</v>
       </c>
       <c r="AX79" s="1"/>
       <c r="AY79" s="1"/>
@@ -12944,38 +13044,38 @@
       <c r="CO79" s="1"/>
       <c r="CP79" s="1"/>
       <c r="CQ79" s="1"/>
-      <c r="CR79" s="35"/>
-      <c r="CS79" s="54"/>
-      <c r="CT79" s="36"/>
+      <c r="CR79" s="28"/>
+      <c r="CS79" s="37"/>
+      <c r="CT79" s="29"/>
       <c r="CU79" s="1"/>
       <c r="CV79" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:100">
       <c r="A80" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D80" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E80" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F80" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G80" s="52" t="s">
-        <v>557</v>
+      <c r="C80" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F80" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G80" s="36" t="s">
+        <v>556</v>
       </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="56" t="s">
+      <c r="I80" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J80" s="1"/>
@@ -12983,8 +13083,8 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
@@ -13017,8 +13117,8 @@
       <c r="AT80" s="1"/>
       <c r="AU80" s="1"/>
       <c r="AV80" s="1"/>
-      <c r="AW80" s="32" t="s">
-        <v>558</v>
+      <c r="AW80" s="26" t="s">
+        <v>557</v>
       </c>
       <c r="AX80" s="1"/>
       <c r="AY80" s="1"/>
@@ -13066,38 +13166,38 @@
       <c r="CO80" s="1"/>
       <c r="CP80" s="1"/>
       <c r="CQ80" s="1"/>
-      <c r="CR80" s="35"/>
-      <c r="CS80" s="54"/>
-      <c r="CT80" s="36"/>
+      <c r="CR80" s="28"/>
+      <c r="CS80" s="37"/>
+      <c r="CT80" s="29"/>
       <c r="CU80" s="1"/>
       <c r="CV80" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:100">
       <c r="A81" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E81" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F81" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G81" s="52" t="s">
-        <v>560</v>
+      <c r="C81" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F81" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G81" s="36" t="s">
+        <v>559</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="56" t="s">
+      <c r="I81" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J81" s="1"/>
@@ -13105,8 +13205,8 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -13139,8 +13239,8 @@
       <c r="AT81" s="1"/>
       <c r="AU81" s="1"/>
       <c r="AV81" s="1"/>
-      <c r="AW81" s="32" t="s">
-        <v>561</v>
+      <c r="AW81" s="26" t="s">
+        <v>560</v>
       </c>
       <c r="AX81" s="1"/>
       <c r="AY81" s="1"/>
@@ -13188,38 +13288,38 @@
       <c r="CO81" s="1"/>
       <c r="CP81" s="1"/>
       <c r="CQ81" s="1"/>
-      <c r="CR81" s="35"/>
-      <c r="CS81" s="54"/>
-      <c r="CT81" s="36"/>
+      <c r="CR81" s="28"/>
+      <c r="CS81" s="37"/>
+      <c r="CT81" s="29"/>
       <c r="CU81" s="1"/>
       <c r="CV81" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:100" ht="30">
       <c r="A82" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E82" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F82" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G82" s="52" t="s">
-        <v>563</v>
+      <c r="C82" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F82" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>562</v>
       </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="56" t="s">
+      <c r="I82" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J82" s="1"/>
@@ -13227,8 +13327,8 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
@@ -13261,8 +13361,8 @@
       <c r="AT82" s="1"/>
       <c r="AU82" s="1"/>
       <c r="AV82" s="1"/>
-      <c r="AW82" s="32" t="s">
-        <v>564</v>
+      <c r="AW82" s="26" t="s">
+        <v>563</v>
       </c>
       <c r="AX82" s="1"/>
       <c r="AY82" s="1"/>
@@ -13310,38 +13410,38 @@
       <c r="CO82" s="1"/>
       <c r="CP82" s="1"/>
       <c r="CQ82" s="1"/>
-      <c r="CR82" s="35"/>
-      <c r="CS82" s="54"/>
-      <c r="CT82" s="36"/>
+      <c r="CR82" s="28"/>
+      <c r="CS82" s="37"/>
+      <c r="CT82" s="29"/>
       <c r="CU82" s="1"/>
       <c r="CV82" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:100" ht="30">
       <c r="A83" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D83" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E83" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F83" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G83" s="52" t="s">
-        <v>566</v>
+      <c r="C83" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F83" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>565</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="56" t="s">
+      <c r="I83" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J83" s="1"/>
@@ -13349,8 +13449,8 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -13383,8 +13483,8 @@
       <c r="AT83" s="1"/>
       <c r="AU83" s="1"/>
       <c r="AV83" s="1"/>
-      <c r="AW83" s="32" t="s">
-        <v>567</v>
+      <c r="AW83" s="26" t="s">
+        <v>566</v>
       </c>
       <c r="AX83" s="1"/>
       <c r="AY83" s="1"/>
@@ -13432,38 +13532,38 @@
       <c r="CO83" s="1"/>
       <c r="CP83" s="1"/>
       <c r="CQ83" s="1"/>
-      <c r="CR83" s="35"/>
-      <c r="CS83" s="54"/>
-      <c r="CT83" s="36"/>
+      <c r="CR83" s="28"/>
+      <c r="CS83" s="37"/>
+      <c r="CT83" s="29"/>
       <c r="CU83" s="1"/>
       <c r="CV83" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:100">
       <c r="A84" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E84" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F84" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G84" s="52" t="s">
-        <v>569</v>
+      <c r="C84" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F84" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G84" s="36" t="s">
+        <v>568</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="56" t="s">
+      <c r="I84" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J84" s="1"/>
@@ -13471,8 +13571,8 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="40"/>
-      <c r="P84" s="40"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -13505,8 +13605,8 @@
       <c r="AT84" s="1"/>
       <c r="AU84" s="1"/>
       <c r="AV84" s="1"/>
-      <c r="AW84" s="32" t="s">
-        <v>570</v>
+      <c r="AW84" s="26" t="s">
+        <v>569</v>
       </c>
       <c r="AX84" s="1"/>
       <c r="AY84" s="1"/>
@@ -13554,38 +13654,38 @@
       <c r="CO84" s="1"/>
       <c r="CP84" s="1"/>
       <c r="CQ84" s="1"/>
-      <c r="CR84" s="35"/>
-      <c r="CS84" s="54"/>
-      <c r="CT84" s="36"/>
+      <c r="CR84" s="28"/>
+      <c r="CS84" s="37"/>
+      <c r="CT84" s="29"/>
       <c r="CU84" s="1"/>
       <c r="CV84" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:100">
       <c r="A85" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E85" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F85" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G85" s="52" t="s">
-        <v>572</v>
+      <c r="C85" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F85" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G85" s="36" t="s">
+        <v>571</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="56" t="s">
+      <c r="I85" s="55" t="s">
         <v>172</v>
       </c>
       <c r="J85" s="1"/>
@@ -13593,8 +13693,8 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
-      <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -13627,8 +13727,8 @@
       <c r="AT85" s="1"/>
       <c r="AU85" s="1"/>
       <c r="AV85" s="1"/>
-      <c r="AW85" s="32" t="s">
-        <v>573</v>
+      <c r="AW85" s="26" t="s">
+        <v>572</v>
       </c>
       <c r="AX85" s="1"/>
       <c r="AY85" s="1"/>
@@ -13676,47 +13776,47 @@
       <c r="CO85" s="1"/>
       <c r="CP85" s="1"/>
       <c r="CQ85" s="1"/>
-      <c r="CR85" s="35"/>
-      <c r="CS85" s="54"/>
-      <c r="CT85" s="36"/>
+      <c r="CR85" s="28"/>
+      <c r="CS85" s="37"/>
+      <c r="CT85" s="29"/>
       <c r="CU85" s="1"/>
       <c r="CV85" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:100">
       <c r="A86" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D86" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E86" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F86" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G86" s="52" t="s">
-        <v>575</v>
+      <c r="C86" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E86" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G86" s="36" t="s">
+        <v>574</v>
       </c>
       <c r="H86" s="1"/>
-      <c r="I86" s="53" t="s">
-        <v>502</v>
+      <c r="I86" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -13749,8 +13849,8 @@
       <c r="AT86" s="1"/>
       <c r="AU86" s="1"/>
       <c r="AV86" s="1"/>
-      <c r="AW86" s="32" t="s">
-        <v>576</v>
+      <c r="AW86" s="26" t="s">
+        <v>575</v>
       </c>
       <c r="AX86" s="1"/>
       <c r="AY86" s="1"/>
@@ -13798,47 +13898,47 @@
       <c r="CO86" s="1"/>
       <c r="CP86" s="1"/>
       <c r="CQ86" s="1"/>
-      <c r="CR86" s="35"/>
-      <c r="CS86" s="54"/>
-      <c r="CT86" s="36"/>
+      <c r="CR86" s="28"/>
+      <c r="CS86" s="37"/>
+      <c r="CT86" s="29"/>
       <c r="CU86" s="1"/>
       <c r="CV86" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:100" ht="30">
       <c r="A87" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D87" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E87" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F87" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G87" s="52" t="s">
-        <v>578</v>
+      <c r="C87" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>577</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="53" t="s">
-        <v>502</v>
+      <c r="I87" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
+      <c r="O87" s="30"/>
+      <c r="P87" s="30"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
@@ -13871,8 +13971,8 @@
       <c r="AT87" s="1"/>
       <c r="AU87" s="1"/>
       <c r="AV87" s="1"/>
-      <c r="AW87" s="32" t="s">
-        <v>579</v>
+      <c r="AW87" s="26" t="s">
+        <v>578</v>
       </c>
       <c r="AX87" s="1"/>
       <c r="AY87" s="1"/>
@@ -13920,47 +14020,47 @@
       <c r="CO87" s="1"/>
       <c r="CP87" s="1"/>
       <c r="CQ87" s="1"/>
-      <c r="CR87" s="35"/>
-      <c r="CS87" s="54"/>
-      <c r="CT87" s="36"/>
+      <c r="CR87" s="28"/>
+      <c r="CS87" s="37"/>
+      <c r="CT87" s="29"/>
       <c r="CU87" s="1"/>
       <c r="CV87" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:100" ht="30">
       <c r="A88" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E88" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F88" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G88" s="52" t="s">
-        <v>581</v>
+      <c r="C88" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E88" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F88" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G88" s="36" t="s">
+        <v>580</v>
       </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="53" t="s">
-        <v>502</v>
+      <c r="I88" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
@@ -13993,8 +14093,8 @@
       <c r="AT88" s="1"/>
       <c r="AU88" s="1"/>
       <c r="AV88" s="1"/>
-      <c r="AW88" s="32" t="s">
-        <v>582</v>
+      <c r="AW88" s="26" t="s">
+        <v>581</v>
       </c>
       <c r="AX88" s="1"/>
       <c r="AY88" s="1"/>
@@ -14042,47 +14142,47 @@
       <c r="CO88" s="1"/>
       <c r="CP88" s="1"/>
       <c r="CQ88" s="1"/>
-      <c r="CR88" s="35"/>
-      <c r="CS88" s="54"/>
-      <c r="CT88" s="36"/>
+      <c r="CR88" s="28"/>
+      <c r="CS88" s="37"/>
+      <c r="CT88" s="29"/>
       <c r="CU88" s="1"/>
       <c r="CV88" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:100">
       <c r="A89" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D89" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E89" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F89" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G89" s="52" t="s">
-        <v>584</v>
+      <c r="C89" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E89" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F89" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>583</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="53" t="s">
-        <v>502</v>
+      <c r="I89" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -14115,8 +14215,8 @@
       <c r="AT89" s="1"/>
       <c r="AU89" s="1"/>
       <c r="AV89" s="1"/>
-      <c r="AW89" s="32" t="s">
-        <v>585</v>
+      <c r="AW89" s="26" t="s">
+        <v>584</v>
       </c>
       <c r="AX89" s="1"/>
       <c r="AY89" s="1"/>
@@ -14164,47 +14264,47 @@
       <c r="CO89" s="1"/>
       <c r="CP89" s="1"/>
       <c r="CQ89" s="1"/>
-      <c r="CR89" s="35"/>
-      <c r="CS89" s="54"/>
-      <c r="CT89" s="36"/>
+      <c r="CR89" s="28"/>
+      <c r="CS89" s="37"/>
+      <c r="CT89" s="29"/>
       <c r="CU89" s="1"/>
       <c r="CV89" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:100" ht="30">
       <c r="A90" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D90" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E90" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F90" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G90" s="52" t="s">
-        <v>587</v>
+      <c r="C90" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E90" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F90" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G90" s="36" t="s">
+        <v>586</v>
       </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="53" t="s">
-        <v>502</v>
+      <c r="I90" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-      <c r="O90" s="40"/>
-      <c r="P90" s="40"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
@@ -14237,8 +14337,8 @@
       <c r="AT90" s="1"/>
       <c r="AU90" s="1"/>
       <c r="AV90" s="1"/>
-      <c r="AW90" s="32" t="s">
-        <v>588</v>
+      <c r="AW90" s="26" t="s">
+        <v>587</v>
       </c>
       <c r="AX90" s="1"/>
       <c r="AY90" s="1"/>
@@ -14286,47 +14386,47 @@
       <c r="CO90" s="1"/>
       <c r="CP90" s="1"/>
       <c r="CQ90" s="1"/>
-      <c r="CR90" s="35"/>
-      <c r="CS90" s="54"/>
-      <c r="CT90" s="36"/>
+      <c r="CR90" s="28"/>
+      <c r="CS90" s="37"/>
+      <c r="CT90" s="29"/>
       <c r="CU90" s="1"/>
       <c r="CV90" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:100" ht="30">
       <c r="A91" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D91" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="E91" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F91" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="G91" s="52" t="s">
-        <v>590</v>
+      <c r="C91" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E91" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F91" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G91" s="36" t="s">
+        <v>589</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="I91" s="53" t="s">
-        <v>502</v>
+      <c r="I91" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -14359,8 +14459,8 @@
       <c r="AT91" s="1"/>
       <c r="AU91" s="1"/>
       <c r="AV91" s="1"/>
-      <c r="AW91" s="32" t="s">
-        <v>591</v>
+      <c r="AW91" s="26" t="s">
+        <v>590</v>
       </c>
       <c r="AX91" s="1"/>
       <c r="AY91" s="1"/>
@@ -14408,47 +14508,49 @@
       <c r="CO91" s="1"/>
       <c r="CP91" s="1"/>
       <c r="CQ91" s="1"/>
-      <c r="CR91" s="35"/>
-      <c r="CS91" s="54"/>
-      <c r="CT91" s="36"/>
+      <c r="CR91" s="28"/>
+      <c r="CS91" s="37"/>
+      <c r="CT91" s="29"/>
       <c r="CU91" s="1"/>
       <c r="CV91" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:100">
       <c r="A92" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="D92" s="51" t="s">
-        <v>504</v>
-      </c>
-      <c r="E92" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E92" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="51" t="s">
-        <v>593</v>
-      </c>
-      <c r="G92" s="52" t="s">
-        <v>597</v>
+      <c r="F92" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="G92" s="36" t="s">
+        <v>596</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="53"/>
+      <c r="I92" s="55" t="s">
+        <v>172</v>
+      </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="P92" s="40"/>
+      <c r="O92" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="P92" s="30"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -14479,18 +14581,18 @@
       <c r="AR92" s="1"/>
       <c r="AS92" s="1"/>
       <c r="AT92" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AU92" s="1"/>
       <c r="AV92" s="1"/>
-      <c r="AW92" s="32"/>
+      <c r="AW92" s="26"/>
       <c r="AX92" s="1"/>
       <c r="AY92" s="1">
         <v>1</v>
       </c>
       <c r="AZ92" s="1"/>
       <c r="BA92" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="BB92" s="1"/>
       <c r="BC92" s="1"/>
@@ -14534,9 +14636,9 @@
       <c r="CO92" s="1"/>
       <c r="CP92" s="1"/>
       <c r="CQ92" s="1"/>
-      <c r="CR92" s="35"/>
-      <c r="CS92" s="54"/>
-      <c r="CT92" s="36"/>
+      <c r="CR92" s="28"/>
+      <c r="CS92" s="37"/>
+      <c r="CT92" s="29"/>
       <c r="CU92" s="1"/>
       <c r="CV92" s="1"/>
     </row>
@@ -14550,8 +14652,9 @@
     <hyperlink ref="CT12" r:id="rId5"/>
     <hyperlink ref="W11:W13" r:id="rId6" display="aansari1@zarca.com"/>
     <hyperlink ref="CT13" r:id="rId7"/>
+    <hyperlink ref="CS5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
+++ b/Engage/Research-Smoke/src/main/resources/excelfiles/Research_Smoke.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2250448B-94E1-423F-BE42-9155A94AE4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="726">
   <si>
     <t>Environment</t>
   </si>
@@ -2280,11 +2279,20 @@
   <si>
     <t>Failure Reason</t>
   </si>
+  <si>
+    <t>Online Surveys, Online Survey Tool, Online Survey Software, Web Survey Tool</t>
+  </si>
+  <si>
+    <t>https://www.zarca.com/index.html</t>
+  </si>
+  <si>
+    <t>From Sogolytics: Reset Password</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -2330,11 +2338,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2359,6 +2369,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2568,12 +2579,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="4"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2850,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2892,7 +2903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2930,14 +2941,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -3068,22 +3079,22 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CY135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="BY52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CR66" sqref="CR66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4032,7 +4043,7 @@
         <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>512</v>
@@ -5616,7 +5627,7 @@
         <v>229</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>512</v>
@@ -11703,7 +11714,7 @@
       <c r="CS64" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="CT64" s="29" t="s">
+      <c r="CT64" s="32" t="s">
         <v>493</v>
       </c>
       <c r="CU64" s="1" t="s">
@@ -11858,7 +11869,7 @@
         <v>513</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>515</v>
@@ -11878,13 +11889,23 @@
         <v>172</v>
       </c>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="K66" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="M66" s="1">
+        <v>80</v>
+      </c>
+      <c r="N66" s="1">
+        <v>5</v>
+      </c>
       <c r="O66" s="30"/>
       <c r="P66" s="30"/>
-      <c r="Q66" s="1"/>
+      <c r="Q66" s="1">
+        <v>60</v>
+      </c>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
@@ -11963,10 +11984,18 @@
       <c r="CO66" s="1"/>
       <c r="CP66" s="1"/>
       <c r="CQ66" s="1"/>
-      <c r="CR66" s="28"/>
-      <c r="CS66" s="27"/>
-      <c r="CT66" s="29"/>
-      <c r="CU66" s="1"/>
+      <c r="CR66" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="CS66" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="CT66" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="CU66" s="1" t="s">
+        <v>725</v>
+      </c>
       <c r="CV66" s="1"/>
       <c r="CW66" s="58"/>
       <c r="CX66" s="1"/>
@@ -20594,17 +20623,19 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="CT10" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="CT11" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="CT12" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="W11:W13" r:id="rId6" display="aansari1@zarca.com" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="CT13" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="CS5" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="W97" r:id="rId9" xr:uid="{E4CD2197-D8D5-42D0-ABDB-BD3533E9B97F}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="W10" r:id="rId2" display="aansari1@zarca.com"/>
+    <hyperlink ref="CT10" r:id="rId3"/>
+    <hyperlink ref="CT11" r:id="rId4"/>
+    <hyperlink ref="CT12" r:id="rId5"/>
+    <hyperlink ref="W11:W13" r:id="rId6" display="aansari1@zarca.com"/>
+    <hyperlink ref="CT13" r:id="rId7"/>
+    <hyperlink ref="CS5" r:id="rId8"/>
+    <hyperlink ref="W97" r:id="rId9"/>
+    <hyperlink ref="L66" r:id="rId10"/>
+    <hyperlink ref="CT64" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>